--- a/covid19/data/USCaseDeathBeds.xlsx
+++ b/covid19/data/USCaseDeathBeds.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Deaths" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$274</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$275</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="280">
   <si>
     <t>date</t>
   </si>
@@ -867,6 +867,9 @@
   </si>
   <si>
     <t>2020-10-20</t>
+  </si>
+  <si>
+    <t>2020-10-21</t>
   </si>
 </sst>
 </file>
@@ -952,9 +955,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$274</c:f>
+              <c:f>Data!$A$2:$A$275</c:f>
               <c:strCache>
-                <c:ptCount val="273"/>
+                <c:ptCount val="274"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -1773,16 +1776,19 @@
                 </c:pt>
                 <c:pt idx="272">
                   <c:v>2020-10-20</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>2020-10-21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$274</c:f>
+              <c:f>Data!$B$2:$B$275</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="273"/>
+                <c:ptCount val="274"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2600,7 +2606,10 @@
                   <c:v>8171703</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>8232285</c:v>
+                  <c:v>8232367</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>8289661</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2617,11 +2626,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="74252672"/>
-        <c:axId val="74254208"/>
+        <c:axId val="80548224"/>
+        <c:axId val="80549760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74252672"/>
+        <c:axId val="80548224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2631,7 +2640,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74254208"/>
+        <c:crossAx val="80549760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2639,7 +2648,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74254208"/>
+        <c:axId val="80549760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2650,7 +2659,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74252672"/>
+        <c:crossAx val="80548224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2705,9 +2714,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$274</c:f>
+              <c:f>Data!$A$2:$A$275</c:f>
               <c:strCache>
-                <c:ptCount val="273"/>
+                <c:ptCount val="274"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -3526,16 +3535,19 @@
                 </c:pt>
                 <c:pt idx="272">
                   <c:v>2020-10-20</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>2020-10-21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$2:$D$274</c:f>
+              <c:f>Data!$D$2:$D$275</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="273"/>
+                <c:ptCount val="274"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4354,6 +4366,9 @@
                 </c:pt>
                 <c:pt idx="272">
                   <c:v>39230</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>40271</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4370,11 +4385,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="74533120"/>
-        <c:axId val="74539008"/>
+        <c:axId val="80836864"/>
+        <c:axId val="80838656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74533120"/>
+        <c:axId val="80836864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4384,7 +4399,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74539008"/>
+        <c:crossAx val="80838656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4392,7 +4407,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74539008"/>
+        <c:axId val="80838656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4403,7 +4418,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74533120"/>
+        <c:crossAx val="80836864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4458,9 +4473,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$274</c:f>
+              <c:f>Data!$A$2:$A$275</c:f>
               <c:strCache>
-                <c:ptCount val="273"/>
+                <c:ptCount val="274"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -5279,16 +5294,19 @@
                 </c:pt>
                 <c:pt idx="272">
                   <c:v>2020-10-20</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>2020-10-21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$274</c:f>
+              <c:f>Data!$E$2:$E$275</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="273"/>
+                <c:ptCount val="274"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6107,6 +6125,9 @@
                 </c:pt>
                 <c:pt idx="272">
                   <c:v>8178</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>8182</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6123,11 +6144,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="74572160"/>
-        <c:axId val="74573696"/>
+        <c:axId val="80871808"/>
+        <c:axId val="80873344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74572160"/>
+        <c:axId val="80871808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6137,7 +6158,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74573696"/>
+        <c:crossAx val="80873344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6145,7 +6166,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74573696"/>
+        <c:axId val="80873344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6156,7 +6177,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74572160"/>
+        <c:crossAx val="80871808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6211,9 +6232,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$274</c:f>
+              <c:f>Data!$A$2:$A$275</c:f>
               <c:strCache>
-                <c:ptCount val="273"/>
+                <c:ptCount val="274"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -7032,16 +7053,19 @@
                 </c:pt>
                 <c:pt idx="272">
                   <c:v>2020-10-20</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>2020-10-21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$274</c:f>
+              <c:f>Data!$F$2:$F$275</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="273"/>
+                <c:ptCount val="274"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7860,6 +7884,9 @@
                 </c:pt>
                 <c:pt idx="272">
                   <c:v>1889</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>1920</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7876,11 +7903,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="74623232"/>
-        <c:axId val="74653696"/>
+        <c:axId val="80918784"/>
+        <c:axId val="80949248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74623232"/>
+        <c:axId val="80918784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7890,7 +7917,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74653696"/>
+        <c:crossAx val="80949248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7898,7 +7925,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74653696"/>
+        <c:axId val="80949248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7909,7 +7936,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74623232"/>
+        <c:crossAx val="80918784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7965,9 +7992,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$274</c:f>
+              <c:f>Data!$A$2:$A$275</c:f>
               <c:strCache>
-                <c:ptCount val="273"/>
+                <c:ptCount val="274"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -8786,16 +8813,19 @@
                 </c:pt>
                 <c:pt idx="272">
                   <c:v>2020-10-20</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>2020-10-21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$274</c:f>
+              <c:f>Data!$C$2:$C$275</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="273"/>
+                <c:ptCount val="274"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9614,6 +9644,9 @@
                 </c:pt>
                 <c:pt idx="272">
                   <c:v>212678</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>213672</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9630,11 +9663,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="74701056"/>
-        <c:axId val="74702848"/>
+        <c:axId val="80992128"/>
+        <c:axId val="80993664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74701056"/>
+        <c:axId val="80992128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9644,7 +9677,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74702848"/>
+        <c:crossAx val="80993664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9652,7 +9685,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74702848"/>
+        <c:axId val="80993664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9663,7 +9696,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74701056"/>
+        <c:crossAx val="80992128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9876,9 +9909,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F274" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F274"/>
-  <sortState ref="A2:F274">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F275" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F275"/>
+  <sortState ref="A2:F275">
     <sortCondition ref="A1:A254"/>
   </sortState>
   <tableColumns count="6">
@@ -10180,7 +10213,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F274"/>
+  <dimension ref="A1:F275"/>
   <sheetViews>
     <sheetView topLeftCell="A224" workbookViewId="0">
       <selection activeCell="J235" sqref="J235"/>
@@ -15661,7 +15694,7 @@
         <v>278</v>
       </c>
       <c r="B274">
-        <v>8232285</v>
+        <v>8232367</v>
       </c>
       <c r="C274">
         <v>212678</v>
@@ -15674,6 +15707,26 @@
       </c>
       <c r="F274">
         <v>1889</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>279</v>
+      </c>
+      <c r="B275">
+        <v>8289661</v>
+      </c>
+      <c r="C275">
+        <v>213672</v>
+      </c>
+      <c r="D275">
+        <v>40271</v>
+      </c>
+      <c r="E275">
+        <v>8182</v>
+      </c>
+      <c r="F275">
+        <v>1920</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathBeds.xlsx
+++ b/covid19/data/USCaseDeathBeds.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Deaths" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$275</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$276</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="281">
   <si>
     <t>date</t>
   </si>
@@ -870,6 +870,9 @@
   </si>
   <si>
     <t>2020-10-21</t>
+  </si>
+  <si>
+    <t>2020-10-22</t>
   </si>
 </sst>
 </file>
@@ -955,9 +958,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$275</c:f>
+              <c:f>Data!$A$2:$A$276</c:f>
               <c:strCache>
-                <c:ptCount val="274"/>
+                <c:ptCount val="275"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -1779,16 +1782,19 @@
                 </c:pt>
                 <c:pt idx="273">
                   <c:v>2020-10-21</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>2020-10-22</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$275</c:f>
+              <c:f>Data!$B$2:$B$276</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="274"/>
+                <c:ptCount val="275"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2610,6 +2616,9 @@
                 </c:pt>
                 <c:pt idx="273">
                   <c:v>8289661</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>8366221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2626,11 +2635,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="80548224"/>
-        <c:axId val="80549760"/>
+        <c:axId val="74191232"/>
+        <c:axId val="74192768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80548224"/>
+        <c:axId val="74191232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2640,7 +2649,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80549760"/>
+        <c:crossAx val="74192768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2648,7 +2657,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80549760"/>
+        <c:axId val="74192768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2659,7 +2668,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80548224"/>
+        <c:crossAx val="74191232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2714,9 +2723,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$275</c:f>
+              <c:f>Data!$A$2:$A$276</c:f>
               <c:strCache>
-                <c:ptCount val="274"/>
+                <c:ptCount val="275"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -3538,16 +3547,19 @@
                 </c:pt>
                 <c:pt idx="273">
                   <c:v>2020-10-21</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>2020-10-22</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$2:$D$275</c:f>
+              <c:f>Data!$D$2:$D$276</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="274"/>
+                <c:ptCount val="275"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4369,6 +4381,9 @@
                 </c:pt>
                 <c:pt idx="273">
                   <c:v>40271</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>41010</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4385,11 +4400,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="80836864"/>
-        <c:axId val="80838656"/>
+        <c:axId val="74479872"/>
+        <c:axId val="74485760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80836864"/>
+        <c:axId val="74479872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4399,7 +4414,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80838656"/>
+        <c:crossAx val="74485760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4407,7 +4422,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80838656"/>
+        <c:axId val="74485760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4418,7 +4433,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80836864"/>
+        <c:crossAx val="74479872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4473,9 +4488,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$275</c:f>
+              <c:f>Data!$A$2:$A$276</c:f>
               <c:strCache>
-                <c:ptCount val="274"/>
+                <c:ptCount val="275"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -5297,16 +5312,19 @@
                 </c:pt>
                 <c:pt idx="273">
                   <c:v>2020-10-21</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>2020-10-22</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$275</c:f>
+              <c:f>Data!$E$2:$E$276</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="274"/>
+                <c:ptCount val="275"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6128,6 +6146,9 @@
                 </c:pt>
                 <c:pt idx="273">
                   <c:v>8182</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>8086</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6144,11 +6165,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="80871808"/>
-        <c:axId val="80873344"/>
+        <c:axId val="74518912"/>
+        <c:axId val="74520448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80871808"/>
+        <c:axId val="74518912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6158,7 +6179,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80873344"/>
+        <c:crossAx val="74520448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6166,7 +6187,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80873344"/>
+        <c:axId val="74520448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6177,7 +6198,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80871808"/>
+        <c:crossAx val="74518912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6232,9 +6253,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$275</c:f>
+              <c:f>Data!$A$2:$A$276</c:f>
               <c:strCache>
-                <c:ptCount val="274"/>
+                <c:ptCount val="275"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -7056,16 +7077,19 @@
                 </c:pt>
                 <c:pt idx="273">
                   <c:v>2020-10-21</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>2020-10-22</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$275</c:f>
+              <c:f>Data!$F$2:$F$276</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="274"/>
+                <c:ptCount val="275"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7887,6 +7911,9 @@
                 </c:pt>
                 <c:pt idx="273">
                   <c:v>1920</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>2147</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7903,11 +7930,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="80918784"/>
-        <c:axId val="80949248"/>
+        <c:axId val="74565888"/>
+        <c:axId val="74592256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80918784"/>
+        <c:axId val="74565888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7917,7 +7944,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80949248"/>
+        <c:crossAx val="74592256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7925,7 +7952,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80949248"/>
+        <c:axId val="74592256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7936,7 +7963,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80918784"/>
+        <c:crossAx val="74565888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7992,9 +8019,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$275</c:f>
+              <c:f>Data!$A$2:$A$276</c:f>
               <c:strCache>
-                <c:ptCount val="274"/>
+                <c:ptCount val="275"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -8816,16 +8843,19 @@
                 </c:pt>
                 <c:pt idx="273">
                   <c:v>2020-10-21</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>2020-10-22</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$275</c:f>
+              <c:f>Data!$C$2:$C$276</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="274"/>
+                <c:ptCount val="275"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9647,6 +9677,9 @@
                 </c:pt>
                 <c:pt idx="273">
                   <c:v>213672</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>214845</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9663,11 +9696,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="80992128"/>
-        <c:axId val="80993664"/>
+        <c:axId val="74638080"/>
+        <c:axId val="74639616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80992128"/>
+        <c:axId val="74638080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9677,7 +9710,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80993664"/>
+        <c:crossAx val="74639616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9685,7 +9718,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80993664"/>
+        <c:axId val="74639616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9696,7 +9729,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80992128"/>
+        <c:crossAx val="74638080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9909,9 +9942,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F275" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F275"/>
-  <sortState ref="A2:F275">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F276" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F276"/>
+  <sortState ref="A2:F276">
     <sortCondition ref="A1:A254"/>
   </sortState>
   <tableColumns count="6">
@@ -10213,7 +10246,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F275"/>
+  <dimension ref="A1:F276"/>
   <sheetViews>
     <sheetView topLeftCell="A224" workbookViewId="0">
       <selection activeCell="J235" sqref="J235"/>
@@ -15727,6 +15760,26 @@
       </c>
       <c r="F275">
         <v>1920</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>280</v>
+      </c>
+      <c r="B276">
+        <v>8366221</v>
+      </c>
+      <c r="C276">
+        <v>214845</v>
+      </c>
+      <c r="D276">
+        <v>41010</v>
+      </c>
+      <c r="E276">
+        <v>8086</v>
+      </c>
+      <c r="F276">
+        <v>2147</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathBeds.xlsx
+++ b/covid19/data/USCaseDeathBeds.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Deaths" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$276</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$277</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="282">
   <si>
     <t>date</t>
   </si>
@@ -873,6 +873,9 @@
   </si>
   <si>
     <t>2020-10-22</t>
+  </si>
+  <si>
+    <t>2020-10-23</t>
   </si>
 </sst>
 </file>
@@ -958,9 +961,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$276</c:f>
+              <c:f>Data!$A$2:$A$277</c:f>
               <c:strCache>
-                <c:ptCount val="275"/>
+                <c:ptCount val="276"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -1785,16 +1788,19 @@
                 </c:pt>
                 <c:pt idx="274">
                   <c:v>2020-10-22</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>2020-10-23</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$276</c:f>
+              <c:f>Data!$B$2:$B$277</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="275"/>
+                <c:ptCount val="276"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2615,10 +2621,13 @@
                   <c:v>8232367</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>8289661</c:v>
+                  <c:v>8290973</c:v>
                 </c:pt>
                 <c:pt idx="274">
                   <c:v>8366221</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>8449231</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2635,11 +2644,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="74191232"/>
-        <c:axId val="74192768"/>
+        <c:axId val="75702656"/>
+        <c:axId val="75704192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74191232"/>
+        <c:axId val="75702656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2649,7 +2658,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74192768"/>
+        <c:crossAx val="75704192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2657,7 +2666,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74192768"/>
+        <c:axId val="75704192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2668,7 +2677,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74191232"/>
+        <c:crossAx val="75702656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2723,9 +2732,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$276</c:f>
+              <c:f>Data!$A$2:$A$277</c:f>
               <c:strCache>
-                <c:ptCount val="275"/>
+                <c:ptCount val="276"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -3550,16 +3559,19 @@
                 </c:pt>
                 <c:pt idx="274">
                   <c:v>2020-10-22</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>2020-10-23</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$2:$D$276</c:f>
+              <c:f>Data!$D$2:$D$277</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="275"/>
+                <c:ptCount val="276"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4384,6 +4396,9 @@
                 </c:pt>
                 <c:pt idx="274">
                   <c:v>41010</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>41485</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4400,11 +4415,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="74479872"/>
-        <c:axId val="74485760"/>
+        <c:axId val="75995392"/>
+        <c:axId val="75997184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74479872"/>
+        <c:axId val="75995392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4414,7 +4429,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74485760"/>
+        <c:crossAx val="75997184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4422,7 +4437,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74485760"/>
+        <c:axId val="75997184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4433,7 +4448,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74479872"/>
+        <c:crossAx val="75995392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4488,9 +4503,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$276</c:f>
+              <c:f>Data!$A$2:$A$277</c:f>
               <c:strCache>
-                <c:ptCount val="275"/>
+                <c:ptCount val="276"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -5315,16 +5330,19 @@
                 </c:pt>
                 <c:pt idx="274">
                   <c:v>2020-10-22</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>2020-10-23</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$276</c:f>
+              <c:f>Data!$E$2:$E$277</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="275"/>
+                <c:ptCount val="276"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6142,13 +6160,16 @@
                   <c:v>7997</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>8178</c:v>
+                  <c:v>8131</c:v>
                 </c:pt>
                 <c:pt idx="273">
                   <c:v>8182</c:v>
                 </c:pt>
                 <c:pt idx="274">
                   <c:v>8086</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>8237</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6165,11 +6186,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="74518912"/>
-        <c:axId val="74520448"/>
+        <c:axId val="76026240"/>
+        <c:axId val="76027776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74518912"/>
+        <c:axId val="76026240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6179,7 +6200,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74520448"/>
+        <c:crossAx val="76027776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6187,7 +6208,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74520448"/>
+        <c:axId val="76027776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6198,7 +6219,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74518912"/>
+        <c:crossAx val="76026240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6253,9 +6274,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$276</c:f>
+              <c:f>Data!$A$2:$A$277</c:f>
               <c:strCache>
-                <c:ptCount val="275"/>
+                <c:ptCount val="276"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -7080,16 +7101,19 @@
                 </c:pt>
                 <c:pt idx="274">
                   <c:v>2020-10-22</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>2020-10-23</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$276</c:f>
+              <c:f>Data!$F$2:$F$277</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="275"/>
+                <c:ptCount val="276"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7907,13 +7931,16 @@
                   <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>1889</c:v>
+                  <c:v>2045</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>1920</c:v>
+                  <c:v>2090</c:v>
                 </c:pt>
                 <c:pt idx="274">
                   <c:v>2147</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>2180</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7930,11 +7957,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="74565888"/>
-        <c:axId val="74592256"/>
+        <c:axId val="76073216"/>
+        <c:axId val="76103680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74565888"/>
+        <c:axId val="76073216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7944,7 +7971,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74592256"/>
+        <c:crossAx val="76103680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7952,7 +7979,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74592256"/>
+        <c:axId val="76103680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7963,7 +7990,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74565888"/>
+        <c:crossAx val="76073216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8019,9 +8046,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$276</c:f>
+              <c:f>Data!$A$2:$A$277</c:f>
               <c:strCache>
-                <c:ptCount val="275"/>
+                <c:ptCount val="276"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -8846,16 +8873,19 @@
                 </c:pt>
                 <c:pt idx="274">
                   <c:v>2020-10-22</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>2020-10-23</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$276</c:f>
+              <c:f>Data!$C$2:$C$277</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="275"/>
+                <c:ptCount val="276"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9676,10 +9706,13 @@
                   <c:v>212678</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>213672</c:v>
+                  <c:v>213702</c:v>
                 </c:pt>
                 <c:pt idx="274">
                   <c:v>214845</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>215761</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9696,11 +9729,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="74638080"/>
-        <c:axId val="74639616"/>
+        <c:axId val="76145024"/>
+        <c:axId val="76146560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74638080"/>
+        <c:axId val="76145024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9710,7 +9743,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74639616"/>
+        <c:crossAx val="76146560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9718,7 +9751,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74639616"/>
+        <c:axId val="76146560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9729,7 +9762,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74638080"/>
+        <c:crossAx val="76145024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9942,9 +9975,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F276" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F276"/>
-  <sortState ref="A2:F276">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F277" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F277"/>
+  <sortState ref="A2:F277">
     <sortCondition ref="A1:A254"/>
   </sortState>
   <tableColumns count="6">
@@ -10246,7 +10279,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F276"/>
+  <dimension ref="A1:F277"/>
   <sheetViews>
     <sheetView topLeftCell="A224" workbookViewId="0">
       <selection activeCell="J235" sqref="J235"/>
@@ -15736,10 +15769,10 @@
         <v>39230</v>
       </c>
       <c r="E274">
-        <v>8178</v>
+        <v>8131</v>
       </c>
       <c r="F274">
-        <v>1889</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
@@ -15747,10 +15780,10 @@
         <v>279</v>
       </c>
       <c r="B275">
-        <v>8289661</v>
+        <v>8290973</v>
       </c>
       <c r="C275">
-        <v>213672</v>
+        <v>213702</v>
       </c>
       <c r="D275">
         <v>40271</v>
@@ -15759,7 +15792,7 @@
         <v>8182</v>
       </c>
       <c r="F275">
-        <v>1920</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
@@ -15780,6 +15813,26 @@
       </c>
       <c r="F276">
         <v>2147</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>281</v>
+      </c>
+      <c r="B277">
+        <v>8449231</v>
+      </c>
+      <c r="C277">
+        <v>215761</v>
+      </c>
+      <c r="D277">
+        <v>41485</v>
+      </c>
+      <c r="E277">
+        <v>8237</v>
+      </c>
+      <c r="F277">
+        <v>2180</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathBeds.xlsx
+++ b/covid19/data/USCaseDeathBeds.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Deaths" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$277</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$278</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="283">
   <si>
     <t>date</t>
   </si>
@@ -876,6 +876,9 @@
   </si>
   <si>
     <t>2020-10-23</t>
+  </si>
+  <si>
+    <t>2020-10-24</t>
   </si>
 </sst>
 </file>
@@ -961,9 +964,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$277</c:f>
+              <c:f>Data!$A$2:$A$278</c:f>
               <c:strCache>
-                <c:ptCount val="276"/>
+                <c:ptCount val="277"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -1791,16 +1794,19 @@
                 </c:pt>
                 <c:pt idx="275">
                   <c:v>2020-10-23</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>2020-10-24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$277</c:f>
+              <c:f>Data!$B$2:$B$278</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="276"/>
+                <c:ptCount val="277"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2628,6 +2634,9 @@
                 </c:pt>
                 <c:pt idx="275">
                   <c:v>8449231</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>8531899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2644,11 +2653,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="75702656"/>
-        <c:axId val="75704192"/>
+        <c:axId val="78524800"/>
+        <c:axId val="78526336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75702656"/>
+        <c:axId val="78524800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2658,7 +2667,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75704192"/>
+        <c:crossAx val="78526336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2666,7 +2675,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75704192"/>
+        <c:axId val="78526336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2677,7 +2686,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75702656"/>
+        <c:crossAx val="78524800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2732,9 +2741,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$277</c:f>
+              <c:f>Data!$A$2:$A$278</c:f>
               <c:strCache>
-                <c:ptCount val="276"/>
+                <c:ptCount val="277"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -3562,16 +3571,19 @@
                 </c:pt>
                 <c:pt idx="275">
                   <c:v>2020-10-23</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>2020-10-24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$2:$D$277</c:f>
+              <c:f>Data!$D$2:$D$278</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="276"/>
+                <c:ptCount val="277"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4399,6 +4411,9 @@
                 </c:pt>
                 <c:pt idx="275">
                   <c:v>41485</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>41882</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4415,11 +4430,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="75995392"/>
-        <c:axId val="75997184"/>
+        <c:axId val="78477568"/>
+        <c:axId val="78483456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75995392"/>
+        <c:axId val="78477568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4429,7 +4444,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75997184"/>
+        <c:crossAx val="78483456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4437,7 +4452,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75997184"/>
+        <c:axId val="78483456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4448,7 +4463,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75995392"/>
+        <c:crossAx val="78477568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4503,9 +4518,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$277</c:f>
+              <c:f>Data!$A$2:$A$278</c:f>
               <c:strCache>
-                <c:ptCount val="276"/>
+                <c:ptCount val="277"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -5333,16 +5348,19 @@
                 </c:pt>
                 <c:pt idx="275">
                   <c:v>2020-10-23</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>2020-10-24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$277</c:f>
+              <c:f>Data!$E$2:$E$278</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="276"/>
+                <c:ptCount val="277"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6170,6 +6188,9 @@
                 </c:pt>
                 <c:pt idx="275">
                   <c:v>8237</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>8559</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6186,11 +6207,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="76026240"/>
-        <c:axId val="76027776"/>
+        <c:axId val="78586240"/>
+        <c:axId val="78587776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76026240"/>
+        <c:axId val="78586240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6200,7 +6221,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76027776"/>
+        <c:crossAx val="78587776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6208,7 +6229,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76027776"/>
+        <c:axId val="78587776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6219,7 +6240,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76026240"/>
+        <c:crossAx val="78586240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6274,9 +6295,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$277</c:f>
+              <c:f>Data!$A$2:$A$278</c:f>
               <c:strCache>
-                <c:ptCount val="276"/>
+                <c:ptCount val="277"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -7104,16 +7125,19 @@
                 </c:pt>
                 <c:pt idx="275">
                   <c:v>2020-10-23</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>2020-10-24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$277</c:f>
+              <c:f>Data!$F$2:$F$278</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="276"/>
+                <c:ptCount val="277"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7941,6 +7965,9 @@
                 </c:pt>
                 <c:pt idx="275">
                   <c:v>2180</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>2230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7957,11 +7984,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="76073216"/>
-        <c:axId val="76103680"/>
+        <c:axId val="78633216"/>
+        <c:axId val="78659584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76073216"/>
+        <c:axId val="78633216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7971,7 +7998,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76103680"/>
+        <c:crossAx val="78659584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7979,7 +8006,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76103680"/>
+        <c:axId val="78659584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7990,7 +8017,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76073216"/>
+        <c:crossAx val="78633216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8046,9 +8073,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$277</c:f>
+              <c:f>Data!$A$2:$A$278</c:f>
               <c:strCache>
-                <c:ptCount val="276"/>
+                <c:ptCount val="277"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -8876,16 +8903,19 @@
                 </c:pt>
                 <c:pt idx="275">
                   <c:v>2020-10-23</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>2020-10-24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$277</c:f>
+              <c:f>Data!$C$2:$C$278</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="276"/>
+                <c:ptCount val="277"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9713,6 +9743,9 @@
                 </c:pt>
                 <c:pt idx="275">
                   <c:v>215761</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>216646</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9729,11 +9762,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="76145024"/>
-        <c:axId val="76146560"/>
+        <c:axId val="78706944"/>
+        <c:axId val="78774272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76145024"/>
+        <c:axId val="78706944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9743,7 +9776,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76146560"/>
+        <c:crossAx val="78774272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9751,7 +9784,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76146560"/>
+        <c:axId val="78774272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9762,7 +9795,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76145024"/>
+        <c:crossAx val="78706944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9975,9 +10008,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F277" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F277"/>
-  <sortState ref="A2:F277">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F278" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F278"/>
+  <sortState ref="A2:F278">
     <sortCondition ref="A1:A254"/>
   </sortState>
   <tableColumns count="6">
@@ -10279,7 +10312,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F277"/>
+  <dimension ref="A1:F278"/>
   <sheetViews>
     <sheetView topLeftCell="A224" workbookViewId="0">
       <selection activeCell="J235" sqref="J235"/>
@@ -15833,6 +15866,26 @@
       </c>
       <c r="F277">
         <v>2180</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>282</v>
+      </c>
+      <c r="B278">
+        <v>8531899</v>
+      </c>
+      <c r="C278">
+        <v>216646</v>
+      </c>
+      <c r="D278">
+        <v>41882</v>
+      </c>
+      <c r="E278">
+        <v>8559</v>
+      </c>
+      <c r="F278">
+        <v>2230</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathBeds.xlsx
+++ b/covid19/data/USCaseDeathBeds.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Deaths" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$278</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$279</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="284">
   <si>
     <t>date</t>
   </si>
@@ -879,6 +879,9 @@
   </si>
   <si>
     <t>2020-10-24</t>
+  </si>
+  <si>
+    <t>2020-10-25</t>
   </si>
 </sst>
 </file>
@@ -964,9 +967,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$278</c:f>
+              <c:f>Data!$A$2:$A$279</c:f>
               <c:strCache>
-                <c:ptCount val="277"/>
+                <c:ptCount val="278"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -1797,16 +1800,19 @@
                 </c:pt>
                 <c:pt idx="276">
                   <c:v>2020-10-24</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>2020-10-25</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$278</c:f>
+              <c:f>Data!$B$2:$B$279</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="277"/>
+                <c:ptCount val="278"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2637,6 +2643,9 @@
                 </c:pt>
                 <c:pt idx="276">
                   <c:v>8531899</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>8597312</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2653,11 +2662,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="78524800"/>
-        <c:axId val="78526336"/>
+        <c:axId val="65552768"/>
+        <c:axId val="65554304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78524800"/>
+        <c:axId val="65552768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2667,7 +2676,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78526336"/>
+        <c:crossAx val="65554304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2675,7 +2684,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78526336"/>
+        <c:axId val="65554304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2686,7 +2695,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78524800"/>
+        <c:crossAx val="65552768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2741,9 +2750,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$278</c:f>
+              <c:f>Data!$A$2:$A$279</c:f>
               <c:strCache>
-                <c:ptCount val="277"/>
+                <c:ptCount val="278"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -3574,16 +3583,19 @@
                 </c:pt>
                 <c:pt idx="276">
                   <c:v>2020-10-24</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>2020-10-25</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$2:$D$278</c:f>
+              <c:f>Data!$D$2:$D$279</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="277"/>
+                <c:ptCount val="278"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4414,6 +4426,9 @@
                 </c:pt>
                 <c:pt idx="276">
                   <c:v>41882</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>41753</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4430,11 +4445,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="78477568"/>
-        <c:axId val="78483456"/>
+        <c:axId val="65505536"/>
+        <c:axId val="65511424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78477568"/>
+        <c:axId val="65505536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4444,7 +4459,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78483456"/>
+        <c:crossAx val="65511424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4452,7 +4467,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78483456"/>
+        <c:axId val="65511424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4463,7 +4478,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78477568"/>
+        <c:crossAx val="65505536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4518,9 +4533,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$278</c:f>
+              <c:f>Data!$A$2:$A$279</c:f>
               <c:strCache>
-                <c:ptCount val="277"/>
+                <c:ptCount val="278"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -5351,16 +5366,19 @@
                 </c:pt>
                 <c:pt idx="276">
                   <c:v>2020-10-24</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>2020-10-25</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$278</c:f>
+              <c:f>Data!$E$2:$E$279</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="277"/>
+                <c:ptCount val="278"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6191,6 +6209,9 @@
                 </c:pt>
                 <c:pt idx="276">
                   <c:v>8559</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>8488</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6207,11 +6228,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="78586240"/>
-        <c:axId val="78587776"/>
+        <c:axId val="65610112"/>
+        <c:axId val="65611648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78586240"/>
+        <c:axId val="65610112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6221,7 +6242,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78587776"/>
+        <c:crossAx val="65611648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6229,7 +6250,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78587776"/>
+        <c:axId val="65611648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6240,7 +6261,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78586240"/>
+        <c:crossAx val="65610112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6295,9 +6316,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$278</c:f>
+              <c:f>Data!$A$2:$A$279</c:f>
               <c:strCache>
-                <c:ptCount val="277"/>
+                <c:ptCount val="278"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -7128,16 +7149,19 @@
                 </c:pt>
                 <c:pt idx="276">
                   <c:v>2020-10-24</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>2020-10-25</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$278</c:f>
+              <c:f>Data!$F$2:$F$279</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="277"/>
+                <c:ptCount val="278"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7968,6 +7992,9 @@
                 </c:pt>
                 <c:pt idx="276">
                   <c:v>2230</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>2177</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7984,11 +8011,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="78633216"/>
-        <c:axId val="78659584"/>
+        <c:axId val="65657088"/>
+        <c:axId val="65687552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78633216"/>
+        <c:axId val="65657088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7998,7 +8025,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78659584"/>
+        <c:crossAx val="65687552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8006,7 +8033,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78659584"/>
+        <c:axId val="65687552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8017,7 +8044,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78633216"/>
+        <c:crossAx val="65657088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8073,9 +8100,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$278</c:f>
+              <c:f>Data!$A$2:$A$279</c:f>
               <c:strCache>
-                <c:ptCount val="277"/>
+                <c:ptCount val="278"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -8906,16 +8933,19 @@
                 </c:pt>
                 <c:pt idx="276">
                   <c:v>2020-10-24</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>2020-10-25</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$278</c:f>
+              <c:f>Data!$C$2:$C$279</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="277"/>
+                <c:ptCount val="278"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9746,6 +9776,9 @@
                 </c:pt>
                 <c:pt idx="276">
                   <c:v>216646</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>217023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9762,11 +9795,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="78706944"/>
-        <c:axId val="78774272"/>
+        <c:axId val="65730816"/>
+        <c:axId val="65798144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78706944"/>
+        <c:axId val="65730816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9776,7 +9809,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78774272"/>
+        <c:crossAx val="65798144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9784,7 +9817,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78774272"/>
+        <c:axId val="65798144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9795,7 +9828,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78706944"/>
+        <c:crossAx val="65730816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10008,9 +10041,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F278" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F278"/>
-  <sortState ref="A2:F278">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F279" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F279"/>
+  <sortState ref="A2:F279">
     <sortCondition ref="A1:A254"/>
   </sortState>
   <tableColumns count="6">
@@ -10312,7 +10345,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F278"/>
+  <dimension ref="A1:F279"/>
   <sheetViews>
     <sheetView topLeftCell="A224" workbookViewId="0">
       <selection activeCell="J235" sqref="J235"/>
@@ -15886,6 +15919,26 @@
       </c>
       <c r="F278">
         <v>2230</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>283</v>
+      </c>
+      <c r="B279">
+        <v>8597312</v>
+      </c>
+      <c r="C279">
+        <v>217023</v>
+      </c>
+      <c r="D279">
+        <v>41753</v>
+      </c>
+      <c r="E279">
+        <v>8488</v>
+      </c>
+      <c r="F279">
+        <v>2177</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathBeds.xlsx
+++ b/covid19/data/USCaseDeathBeds.xlsx
@@ -2639,13 +2639,13 @@
                   <c:v>8366221</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>8449231</c:v>
+                  <c:v>8449349</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>8531899</c:v>
+                  <c:v>8532364</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>8597312</c:v>
+                  <c:v>8598051</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2662,11 +2662,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="65552768"/>
-        <c:axId val="65554304"/>
+        <c:axId val="98358016"/>
+        <c:axId val="98359552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="65552768"/>
+        <c:axId val="98358016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2676,7 +2676,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65554304"/>
+        <c:crossAx val="98359552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2684,7 +2684,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65554304"/>
+        <c:axId val="98359552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2695,7 +2695,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65552768"/>
+        <c:crossAx val="98358016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4422,13 +4422,13 @@
                   <c:v>41010</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>41485</c:v>
+                  <c:v>41482</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>41882</c:v>
+                  <c:v>41905</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>41753</c:v>
+                  <c:v>41776</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4445,11 +4445,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="65505536"/>
-        <c:axId val="65511424"/>
+        <c:axId val="98974336"/>
+        <c:axId val="98976128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="65505536"/>
+        <c:axId val="98974336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4459,7 +4459,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65511424"/>
+        <c:crossAx val="98976128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4467,7 +4467,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65511424"/>
+        <c:axId val="98976128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4478,7 +4478,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65505536"/>
+        <c:crossAx val="98974336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6208,10 +6208,10 @@
                   <c:v>8237</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>8559</c:v>
+                  <c:v>8561</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>8488</c:v>
+                  <c:v>8489</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6228,11 +6228,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="65610112"/>
-        <c:axId val="65611648"/>
+        <c:axId val="99005184"/>
+        <c:axId val="99006720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="65610112"/>
+        <c:axId val="99005184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6242,7 +6242,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65611648"/>
+        <c:crossAx val="99006720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6250,7 +6250,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65611648"/>
+        <c:axId val="99006720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6261,7 +6261,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65610112"/>
+        <c:crossAx val="99005184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7994,7 +7994,7 @@
                   <c:v>2230</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>2177</c:v>
+                  <c:v>2176</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8011,11 +8011,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="65657088"/>
-        <c:axId val="65687552"/>
+        <c:axId val="99191424"/>
+        <c:axId val="99090816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="65657088"/>
+        <c:axId val="99191424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8025,7 +8025,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65687552"/>
+        <c:crossAx val="99090816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8033,7 +8033,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65687552"/>
+        <c:axId val="99090816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8044,7 +8044,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65657088"/>
+        <c:crossAx val="99191424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9772,13 +9772,13 @@
                   <c:v>214845</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>215761</c:v>
+                  <c:v>215762</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>216646</c:v>
+                  <c:v>216652</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>217023</c:v>
+                  <c:v>217029</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9795,11 +9795,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="65730816"/>
-        <c:axId val="65798144"/>
+        <c:axId val="99133696"/>
+        <c:axId val="99135488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="65730816"/>
+        <c:axId val="99133696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9809,7 +9809,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65798144"/>
+        <c:crossAx val="99135488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9817,7 +9817,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65798144"/>
+        <c:axId val="99135488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9828,7 +9828,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65730816"/>
+        <c:crossAx val="99133696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10354,11 +10354,11 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -15886,13 +15886,13 @@
         <v>281</v>
       </c>
       <c r="B277">
-        <v>8449231</v>
+        <v>8449349</v>
       </c>
       <c r="C277">
-        <v>215761</v>
+        <v>215762</v>
       </c>
       <c r="D277">
-        <v>41485</v>
+        <v>41482</v>
       </c>
       <c r="E277">
         <v>8237</v>
@@ -15906,16 +15906,16 @@
         <v>282</v>
       </c>
       <c r="B278">
-        <v>8531899</v>
+        <v>8532364</v>
       </c>
       <c r="C278">
-        <v>216646</v>
+        <v>216652</v>
       </c>
       <c r="D278">
-        <v>41882</v>
+        <v>41905</v>
       </c>
       <c r="E278">
-        <v>8559</v>
+        <v>8561</v>
       </c>
       <c r="F278">
         <v>2230</v>
@@ -15926,19 +15926,19 @@
         <v>283</v>
       </c>
       <c r="B279">
-        <v>8597312</v>
+        <v>8598051</v>
       </c>
       <c r="C279">
-        <v>217023</v>
+        <v>217029</v>
       </c>
       <c r="D279">
-        <v>41753</v>
+        <v>41776</v>
       </c>
       <c r="E279">
-        <v>8488</v>
+        <v>8489</v>
       </c>
       <c r="F279">
-        <v>2177</v>
+        <v>2176</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathBeds.xlsx
+++ b/covid19/data/USCaseDeathBeds.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Deaths" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$279</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$280</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="285">
   <si>
     <t>date</t>
   </si>
@@ -882,6 +882,9 @@
   </si>
   <si>
     <t>2020-10-25</t>
+  </si>
+  <si>
+    <t>2020-10-26</t>
   </si>
 </sst>
 </file>
@@ -967,9 +970,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$279</c:f>
+              <c:f>Data!$A$2:$A$280</c:f>
               <c:strCache>
-                <c:ptCount val="278"/>
+                <c:ptCount val="279"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -1803,16 +1806,19 @@
                 </c:pt>
                 <c:pt idx="277">
                   <c:v>2020-10-25</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>2020-10-26</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$279</c:f>
+              <c:f>Data!$B$2:$B$280</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="278"/>
+                <c:ptCount val="279"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2646,6 +2652,9 @@
                 </c:pt>
                 <c:pt idx="277">
                   <c:v>8598051</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>8660366</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2662,11 +2671,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="98358016"/>
-        <c:axId val="98359552"/>
+        <c:axId val="91419392"/>
+        <c:axId val="91420928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98358016"/>
+        <c:axId val="91419392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2676,7 +2685,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98359552"/>
+        <c:crossAx val="91420928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2684,7 +2693,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98359552"/>
+        <c:axId val="91420928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2695,7 +2704,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98358016"/>
+        <c:crossAx val="91419392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2750,9 +2759,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$279</c:f>
+              <c:f>Data!$A$2:$A$280</c:f>
               <c:strCache>
-                <c:ptCount val="278"/>
+                <c:ptCount val="279"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -3586,16 +3595,19 @@
                 </c:pt>
                 <c:pt idx="277">
                   <c:v>2020-10-25</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>2020-10-26</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$2:$D$279</c:f>
+              <c:f>Data!$D$2:$D$280</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="278"/>
+                <c:ptCount val="279"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4429,6 +4441,9 @@
                 </c:pt>
                 <c:pt idx="277">
                   <c:v>41776</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>42917</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4445,11 +4460,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="98974336"/>
-        <c:axId val="98976128"/>
+        <c:axId val="92101248"/>
+        <c:axId val="92103040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98974336"/>
+        <c:axId val="92101248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4459,7 +4474,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98976128"/>
+        <c:crossAx val="92103040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4467,7 +4482,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98976128"/>
+        <c:axId val="92103040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4478,7 +4493,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98974336"/>
+        <c:crossAx val="92101248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4533,9 +4548,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$279</c:f>
+              <c:f>Data!$A$2:$A$280</c:f>
               <c:strCache>
-                <c:ptCount val="278"/>
+                <c:ptCount val="279"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -5369,16 +5384,19 @@
                 </c:pt>
                 <c:pt idx="277">
                   <c:v>2020-10-25</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>2020-10-26</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$279</c:f>
+              <c:f>Data!$E$2:$E$280</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="278"/>
+                <c:ptCount val="279"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6212,6 +6230,9 @@
                 </c:pt>
                 <c:pt idx="277">
                   <c:v>8489</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>8842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6228,11 +6249,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99005184"/>
-        <c:axId val="99006720"/>
+        <c:axId val="92132096"/>
+        <c:axId val="92133632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99005184"/>
+        <c:axId val="92132096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6242,7 +6263,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99006720"/>
+        <c:crossAx val="92133632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6250,7 +6271,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99006720"/>
+        <c:axId val="92133632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6261,7 +6282,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99005184"/>
+        <c:crossAx val="92132096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6316,9 +6337,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$279</c:f>
+              <c:f>Data!$A$2:$A$280</c:f>
               <c:strCache>
-                <c:ptCount val="278"/>
+                <c:ptCount val="279"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -7152,16 +7173,19 @@
                 </c:pt>
                 <c:pt idx="277">
                   <c:v>2020-10-25</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>2020-10-26</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$279</c:f>
+              <c:f>Data!$F$2:$F$280</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="278"/>
+                <c:ptCount val="279"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7995,6 +8019,9 @@
                 </c:pt>
                 <c:pt idx="277">
                   <c:v>2176</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>2301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8011,11 +8038,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99191424"/>
-        <c:axId val="99090816"/>
+        <c:axId val="92248704"/>
+        <c:axId val="92148096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99191424"/>
+        <c:axId val="92248704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8025,7 +8052,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99090816"/>
+        <c:crossAx val="92148096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8033,7 +8060,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99090816"/>
+        <c:axId val="92148096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8044,7 +8071,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99191424"/>
+        <c:crossAx val="92248704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8100,9 +8127,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$279</c:f>
+              <c:f>Data!$A$2:$A$280</c:f>
               <c:strCache>
-                <c:ptCount val="278"/>
+                <c:ptCount val="279"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -8936,16 +8963,19 @@
                 </c:pt>
                 <c:pt idx="277">
                   <c:v>2020-10-25</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>2020-10-26</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$279</c:f>
+              <c:f>Data!$C$2:$C$280</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="278"/>
+                <c:ptCount val="279"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9779,6 +9809,9 @@
                 </c:pt>
                 <c:pt idx="277">
                   <c:v>217029</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>217418</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9795,11 +9828,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99133696"/>
-        <c:axId val="99135488"/>
+        <c:axId val="92193536"/>
+        <c:axId val="92195072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99133696"/>
+        <c:axId val="92193536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9809,7 +9842,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99135488"/>
+        <c:crossAx val="92195072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9817,7 +9850,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99135488"/>
+        <c:axId val="92195072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9828,7 +9861,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99133696"/>
+        <c:crossAx val="92193536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10041,9 +10074,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F279" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F279"/>
-  <sortState ref="A2:F279">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F280" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F280"/>
+  <sortState ref="A2:F280">
     <sortCondition ref="A1:A254"/>
   </sortState>
   <tableColumns count="6">
@@ -10345,7 +10378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F279"/>
+  <dimension ref="A1:F280"/>
   <sheetViews>
     <sheetView topLeftCell="A224" workbookViewId="0">
       <selection activeCell="J235" sqref="J235"/>
@@ -15939,6 +15972,26 @@
       </c>
       <c r="F279">
         <v>2176</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>284</v>
+      </c>
+      <c r="B280">
+        <v>8660366</v>
+      </c>
+      <c r="C280">
+        <v>217418</v>
+      </c>
+      <c r="D280">
+        <v>42917</v>
+      </c>
+      <c r="E280">
+        <v>8842</v>
+      </c>
+      <c r="F280">
+        <v>2301</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathBeds.xlsx
+++ b/covid19/data/USCaseDeathBeds.xlsx
@@ -2671,11 +2671,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="91419392"/>
-        <c:axId val="91420928"/>
+        <c:axId val="76108160"/>
+        <c:axId val="76109696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="91419392"/>
+        <c:axId val="76108160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2685,7 +2685,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91420928"/>
+        <c:crossAx val="76109696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2693,7 +2693,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91420928"/>
+        <c:axId val="76109696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2704,7 +2704,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91419392"/>
+        <c:crossAx val="76108160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4460,11 +4460,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="92101248"/>
-        <c:axId val="92103040"/>
+        <c:axId val="76060928"/>
+        <c:axId val="76066816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92101248"/>
+        <c:axId val="76060928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4474,7 +4474,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92103040"/>
+        <c:crossAx val="76066816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4482,7 +4482,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92103040"/>
+        <c:axId val="76066816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4493,7 +4493,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92101248"/>
+        <c:crossAx val="76060928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6249,11 +6249,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="92132096"/>
-        <c:axId val="92133632"/>
+        <c:axId val="76165504"/>
+        <c:axId val="76167040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92132096"/>
+        <c:axId val="76165504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6263,7 +6263,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92133632"/>
+        <c:crossAx val="76167040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6271,7 +6271,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92133632"/>
+        <c:axId val="76167040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6282,7 +6282,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92132096"/>
+        <c:crossAx val="76165504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8038,11 +8038,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="92248704"/>
-        <c:axId val="92148096"/>
+        <c:axId val="76212480"/>
+        <c:axId val="76238848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92248704"/>
+        <c:axId val="76212480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8052,7 +8052,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92148096"/>
+        <c:crossAx val="76238848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8060,7 +8060,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92148096"/>
+        <c:axId val="76238848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8071,7 +8071,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92248704"/>
+        <c:crossAx val="76212480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9828,11 +9828,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="92193536"/>
-        <c:axId val="92195072"/>
+        <c:axId val="76355840"/>
+        <c:axId val="76357632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92193536"/>
+        <c:axId val="76355840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9842,7 +9842,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92195072"/>
+        <c:crossAx val="76357632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9850,7 +9850,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92195072"/>
+        <c:axId val="76357632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9861,7 +9861,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92193536"/>
+        <c:crossAx val="76355840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10387,11 +10387,11 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">

--- a/covid19/data/USCaseDeathBeds.xlsx
+++ b/covid19/data/USCaseDeathBeds.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Deaths" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$280</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$281</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="286">
   <si>
     <t>date</t>
   </si>
@@ -885,6 +885,9 @@
   </si>
   <si>
     <t>2020-10-26</t>
+  </si>
+  <si>
+    <t>2020-10-27</t>
   </si>
 </sst>
 </file>
@@ -970,9 +973,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$280</c:f>
+              <c:f>Data!$A$2:$A$281</c:f>
               <c:strCache>
-                <c:ptCount val="279"/>
+                <c:ptCount val="280"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -1809,16 +1812,19 @@
                 </c:pt>
                 <c:pt idx="278">
                   <c:v>2020-10-26</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>2020-10-27</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$280</c:f>
+              <c:f>Data!$B$2:$B$281</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="279"/>
+                <c:ptCount val="280"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1943,718 +1949,721 @@
                   <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>142</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>281</c:v>
+                  <c:v>282</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>388</c:v>
+                  <c:v>386</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>500</c:v>
+                  <c:v>499</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>678</c:v>
+                  <c:v>672</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>876</c:v>
+                  <c:v>871</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1168</c:v>
+                  <c:v>1163</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1555</c:v>
+                  <c:v>1554</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2064</c:v>
+                  <c:v>2056</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2735</c:v>
+                  <c:v>2729</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3807</c:v>
+                  <c:v>3788</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4731</c:v>
+                  <c:v>4705</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>6022</c:v>
+                  <c:v>5997</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>7770</c:v>
+                  <c:v>7751</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>10358</c:v>
+                  <c:v>10321</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>13447</c:v>
+                  <c:v>13344</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>18098</c:v>
+                  <c:v>18018</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>24245</c:v>
+                  <c:v>24111</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>31038</c:v>
+                  <c:v>30908</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>40163</c:v>
+                  <c:v>40064</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>51602</c:v>
+                  <c:v>51460</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>62371</c:v>
+                  <c:v>62164</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>75279</c:v>
+                  <c:v>75085</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>92999</c:v>
+                  <c:v>92629</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>112127</c:v>
+                  <c:v>111882</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>132052</c:v>
+                  <c:v>131468</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>151400</c:v>
+                  <c:v>151038</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>173442</c:v>
+                  <c:v>172729</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>198295</c:v>
+                  <c:v>197569</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>224086</c:v>
+                  <c:v>223647</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>252146</c:v>
+                  <c:v>251684</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>284222</c:v>
+                  <c:v>283453</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>317434</c:v>
+                  <c:v>316420</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>342934</c:v>
+                  <c:v>342028</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>371936</c:v>
+                  <c:v>370620</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>402821</c:v>
+                  <c:v>401241</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>433498</c:v>
+                  <c:v>432216</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>468001</c:v>
+                  <c:v>466856</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>502381</c:v>
+                  <c:v>501102</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>532882</c:v>
+                  <c:v>531728</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>560666</c:v>
+                  <c:v>559715</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>585861</c:v>
+                  <c:v>584473</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>611580</c:v>
+                  <c:v>610348</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>641887</c:v>
+                  <c:v>640103</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>672865</c:v>
+                  <c:v>671592</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>704889</c:v>
+                  <c:v>703593</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>732796</c:v>
+                  <c:v>731433</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>760183</c:v>
+                  <c:v>758834</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>786080</c:v>
+                  <c:v>784780</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>812447</c:v>
+                  <c:v>811058</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>841406</c:v>
+                  <c:v>840062</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>873218</c:v>
+                  <c:v>872048</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>907449</c:v>
+                  <c:v>906151</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>943338</c:v>
+                  <c:v>942109</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>970648</c:v>
+                  <c:v>969525</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>993356</c:v>
+                  <c:v>992142</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1018636</c:v>
+                  <c:v>1017462</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1044804</c:v>
+                  <c:v>1043626</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1074779</c:v>
+                  <c:v>1073618</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1107800</c:v>
+                  <c:v>1106578</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1136954</c:v>
+                  <c:v>1135700</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1162655</c:v>
+                  <c:v>1161418</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1185304</c:v>
+                  <c:v>1184016</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1207748</c:v>
+                  <c:v>1206492</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1232863</c:v>
+                  <c:v>1231625</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>1260400</c:v>
+                  <c:v>1258961</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>1287622</c:v>
+                  <c:v>1286156</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1312840</c:v>
+                  <c:v>1311337</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1333895</c:v>
+                  <c:v>1332478</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1352272</c:v>
+                  <c:v>1350852</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1375162</c:v>
+                  <c:v>1373407</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1396447</c:v>
+                  <c:v>1395012</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1423232</c:v>
+                  <c:v>1421781</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1447917</c:v>
+                  <c:v>1447252</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1472619</c:v>
+                  <c:v>1470833</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1492628</c:v>
+                  <c:v>1491201</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>1513656</c:v>
+                  <c:v>1512029</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>1534553</c:v>
+                  <c:v>1533036</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>1555861</c:v>
+                  <c:v>1554292</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>1582549</c:v>
+                  <c:v>1580966</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>1606982</c:v>
+                  <c:v>1605348</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>1628513</c:v>
+                  <c:v>1626936</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>1648585</c:v>
+                  <c:v>1646813</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>1667256</c:v>
+                  <c:v>1665585</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>1684081</c:v>
+                  <c:v>1682404</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>1703528</c:v>
+                  <c:v>1701947</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>1726150</c:v>
+                  <c:v>1724532</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>1749722</c:v>
+                  <c:v>1748113</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>1773404</c:v>
+                  <c:v>1771620</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>1794962</c:v>
+                  <c:v>1793309</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>1815447</c:v>
+                  <c:v>1813827</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>1835556</c:v>
+                  <c:v>1833921</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>1855946</c:v>
+                  <c:v>1854203</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>1876832</c:v>
+                  <c:v>1874935</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>1900226</c:v>
+                  <c:v>1898043</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>1923290</c:v>
+                  <c:v>1921081</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>1942030</c:v>
+                  <c:v>1940033</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>1959239</c:v>
+                  <c:v>1957305</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>1976551</c:v>
+                  <c:v>1974679</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>1997445</c:v>
+                  <c:v>1995444</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>2019598</c:v>
+                  <c:v>2017568</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>2043195</c:v>
+                  <c:v>2040897</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>2068571</c:v>
+                  <c:v>2066168</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>2089970</c:v>
+                  <c:v>2087684</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>2108619</c:v>
+                  <c:v>2106335</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>2132097</c:v>
+                  <c:v>2129721</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>2156098</c:v>
+                  <c:v>2153539</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>2183844</c:v>
+                  <c:v>2180772</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>2215315</c:v>
+                  <c:v>2211734</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>2247609</c:v>
+                  <c:v>2243981</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>2275537</c:v>
+                  <c:v>2273032</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>2302818</c:v>
+                  <c:v>2300138</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>2336265</c:v>
+                  <c:v>2334097</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>2375340</c:v>
+                  <c:v>2373132</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>2414977</c:v>
+                  <c:v>2412756</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>2459520</c:v>
+                  <c:v>2457171</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>2502684</c:v>
+                  <c:v>2500284</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>2544254</c:v>
+                  <c:v>2541678</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>2584067</c:v>
+                  <c:v>2581588</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>2631931</c:v>
+                  <c:v>2629386</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>2682912</c:v>
+                  <c:v>2680349</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>2736997</c:v>
+                  <c:v>2733767</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>2790945</c:v>
+                  <c:v>2787551</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>2845283</c:v>
+                  <c:v>2841761</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>2890895</c:v>
+                  <c:v>2887170</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>2932854</c:v>
+                  <c:v>2929030</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>2984541</c:v>
+                  <c:v>2980669</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>3047213</c:v>
+                  <c:v>3043299</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>3106370</c:v>
+                  <c:v>3102411</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>3173216</c:v>
+                  <c:v>3169074</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>3236111</c:v>
+                  <c:v>3231883</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>3297423</c:v>
+                  <c:v>3293044</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>3355556</c:v>
+                  <c:v>3350760</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>3418243</c:v>
+                  <c:v>3413436</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>3484040</c:v>
+                  <c:v>3479044</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>3555076</c:v>
+                  <c:v>3549874</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>3631918</c:v>
+                  <c:v>3626424</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>3696869</c:v>
+                  <c:v>3691220</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>3761129</c:v>
+                  <c:v>3755387</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>3818170</c:v>
+                  <c:v>3812486</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>3882100</c:v>
+                  <c:v>3876239</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>3951433</c:v>
+                  <c:v>3945451</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>4022986</c:v>
+                  <c:v>4016867</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>4098221</c:v>
+                  <c:v>4091978</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>4162962</c:v>
+                  <c:v>4156565</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>4223962</c:v>
+                  <c:v>4217467</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>4279294</c:v>
+                  <c:v>4272711</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>4338297</c:v>
+                  <c:v>4331622</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>4402705</c:v>
+                  <c:v>4395904</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>4472123</c:v>
+                  <c:v>4465201</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>4539746</c:v>
+                  <c:v>4532717</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>4600847</c:v>
+                  <c:v>4593678</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>4647659</c:v>
+                  <c:v>4640442</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>4697372</c:v>
+                  <c:v>4690217</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>4749238</c:v>
+                  <c:v>4741994</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>4801562</c:v>
+                  <c:v>4794333</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>4855749</c:v>
+                  <c:v>4848443</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>4917094</c:v>
+                  <c:v>4909643</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>4970806</c:v>
+                  <c:v>4963196</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>5021433</c:v>
+                  <c:v>5013733</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>5063522</c:v>
+                  <c:v>5055817</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>5119223</c:v>
+                  <c:v>5111449</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>5175357</c:v>
+                  <c:v>5167569</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>5227116</c:v>
+                  <c:v>5219319</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>5282752</c:v>
+                  <c:v>5276804</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>5338901</c:v>
+                  <c:v>5332892</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>5381388</c:v>
+                  <c:v>5375347</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>5419268</c:v>
+                  <c:v>5413198</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>5460063</c:v>
+                  <c:v>5453942</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>5505018</c:v>
+                  <c:v>5498862</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>5548776</c:v>
+                  <c:v>5542581</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>5595337</c:v>
+                  <c:v>5589074</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>5641573</c:v>
+                  <c:v>5635259</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>5679139</c:v>
+                  <c:v>5672855</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>5713782</c:v>
+                  <c:v>5707464</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>5750161</c:v>
+                  <c:v>5743835</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>5794214</c:v>
+                  <c:v>5787605</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>5838198</c:v>
+                  <c:v>5831549</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>5884746</c:v>
+                  <c:v>5878014</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>5929247</c:v>
+                  <c:v>5922450</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>5968748</c:v>
+                  <c:v>5961915</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>6000154</c:v>
+                  <c:v>5993312</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>6042587</c:v>
+                  <c:v>6035663</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>6073190</c:v>
+                  <c:v>6066174</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>6117904</c:v>
+                  <c:v>6110804</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>6169495</c:v>
+                  <c:v>6162344</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>6214400</c:v>
+                  <c:v>6207186</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>6247517</c:v>
+                  <c:v>6240252</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>6276199</c:v>
+                  <c:v>6268908</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>6298422</c:v>
+                  <c:v>6291105</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>6329536</c:v>
+                  <c:v>6322169</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>6367117</c:v>
+                  <c:v>6359704</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>6412044</c:v>
+                  <c:v>6404585</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>6454134</c:v>
+                  <c:v>6446653</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>6488587</c:v>
+                  <c:v>6481078</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>6522451</c:v>
+                  <c:v>6514924</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>6557896</c:v>
+                  <c:v>6549996</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>6597917</c:v>
+                  <c:v>6589950</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>6641475</c:v>
+                  <c:v>6633526</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>6688961</c:v>
+                  <c:v>6680985</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>6734525</c:v>
+                  <c:v>6726486</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>6770820</c:v>
+                  <c:v>6762757</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>6810292</c:v>
+                  <c:v>6802215</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>6859731</c:v>
+                  <c:v>6851598</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>6898298</c:v>
+                  <c:v>6890169</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>6942070</c:v>
+                  <c:v>6933877</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>6997596</c:v>
+                  <c:v>6989365</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>7045452</c:v>
+                  <c:v>7037157</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>7080906</c:v>
+                  <c:v>7072576</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>7117430</c:v>
+                  <c:v>7109090</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>7154377</c:v>
+                  <c:v>7145980</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>7198801</c:v>
+                  <c:v>7190336</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>7244495</c:v>
+                  <c:v>7235953</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>7294029</c:v>
+                  <c:v>7285437</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>7345401</c:v>
+                  <c:v>7336775</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>7383840</c:v>
+                  <c:v>7375132</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>7421973</c:v>
+                  <c:v>7413256</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>7460634</c:v>
+                  <c:v>7451867</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>7511236</c:v>
+                  <c:v>7502431</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>7566588</c:v>
+                  <c:v>7557723</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>7623648</c:v>
+                  <c:v>7614728</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>7681140</c:v>
+                  <c:v>7672220</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>7728086</c:v>
+                  <c:v>7719010</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>7771210</c:v>
+                  <c:v>7762120</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>7819597</c:v>
+                  <c:v>7810439</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>7876394</c:v>
+                  <c:v>7867161</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>7939566</c:v>
+                  <c:v>7930263</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>8007690</c:v>
+                  <c:v>7998303</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>8065633</c:v>
+                  <c:v>8056170</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>8114555</c:v>
+                  <c:v>8105027</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>8171703</c:v>
+                  <c:v>8162159</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>8232367</c:v>
+                  <c:v>8222717</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>8290973</c:v>
+                  <c:v>8283429</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>8366221</c:v>
+                  <c:v>8356436</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>8449349</c:v>
+                  <c:v>8439493</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>8532364</c:v>
+                  <c:v>8522418</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>8598051</c:v>
+                  <c:v>8588068</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>8660366</c:v>
+                  <c:v>8650342</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>8723438</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2671,11 +2680,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="76108160"/>
-        <c:axId val="76109696"/>
+        <c:axId val="94069120"/>
+        <c:axId val="94070656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76108160"/>
+        <c:axId val="94069120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2685,7 +2694,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76109696"/>
+        <c:crossAx val="94070656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2693,7 +2702,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76109696"/>
+        <c:axId val="94070656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2704,7 +2713,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76108160"/>
+        <c:crossAx val="94069120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2759,9 +2768,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$280</c:f>
+              <c:f>Data!$A$2:$A$281</c:f>
               <c:strCache>
-                <c:ptCount val="279"/>
+                <c:ptCount val="280"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -3598,16 +3607,19 @@
                 </c:pt>
                 <c:pt idx="278">
                   <c:v>2020-10-26</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>2020-10-27</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$2:$D$280</c:f>
+              <c:f>Data!$D$2:$D$281</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="279"/>
+                <c:ptCount val="280"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4444,6 +4456,9 @@
                 </c:pt>
                 <c:pt idx="278">
                   <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>44212</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4460,11 +4475,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="76060928"/>
-        <c:axId val="76066816"/>
+        <c:axId val="94812416"/>
+        <c:axId val="94814208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76060928"/>
+        <c:axId val="94812416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4474,7 +4489,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76066816"/>
+        <c:crossAx val="94814208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4482,7 +4497,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76066816"/>
+        <c:axId val="94814208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4493,7 +4508,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76060928"/>
+        <c:crossAx val="94812416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4548,9 +4563,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$280</c:f>
+              <c:f>Data!$A$2:$A$281</c:f>
               <c:strCache>
-                <c:ptCount val="279"/>
+                <c:ptCount val="280"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -5387,16 +5402,19 @@
                 </c:pt>
                 <c:pt idx="278">
                   <c:v>2020-10-26</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>2020-10-27</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$280</c:f>
+              <c:f>Data!$E$2:$E$281</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="279"/>
+                <c:ptCount val="280"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6233,6 +6251,9 @@
                 </c:pt>
                 <c:pt idx="278">
                   <c:v>8842</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>8909</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6249,11 +6270,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="76165504"/>
-        <c:axId val="76167040"/>
+        <c:axId val="94712192"/>
+        <c:axId val="94713728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76165504"/>
+        <c:axId val="94712192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6263,7 +6284,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76167040"/>
+        <c:crossAx val="94713728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6271,7 +6292,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76167040"/>
+        <c:axId val="94713728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6282,7 +6303,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76165504"/>
+        <c:crossAx val="94712192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6337,9 +6358,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$280</c:f>
+              <c:f>Data!$A$2:$A$281</c:f>
               <c:strCache>
-                <c:ptCount val="279"/>
+                <c:ptCount val="280"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -7176,16 +7197,19 @@
                 </c:pt>
                 <c:pt idx="278">
                   <c:v>2020-10-26</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>2020-10-27</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$280</c:f>
+              <c:f>Data!$F$2:$F$281</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="279"/>
+                <c:ptCount val="280"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8022,6 +8046,9 @@
                 </c:pt>
                 <c:pt idx="278">
                   <c:v>2301</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>2287</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8038,11 +8065,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="76212480"/>
-        <c:axId val="76238848"/>
+        <c:axId val="94759168"/>
+        <c:axId val="94859264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76212480"/>
+        <c:axId val="94759168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8052,7 +8079,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76238848"/>
+        <c:crossAx val="94859264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8060,7 +8087,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76238848"/>
+        <c:axId val="94859264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8071,7 +8098,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76212480"/>
+        <c:crossAx val="94759168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8127,9 +8154,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$280</c:f>
+              <c:f>Data!$A$2:$A$281</c:f>
               <c:strCache>
-                <c:ptCount val="279"/>
+                <c:ptCount val="280"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -8966,16 +8993,19 @@
                 </c:pt>
                 <c:pt idx="278">
                   <c:v>2020-10-26</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>2020-10-27</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$280</c:f>
+              <c:f>Data!$C$2:$C$281</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="279"/>
+                <c:ptCount val="280"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9812,6 +9842,9 @@
                 </c:pt>
                 <c:pt idx="278">
                   <c:v>217418</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>218349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9828,11 +9861,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="76355840"/>
-        <c:axId val="76357632"/>
+        <c:axId val="94968064"/>
+        <c:axId val="94969856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76355840"/>
+        <c:axId val="94968064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9842,7 +9875,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76357632"/>
+        <c:crossAx val="94969856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9850,7 +9883,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76357632"/>
+        <c:axId val="94969856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9861,7 +9894,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76355840"/>
+        <c:crossAx val="94968064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10074,9 +10107,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F280" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F280"/>
-  <sortState ref="A2:F280">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F281" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F281"/>
+  <sortState ref="A2:F281">
     <sortCondition ref="A1:A254"/>
   </sortState>
   <tableColumns count="6">
@@ -10378,7 +10411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F280"/>
+  <dimension ref="A1:F281"/>
   <sheetViews>
     <sheetView topLeftCell="A224" workbookViewId="0">
       <selection activeCell="J235" sqref="J235"/>
@@ -11239,7 +11272,7 @@
         <v>79</v>
       </c>
       <c r="B43">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C43">
         <v>14</v>
@@ -11259,7 +11292,7 @@
         <v>171</v>
       </c>
       <c r="B44">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C44">
         <v>16</v>
@@ -11279,7 +11312,7 @@
         <v>16</v>
       </c>
       <c r="B45">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C45">
         <v>20</v>
@@ -11299,7 +11332,7 @@
         <v>110</v>
       </c>
       <c r="B46">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C46">
         <v>26</v>
@@ -11319,7 +11352,7 @@
         <v>208</v>
       </c>
       <c r="B47">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="C47">
         <v>27</v>
@@ -11339,7 +11372,7 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="C48">
         <v>31</v>
@@ -11359,7 +11392,7 @@
         <v>70</v>
       </c>
       <c r="B49">
-        <v>1168</v>
+        <v>1163</v>
       </c>
       <c r="C49">
         <v>35</v>
@@ -11379,7 +11412,7 @@
         <v>229</v>
       </c>
       <c r="B50">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="C50">
         <v>37</v>
@@ -11399,7 +11432,7 @@
         <v>15</v>
       </c>
       <c r="B51">
-        <v>2064</v>
+        <v>2056</v>
       </c>
       <c r="C51">
         <v>43</v>
@@ -11419,7 +11452,7 @@
         <v>174</v>
       </c>
       <c r="B52">
-        <v>2735</v>
+        <v>2729</v>
       </c>
       <c r="C52">
         <v>51</v>
@@ -11439,7 +11472,7 @@
         <v>204</v>
       </c>
       <c r="B53">
-        <v>3807</v>
+        <v>3788</v>
       </c>
       <c r="C53">
         <v>55</v>
@@ -11459,7 +11492,7 @@
         <v>46</v>
       </c>
       <c r="B54">
-        <v>4731</v>
+        <v>4705</v>
       </c>
       <c r="C54">
         <v>64</v>
@@ -11479,7 +11512,7 @@
         <v>134</v>
       </c>
       <c r="B55">
-        <v>6022</v>
+        <v>5997</v>
       </c>
       <c r="C55">
         <v>79</v>
@@ -11499,7 +11532,7 @@
         <v>232</v>
       </c>
       <c r="B56">
-        <v>7770</v>
+        <v>7751</v>
       </c>
       <c r="C56">
         <v>100</v>
@@ -11519,7 +11552,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>10358</v>
+        <v>10321</v>
       </c>
       <c r="C57">
         <v>123</v>
@@ -11539,7 +11572,7 @@
         <v>149</v>
       </c>
       <c r="B58">
-        <v>13447</v>
+        <v>13344</v>
       </c>
       <c r="C58">
         <v>155</v>
@@ -11559,7 +11592,7 @@
         <v>251</v>
       </c>
       <c r="B59">
-        <v>18098</v>
+        <v>18018</v>
       </c>
       <c r="C59">
         <v>203</v>
@@ -11579,7 +11612,7 @@
         <v>93</v>
       </c>
       <c r="B60">
-        <v>24245</v>
+        <v>24111</v>
       </c>
       <c r="C60">
         <v>272</v>
@@ -11599,7 +11632,7 @@
         <v>177</v>
       </c>
       <c r="B61">
-        <v>31038</v>
+        <v>30908</v>
       </c>
       <c r="C61">
         <v>334</v>
@@ -11619,7 +11652,7 @@
         <v>212</v>
       </c>
       <c r="B62">
-        <v>40163</v>
+        <v>40064</v>
       </c>
       <c r="C62">
         <v>480</v>
@@ -11639,7 +11672,7 @@
         <v>122</v>
       </c>
       <c r="B63">
-        <v>51602</v>
+        <v>51460</v>
       </c>
       <c r="C63">
         <v>581</v>
@@ -11659,7 +11692,7 @@
         <v>148</v>
       </c>
       <c r="B64">
-        <v>62371</v>
+        <v>62164</v>
       </c>
       <c r="C64">
         <v>815</v>
@@ -11679,7 +11712,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>75279</v>
+        <v>75085</v>
       </c>
       <c r="C65">
         <v>1050</v>
@@ -11699,7 +11732,7 @@
         <v>98</v>
       </c>
       <c r="B66">
-        <v>92999</v>
+        <v>92629</v>
       </c>
       <c r="C66">
         <v>1369</v>
@@ -11719,7 +11752,7 @@
         <v>187</v>
       </c>
       <c r="B67">
-        <v>112127</v>
+        <v>111882</v>
       </c>
       <c r="C67">
         <v>1775</v>
@@ -11739,7 +11772,7 @@
         <v>32</v>
       </c>
       <c r="B68">
-        <v>132052</v>
+        <v>131468</v>
       </c>
       <c r="C68">
         <v>2319</v>
@@ -11759,7 +11792,7 @@
         <v>131</v>
       </c>
       <c r="B69">
-        <v>151400</v>
+        <v>151038</v>
       </c>
       <c r="C69">
         <v>2834</v>
@@ -11779,7 +11812,7 @@
         <v>225</v>
       </c>
       <c r="B70">
-        <v>173442</v>
+        <v>172729</v>
       </c>
       <c r="C70">
         <v>3423</v>
@@ -11799,7 +11832,7 @@
         <v>67</v>
       </c>
       <c r="B71">
-        <v>198295</v>
+        <v>197569</v>
       </c>
       <c r="C71">
         <v>4313</v>
@@ -11819,7 +11852,7 @@
         <v>101</v>
       </c>
       <c r="B72">
-        <v>224086</v>
+        <v>223647</v>
       </c>
       <c r="C72">
         <v>5324</v>
@@ -11839,7 +11872,7 @@
         <v>228</v>
       </c>
       <c r="B73">
-        <v>252146</v>
+        <v>251684</v>
       </c>
       <c r="C73">
         <v>6496</v>
@@ -11859,7 +11892,7 @@
         <v>36</v>
       </c>
       <c r="B74">
-        <v>284222</v>
+        <v>283453</v>
       </c>
       <c r="C74">
         <v>7782</v>
@@ -11879,7 +11912,7 @@
         <v>195</v>
       </c>
       <c r="B75">
-        <v>317434</v>
+        <v>316420</v>
       </c>
       <c r="C75">
         <v>9264</v>
@@ -11899,7 +11932,7 @@
         <v>224</v>
       </c>
       <c r="B76">
-        <v>342934</v>
+        <v>342028</v>
       </c>
       <c r="C76">
         <v>10604</v>
@@ -11919,7 +11952,7 @@
         <v>62</v>
       </c>
       <c r="B77">
-        <v>371936</v>
+        <v>370620</v>
       </c>
       <c r="C77">
         <v>11922</v>
@@ -11939,7 +11972,7 @@
         <v>160</v>
       </c>
       <c r="B78">
-        <v>402821</v>
+        <v>401241</v>
       </c>
       <c r="C78">
         <v>13946</v>
@@ -11959,7 +11992,7 @@
         <v>252</v>
       </c>
       <c r="B79">
-        <v>433498</v>
+        <v>432216</v>
       </c>
       <c r="C79">
         <v>15956</v>
@@ -11979,7 +12012,7 @@
         <v>95</v>
       </c>
       <c r="B80">
-        <v>468001</v>
+        <v>466856</v>
       </c>
       <c r="C80">
         <v>17999</v>
@@ -11999,7 +12032,7 @@
         <v>184</v>
       </c>
       <c r="B81">
-        <v>502381</v>
+        <v>501102</v>
       </c>
       <c r="C81">
         <v>20107</v>
@@ -12019,7 +12052,7 @@
         <v>215</v>
       </c>
       <c r="B82">
-        <v>532882</v>
+        <v>531728</v>
       </c>
       <c r="C82">
         <v>22161</v>
@@ -12039,7 +12072,7 @@
         <v>123</v>
       </c>
       <c r="B83">
-        <v>560666</v>
+        <v>559715</v>
       </c>
       <c r="C83">
         <v>23864</v>
@@ -12059,7 +12092,7 @@
         <v>155</v>
       </c>
       <c r="B84">
-        <v>585861</v>
+        <v>584473</v>
       </c>
       <c r="C84">
         <v>25507</v>
@@ -12079,7 +12112,7 @@
         <v>60</v>
       </c>
       <c r="B85">
-        <v>611580</v>
+        <v>610348</v>
       </c>
       <c r="C85">
         <v>27843</v>
@@ -12099,7 +12132,7 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>641887</v>
+        <v>640103</v>
       </c>
       <c r="C86">
         <v>30387</v>
@@ -12119,7 +12152,7 @@
         <v>183</v>
       </c>
       <c r="B87">
-        <v>672865</v>
+        <v>671592</v>
       </c>
       <c r="C87">
         <v>32587</v>
@@ -12139,7 +12172,7 @@
         <v>25</v>
       </c>
       <c r="B88">
-        <v>704889</v>
+        <v>703593</v>
       </c>
       <c r="C88">
         <v>34706</v>
@@ -12159,7 +12192,7 @@
         <v>81</v>
       </c>
       <c r="B89">
-        <v>732796</v>
+        <v>731433</v>
       </c>
       <c r="C89">
         <v>36599</v>
@@ -12179,7 +12212,7 @@
         <v>234</v>
       </c>
       <c r="B90">
-        <v>760183</v>
+        <v>758834</v>
       </c>
       <c r="C90">
         <v>38371</v>
@@ -12199,7 +12232,7 @@
         <v>13</v>
       </c>
       <c r="B91">
-        <v>786080</v>
+        <v>784780</v>
       </c>
       <c r="C91">
         <v>40169</v>
@@ -12219,7 +12252,7 @@
         <v>108</v>
       </c>
       <c r="B92">
-        <v>812447</v>
+        <v>811058</v>
       </c>
       <c r="C92">
         <v>42636</v>
@@ -12239,7 +12272,7 @@
         <v>206</v>
       </c>
       <c r="B93">
-        <v>841406</v>
+        <v>840062</v>
       </c>
       <c r="C93">
         <v>44734</v>
@@ -12259,7 +12292,7 @@
         <v>49</v>
       </c>
       <c r="B94">
-        <v>873218</v>
+        <v>872048</v>
       </c>
       <c r="C94">
         <v>46525</v>
@@ -12279,7 +12312,7 @@
         <v>142</v>
       </c>
       <c r="B95">
-        <v>907449</v>
+        <v>906151</v>
       </c>
       <c r="C95">
         <v>48420</v>
@@ -12299,7 +12332,7 @@
         <v>239</v>
       </c>
       <c r="B96">
-        <v>943338</v>
+        <v>942109</v>
       </c>
       <c r="C96">
         <v>50168</v>
@@ -12319,7 +12352,7 @@
         <v>18</v>
       </c>
       <c r="B97">
-        <v>970648</v>
+        <v>969525</v>
       </c>
       <c r="C97">
         <v>51383</v>
@@ -12339,7 +12372,7 @@
         <v>175</v>
       </c>
       <c r="B98">
-        <v>993356</v>
+        <v>992142</v>
       </c>
       <c r="C98">
         <v>52653</v>
@@ -12359,7 +12392,7 @@
         <v>205</v>
       </c>
       <c r="B99">
-        <v>1018636</v>
+        <v>1017462</v>
       </c>
       <c r="C99">
         <v>54725</v>
@@ -12379,7 +12412,7 @@
         <v>111</v>
       </c>
       <c r="B100">
-        <v>1044804</v>
+        <v>1043626</v>
       </c>
       <c r="C100">
         <v>57438</v>
@@ -12399,7 +12432,7 @@
         <v>136</v>
       </c>
       <c r="B101">
-        <v>1074779</v>
+        <v>1073618</v>
       </c>
       <c r="C101">
         <v>59577</v>
@@ -12419,7 +12452,7 @@
         <v>233</v>
       </c>
       <c r="B102">
-        <v>1107800</v>
+        <v>1106578</v>
       </c>
       <c r="C102">
         <v>61356</v>
@@ -12439,7 +12472,7 @@
         <v>82</v>
       </c>
       <c r="B103">
-        <v>1136954</v>
+        <v>1135700</v>
       </c>
       <c r="C103">
         <v>62918</v>
@@ -12459,7 +12492,7 @@
         <v>173</v>
       </c>
       <c r="B104">
-        <v>1162655</v>
+        <v>1161418</v>
       </c>
       <c r="C104">
         <v>64150</v>
@@ -12479,7 +12512,7 @@
         <v>23</v>
       </c>
       <c r="B105">
-        <v>1185304</v>
+        <v>1184016</v>
       </c>
       <c r="C105">
         <v>65185</v>
@@ -12499,7 +12532,7 @@
         <v>121</v>
       </c>
       <c r="B106">
-        <v>1207748</v>
+        <v>1206492</v>
       </c>
       <c r="C106">
         <v>67637</v>
@@ -12519,7 +12552,7 @@
         <v>151</v>
       </c>
       <c r="B107">
-        <v>1232863</v>
+        <v>1231625</v>
       </c>
       <c r="C107">
         <v>69585</v>
@@ -12539,7 +12572,7 @@
         <v>52</v>
       </c>
       <c r="B108">
-        <v>1260400</v>
+        <v>1258961</v>
       </c>
       <c r="C108">
         <v>72337</v>
@@ -12559,7 +12592,7 @@
         <v>92</v>
       </c>
       <c r="B109">
-        <v>1287622</v>
+        <v>1286156</v>
       </c>
       <c r="C109">
         <v>74135</v>
@@ -12579,7 +12612,7 @@
         <v>248</v>
       </c>
       <c r="B110">
-        <v>1312840</v>
+        <v>1311337</v>
       </c>
       <c r="C110">
         <v>75580</v>
@@ -12599,7 +12632,7 @@
         <v>22</v>
       </c>
       <c r="B111">
-        <v>1333895</v>
+        <v>1332478</v>
       </c>
       <c r="C111">
         <v>76616</v>
@@ -12619,7 +12652,7 @@
         <v>120</v>
       </c>
       <c r="B112">
-        <v>1352272</v>
+        <v>1350852</v>
       </c>
       <c r="C112">
         <v>77508</v>
@@ -12639,7 +12672,7 @@
         <v>222</v>
       </c>
       <c r="B113">
-        <v>1375162</v>
+        <v>1373407</v>
       </c>
       <c r="C113">
         <v>78994</v>
@@ -12659,7 +12692,7 @@
         <v>61</v>
       </c>
       <c r="B114">
-        <v>1396447</v>
+        <v>1395012</v>
       </c>
       <c r="C114">
         <v>80698</v>
@@ -12679,7 +12712,7 @@
         <v>159</v>
       </c>
       <c r="B115">
-        <v>1423232</v>
+        <v>1421781</v>
       </c>
       <c r="C115">
         <v>82577</v>
@@ -12699,7 +12732,7 @@
         <v>256</v>
       </c>
       <c r="B116">
-        <v>1447917</v>
+        <v>1447252</v>
       </c>
       <c r="C116">
         <v>84084</v>
@@ -12719,7 +12752,7 @@
         <v>33</v>
       </c>
       <c r="B117">
-        <v>1472619</v>
+        <v>1470833</v>
       </c>
       <c r="C117">
         <v>85071</v>
@@ -12739,7 +12772,7 @@
         <v>194</v>
       </c>
       <c r="B118">
-        <v>1492628</v>
+        <v>1491201</v>
       </c>
       <c r="C118">
         <v>85920</v>
@@ -12759,7 +12792,7 @@
         <v>226</v>
       </c>
       <c r="B119">
-        <v>1513656</v>
+        <v>1512029</v>
       </c>
       <c r="C119">
         <v>86768</v>
@@ -12779,7 +12812,7 @@
         <v>71</v>
       </c>
       <c r="B120">
-        <v>1534553</v>
+        <v>1533036</v>
       </c>
       <c r="C120">
         <v>88094</v>
@@ -12799,7 +12832,7 @@
         <v>163</v>
       </c>
       <c r="B121">
-        <v>1555861</v>
+        <v>1554292</v>
       </c>
       <c r="C121">
         <v>89493</v>
@@ -12819,7 +12852,7 @@
         <v>258</v>
       </c>
       <c r="B122">
-        <v>1582549</v>
+        <v>1580966</v>
       </c>
       <c r="C122">
         <v>90887</v>
@@ -12839,7 +12872,7 @@
         <v>99</v>
       </c>
       <c r="B123">
-        <v>1606982</v>
+        <v>1605348</v>
       </c>
       <c r="C123">
         <v>92228</v>
@@ -12859,7 +12892,7 @@
         <v>193</v>
       </c>
       <c r="B124">
-        <v>1628513</v>
+        <v>1626936</v>
       </c>
       <c r="C124">
         <v>93291</v>
@@ -12879,7 +12912,7 @@
         <v>31</v>
       </c>
       <c r="B125">
-        <v>1648585</v>
+        <v>1646813</v>
       </c>
       <c r="C125">
         <v>93971</v>
@@ -12899,7 +12932,7 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>1667256</v>
+        <v>1665585</v>
       </c>
       <c r="C126">
         <v>94530</v>
@@ -12919,7 +12952,7 @@
         <v>158</v>
       </c>
       <c r="B127">
-        <v>1684081</v>
+        <v>1682404</v>
       </c>
       <c r="C127">
         <v>95175</v>
@@ -12939,7 +12972,7 @@
         <v>64</v>
       </c>
       <c r="B128">
-        <v>1703528</v>
+        <v>1701947</v>
       </c>
       <c r="C128">
         <v>96496</v>
@@ -12959,7 +12992,7 @@
         <v>88</v>
       </c>
       <c r="B129">
-        <v>1726150</v>
+        <v>1724532</v>
       </c>
       <c r="C129">
         <v>97727</v>
@@ -12979,7 +13012,7 @@
         <v>182</v>
       </c>
       <c r="B130">
-        <v>1749722</v>
+        <v>1748113</v>
       </c>
       <c r="C130">
         <v>98911</v>
@@ -12999,7 +13032,7 @@
         <v>20</v>
       </c>
       <c r="B131">
-        <v>1773404</v>
+        <v>1771620</v>
       </c>
       <c r="C131">
         <v>99843</v>
@@ -13019,7 +13052,7 @@
         <v>114</v>
       </c>
       <c r="B132">
-        <v>1794962</v>
+        <v>1793309</v>
       </c>
       <c r="C132">
         <v>100495</v>
@@ -13039,7 +13072,7 @@
         <v>219</v>
       </c>
       <c r="B133">
-        <v>1815447</v>
+        <v>1813827</v>
       </c>
       <c r="C133">
         <v>101163</v>
@@ -13059,7 +13092,7 @@
         <v>59</v>
       </c>
       <c r="B134">
-        <v>1835556</v>
+        <v>1833921</v>
       </c>
       <c r="C134">
         <v>102125</v>
@@ -13079,7 +13112,7 @@
         <v>87</v>
       </c>
       <c r="B135">
-        <v>1855946</v>
+        <v>1854203</v>
       </c>
       <c r="C135">
         <v>103118</v>
@@ -13099,7 +13132,7 @@
         <v>246</v>
       </c>
       <c r="B136">
-        <v>1876832</v>
+        <v>1874935</v>
       </c>
       <c r="C136">
         <v>104011</v>
@@ -13119,7 +13152,7 @@
         <v>11</v>
       </c>
       <c r="B137">
-        <v>1900226</v>
+        <v>1898043</v>
       </c>
       <c r="C137">
         <v>104837</v>
@@ -13139,7 +13172,7 @@
         <v>170</v>
       </c>
       <c r="B138">
-        <v>1923290</v>
+        <v>1921081</v>
       </c>
       <c r="C138">
         <v>105565</v>
@@ -13159,7 +13192,7 @@
         <v>203</v>
       </c>
       <c r="B139">
-        <v>1942030</v>
+        <v>1940033</v>
       </c>
       <c r="C139">
         <v>106012</v>
@@ -13179,7 +13212,7 @@
         <v>45</v>
       </c>
       <c r="B140">
-        <v>1959239</v>
+        <v>1957305</v>
       </c>
       <c r="C140">
         <v>106673</v>
@@ -13199,7 +13232,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>1976551</v>
+        <v>1974679</v>
       </c>
       <c r="C141">
         <v>107575</v>
@@ -13219,7 +13252,7 @@
         <v>237</v>
       </c>
       <c r="B142">
-        <v>1997445</v>
+        <v>1995444</v>
       </c>
       <c r="C142">
         <v>108462</v>
@@ -13239,7 +13272,7 @@
         <v>73</v>
       </c>
       <c r="B143">
-        <v>2019598</v>
+        <v>2017568</v>
       </c>
       <c r="C143">
         <v>109361</v>
@@ -13259,7 +13292,7 @@
         <v>164</v>
       </c>
       <c r="B144">
-        <v>2043195</v>
+        <v>2040897</v>
       </c>
       <c r="C144">
         <v>110136</v>
@@ -13279,7 +13312,7 @@
         <v>209</v>
       </c>
       <c r="B145">
-        <v>2068571</v>
+        <v>2066168</v>
       </c>
       <c r="C145">
         <v>110830</v>
@@ -13299,7 +13332,7 @@
         <v>113</v>
       </c>
       <c r="B146">
-        <v>2089970</v>
+        <v>2087684</v>
       </c>
       <c r="C146">
         <v>111186</v>
@@ -13319,7 +13352,7 @@
         <v>138</v>
       </c>
       <c r="B147">
-        <v>2108619</v>
+        <v>2106335</v>
       </c>
       <c r="C147">
         <v>111567</v>
@@ -13339,7 +13372,7 @@
         <v>50</v>
       </c>
       <c r="B148">
-        <v>2132097</v>
+        <v>2129721</v>
       </c>
       <c r="C148">
         <v>112297</v>
@@ -13359,7 +13392,7 @@
         <v>80</v>
       </c>
       <c r="B149">
-        <v>2156098</v>
+        <v>2153539</v>
       </c>
       <c r="C149">
         <v>113064</v>
@@ -13379,7 +13412,7 @@
         <v>169</v>
       </c>
       <c r="B150">
-        <v>2183844</v>
+        <v>2180772</v>
       </c>
       <c r="C150">
         <v>113769</v>
@@ -13399,7 +13432,7 @@
         <v>12</v>
       </c>
       <c r="B151">
-        <v>2215315</v>
+        <v>2211734</v>
       </c>
       <c r="C151">
         <v>114424</v>
@@ -13419,7 +13452,7 @@
         <v>109</v>
       </c>
       <c r="B152">
-        <v>2247609</v>
+        <v>2243981</v>
       </c>
       <c r="C152">
         <v>115053</v>
@@ -13439,7 +13472,7 @@
         <v>245</v>
       </c>
       <c r="B153">
-        <v>2275537</v>
+        <v>2273032</v>
       </c>
       <c r="C153">
         <v>115347</v>
@@ -13459,7 +13492,7 @@
         <v>21</v>
       </c>
       <c r="B154">
-        <v>2302818</v>
+        <v>2300138</v>
       </c>
       <c r="C154">
         <v>115633</v>
@@ -13479,7 +13512,7 @@
         <v>115</v>
       </c>
       <c r="B155">
-        <v>2336265</v>
+        <v>2334097</v>
       </c>
       <c r="C155">
         <v>116343</v>
@@ -13499,7 +13532,7 @@
         <v>210</v>
       </c>
       <c r="B156">
-        <v>2375340</v>
+        <v>2373132</v>
       </c>
       <c r="C156">
         <v>117067</v>
@@ -13519,7 +13552,7 @@
         <v>58</v>
       </c>
       <c r="B157">
-        <v>2414977</v>
+        <v>2412756</v>
       </c>
       <c r="C157">
         <v>117714</v>
@@ -13539,7 +13572,7 @@
         <v>154</v>
       </c>
       <c r="B158">
-        <v>2459520</v>
+        <v>2457171</v>
       </c>
       <c r="C158">
         <v>118351</v>
@@ -13559,7 +13592,7 @@
         <v>244</v>
       </c>
       <c r="B159">
-        <v>2502684</v>
+        <v>2500284</v>
       </c>
       <c r="C159">
         <v>118862</v>
@@ -13579,7 +13612,7 @@
         <v>27</v>
       </c>
       <c r="B160">
-        <v>2544254</v>
+        <v>2541678</v>
       </c>
       <c r="C160">
         <v>119133</v>
@@ -13599,7 +13632,7 @@
         <v>190</v>
       </c>
       <c r="B161">
-        <v>2584067</v>
+        <v>2581588</v>
       </c>
       <c r="C161">
         <v>119465</v>
@@ -13619,7 +13652,7 @@
         <v>220</v>
       </c>
       <c r="B162">
-        <v>2631931</v>
+        <v>2629386</v>
       </c>
       <c r="C162">
         <v>120061</v>
@@ -13639,7 +13672,7 @@
         <v>129</v>
       </c>
       <c r="B163">
-        <v>2682912</v>
+        <v>2680349</v>
       </c>
       <c r="C163">
         <v>120762</v>
@@ -13659,7 +13692,7 @@
         <v>157</v>
       </c>
       <c r="B164">
-        <v>2736997</v>
+        <v>2733767</v>
       </c>
       <c r="C164">
         <v>121457</v>
@@ -13679,7 +13712,7 @@
         <v>257</v>
       </c>
       <c r="B165">
-        <v>2790945</v>
+        <v>2787551</v>
       </c>
       <c r="C165">
         <v>122055</v>
@@ -13699,7 +13732,7 @@
         <v>74</v>
       </c>
       <c r="B166">
-        <v>2845283</v>
+        <v>2841761</v>
       </c>
       <c r="C166">
         <v>122361</v>
@@ -13719,7 +13752,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>2890895</v>
+        <v>2887170</v>
       </c>
       <c r="C167">
         <v>122570</v>
@@ -13739,7 +13772,7 @@
         <v>7</v>
       </c>
       <c r="B168">
-        <v>2932854</v>
+        <v>2929030</v>
       </c>
       <c r="C168">
         <v>122813</v>
@@ -13759,7 +13792,7 @@
         <v>132</v>
       </c>
       <c r="B169">
-        <v>2984541</v>
+        <v>2980669</v>
       </c>
       <c r="C169">
         <v>123736</v>
@@ -13779,7 +13812,7 @@
         <v>162</v>
       </c>
       <c r="B170">
-        <v>3047213</v>
+        <v>3043299</v>
       </c>
       <c r="C170">
         <v>124543</v>
@@ -13799,7 +13832,7 @@
         <v>69</v>
       </c>
       <c r="B171">
-        <v>3106370</v>
+        <v>3102411</v>
       </c>
       <c r="C171">
         <v>125410</v>
@@ -13819,7 +13852,7 @@
         <v>100</v>
       </c>
       <c r="B172">
-        <v>3173216</v>
+        <v>3169074</v>
       </c>
       <c r="C172">
         <v>126264</v>
@@ -13839,7 +13872,7 @@
         <v>254</v>
       </c>
       <c r="B173">
-        <v>3236111</v>
+        <v>3231883</v>
       </c>
       <c r="C173">
         <v>127021</v>
@@ -13859,7 +13892,7 @@
         <v>30</v>
       </c>
       <c r="B174">
-        <v>3297423</v>
+        <v>3293044</v>
       </c>
       <c r="C174">
         <v>127497</v>
@@ -13879,7 +13912,7 @@
         <v>128</v>
       </c>
       <c r="B175">
-        <v>3355556</v>
+        <v>3350760</v>
       </c>
       <c r="C175">
         <v>127824</v>
@@ -13899,7 +13932,7 @@
         <v>223</v>
       </c>
       <c r="B176">
-        <v>3418243</v>
+        <v>3413436</v>
       </c>
       <c r="C176">
         <v>128560</v>
@@ -13919,7 +13952,7 @@
         <v>55</v>
       </c>
       <c r="B177">
-        <v>3484040</v>
+        <v>3479044</v>
       </c>
       <c r="C177">
         <v>129418</v>
@@ -13939,7 +13972,7 @@
         <v>144</v>
       </c>
       <c r="B178">
-        <v>3555076</v>
+        <v>3549874</v>
       </c>
       <c r="C178">
         <v>130365</v>
@@ -13959,7 +13992,7 @@
         <v>241</v>
       </c>
       <c r="B179">
-        <v>3631918</v>
+        <v>3626424</v>
       </c>
       <c r="C179">
         <v>131316</v>
@@ -13979,7 +14012,7 @@
         <v>19</v>
       </c>
       <c r="B180">
-        <v>3696869</v>
+        <v>3691220</v>
       </c>
       <c r="C180">
         <v>132188</v>
@@ -13999,7 +14032,7 @@
         <v>185</v>
       </c>
       <c r="B181">
-        <v>3761129</v>
+        <v>3755387</v>
       </c>
       <c r="C181">
         <v>132715</v>
@@ -14019,7 +14052,7 @@
         <v>218</v>
       </c>
       <c r="B182">
-        <v>3818170</v>
+        <v>3812486</v>
       </c>
       <c r="C182">
         <v>133078</v>
@@ -14039,7 +14072,7 @@
         <v>125</v>
       </c>
       <c r="B183">
-        <v>3882100</v>
+        <v>3876239</v>
       </c>
       <c r="C183">
         <v>134117</v>
@@ -14059,7 +14092,7 @@
         <v>150</v>
       </c>
       <c r="B184">
-        <v>3951433</v>
+        <v>3945451</v>
       </c>
       <c r="C184">
         <v>135288</v>
@@ -14079,7 +14112,7 @@
         <v>200</v>
       </c>
       <c r="B185">
-        <v>4022986</v>
+        <v>4016867</v>
       </c>
       <c r="C185">
         <v>136344</v>
@@ -14099,7 +14132,7 @@
         <v>106</v>
       </c>
       <c r="B186">
-        <v>4098221</v>
+        <v>4091978</v>
       </c>
       <c r="C186">
         <v>137520</v>
@@ -14119,7 +14152,7 @@
         <v>135</v>
       </c>
       <c r="B187">
-        <v>4162962</v>
+        <v>4156565</v>
       </c>
       <c r="C187">
         <v>138543</v>
@@ -14139,7 +14172,7 @@
         <v>40</v>
       </c>
       <c r="B188">
-        <v>4223962</v>
+        <v>4217467</v>
       </c>
       <c r="C188">
         <v>139102</v>
@@ -14159,7 +14192,7 @@
         <v>76</v>
       </c>
       <c r="B189">
-        <v>4279294</v>
+        <v>4272711</v>
       </c>
       <c r="C189">
         <v>140162</v>
@@ -14179,7 +14212,7 @@
         <v>166</v>
       </c>
       <c r="B190">
-        <v>4338297</v>
+        <v>4331622</v>
       </c>
       <c r="C190">
         <v>141284</v>
@@ -14199,7 +14232,7 @@
         <v>6</v>
       </c>
       <c r="B191">
-        <v>4402705</v>
+        <v>4395904</v>
       </c>
       <c r="C191">
         <v>142776</v>
@@ -14219,7 +14252,7 @@
         <v>104</v>
       </c>
       <c r="B192">
-        <v>4472123</v>
+        <v>4465201</v>
       </c>
       <c r="C192">
         <v>144035</v>
@@ -14239,7 +14272,7 @@
         <v>207</v>
       </c>
       <c r="B193">
-        <v>4539746</v>
+        <v>4532717</v>
       </c>
       <c r="C193">
         <v>145347</v>
@@ -14259,7 +14292,7 @@
         <v>48</v>
       </c>
       <c r="B194">
-        <v>4600847</v>
+        <v>4593678</v>
       </c>
       <c r="C194">
         <v>146537</v>
@@ -14279,7 +14312,7 @@
         <v>83</v>
       </c>
       <c r="B195">
-        <v>4647659</v>
+        <v>4640442</v>
       </c>
       <c r="C195">
         <v>147035</v>
@@ -14299,7 +14332,7 @@
         <v>238</v>
       </c>
       <c r="B196">
-        <v>4697372</v>
+        <v>4690217</v>
       </c>
       <c r="C196">
         <v>147554</v>
@@ -14319,7 +14352,7 @@
         <v>10</v>
       </c>
       <c r="B197">
-        <v>4749238</v>
+        <v>4741994</v>
       </c>
       <c r="C197">
         <v>148809</v>
@@ -14339,7 +14372,7 @@
         <v>172</v>
       </c>
       <c r="B198">
-        <v>4801562</v>
+        <v>4794333</v>
       </c>
       <c r="C198">
         <v>150155</v>
@@ -14359,7 +14392,7 @@
         <v>202</v>
       </c>
       <c r="B199">
-        <v>4855749</v>
+        <v>4848443</v>
       </c>
       <c r="C199">
         <v>151406</v>
@@ -14379,7 +14412,7 @@
         <v>47</v>
       </c>
       <c r="B200">
-        <v>4917094</v>
+        <v>4909643</v>
       </c>
       <c r="C200">
         <v>152739</v>
@@ -14399,7 +14432,7 @@
         <v>147</v>
       </c>
       <c r="B201">
-        <v>4970806</v>
+        <v>4963196</v>
       </c>
       <c r="C201">
         <v>153828</v>
@@ -14419,7 +14452,7 @@
         <v>242</v>
       </c>
       <c r="B202">
-        <v>5021433</v>
+        <v>5013733</v>
       </c>
       <c r="C202">
         <v>154444</v>
@@ -14439,7 +14472,7 @@
         <v>85</v>
       </c>
       <c r="B203">
-        <v>5063522</v>
+        <v>5055817</v>
       </c>
       <c r="C203">
         <v>154870</v>
@@ -14459,7 +14492,7 @@
         <v>179</v>
       </c>
       <c r="B204">
-        <v>5119223</v>
+        <v>5111449</v>
       </c>
       <c r="C204">
         <v>156196</v>
@@ -14479,7 +14512,7 @@
         <v>216</v>
       </c>
       <c r="B205">
-        <v>5175357</v>
+        <v>5167569</v>
       </c>
       <c r="C205">
         <v>157715</v>
@@ -14499,7 +14532,7 @@
         <v>118</v>
       </c>
       <c r="B206">
-        <v>5227116</v>
+        <v>5219319</v>
       </c>
       <c r="C206">
         <v>158878</v>
@@ -14519,7 +14552,7 @@
         <v>153</v>
       </c>
       <c r="B207">
-        <v>5282752</v>
+        <v>5276804</v>
       </c>
       <c r="C207">
         <v>160094</v>
@@ -14539,7 +14572,7 @@
         <v>247</v>
       </c>
       <c r="B208">
-        <v>5338901</v>
+        <v>5332892</v>
       </c>
       <c r="C208">
         <v>161315</v>
@@ -14559,7 +14592,7 @@
         <v>94</v>
       </c>
       <c r="B209">
-        <v>5381388</v>
+        <v>5375347</v>
       </c>
       <c r="C209">
         <v>161934</v>
@@ -14579,7 +14612,7 @@
         <v>189</v>
       </c>
       <c r="B210">
-        <v>5419268</v>
+        <v>5413198</v>
       </c>
       <c r="C210">
         <v>162341</v>
@@ -14599,7 +14632,7 @@
         <v>41</v>
       </c>
       <c r="B211">
-        <v>5460063</v>
+        <v>5453942</v>
       </c>
       <c r="C211">
         <v>163537</v>
@@ -14619,7 +14652,7 @@
         <v>77</v>
       </c>
       <c r="B212">
-        <v>5505018</v>
+        <v>5498862</v>
       </c>
       <c r="C212">
         <v>164957</v>
@@ -14639,7 +14672,7 @@
         <v>168</v>
       </c>
       <c r="B213">
-        <v>5548776</v>
+        <v>5542581</v>
       </c>
       <c r="C213">
         <v>166091</v>
@@ -14659,7 +14692,7 @@
         <v>9</v>
       </c>
       <c r="B214">
-        <v>5595337</v>
+        <v>5589074</v>
       </c>
       <c r="C214">
         <v>167214</v>
@@ -14679,7 +14712,7 @@
         <v>103</v>
       </c>
       <c r="B215">
-        <v>5641573</v>
+        <v>5635259</v>
       </c>
       <c r="C215">
         <v>168243</v>
@@ -14699,7 +14732,7 @@
         <v>198</v>
       </c>
       <c r="B216">
-        <v>5679139</v>
+        <v>5672855</v>
       </c>
       <c r="C216">
         <v>168815</v>
@@ -14719,7 +14752,7 @@
         <v>35</v>
       </c>
       <c r="B217">
-        <v>5713782</v>
+        <v>5707464</v>
       </c>
       <c r="C217">
         <v>169158</v>
@@ -14739,7 +14772,7 @@
         <v>130</v>
       </c>
       <c r="B218">
-        <v>5750161</v>
+        <v>5743835</v>
       </c>
       <c r="C218">
         <v>170305</v>
@@ -14759,7 +14792,7 @@
         <v>227</v>
       </c>
       <c r="B219">
-        <v>5794214</v>
+        <v>5787605</v>
       </c>
       <c r="C219">
         <v>171603</v>
@@ -14779,7 +14812,7 @@
         <v>68</v>
       </c>
       <c r="B220">
-        <v>5838198</v>
+        <v>5831549</v>
       </c>
       <c r="C220">
         <v>172732</v>
@@ -14799,7 +14832,7 @@
         <v>156</v>
       </c>
       <c r="B221">
-        <v>5884746</v>
+        <v>5878014</v>
       </c>
       <c r="C221">
         <v>173756</v>
@@ -14819,7 +14852,7 @@
         <v>253</v>
       </c>
       <c r="B222">
-        <v>5929247</v>
+        <v>5922450</v>
       </c>
       <c r="C222">
         <v>174771</v>
@@ -14839,7 +14872,7 @@
         <v>34</v>
       </c>
       <c r="B223">
-        <v>5968748</v>
+        <v>5961915</v>
       </c>
       <c r="C223">
         <v>175246</v>
@@ -14859,7 +14892,7 @@
         <v>192</v>
       </c>
       <c r="B224">
-        <v>6000154</v>
+        <v>5993312</v>
       </c>
       <c r="C224">
         <v>175612</v>
@@ -14879,7 +14912,7 @@
         <v>214</v>
       </c>
       <c r="B225">
-        <v>6042587</v>
+        <v>6035663</v>
       </c>
       <c r="C225">
         <v>176639</v>
@@ -14899,7 +14932,7 @@
         <v>117</v>
       </c>
       <c r="B226">
-        <v>6073190</v>
+        <v>6066174</v>
       </c>
       <c r="C226">
         <v>177671</v>
@@ -14919,7 +14952,7 @@
         <v>143</v>
       </c>
       <c r="B227">
-        <v>6117904</v>
+        <v>6110804</v>
       </c>
       <c r="C227">
         <v>178741</v>
@@ -14939,7 +14972,7 @@
         <v>240</v>
       </c>
       <c r="B228">
-        <v>6169495</v>
+        <v>6162344</v>
       </c>
       <c r="C228">
         <v>179739</v>
@@ -14959,7 +14992,7 @@
         <v>89</v>
       </c>
       <c r="B229">
-        <v>6214400</v>
+        <v>6207186</v>
       </c>
       <c r="C229">
         <v>180657</v>
@@ -14979,7 +15012,7 @@
         <v>180</v>
       </c>
       <c r="B230">
-        <v>6247517</v>
+        <v>6240252</v>
       </c>
       <c r="C230">
         <v>181106</v>
@@ -14999,7 +15032,7 @@
         <v>26</v>
       </c>
       <c r="B231">
-        <v>6276199</v>
+        <v>6268908</v>
       </c>
       <c r="C231">
         <v>181331</v>
@@ -15019,7 +15052,7 @@
         <v>124</v>
       </c>
       <c r="B232">
-        <v>6298422</v>
+        <v>6291105</v>
       </c>
       <c r="C232">
         <v>181689</v>
@@ -15039,7 +15072,7 @@
         <v>133</v>
       </c>
       <c r="B233">
-        <v>6329536</v>
+        <v>6322169</v>
       </c>
       <c r="C233">
         <v>182773</v>
@@ -15059,7 +15092,7 @@
         <v>42</v>
       </c>
       <c r="B234">
-        <v>6367117</v>
+        <v>6359704</v>
       </c>
       <c r="C234">
         <v>183943</v>
@@ -15079,7 +15112,7 @@
         <v>78</v>
       </c>
       <c r="B235">
-        <v>6412044</v>
+        <v>6404585</v>
       </c>
       <c r="C235">
         <v>184961</v>
@@ -15099,7 +15132,7 @@
         <v>231</v>
       </c>
       <c r="B236">
-        <v>6454134</v>
+        <v>6446653</v>
       </c>
       <c r="C236">
         <v>185771</v>
@@ -15119,7 +15152,7 @@
         <v>8</v>
       </c>
       <c r="B237">
-        <v>6488587</v>
+        <v>6481078</v>
       </c>
       <c r="C237">
         <v>186161</v>
@@ -15139,7 +15172,7 @@
         <v>105</v>
       </c>
       <c r="B238">
-        <v>6522451</v>
+        <v>6514924</v>
       </c>
       <c r="C238">
         <v>186565</v>
@@ -15159,7 +15192,7 @@
         <v>197</v>
       </c>
       <c r="B239">
-        <v>6557896</v>
+        <v>6549996</v>
       </c>
       <c r="C239">
         <v>187596</v>
@@ -15179,7 +15212,7 @@
         <v>39</v>
       </c>
       <c r="B240">
-        <v>6597917</v>
+        <v>6589950</v>
       </c>
       <c r="C240">
         <v>188796</v>
@@ -15199,7 +15232,7 @@
         <v>141</v>
       </c>
       <c r="B241">
-        <v>6641475</v>
+        <v>6633526</v>
       </c>
       <c r="C241">
         <v>189659</v>
@@ -15219,7 +15252,7 @@
         <v>236</v>
       </c>
       <c r="B242">
-        <v>6688961</v>
+        <v>6680985</v>
       </c>
       <c r="C242">
         <v>190560</v>
@@ -15239,7 +15272,7 @@
         <v>17</v>
       </c>
       <c r="B243">
-        <v>6734525</v>
+        <v>6726486</v>
       </c>
       <c r="C243">
         <v>191300</v>
@@ -15259,7 +15292,7 @@
         <v>176</v>
       </c>
       <c r="B244">
-        <v>6770820</v>
+        <v>6762757</v>
       </c>
       <c r="C244">
         <v>191627</v>
@@ -15279,7 +15312,7 @@
         <v>199</v>
       </c>
       <c r="B245">
-        <v>6810292</v>
+        <v>6802215</v>
       </c>
       <c r="C245">
         <v>191914</v>
@@ -15299,7 +15332,7 @@
         <v>112</v>
       </c>
       <c r="B246">
-        <v>6859731</v>
+        <v>6851598</v>
       </c>
       <c r="C246">
         <v>192768</v>
@@ -15319,7 +15352,7 @@
         <v>140</v>
       </c>
       <c r="B247">
-        <v>6898298</v>
+        <v>6890169</v>
       </c>
       <c r="C247">
         <v>193927</v>
@@ -15339,7 +15372,7 @@
         <v>235</v>
       </c>
       <c r="B248">
-        <v>6942070</v>
+        <v>6933877</v>
       </c>
       <c r="C248">
         <v>194848</v>
@@ -15359,7 +15392,7 @@
         <v>116</v>
       </c>
       <c r="B249">
-        <v>6997596</v>
+        <v>6989365</v>
       </c>
       <c r="C249">
         <v>195692</v>
@@ -15379,7 +15412,7 @@
         <v>146</v>
       </c>
       <c r="B250">
-        <v>7045452</v>
+        <v>7037157</v>
       </c>
       <c r="C250">
         <v>196561</v>
@@ -15399,7 +15432,7 @@
         <v>54</v>
       </c>
       <c r="B251">
-        <v>7080906</v>
+        <v>7072576</v>
       </c>
       <c r="C251">
         <v>196868</v>
@@ -15419,7 +15452,7 @@
         <v>86</v>
       </c>
       <c r="B252">
-        <v>7117430</v>
+        <v>7109090</v>
       </c>
       <c r="C252">
         <v>197125</v>
@@ -15439,7 +15472,7 @@
         <v>181</v>
       </c>
       <c r="B253">
-        <v>7154377</v>
+        <v>7145980</v>
       </c>
       <c r="C253">
         <v>197864</v>
@@ -15459,7 +15492,7 @@
         <v>24</v>
       </c>
       <c r="B254">
-        <v>7198801</v>
+        <v>7190336</v>
       </c>
       <c r="C254">
         <v>198925</v>
@@ -15479,7 +15512,7 @@
         <v>259</v>
       </c>
       <c r="B255">
-        <v>7244495</v>
+        <v>7235953</v>
       </c>
       <c r="C255">
         <v>199776</v>
@@ -15499,7 +15532,7 @@
         <v>260</v>
       </c>
       <c r="B256">
-        <v>7294029</v>
+        <v>7285437</v>
       </c>
       <c r="C256">
         <v>200611</v>
@@ -15519,7 +15552,7 @@
         <v>261</v>
       </c>
       <c r="B257">
-        <v>7345401</v>
+        <v>7336775</v>
       </c>
       <c r="C257">
         <v>201352</v>
@@ -15539,7 +15572,7 @@
         <v>262</v>
       </c>
       <c r="B258">
-        <v>7383840</v>
+        <v>7375132</v>
       </c>
       <c r="C258">
         <v>201715</v>
@@ -15559,7 +15592,7 @@
         <v>263</v>
       </c>
       <c r="B259">
-        <v>7421973</v>
+        <v>7413256</v>
       </c>
       <c r="C259">
         <v>202041</v>
@@ -15579,7 +15612,7 @@
         <v>264</v>
       </c>
       <c r="B260">
-        <v>7460634</v>
+        <v>7451867</v>
       </c>
       <c r="C260">
         <v>202675</v>
@@ -15599,7 +15632,7 @@
         <v>265</v>
       </c>
       <c r="B261">
-        <v>7511236</v>
+        <v>7502431</v>
       </c>
       <c r="C261">
         <v>203591</v>
@@ -15619,7 +15652,7 @@
         <v>266</v>
       </c>
       <c r="B262">
-        <v>7566588</v>
+        <v>7557723</v>
       </c>
       <c r="C262">
         <v>204577</v>
@@ -15639,7 +15672,7 @@
         <v>267</v>
       </c>
       <c r="B263">
-        <v>7623648</v>
+        <v>7614728</v>
       </c>
       <c r="C263">
         <v>205470</v>
@@ -15659,7 +15692,7 @@
         <v>268</v>
       </c>
       <c r="B264">
-        <v>7681140</v>
+        <v>7672220</v>
       </c>
       <c r="C264">
         <v>206135</v>
@@ -15679,7 +15712,7 @@
         <v>269</v>
       </c>
       <c r="B265">
-        <v>7728086</v>
+        <v>7719010</v>
       </c>
       <c r="C265">
         <v>206601</v>
@@ -15699,7 +15732,7 @@
         <v>270</v>
       </c>
       <c r="B266">
-        <v>7771210</v>
+        <v>7762120</v>
       </c>
       <c r="C266">
         <v>206888</v>
@@ -15719,7 +15752,7 @@
         <v>271</v>
       </c>
       <c r="B267">
-        <v>7819597</v>
+        <v>7810439</v>
       </c>
       <c r="C267">
         <v>207578</v>
@@ -15739,7 +15772,7 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>7876394</v>
+        <v>7867161</v>
       </c>
       <c r="C268">
         <v>208389</v>
@@ -15759,7 +15792,7 @@
         <v>272</v>
       </c>
       <c r="B269">
-        <v>7939566</v>
+        <v>7930263</v>
       </c>
       <c r="C269">
         <v>209340</v>
@@ -15779,7 +15812,7 @@
         <v>274</v>
       </c>
       <c r="B270">
-        <v>8007690</v>
+        <v>7998303</v>
       </c>
       <c r="C270">
         <v>210217</v>
@@ -15799,7 +15832,7 @@
         <v>275</v>
       </c>
       <c r="B271">
-        <v>8065633</v>
+        <v>8056170</v>
       </c>
       <c r="C271">
         <v>210997</v>
@@ -15819,7 +15852,7 @@
         <v>276</v>
       </c>
       <c r="B272">
-        <v>8114555</v>
+        <v>8105027</v>
       </c>
       <c r="C272">
         <v>211390</v>
@@ -15839,7 +15872,7 @@
         <v>277</v>
       </c>
       <c r="B273">
-        <v>8171703</v>
+        <v>8162159</v>
       </c>
       <c r="C273">
         <v>211846</v>
@@ -15859,7 +15892,7 @@
         <v>278</v>
       </c>
       <c r="B274">
-        <v>8232367</v>
+        <v>8222717</v>
       </c>
       <c r="C274">
         <v>212678</v>
@@ -15879,7 +15912,7 @@
         <v>279</v>
       </c>
       <c r="B275">
-        <v>8290973</v>
+        <v>8283429</v>
       </c>
       <c r="C275">
         <v>213702</v>
@@ -15899,7 +15932,7 @@
         <v>280</v>
       </c>
       <c r="B276">
-        <v>8366221</v>
+        <v>8356436</v>
       </c>
       <c r="C276">
         <v>214845</v>
@@ -15919,7 +15952,7 @@
         <v>281</v>
       </c>
       <c r="B277">
-        <v>8449349</v>
+        <v>8439493</v>
       </c>
       <c r="C277">
         <v>215762</v>
@@ -15939,7 +15972,7 @@
         <v>282</v>
       </c>
       <c r="B278">
-        <v>8532364</v>
+        <v>8522418</v>
       </c>
       <c r="C278">
         <v>216652</v>
@@ -15959,7 +15992,7 @@
         <v>283</v>
       </c>
       <c r="B279">
-        <v>8598051</v>
+        <v>8588068</v>
       </c>
       <c r="C279">
         <v>217029</v>
@@ -15979,7 +16012,7 @@
         <v>284</v>
       </c>
       <c r="B280">
-        <v>8660366</v>
+        <v>8650342</v>
       </c>
       <c r="C280">
         <v>217418</v>
@@ -15992,6 +16025,26 @@
       </c>
       <c r="F280">
         <v>2301</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>285</v>
+      </c>
+      <c r="B281">
+        <v>8723438</v>
+      </c>
+      <c r="C281">
+        <v>218349</v>
+      </c>
+      <c r="D281">
+        <v>44212</v>
+      </c>
+      <c r="E281">
+        <v>8909</v>
+      </c>
+      <c r="F281">
+        <v>2287</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathBeds.xlsx
+++ b/covid19/data/USCaseDeathBeds.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Deaths" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$281</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$282</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="287">
   <si>
     <t>date</t>
   </si>
@@ -888,6 +888,9 @@
   </si>
   <si>
     <t>2020-10-27</t>
+  </si>
+  <si>
+    <t>2020-10-28</t>
   </si>
 </sst>
 </file>
@@ -973,9 +976,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$281</c:f>
+              <c:f>Data!$A$2:$A$282</c:f>
               <c:strCache>
-                <c:ptCount val="280"/>
+                <c:ptCount val="281"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -1815,16 +1818,19 @@
                 </c:pt>
                 <c:pt idx="279">
                   <c:v>2020-10-27</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>2020-10-28</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$281</c:f>
+              <c:f>Data!$B$2:$B$282</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="280"/>
+                <c:ptCount val="281"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2664,6 +2670,9 @@
                 </c:pt>
                 <c:pt idx="279">
                   <c:v>8723438</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>8802099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2680,11 +2689,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="94069120"/>
-        <c:axId val="94070656"/>
+        <c:axId val="78078336"/>
+        <c:axId val="78079872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94069120"/>
+        <c:axId val="78078336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2694,7 +2703,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94070656"/>
+        <c:crossAx val="78079872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2702,7 +2711,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94070656"/>
+        <c:axId val="78079872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2713,7 +2722,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94069120"/>
+        <c:crossAx val="78078336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2768,9 +2777,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$281</c:f>
+              <c:f>Data!$A$2:$A$282</c:f>
               <c:strCache>
-                <c:ptCount val="280"/>
+                <c:ptCount val="281"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -3610,16 +3619,19 @@
                 </c:pt>
                 <c:pt idx="279">
                   <c:v>2020-10-27</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>2020-10-28</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$2:$D$281</c:f>
+              <c:f>Data!$D$2:$D$282</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="280"/>
+                <c:ptCount val="281"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4459,6 +4471,9 @@
                 </c:pt>
                 <c:pt idx="279">
                   <c:v>44212</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>45045</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4475,11 +4490,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="94812416"/>
-        <c:axId val="94814208"/>
+        <c:axId val="78821632"/>
+        <c:axId val="78827520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94812416"/>
+        <c:axId val="78821632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4489,7 +4504,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94814208"/>
+        <c:crossAx val="78827520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4497,7 +4512,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94814208"/>
+        <c:axId val="78827520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4508,7 +4523,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94812416"/>
+        <c:crossAx val="78821632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4563,9 +4578,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$281</c:f>
+              <c:f>Data!$A$2:$A$282</c:f>
               <c:strCache>
-                <c:ptCount val="280"/>
+                <c:ptCount val="281"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -5405,16 +5420,19 @@
                 </c:pt>
                 <c:pt idx="279">
                   <c:v>2020-10-27</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>2020-10-28</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$281</c:f>
+              <c:f>Data!$E$2:$E$282</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="280"/>
+                <c:ptCount val="281"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6254,6 +6272,9 @@
                 </c:pt>
                 <c:pt idx="279">
                   <c:v>8909</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>9034</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6270,11 +6291,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="94712192"/>
-        <c:axId val="94713728"/>
+        <c:axId val="78725504"/>
+        <c:axId val="78727040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94712192"/>
+        <c:axId val="78725504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6284,7 +6305,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94713728"/>
+        <c:crossAx val="78727040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6292,7 +6313,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94713728"/>
+        <c:axId val="78727040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6303,7 +6324,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94712192"/>
+        <c:crossAx val="78725504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6358,9 +6379,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$281</c:f>
+              <c:f>Data!$A$2:$A$282</c:f>
               <c:strCache>
-                <c:ptCount val="280"/>
+                <c:ptCount val="281"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -7200,16 +7221,19 @@
                 </c:pt>
                 <c:pt idx="279">
                   <c:v>2020-10-27</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>2020-10-28</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$281</c:f>
+              <c:f>Data!$F$2:$F$282</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="280"/>
+                <c:ptCount val="281"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8049,6 +8073,9 @@
                 </c:pt>
                 <c:pt idx="279">
                   <c:v>2287</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>2347</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8065,11 +8092,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="94759168"/>
-        <c:axId val="94859264"/>
+        <c:axId val="78772480"/>
+        <c:axId val="78864384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94759168"/>
+        <c:axId val="78772480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8079,7 +8106,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94859264"/>
+        <c:crossAx val="78864384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8087,7 +8114,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94859264"/>
+        <c:axId val="78864384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8098,7 +8125,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94759168"/>
+        <c:crossAx val="78772480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8154,9 +8181,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$281</c:f>
+              <c:f>Data!$A$2:$A$282</c:f>
               <c:strCache>
-                <c:ptCount val="280"/>
+                <c:ptCount val="281"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -8996,16 +9023,19 @@
                 </c:pt>
                 <c:pt idx="279">
                   <c:v>2020-10-27</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>2020-10-28</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$281</c:f>
+              <c:f>Data!$C$2:$C$282</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="280"/>
+                <c:ptCount val="281"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9845,6 +9875,9 @@
                 </c:pt>
                 <c:pt idx="279">
                   <c:v>218349</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>219374</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9861,11 +9894,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="94968064"/>
-        <c:axId val="94969856"/>
+        <c:axId val="78988032"/>
+        <c:axId val="78989568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94968064"/>
+        <c:axId val="78988032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9875,7 +9908,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94969856"/>
+        <c:crossAx val="78989568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9883,7 +9916,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94969856"/>
+        <c:axId val="78989568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9894,7 +9927,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94968064"/>
+        <c:crossAx val="78988032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10107,9 +10140,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F281" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F281"/>
-  <sortState ref="A2:F281">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F282" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F282"/>
+  <sortState ref="A2:F282">
     <sortCondition ref="A1:A254"/>
   </sortState>
   <tableColumns count="6">
@@ -10411,7 +10444,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F281"/>
+  <dimension ref="A1:F282"/>
   <sheetViews>
     <sheetView topLeftCell="A224" workbookViewId="0">
       <selection activeCell="J235" sqref="J235"/>
@@ -16045,6 +16078,26 @@
       </c>
       <c r="F281">
         <v>2287</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>286</v>
+      </c>
+      <c r="B282">
+        <v>8802099</v>
+      </c>
+      <c r="C282">
+        <v>219374</v>
+      </c>
+      <c r="D282">
+        <v>45045</v>
+      </c>
+      <c r="E282">
+        <v>9034</v>
+      </c>
+      <c r="F282">
+        <v>2347</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathBeds.xlsx
+++ b/covid19/data/USCaseDeathBeds.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Deaths" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$282</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$283</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="288">
   <si>
     <t>date</t>
   </si>
@@ -891,6 +891,9 @@
   </si>
   <si>
     <t>2020-10-28</t>
+  </si>
+  <si>
+    <t>2020-10-29</t>
   </si>
 </sst>
 </file>
@@ -976,9 +979,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$282</c:f>
+              <c:f>Data!$A$2:$A$283</c:f>
               <c:strCache>
-                <c:ptCount val="281"/>
+                <c:ptCount val="282"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -1821,16 +1824,19 @@
                 </c:pt>
                 <c:pt idx="280">
                   <c:v>2020-10-28</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>2020-10-29</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$282</c:f>
+              <c:f>Data!$B$2:$B$283</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="281"/>
+                <c:ptCount val="282"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2673,6 +2679,9 @@
                 </c:pt>
                 <c:pt idx="280">
                   <c:v>8802099</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>8890551</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2689,11 +2698,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="78078336"/>
-        <c:axId val="78079872"/>
+        <c:axId val="78082432"/>
+        <c:axId val="78083968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78078336"/>
+        <c:axId val="78082432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2703,7 +2712,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78079872"/>
+        <c:crossAx val="78083968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2711,7 +2720,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78079872"/>
+        <c:axId val="78083968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2722,7 +2731,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78078336"/>
+        <c:crossAx val="78082432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2777,9 +2786,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$282</c:f>
+              <c:f>Data!$A$2:$A$283</c:f>
               <c:strCache>
-                <c:ptCount val="281"/>
+                <c:ptCount val="282"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -3622,16 +3631,19 @@
                 </c:pt>
                 <c:pt idx="280">
                   <c:v>2020-10-28</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>2020-10-29</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$2:$D$282</c:f>
+              <c:f>Data!$D$2:$D$283</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="281"/>
+                <c:ptCount val="282"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4474,6 +4486,9 @@
                 </c:pt>
                 <c:pt idx="280">
                   <c:v>45045</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>46095</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4490,11 +4505,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="78821632"/>
+        <c:axId val="78825728"/>
         <c:axId val="78827520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78821632"/>
+        <c:axId val="78825728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4523,7 +4538,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78821632"/>
+        <c:crossAx val="78825728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4578,9 +4593,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$282</c:f>
+              <c:f>Data!$A$2:$A$283</c:f>
               <c:strCache>
-                <c:ptCount val="281"/>
+                <c:ptCount val="282"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -5423,16 +5438,19 @@
                 </c:pt>
                 <c:pt idx="280">
                   <c:v>2020-10-28</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>2020-10-29</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$282</c:f>
+              <c:f>Data!$E$2:$E$283</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="281"/>
+                <c:ptCount val="282"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6275,6 +6293,9 @@
                 </c:pt>
                 <c:pt idx="280">
                   <c:v>9034</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>9208</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6291,11 +6312,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="78725504"/>
-        <c:axId val="78727040"/>
+        <c:axId val="78729600"/>
+        <c:axId val="78731136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78725504"/>
+        <c:axId val="78729600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6305,7 +6326,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78727040"/>
+        <c:crossAx val="78731136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6313,7 +6334,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78727040"/>
+        <c:axId val="78731136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6324,7 +6345,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78725504"/>
+        <c:crossAx val="78729600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6379,9 +6400,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$282</c:f>
+              <c:f>Data!$A$2:$A$283</c:f>
               <c:strCache>
-                <c:ptCount val="281"/>
+                <c:ptCount val="282"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -7224,16 +7245,19 @@
                 </c:pt>
                 <c:pt idx="280">
                   <c:v>2020-10-28</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>2020-10-29</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$282</c:f>
+              <c:f>Data!$F$2:$F$283</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="281"/>
+                <c:ptCount val="282"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8076,6 +8100,9 @@
                 </c:pt>
                 <c:pt idx="280">
                   <c:v>2347</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>2403</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8092,11 +8119,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="78772480"/>
-        <c:axId val="78864384"/>
+        <c:axId val="78872576"/>
+        <c:axId val="78874112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78772480"/>
+        <c:axId val="78872576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8106,7 +8133,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78864384"/>
+        <c:crossAx val="78874112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8114,7 +8141,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78864384"/>
+        <c:axId val="78874112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8125,7 +8152,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78772480"/>
+        <c:crossAx val="78872576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8181,9 +8208,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$282</c:f>
+              <c:f>Data!$A$2:$A$283</c:f>
               <c:strCache>
-                <c:ptCount val="281"/>
+                <c:ptCount val="282"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -9026,16 +9053,19 @@
                 </c:pt>
                 <c:pt idx="280">
                   <c:v>2020-10-28</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>2020-10-29</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$282</c:f>
+              <c:f>Data!$C$2:$C$283</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="281"/>
+                <c:ptCount val="282"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9878,6 +9908,9 @@
                 </c:pt>
                 <c:pt idx="280">
                   <c:v>219374</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>220423</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9894,11 +9927,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="78988032"/>
         <c:axId val="78989568"/>
+        <c:axId val="78991360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78988032"/>
+        <c:axId val="78989568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9908,7 +9941,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78989568"/>
+        <c:crossAx val="78991360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9916,7 +9949,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78989568"/>
+        <c:axId val="78991360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9927,7 +9960,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78988032"/>
+        <c:crossAx val="78989568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10140,9 +10173,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F282" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F282"/>
-  <sortState ref="A2:F282">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F283" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F283"/>
+  <sortState ref="A2:F283">
     <sortCondition ref="A1:A254"/>
   </sortState>
   <tableColumns count="6">
@@ -10444,7 +10477,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F282"/>
+  <dimension ref="A1:F283"/>
   <sheetViews>
     <sheetView topLeftCell="A224" workbookViewId="0">
       <selection activeCell="J235" sqref="J235"/>
@@ -16098,6 +16131,26 @@
       </c>
       <c r="F282">
         <v>2347</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>287</v>
+      </c>
+      <c r="B283">
+        <v>8890551</v>
+      </c>
+      <c r="C283">
+        <v>220423</v>
+      </c>
+      <c r="D283">
+        <v>46095</v>
+      </c>
+      <c r="E283">
+        <v>9208</v>
+      </c>
+      <c r="F283">
+        <v>2403</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathBeds.xlsx
+++ b/covid19/data/USCaseDeathBeds.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Deaths" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$283</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$284</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="289">
   <si>
     <t>date</t>
   </si>
@@ -894,6 +894,9 @@
   </si>
   <si>
     <t>2020-10-29</t>
+  </si>
+  <si>
+    <t>2020-10-30</t>
   </si>
 </sst>
 </file>
@@ -979,9 +982,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$283</c:f>
+              <c:f>Data!$A$2:$A$284</c:f>
               <c:strCache>
-                <c:ptCount val="282"/>
+                <c:ptCount val="283"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -1827,16 +1830,19 @@
                 </c:pt>
                 <c:pt idx="281">
                   <c:v>2020-10-29</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>2020-10-30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$283</c:f>
+              <c:f>Data!$B$2:$B$284</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="282"/>
+                <c:ptCount val="283"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2682,6 +2688,9 @@
                 </c:pt>
                 <c:pt idx="281">
                   <c:v>8890551</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>8987631</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2698,11 +2707,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="78082432"/>
-        <c:axId val="78083968"/>
+        <c:axId val="67137920"/>
+        <c:axId val="67139456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78082432"/>
+        <c:axId val="67137920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2712,7 +2721,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78083968"/>
+        <c:crossAx val="67139456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2720,7 +2729,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78083968"/>
+        <c:axId val="67139456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2731,7 +2740,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78082432"/>
+        <c:crossAx val="67137920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2786,9 +2795,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$283</c:f>
+              <c:f>Data!$A$2:$A$284</c:f>
               <c:strCache>
-                <c:ptCount val="282"/>
+                <c:ptCount val="283"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -3634,16 +3643,19 @@
                 </c:pt>
                 <c:pt idx="281">
                   <c:v>2020-10-29</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>2020-10-30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$2:$D$283</c:f>
+              <c:f>Data!$D$2:$D$284</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="282"/>
+                <c:ptCount val="283"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4489,6 +4501,9 @@
                 </c:pt>
                 <c:pt idx="281">
                   <c:v>46095</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>46688</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4505,11 +4520,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="78825728"/>
-        <c:axId val="78827520"/>
+        <c:axId val="68999424"/>
+        <c:axId val="69005312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78825728"/>
+        <c:axId val="68999424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4519,7 +4534,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78827520"/>
+        <c:crossAx val="69005312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4527,7 +4542,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78827520"/>
+        <c:axId val="69005312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4538,7 +4553,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78825728"/>
+        <c:crossAx val="68999424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4593,9 +4608,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$283</c:f>
+              <c:f>Data!$A$2:$A$284</c:f>
               <c:strCache>
-                <c:ptCount val="282"/>
+                <c:ptCount val="283"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -5441,16 +5456,19 @@
                 </c:pt>
                 <c:pt idx="281">
                   <c:v>2020-10-29</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>2020-10-30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$283</c:f>
+              <c:f>Data!$E$2:$E$284</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="282"/>
+                <c:ptCount val="283"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6296,6 +6314,9 @@
                 </c:pt>
                 <c:pt idx="281">
                   <c:v>9208</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>9437</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6312,11 +6333,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="78729600"/>
-        <c:axId val="78731136"/>
+        <c:axId val="68903296"/>
+        <c:axId val="68904832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78729600"/>
+        <c:axId val="68903296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6326,7 +6347,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78731136"/>
+        <c:crossAx val="68904832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6334,7 +6355,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78731136"/>
+        <c:axId val="68904832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6345,7 +6366,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78729600"/>
+        <c:crossAx val="68903296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6400,9 +6421,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$283</c:f>
+              <c:f>Data!$A$2:$A$284</c:f>
               <c:strCache>
-                <c:ptCount val="282"/>
+                <c:ptCount val="283"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -7248,16 +7269,19 @@
                 </c:pt>
                 <c:pt idx="281">
                   <c:v>2020-10-29</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>2020-10-30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$283</c:f>
+              <c:f>Data!$F$2:$F$284</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="282"/>
+                <c:ptCount val="283"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8103,6 +8127,9 @@
                 </c:pt>
                 <c:pt idx="281">
                   <c:v>2403</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>2477</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8119,11 +8146,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="78872576"/>
-        <c:axId val="78874112"/>
+        <c:axId val="69081344"/>
+        <c:axId val="69111808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78872576"/>
+        <c:axId val="69081344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8133,7 +8160,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78874112"/>
+        <c:crossAx val="69111808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8141,7 +8168,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78874112"/>
+        <c:axId val="69111808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8152,7 +8179,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78872576"/>
+        <c:crossAx val="69081344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8208,9 +8235,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$283</c:f>
+              <c:f>Data!$A$2:$A$284</c:f>
               <c:strCache>
-                <c:ptCount val="282"/>
+                <c:ptCount val="283"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -9056,16 +9083,19 @@
                 </c:pt>
                 <c:pt idx="281">
                   <c:v>2020-10-29</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>2020-10-30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$283</c:f>
+              <c:f>Data!$C$2:$C$284</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="282"/>
+                <c:ptCount val="283"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9911,6 +9941,9 @@
                 </c:pt>
                 <c:pt idx="281">
                   <c:v>220423</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>221356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9927,11 +9960,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="78989568"/>
-        <c:axId val="78991360"/>
+        <c:axId val="69157248"/>
+        <c:axId val="69158784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78989568"/>
+        <c:axId val="69157248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9941,7 +9974,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78991360"/>
+        <c:crossAx val="69158784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9949,7 +9982,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78991360"/>
+        <c:axId val="69158784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9960,7 +9993,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78989568"/>
+        <c:crossAx val="69157248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10173,9 +10206,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F283" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F283"/>
-  <sortState ref="A2:F283">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F284" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F284"/>
+  <sortState ref="A2:F284">
     <sortCondition ref="A1:A254"/>
   </sortState>
   <tableColumns count="6">
@@ -10477,7 +10510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F283"/>
+  <dimension ref="A1:F284"/>
   <sheetViews>
     <sheetView topLeftCell="A224" workbookViewId="0">
       <selection activeCell="J235" sqref="J235"/>
@@ -16151,6 +16184,26 @@
       </c>
       <c r="F283">
         <v>2403</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>288</v>
+      </c>
+      <c r="B284">
+        <v>8987631</v>
+      </c>
+      <c r="C284">
+        <v>221356</v>
+      </c>
+      <c r="D284">
+        <v>46688</v>
+      </c>
+      <c r="E284">
+        <v>9437</v>
+      </c>
+      <c r="F284">
+        <v>2477</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathBeds.xlsx
+++ b/covid19/data/USCaseDeathBeds.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Deaths" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$284</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$285</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="290">
   <si>
     <t>date</t>
   </si>
@@ -897,6 +897,9 @@
   </si>
   <si>
     <t>2020-10-30</t>
+  </si>
+  <si>
+    <t>2020-10-31</t>
   </si>
 </sst>
 </file>
@@ -982,9 +985,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$284</c:f>
+              <c:f>Data!$A$2:$A$285</c:f>
               <c:strCache>
-                <c:ptCount val="283"/>
+                <c:ptCount val="284"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -1833,16 +1836,19 @@
                 </c:pt>
                 <c:pt idx="282">
                   <c:v>2020-10-30</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>2020-10-31</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$284</c:f>
+              <c:f>Data!$B$2:$B$285</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="283"/>
+                <c:ptCount val="284"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2691,6 +2697,9 @@
                 </c:pt>
                 <c:pt idx="282">
                   <c:v>8987631</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>9077689</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2707,11 +2716,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="67137920"/>
-        <c:axId val="67139456"/>
+        <c:axId val="111940352"/>
+        <c:axId val="111941888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="67137920"/>
+        <c:axId val="111940352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2721,7 +2730,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67139456"/>
+        <c:crossAx val="111941888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2729,7 +2738,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67139456"/>
+        <c:axId val="111941888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2740,7 +2749,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67137920"/>
+        <c:crossAx val="111940352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2795,9 +2804,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$284</c:f>
+              <c:f>Data!$A$2:$A$285</c:f>
               <c:strCache>
-                <c:ptCount val="283"/>
+                <c:ptCount val="284"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -3646,16 +3655,19 @@
                 </c:pt>
                 <c:pt idx="282">
                   <c:v>2020-10-30</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>2020-10-31</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$2:$D$284</c:f>
+              <c:f>Data!$D$2:$D$285</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="283"/>
+                <c:ptCount val="284"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4504,6 +4516,9 @@
                 </c:pt>
                 <c:pt idx="282">
                   <c:v>46688</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>47374</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4520,11 +4535,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="68999424"/>
-        <c:axId val="69005312"/>
+        <c:axId val="112228992"/>
+        <c:axId val="112230784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="68999424"/>
+        <c:axId val="112228992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4534,7 +4549,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69005312"/>
+        <c:crossAx val="112230784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4542,7 +4557,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69005312"/>
+        <c:axId val="112230784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4553,7 +4568,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68999424"/>
+        <c:crossAx val="112228992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4608,9 +4623,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$284</c:f>
+              <c:f>Data!$A$2:$A$285</c:f>
               <c:strCache>
-                <c:ptCount val="283"/>
+                <c:ptCount val="284"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -5459,16 +5474,19 @@
                 </c:pt>
                 <c:pt idx="282">
                   <c:v>2020-10-30</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>2020-10-31</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$284</c:f>
+              <c:f>Data!$E$2:$E$285</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="283"/>
+                <c:ptCount val="284"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6317,6 +6335,9 @@
                 </c:pt>
                 <c:pt idx="282">
                   <c:v>9437</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>9495</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6333,11 +6354,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="68903296"/>
-        <c:axId val="68904832"/>
+        <c:axId val="112263936"/>
+        <c:axId val="112265472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="68903296"/>
+        <c:axId val="112263936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6347,7 +6368,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68904832"/>
+        <c:crossAx val="112265472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6355,7 +6376,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68904832"/>
+        <c:axId val="112265472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6366,7 +6387,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68903296"/>
+        <c:crossAx val="112263936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6421,9 +6442,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$284</c:f>
+              <c:f>Data!$A$2:$A$285</c:f>
               <c:strCache>
-                <c:ptCount val="283"/>
+                <c:ptCount val="284"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -7272,16 +7293,19 @@
                 </c:pt>
                 <c:pt idx="282">
                   <c:v>2020-10-30</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>2020-10-31</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$284</c:f>
+              <c:f>Data!$F$2:$F$285</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="283"/>
+                <c:ptCount val="284"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8130,6 +8154,9 @@
                 </c:pt>
                 <c:pt idx="282">
                   <c:v>2477</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>2502</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8146,11 +8173,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="69081344"/>
-        <c:axId val="69111808"/>
+        <c:axId val="112310912"/>
+        <c:axId val="112341376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="69081344"/>
+        <c:axId val="112310912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8160,7 +8187,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69111808"/>
+        <c:crossAx val="112341376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8168,7 +8195,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69111808"/>
+        <c:axId val="112341376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8179,7 +8206,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69081344"/>
+        <c:crossAx val="112310912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8235,9 +8262,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$284</c:f>
+              <c:f>Data!$A$2:$A$285</c:f>
               <c:strCache>
-                <c:ptCount val="283"/>
+                <c:ptCount val="284"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -9086,16 +9113,19 @@
                 </c:pt>
                 <c:pt idx="282">
                   <c:v>2020-10-30</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>2020-10-31</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$284</c:f>
+              <c:f>Data!$C$2:$C$285</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="283"/>
+                <c:ptCount val="284"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9944,6 +9974,9 @@
                 </c:pt>
                 <c:pt idx="282">
                   <c:v>221356</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>222316</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9960,11 +9993,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="69157248"/>
-        <c:axId val="69158784"/>
+        <c:axId val="112388352"/>
+        <c:axId val="112390144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="69157248"/>
+        <c:axId val="112388352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9974,7 +10007,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69158784"/>
+        <c:crossAx val="112390144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9982,7 +10015,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69158784"/>
+        <c:axId val="112390144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9993,7 +10026,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69157248"/>
+        <c:crossAx val="112388352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10206,9 +10239,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F284" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F284"/>
-  <sortState ref="A2:F284">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F285" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F285"/>
+  <sortState ref="A2:F285">
     <sortCondition ref="A1:A254"/>
   </sortState>
   <tableColumns count="6">
@@ -10510,7 +10543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F284"/>
+  <dimension ref="A1:F285"/>
   <sheetViews>
     <sheetView topLeftCell="A224" workbookViewId="0">
       <selection activeCell="J235" sqref="J235"/>
@@ -10519,11 +10552,11 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -16204,6 +16237,26 @@
       </c>
       <c r="F284">
         <v>2477</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>289</v>
+      </c>
+      <c r="B285">
+        <v>9077689</v>
+      </c>
+      <c r="C285">
+        <v>222316</v>
+      </c>
+      <c r="D285">
+        <v>47374</v>
+      </c>
+      <c r="E285">
+        <v>9495</v>
+      </c>
+      <c r="F285">
+        <v>2502</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathBeds.xlsx
+++ b/covid19/data/USCaseDeathBeds.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Deaths" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$285</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$286</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="291">
   <si>
     <t>date</t>
   </si>
@@ -900,6 +900,9 @@
   </si>
   <si>
     <t>2020-10-31</t>
+  </si>
+  <si>
+    <t>2020-11-01</t>
   </si>
 </sst>
 </file>
@@ -985,9 +988,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$285</c:f>
+              <c:f>Data!$A$2:$A$286</c:f>
               <c:strCache>
-                <c:ptCount val="284"/>
+                <c:ptCount val="285"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -1839,16 +1842,19 @@
                 </c:pt>
                 <c:pt idx="283">
                   <c:v>2020-10-31</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>2020-11-01</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$285</c:f>
+              <c:f>Data!$B$2:$B$286</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="284"/>
+                <c:ptCount val="285"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2700,6 +2706,9 @@
                 </c:pt>
                 <c:pt idx="283">
                   <c:v>9077689</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>9151390</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2716,11 +2725,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="111940352"/>
-        <c:axId val="111941888"/>
+        <c:axId val="81043840"/>
+        <c:axId val="81045376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="111940352"/>
+        <c:axId val="81043840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2730,7 +2739,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111941888"/>
+        <c:crossAx val="81045376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2738,7 +2747,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111941888"/>
+        <c:axId val="81045376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2749,7 +2758,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111940352"/>
+        <c:crossAx val="81043840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2804,9 +2813,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$285</c:f>
+              <c:f>Data!$A$2:$A$286</c:f>
               <c:strCache>
-                <c:ptCount val="284"/>
+                <c:ptCount val="285"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -3658,16 +3667,19 @@
                 </c:pt>
                 <c:pt idx="283">
                   <c:v>2020-10-31</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>2020-11-01</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$2:$D$285</c:f>
+              <c:f>Data!$D$2:$D$286</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="284"/>
+                <c:ptCount val="285"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4519,6 +4531,9 @@
                 </c:pt>
                 <c:pt idx="283">
                   <c:v>47374</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>47502</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4535,11 +4550,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="112228992"/>
-        <c:axId val="112230784"/>
+        <c:axId val="81783040"/>
+        <c:axId val="81784832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112228992"/>
+        <c:axId val="81783040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4549,7 +4564,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112230784"/>
+        <c:crossAx val="81784832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4557,7 +4572,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112230784"/>
+        <c:axId val="81784832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4568,7 +4583,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112228992"/>
+        <c:crossAx val="81783040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4623,9 +4638,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$285</c:f>
+              <c:f>Data!$A$2:$A$286</c:f>
               <c:strCache>
-                <c:ptCount val="284"/>
+                <c:ptCount val="285"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -5477,16 +5492,19 @@
                 </c:pt>
                 <c:pt idx="283">
                   <c:v>2020-10-31</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>2020-11-01</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$285</c:f>
+              <c:f>Data!$E$2:$E$286</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="284"/>
+                <c:ptCount val="285"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6338,6 +6356,9 @@
                 </c:pt>
                 <c:pt idx="283">
                   <c:v>9495</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>9546</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6354,11 +6375,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="112263936"/>
-        <c:axId val="112265472"/>
+        <c:axId val="81682816"/>
+        <c:axId val="81684352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112263936"/>
+        <c:axId val="81682816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6368,7 +6389,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112265472"/>
+        <c:crossAx val="81684352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6376,7 +6397,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112265472"/>
+        <c:axId val="81684352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6387,7 +6408,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112263936"/>
+        <c:crossAx val="81682816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6442,9 +6463,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$285</c:f>
+              <c:f>Data!$A$2:$A$286</c:f>
               <c:strCache>
-                <c:ptCount val="284"/>
+                <c:ptCount val="285"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -7296,16 +7317,19 @@
                 </c:pt>
                 <c:pt idx="283">
                   <c:v>2020-10-31</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>2020-11-01</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$285</c:f>
+              <c:f>Data!$F$2:$F$286</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="284"/>
+                <c:ptCount val="285"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8157,6 +8181,9 @@
                 </c:pt>
                 <c:pt idx="283">
                   <c:v>2502</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>2553</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8173,11 +8200,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="112310912"/>
-        <c:axId val="112341376"/>
+        <c:axId val="81864960"/>
+        <c:axId val="81895424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112310912"/>
+        <c:axId val="81864960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8187,7 +8214,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112341376"/>
+        <c:crossAx val="81895424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8195,7 +8222,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112341376"/>
+        <c:axId val="81895424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8206,7 +8233,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112310912"/>
+        <c:crossAx val="81864960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8262,9 +8289,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$285</c:f>
+              <c:f>Data!$A$2:$A$286</c:f>
               <c:strCache>
-                <c:ptCount val="284"/>
+                <c:ptCount val="285"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -9116,16 +9143,19 @@
                 </c:pt>
                 <c:pt idx="283">
                   <c:v>2020-10-31</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>2020-11-01</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$285</c:f>
+              <c:f>Data!$C$2:$C$286</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="284"/>
+                <c:ptCount val="285"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9977,6 +10007,9 @@
                 </c:pt>
                 <c:pt idx="283">
                   <c:v>222316</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>222704</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9993,11 +10026,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="112388352"/>
-        <c:axId val="112390144"/>
+        <c:axId val="81938688"/>
+        <c:axId val="81940480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112388352"/>
+        <c:axId val="81938688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10007,7 +10040,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112390144"/>
+        <c:crossAx val="81940480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10015,7 +10048,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112390144"/>
+        <c:axId val="81940480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10026,7 +10059,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112388352"/>
+        <c:crossAx val="81938688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10239,9 +10272,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F285" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F285"/>
-  <sortState ref="A2:F285">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F286" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F286"/>
+  <sortState ref="A2:F286">
     <sortCondition ref="A1:A254"/>
   </sortState>
   <tableColumns count="6">
@@ -10543,7 +10576,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F285"/>
+  <dimension ref="A1:F286"/>
   <sheetViews>
     <sheetView topLeftCell="A224" workbookViewId="0">
       <selection activeCell="J235" sqref="J235"/>
@@ -10552,11 +10585,11 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -16257,6 +16290,26 @@
       </c>
       <c r="F285">
         <v>2502</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>290</v>
+      </c>
+      <c r="B286">
+        <v>9151390</v>
+      </c>
+      <c r="C286">
+        <v>222704</v>
+      </c>
+      <c r="D286">
+        <v>47502</v>
+      </c>
+      <c r="E286">
+        <v>9546</v>
+      </c>
+      <c r="F286">
+        <v>2553</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathBeds.xlsx
+++ b/covid19/data/USCaseDeathBeds.xlsx
@@ -2725,11 +2725,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="81043840"/>
-        <c:axId val="81045376"/>
+        <c:axId val="100147968"/>
+        <c:axId val="100149504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81043840"/>
+        <c:axId val="100147968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2739,7 +2739,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81045376"/>
+        <c:crossAx val="100149504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2747,7 +2747,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81045376"/>
+        <c:axId val="100149504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2758,7 +2758,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81043840"/>
+        <c:crossAx val="100147968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4550,11 +4550,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="81783040"/>
-        <c:axId val="81784832"/>
+        <c:axId val="100440704"/>
+        <c:axId val="100442496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81783040"/>
+        <c:axId val="100440704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4564,7 +4564,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81784832"/>
+        <c:crossAx val="100442496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4572,7 +4572,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81784832"/>
+        <c:axId val="100442496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4583,7 +4583,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81783040"/>
+        <c:crossAx val="100440704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6375,11 +6375,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="81682816"/>
-        <c:axId val="81684352"/>
+        <c:axId val="100475648"/>
+        <c:axId val="100477184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81682816"/>
+        <c:axId val="100475648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6389,7 +6389,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81684352"/>
+        <c:crossAx val="100477184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6397,7 +6397,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81684352"/>
+        <c:axId val="100477184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6408,7 +6408,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81682816"/>
+        <c:crossAx val="100475648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8200,11 +8200,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="81864960"/>
-        <c:axId val="81895424"/>
+        <c:axId val="100526720"/>
+        <c:axId val="100557184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81864960"/>
+        <c:axId val="100526720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8214,7 +8214,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81895424"/>
+        <c:crossAx val="100557184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8222,7 +8222,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81895424"/>
+        <c:axId val="100557184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8233,7 +8233,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81864960"/>
+        <c:crossAx val="100526720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10026,11 +10026,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="81938688"/>
-        <c:axId val="81940480"/>
+        <c:axId val="100670080"/>
+        <c:axId val="100671872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81938688"/>
+        <c:axId val="100670080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10040,7 +10040,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81940480"/>
+        <c:crossAx val="100671872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10048,7 +10048,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81940480"/>
+        <c:axId val="100671872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10059,7 +10059,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81938688"/>
+        <c:crossAx val="100670080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10585,11 +10585,11 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">

--- a/covid19/data/USCaseDeathBeds.xlsx
+++ b/covid19/data/USCaseDeathBeds.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034CB8D7-2E6A-4CCB-8753-6910D4C2D56B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="22380" yWindow="780" windowWidth="14400" windowHeight="11205" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -22,8 +23,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" odcFile="C:\Users\Mark\Documents\My Data Sources\howe-hp_howehp Covid19 CaseDeathsBeds.odc" keepAlive="1" name="howe-hp_howehp Covid19 CaseDeathsBeds" type="5" refreshedVersion="4" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" odcFile="C:\Users\Mark\Documents\My Data Sources\howe-hp_howehp Covid19 CaseDeathsBeds.odc" keepAlive="1" name="howe-hp_howehp Covid19 CaseDeathsBeds" type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=SQLOLEDB.1;Integrated Security=SSPI;Persist Security Info=True;Initial Catalog=Covid19;Data Source=howe-hp\howehp;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=4096;Workstation ID=HOWE-HP;Use Encryption for Data=False;Tag with column collation when possible=False" command="&quot;Covid19&quot;.&quot;dbo&quot;.&quot;CaseDeathsBeds&quot;" commandType="3"/>
   </connection>
 </connections>
@@ -908,7 +909,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -950,12 +951,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2714,6 +2718,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6E58-4ADA-B3A4-D96C15FD3F5B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2723,7 +2732,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="100147968"/>
         <c:axId val="100149504"/>
@@ -2780,7 +2788,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4539,6 +4547,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F0F1-4994-A054-51D08EEFE224}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4548,7 +4561,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="100440704"/>
         <c:axId val="100442496"/>
@@ -4605,7 +4617,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6364,6 +6376,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-434C-42EC-B714-CF8013BFF3CF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6373,7 +6390,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="100475648"/>
         <c:axId val="100477184"/>
@@ -6430,7 +6446,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -8189,6 +8205,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3503-466B-BEC6-4668FD0B6A3C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -8198,7 +8219,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="100526720"/>
         <c:axId val="100557184"/>
@@ -8255,7 +8275,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -8269,7 +8289,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -10015,6 +10034,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-99FA-45A3-8EEA-87450F0A3641}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -10024,7 +10048,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="100670080"/>
         <c:axId val="100671872"/>
@@ -10066,7 +10089,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -10098,7 +10120,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -10133,7 +10161,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -10168,7 +10202,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -10203,7 +10243,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -10238,7 +10284,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -10257,7 +10309,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="howe-hp_howehp Covid19 CaseDeathsBeds" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="howe-hp_howehp Covid19 CaseDeathsBeds" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="7">
     <queryTableFields count="6">
       <queryTableField id="1" name="date" tableColumnId="1"/>
@@ -10272,18 +10324,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F286" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F286"/>
-  <sortState ref="A2:F286">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F286" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F286" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F286">
     <sortCondition ref="A1:A254"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" uniqueName="1" name="date" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="Case Count" queryTableFieldId="2"/>
-    <tableColumn id="3" uniqueName="3" name="Death Count" queryTableFieldId="3"/>
-    <tableColumn id="4" uniqueName="4" name="Bed Count" queryTableFieldId="4"/>
-    <tableColumn id="5" uniqueName="5" name="ICU" queryTableFieldId="5"/>
-    <tableColumn id="6" uniqueName="6" name="On Ventilator" queryTableFieldId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="date" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="Case Count" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="Death Count" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="4" name="Bed Count" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="5" name="ICU" queryTableFieldId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="6" name="On Ventilator" queryTableFieldId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10332,7 +10384,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10365,9 +10417,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10400,6 +10469,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -10575,7 +10661,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F286"/>
   <sheetViews>
     <sheetView topLeftCell="A224" workbookViewId="0">
@@ -16321,7 +16407,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -16334,7 +16420,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -16347,7 +16433,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -16360,7 +16446,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -16373,7 +16459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/covid19/data/USCaseDeathBeds.xlsx
+++ b/covid19/data/USCaseDeathBeds.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034CB8D7-2E6A-4CCB-8753-6910D4C2D56B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24765044-B8EA-40BB-80F3-94CAA89C75DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22380" yWindow="780" windowWidth="14400" windowHeight="11205" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22380" yWindow="780" windowWidth="14400" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="Deaths" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$286</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$288</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="293">
   <si>
     <t>date</t>
   </si>
@@ -904,6 +904,12 @@
   </si>
   <si>
     <t>2020-11-01</t>
+  </si>
+  <si>
+    <t>2020-11-02</t>
+  </si>
+  <si>
+    <t>2020-11-03</t>
   </si>
 </sst>
 </file>
@@ -992,9 +998,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$286</c:f>
+              <c:f>Data!$A$2:$A$288</c:f>
               <c:strCache>
-                <c:ptCount val="285"/>
+                <c:ptCount val="287"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -1849,16 +1855,22 @@
                 </c:pt>
                 <c:pt idx="284">
                   <c:v>2020-11-01</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>2020-11-02</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>2020-11-03</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$286</c:f>
+              <c:f>Data!$B$2:$B$288</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="285"/>
+                <c:ptCount val="287"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2709,10 +2721,16 @@
                   <c:v>8987631</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>9077689</c:v>
+                  <c:v>9078223</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>9151390</c:v>
+                  <c:v>9152404</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>9235299</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>9321806</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2821,9 +2839,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$286</c:f>
+              <c:f>Data!$A$2:$A$288</c:f>
               <c:strCache>
-                <c:ptCount val="285"/>
+                <c:ptCount val="287"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -3678,16 +3696,22 @@
                 </c:pt>
                 <c:pt idx="284">
                   <c:v>2020-11-01</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>2020-11-02</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>2020-11-03</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$2:$D$286</c:f>
+              <c:f>Data!$D$2:$D$288</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="285"/>
+                <c:ptCount val="287"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4538,10 +4562,16 @@
                   <c:v>46688</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>47374</c:v>
+                  <c:v>47375</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>47502</c:v>
+                  <c:v>47520</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>48470</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>50340</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4650,9 +4680,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$286</c:f>
+              <c:f>Data!$A$2:$A$288</c:f>
               <c:strCache>
-                <c:ptCount val="285"/>
+                <c:ptCount val="287"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -5507,16 +5537,22 @@
                 </c:pt>
                 <c:pt idx="284">
                   <c:v>2020-11-01</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>2020-11-02</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>2020-11-03</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$286</c:f>
+              <c:f>Data!$E$2:$E$288</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="285"/>
+                <c:ptCount val="287"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6367,10 +6403,16 @@
                   <c:v>9437</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>9495</c:v>
+                  <c:v>9499</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>9546</c:v>
+                  <c:v>9553</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>9858</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>10105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6479,9 +6521,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$286</c:f>
+              <c:f>Data!$A$2:$A$288</c:f>
               <c:strCache>
-                <c:ptCount val="285"/>
+                <c:ptCount val="287"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -7336,16 +7378,22 @@
                 </c:pt>
                 <c:pt idx="284">
                   <c:v>2020-11-01</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>2020-11-02</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>2020-11-03</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$286</c:f>
+              <c:f>Data!$F$2:$F$288</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="285"/>
+                <c:ptCount val="287"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8200,6 +8248,12 @@
                 </c:pt>
                 <c:pt idx="284">
                   <c:v>2553</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>2637</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>2733</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8308,9 +8362,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$286</c:f>
+              <c:f>Data!$A$2:$A$288</c:f>
               <c:strCache>
-                <c:ptCount val="285"/>
+                <c:ptCount val="287"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -9165,16 +9219,22 @@
                 </c:pt>
                 <c:pt idx="284">
                   <c:v>2020-11-01</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>2020-11-02</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>2020-11-03</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$286</c:f>
+              <c:f>Data!$C$2:$C$288</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="285"/>
+                <c:ptCount val="287"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10025,10 +10085,16 @@
                   <c:v>221356</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>222316</c:v>
+                  <c:v>222319</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>222704</c:v>
+                  <c:v>222710</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>223186</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>224265</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10324,9 +10390,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F286" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F286" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F286">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F288" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F288" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F288">
     <sortCondition ref="A1:A254"/>
   </sortState>
   <tableColumns count="6">
@@ -10662,9 +10728,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F286"/>
+  <dimension ref="A1:F288"/>
   <sheetViews>
-    <sheetView topLeftCell="A224" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
       <selection activeCell="J235" sqref="J235"/>
     </sheetView>
   </sheetViews>
@@ -16363,16 +16429,16 @@
         <v>289</v>
       </c>
       <c r="B285">
-        <v>9077689</v>
+        <v>9078223</v>
       </c>
       <c r="C285">
-        <v>222316</v>
+        <v>222319</v>
       </c>
       <c r="D285">
-        <v>47374</v>
+        <v>47375</v>
       </c>
       <c r="E285">
-        <v>9495</v>
+        <v>9499</v>
       </c>
       <c r="F285">
         <v>2502</v>
@@ -16383,19 +16449,59 @@
         <v>290</v>
       </c>
       <c r="B286">
-        <v>9151390</v>
+        <v>9152404</v>
       </c>
       <c r="C286">
-        <v>222704</v>
+        <v>222710</v>
       </c>
       <c r="D286">
-        <v>47502</v>
+        <v>47520</v>
       </c>
       <c r="E286">
-        <v>9546</v>
+        <v>9553</v>
       </c>
       <c r="F286">
         <v>2553</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>291</v>
+      </c>
+      <c r="B287">
+        <v>9235299</v>
+      </c>
+      <c r="C287">
+        <v>223186</v>
+      </c>
+      <c r="D287">
+        <v>48470</v>
+      </c>
+      <c r="E287">
+        <v>9858</v>
+      </c>
+      <c r="F287">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>292</v>
+      </c>
+      <c r="B288">
+        <v>9321806</v>
+      </c>
+      <c r="C288">
+        <v>224265</v>
+      </c>
+      <c r="D288">
+        <v>50340</v>
+      </c>
+      <c r="E288">
+        <v>10105</v>
+      </c>
+      <c r="F288">
+        <v>2733</v>
       </c>
     </row>
   </sheetData>
@@ -16462,7 +16568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/covid19/data/USCaseDeathBeds.xlsx
+++ b/covid19/data/USCaseDeathBeds.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24765044-B8EA-40BB-80F3-94CAA89C75DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DF779F-787C-4C49-92DD-446EAE20C11F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22380" yWindow="780" windowWidth="14400" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Deaths" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$288</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$289</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="294">
   <si>
     <t>date</t>
   </si>
@@ -910,6 +910,9 @@
   </si>
   <si>
     <t>2020-11-03</t>
+  </si>
+  <si>
+    <t>2020-11-04</t>
   </si>
 </sst>
 </file>
@@ -998,9 +1001,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$288</c:f>
+              <c:f>Data!$A$2:$A$289</c:f>
               <c:strCache>
-                <c:ptCount val="287"/>
+                <c:ptCount val="288"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -1861,16 +1864,19 @@
                 </c:pt>
                 <c:pt idx="286">
                   <c:v>2020-11-03</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>2020-11-04</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$288</c:f>
+              <c:f>Data!$B$2:$B$289</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="287"/>
+                <c:ptCount val="288"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2731,6 +2737,9 @@
                 </c:pt>
                 <c:pt idx="286">
                   <c:v>9321806</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>9424893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2839,9 +2848,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$288</c:f>
+              <c:f>Data!$A$2:$A$289</c:f>
               <c:strCache>
-                <c:ptCount val="287"/>
+                <c:ptCount val="288"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -3702,16 +3711,19 @@
                 </c:pt>
                 <c:pt idx="286">
                   <c:v>2020-11-03</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>2020-11-04</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$2:$D$288</c:f>
+              <c:f>Data!$D$2:$D$289</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="287"/>
+                <c:ptCount val="288"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4572,6 +4584,9 @@
                 </c:pt>
                 <c:pt idx="286">
                   <c:v>50340</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>52049</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4680,9 +4695,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$288</c:f>
+              <c:f>Data!$A$2:$A$289</c:f>
               <c:strCache>
-                <c:ptCount val="287"/>
+                <c:ptCount val="288"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -5543,16 +5558,19 @@
                 </c:pt>
                 <c:pt idx="286">
                   <c:v>2020-11-03</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>2020-11-04</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$288</c:f>
+              <c:f>Data!$E$2:$E$289</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="287"/>
+                <c:ptCount val="288"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6413,6 +6431,9 @@
                 </c:pt>
                 <c:pt idx="286">
                   <c:v>10105</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>10445</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6521,9 +6542,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$288</c:f>
+              <c:f>Data!$A$2:$A$289</c:f>
               <c:strCache>
-                <c:ptCount val="287"/>
+                <c:ptCount val="288"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -7384,16 +7405,19 @@
                 </c:pt>
                 <c:pt idx="286">
                   <c:v>2020-11-03</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>2020-11-04</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$288</c:f>
+              <c:f>Data!$F$2:$F$289</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="287"/>
+                <c:ptCount val="288"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8254,6 +8278,9 @@
                 </c:pt>
                 <c:pt idx="286">
                   <c:v>2733</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>2832</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8362,9 +8389,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$288</c:f>
+              <c:f>Data!$A$2:$A$289</c:f>
               <c:strCache>
-                <c:ptCount val="287"/>
+                <c:ptCount val="288"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -9225,16 +9252,19 @@
                 </c:pt>
                 <c:pt idx="286">
                   <c:v>2020-11-03</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>2020-11-04</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$288</c:f>
+              <c:f>Data!$C$2:$C$289</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="287"/>
+                <c:ptCount val="288"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10094,7 +10124,10 @@
                   <c:v>223186</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>224265</c:v>
+                  <c:v>224715</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>225831</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10390,9 +10423,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F288" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F288" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F288">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F289" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F289" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F289">
     <sortCondition ref="A1:A254"/>
   </sortState>
   <tableColumns count="6">
@@ -10728,7 +10761,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F288"/>
+  <dimension ref="A1:F289"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
       <selection activeCell="J235" sqref="J235"/>
@@ -16492,7 +16525,7 @@
         <v>9321806</v>
       </c>
       <c r="C288">
-        <v>224265</v>
+        <v>224715</v>
       </c>
       <c r="D288">
         <v>50340</v>
@@ -16502,6 +16535,26 @@
       </c>
       <c r="F288">
         <v>2733</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>293</v>
+      </c>
+      <c r="B289">
+        <v>9424893</v>
+      </c>
+      <c r="C289">
+        <v>225831</v>
+      </c>
+      <c r="D289">
+        <v>52049</v>
+      </c>
+      <c r="E289">
+        <v>10445</v>
+      </c>
+      <c r="F289">
+        <v>2832</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathBeds.xlsx
+++ b/covid19/data/USCaseDeathBeds.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DF779F-787C-4C49-92DD-446EAE20C11F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A3B881-97D1-4877-8236-01B2C6F2C5DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22380" yWindow="780" windowWidth="14400" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Deaths" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$289</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$290</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="295">
   <si>
     <t>date</t>
   </si>
@@ -913,6 +913,9 @@
   </si>
   <si>
     <t>2020-11-04</t>
+  </si>
+  <si>
+    <t>2020-11-05</t>
   </si>
 </sst>
 </file>
@@ -1001,9 +1004,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$289</c:f>
+              <c:f>Data!$A$2:$A$290</c:f>
               <c:strCache>
-                <c:ptCount val="288"/>
+                <c:ptCount val="289"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -1867,16 +1870,19 @@
                 </c:pt>
                 <c:pt idx="287">
                   <c:v>2020-11-04</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>2020-11-05</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$289</c:f>
+              <c:f>Data!$B$2:$B$290</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="288"/>
+                <c:ptCount val="289"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2740,6 +2746,9 @@
                 </c:pt>
                 <c:pt idx="287">
                   <c:v>9424893</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>9541148</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2848,9 +2857,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$289</c:f>
+              <c:f>Data!$A$2:$A$290</c:f>
               <c:strCache>
-                <c:ptCount val="288"/>
+                <c:ptCount val="289"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -3714,16 +3723,19 @@
                 </c:pt>
                 <c:pt idx="287">
                   <c:v>2020-11-04</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>2020-11-05</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$2:$D$289</c:f>
+              <c:f>Data!$D$2:$D$290</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="288"/>
+                <c:ptCount val="289"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4587,6 +4599,9 @@
                 </c:pt>
                 <c:pt idx="287">
                   <c:v>52049</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>53322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4695,9 +4710,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$289</c:f>
+              <c:f>Data!$A$2:$A$290</c:f>
               <c:strCache>
-                <c:ptCount val="288"/>
+                <c:ptCount val="289"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -5561,16 +5576,19 @@
                 </c:pt>
                 <c:pt idx="287">
                   <c:v>2020-11-04</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>2020-11-05</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$289</c:f>
+              <c:f>Data!$E$2:$E$290</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="288"/>
+                <c:ptCount val="289"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6434,6 +6452,9 @@
                 </c:pt>
                 <c:pt idx="287">
                   <c:v>10445</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>10583</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6542,9 +6563,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$289</c:f>
+              <c:f>Data!$A$2:$A$290</c:f>
               <c:strCache>
-                <c:ptCount val="288"/>
+                <c:ptCount val="289"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -7408,16 +7429,19 @@
                 </c:pt>
                 <c:pt idx="287">
                   <c:v>2020-11-04</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>2020-11-05</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$289</c:f>
+              <c:f>Data!$F$2:$F$290</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="288"/>
+                <c:ptCount val="289"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8281,6 +8305,9 @@
                 </c:pt>
                 <c:pt idx="287">
                   <c:v>2832</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>2877</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8389,9 +8416,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$289</c:f>
+              <c:f>Data!$A$2:$A$290</c:f>
               <c:strCache>
-                <c:ptCount val="288"/>
+                <c:ptCount val="289"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -9255,16 +9282,19 @@
                 </c:pt>
                 <c:pt idx="287">
                   <c:v>2020-11-04</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>2020-11-05</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$289</c:f>
+              <c:f>Data!$C$2:$C$290</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="288"/>
+                <c:ptCount val="289"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10128,6 +10158,9 @@
                 </c:pt>
                 <c:pt idx="287">
                   <c:v>225831</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>226955</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10423,9 +10456,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F289" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F289" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F289">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F290" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F290" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F290">
     <sortCondition ref="A1:A254"/>
   </sortState>
   <tableColumns count="6">
@@ -10761,7 +10794,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F289"/>
+  <dimension ref="A1:F290"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
       <selection activeCell="J235" sqref="J235"/>
@@ -16555,6 +16588,26 @@
       </c>
       <c r="F289">
         <v>2832</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>294</v>
+      </c>
+      <c r="B290">
+        <v>9541148</v>
+      </c>
+      <c r="C290">
+        <v>226955</v>
+      </c>
+      <c r="D290">
+        <v>53322</v>
+      </c>
+      <c r="E290">
+        <v>10583</v>
+      </c>
+      <c r="F290">
+        <v>2877</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathBeds.xlsx
+++ b/covid19/data/USCaseDeathBeds.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A3B881-97D1-4877-8236-01B2C6F2C5DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05813089-8E44-48A3-AB7F-DAA113257B37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22380" yWindow="780" windowWidth="14400" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Deaths" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$290</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$291</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="296">
   <si>
     <t>date</t>
   </si>
@@ -916,6 +916,9 @@
   </si>
   <si>
     <t>2020-11-05</t>
+  </si>
+  <si>
+    <t>2020-11-06</t>
   </si>
 </sst>
 </file>
@@ -1004,9 +1007,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$290</c:f>
+              <c:f>Data!$A$2:$A$291</c:f>
               <c:strCache>
-                <c:ptCount val="289"/>
+                <c:ptCount val="290"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -1873,16 +1876,19 @@
                 </c:pt>
                 <c:pt idx="288">
                   <c:v>2020-11-05</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>2020-11-06</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$290</c:f>
+              <c:f>Data!$B$2:$B$291</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="289"/>
+                <c:ptCount val="290"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2749,6 +2755,9 @@
                 </c:pt>
                 <c:pt idx="288">
                   <c:v>9541148</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>9666700</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2857,9 +2866,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$290</c:f>
+              <c:f>Data!$A$2:$A$291</c:f>
               <c:strCache>
-                <c:ptCount val="289"/>
+                <c:ptCount val="290"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -3726,16 +3735,19 @@
                 </c:pt>
                 <c:pt idx="288">
                   <c:v>2020-11-05</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>2020-11-06</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$2:$D$290</c:f>
+              <c:f>Data!$D$2:$D$291</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="289"/>
+                <c:ptCount val="290"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4602,6 +4614,9 @@
                 </c:pt>
                 <c:pt idx="288">
                   <c:v>53322</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>54824</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4710,9 +4725,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$290</c:f>
+              <c:f>Data!$A$2:$A$291</c:f>
               <c:strCache>
-                <c:ptCount val="289"/>
+                <c:ptCount val="290"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -5579,16 +5594,19 @@
                 </c:pt>
                 <c:pt idx="288">
                   <c:v>2020-11-05</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>2020-11-06</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$290</c:f>
+              <c:f>Data!$E$2:$E$291</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="289"/>
+                <c:ptCount val="290"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6448,13 +6466,16 @@
                   <c:v>9858</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>10105</c:v>
+                  <c:v>10406</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>10445</c:v>
+                  <c:v>10761</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>10583</c:v>
+                  <c:v>10918</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>11085</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6563,9 +6584,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$290</c:f>
+              <c:f>Data!$A$2:$A$291</c:f>
               <c:strCache>
-                <c:ptCount val="289"/>
+                <c:ptCount val="290"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -7432,16 +7453,19 @@
                 </c:pt>
                 <c:pt idx="288">
                   <c:v>2020-11-05</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>2020-11-06</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$290</c:f>
+              <c:f>Data!$F$2:$F$291</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="289"/>
+                <c:ptCount val="290"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8308,6 +8332,9 @@
                 </c:pt>
                 <c:pt idx="288">
                   <c:v>2877</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>2850</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8416,9 +8443,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$290</c:f>
+              <c:f>Data!$A$2:$A$291</c:f>
               <c:strCache>
-                <c:ptCount val="289"/>
+                <c:ptCount val="290"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -9285,16 +9312,19 @@
                 </c:pt>
                 <c:pt idx="288">
                   <c:v>2020-11-05</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>2020-11-06</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$290</c:f>
+              <c:f>Data!$C$2:$C$291</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="289"/>
+                <c:ptCount val="290"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10161,6 +10191,9 @@
                 </c:pt>
                 <c:pt idx="288">
                   <c:v>226955</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>228141</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10456,9 +10489,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F290" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F290" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F290">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F291" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F291" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F291">
     <sortCondition ref="A1:A254"/>
   </sortState>
   <tableColumns count="6">
@@ -10794,7 +10827,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F290"/>
+  <dimension ref="A1:F291"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
       <selection activeCell="J235" sqref="J235"/>
@@ -16564,7 +16597,7 @@
         <v>50340</v>
       </c>
       <c r="E288">
-        <v>10105</v>
+        <v>10406</v>
       </c>
       <c r="F288">
         <v>2733</v>
@@ -16584,7 +16617,7 @@
         <v>52049</v>
       </c>
       <c r="E289">
-        <v>10445</v>
+        <v>10761</v>
       </c>
       <c r="F289">
         <v>2832</v>
@@ -16604,10 +16637,30 @@
         <v>53322</v>
       </c>
       <c r="E290">
-        <v>10583</v>
+        <v>10918</v>
       </c>
       <c r="F290">
         <v>2877</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>295</v>
+      </c>
+      <c r="B291">
+        <v>9666700</v>
+      </c>
+      <c r="C291">
+        <v>228141</v>
+      </c>
+      <c r="D291">
+        <v>54824</v>
+      </c>
+      <c r="E291">
+        <v>11085</v>
+      </c>
+      <c r="F291">
+        <v>2850</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathBeds.xlsx
+++ b/covid19/data/USCaseDeathBeds.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05813089-8E44-48A3-AB7F-DAA113257B37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6638E8E-22EB-4A31-9BC3-A580162BA88F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22380" yWindow="780" windowWidth="14400" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Deaths" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$291</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$292</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="297">
   <si>
     <t>date</t>
   </si>
@@ -919,6 +919,9 @@
   </si>
   <si>
     <t>2020-11-06</t>
+  </si>
+  <si>
+    <t>2020-11-07</t>
   </si>
 </sst>
 </file>
@@ -1007,9 +1010,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$291</c:f>
+              <c:f>Data!$A$2:$A$292</c:f>
               <c:strCache>
-                <c:ptCount val="290"/>
+                <c:ptCount val="291"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -1879,16 +1882,19 @@
                 </c:pt>
                 <c:pt idx="289">
                   <c:v>2020-11-06</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>2020-11-07</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$291</c:f>
+              <c:f>Data!$B$2:$B$292</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="290"/>
+                <c:ptCount val="291"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2169,595 +2175,598 @@
                   <c:v>872048</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>906151</c:v>
+                  <c:v>905746</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>942109</c:v>
+                  <c:v>941680</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>969525</c:v>
+                  <c:v>969045</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>992142</c:v>
+                  <c:v>991648</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1017462</c:v>
+                  <c:v>1016960</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1043626</c:v>
+                  <c:v>1043097</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1073618</c:v>
+                  <c:v>1073034</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1106578</c:v>
+                  <c:v>1105967</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1135700</c:v>
+                  <c:v>1134916</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1161418</c:v>
+                  <c:v>1160598</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1184016</c:v>
+                  <c:v>1183174</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1206492</c:v>
+                  <c:v>1205573</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1231625</c:v>
+                  <c:v>1230663</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>1258961</c:v>
+                  <c:v>1257943</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>1286156</c:v>
+                  <c:v>1285029</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1311337</c:v>
+                  <c:v>1310198</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1332478</c:v>
+                  <c:v>1331320</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1350852</c:v>
+                  <c:v>1349650</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1373407</c:v>
+                  <c:v>1372170</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1395012</c:v>
+                  <c:v>1393747</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1421781</c:v>
+                  <c:v>1420427</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1447252</c:v>
+                  <c:v>1445798</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1470833</c:v>
+                  <c:v>1469358</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1491201</c:v>
+                  <c:v>1489702</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>1512029</c:v>
+                  <c:v>1510514</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>1533036</c:v>
+                  <c:v>1531438</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>1554292</c:v>
+                  <c:v>1552632</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>1580966</c:v>
+                  <c:v>1579266</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>1605348</c:v>
+                  <c:v>1603539</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>1626936</c:v>
+                  <c:v>1625706</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>1646813</c:v>
+                  <c:v>1644854</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>1665585</c:v>
+                  <c:v>1663565</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>1682404</c:v>
+                  <c:v>1680321</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>1701947</c:v>
+                  <c:v>1699810</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>1724532</c:v>
+                  <c:v>1722326</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>1748113</c:v>
+                  <c:v>1745759</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>1771620</c:v>
+                  <c:v>1769202</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>1793309</c:v>
+                  <c:v>1790837</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>1813827</c:v>
+                  <c:v>1811258</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>1833921</c:v>
+                  <c:v>1831291</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>1854203</c:v>
+                  <c:v>1851493</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>1874935</c:v>
+                  <c:v>1871749</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>1898043</c:v>
+                  <c:v>1894753</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>1921081</c:v>
+                  <c:v>1917526</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>1940033</c:v>
+                  <c:v>1936412</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>1957305</c:v>
+                  <c:v>1953632</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>1974679</c:v>
+                  <c:v>1970880</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>1995444</c:v>
+                  <c:v>1991517</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>2017568</c:v>
+                  <c:v>2013619</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>2040897</c:v>
+                  <c:v>2036804</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>2066168</c:v>
+                  <c:v>2061938</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>2087684</c:v>
+                  <c:v>2083344</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>2106335</c:v>
+                  <c:v>2101922</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>2129721</c:v>
+                  <c:v>2125249</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>2153539</c:v>
+                  <c:v>2149022</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>2180772</c:v>
+                  <c:v>2176157</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>2211734</c:v>
+                  <c:v>2207038</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>2243981</c:v>
+                  <c:v>2239049</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>2273032</c:v>
+                  <c:v>2268040</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>2300138</c:v>
+                  <c:v>2295114</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>2334097</c:v>
+                  <c:v>2328962</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>2373132</c:v>
+                  <c:v>2367889</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>2412756</c:v>
+                  <c:v>2407458</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>2457171</c:v>
+                  <c:v>2451832</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>2500284</c:v>
+                  <c:v>2494820</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>2541678</c:v>
+                  <c:v>2536113</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>2581588</c:v>
+                  <c:v>2575976</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>2629386</c:v>
+                  <c:v>2623614</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>2680349</c:v>
+                  <c:v>2674541</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>2733767</c:v>
+                  <c:v>2727926</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>2787551</c:v>
+                  <c:v>2781659</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>2841761</c:v>
+                  <c:v>2835791</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>2887170</c:v>
+                  <c:v>2881100</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>2929030</c:v>
+                  <c:v>2922516</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>2980669</c:v>
+                  <c:v>2974102</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>3043299</c:v>
+                  <c:v>3036725</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>3102411</c:v>
+                  <c:v>3095784</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>3169074</c:v>
+                  <c:v>3162288</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>3231883</c:v>
+                  <c:v>3224952</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>3293044</c:v>
+                  <c:v>3285973</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>3350760</c:v>
+                  <c:v>3343561</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>3413436</c:v>
+                  <c:v>3406217</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>3479044</c:v>
+                  <c:v>3471708</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>3549874</c:v>
+                  <c:v>3542419</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>3626424</c:v>
+                  <c:v>3618576</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>3691220</c:v>
+                  <c:v>3683228</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>3755387</c:v>
+                  <c:v>3747115</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>3812486</c:v>
+                  <c:v>3804036</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>3876239</c:v>
+                  <c:v>3867554</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>3945451</c:v>
+                  <c:v>3936743</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>4016867</c:v>
+                  <c:v>4007968</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>4091978</c:v>
+                  <c:v>4082805</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>4156565</c:v>
+                  <c:v>4147067</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>4217467</c:v>
+                  <c:v>4207560</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>4272711</c:v>
+                  <c:v>4262696</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>4331622</c:v>
+                  <c:v>4321367</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>4395904</c:v>
+                  <c:v>4385543</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>4465201</c:v>
+                  <c:v>4454549</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>4532717</c:v>
+                  <c:v>4521933</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>4593678</c:v>
+                  <c:v>4582349</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>4640442</c:v>
+                  <c:v>4628866</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>4690217</c:v>
+                  <c:v>4678539</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>4741994</c:v>
+                  <c:v>4730083</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>4794333</c:v>
+                  <c:v>4782366</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>4848443</c:v>
+                  <c:v>4836333</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>4909643</c:v>
+                  <c:v>4897187</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>4963196</c:v>
+                  <c:v>4950345</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>5013733</c:v>
+                  <c:v>5000546</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>5055817</c:v>
+                  <c:v>5042315</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>5111449</c:v>
+                  <c:v>5097651</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>5167569</c:v>
+                  <c:v>5153664</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>5219319</c:v>
+                  <c:v>5205152</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>5276804</c:v>
+                  <c:v>5262406</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>5332892</c:v>
+                  <c:v>5318266</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>5375347</c:v>
+                  <c:v>5360592</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>5413198</c:v>
+                  <c:v>5398161</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>5453942</c:v>
+                  <c:v>5438600</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>5498862</c:v>
+                  <c:v>5483380</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>5542581</c:v>
+                  <c:v>5527014</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>5589074</c:v>
+                  <c:v>5573242</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>5635259</c:v>
+                  <c:v>5618964</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>5672855</c:v>
+                  <c:v>5656436</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>5707464</c:v>
+                  <c:v>5690768</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>5743835</c:v>
+                  <c:v>5727107</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>5787605</c:v>
+                  <c:v>5770871</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>5831549</c:v>
+                  <c:v>5814635</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>5878014</c:v>
+                  <c:v>5860752</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>5922450</c:v>
+                  <c:v>5904886</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>5961915</c:v>
+                  <c:v>5944296</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>5993312</c:v>
+                  <c:v>5975589</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>6035663</c:v>
+                  <c:v>6017826</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>6066174</c:v>
+                  <c:v>6048113</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>6110804</c:v>
+                  <c:v>6092675</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>6162344</c:v>
+                  <c:v>6144204</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>6207186</c:v>
+                  <c:v>6188937</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>6240252</c:v>
+                  <c:v>6221988</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>6268908</c:v>
+                  <c:v>6250225</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>6291105</c:v>
+                  <c:v>6272389</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>6322169</c:v>
+                  <c:v>6303451</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>6359704</c:v>
+                  <c:v>6340673</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>6404585</c:v>
+                  <c:v>6385361</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>6446653</c:v>
+                  <c:v>6427159</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>6481078</c:v>
+                  <c:v>6461467</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>6514924</c:v>
+                  <c:v>6495151</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>6549996</c:v>
+                  <c:v>6530030</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>6589950</c:v>
+                  <c:v>6569918</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>6633526</c:v>
+                  <c:v>6613293</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>6680985</c:v>
+                  <c:v>6660414</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>6726486</c:v>
+                  <c:v>6705300</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>6762757</c:v>
+                  <c:v>6740988</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>6802215</c:v>
+                  <c:v>6780050</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>6851598</c:v>
+                  <c:v>6829401</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>6890169</c:v>
+                  <c:v>6867948</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>6933877</c:v>
+                  <c:v>6911191</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>6989365</c:v>
+                  <c:v>6966328</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>7037157</c:v>
+                  <c:v>7013908</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>7072576</c:v>
+                  <c:v>7048969</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>7109090</c:v>
+                  <c:v>7085025</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>7145980</c:v>
+                  <c:v>7121314</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>7190336</c:v>
+                  <c:v>7165581</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>7235953</c:v>
+                  <c:v>7211062</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>7285437</c:v>
+                  <c:v>7260195</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>7336775</c:v>
+                  <c:v>7311204</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>7375132</c:v>
+                  <c:v>7349491</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>7413256</c:v>
+                  <c:v>7387348</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>7451867</c:v>
+                  <c:v>7425765</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>7502431</c:v>
+                  <c:v>7476321</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>7557723</c:v>
+                  <c:v>7531439</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>7614728</c:v>
+                  <c:v>7588162</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>7672220</c:v>
+                  <c:v>7645414</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>7719010</c:v>
+                  <c:v>7692115</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>7762120</c:v>
+                  <c:v>7734890</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>7810439</c:v>
+                  <c:v>7783038</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>7867161</c:v>
+                  <c:v>7839274</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>7930263</c:v>
+                  <c:v>7902125</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>7998303</c:v>
+                  <c:v>7970065</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>8056170</c:v>
+                  <c:v>8027813</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>8105027</c:v>
+                  <c:v>8076445</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>8162159</c:v>
+                  <c:v>8133347</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>8222717</c:v>
+                  <c:v>8193659</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>8283429</c:v>
+                  <c:v>8254316</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>8356436</c:v>
+                  <c:v>8327203</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>8439493</c:v>
+                  <c:v>8409465</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>8522418</c:v>
+                  <c:v>8492210</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>8588068</c:v>
+                  <c:v>8557302</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>8650342</c:v>
+                  <c:v>8619405</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>8723438</c:v>
+                  <c:v>8692402</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>8802099</c:v>
+                  <c:v>8771039</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>8890551</c:v>
+                  <c:v>8859032</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>8987631</c:v>
+                  <c:v>8955741</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>9078223</c:v>
+                  <c:v>9046233</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>9152404</c:v>
+                  <c:v>9120284</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>9235299</c:v>
+                  <c:v>9202532</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>9321806</c:v>
+                  <c:v>9288613</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>9424893</c:v>
+                  <c:v>9391680</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>9541148</c:v>
+                  <c:v>9507833</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>9666700</c:v>
+                  <c:v>9633085</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>9761481</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2866,9 +2875,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$291</c:f>
+              <c:f>Data!$A$2:$A$292</c:f>
               <c:strCache>
-                <c:ptCount val="290"/>
+                <c:ptCount val="291"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -3738,16 +3747,19 @@
                 </c:pt>
                 <c:pt idx="289">
                   <c:v>2020-11-06</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>2020-11-07</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$2:$D$291</c:f>
+              <c:f>Data!$D$2:$D$292</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="290"/>
+                <c:ptCount val="291"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4617,6 +4629,9 @@
                 </c:pt>
                 <c:pt idx="289">
                   <c:v>54824</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>55817</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4725,9 +4740,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$291</c:f>
+              <c:f>Data!$A$2:$A$292</c:f>
               <c:strCache>
-                <c:ptCount val="290"/>
+                <c:ptCount val="291"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -5597,16 +5612,19 @@
                 </c:pt>
                 <c:pt idx="289">
                   <c:v>2020-11-06</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>2020-11-07</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$291</c:f>
+              <c:f>Data!$E$2:$E$292</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="290"/>
+                <c:ptCount val="291"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6476,6 +6494,9 @@
                 </c:pt>
                 <c:pt idx="289">
                   <c:v>11085</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>11078</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6584,9 +6605,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$291</c:f>
+              <c:f>Data!$A$2:$A$292</c:f>
               <c:strCache>
-                <c:ptCount val="290"/>
+                <c:ptCount val="291"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -7456,16 +7477,19 @@
                 </c:pt>
                 <c:pt idx="289">
                   <c:v>2020-11-06</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>2020-11-07</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$291</c:f>
+              <c:f>Data!$F$2:$F$292</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="290"/>
+                <c:ptCount val="291"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8335,6 +8359,9 @@
                 </c:pt>
                 <c:pt idx="289">
                   <c:v>2850</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>2943</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8443,9 +8470,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$291</c:f>
+              <c:f>Data!$A$2:$A$292</c:f>
               <c:strCache>
-                <c:ptCount val="290"/>
+                <c:ptCount val="291"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -9315,16 +9342,19 @@
                 </c:pt>
                 <c:pt idx="289">
                   <c:v>2020-11-06</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>2020-11-07</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$291</c:f>
+              <c:f>Data!$C$2:$C$292</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="290"/>
+                <c:ptCount val="291"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10194,6 +10224,9 @@
                 </c:pt>
                 <c:pt idx="289">
                   <c:v>228141</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>229238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10489,9 +10522,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F291" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F291" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F291">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F292" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F292" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F292">
     <sortCondition ref="A1:A254"/>
   </sortState>
   <tableColumns count="6">
@@ -10827,7 +10860,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F291"/>
+  <dimension ref="A1:F292"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
       <selection activeCell="J235" sqref="J235"/>
@@ -12728,7 +12761,7 @@
         <v>142</v>
       </c>
       <c r="B95">
-        <v>906151</v>
+        <v>905746</v>
       </c>
       <c r="C95">
         <v>48420</v>
@@ -12748,7 +12781,7 @@
         <v>239</v>
       </c>
       <c r="B96">
-        <v>942109</v>
+        <v>941680</v>
       </c>
       <c r="C96">
         <v>50168</v>
@@ -12768,7 +12801,7 @@
         <v>18</v>
       </c>
       <c r="B97">
-        <v>969525</v>
+        <v>969045</v>
       </c>
       <c r="C97">
         <v>51383</v>
@@ -12788,7 +12821,7 @@
         <v>175</v>
       </c>
       <c r="B98">
-        <v>992142</v>
+        <v>991648</v>
       </c>
       <c r="C98">
         <v>52653</v>
@@ -12808,7 +12841,7 @@
         <v>205</v>
       </c>
       <c r="B99">
-        <v>1017462</v>
+        <v>1016960</v>
       </c>
       <c r="C99">
         <v>54725</v>
@@ -12828,7 +12861,7 @@
         <v>111</v>
       </c>
       <c r="B100">
-        <v>1043626</v>
+        <v>1043097</v>
       </c>
       <c r="C100">
         <v>57438</v>
@@ -12848,7 +12881,7 @@
         <v>136</v>
       </c>
       <c r="B101">
-        <v>1073618</v>
+        <v>1073034</v>
       </c>
       <c r="C101">
         <v>59577</v>
@@ -12868,7 +12901,7 @@
         <v>233</v>
       </c>
       <c r="B102">
-        <v>1106578</v>
+        <v>1105967</v>
       </c>
       <c r="C102">
         <v>61356</v>
@@ -12888,7 +12921,7 @@
         <v>82</v>
       </c>
       <c r="B103">
-        <v>1135700</v>
+        <v>1134916</v>
       </c>
       <c r="C103">
         <v>62918</v>
@@ -12908,7 +12941,7 @@
         <v>173</v>
       </c>
       <c r="B104">
-        <v>1161418</v>
+        <v>1160598</v>
       </c>
       <c r="C104">
         <v>64150</v>
@@ -12928,7 +12961,7 @@
         <v>23</v>
       </c>
       <c r="B105">
-        <v>1184016</v>
+        <v>1183174</v>
       </c>
       <c r="C105">
         <v>65185</v>
@@ -12948,7 +12981,7 @@
         <v>121</v>
       </c>
       <c r="B106">
-        <v>1206492</v>
+        <v>1205573</v>
       </c>
       <c r="C106">
         <v>67637</v>
@@ -12968,7 +13001,7 @@
         <v>151</v>
       </c>
       <c r="B107">
-        <v>1231625</v>
+        <v>1230663</v>
       </c>
       <c r="C107">
         <v>69585</v>
@@ -12988,7 +13021,7 @@
         <v>52</v>
       </c>
       <c r="B108">
-        <v>1258961</v>
+        <v>1257943</v>
       </c>
       <c r="C108">
         <v>72337</v>
@@ -13008,7 +13041,7 @@
         <v>92</v>
       </c>
       <c r="B109">
-        <v>1286156</v>
+        <v>1285029</v>
       </c>
       <c r="C109">
         <v>74135</v>
@@ -13028,7 +13061,7 @@
         <v>248</v>
       </c>
       <c r="B110">
-        <v>1311337</v>
+        <v>1310198</v>
       </c>
       <c r="C110">
         <v>75580</v>
@@ -13048,7 +13081,7 @@
         <v>22</v>
       </c>
       <c r="B111">
-        <v>1332478</v>
+        <v>1331320</v>
       </c>
       <c r="C111">
         <v>76616</v>
@@ -13068,7 +13101,7 @@
         <v>120</v>
       </c>
       <c r="B112">
-        <v>1350852</v>
+        <v>1349650</v>
       </c>
       <c r="C112">
         <v>77508</v>
@@ -13088,7 +13121,7 @@
         <v>222</v>
       </c>
       <c r="B113">
-        <v>1373407</v>
+        <v>1372170</v>
       </c>
       <c r="C113">
         <v>78994</v>
@@ -13108,7 +13141,7 @@
         <v>61</v>
       </c>
       <c r="B114">
-        <v>1395012</v>
+        <v>1393747</v>
       </c>
       <c r="C114">
         <v>80698</v>
@@ -13128,7 +13161,7 @@
         <v>159</v>
       </c>
       <c r="B115">
-        <v>1421781</v>
+        <v>1420427</v>
       </c>
       <c r="C115">
         <v>82577</v>
@@ -13148,7 +13181,7 @@
         <v>256</v>
       </c>
       <c r="B116">
-        <v>1447252</v>
+        <v>1445798</v>
       </c>
       <c r="C116">
         <v>84084</v>
@@ -13168,7 +13201,7 @@
         <v>33</v>
       </c>
       <c r="B117">
-        <v>1470833</v>
+        <v>1469358</v>
       </c>
       <c r="C117">
         <v>85071</v>
@@ -13188,7 +13221,7 @@
         <v>194</v>
       </c>
       <c r="B118">
-        <v>1491201</v>
+        <v>1489702</v>
       </c>
       <c r="C118">
         <v>85920</v>
@@ -13208,7 +13241,7 @@
         <v>226</v>
       </c>
       <c r="B119">
-        <v>1512029</v>
+        <v>1510514</v>
       </c>
       <c r="C119">
         <v>86768</v>
@@ -13228,7 +13261,7 @@
         <v>71</v>
       </c>
       <c r="B120">
-        <v>1533036</v>
+        <v>1531438</v>
       </c>
       <c r="C120">
         <v>88094</v>
@@ -13248,7 +13281,7 @@
         <v>163</v>
       </c>
       <c r="B121">
-        <v>1554292</v>
+        <v>1552632</v>
       </c>
       <c r="C121">
         <v>89493</v>
@@ -13268,7 +13301,7 @@
         <v>258</v>
       </c>
       <c r="B122">
-        <v>1580966</v>
+        <v>1579266</v>
       </c>
       <c r="C122">
         <v>90887</v>
@@ -13288,7 +13321,7 @@
         <v>99</v>
       </c>
       <c r="B123">
-        <v>1605348</v>
+        <v>1603539</v>
       </c>
       <c r="C123">
         <v>92228</v>
@@ -13308,7 +13341,7 @@
         <v>193</v>
       </c>
       <c r="B124">
-        <v>1626936</v>
+        <v>1625706</v>
       </c>
       <c r="C124">
         <v>93291</v>
@@ -13328,7 +13361,7 @@
         <v>31</v>
       </c>
       <c r="B125">
-        <v>1646813</v>
+        <v>1644854</v>
       </c>
       <c r="C125">
         <v>93971</v>
@@ -13348,7 +13381,7 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>1665585</v>
+        <v>1663565</v>
       </c>
       <c r="C126">
         <v>94530</v>
@@ -13368,7 +13401,7 @@
         <v>158</v>
       </c>
       <c r="B127">
-        <v>1682404</v>
+        <v>1680321</v>
       </c>
       <c r="C127">
         <v>95175</v>
@@ -13388,7 +13421,7 @@
         <v>64</v>
       </c>
       <c r="B128">
-        <v>1701947</v>
+        <v>1699810</v>
       </c>
       <c r="C128">
         <v>96496</v>
@@ -13408,7 +13441,7 @@
         <v>88</v>
       </c>
       <c r="B129">
-        <v>1724532</v>
+        <v>1722326</v>
       </c>
       <c r="C129">
         <v>97727</v>
@@ -13428,7 +13461,7 @@
         <v>182</v>
       </c>
       <c r="B130">
-        <v>1748113</v>
+        <v>1745759</v>
       </c>
       <c r="C130">
         <v>98911</v>
@@ -13448,7 +13481,7 @@
         <v>20</v>
       </c>
       <c r="B131">
-        <v>1771620</v>
+        <v>1769202</v>
       </c>
       <c r="C131">
         <v>99843</v>
@@ -13468,7 +13501,7 @@
         <v>114</v>
       </c>
       <c r="B132">
-        <v>1793309</v>
+        <v>1790837</v>
       </c>
       <c r="C132">
         <v>100495</v>
@@ -13488,7 +13521,7 @@
         <v>219</v>
       </c>
       <c r="B133">
-        <v>1813827</v>
+        <v>1811258</v>
       </c>
       <c r="C133">
         <v>101163</v>
@@ -13508,7 +13541,7 @@
         <v>59</v>
       </c>
       <c r="B134">
-        <v>1833921</v>
+        <v>1831291</v>
       </c>
       <c r="C134">
         <v>102125</v>
@@ -13528,7 +13561,7 @@
         <v>87</v>
       </c>
       <c r="B135">
-        <v>1854203</v>
+        <v>1851493</v>
       </c>
       <c r="C135">
         <v>103118</v>
@@ -13548,7 +13581,7 @@
         <v>246</v>
       </c>
       <c r="B136">
-        <v>1874935</v>
+        <v>1871749</v>
       </c>
       <c r="C136">
         <v>104011</v>
@@ -13568,7 +13601,7 @@
         <v>11</v>
       </c>
       <c r="B137">
-        <v>1898043</v>
+        <v>1894753</v>
       </c>
       <c r="C137">
         <v>104837</v>
@@ -13588,7 +13621,7 @@
         <v>170</v>
       </c>
       <c r="B138">
-        <v>1921081</v>
+        <v>1917526</v>
       </c>
       <c r="C138">
         <v>105565</v>
@@ -13608,7 +13641,7 @@
         <v>203</v>
       </c>
       <c r="B139">
-        <v>1940033</v>
+        <v>1936412</v>
       </c>
       <c r="C139">
         <v>106012</v>
@@ -13628,7 +13661,7 @@
         <v>45</v>
       </c>
       <c r="B140">
-        <v>1957305</v>
+        <v>1953632</v>
       </c>
       <c r="C140">
         <v>106673</v>
@@ -13648,7 +13681,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>1974679</v>
+        <v>1970880</v>
       </c>
       <c r="C141">
         <v>107575</v>
@@ -13668,7 +13701,7 @@
         <v>237</v>
       </c>
       <c r="B142">
-        <v>1995444</v>
+        <v>1991517</v>
       </c>
       <c r="C142">
         <v>108462</v>
@@ -13688,7 +13721,7 @@
         <v>73</v>
       </c>
       <c r="B143">
-        <v>2017568</v>
+        <v>2013619</v>
       </c>
       <c r="C143">
         <v>109361</v>
@@ -13708,7 +13741,7 @@
         <v>164</v>
       </c>
       <c r="B144">
-        <v>2040897</v>
+        <v>2036804</v>
       </c>
       <c r="C144">
         <v>110136</v>
@@ -13728,7 +13761,7 @@
         <v>209</v>
       </c>
       <c r="B145">
-        <v>2066168</v>
+        <v>2061938</v>
       </c>
       <c r="C145">
         <v>110830</v>
@@ -13748,7 +13781,7 @@
         <v>113</v>
       </c>
       <c r="B146">
-        <v>2087684</v>
+        <v>2083344</v>
       </c>
       <c r="C146">
         <v>111186</v>
@@ -13768,7 +13801,7 @@
         <v>138</v>
       </c>
       <c r="B147">
-        <v>2106335</v>
+        <v>2101922</v>
       </c>
       <c r="C147">
         <v>111567</v>
@@ -13788,7 +13821,7 @@
         <v>50</v>
       </c>
       <c r="B148">
-        <v>2129721</v>
+        <v>2125249</v>
       </c>
       <c r="C148">
         <v>112297</v>
@@ -13808,7 +13841,7 @@
         <v>80</v>
       </c>
       <c r="B149">
-        <v>2153539</v>
+        <v>2149022</v>
       </c>
       <c r="C149">
         <v>113064</v>
@@ -13828,7 +13861,7 @@
         <v>169</v>
       </c>
       <c r="B150">
-        <v>2180772</v>
+        <v>2176157</v>
       </c>
       <c r="C150">
         <v>113769</v>
@@ -13848,7 +13881,7 @@
         <v>12</v>
       </c>
       <c r="B151">
-        <v>2211734</v>
+        <v>2207038</v>
       </c>
       <c r="C151">
         <v>114424</v>
@@ -13868,7 +13901,7 @@
         <v>109</v>
       </c>
       <c r="B152">
-        <v>2243981</v>
+        <v>2239049</v>
       </c>
       <c r="C152">
         <v>115053</v>
@@ -13888,7 +13921,7 @@
         <v>245</v>
       </c>
       <c r="B153">
-        <v>2273032</v>
+        <v>2268040</v>
       </c>
       <c r="C153">
         <v>115347</v>
@@ -13908,7 +13941,7 @@
         <v>21</v>
       </c>
       <c r="B154">
-        <v>2300138</v>
+        <v>2295114</v>
       </c>
       <c r="C154">
         <v>115633</v>
@@ -13928,7 +13961,7 @@
         <v>115</v>
       </c>
       <c r="B155">
-        <v>2334097</v>
+        <v>2328962</v>
       </c>
       <c r="C155">
         <v>116343</v>
@@ -13948,7 +13981,7 @@
         <v>210</v>
       </c>
       <c r="B156">
-        <v>2373132</v>
+        <v>2367889</v>
       </c>
       <c r="C156">
         <v>117067</v>
@@ -13968,7 +14001,7 @@
         <v>58</v>
       </c>
       <c r="B157">
-        <v>2412756</v>
+        <v>2407458</v>
       </c>
       <c r="C157">
         <v>117714</v>
@@ -13988,7 +14021,7 @@
         <v>154</v>
       </c>
       <c r="B158">
-        <v>2457171</v>
+        <v>2451832</v>
       </c>
       <c r="C158">
         <v>118351</v>
@@ -14008,7 +14041,7 @@
         <v>244</v>
       </c>
       <c r="B159">
-        <v>2500284</v>
+        <v>2494820</v>
       </c>
       <c r="C159">
         <v>118862</v>
@@ -14028,7 +14061,7 @@
         <v>27</v>
       </c>
       <c r="B160">
-        <v>2541678</v>
+        <v>2536113</v>
       </c>
       <c r="C160">
         <v>119133</v>
@@ -14048,7 +14081,7 @@
         <v>190</v>
       </c>
       <c r="B161">
-        <v>2581588</v>
+        <v>2575976</v>
       </c>
       <c r="C161">
         <v>119465</v>
@@ -14068,7 +14101,7 @@
         <v>220</v>
       </c>
       <c r="B162">
-        <v>2629386</v>
+        <v>2623614</v>
       </c>
       <c r="C162">
         <v>120061</v>
@@ -14088,7 +14121,7 @@
         <v>129</v>
       </c>
       <c r="B163">
-        <v>2680349</v>
+        <v>2674541</v>
       </c>
       <c r="C163">
         <v>120762</v>
@@ -14108,7 +14141,7 @@
         <v>157</v>
       </c>
       <c r="B164">
-        <v>2733767</v>
+        <v>2727926</v>
       </c>
       <c r="C164">
         <v>121457</v>
@@ -14128,7 +14161,7 @@
         <v>257</v>
       </c>
       <c r="B165">
-        <v>2787551</v>
+        <v>2781659</v>
       </c>
       <c r="C165">
         <v>122055</v>
@@ -14148,7 +14181,7 @@
         <v>74</v>
       </c>
       <c r="B166">
-        <v>2841761</v>
+        <v>2835791</v>
       </c>
       <c r="C166">
         <v>122361</v>
@@ -14168,7 +14201,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>2887170</v>
+        <v>2881100</v>
       </c>
       <c r="C167">
         <v>122570</v>
@@ -14188,7 +14221,7 @@
         <v>7</v>
       </c>
       <c r="B168">
-        <v>2929030</v>
+        <v>2922516</v>
       </c>
       <c r="C168">
         <v>122813</v>
@@ -14208,7 +14241,7 @@
         <v>132</v>
       </c>
       <c r="B169">
-        <v>2980669</v>
+        <v>2974102</v>
       </c>
       <c r="C169">
         <v>123736</v>
@@ -14228,7 +14261,7 @@
         <v>162</v>
       </c>
       <c r="B170">
-        <v>3043299</v>
+        <v>3036725</v>
       </c>
       <c r="C170">
         <v>124543</v>
@@ -14248,7 +14281,7 @@
         <v>69</v>
       </c>
       <c r="B171">
-        <v>3102411</v>
+        <v>3095784</v>
       </c>
       <c r="C171">
         <v>125410</v>
@@ -14268,7 +14301,7 @@
         <v>100</v>
       </c>
       <c r="B172">
-        <v>3169074</v>
+        <v>3162288</v>
       </c>
       <c r="C172">
         <v>126264</v>
@@ -14288,7 +14321,7 @@
         <v>254</v>
       </c>
       <c r="B173">
-        <v>3231883</v>
+        <v>3224952</v>
       </c>
       <c r="C173">
         <v>127021</v>
@@ -14308,7 +14341,7 @@
         <v>30</v>
       </c>
       <c r="B174">
-        <v>3293044</v>
+        <v>3285973</v>
       </c>
       <c r="C174">
         <v>127497</v>
@@ -14328,7 +14361,7 @@
         <v>128</v>
       </c>
       <c r="B175">
-        <v>3350760</v>
+        <v>3343561</v>
       </c>
       <c r="C175">
         <v>127824</v>
@@ -14348,7 +14381,7 @@
         <v>223</v>
       </c>
       <c r="B176">
-        <v>3413436</v>
+        <v>3406217</v>
       </c>
       <c r="C176">
         <v>128560</v>
@@ -14368,7 +14401,7 @@
         <v>55</v>
       </c>
       <c r="B177">
-        <v>3479044</v>
+        <v>3471708</v>
       </c>
       <c r="C177">
         <v>129418</v>
@@ -14388,7 +14421,7 @@
         <v>144</v>
       </c>
       <c r="B178">
-        <v>3549874</v>
+        <v>3542419</v>
       </c>
       <c r="C178">
         <v>130365</v>
@@ -14408,7 +14441,7 @@
         <v>241</v>
       </c>
       <c r="B179">
-        <v>3626424</v>
+        <v>3618576</v>
       </c>
       <c r="C179">
         <v>131316</v>
@@ -14428,7 +14461,7 @@
         <v>19</v>
       </c>
       <c r="B180">
-        <v>3691220</v>
+        <v>3683228</v>
       </c>
       <c r="C180">
         <v>132188</v>
@@ -14448,7 +14481,7 @@
         <v>185</v>
       </c>
       <c r="B181">
-        <v>3755387</v>
+        <v>3747115</v>
       </c>
       <c r="C181">
         <v>132715</v>
@@ -14468,7 +14501,7 @@
         <v>218</v>
       </c>
       <c r="B182">
-        <v>3812486</v>
+        <v>3804036</v>
       </c>
       <c r="C182">
         <v>133078</v>
@@ -14488,7 +14521,7 @@
         <v>125</v>
       </c>
       <c r="B183">
-        <v>3876239</v>
+        <v>3867554</v>
       </c>
       <c r="C183">
         <v>134117</v>
@@ -14508,7 +14541,7 @@
         <v>150</v>
       </c>
       <c r="B184">
-        <v>3945451</v>
+        <v>3936743</v>
       </c>
       <c r="C184">
         <v>135288</v>
@@ -14528,7 +14561,7 @@
         <v>200</v>
       </c>
       <c r="B185">
-        <v>4016867</v>
+        <v>4007968</v>
       </c>
       <c r="C185">
         <v>136344</v>
@@ -14548,7 +14581,7 @@
         <v>106</v>
       </c>
       <c r="B186">
-        <v>4091978</v>
+        <v>4082805</v>
       </c>
       <c r="C186">
         <v>137520</v>
@@ -14568,7 +14601,7 @@
         <v>135</v>
       </c>
       <c r="B187">
-        <v>4156565</v>
+        <v>4147067</v>
       </c>
       <c r="C187">
         <v>138543</v>
@@ -14588,7 +14621,7 @@
         <v>40</v>
       </c>
       <c r="B188">
-        <v>4217467</v>
+        <v>4207560</v>
       </c>
       <c r="C188">
         <v>139102</v>
@@ -14608,7 +14641,7 @@
         <v>76</v>
       </c>
       <c r="B189">
-        <v>4272711</v>
+        <v>4262696</v>
       </c>
       <c r="C189">
         <v>140162</v>
@@ -14628,7 +14661,7 @@
         <v>166</v>
       </c>
       <c r="B190">
-        <v>4331622</v>
+        <v>4321367</v>
       </c>
       <c r="C190">
         <v>141284</v>
@@ -14648,7 +14681,7 @@
         <v>6</v>
       </c>
       <c r="B191">
-        <v>4395904</v>
+        <v>4385543</v>
       </c>
       <c r="C191">
         <v>142776</v>
@@ -14668,7 +14701,7 @@
         <v>104</v>
       </c>
       <c r="B192">
-        <v>4465201</v>
+        <v>4454549</v>
       </c>
       <c r="C192">
         <v>144035</v>
@@ -14688,7 +14721,7 @@
         <v>207</v>
       </c>
       <c r="B193">
-        <v>4532717</v>
+        <v>4521933</v>
       </c>
       <c r="C193">
         <v>145347</v>
@@ -14708,7 +14741,7 @@
         <v>48</v>
       </c>
       <c r="B194">
-        <v>4593678</v>
+        <v>4582349</v>
       </c>
       <c r="C194">
         <v>146537</v>
@@ -14728,7 +14761,7 @@
         <v>83</v>
       </c>
       <c r="B195">
-        <v>4640442</v>
+        <v>4628866</v>
       </c>
       <c r="C195">
         <v>147035</v>
@@ -14748,7 +14781,7 @@
         <v>238</v>
       </c>
       <c r="B196">
-        <v>4690217</v>
+        <v>4678539</v>
       </c>
       <c r="C196">
         <v>147554</v>
@@ -14768,7 +14801,7 @@
         <v>10</v>
       </c>
       <c r="B197">
-        <v>4741994</v>
+        <v>4730083</v>
       </c>
       <c r="C197">
         <v>148809</v>
@@ -14788,7 +14821,7 @@
         <v>172</v>
       </c>
       <c r="B198">
-        <v>4794333</v>
+        <v>4782366</v>
       </c>
       <c r="C198">
         <v>150155</v>
@@ -14808,7 +14841,7 @@
         <v>202</v>
       </c>
       <c r="B199">
-        <v>4848443</v>
+        <v>4836333</v>
       </c>
       <c r="C199">
         <v>151406</v>
@@ -14828,7 +14861,7 @@
         <v>47</v>
       </c>
       <c r="B200">
-        <v>4909643</v>
+        <v>4897187</v>
       </c>
       <c r="C200">
         <v>152739</v>
@@ -14848,7 +14881,7 @@
         <v>147</v>
       </c>
       <c r="B201">
-        <v>4963196</v>
+        <v>4950345</v>
       </c>
       <c r="C201">
         <v>153828</v>
@@ -14868,7 +14901,7 @@
         <v>242</v>
       </c>
       <c r="B202">
-        <v>5013733</v>
+        <v>5000546</v>
       </c>
       <c r="C202">
         <v>154444</v>
@@ -14888,7 +14921,7 @@
         <v>85</v>
       </c>
       <c r="B203">
-        <v>5055817</v>
+        <v>5042315</v>
       </c>
       <c r="C203">
         <v>154870</v>
@@ -14908,7 +14941,7 @@
         <v>179</v>
       </c>
       <c r="B204">
-        <v>5111449</v>
+        <v>5097651</v>
       </c>
       <c r="C204">
         <v>156196</v>
@@ -14928,7 +14961,7 @@
         <v>216</v>
       </c>
       <c r="B205">
-        <v>5167569</v>
+        <v>5153664</v>
       </c>
       <c r="C205">
         <v>157715</v>
@@ -14948,7 +14981,7 @@
         <v>118</v>
       </c>
       <c r="B206">
-        <v>5219319</v>
+        <v>5205152</v>
       </c>
       <c r="C206">
         <v>158878</v>
@@ -14968,7 +15001,7 @@
         <v>153</v>
       </c>
       <c r="B207">
-        <v>5276804</v>
+        <v>5262406</v>
       </c>
       <c r="C207">
         <v>160094</v>
@@ -14988,7 +15021,7 @@
         <v>247</v>
       </c>
       <c r="B208">
-        <v>5332892</v>
+        <v>5318266</v>
       </c>
       <c r="C208">
         <v>161315</v>
@@ -15008,7 +15041,7 @@
         <v>94</v>
       </c>
       <c r="B209">
-        <v>5375347</v>
+        <v>5360592</v>
       </c>
       <c r="C209">
         <v>161934</v>
@@ -15028,7 +15061,7 @@
         <v>189</v>
       </c>
       <c r="B210">
-        <v>5413198</v>
+        <v>5398161</v>
       </c>
       <c r="C210">
         <v>162341</v>
@@ -15048,7 +15081,7 @@
         <v>41</v>
       </c>
       <c r="B211">
-        <v>5453942</v>
+        <v>5438600</v>
       </c>
       <c r="C211">
         <v>163537</v>
@@ -15068,7 +15101,7 @@
         <v>77</v>
       </c>
       <c r="B212">
-        <v>5498862</v>
+        <v>5483380</v>
       </c>
       <c r="C212">
         <v>164957</v>
@@ -15088,7 +15121,7 @@
         <v>168</v>
       </c>
       <c r="B213">
-        <v>5542581</v>
+        <v>5527014</v>
       </c>
       <c r="C213">
         <v>166091</v>
@@ -15108,7 +15141,7 @@
         <v>9</v>
       </c>
       <c r="B214">
-        <v>5589074</v>
+        <v>5573242</v>
       </c>
       <c r="C214">
         <v>167214</v>
@@ -15128,7 +15161,7 @@
         <v>103</v>
       </c>
       <c r="B215">
-        <v>5635259</v>
+        <v>5618964</v>
       </c>
       <c r="C215">
         <v>168243</v>
@@ -15148,7 +15181,7 @@
         <v>198</v>
       </c>
       <c r="B216">
-        <v>5672855</v>
+        <v>5656436</v>
       </c>
       <c r="C216">
         <v>168815</v>
@@ -15168,7 +15201,7 @@
         <v>35</v>
       </c>
       <c r="B217">
-        <v>5707464</v>
+        <v>5690768</v>
       </c>
       <c r="C217">
         <v>169158</v>
@@ -15188,7 +15221,7 @@
         <v>130</v>
       </c>
       <c r="B218">
-        <v>5743835</v>
+        <v>5727107</v>
       </c>
       <c r="C218">
         <v>170305</v>
@@ -15208,7 +15241,7 @@
         <v>227</v>
       </c>
       <c r="B219">
-        <v>5787605</v>
+        <v>5770871</v>
       </c>
       <c r="C219">
         <v>171603</v>
@@ -15228,7 +15261,7 @@
         <v>68</v>
       </c>
       <c r="B220">
-        <v>5831549</v>
+        <v>5814635</v>
       </c>
       <c r="C220">
         <v>172732</v>
@@ -15248,7 +15281,7 @@
         <v>156</v>
       </c>
       <c r="B221">
-        <v>5878014</v>
+        <v>5860752</v>
       </c>
       <c r="C221">
         <v>173756</v>
@@ -15268,7 +15301,7 @@
         <v>253</v>
       </c>
       <c r="B222">
-        <v>5922450</v>
+        <v>5904886</v>
       </c>
       <c r="C222">
         <v>174771</v>
@@ -15288,7 +15321,7 @@
         <v>34</v>
       </c>
       <c r="B223">
-        <v>5961915</v>
+        <v>5944296</v>
       </c>
       <c r="C223">
         <v>175246</v>
@@ -15308,7 +15341,7 @@
         <v>192</v>
       </c>
       <c r="B224">
-        <v>5993312</v>
+        <v>5975589</v>
       </c>
       <c r="C224">
         <v>175612</v>
@@ -15328,7 +15361,7 @@
         <v>214</v>
       </c>
       <c r="B225">
-        <v>6035663</v>
+        <v>6017826</v>
       </c>
       <c r="C225">
         <v>176639</v>
@@ -15348,7 +15381,7 @@
         <v>117</v>
       </c>
       <c r="B226">
-        <v>6066174</v>
+        <v>6048113</v>
       </c>
       <c r="C226">
         <v>177671</v>
@@ -15368,7 +15401,7 @@
         <v>143</v>
       </c>
       <c r="B227">
-        <v>6110804</v>
+        <v>6092675</v>
       </c>
       <c r="C227">
         <v>178741</v>
@@ -15388,7 +15421,7 @@
         <v>240</v>
       </c>
       <c r="B228">
-        <v>6162344</v>
+        <v>6144204</v>
       </c>
       <c r="C228">
         <v>179739</v>
@@ -15408,7 +15441,7 @@
         <v>89</v>
       </c>
       <c r="B229">
-        <v>6207186</v>
+        <v>6188937</v>
       </c>
       <c r="C229">
         <v>180657</v>
@@ -15428,7 +15461,7 @@
         <v>180</v>
       </c>
       <c r="B230">
-        <v>6240252</v>
+        <v>6221988</v>
       </c>
       <c r="C230">
         <v>181106</v>
@@ -15448,7 +15481,7 @@
         <v>26</v>
       </c>
       <c r="B231">
-        <v>6268908</v>
+        <v>6250225</v>
       </c>
       <c r="C231">
         <v>181331</v>
@@ -15468,7 +15501,7 @@
         <v>124</v>
       </c>
       <c r="B232">
-        <v>6291105</v>
+        <v>6272389</v>
       </c>
       <c r="C232">
         <v>181689</v>
@@ -15488,7 +15521,7 @@
         <v>133</v>
       </c>
       <c r="B233">
-        <v>6322169</v>
+        <v>6303451</v>
       </c>
       <c r="C233">
         <v>182773</v>
@@ -15508,7 +15541,7 @@
         <v>42</v>
       </c>
       <c r="B234">
-        <v>6359704</v>
+        <v>6340673</v>
       </c>
       <c r="C234">
         <v>183943</v>
@@ -15528,7 +15561,7 @@
         <v>78</v>
       </c>
       <c r="B235">
-        <v>6404585</v>
+        <v>6385361</v>
       </c>
       <c r="C235">
         <v>184961</v>
@@ -15548,7 +15581,7 @@
         <v>231</v>
       </c>
       <c r="B236">
-        <v>6446653</v>
+        <v>6427159</v>
       </c>
       <c r="C236">
         <v>185771</v>
@@ -15568,7 +15601,7 @@
         <v>8</v>
       </c>
       <c r="B237">
-        <v>6481078</v>
+        <v>6461467</v>
       </c>
       <c r="C237">
         <v>186161</v>
@@ -15588,7 +15621,7 @@
         <v>105</v>
       </c>
       <c r="B238">
-        <v>6514924</v>
+        <v>6495151</v>
       </c>
       <c r="C238">
         <v>186565</v>
@@ -15608,7 +15641,7 @@
         <v>197</v>
       </c>
       <c r="B239">
-        <v>6549996</v>
+        <v>6530030</v>
       </c>
       <c r="C239">
         <v>187596</v>
@@ -15628,7 +15661,7 @@
         <v>39</v>
       </c>
       <c r="B240">
-        <v>6589950</v>
+        <v>6569918</v>
       </c>
       <c r="C240">
         <v>188796</v>
@@ -15648,7 +15681,7 @@
         <v>141</v>
       </c>
       <c r="B241">
-        <v>6633526</v>
+        <v>6613293</v>
       </c>
       <c r="C241">
         <v>189659</v>
@@ -15668,7 +15701,7 @@
         <v>236</v>
       </c>
       <c r="B242">
-        <v>6680985</v>
+        <v>6660414</v>
       </c>
       <c r="C242">
         <v>190560</v>
@@ -15688,7 +15721,7 @@
         <v>17</v>
       </c>
       <c r="B243">
-        <v>6726486</v>
+        <v>6705300</v>
       </c>
       <c r="C243">
         <v>191300</v>
@@ -15708,7 +15741,7 @@
         <v>176</v>
       </c>
       <c r="B244">
-        <v>6762757</v>
+        <v>6740988</v>
       </c>
       <c r="C244">
         <v>191627</v>
@@ -15728,7 +15761,7 @@
         <v>199</v>
       </c>
       <c r="B245">
-        <v>6802215</v>
+        <v>6780050</v>
       </c>
       <c r="C245">
         <v>191914</v>
@@ -15748,7 +15781,7 @@
         <v>112</v>
       </c>
       <c r="B246">
-        <v>6851598</v>
+        <v>6829401</v>
       </c>
       <c r="C246">
         <v>192768</v>
@@ -15768,7 +15801,7 @@
         <v>140</v>
       </c>
       <c r="B247">
-        <v>6890169</v>
+        <v>6867948</v>
       </c>
       <c r="C247">
         <v>193927</v>
@@ -15788,7 +15821,7 @@
         <v>235</v>
       </c>
       <c r="B248">
-        <v>6933877</v>
+        <v>6911191</v>
       </c>
       <c r="C248">
         <v>194848</v>
@@ -15808,7 +15841,7 @@
         <v>116</v>
       </c>
       <c r="B249">
-        <v>6989365</v>
+        <v>6966328</v>
       </c>
       <c r="C249">
         <v>195692</v>
@@ -15828,7 +15861,7 @@
         <v>146</v>
       </c>
       <c r="B250">
-        <v>7037157</v>
+        <v>7013908</v>
       </c>
       <c r="C250">
         <v>196561</v>
@@ -15848,7 +15881,7 @@
         <v>54</v>
       </c>
       <c r="B251">
-        <v>7072576</v>
+        <v>7048969</v>
       </c>
       <c r="C251">
         <v>196868</v>
@@ -15868,7 +15901,7 @@
         <v>86</v>
       </c>
       <c r="B252">
-        <v>7109090</v>
+        <v>7085025</v>
       </c>
       <c r="C252">
         <v>197125</v>
@@ -15888,7 +15921,7 @@
         <v>181</v>
       </c>
       <c r="B253">
-        <v>7145980</v>
+        <v>7121314</v>
       </c>
       <c r="C253">
         <v>197864</v>
@@ -15908,7 +15941,7 @@
         <v>24</v>
       </c>
       <c r="B254">
-        <v>7190336</v>
+        <v>7165581</v>
       </c>
       <c r="C254">
         <v>198925</v>
@@ -15928,7 +15961,7 @@
         <v>259</v>
       </c>
       <c r="B255">
-        <v>7235953</v>
+        <v>7211062</v>
       </c>
       <c r="C255">
         <v>199776</v>
@@ -15948,7 +15981,7 @@
         <v>260</v>
       </c>
       <c r="B256">
-        <v>7285437</v>
+        <v>7260195</v>
       </c>
       <c r="C256">
         <v>200611</v>
@@ -15968,7 +16001,7 @@
         <v>261</v>
       </c>
       <c r="B257">
-        <v>7336775</v>
+        <v>7311204</v>
       </c>
       <c r="C257">
         <v>201352</v>
@@ -15988,7 +16021,7 @@
         <v>262</v>
       </c>
       <c r="B258">
-        <v>7375132</v>
+        <v>7349491</v>
       </c>
       <c r="C258">
         <v>201715</v>
@@ -16008,7 +16041,7 @@
         <v>263</v>
       </c>
       <c r="B259">
-        <v>7413256</v>
+        <v>7387348</v>
       </c>
       <c r="C259">
         <v>202041</v>
@@ -16028,7 +16061,7 @@
         <v>264</v>
       </c>
       <c r="B260">
-        <v>7451867</v>
+        <v>7425765</v>
       </c>
       <c r="C260">
         <v>202675</v>
@@ -16048,7 +16081,7 @@
         <v>265</v>
       </c>
       <c r="B261">
-        <v>7502431</v>
+        <v>7476321</v>
       </c>
       <c r="C261">
         <v>203591</v>
@@ -16068,7 +16101,7 @@
         <v>266</v>
       </c>
       <c r="B262">
-        <v>7557723</v>
+        <v>7531439</v>
       </c>
       <c r="C262">
         <v>204577</v>
@@ -16088,7 +16121,7 @@
         <v>267</v>
       </c>
       <c r="B263">
-        <v>7614728</v>
+        <v>7588162</v>
       </c>
       <c r="C263">
         <v>205470</v>
@@ -16108,7 +16141,7 @@
         <v>268</v>
       </c>
       <c r="B264">
-        <v>7672220</v>
+        <v>7645414</v>
       </c>
       <c r="C264">
         <v>206135</v>
@@ -16128,7 +16161,7 @@
         <v>269</v>
       </c>
       <c r="B265">
-        <v>7719010</v>
+        <v>7692115</v>
       </c>
       <c r="C265">
         <v>206601</v>
@@ -16148,7 +16181,7 @@
         <v>270</v>
       </c>
       <c r="B266">
-        <v>7762120</v>
+        <v>7734890</v>
       </c>
       <c r="C266">
         <v>206888</v>
@@ -16168,7 +16201,7 @@
         <v>271</v>
       </c>
       <c r="B267">
-        <v>7810439</v>
+        <v>7783038</v>
       </c>
       <c r="C267">
         <v>207578</v>
@@ -16188,7 +16221,7 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>7867161</v>
+        <v>7839274</v>
       </c>
       <c r="C268">
         <v>208389</v>
@@ -16208,7 +16241,7 @@
         <v>272</v>
       </c>
       <c r="B269">
-        <v>7930263</v>
+        <v>7902125</v>
       </c>
       <c r="C269">
         <v>209340</v>
@@ -16228,7 +16261,7 @@
         <v>274</v>
       </c>
       <c r="B270">
-        <v>7998303</v>
+        <v>7970065</v>
       </c>
       <c r="C270">
         <v>210217</v>
@@ -16248,7 +16281,7 @@
         <v>275</v>
       </c>
       <c r="B271">
-        <v>8056170</v>
+        <v>8027813</v>
       </c>
       <c r="C271">
         <v>210997</v>
@@ -16268,7 +16301,7 @@
         <v>276</v>
       </c>
       <c r="B272">
-        <v>8105027</v>
+        <v>8076445</v>
       </c>
       <c r="C272">
         <v>211390</v>
@@ -16288,7 +16321,7 @@
         <v>277</v>
       </c>
       <c r="B273">
-        <v>8162159</v>
+        <v>8133347</v>
       </c>
       <c r="C273">
         <v>211846</v>
@@ -16308,7 +16341,7 @@
         <v>278</v>
       </c>
       <c r="B274">
-        <v>8222717</v>
+        <v>8193659</v>
       </c>
       <c r="C274">
         <v>212678</v>
@@ -16328,7 +16361,7 @@
         <v>279</v>
       </c>
       <c r="B275">
-        <v>8283429</v>
+        <v>8254316</v>
       </c>
       <c r="C275">
         <v>213702</v>
@@ -16348,7 +16381,7 @@
         <v>280</v>
       </c>
       <c r="B276">
-        <v>8356436</v>
+        <v>8327203</v>
       </c>
       <c r="C276">
         <v>214845</v>
@@ -16368,7 +16401,7 @@
         <v>281</v>
       </c>
       <c r="B277">
-        <v>8439493</v>
+        <v>8409465</v>
       </c>
       <c r="C277">
         <v>215762</v>
@@ -16388,7 +16421,7 @@
         <v>282</v>
       </c>
       <c r="B278">
-        <v>8522418</v>
+        <v>8492210</v>
       </c>
       <c r="C278">
         <v>216652</v>
@@ -16408,7 +16441,7 @@
         <v>283</v>
       </c>
       <c r="B279">
-        <v>8588068</v>
+        <v>8557302</v>
       </c>
       <c r="C279">
         <v>217029</v>
@@ -16428,7 +16461,7 @@
         <v>284</v>
       </c>
       <c r="B280">
-        <v>8650342</v>
+        <v>8619405</v>
       </c>
       <c r="C280">
         <v>217418</v>
@@ -16448,7 +16481,7 @@
         <v>285</v>
       </c>
       <c r="B281">
-        <v>8723438</v>
+        <v>8692402</v>
       </c>
       <c r="C281">
         <v>218349</v>
@@ -16468,7 +16501,7 @@
         <v>286</v>
       </c>
       <c r="B282">
-        <v>8802099</v>
+        <v>8771039</v>
       </c>
       <c r="C282">
         <v>219374</v>
@@ -16488,7 +16521,7 @@
         <v>287</v>
       </c>
       <c r="B283">
-        <v>8890551</v>
+        <v>8859032</v>
       </c>
       <c r="C283">
         <v>220423</v>
@@ -16508,7 +16541,7 @@
         <v>288</v>
       </c>
       <c r="B284">
-        <v>8987631</v>
+        <v>8955741</v>
       </c>
       <c r="C284">
         <v>221356</v>
@@ -16528,7 +16561,7 @@
         <v>289</v>
       </c>
       <c r="B285">
-        <v>9078223</v>
+        <v>9046233</v>
       </c>
       <c r="C285">
         <v>222319</v>
@@ -16548,7 +16581,7 @@
         <v>290</v>
       </c>
       <c r="B286">
-        <v>9152404</v>
+        <v>9120284</v>
       </c>
       <c r="C286">
         <v>222710</v>
@@ -16568,7 +16601,7 @@
         <v>291</v>
       </c>
       <c r="B287">
-        <v>9235299</v>
+        <v>9202532</v>
       </c>
       <c r="C287">
         <v>223186</v>
@@ -16588,7 +16621,7 @@
         <v>292</v>
       </c>
       <c r="B288">
-        <v>9321806</v>
+        <v>9288613</v>
       </c>
       <c r="C288">
         <v>224715</v>
@@ -16608,7 +16641,7 @@
         <v>293</v>
       </c>
       <c r="B289">
-        <v>9424893</v>
+        <v>9391680</v>
       </c>
       <c r="C289">
         <v>225831</v>
@@ -16628,7 +16661,7 @@
         <v>294</v>
       </c>
       <c r="B290">
-        <v>9541148</v>
+        <v>9507833</v>
       </c>
       <c r="C290">
         <v>226955</v>
@@ -16648,7 +16681,7 @@
         <v>295</v>
       </c>
       <c r="B291">
-        <v>9666700</v>
+        <v>9633085</v>
       </c>
       <c r="C291">
         <v>228141</v>
@@ -16661,6 +16694,26 @@
       </c>
       <c r="F291">
         <v>2850</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>296</v>
+      </c>
+      <c r="B292">
+        <v>9761481</v>
+      </c>
+      <c r="C292">
+        <v>229238</v>
+      </c>
+      <c r="D292">
+        <v>55817</v>
+      </c>
+      <c r="E292">
+        <v>11078</v>
+      </c>
+      <c r="F292">
+        <v>2943</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathBeds.xlsx
+++ b/covid19/data/USCaseDeathBeds.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6638E8E-22EB-4A31-9BC3-A580162BA88F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AA568A-6A12-4AFD-9467-454B335BECBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22380" yWindow="780" windowWidth="14400" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Deaths" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$292</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$293</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="298">
   <si>
     <t>date</t>
   </si>
@@ -922,6 +922,9 @@
   </si>
   <si>
     <t>2020-11-07</t>
+  </si>
+  <si>
+    <t>2020-11-08</t>
   </si>
 </sst>
 </file>
@@ -1010,9 +1013,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$292</c:f>
+              <c:f>Data!$A$2:$A$293</c:f>
               <c:strCache>
-                <c:ptCount val="291"/>
+                <c:ptCount val="292"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -1885,16 +1888,19 @@
                 </c:pt>
                 <c:pt idx="290">
                   <c:v>2020-11-07</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>2020-11-08</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$292</c:f>
+              <c:f>Data!$B$2:$B$293</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="291"/>
+                <c:ptCount val="292"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2767,6 +2773,9 @@
                 </c:pt>
                 <c:pt idx="290">
                   <c:v>9761481</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>9871751</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2875,9 +2884,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$292</c:f>
+              <c:f>Data!$A$2:$A$293</c:f>
               <c:strCache>
-                <c:ptCount val="291"/>
+                <c:ptCount val="292"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -3750,16 +3759,19 @@
                 </c:pt>
                 <c:pt idx="290">
                   <c:v>2020-11-07</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>2020-11-08</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$2:$D$292</c:f>
+              <c:f>Data!$D$2:$D$293</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="291"/>
+                <c:ptCount val="292"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4632,6 +4644,9 @@
                 </c:pt>
                 <c:pt idx="290">
                   <c:v>55817</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>56768</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4740,9 +4755,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$292</c:f>
+              <c:f>Data!$A$2:$A$293</c:f>
               <c:strCache>
-                <c:ptCount val="291"/>
+                <c:ptCount val="292"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -5615,16 +5630,19 @@
                 </c:pt>
                 <c:pt idx="290">
                   <c:v>2020-11-07</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>2020-11-08</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$292</c:f>
+              <c:f>Data!$E$2:$E$293</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="291"/>
+                <c:ptCount val="292"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6497,6 +6515,9 @@
                 </c:pt>
                 <c:pt idx="290">
                   <c:v>11078</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>11108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6605,9 +6626,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$292</c:f>
+              <c:f>Data!$A$2:$A$293</c:f>
               <c:strCache>
-                <c:ptCount val="291"/>
+                <c:ptCount val="292"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -7480,16 +7501,19 @@
                 </c:pt>
                 <c:pt idx="290">
                   <c:v>2020-11-07</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>2020-11-08</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$292</c:f>
+              <c:f>Data!$F$2:$F$293</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="291"/>
+                <c:ptCount val="292"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8362,6 +8386,9 @@
                 </c:pt>
                 <c:pt idx="290">
                   <c:v>2943</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>2959</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8470,9 +8497,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$292</c:f>
+              <c:f>Data!$A$2:$A$293</c:f>
               <c:strCache>
-                <c:ptCount val="291"/>
+                <c:ptCount val="292"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -9345,16 +9372,19 @@
                 </c:pt>
                 <c:pt idx="290">
                   <c:v>2020-11-07</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>2020-11-08</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$292</c:f>
+              <c:f>Data!$C$2:$C$293</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="291"/>
+                <c:ptCount val="292"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10227,6 +10257,9 @@
                 </c:pt>
                 <c:pt idx="290">
                   <c:v>229238</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>229724</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10522,9 +10555,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F292" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F292" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F292">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F293" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F293" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F293">
     <sortCondition ref="A1:A254"/>
   </sortState>
   <tableColumns count="6">
@@ -10860,7 +10893,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F292"/>
+  <dimension ref="A1:F293"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
       <selection activeCell="J235" sqref="J235"/>
@@ -16714,6 +16747,26 @@
       </c>
       <c r="F292">
         <v>2943</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>297</v>
+      </c>
+      <c r="B293">
+        <v>9871751</v>
+      </c>
+      <c r="C293">
+        <v>229724</v>
+      </c>
+      <c r="D293">
+        <v>56768</v>
+      </c>
+      <c r="E293">
+        <v>11108</v>
+      </c>
+      <c r="F293">
+        <v>2959</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathBeds.xlsx
+++ b/covid19/data/USCaseDeathBeds.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AA568A-6A12-4AFD-9467-454B335BECBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3A1DFD-B3DB-4D0C-86F9-EB590C4B14CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22380" yWindow="780" windowWidth="14400" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Deaths" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$293</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$294</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="299">
   <si>
     <t>date</t>
   </si>
@@ -925,6 +925,9 @@
   </si>
   <si>
     <t>2020-11-08</t>
+  </si>
+  <si>
+    <t>2020-11-09</t>
   </si>
 </sst>
 </file>
@@ -1013,9 +1016,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$293</c:f>
+              <c:f>Data!$A$2:$A$294</c:f>
               <c:strCache>
-                <c:ptCount val="292"/>
+                <c:ptCount val="293"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -1891,16 +1894,19 @@
                 </c:pt>
                 <c:pt idx="291">
                   <c:v>2020-11-08</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>2020-11-09</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$293</c:f>
+              <c:f>Data!$B$2:$B$294</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="292"/>
+                <c:ptCount val="293"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2772,10 +2778,13 @@
                   <c:v>9633085</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>9761481</c:v>
+                  <c:v>9762276</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>9871751</c:v>
+                  <c:v>9873114</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>9991822</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2884,9 +2893,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$293</c:f>
+              <c:f>Data!$A$2:$A$294</c:f>
               <c:strCache>
-                <c:ptCount val="292"/>
+                <c:ptCount val="293"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -3762,16 +3771,19 @@
                 </c:pt>
                 <c:pt idx="291">
                   <c:v>2020-11-08</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>2020-11-09</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$2:$D$293</c:f>
+              <c:f>Data!$D$2:$D$294</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="292"/>
+                <c:ptCount val="293"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4643,10 +4655,13 @@
                   <c:v>54824</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>55817</c:v>
+                  <c:v>55840</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>56768</c:v>
+                  <c:v>56793</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>59275</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4755,9 +4770,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$293</c:f>
+              <c:f>Data!$A$2:$A$294</c:f>
               <c:strCache>
-                <c:ptCount val="292"/>
+                <c:ptCount val="293"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -5633,16 +5648,19 @@
                 </c:pt>
                 <c:pt idx="291">
                   <c:v>2020-11-08</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>2020-11-09</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$293</c:f>
+              <c:f>Data!$E$2:$E$294</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="292"/>
+                <c:ptCount val="293"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6514,10 +6532,13 @@
                   <c:v>11085</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>11078</c:v>
+                  <c:v>11082</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>11108</c:v>
+                  <c:v>11114</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>11533</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6626,9 +6647,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$293</c:f>
+              <c:f>Data!$A$2:$A$294</c:f>
               <c:strCache>
-                <c:ptCount val="292"/>
+                <c:ptCount val="293"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -7504,16 +7525,19 @@
                 </c:pt>
                 <c:pt idx="291">
                   <c:v>2020-11-08</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>2020-11-09</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$293</c:f>
+              <c:f>Data!$F$2:$F$294</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="292"/>
+                <c:ptCount val="293"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8385,10 +8409,13 @@
                   <c:v>2850</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>2943</c:v>
+                  <c:v>2947</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>2959</c:v>
+                  <c:v>2964</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>3110</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8497,9 +8524,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$293</c:f>
+              <c:f>Data!$A$2:$A$294</c:f>
               <c:strCache>
-                <c:ptCount val="292"/>
+                <c:ptCount val="293"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -9375,16 +9402,19 @@
                 </c:pt>
                 <c:pt idx="291">
                   <c:v>2020-11-08</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>2020-11-09</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$293</c:f>
+              <c:f>Data!$C$2:$C$294</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="292"/>
+                <c:ptCount val="293"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10256,10 +10286,13 @@
                   <c:v>228141</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>229238</c:v>
+                  <c:v>229245</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>229724</c:v>
+                  <c:v>229732</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>230312</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10555,9 +10588,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F293" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F293" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F293">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F294" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F294" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F294">
     <sortCondition ref="A1:A254"/>
   </sortState>
   <tableColumns count="6">
@@ -10893,7 +10926,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F293"/>
+  <dimension ref="A1:F294"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
       <selection activeCell="J235" sqref="J235"/>
@@ -16734,19 +16767,19 @@
         <v>296</v>
       </c>
       <c r="B292">
-        <v>9761481</v>
+        <v>9762276</v>
       </c>
       <c r="C292">
-        <v>229238</v>
+        <v>229245</v>
       </c>
       <c r="D292">
-        <v>55817</v>
+        <v>55840</v>
       </c>
       <c r="E292">
-        <v>11078</v>
+        <v>11082</v>
       </c>
       <c r="F292">
-        <v>2943</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
@@ -16754,19 +16787,39 @@
         <v>297</v>
       </c>
       <c r="B293">
-        <v>9871751</v>
+        <v>9873114</v>
       </c>
       <c r="C293">
-        <v>229724</v>
+        <v>229732</v>
       </c>
       <c r="D293">
-        <v>56768</v>
+        <v>56793</v>
       </c>
       <c r="E293">
-        <v>11108</v>
+        <v>11114</v>
       </c>
       <c r="F293">
-        <v>2959</v>
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>298</v>
+      </c>
+      <c r="B294">
+        <v>9991822</v>
+      </c>
+      <c r="C294">
+        <v>230312</v>
+      </c>
+      <c r="D294">
+        <v>59275</v>
+      </c>
+      <c r="E294">
+        <v>11533</v>
+      </c>
+      <c r="F294">
+        <v>3110</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathBeds.xlsx
+++ b/covid19/data/USCaseDeathBeds.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3A1DFD-B3DB-4D0C-86F9-EB590C4B14CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D821017-8B98-4ED7-97DF-8FA4B7342AC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22380" yWindow="780" windowWidth="14400" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="Deaths" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$294</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$295</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="300">
   <si>
     <t>date</t>
   </si>
@@ -51,765 +51,765 @@
     <t>On Ventilator</t>
   </si>
   <si>
+    <t>2020-01-22</t>
+  </si>
+  <si>
+    <t>2020-01-23</t>
+  </si>
+  <si>
+    <t>2020-01-24</t>
+  </si>
+  <si>
+    <t>2020-01-25</t>
+  </si>
+  <si>
+    <t>2020-01-26</t>
+  </si>
+  <si>
+    <t>2020-01-27</t>
+  </si>
+  <si>
+    <t>2020-01-28</t>
+  </si>
+  <si>
+    <t>2020-01-29</t>
+  </si>
+  <si>
+    <t>2020-01-30</t>
+  </si>
+  <si>
+    <t>2020-01-31</t>
+  </si>
+  <si>
+    <t>2020-02-01</t>
+  </si>
+  <si>
+    <t>2020-02-02</t>
+  </si>
+  <si>
+    <t>2020-02-03</t>
+  </si>
+  <si>
+    <t>2020-02-04</t>
+  </si>
+  <si>
+    <t>2020-02-05</t>
+  </si>
+  <si>
+    <t>2020-02-06</t>
+  </si>
+  <si>
+    <t>2020-02-07</t>
+  </si>
+  <si>
+    <t>2020-02-08</t>
+  </si>
+  <si>
+    <t>2020-02-09</t>
+  </si>
+  <si>
+    <t>2020-02-10</t>
+  </si>
+  <si>
+    <t>2020-02-11</t>
+  </si>
+  <si>
+    <t>2020-02-12</t>
+  </si>
+  <si>
+    <t>2020-02-13</t>
+  </si>
+  <si>
+    <t>2020-02-14</t>
+  </si>
+  <si>
+    <t>2020-02-15</t>
+  </si>
+  <si>
+    <t>2020-02-16</t>
+  </si>
+  <si>
+    <t>2020-02-17</t>
+  </si>
+  <si>
+    <t>2020-02-18</t>
+  </si>
+  <si>
+    <t>2020-02-19</t>
+  </si>
+  <si>
+    <t>2020-02-20</t>
+  </si>
+  <si>
+    <t>2020-02-21</t>
+  </si>
+  <si>
+    <t>2020-02-22</t>
+  </si>
+  <si>
+    <t>2020-02-23</t>
+  </si>
+  <si>
+    <t>2020-02-24</t>
+  </si>
+  <si>
+    <t>2020-02-25</t>
+  </si>
+  <si>
+    <t>2020-02-26</t>
+  </si>
+  <si>
+    <t>2020-02-27</t>
+  </si>
+  <si>
+    <t>2020-02-28</t>
+  </si>
+  <si>
+    <t>2020-02-29</t>
+  </si>
+  <si>
+    <t>2020-03-01</t>
+  </si>
+  <si>
+    <t>2020-03-02</t>
+  </si>
+  <si>
+    <t>2020-03-03</t>
+  </si>
+  <si>
+    <t>2020-03-04</t>
+  </si>
+  <si>
+    <t>2020-03-05</t>
+  </si>
+  <si>
+    <t>2020-03-06</t>
+  </si>
+  <si>
+    <t>2020-03-07</t>
+  </si>
+  <si>
+    <t>2020-03-08</t>
+  </si>
+  <si>
+    <t>2020-03-09</t>
+  </si>
+  <si>
+    <t>2020-03-10</t>
+  </si>
+  <si>
+    <t>2020-03-11</t>
+  </si>
+  <si>
+    <t>2020-03-12</t>
+  </si>
+  <si>
+    <t>2020-03-13</t>
+  </si>
+  <si>
+    <t>2020-03-14</t>
+  </si>
+  <si>
+    <t>2020-03-15</t>
+  </si>
+  <si>
+    <t>2020-03-16</t>
+  </si>
+  <si>
+    <t>2020-03-17</t>
+  </si>
+  <si>
+    <t>2020-03-18</t>
+  </si>
+  <si>
+    <t>2020-03-19</t>
+  </si>
+  <si>
+    <t>2020-03-20</t>
+  </si>
+  <si>
+    <t>2020-03-21</t>
+  </si>
+  <si>
+    <t>2020-03-22</t>
+  </si>
+  <si>
+    <t>2020-03-23</t>
+  </si>
+  <si>
+    <t>2020-03-24</t>
+  </si>
+  <si>
+    <t>2020-03-25</t>
+  </si>
+  <si>
+    <t>2020-03-26</t>
+  </si>
+  <si>
+    <t>2020-03-27</t>
+  </si>
+  <si>
+    <t>2020-03-28</t>
+  </si>
+  <si>
+    <t>2020-03-29</t>
+  </si>
+  <si>
+    <t>2020-03-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2020-04-01</t>
+  </si>
+  <si>
+    <t>2020-04-02</t>
+  </si>
+  <si>
+    <t>2020-04-03</t>
+  </si>
+  <si>
+    <t>2020-04-04</t>
+  </si>
+  <si>
+    <t>2020-04-05</t>
+  </si>
+  <si>
+    <t>2020-04-06</t>
+  </si>
+  <si>
+    <t>2020-04-07</t>
+  </si>
+  <si>
+    <t>2020-04-08</t>
+  </si>
+  <si>
+    <t>2020-04-09</t>
+  </si>
+  <si>
+    <t>2020-04-10</t>
+  </si>
+  <si>
+    <t>2020-04-11</t>
+  </si>
+  <si>
+    <t>2020-04-12</t>
+  </si>
+  <si>
+    <t>2020-04-13</t>
+  </si>
+  <si>
+    <t>2020-04-14</t>
+  </si>
+  <si>
+    <t>2020-04-15</t>
+  </si>
+  <si>
+    <t>2020-04-16</t>
+  </si>
+  <si>
+    <t>2020-04-17</t>
+  </si>
+  <si>
+    <t>2020-04-18</t>
+  </si>
+  <si>
+    <t>2020-04-19</t>
+  </si>
+  <si>
+    <t>2020-04-20</t>
+  </si>
+  <si>
+    <t>2020-04-21</t>
+  </si>
+  <si>
+    <t>2020-04-22</t>
+  </si>
+  <si>
+    <t>2020-04-23</t>
+  </si>
+  <si>
+    <t>2020-04-24</t>
+  </si>
+  <si>
+    <t>2020-04-25</t>
+  </si>
+  <si>
+    <t>2020-04-26</t>
+  </si>
+  <si>
+    <t>2020-04-27</t>
+  </si>
+  <si>
+    <t>2020-04-28</t>
+  </si>
+  <si>
+    <t>2020-04-29</t>
+  </si>
+  <si>
+    <t>2020-04-30</t>
+  </si>
+  <si>
+    <t>2020-05-01</t>
+  </si>
+  <si>
+    <t>2020-05-02</t>
+  </si>
+  <si>
+    <t>2020-05-03</t>
+  </si>
+  <si>
+    <t>2020-05-04</t>
+  </si>
+  <si>
+    <t>2020-05-05</t>
+  </si>
+  <si>
+    <t>2020-05-06</t>
+  </si>
+  <si>
+    <t>2020-05-07</t>
+  </si>
+  <si>
+    <t>2020-05-08</t>
+  </si>
+  <si>
+    <t>2020-05-09</t>
+  </si>
+  <si>
+    <t>2020-05-10</t>
+  </si>
+  <si>
+    <t>2020-05-11</t>
+  </si>
+  <si>
+    <t>2020-05-12</t>
+  </si>
+  <si>
+    <t>2020-05-13</t>
+  </si>
+  <si>
+    <t>2020-05-14</t>
+  </si>
+  <si>
+    <t>2020-05-15</t>
+  </si>
+  <si>
+    <t>2020-05-16</t>
+  </si>
+  <si>
+    <t>2020-05-17</t>
+  </si>
+  <si>
+    <t>2020-05-18</t>
+  </si>
+  <si>
+    <t>2020-05-19</t>
+  </si>
+  <si>
+    <t>2020-05-20</t>
+  </si>
+  <si>
+    <t>2020-05-21</t>
+  </si>
+  <si>
+    <t>2020-05-22</t>
+  </si>
+  <si>
+    <t>2020-05-23</t>
+  </si>
+  <si>
+    <t>2020-05-24</t>
+  </si>
+  <si>
+    <t>2020-05-25</t>
+  </si>
+  <si>
+    <t>2020-05-26</t>
+  </si>
+  <si>
+    <t>2020-05-27</t>
+  </si>
+  <si>
+    <t>2020-05-28</t>
+  </si>
+  <si>
+    <t>2020-05-29</t>
+  </si>
+  <si>
+    <t>2020-05-30</t>
+  </si>
+  <si>
+    <t>2020-05-31</t>
+  </si>
+  <si>
+    <t>2020-06-01</t>
+  </si>
+  <si>
+    <t>2020-06-02</t>
+  </si>
+  <si>
+    <t>2020-06-03</t>
+  </si>
+  <si>
+    <t>2020-06-04</t>
+  </si>
+  <si>
+    <t>2020-06-05</t>
+  </si>
+  <si>
+    <t>2020-06-06</t>
+  </si>
+  <si>
+    <t>2020-06-07</t>
+  </si>
+  <si>
+    <t>2020-06-08</t>
+  </si>
+  <si>
+    <t>2020-06-09</t>
+  </si>
+  <si>
+    <t>2020-06-10</t>
+  </si>
+  <si>
+    <t>2020-06-11</t>
+  </si>
+  <si>
+    <t>2020-06-12</t>
+  </si>
+  <si>
+    <t>2020-06-13</t>
+  </si>
+  <si>
+    <t>2020-06-14</t>
+  </si>
+  <si>
+    <t>2020-06-15</t>
+  </si>
+  <si>
+    <t>2020-06-16</t>
+  </si>
+  <si>
+    <t>2020-06-17</t>
+  </si>
+  <si>
+    <t>2020-06-18</t>
+  </si>
+  <si>
+    <t>2020-06-19</t>
+  </si>
+  <si>
+    <t>2020-06-20</t>
+  </si>
+  <si>
+    <t>2020-06-21</t>
+  </si>
+  <si>
+    <t>2020-06-22</t>
+  </si>
+  <si>
+    <t>2020-06-23</t>
+  </si>
+  <si>
+    <t>2020-06-24</t>
+  </si>
+  <si>
+    <t>2020-06-25</t>
+  </si>
+  <si>
+    <t>2020-06-26</t>
+  </si>
+  <si>
+    <t>2020-06-27</t>
+  </si>
+  <si>
+    <t>2020-06-28</t>
+  </si>
+  <si>
+    <t>2020-06-29</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-07-01</t>
+  </si>
+  <si>
+    <t>2020-07-02</t>
+  </si>
+  <si>
+    <t>2020-07-03</t>
+  </si>
+  <si>
+    <t>2020-07-04</t>
+  </si>
+  <si>
+    <t>2020-07-05</t>
+  </si>
+  <si>
+    <t>2020-07-06</t>
+  </si>
+  <si>
+    <t>2020-07-07</t>
+  </si>
+  <si>
+    <t>2020-07-08</t>
+  </si>
+  <si>
+    <t>2020-07-09</t>
+  </si>
+  <si>
+    <t>2020-07-10</t>
+  </si>
+  <si>
+    <t>2020-07-11</t>
+  </si>
+  <si>
+    <t>2020-07-12</t>
+  </si>
+  <si>
+    <t>2020-07-13</t>
+  </si>
+  <si>
+    <t>2020-07-14</t>
+  </si>
+  <si>
+    <t>2020-07-15</t>
+  </si>
+  <si>
+    <t>2020-07-16</t>
+  </si>
+  <si>
+    <t>2020-07-17</t>
+  </si>
+  <si>
+    <t>2020-07-18</t>
+  </si>
+  <si>
+    <t>2020-07-19</t>
+  </si>
+  <si>
+    <t>2020-07-20</t>
+  </si>
+  <si>
+    <t>2020-07-21</t>
+  </si>
+  <si>
+    <t>2020-07-22</t>
+  </si>
+  <si>
+    <t>2020-07-23</t>
+  </si>
+  <si>
+    <t>2020-07-24</t>
+  </si>
+  <si>
+    <t>2020-07-25</t>
+  </si>
+  <si>
+    <t>2020-07-26</t>
+  </si>
+  <si>
+    <t>2020-07-27</t>
+  </si>
+  <si>
+    <t>2020-07-28</t>
+  </si>
+  <si>
     <t>2020-07-29</t>
   </si>
   <si>
-    <t>2020-07-06</t>
+    <t>2020-07-30</t>
+  </si>
+  <si>
+    <t>2020-07-31</t>
+  </si>
+  <si>
+    <t>2020-08-01</t>
+  </si>
+  <si>
+    <t>2020-08-02</t>
+  </si>
+  <si>
+    <t>2020-08-03</t>
+  </si>
+  <si>
+    <t>2020-08-04</t>
+  </si>
+  <si>
+    <t>2020-08-05</t>
+  </si>
+  <si>
+    <t>2020-08-06</t>
+  </si>
+  <si>
+    <t>2020-08-07</t>
+  </si>
+  <si>
+    <t>2020-08-08</t>
+  </si>
+  <si>
+    <t>2020-08-09</t>
+  </si>
+  <si>
+    <t>2020-08-10</t>
+  </si>
+  <si>
+    <t>2020-08-11</t>
+  </si>
+  <si>
+    <t>2020-08-12</t>
+  </si>
+  <si>
+    <t>2020-08-13</t>
+  </si>
+  <si>
+    <t>2020-08-14</t>
+  </si>
+  <si>
+    <t>2020-08-15</t>
+  </si>
+  <si>
+    <t>2020-08-16</t>
+  </si>
+  <si>
+    <t>2020-08-17</t>
+  </si>
+  <si>
+    <t>2020-08-18</t>
+  </si>
+  <si>
+    <t>2020-08-19</t>
+  </si>
+  <si>
+    <t>2020-08-20</t>
+  </si>
+  <si>
+    <t>2020-08-21</t>
+  </si>
+  <si>
+    <t>2020-08-22</t>
+  </si>
+  <si>
+    <t>2020-08-23</t>
+  </si>
+  <si>
+    <t>2020-08-24</t>
+  </si>
+  <si>
+    <t>2020-08-25</t>
+  </si>
+  <si>
+    <t>2020-08-26</t>
+  </si>
+  <si>
+    <t>2020-08-27</t>
+  </si>
+  <si>
+    <t>2020-08-28</t>
+  </si>
+  <si>
+    <t>2020-08-29</t>
+  </si>
+  <si>
+    <t>2020-08-30</t>
+  </si>
+  <si>
+    <t>2020-08-31</t>
+  </si>
+  <si>
+    <t>2020-09-01</t>
+  </si>
+  <si>
+    <t>2020-09-02</t>
+  </si>
+  <si>
+    <t>2020-09-03</t>
+  </si>
+  <si>
+    <t>2020-09-04</t>
+  </si>
+  <si>
+    <t>2020-09-05</t>
+  </si>
+  <si>
+    <t>2020-09-06</t>
+  </si>
+  <si>
+    <t>2020-09-07</t>
+  </si>
+  <si>
+    <t>2020-09-08</t>
+  </si>
+  <si>
+    <t>2020-09-09</t>
+  </si>
+  <si>
+    <t>2020-09-10</t>
+  </si>
+  <si>
+    <t>2020-09-11</t>
+  </si>
+  <si>
+    <t>2020-09-12</t>
   </si>
   <si>
     <t>2020-09-13</t>
   </si>
   <si>
-    <t>2020-08-21</t>
-  </si>
-  <si>
-    <t>2020-08-04</t>
-  </si>
-  <si>
-    <t>2020-06-05</t>
-  </si>
-  <si>
-    <t>2020-06-19</t>
-  </si>
-  <si>
-    <t>2020-04-20</t>
-  </si>
-  <si>
-    <t>2020-01-25</t>
-  </si>
-  <si>
-    <t>2020-03-11</t>
-  </si>
-  <si>
-    <t>2020-03-05</t>
+    <t>2020-09-14</t>
+  </si>
+  <si>
+    <t>2020-09-15</t>
+  </si>
+  <si>
+    <t>2020-09-16</t>
+  </si>
+  <si>
+    <t>2020-09-17</t>
+  </si>
+  <si>
+    <t>2020-09-18</t>
   </si>
   <si>
     <t>2020-09-19</t>
   </si>
   <si>
-    <t>2020-04-26</t>
-  </si>
-  <si>
-    <t>2020-07-18</t>
-  </si>
-  <si>
-    <t>2020-05-30</t>
-  </si>
-  <si>
-    <t>2020-06-22</t>
-  </si>
-  <si>
-    <t>2020-05-10</t>
-  </si>
-  <si>
-    <t>2020-05-04</t>
+    <t>2020-09-20</t>
+  </si>
+  <si>
+    <t>2020-09-21</t>
+  </si>
+  <si>
+    <t>2020-09-22</t>
+  </si>
+  <si>
+    <t>2020-09-23</t>
+  </si>
+  <si>
+    <t>2020-09-24</t>
+  </si>
+  <si>
+    <t>2020-09-25</t>
+  </si>
+  <si>
+    <t>2020-09-26</t>
+  </si>
+  <si>
+    <t>2020-09-27</t>
+  </si>
+  <si>
+    <t>2020-09-28</t>
+  </si>
+  <si>
+    <t>2020-09-29</t>
   </si>
   <si>
     <t>2020-09-30</t>
   </si>
   <si>
-    <t>2020-04-17</t>
-  </si>
-  <si>
-    <t>2020-09-07</t>
-  </si>
-  <si>
-    <t>2020-06-28</t>
-  </si>
-  <si>
-    <t>2020-01-31</t>
-  </si>
-  <si>
-    <t>2020-02-20</t>
-  </si>
-  <si>
-    <t>2020-07-12</t>
-  </si>
-  <si>
-    <t>2020-05-24</t>
-  </si>
-  <si>
-    <t>2020-03-28</t>
-  </si>
-  <si>
-    <t>2020-05-16</t>
-  </si>
-  <si>
-    <t>2020-08-30</t>
-  </si>
-  <si>
-    <t>2020-08-24</t>
-  </si>
-  <si>
-    <t>2020-04-03</t>
-  </si>
-  <si>
-    <t>2020-02-14</t>
-  </si>
-  <si>
-    <t>2020-01-22</t>
-  </si>
-  <si>
-    <t>2020-09-16</t>
-  </si>
-  <si>
-    <t>2020-07-26</t>
-  </si>
-  <si>
-    <t>2020-08-18</t>
-  </si>
-  <si>
-    <t>2020-09-10</t>
-  </si>
-  <si>
-    <t>2020-01-28</t>
-  </si>
-  <si>
-    <t>2020-03-02</t>
-  </si>
-  <si>
-    <t>2020-06-08</t>
-  </si>
-  <si>
-    <t>2020-03-14</t>
-  </si>
-  <si>
-    <t>2020-08-07</t>
-  </si>
-  <si>
-    <t>2020-08-01</t>
-  </si>
-  <si>
-    <t>2020-04-23</t>
-  </si>
-  <si>
-    <t>2020-06-16</t>
-  </si>
-  <si>
-    <t>2020-03-08</t>
-  </si>
-  <si>
-    <t>2020-05-07</t>
-  </si>
-  <si>
-    <t>2020-02-03</t>
-  </si>
-  <si>
-    <t>2020-09-27</t>
-  </si>
-  <si>
-    <t>2020-07-15</t>
-  </si>
-  <si>
-    <t>2020-02-23</t>
-  </si>
-  <si>
-    <t>2020-03-17</t>
-  </si>
-  <si>
-    <t>2020-06-25</t>
-  </si>
-  <si>
-    <t>2020-06-02</t>
-  </si>
-  <si>
-    <t>2020-04-14</t>
-  </si>
-  <si>
-    <t>2020-05-13</t>
-  </si>
-  <si>
-    <t>2020-04-06</t>
-  </si>
-  <si>
-    <t>2020-03-25</t>
-  </si>
-  <si>
-    <t>2020-05-27</t>
-  </si>
-  <si>
-    <t>2020-02-11</t>
-  </si>
-  <si>
-    <t>2020-02-17</t>
-  </si>
-  <si>
-    <t>2020-03-31</t>
-  </si>
-  <si>
-    <t>2020-08-27</t>
-  </si>
-  <si>
-    <t>2020-07-09</t>
-  </si>
-  <si>
-    <t>2020-03-09</t>
-  </si>
-  <si>
-    <t>2020-05-19</t>
-  </si>
-  <si>
-    <t>2020-02-15</t>
-  </si>
-  <si>
-    <t>2020-06-11</t>
-  </si>
-  <si>
-    <t>2020-07-04</t>
-  </si>
-  <si>
-    <t>2020-01-23</t>
-  </si>
-  <si>
-    <t>2020-07-27</t>
-  </si>
-  <si>
-    <t>2020-08-19</t>
-  </si>
-  <si>
-    <t>2020-09-11</t>
-  </si>
-  <si>
-    <t>2020-03-03</t>
-  </si>
-  <si>
-    <t>2020-06-17</t>
-  </si>
-  <si>
-    <t>2020-04-18</t>
-  </si>
-  <si>
-    <t>2020-05-02</t>
-  </si>
-  <si>
-    <t>2020-08-02</t>
-  </si>
-  <si>
-    <t>2020-02-26</t>
-  </si>
-  <si>
-    <t>2020-08-10</t>
-  </si>
-  <si>
-    <t>2020-09-28</t>
-  </si>
-  <si>
-    <t>2020-06-03</t>
-  </si>
-  <si>
-    <t>2020-05-28</t>
-  </si>
-  <si>
-    <t>2020-09-05</t>
-  </si>
-  <si>
-    <t>2020-01-29</t>
-  </si>
-  <si>
-    <t>2020-04-15</t>
-  </si>
-  <si>
-    <t>2020-05-08</t>
-  </si>
-  <si>
-    <t>2020-03-20</t>
-  </si>
-  <si>
-    <t>2020-08-16</t>
-  </si>
-  <si>
-    <t>2020-04-09</t>
-  </si>
-  <si>
-    <t>2020-02-18</t>
-  </si>
-  <si>
-    <t>2020-02-06</t>
-  </si>
-  <si>
-    <t>2020-03-26</t>
-  </si>
-  <si>
-    <t>2020-05-22</t>
-  </si>
-  <si>
-    <t>2020-07-10</t>
-  </si>
-  <si>
-    <t>2020-04-01</t>
-  </si>
-  <si>
-    <t>2020-02-12</t>
-  </si>
-  <si>
-    <t>2020-08-22</t>
-  </si>
-  <si>
-    <t>2020-07-30</t>
-  </si>
-  <si>
-    <t>2020-09-14</t>
-  </si>
-  <si>
-    <t>2020-07-24</t>
-  </si>
-  <si>
-    <t>2020-01-26</t>
-  </si>
-  <si>
-    <t>2020-04-21</t>
-  </si>
-  <si>
-    <t>2020-06-20</t>
-  </si>
-  <si>
-    <t>2020-03-06</t>
-  </si>
-  <si>
-    <t>2020-04-29</t>
-  </si>
-  <si>
-    <t>2020-09-22</t>
-  </si>
-  <si>
-    <t>2020-06-14</t>
-  </si>
-  <si>
-    <t>2020-05-31</t>
-  </si>
-  <si>
-    <t>2020-06-23</t>
-  </si>
-  <si>
-    <t>2020-09-25</t>
-  </si>
-  <si>
-    <t>2020-09-02</t>
-  </si>
-  <si>
-    <t>2020-08-13</t>
-  </si>
-  <si>
-    <t>2020-02-29</t>
-  </si>
-  <si>
-    <t>2020-05-11</t>
-  </si>
-  <si>
-    <t>2020-05-05</t>
-  </si>
-  <si>
-    <t>2020-03-23</t>
-  </si>
-  <si>
-    <t>2020-04-12</t>
-  </si>
-  <si>
-    <t>2020-09-08</t>
-  </si>
-  <si>
-    <t>2020-07-21</t>
-  </si>
-  <si>
-    <t>2020-05-25</t>
-  </si>
-  <si>
-    <t>2020-02-09</t>
-  </si>
-  <si>
-    <t>2020-07-13</t>
-  </si>
-  <si>
-    <t>2020-07-01</t>
-  </si>
-  <si>
-    <t>2020-08-25</t>
-  </si>
-  <si>
-    <t>2020-03-29</t>
-  </si>
-  <si>
-    <t>2020-07-07</t>
-  </si>
-  <si>
-    <t>2020-09-09</t>
-  </si>
-  <si>
-    <t>2020-03-15</t>
-  </si>
-  <si>
-    <t>2020-07-25</t>
-  </si>
-  <si>
-    <t>2020-04-30</t>
-  </si>
-  <si>
-    <t>2020-03-01</t>
-  </si>
-  <si>
-    <t>2020-06-15</t>
-  </si>
-  <si>
-    <t>2020-06-09</t>
-  </si>
-  <si>
-    <t>2020-09-23</t>
-  </si>
-  <si>
-    <t>2020-09-17</t>
-  </si>
-  <si>
-    <t>2020-04-24</t>
-  </si>
-  <si>
-    <t>2020-09-03</t>
-  </si>
-  <si>
-    <t>2020-07-16</t>
-  </si>
-  <si>
-    <t>2020-02-04</t>
-  </si>
-  <si>
-    <t>2020-09-26</t>
-  </si>
-  <si>
-    <t>2020-08-08</t>
-  </si>
-  <si>
-    <t>2020-03-24</t>
-  </si>
-  <si>
-    <t>2020-03-18</t>
-  </si>
-  <si>
-    <t>2020-07-22</t>
-  </si>
-  <si>
-    <t>2020-05-06</t>
-  </si>
-  <si>
-    <t>2020-02-24</t>
-  </si>
-  <si>
-    <t>2020-08-14</t>
-  </si>
-  <si>
-    <t>2020-06-26</t>
-  </si>
-  <si>
-    <t>2020-04-13</t>
-  </si>
-  <si>
-    <t>2020-08-28</t>
-  </si>
-  <si>
-    <t>2020-07-02</t>
-  </si>
-  <si>
-    <t>2020-05-26</t>
-  </si>
-  <si>
-    <t>2020-05-14</t>
-  </si>
-  <si>
-    <t>2020-04-07</t>
-  </si>
-  <si>
-    <t>2020-02-10</t>
-  </si>
-  <si>
-    <t>2020-07-08</t>
-  </si>
-  <si>
-    <t>2020-05-20</t>
-  </si>
-  <si>
-    <t>2020-06-12</t>
-  </si>
-  <si>
-    <t>2020-07-05</t>
-  </si>
-  <si>
-    <t>2020-07-28</t>
-  </si>
-  <si>
-    <t>2020-01-24</t>
-  </si>
-  <si>
-    <t>2020-08-20</t>
-  </si>
-  <si>
-    <t>2020-06-18</t>
-  </si>
-  <si>
-    <t>2020-06-06</t>
-  </si>
-  <si>
-    <t>2020-03-04</t>
-  </si>
-  <si>
-    <t>2020-08-05</t>
-  </si>
-  <si>
-    <t>2020-05-03</t>
-  </si>
-  <si>
-    <t>2020-03-12</t>
-  </si>
-  <si>
-    <t>2020-04-27</t>
-  </si>
-  <si>
-    <t>2020-09-20</t>
-  </si>
-  <si>
-    <t>2020-03-21</t>
-  </si>
-  <si>
-    <t>2020-02-27</t>
-  </si>
-  <si>
-    <t>2020-08-11</t>
-  </si>
-  <si>
-    <t>2020-09-06</t>
-  </si>
-  <si>
-    <t>2020-09-29</t>
-  </si>
-  <si>
-    <t>2020-05-29</t>
-  </si>
-  <si>
-    <t>2020-04-16</t>
-  </si>
-  <si>
-    <t>2020-04-10</t>
-  </si>
-  <si>
-    <t>2020-07-19</t>
-  </si>
-  <si>
-    <t>2020-02-01</t>
-  </si>
-  <si>
-    <t>2020-03-27</t>
-  </si>
-  <si>
-    <t>2020-02-21</t>
-  </si>
-  <si>
-    <t>2020-08-17</t>
-  </si>
-  <si>
-    <t>2020-06-29</t>
-  </si>
-  <si>
-    <t>2020-02-07</t>
-  </si>
-  <si>
-    <t>2020-08-31</t>
-  </si>
-  <si>
-    <t>2020-05-23</t>
-  </si>
-  <si>
-    <t>2020-05-17</t>
-  </si>
-  <si>
-    <t>2020-04-04</t>
-  </si>
-  <si>
-    <t>2020-02-13</t>
-  </si>
-  <si>
-    <t>2020-09-15</t>
-  </si>
-  <si>
-    <t>2020-08-23</t>
-  </si>
-  <si>
-    <t>2020-09-21</t>
-  </si>
-  <si>
-    <t>2020-07-23</t>
-  </si>
-  <si>
-    <t>2020-01-27</t>
-  </si>
-  <si>
-    <t>2020-08-06</t>
-  </si>
-  <si>
-    <t>2020-06-07</t>
-  </si>
-  <si>
-    <t>2020-03-13</t>
-  </si>
-  <si>
-    <t>2020-04-28</t>
-  </si>
-  <si>
-    <t>2020-04-22</t>
-  </si>
-  <si>
-    <t>2020-07-31</t>
-  </si>
-  <si>
-    <t>2020-03-07</t>
-  </si>
-  <si>
-    <t>2020-06-13</t>
-  </si>
-  <si>
-    <t>2020-06-24</t>
-  </si>
-  <si>
-    <t>2020-02-02</t>
-  </si>
-  <si>
-    <t>2020-03-22</t>
-  </si>
-  <si>
-    <t>2020-02-28</t>
-  </si>
-  <si>
-    <t>2020-09-01</t>
-  </si>
-  <si>
-    <t>2020-04-11</t>
-  </si>
-  <si>
-    <t>2020-08-12</t>
-  </si>
-  <si>
-    <t>2020-02-22</t>
-  </si>
-  <si>
-    <t>2020-07-20</t>
-  </si>
-  <si>
-    <t>2020-06-01</t>
-  </si>
-  <si>
-    <t>2020-06-30</t>
-  </si>
-  <si>
-    <t>2020-02-08</t>
-  </si>
-  <si>
-    <t>2020-05-12</t>
-  </si>
-  <si>
-    <t>2020-07-14</t>
-  </si>
-  <si>
-    <t>2020-04-05</t>
-  </si>
-  <si>
-    <t>2020-03-30</t>
-  </si>
-  <si>
-    <t>2020-05-18</t>
-  </si>
-  <si>
-    <t>2020-08-26</t>
-  </si>
-  <si>
-    <t>2020-04-02</t>
-  </si>
-  <si>
-    <t>2020-03-10</t>
-  </si>
-  <si>
-    <t>2020-02-16</t>
-  </si>
-  <si>
-    <t>2020-09-12</t>
-  </si>
-  <si>
-    <t>2020-03-16</t>
-  </si>
-  <si>
-    <t>2020-05-01</t>
-  </si>
-  <si>
-    <t>2020-04-19</t>
-  </si>
-  <si>
-    <t>2020-09-24</t>
-  </si>
-  <si>
-    <t>2020-09-18</t>
-  </si>
-  <si>
-    <t>2020-06-10</t>
-  </si>
-  <si>
-    <t>2020-08-03</t>
-  </si>
-  <si>
-    <t>2020-04-25</t>
-  </si>
-  <si>
-    <t>2020-09-04</t>
-  </si>
-  <si>
-    <t>2020-07-17</t>
-  </si>
-  <si>
-    <t>2020-08-09</t>
-  </si>
-  <si>
-    <t>2020-02-05</t>
-  </si>
-  <si>
-    <t>2020-06-27</t>
-  </si>
-  <si>
-    <t>2020-06-21</t>
-  </si>
-  <si>
-    <t>2020-06-04</t>
-  </si>
-  <si>
-    <t>2020-08-15</t>
-  </si>
-  <si>
-    <t>2020-05-09</t>
-  </si>
-  <si>
-    <t>2020-02-25</t>
-  </si>
-  <si>
-    <t>2020-01-30</t>
-  </si>
-  <si>
-    <t>2020-03-19</t>
-  </si>
-  <si>
-    <t>2020-04-08</t>
-  </si>
-  <si>
-    <t>2020-08-29</t>
-  </si>
-  <si>
-    <t>2020-07-11</t>
-  </si>
-  <si>
-    <t>2020-02-19</t>
-  </si>
-  <si>
-    <t>2020-05-15</t>
-  </si>
-  <si>
-    <t>2020-07-03</t>
-  </si>
-  <si>
-    <t>2020-05-21</t>
-  </si>
-  <si>
     <t>2020-10-01</t>
   </si>
   <si>
@@ -849,12 +849,12 @@
     <t>2020-10-13</t>
   </si>
   <si>
+    <t>2020-10-14</t>
+  </si>
+  <si>
     <t>2020-10-15</t>
   </si>
   <si>
-    <t>2020-10-14</t>
-  </si>
-  <si>
     <t>2020-10-16</t>
   </si>
   <si>
@@ -928,6 +928,9 @@
   </si>
   <si>
     <t>2020-11-09</t>
+  </si>
+  <si>
+    <t>2020-11-10</t>
   </si>
 </sst>
 </file>
@@ -964,7 +967,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1016,9 +1019,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$294</c:f>
+              <c:f>Data!$A$2:$A$295</c:f>
               <c:strCache>
-                <c:ptCount val="293"/>
+                <c:ptCount val="294"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -1897,16 +1900,19 @@
                 </c:pt>
                 <c:pt idx="292">
                   <c:v>2020-11-09</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>2020-11-10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$294</c:f>
+              <c:f>Data!$B$2:$B$295</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="293"/>
+                <c:ptCount val="294"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2785,6 +2791,9 @@
                 </c:pt>
                 <c:pt idx="292">
                   <c:v>9991822</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>10122811</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2893,9 +2902,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$294</c:f>
+              <c:f>Data!$A$2:$A$295</c:f>
               <c:strCache>
-                <c:ptCount val="293"/>
+                <c:ptCount val="294"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -3774,16 +3783,19 @@
                 </c:pt>
                 <c:pt idx="292">
                   <c:v>2020-11-09</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>2020-11-10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$2:$D$294</c:f>
+              <c:f>Data!$D$2:$D$295</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="293"/>
+                <c:ptCount val="294"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4658,10 +4670,13 @@
                   <c:v>55840</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>56793</c:v>
+                  <c:v>56799</c:v>
                 </c:pt>
                 <c:pt idx="292">
                   <c:v>59275</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>61964</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4770,9 +4785,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$294</c:f>
+              <c:f>Data!$A$2:$A$295</c:f>
               <c:strCache>
-                <c:ptCount val="293"/>
+                <c:ptCount val="294"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -5651,16 +5666,19 @@
                 </c:pt>
                 <c:pt idx="292">
                   <c:v>2020-11-09</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>2020-11-10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$294</c:f>
+              <c:f>Data!$E$2:$E$295</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="293"/>
+                <c:ptCount val="294"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6535,10 +6553,13 @@
                   <c:v>11082</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>11114</c:v>
+                  <c:v>11120</c:v>
                 </c:pt>
                 <c:pt idx="292">
                   <c:v>11533</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>11952</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6647,9 +6668,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$294</c:f>
+              <c:f>Data!$A$2:$A$295</c:f>
               <c:strCache>
-                <c:ptCount val="293"/>
+                <c:ptCount val="294"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -7528,16 +7549,19 @@
                 </c:pt>
                 <c:pt idx="292">
                   <c:v>2020-11-09</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>2020-11-10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$294</c:f>
+              <c:f>Data!$F$2:$F$295</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="293"/>
+                <c:ptCount val="294"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8412,10 +8436,13 @@
                   <c:v>2947</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>2964</c:v>
+                  <c:v>2977</c:v>
                 </c:pt>
                 <c:pt idx="292">
                   <c:v>3110</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>3205</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8524,9 +8551,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$294</c:f>
+              <c:f>Data!$A$2:$A$295</c:f>
               <c:strCache>
-                <c:ptCount val="293"/>
+                <c:ptCount val="294"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -9405,16 +9432,19 @@
                 </c:pt>
                 <c:pt idx="292">
                   <c:v>2020-11-09</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>2020-11-10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$294</c:f>
+              <c:f>Data!$C$2:$C$295</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="293"/>
+                <c:ptCount val="294"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10293,6 +10323,9 @@
                 </c:pt>
                 <c:pt idx="292">
                   <c:v>230312</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>231659</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10588,9 +10621,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F294" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F294" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F294">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F295" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F295" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F295">
     <sortCondition ref="A1:A254"/>
   </sortState>
   <tableColumns count="6">
@@ -10926,9 +10959,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F294"/>
+  <dimension ref="A1:F295"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
       <selection activeCell="J235" sqref="J235"/>
     </sheetView>
   </sheetViews>
@@ -10964,7 +10997,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -10984,7 +11017,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -11004,7 +11037,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>167</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -11024,7 +11057,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -11044,7 +11077,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -11064,7 +11097,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>201</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -11084,7 +11117,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -11104,7 +11137,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -11124,7 +11157,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>250</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -11144,7 +11177,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -11164,7 +11197,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>186</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -11184,7 +11217,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>211</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -11204,7 +11237,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -11224,7 +11257,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -11244,7 +11277,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>243</v>
+        <v>20</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -11264,7 +11297,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -11284,7 +11317,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>191</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -11304,7 +11337,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>221</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -11324,7 +11357,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>127</v>
+        <v>24</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -11344,7 +11377,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>161</v>
+        <v>25</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -11364,7 +11397,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -11384,7 +11417,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -11404,7 +11437,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>196</v>
+        <v>28</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -11424,7 +11457,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -11444,7 +11477,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -11464,7 +11497,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>230</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -11484,7 +11517,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -11504,7 +11537,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -11524,7 +11557,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>255</v>
+        <v>34</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -11544,7 +11577,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -11564,7 +11597,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>188</v>
+        <v>36</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -11584,7 +11617,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>217</v>
+        <v>37</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -11604,7 +11637,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -11624,7 +11657,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>152</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -11644,7 +11677,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>249</v>
+        <v>40</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -11664,7 +11697,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -11684,7 +11717,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>178</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -11704,7 +11737,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>213</v>
+        <v>43</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -11724,7 +11757,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>119</v>
+        <v>44</v>
       </c>
       <c r="B40">
         <v>18</v>
@@ -11744,7 +11777,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
       <c r="B41">
         <v>50</v>
@@ -11764,7 +11797,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>94</v>
@@ -11784,7 +11817,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="B43">
         <v>144</v>
@@ -11804,7 +11837,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>171</v>
+        <v>48</v>
       </c>
       <c r="B44">
         <v>282</v>
@@ -11824,7 +11857,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>386</v>
@@ -11844,7 +11877,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="B46">
         <v>499</v>
@@ -11864,7 +11897,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>208</v>
+        <v>51</v>
       </c>
       <c r="B47">
         <v>672</v>
@@ -11884,7 +11917,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B48">
         <v>871</v>
@@ -11904,7 +11937,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>1163</v>
@@ -11924,7 +11957,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>229</v>
+        <v>54</v>
       </c>
       <c r="B50">
         <v>1554</v>
@@ -11944,7 +11977,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>2056</v>
@@ -11964,7 +11997,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>174</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>2729</v>
@@ -11984,7 +12017,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>204</v>
+        <v>57</v>
       </c>
       <c r="B53">
         <v>3788</v>
@@ -12004,7 +12037,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B54">
         <v>4705</v>
@@ -12024,7 +12057,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>134</v>
+        <v>59</v>
       </c>
       <c r="B55">
         <v>5997</v>
@@ -12044,7 +12077,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>232</v>
+        <v>60</v>
       </c>
       <c r="B56">
         <v>7751</v>
@@ -12064,7 +12097,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>10321</v>
@@ -12084,7 +12117,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>149</v>
+        <v>62</v>
       </c>
       <c r="B58">
         <v>13344</v>
@@ -12104,7 +12137,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>251</v>
+        <v>63</v>
       </c>
       <c r="B59">
         <v>18018</v>
@@ -12124,7 +12157,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="B60">
         <v>24111</v>
@@ -12144,7 +12177,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>177</v>
+        <v>65</v>
       </c>
       <c r="B61">
         <v>30908</v>
@@ -12164,7 +12197,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>212</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>40064</v>
@@ -12184,7 +12217,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>122</v>
+        <v>67</v>
       </c>
       <c r="B63">
         <v>51460</v>
@@ -12204,7 +12237,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>148</v>
+        <v>68</v>
       </c>
       <c r="B64">
         <v>62164</v>
@@ -12224,7 +12257,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B65">
         <v>75085</v>
@@ -12244,7 +12277,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="B66">
         <v>92629</v>
@@ -12264,7 +12297,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>187</v>
+        <v>71</v>
       </c>
       <c r="B67">
         <v>111882</v>
@@ -12284,7 +12317,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="B68">
         <v>131468</v>
@@ -12304,7 +12337,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="B69">
         <v>151038</v>
@@ -12324,7 +12357,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>225</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>172729</v>
@@ -12344,7 +12377,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B71">
         <v>197569</v>
@@ -12364,7 +12397,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="B72">
         <v>223647</v>
@@ -12384,7 +12417,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>228</v>
+        <v>77</v>
       </c>
       <c r="B73">
         <v>251684</v>
@@ -12404,7 +12437,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="B74">
         <v>283453</v>
@@ -12424,7 +12457,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="B75">
         <v>316420</v>
@@ -12444,7 +12477,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>224</v>
+        <v>80</v>
       </c>
       <c r="B76">
         <v>342028</v>
@@ -12464,7 +12497,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="B77">
         <v>370620</v>
@@ -12484,7 +12517,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="B78">
         <v>401241</v>
@@ -12504,7 +12537,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>252</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>432216</v>
@@ -12524,7 +12557,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B80">
         <v>466856</v>
@@ -12544,7 +12577,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>184</v>
+        <v>85</v>
       </c>
       <c r="B81">
         <v>501102</v>
@@ -12564,7 +12597,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>215</v>
+        <v>86</v>
       </c>
       <c r="B82">
         <v>531728</v>
@@ -12584,7 +12617,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="B83">
         <v>559715</v>
@@ -12604,7 +12637,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>155</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>584473</v>
@@ -12624,7 +12657,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="B85">
         <v>610348</v>
@@ -12644,7 +12677,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B86">
         <v>640103</v>
@@ -12664,7 +12697,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>183</v>
+        <v>91</v>
       </c>
       <c r="B87">
         <v>671592</v>
@@ -12684,7 +12717,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="B88">
         <v>703593</v>
@@ -12704,7 +12737,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="B89">
         <v>731433</v>
@@ -12724,7 +12757,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>234</v>
+        <v>94</v>
       </c>
       <c r="B90">
         <v>758834</v>
@@ -12744,7 +12777,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="B91">
         <v>784780</v>
@@ -12764,7 +12797,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B92">
         <v>811058</v>
@@ -12784,7 +12817,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>206</v>
+        <v>97</v>
       </c>
       <c r="B93">
         <v>840062</v>
@@ -12804,7 +12837,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="B94">
         <v>872048</v>
@@ -12824,7 +12857,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="B95">
         <v>905746</v>
@@ -12844,7 +12877,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>239</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>941680</v>
@@ -12864,7 +12897,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>969045</v>
@@ -12884,7 +12917,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>175</v>
+        <v>102</v>
       </c>
       <c r="B98">
         <v>991648</v>
@@ -12904,7 +12937,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>205</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>1016960</v>
@@ -12924,7 +12957,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>1043097</v>
@@ -12944,7 +12977,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="B101">
         <v>1073034</v>
@@ -12964,7 +12997,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>233</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>1105967</v>
@@ -12984,7 +13017,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>1134916</v>
@@ -13004,7 +13037,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>173</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>1160598</v>
@@ -13024,7 +13057,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="B105">
         <v>1183174</v>
@@ -13044,7 +13077,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B106">
         <v>1205573</v>
@@ -13064,7 +13097,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="B107">
         <v>1230663</v>
@@ -13084,7 +13117,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="B108">
         <v>1257943</v>
@@ -13104,7 +13137,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="B109">
         <v>1285029</v>
@@ -13124,7 +13157,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>248</v>
+        <v>114</v>
       </c>
       <c r="B110">
         <v>1310198</v>
@@ -13144,7 +13177,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="B111">
         <v>1331320</v>
@@ -13164,7 +13197,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B112">
         <v>1349650</v>
@@ -13184,7 +13217,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>222</v>
+        <v>117</v>
       </c>
       <c r="B113">
         <v>1372170</v>
@@ -13204,7 +13237,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="B114">
         <v>1393747</v>
@@ -13224,7 +13257,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="B115">
         <v>1420427</v>
@@ -13244,7 +13277,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>256</v>
+        <v>120</v>
       </c>
       <c r="B116">
         <v>1445798</v>
@@ -13264,7 +13297,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>33</v>
+        <v>121</v>
       </c>
       <c r="B117">
         <v>1469358</v>
@@ -13284,7 +13317,7 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>194</v>
+        <v>122</v>
       </c>
       <c r="B118">
         <v>1489702</v>
@@ -13304,7 +13337,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>226</v>
+        <v>123</v>
       </c>
       <c r="B119">
         <v>1510514</v>
@@ -13324,7 +13357,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="B120">
         <v>1531438</v>
@@ -13344,7 +13377,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="B121">
         <v>1552632</v>
@@ -13364,7 +13397,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>258</v>
+        <v>126</v>
       </c>
       <c r="B122">
         <v>1579266</v>
@@ -13384,7 +13417,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="B123">
         <v>1603539</v>
@@ -13404,7 +13437,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>193</v>
+        <v>128</v>
       </c>
       <c r="B124">
         <v>1625706</v>
@@ -13424,7 +13457,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="B125">
         <v>1644854</v>
@@ -13444,7 +13477,7 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B126">
         <v>1663565</v>
@@ -13464,7 +13497,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="B127">
         <v>1680321</v>
@@ -13484,7 +13517,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="B128">
         <v>1699810</v>
@@ -13504,7 +13537,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="B129">
         <v>1722326</v>
@@ -13524,7 +13557,7 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>182</v>
+        <v>134</v>
       </c>
       <c r="B130">
         <v>1745759</v>
@@ -13544,7 +13577,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="B131">
         <v>1769202</v>
@@ -13564,7 +13597,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="B132">
         <v>1790837</v>
@@ -13584,7 +13617,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>219</v>
+        <v>137</v>
       </c>
       <c r="B133">
         <v>1811258</v>
@@ -13604,7 +13637,7 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="B134">
         <v>1831291</v>
@@ -13624,7 +13657,7 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>87</v>
+        <v>139</v>
       </c>
       <c r="B135">
         <v>1851493</v>
@@ -13644,7 +13677,7 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>246</v>
+        <v>140</v>
       </c>
       <c r="B136">
         <v>1871749</v>
@@ -13664,7 +13697,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="B137">
         <v>1894753</v>
@@ -13684,7 +13717,7 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="B138">
         <v>1917526</v>
@@ -13704,7 +13737,7 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>203</v>
+        <v>143</v>
       </c>
       <c r="B139">
         <v>1936412</v>
@@ -13724,7 +13757,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="B140">
         <v>1953632</v>
@@ -13744,7 +13777,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B141">
         <v>1970880</v>
@@ -13764,7 +13797,7 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>237</v>
+        <v>146</v>
       </c>
       <c r="B142">
         <v>1991517</v>
@@ -13784,7 +13817,7 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>73</v>
+        <v>147</v>
       </c>
       <c r="B143">
         <v>2013619</v>
@@ -13804,7 +13837,7 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="B144">
         <v>2036804</v>
@@ -13824,7 +13857,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>209</v>
+        <v>149</v>
       </c>
       <c r="B145">
         <v>2061938</v>
@@ -13844,7 +13877,7 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="B146">
         <v>2083344</v>
@@ -13864,7 +13897,7 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="B147">
         <v>2101922</v>
@@ -13884,7 +13917,7 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>50</v>
+        <v>152</v>
       </c>
       <c r="B148">
         <v>2125249</v>
@@ -13904,7 +13937,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>80</v>
+        <v>153</v>
       </c>
       <c r="B149">
         <v>2149022</v>
@@ -13924,7 +13957,7 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="B150">
         <v>2176157</v>
@@ -13944,7 +13977,7 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="B151">
         <v>2207038</v>
@@ -13964,7 +13997,7 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>109</v>
+        <v>156</v>
       </c>
       <c r="B152">
         <v>2239049</v>
@@ -13984,7 +14017,7 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>245</v>
+        <v>157</v>
       </c>
       <c r="B153">
         <v>2268040</v>
@@ -14004,7 +14037,7 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>21</v>
+        <v>158</v>
       </c>
       <c r="B154">
         <v>2295114</v>
@@ -14024,7 +14057,7 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="B155">
         <v>2328962</v>
@@ -14044,7 +14077,7 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="B156">
         <v>2367889</v>
@@ -14064,7 +14097,7 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>58</v>
+        <v>161</v>
       </c>
       <c r="B157">
         <v>2407458</v>
@@ -14084,7 +14117,7 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B158">
         <v>2451832</v>
@@ -14104,7 +14137,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>244</v>
+        <v>163</v>
       </c>
       <c r="B159">
         <v>2494820</v>
@@ -14124,7 +14157,7 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="B160">
         <v>2536113</v>
@@ -14144,7 +14177,7 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="B161">
         <v>2575976</v>
@@ -14164,7 +14197,7 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>220</v>
+        <v>166</v>
       </c>
       <c r="B162">
         <v>2623614</v>
@@ -14184,7 +14217,7 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="B163">
         <v>2674541</v>
@@ -14204,7 +14237,7 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="B164">
         <v>2727926</v>
@@ -14224,7 +14257,7 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>257</v>
+        <v>169</v>
       </c>
       <c r="B165">
         <v>2781659</v>
@@ -14244,7 +14277,7 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>74</v>
+        <v>170</v>
       </c>
       <c r="B166">
         <v>2835791</v>
@@ -14264,7 +14297,7 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B167">
         <v>2881100</v>
@@ -14284,7 +14317,7 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>7</v>
+        <v>172</v>
       </c>
       <c r="B168">
         <v>2922516</v>
@@ -14304,7 +14337,7 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="B169">
         <v>2974102</v>
@@ -14324,7 +14357,7 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="B170">
         <v>3036725</v>
@@ -14344,7 +14377,7 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>69</v>
+        <v>175</v>
       </c>
       <c r="B171">
         <v>3095784</v>
@@ -14364,7 +14397,7 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>100</v>
+        <v>176</v>
       </c>
       <c r="B172">
         <v>3162288</v>
@@ -14384,7 +14417,7 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>254</v>
+        <v>177</v>
       </c>
       <c r="B173">
         <v>3224952</v>
@@ -14404,7 +14437,7 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>30</v>
+        <v>178</v>
       </c>
       <c r="B174">
         <v>3285973</v>
@@ -14424,7 +14457,7 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="B175">
         <v>3343561</v>
@@ -14444,7 +14477,7 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>223</v>
+        <v>180</v>
       </c>
       <c r="B176">
         <v>3406217</v>
@@ -14464,7 +14497,7 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>55</v>
+        <v>181</v>
       </c>
       <c r="B177">
         <v>3471708</v>
@@ -14484,7 +14517,7 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="B178">
         <v>3542419</v>
@@ -14504,7 +14537,7 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>241</v>
+        <v>183</v>
       </c>
       <c r="B179">
         <v>3618576</v>
@@ -14524,7 +14557,7 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>19</v>
+        <v>184</v>
       </c>
       <c r="B180">
         <v>3683228</v>
@@ -14564,7 +14597,7 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="B182">
         <v>3804036</v>
@@ -14584,7 +14617,7 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>125</v>
+        <v>187</v>
       </c>
       <c r="B183">
         <v>3867554</v>
@@ -14604,7 +14637,7 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="B184">
         <v>3936743</v>
@@ -14624,7 +14657,7 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="B185">
         <v>4007968</v>
@@ -14644,7 +14677,7 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="B186">
         <v>4082805</v>
@@ -14664,7 +14697,7 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>135</v>
+        <v>191</v>
       </c>
       <c r="B187">
         <v>4147067</v>
@@ -14684,7 +14717,7 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>40</v>
+        <v>192</v>
       </c>
       <c r="B188">
         <v>4207560</v>
@@ -14704,7 +14737,7 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>76</v>
+        <v>193</v>
       </c>
       <c r="B189">
         <v>4262696</v>
@@ -14724,7 +14757,7 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="B190">
         <v>4321367</v>
@@ -14744,7 +14777,7 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>6</v>
+        <v>195</v>
       </c>
       <c r="B191">
         <v>4385543</v>
@@ -14764,7 +14797,7 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>104</v>
+        <v>196</v>
       </c>
       <c r="B192">
         <v>4454549</v>
@@ -14784,7 +14817,7 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="B193">
         <v>4521933</v>
@@ -14804,7 +14837,7 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>48</v>
+        <v>198</v>
       </c>
       <c r="B194">
         <v>4582349</v>
@@ -14824,7 +14857,7 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>83</v>
+        <v>199</v>
       </c>
       <c r="B195">
         <v>4628866</v>
@@ -14844,7 +14877,7 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="B196">
         <v>4678539</v>
@@ -14864,7 +14897,7 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>10</v>
+        <v>201</v>
       </c>
       <c r="B197">
         <v>4730083</v>
@@ -14884,7 +14917,7 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>172</v>
+        <v>202</v>
       </c>
       <c r="B198">
         <v>4782366</v>
@@ -14904,7 +14937,7 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B199">
         <v>4836333</v>
@@ -14924,7 +14957,7 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>47</v>
+        <v>204</v>
       </c>
       <c r="B200">
         <v>4897187</v>
@@ -14944,7 +14977,7 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>147</v>
+        <v>205</v>
       </c>
       <c r="B201">
         <v>4950345</v>
@@ -14964,7 +14997,7 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="B202">
         <v>5000546</v>
@@ -14984,7 +15017,7 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>85</v>
+        <v>207</v>
       </c>
       <c r="B203">
         <v>5042315</v>
@@ -15004,7 +15037,7 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>179</v>
+        <v>208</v>
       </c>
       <c r="B204">
         <v>5097651</v>
@@ -15024,7 +15057,7 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B205">
         <v>5153664</v>
@@ -15044,7 +15077,7 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>118</v>
+        <v>210</v>
       </c>
       <c r="B206">
         <v>5205152</v>
@@ -15064,7 +15097,7 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>153</v>
+        <v>211</v>
       </c>
       <c r="B207">
         <v>5262406</v>
@@ -15084,7 +15117,7 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="B208">
         <v>5318266</v>
@@ -15104,7 +15137,7 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>94</v>
+        <v>213</v>
       </c>
       <c r="B209">
         <v>5360592</v>
@@ -15124,7 +15157,7 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="B210">
         <v>5398161</v>
@@ -15144,7 +15177,7 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>41</v>
+        <v>215</v>
       </c>
       <c r="B211">
         <v>5438600</v>
@@ -15164,7 +15197,7 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>77</v>
+        <v>216</v>
       </c>
       <c r="B212">
         <v>5483380</v>
@@ -15184,7 +15217,7 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>168</v>
+        <v>217</v>
       </c>
       <c r="B213">
         <v>5527014</v>
@@ -15204,7 +15237,7 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>9</v>
+        <v>218</v>
       </c>
       <c r="B214">
         <v>5573242</v>
@@ -15224,7 +15257,7 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>103</v>
+        <v>219</v>
       </c>
       <c r="B215">
         <v>5618964</v>
@@ -15244,7 +15277,7 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="B216">
         <v>5656436</v>
@@ -15264,7 +15297,7 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>35</v>
+        <v>221</v>
       </c>
       <c r="B217">
         <v>5690768</v>
@@ -15284,7 +15317,7 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>130</v>
+        <v>222</v>
       </c>
       <c r="B218">
         <v>5727107</v>
@@ -15304,7 +15337,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B219">
         <v>5770871</v>
@@ -15324,7 +15357,7 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>68</v>
+        <v>224</v>
       </c>
       <c r="B220">
         <v>5814635</v>
@@ -15344,7 +15377,7 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>156</v>
+        <v>225</v>
       </c>
       <c r="B221">
         <v>5860752</v>
@@ -15364,7 +15397,7 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>253</v>
+        <v>226</v>
       </c>
       <c r="B222">
         <v>5904886</v>
@@ -15384,7 +15417,7 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>34</v>
+        <v>227</v>
       </c>
       <c r="B223">
         <v>5944296</v>
@@ -15404,7 +15437,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="B224">
         <v>5975589</v>
@@ -15424,7 +15457,7 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="B225">
         <v>6017826</v>
@@ -15444,7 +15477,7 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>117</v>
+        <v>230</v>
       </c>
       <c r="B226">
         <v>6048113</v>
@@ -15464,7 +15497,7 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>143</v>
+        <v>231</v>
       </c>
       <c r="B227">
         <v>6092675</v>
@@ -15484,7 +15517,7 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B228">
         <v>6144204</v>
@@ -15504,7 +15537,7 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>89</v>
+        <v>233</v>
       </c>
       <c r="B229">
         <v>6188937</v>
@@ -15524,7 +15557,7 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>180</v>
+        <v>234</v>
       </c>
       <c r="B230">
         <v>6221988</v>
@@ -15544,7 +15577,7 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>26</v>
+        <v>235</v>
       </c>
       <c r="B231">
         <v>6250225</v>
@@ -15564,7 +15597,7 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>124</v>
+        <v>236</v>
       </c>
       <c r="B232">
         <v>6272389</v>
@@ -15584,7 +15617,7 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>133</v>
+        <v>237</v>
       </c>
       <c r="B233">
         <v>6303451</v>
@@ -15604,7 +15637,7 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>42</v>
+        <v>238</v>
       </c>
       <c r="B234">
         <v>6340673</v>
@@ -15624,7 +15657,7 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>78</v>
+        <v>239</v>
       </c>
       <c r="B235">
         <v>6385361</v>
@@ -15644,7 +15677,7 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="B236">
         <v>6427159</v>
@@ -15664,7 +15697,7 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>8</v>
+        <v>241</v>
       </c>
       <c r="B237">
         <v>6461467</v>
@@ -15684,7 +15717,7 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>105</v>
+        <v>242</v>
       </c>
       <c r="B238">
         <v>6495151</v>
@@ -15704,7 +15737,7 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>197</v>
+        <v>243</v>
       </c>
       <c r="B239">
         <v>6530030</v>
@@ -15724,7 +15757,7 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>39</v>
+        <v>244</v>
       </c>
       <c r="B240">
         <v>6569918</v>
@@ -15744,7 +15777,7 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>141</v>
+        <v>245</v>
       </c>
       <c r="B241">
         <v>6613293</v>
@@ -15764,7 +15797,7 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="B242">
         <v>6660414</v>
@@ -15784,7 +15817,7 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>17</v>
+        <v>247</v>
       </c>
       <c r="B243">
         <v>6705300</v>
@@ -15804,7 +15837,7 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>176</v>
+        <v>248</v>
       </c>
       <c r="B244">
         <v>6740988</v>
@@ -15824,7 +15857,7 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>199</v>
+        <v>249</v>
       </c>
       <c r="B245">
         <v>6780050</v>
@@ -15844,7 +15877,7 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="B246">
         <v>6829401</v>
@@ -15864,7 +15897,7 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>140</v>
+        <v>251</v>
       </c>
       <c r="B247">
         <v>6867948</v>
@@ -15884,7 +15917,7 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="B248">
         <v>6911191</v>
@@ -15904,7 +15937,7 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>116</v>
+        <v>253</v>
       </c>
       <c r="B249">
         <v>6966328</v>
@@ -15924,7 +15957,7 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>146</v>
+        <v>254</v>
       </c>
       <c r="B250">
         <v>7013908</v>
@@ -15944,7 +15977,7 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>54</v>
+        <v>255</v>
       </c>
       <c r="B251">
         <v>7048969</v>
@@ -15964,7 +15997,7 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>86</v>
+        <v>256</v>
       </c>
       <c r="B252">
         <v>7085025</v>
@@ -15984,7 +16017,7 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>181</v>
+        <v>257</v>
       </c>
       <c r="B253">
         <v>7121314</v>
@@ -16004,7 +16037,7 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>24</v>
+        <v>258</v>
       </c>
       <c r="B254">
         <v>7165581</v>
@@ -16284,7 +16317,7 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B268">
         <v>7839274</v>
@@ -16304,7 +16337,7 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B269">
         <v>7902125</v>
@@ -16793,13 +16826,13 @@
         <v>229732</v>
       </c>
       <c r="D293">
-        <v>56793</v>
+        <v>56799</v>
       </c>
       <c r="E293">
-        <v>11114</v>
+        <v>11120</v>
       </c>
       <c r="F293">
-        <v>2964</v>
+        <v>2977</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
@@ -16820,6 +16853,26 @@
       </c>
       <c r="F294">
         <v>3110</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>299</v>
+      </c>
+      <c r="B295">
+        <v>10122811</v>
+      </c>
+      <c r="C295">
+        <v>231659</v>
+      </c>
+      <c r="D295">
+        <v>61964</v>
+      </c>
+      <c r="E295">
+        <v>11952</v>
+      </c>
+      <c r="F295">
+        <v>3205</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathBeds.xlsx
+++ b/covid19/data/USCaseDeathBeds.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D821017-8B98-4ED7-97DF-8FA4B7342AC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FAB0EA-4421-49BD-A1C6-082DDBBC004A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,15 +16,15 @@
     <sheet name="Deaths" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$295</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">'Data'!$A$1:$F$295</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" odcFile="C:\Users\Mark\Documents\My Data Sources\howe-hp_howehp Covid19 CaseDeathsBeds.odc" keepAlive="1" name="howe-hp_howehp Covid19 CaseDeathsBeds" type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" odcFile="C:\Users\Mark\Documents\My Data Sources\howe-hp_howehp Covid19 CaseDeathsBeds.odc" keepAlive="1" name="howe-hp_howehp Covid19 CaseDeathsBeds" type="5" refreshedVersion="6" background="1" refreshOnLoad="1" saveData="1">
     <dbPr connection="Provider=SQLOLEDB.1;Integrated Security=SSPI;Persist Security Info=True;Initial Catalog=Covid19;Data Source=howe-hp\howehp;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=4096;Workstation ID=HOWE-HP;Use Encryption for Data=False;Tag with column collation when possible=False" command="&quot;Covid19&quot;.&quot;dbo&quot;.&quot;CaseDeathsBeds&quot;" commandType="3"/>
   </connection>
 </connections>
@@ -937,7 +937,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -967,7 +968,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10606,7 +10607,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="howe-hp_howehp Covid19 CaseDeathsBeds" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="howe-hp_howehp Covid19 CaseDeathsBeds" refreshOnLoad="1" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="7">
     <queryTableFields count="6">
       <queryTableField id="1" name="date" tableColumnId="1"/>
@@ -10961,5922 +10962,5923 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F295"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
-      <selection activeCell="J235" sqref="J235"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" bestFit="1" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" bestFit="1" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" bestFit="1" width="6.42578125" customWidth="1"/>
+    <col min="6" max="6" bestFit="1" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B2" s="0">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0">
+        <v>0</v>
+      </c>
+      <c r="E2" s="0">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B3" s="0">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0">
+        <v>0</v>
+      </c>
+      <c r="D3" s="0">
+        <v>0</v>
+      </c>
+      <c r="E3" s="0">
+        <v>0</v>
+      </c>
+      <c r="F3" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B4" s="0">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B5" s="0">
+        <v>0</v>
+      </c>
+      <c r="C5" s="0">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B6" s="0">
+        <v>0</v>
+      </c>
+      <c r="C6" s="0">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B7" s="0">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0">
+        <v>0</v>
+      </c>
+      <c r="E7" s="0">
+        <v>0</v>
+      </c>
+      <c r="F7" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B8" s="0">
+        <v>0</v>
+      </c>
+      <c r="C8" s="0">
+        <v>0</v>
+      </c>
+      <c r="D8" s="0">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0">
+        <v>0</v>
+      </c>
+      <c r="F8" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B9" s="0">
+        <v>0</v>
+      </c>
+      <c r="C9" s="0">
+        <v>0</v>
+      </c>
+      <c r="D9" s="0">
+        <v>0</v>
+      </c>
+      <c r="E9" s="0">
+        <v>0</v>
+      </c>
+      <c r="F9" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B10" s="0">
+        <v>0</v>
+      </c>
+      <c r="C10" s="0">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0">
+        <v>0</v>
+      </c>
+      <c r="E10" s="0">
+        <v>0</v>
+      </c>
+      <c r="F10" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B11" s="0">
+        <v>0</v>
+      </c>
+      <c r="C11" s="0">
+        <v>0</v>
+      </c>
+      <c r="D11" s="0">
+        <v>0</v>
+      </c>
+      <c r="E11" s="0">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B12" s="0">
+        <v>0</v>
+      </c>
+      <c r="C12" s="0">
+        <v>0</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0">
+        <v>0</v>
+      </c>
+      <c r="F12" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B13" s="0">
+        <v>0</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0">
+        <v>0</v>
+      </c>
+      <c r="E13" s="0">
+        <v>0</v>
+      </c>
+      <c r="F13" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B14" s="0">
+        <v>0</v>
+      </c>
+      <c r="C14" s="0">
+        <v>0</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0">
+        <v>0</v>
+      </c>
+      <c r="F14" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B15" s="0">
+        <v>0</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0">
+        <v>0</v>
+      </c>
+      <c r="E15" s="0">
+        <v>0</v>
+      </c>
+      <c r="F15" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B16" s="0">
+        <v>0</v>
+      </c>
+      <c r="C16" s="0">
+        <v>0</v>
+      </c>
+      <c r="D16" s="0">
+        <v>0</v>
+      </c>
+      <c r="E16" s="0">
+        <v>0</v>
+      </c>
+      <c r="F16" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B17" s="0">
+        <v>0</v>
+      </c>
+      <c r="C17" s="0">
+        <v>0</v>
+      </c>
+      <c r="D17" s="0">
+        <v>0</v>
+      </c>
+      <c r="E17" s="0">
+        <v>0</v>
+      </c>
+      <c r="F17" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B18" s="0">
+        <v>0</v>
+      </c>
+      <c r="C18" s="0">
+        <v>0</v>
+      </c>
+      <c r="D18" s="0">
+        <v>0</v>
+      </c>
+      <c r="E18" s="0">
+        <v>0</v>
+      </c>
+      <c r="F18" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B19" s="0">
+        <v>0</v>
+      </c>
+      <c r="C19" s="0">
+        <v>0</v>
+      </c>
+      <c r="D19" s="0">
+        <v>0</v>
+      </c>
+      <c r="E19" s="0">
+        <v>0</v>
+      </c>
+      <c r="F19" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B20" s="0">
+        <v>0</v>
+      </c>
+      <c r="C20" s="0">
+        <v>0</v>
+      </c>
+      <c r="D20" s="0">
+        <v>0</v>
+      </c>
+      <c r="E20" s="0">
+        <v>0</v>
+      </c>
+      <c r="F20" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B21" s="0">
+        <v>0</v>
+      </c>
+      <c r="C21" s="0">
+        <v>0</v>
+      </c>
+      <c r="D21" s="0">
+        <v>0</v>
+      </c>
+      <c r="E21" s="0">
+        <v>0</v>
+      </c>
+      <c r="F21" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B22" s="0">
+        <v>0</v>
+      </c>
+      <c r="C22" s="0">
+        <v>0</v>
+      </c>
+      <c r="D22" s="0">
+        <v>0</v>
+      </c>
+      <c r="E22" s="0">
+        <v>0</v>
+      </c>
+      <c r="F22" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B23" s="0">
+        <v>0</v>
+      </c>
+      <c r="C23" s="0">
+        <v>0</v>
+      </c>
+      <c r="D23" s="0">
+        <v>0</v>
+      </c>
+      <c r="E23" s="0">
+        <v>0</v>
+      </c>
+      <c r="F23" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B24" s="0">
+        <v>0</v>
+      </c>
+      <c r="C24" s="0">
+        <v>0</v>
+      </c>
+      <c r="D24" s="0">
+        <v>0</v>
+      </c>
+      <c r="E24" s="0">
+        <v>0</v>
+      </c>
+      <c r="F24" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B25" s="0">
+        <v>0</v>
+      </c>
+      <c r="C25" s="0">
+        <v>0</v>
+      </c>
+      <c r="D25" s="0">
+        <v>0</v>
+      </c>
+      <c r="E25" s="0">
+        <v>0</v>
+      </c>
+      <c r="F25" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B26" s="0">
+        <v>0</v>
+      </c>
+      <c r="C26" s="0">
+        <v>0</v>
+      </c>
+      <c r="D26" s="0">
+        <v>0</v>
+      </c>
+      <c r="E26" s="0">
+        <v>0</v>
+      </c>
+      <c r="F26" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B27" s="0">
+        <v>0</v>
+      </c>
+      <c r="C27" s="0">
+        <v>0</v>
+      </c>
+      <c r="D27" s="0">
+        <v>0</v>
+      </c>
+      <c r="E27" s="0">
+        <v>0</v>
+      </c>
+      <c r="F27" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B28" s="0">
+        <v>0</v>
+      </c>
+      <c r="C28" s="0">
+        <v>0</v>
+      </c>
+      <c r="D28" s="0">
+        <v>0</v>
+      </c>
+      <c r="E28" s="0">
+        <v>0</v>
+      </c>
+      <c r="F28" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B29" s="0">
+        <v>0</v>
+      </c>
+      <c r="C29" s="0">
+        <v>0</v>
+      </c>
+      <c r="D29" s="0">
+        <v>0</v>
+      </c>
+      <c r="E29" s="0">
+        <v>0</v>
+      </c>
+      <c r="F29" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B30" s="0">
+        <v>0</v>
+      </c>
+      <c r="C30" s="0">
+        <v>0</v>
+      </c>
+      <c r="D30" s="0">
+        <v>0</v>
+      </c>
+      <c r="E30" s="0">
+        <v>0</v>
+      </c>
+      <c r="F30" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B31" s="0">
+        <v>0</v>
+      </c>
+      <c r="C31" s="0">
+        <v>0</v>
+      </c>
+      <c r="D31" s="0">
+        <v>0</v>
+      </c>
+      <c r="E31" s="0">
+        <v>0</v>
+      </c>
+      <c r="F31" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B32" s="0">
+        <v>0</v>
+      </c>
+      <c r="C32" s="0">
+        <v>0</v>
+      </c>
+      <c r="D32" s="0">
+        <v>0</v>
+      </c>
+      <c r="E32" s="0">
+        <v>0</v>
+      </c>
+      <c r="F32" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B33" s="0">
+        <v>0</v>
+      </c>
+      <c r="C33" s="0">
+        <v>0</v>
+      </c>
+      <c r="D33" s="0">
+        <v>0</v>
+      </c>
+      <c r="E33" s="0">
+        <v>0</v>
+      </c>
+      <c r="F33" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B34" s="0">
+        <v>0</v>
+      </c>
+      <c r="C34" s="0">
+        <v>0</v>
+      </c>
+      <c r="D34" s="0">
+        <v>0</v>
+      </c>
+      <c r="E34" s="0">
+        <v>0</v>
+      </c>
+      <c r="F34" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B35" s="0">
+        <v>0</v>
+      </c>
+      <c r="C35" s="0">
+        <v>0</v>
+      </c>
+      <c r="D35" s="0">
+        <v>0</v>
+      </c>
+      <c r="E35" s="0">
+        <v>0</v>
+      </c>
+      <c r="F35" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B36" s="0">
+        <v>0</v>
+      </c>
+      <c r="C36" s="0">
+        <v>0</v>
+      </c>
+      <c r="D36" s="0">
+        <v>0</v>
+      </c>
+      <c r="E36" s="0">
+        <v>0</v>
+      </c>
+      <c r="F36" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
+      <c r="B37" s="0">
+        <v>0</v>
+      </c>
+      <c r="C37" s="0">
         <v>2</v>
       </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="D37" s="0">
+        <v>0</v>
+      </c>
+      <c r="E37" s="0">
+        <v>0</v>
+      </c>
+      <c r="F37" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
+      <c r="B38" s="0">
+        <v>0</v>
+      </c>
+      <c r="C38" s="0">
         <v>2</v>
       </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="D38" s="0">
+        <v>0</v>
+      </c>
+      <c r="E38" s="0">
+        <v>0</v>
+      </c>
+      <c r="F38" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
+      <c r="B39" s="0">
+        <v>0</v>
+      </c>
+      <c r="C39" s="0">
         <v>4</v>
       </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="D39" s="0">
+        <v>0</v>
+      </c>
+      <c r="E39" s="0">
+        <v>0</v>
+      </c>
+      <c r="F39" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="0">
         <v>18</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="0">
         <v>5</v>
       </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="D40" s="0">
+        <v>0</v>
+      </c>
+      <c r="E40" s="0">
+        <v>0</v>
+      </c>
+      <c r="F40" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="0">
         <v>50</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="0">
         <v>8</v>
       </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="D41" s="0">
+        <v>0</v>
+      </c>
+      <c r="E41" s="0">
+        <v>0</v>
+      </c>
+      <c r="F41" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="0">
         <v>94</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="0">
         <v>11</v>
       </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="D42" s="0">
+        <v>0</v>
+      </c>
+      <c r="E42" s="0">
+        <v>0</v>
+      </c>
+      <c r="F42" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="0">
         <v>144</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="0">
         <v>14</v>
       </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="D43" s="0">
+        <v>0</v>
+      </c>
+      <c r="E43" s="0">
+        <v>0</v>
+      </c>
+      <c r="F43" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="0">
         <v>282</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="0">
         <v>16</v>
       </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="D44" s="0">
+        <v>0</v>
+      </c>
+      <c r="E44" s="0">
+        <v>0</v>
+      </c>
+      <c r="F44" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="0">
         <v>386</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="0">
         <v>20</v>
       </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="D45" s="0">
+        <v>0</v>
+      </c>
+      <c r="E45" s="0">
+        <v>0</v>
+      </c>
+      <c r="F45" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="0">
         <v>499</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="0">
         <v>26</v>
       </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="D46" s="0">
+        <v>0</v>
+      </c>
+      <c r="E46" s="0">
+        <v>0</v>
+      </c>
+      <c r="F46" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="0">
         <v>672</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="0">
         <v>27</v>
       </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="D47" s="0">
+        <v>0</v>
+      </c>
+      <c r="E47" s="0">
+        <v>0</v>
+      </c>
+      <c r="F47" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="0">
         <v>871</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="0">
         <v>31</v>
       </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="D48" s="0">
+        <v>0</v>
+      </c>
+      <c r="E48" s="0">
+        <v>0</v>
+      </c>
+      <c r="F48" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="0">
         <v>1163</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="0">
         <v>35</v>
       </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="D49" s="0">
+        <v>0</v>
+      </c>
+      <c r="E49" s="0">
+        <v>0</v>
+      </c>
+      <c r="F49" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="0">
         <v>1554</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="0">
         <v>37</v>
       </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="D50" s="0">
+        <v>0</v>
+      </c>
+      <c r="E50" s="0">
+        <v>0</v>
+      </c>
+      <c r="F50" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="0">
         <v>2056</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="0">
         <v>43</v>
       </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="D51" s="0">
+        <v>0</v>
+      </c>
+      <c r="E51" s="0">
+        <v>0</v>
+      </c>
+      <c r="F51" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="0">
         <v>2729</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="0">
         <v>51</v>
       </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="D52" s="0">
+        <v>0</v>
+      </c>
+      <c r="E52" s="0">
+        <v>0</v>
+      </c>
+      <c r="F52" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="0">
         <v>3788</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="0">
         <v>55</v>
       </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="D53" s="0">
+        <v>0</v>
+      </c>
+      <c r="E53" s="0">
+        <v>0</v>
+      </c>
+      <c r="F53" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="0">
         <v>4705</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="0">
         <v>64</v>
       </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="D54" s="0">
+        <v>0</v>
+      </c>
+      <c r="E54" s="0">
+        <v>0</v>
+      </c>
+      <c r="F54" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="0">
         <v>5997</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="0">
         <v>79</v>
       </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="D55" s="0">
+        <v>0</v>
+      </c>
+      <c r="E55" s="0">
+        <v>0</v>
+      </c>
+      <c r="F55" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="0">
         <v>7751</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="0">
         <v>100</v>
       </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="D56" s="0">
+        <v>0</v>
+      </c>
+      <c r="E56" s="0">
+        <v>0</v>
+      </c>
+      <c r="F56" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="0">
         <v>10321</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="0">
         <v>123</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="0">
         <v>325</v>
       </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="E57" s="0">
+        <v>0</v>
+      </c>
+      <c r="F57" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="0">
         <v>13344</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="0">
         <v>155</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="0">
         <v>416</v>
       </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="E58" s="0">
+        <v>0</v>
+      </c>
+      <c r="F58" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="0">
         <v>18018</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="0">
         <v>203</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="0">
         <v>617</v>
       </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="E59" s="0">
+        <v>0</v>
+      </c>
+      <c r="F59" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="0">
         <v>24111</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="0">
         <v>272</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="0">
         <v>1042</v>
       </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="E60" s="0">
+        <v>0</v>
+      </c>
+      <c r="F60" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="0">
         <v>30908</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="0">
         <v>334</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="0">
         <v>1436</v>
       </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="E61" s="0">
+        <v>0</v>
+      </c>
+      <c r="F61" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="0">
         <v>40064</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="0">
         <v>480</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="0">
         <v>2155</v>
       </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="E62" s="0">
+        <v>0</v>
+      </c>
+      <c r="F62" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="0">
         <v>51460</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="0">
         <v>581</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="0">
         <v>2770</v>
       </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="E63" s="0">
+        <v>0</v>
+      </c>
+      <c r="F63" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="0">
         <v>62164</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="0">
         <v>815</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="0">
         <v>3902</v>
       </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="E64" s="0">
+        <v>0</v>
+      </c>
+      <c r="F64" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="0">
         <v>75085</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="0">
         <v>1050</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="0">
         <v>5062</v>
       </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65">
+      <c r="E65" s="0">
+        <v>0</v>
+      </c>
+      <c r="F65" s="0">
         <v>167</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="66">
+      <c r="A66" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="0">
         <v>92629</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="0">
         <v>1369</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="0">
         <v>7757</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="0">
         <v>1299</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="0">
         <v>258</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="67">
+      <c r="A67" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="0">
         <v>111882</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="0">
         <v>1775</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="0">
         <v>10932</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="0">
         <v>1792</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="0">
         <v>324</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="68">
+      <c r="A68" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="0">
         <v>131468</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="0">
         <v>2319</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="0">
         <v>12382</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="0">
         <v>2174</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="0">
         <v>390</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="69">
+      <c r="A69" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="0">
         <v>151038</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="0">
         <v>2834</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="0">
         <v>14026</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="0">
         <v>2456</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="0">
         <v>439</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="70">
+      <c r="A70" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="0">
         <v>172729</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="0">
         <v>3423</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="0">
         <v>15772</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="0">
         <v>3087</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="0">
         <v>451</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="71">
+      <c r="A71" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="0">
         <v>197569</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="0">
         <v>4313</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="0">
         <v>18082</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="0">
         <v>3487</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="0">
         <v>507</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="72">
+      <c r="A72" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="0">
         <v>223647</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="0">
         <v>5324</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="0">
         <v>20775</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="0">
         <v>3937</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="0">
         <v>561</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="73">
+      <c r="A73" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="0">
         <v>251684</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="0">
         <v>6496</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="0">
         <v>22956</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="0">
         <v>4513</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="0">
         <v>574</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="74">
+      <c r="A74" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="0">
         <v>283453</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="0">
         <v>7782</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="0">
         <v>25729</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="0">
         <v>4928</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="0">
         <v>605</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="75">
+      <c r="A75" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="0">
         <v>316420</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="0">
         <v>9264</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="0">
         <v>30266</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="0">
         <v>5500</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="0">
         <v>656</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="76">
+      <c r="A76" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="0">
         <v>342028</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="0">
         <v>10604</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="0">
         <v>32169</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="0">
         <v>5811</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="0">
         <v>652</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="77">
+      <c r="A77" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="0">
         <v>370620</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="0">
         <v>11922</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="0">
         <v>36156</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="0">
         <v>7079</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="0">
         <v>2961</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="78">
+      <c r="A78" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="0">
         <v>401241</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="0">
         <v>13946</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="0">
         <v>43799</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="0">
         <v>9978</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="0">
         <v>4076</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="79">
+      <c r="A79" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="0">
         <v>432216</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="0">
         <v>15956</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="0">
         <v>45492</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="0">
         <v>10337</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="0">
         <v>4131</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="80">
+      <c r="A80" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="0">
         <v>466856</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="0">
         <v>17999</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="0">
         <v>51305</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="0">
         <v>12450</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="0">
         <v>5794</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="81">
+      <c r="A81" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="0">
         <v>501102</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="0">
         <v>20107</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="0">
         <v>53166</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="0">
         <v>12693</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="0">
         <v>5937</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    <row r="82">
+      <c r="A82" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="0">
         <v>531728</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="0">
         <v>22161</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="0">
         <v>55573</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="0">
         <v>13285</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="0">
         <v>5978</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    <row r="83">
+      <c r="A83" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="0">
         <v>559715</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="0">
         <v>23864</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="0">
         <v>55427</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="0">
         <v>13620</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="0">
         <v>5986</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="84">
+      <c r="A84" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="0">
         <v>584473</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="0">
         <v>25507</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="0">
         <v>56184</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="0">
         <v>13620</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="0">
         <v>6168</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="85">
+      <c r="A85" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="0">
         <v>610348</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="0">
         <v>27843</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="0">
         <v>59610</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="0">
         <v>14039</v>
       </c>
-      <c r="F85">
+      <c r="F85" s="0">
         <v>5975</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="86">
+      <c r="A86" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="0">
         <v>640103</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="0">
         <v>30387</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="0">
         <v>59940</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="0">
         <v>14646</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="0">
         <v>6032</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="87">
+      <c r="A87" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="0">
         <v>671592</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="0">
         <v>32587</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="0">
         <v>59499</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="0">
         <v>15130</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="0">
         <v>5940</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row r="88">
+      <c r="A88" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="0">
         <v>703593</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="0">
         <v>34706</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="0">
         <v>58895</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="0">
         <v>14890</v>
       </c>
-      <c r="F88">
+      <c r="F88" s="0">
         <v>6096</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    <row r="89">
+      <c r="A89" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="0">
         <v>731433</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="0">
         <v>36599</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="0">
         <v>57761</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="0">
         <v>14769</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="0">
         <v>5729</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+    <row r="90">
+      <c r="A90" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="0">
         <v>758834</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="0">
         <v>38371</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="0">
         <v>56486</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="0">
         <v>14385</v>
       </c>
-      <c r="F90">
+      <c r="F90" s="0">
         <v>5603</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+    <row r="91">
+      <c r="A91" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="0">
         <v>784780</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="0">
         <v>40169</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="0">
         <v>56734</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="0">
         <v>14463</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="0">
         <v>5567</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    <row r="92">
+      <c r="A92" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="0">
         <v>811058</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="0">
         <v>42636</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="0">
         <v>59780</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="0">
         <v>14941</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="0">
         <v>5514</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    <row r="93">
+      <c r="A93" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="0">
         <v>840062</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="0">
         <v>44734</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="0">
         <v>59202</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="0">
         <v>15013</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="0">
         <v>5474</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row r="94">
+      <c r="A94" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="0">
         <v>872048</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="0">
         <v>46525</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="0">
         <v>58989</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="0">
         <v>14744</v>
       </c>
-      <c r="F94">
+      <c r="F94" s="0">
         <v>5464</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+    <row r="95">
+      <c r="A95" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="0">
         <v>905746</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="0">
         <v>48420</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="0">
         <v>57295</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="0">
         <v>14605</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="0">
         <v>5187</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+    <row r="96">
+      <c r="A96" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="0">
         <v>941680</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="0">
         <v>50168</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="0">
         <v>57381</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="0">
         <v>14415</v>
       </c>
-      <c r="F96">
+      <c r="F96" s="0">
         <v>5266</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+    <row r="97">
+      <c r="A97" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="0">
         <v>969045</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="0">
         <v>51383</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="0">
         <v>56192</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="0">
         <v>14104</v>
       </c>
-      <c r="F97">
+      <c r="F97" s="0">
         <v>5121</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+    <row r="98">
+      <c r="A98" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="0">
         <v>991648</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="0">
         <v>52653</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="0">
         <v>56189</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="0">
         <v>13812</v>
       </c>
-      <c r="F98">
+      <c r="F98" s="0">
         <v>4867</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row r="99">
+      <c r="A99" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="0">
         <v>1016960</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="0">
         <v>54725</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="0">
         <v>56062</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="0">
         <v>13562</v>
       </c>
-      <c r="F99">
+      <c r="F99" s="0">
         <v>4760</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+    <row r="100">
+      <c r="A100" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="0">
         <v>1043097</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="0">
         <v>57438</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="0">
         <v>55979</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="0">
         <v>13535</v>
       </c>
-      <c r="F100">
+      <c r="F100" s="0">
         <v>4796</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+    <row r="101">
+      <c r="A101" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="0">
         <v>1073034</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="0">
         <v>59577</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="0">
         <v>54919</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="0">
         <v>13255</v>
       </c>
-      <c r="F101">
+      <c r="F101" s="0">
         <v>4712</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+    <row r="102">
+      <c r="A102" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="0">
         <v>1105967</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="0">
         <v>61356</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="0">
         <v>54903</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="0">
         <v>12845</v>
       </c>
-      <c r="F102">
+      <c r="F102" s="0">
         <v>4707</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+    <row r="103">
+      <c r="A103" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="0">
         <v>1134916</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="0">
         <v>62918</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="0">
         <v>54048</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="0">
         <v>12905</v>
       </c>
-      <c r="F103">
+      <c r="F103" s="0">
         <v>4845</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+    <row r="104">
+      <c r="A104" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="0">
         <v>1160598</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="0">
         <v>64150</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="0">
         <v>52623</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="0">
         <v>12720</v>
       </c>
-      <c r="F104">
+      <c r="F104" s="0">
         <v>4761</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+    <row r="105">
+      <c r="A105" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="0">
         <v>1183174</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="0">
         <v>65185</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="0">
         <v>52409</v>
       </c>
-      <c r="E105">
+      <c r="E105" s="0">
         <v>12696</v>
       </c>
-      <c r="F105">
+      <c r="F105" s="0">
         <v>4848</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+    <row r="106">
+      <c r="A106" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="0">
         <v>1205573</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="0">
         <v>67637</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="0">
         <v>53221</v>
       </c>
-      <c r="E106">
+      <c r="E106" s="0">
         <v>12628</v>
       </c>
-      <c r="F106">
+      <c r="F106" s="0">
         <v>4818</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+    <row r="107">
+      <c r="A107" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="0">
         <v>1230663</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="0">
         <v>69585</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="0">
         <v>52560</v>
       </c>
-      <c r="E107">
+      <c r="E107" s="0">
         <v>12478</v>
       </c>
-      <c r="F107">
+      <c r="F107" s="0">
         <v>4753</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+    <row r="108">
+      <c r="A108" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="0">
         <v>1257943</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="0">
         <v>72337</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="0">
         <v>51398</v>
       </c>
-      <c r="E108">
+      <c r="E108" s="0">
         <v>12136</v>
       </c>
-      <c r="F108">
+      <c r="F108" s="0">
         <v>7070</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+    <row r="109">
+      <c r="A109" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="0">
         <v>1285029</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="0">
         <v>74135</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="0">
         <v>49785</v>
       </c>
-      <c r="E109">
+      <c r="E109" s="0">
         <v>11780</v>
       </c>
-      <c r="F109">
+      <c r="F109" s="0">
         <v>6788</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+    <row r="110">
+      <c r="A110" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="0">
         <v>1310198</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="0">
         <v>75580</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="0">
         <v>48564</v>
       </c>
-      <c r="E110">
+      <c r="E110" s="0">
         <v>11496</v>
       </c>
-      <c r="F110">
+      <c r="F110" s="0">
         <v>6551</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+    <row r="111">
+      <c r="A111" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="0">
         <v>1331320</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="0">
         <v>76616</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="0">
         <v>46981</v>
       </c>
-      <c r="E111">
+      <c r="E111" s="0">
         <v>11393</v>
       </c>
-      <c r="F111">
+      <c r="F111" s="0">
         <v>6395</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+    <row r="112">
+      <c r="A112" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="0">
         <v>1349650</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="0">
         <v>77508</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="0">
         <v>46372</v>
       </c>
-      <c r="E112">
+      <c r="E112" s="0">
         <v>11148</v>
       </c>
-      <c r="F112">
+      <c r="F112" s="0">
         <v>6350</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+    <row r="113">
+      <c r="A113" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="0">
         <v>1372170</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="0">
         <v>78994</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="0">
         <v>47402</v>
       </c>
-      <c r="E113">
+      <c r="E113" s="0">
         <v>11240</v>
       </c>
-      <c r="F113">
+      <c r="F113" s="0">
         <v>6352</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+    <row r="114">
+      <c r="A114" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="0">
         <v>1393747</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="0">
         <v>80698</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="0">
         <v>46742</v>
       </c>
-      <c r="E114">
+      <c r="E114" s="0">
         <v>10990</v>
       </c>
-      <c r="F114">
+      <c r="F114" s="0">
         <v>6156</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+    <row r="115">
+      <c r="A115" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="0">
         <v>1420427</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="0">
         <v>82577</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="0">
         <v>45635</v>
       </c>
-      <c r="E115">
+      <c r="E115" s="0">
         <v>10655</v>
       </c>
-      <c r="F115">
+      <c r="F115" s="0">
         <v>5940</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+    <row r="116">
+      <c r="A116" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="0">
         <v>1445798</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="0">
         <v>84084</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="0">
         <v>44299</v>
       </c>
-      <c r="E116">
+      <c r="E116" s="0">
         <v>10484</v>
       </c>
-      <c r="F116">
+      <c r="F116" s="0">
         <v>5746</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+    <row r="117">
+      <c r="A117" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="0">
         <v>1469358</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="0">
         <v>85071</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="0">
         <v>43211</v>
       </c>
-      <c r="E117">
+      <c r="E117" s="0">
         <v>10278</v>
       </c>
-      <c r="F117">
+      <c r="F117" s="0">
         <v>5529</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+    <row r="118">
+      <c r="A118" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="0">
         <v>1489702</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="0">
         <v>85920</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="0">
         <v>41606</v>
       </c>
-      <c r="E118">
+      <c r="E118" s="0">
         <v>9934</v>
       </c>
-      <c r="F118">
+      <c r="F118" s="0">
         <v>5467</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+    <row r="119">
+      <c r="A119" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="0">
         <v>1510514</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="0">
         <v>86768</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="0">
         <v>41553</v>
       </c>
-      <c r="E119">
+      <c r="E119" s="0">
         <v>9754</v>
       </c>
-      <c r="F119">
+      <c r="F119" s="0">
         <v>5257</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+    <row r="120">
+      <c r="A120" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="0">
         <v>1531438</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="0">
         <v>88094</v>
       </c>
-      <c r="D120">
+      <c r="D120" s="0">
         <v>41661</v>
       </c>
-      <c r="E120">
+      <c r="E120" s="0">
         <v>9598</v>
       </c>
-      <c r="F120">
+      <c r="F120" s="0">
         <v>5032</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+    <row r="121">
+      <c r="A121" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="0">
         <v>1552632</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="0">
         <v>89493</v>
       </c>
-      <c r="D121">
+      <c r="D121" s="0">
         <v>41546</v>
       </c>
-      <c r="E121">
+      <c r="E121" s="0">
         <v>9521</v>
       </c>
-      <c r="F121">
+      <c r="F121" s="0">
         <v>4911</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+    <row r="122">
+      <c r="A122" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="0">
         <v>1579266</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="0">
         <v>90887</v>
       </c>
-      <c r="D122">
+      <c r="D122" s="0">
         <v>41065</v>
       </c>
-      <c r="E122">
+      <c r="E122" s="0">
         <v>9090</v>
       </c>
-      <c r="F122">
+      <c r="F122" s="0">
         <v>4868</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+    <row r="123">
+      <c r="A123" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="0">
         <v>1603539</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="0">
         <v>92228</v>
       </c>
-      <c r="D123">
+      <c r="D123" s="0">
         <v>39822</v>
       </c>
-      <c r="E123">
+      <c r="E123" s="0">
         <v>9049</v>
       </c>
-      <c r="F123">
+      <c r="F123" s="0">
         <v>4716</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+    <row r="124">
+      <c r="A124" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="0">
         <v>1625706</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="0">
         <v>93291</v>
       </c>
-      <c r="D124">
+      <c r="D124" s="0">
         <v>38391</v>
       </c>
-      <c r="E124">
+      <c r="E124" s="0">
         <v>8733</v>
       </c>
-      <c r="F124">
+      <c r="F124" s="0">
         <v>4620</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+    <row r="125">
+      <c r="A125" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="0">
         <v>1644854</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="0">
         <v>93971</v>
       </c>
-      <c r="D125">
+      <c r="D125" s="0">
         <v>37483</v>
       </c>
-      <c r="E125">
+      <c r="E125" s="0">
         <v>8485</v>
       </c>
-      <c r="F125">
+      <c r="F125" s="0">
         <v>4383</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+    <row r="126">
+      <c r="A126" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="0">
         <v>1663565</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="0">
         <v>94530</v>
       </c>
-      <c r="D126">
+      <c r="D126" s="0">
         <v>37432</v>
       </c>
-      <c r="E126">
+      <c r="E126" s="0">
         <v>8467</v>
       </c>
-      <c r="F126">
+      <c r="F126" s="0">
         <v>4237</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+    <row r="127">
+      <c r="A127" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="0">
         <v>1680321</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="0">
         <v>95175</v>
       </c>
-      <c r="D127">
+      <c r="D127" s="0">
         <v>37561</v>
       </c>
-      <c r="E127">
+      <c r="E127" s="0">
         <v>8585</v>
       </c>
-      <c r="F127">
+      <c r="F127" s="0">
         <v>4215</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+    <row r="128">
+      <c r="A128" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="0">
         <v>1699810</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="0">
         <v>96496</v>
       </c>
-      <c r="D128">
+      <c r="D128" s="0">
         <v>38038</v>
       </c>
-      <c r="E128">
+      <c r="E128" s="0">
         <v>8547</v>
       </c>
-      <c r="F128">
+      <c r="F128" s="0">
         <v>4222</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+    <row r="129">
+      <c r="A129" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="0">
         <v>1722326</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="0">
         <v>97727</v>
       </c>
-      <c r="D129">
+      <c r="D129" s="0">
         <v>37818</v>
       </c>
-      <c r="E129">
+      <c r="E129" s="0">
         <v>8389</v>
       </c>
-      <c r="F129">
+      <c r="F129" s="0">
         <v>4080</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+    <row r="130">
+      <c r="A130" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="0">
         <v>1745759</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="0">
         <v>98911</v>
       </c>
-      <c r="D130">
+      <c r="D130" s="0">
         <v>36764</v>
       </c>
-      <c r="E130">
+      <c r="E130" s="0">
         <v>8174</v>
       </c>
-      <c r="F130">
+      <c r="F130" s="0">
         <v>4032</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+    <row r="131">
+      <c r="A131" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="0">
         <v>1769202</v>
       </c>
-      <c r="C131">
+      <c r="C131" s="0">
         <v>99843</v>
       </c>
-      <c r="D131">
+      <c r="D131" s="0">
         <v>35524</v>
       </c>
-      <c r="E131">
+      <c r="E131" s="0">
         <v>7956</v>
       </c>
-      <c r="F131">
+      <c r="F131" s="0">
         <v>4004</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+    <row r="132">
+      <c r="A132" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="0">
         <v>1790837</v>
       </c>
-      <c r="C132">
+      <c r="C132" s="0">
         <v>100495</v>
       </c>
-      <c r="D132">
+      <c r="D132" s="0">
         <v>34648</v>
       </c>
-      <c r="E132">
+      <c r="E132" s="0">
         <v>7626</v>
       </c>
-      <c r="F132">
+      <c r="F132" s="0">
         <v>3669</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+    <row r="133">
+      <c r="A133" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="0">
         <v>1811258</v>
       </c>
-      <c r="C133">
+      <c r="C133" s="0">
         <v>101163</v>
       </c>
-      <c r="D133">
+      <c r="D133" s="0">
         <v>34075</v>
       </c>
-      <c r="E133">
+      <c r="E133" s="0">
         <v>7591</v>
       </c>
-      <c r="F133">
+      <c r="F133" s="0">
         <v>3950</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+    <row r="134">
+      <c r="A134" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="0">
         <v>1831291</v>
       </c>
-      <c r="C134">
+      <c r="C134" s="0">
         <v>102125</v>
       </c>
-      <c r="D134">
+      <c r="D134" s="0">
         <v>33724</v>
       </c>
-      <c r="E134">
+      <c r="E134" s="0">
         <v>7407</v>
       </c>
-      <c r="F134">
+      <c r="F134" s="0">
         <v>3852</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+    <row r="135">
+      <c r="A135" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="B135">
+      <c r="B135" s="0">
         <v>1851493</v>
       </c>
-      <c r="C135">
+      <c r="C135" s="0">
         <v>103118</v>
       </c>
-      <c r="D135">
+      <c r="D135" s="0">
         <v>33070</v>
       </c>
-      <c r="E135">
+      <c r="E135" s="0">
         <v>7227</v>
       </c>
-      <c r="F135">
+      <c r="F135" s="0">
         <v>3749</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+    <row r="136">
+      <c r="A136" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="0">
         <v>1871749</v>
       </c>
-      <c r="C136">
+      <c r="C136" s="0">
         <v>104011</v>
       </c>
-      <c r="D136">
+      <c r="D136" s="0">
         <v>32639</v>
       </c>
-      <c r="E136">
+      <c r="E136" s="0">
         <v>7057</v>
       </c>
-      <c r="F136">
+      <c r="F136" s="0">
         <v>3665</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+    <row r="137">
+      <c r="A137" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="0">
         <v>1894753</v>
       </c>
-      <c r="C137">
+      <c r="C137" s="0">
         <v>104837</v>
       </c>
-      <c r="D137">
+      <c r="D137" s="0">
         <v>32280</v>
       </c>
-      <c r="E137">
+      <c r="E137" s="0">
         <v>6920</v>
       </c>
-      <c r="F137">
+      <c r="F137" s="0">
         <v>3523</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+    <row r="138">
+      <c r="A138" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="B138">
+      <c r="B138" s="0">
         <v>1917526</v>
       </c>
-      <c r="C138">
+      <c r="C138" s="0">
         <v>105565</v>
       </c>
-      <c r="D138">
+      <c r="D138" s="0">
         <v>31761</v>
       </c>
-      <c r="E138">
+      <c r="E138" s="0">
         <v>6762</v>
       </c>
-      <c r="F138">
+      <c r="F138" s="0">
         <v>3476</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+    <row r="139">
+      <c r="A139" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="B139">
+      <c r="B139" s="0">
         <v>1936412</v>
       </c>
-      <c r="C139">
+      <c r="C139" s="0">
         <v>106012</v>
       </c>
-      <c r="D139">
+      <c r="D139" s="0">
         <v>31225</v>
       </c>
-      <c r="E139">
+      <c r="E139" s="0">
         <v>6501</v>
       </c>
-      <c r="F139">
+      <c r="F139" s="0">
         <v>3298</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+    <row r="140">
+      <c r="A140" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="0">
         <v>1953632</v>
       </c>
-      <c r="C140">
+      <c r="C140" s="0">
         <v>106673</v>
       </c>
-      <c r="D140">
+      <c r="D140" s="0">
         <v>30996</v>
       </c>
-      <c r="E140">
+      <c r="E140" s="0">
         <v>6402</v>
       </c>
-      <c r="F140">
+      <c r="F140" s="0">
         <v>3240</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+    <row r="141">
+      <c r="A141" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="B141">
+      <c r="B141" s="0">
         <v>1970880</v>
       </c>
-      <c r="C141">
+      <c r="C141" s="0">
         <v>107575</v>
       </c>
-      <c r="D141">
+      <c r="D141" s="0">
         <v>31009</v>
       </c>
-      <c r="E141">
+      <c r="E141" s="0">
         <v>6457</v>
       </c>
-      <c r="F141">
+      <c r="F141" s="0">
         <v>3090</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+    <row r="142">
+      <c r="A142" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="0">
         <v>1991517</v>
       </c>
-      <c r="C142">
+      <c r="C142" s="0">
         <v>108462</v>
       </c>
-      <c r="D142">
+      <c r="D142" s="0">
         <v>30864</v>
       </c>
-      <c r="E142">
+      <c r="E142" s="0">
         <v>6249</v>
       </c>
-      <c r="F142">
+      <c r="F142" s="0">
         <v>3020</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+    <row r="143">
+      <c r="A143" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="0">
         <v>2013619</v>
       </c>
-      <c r="C143">
+      <c r="C143" s="0">
         <v>109361</v>
       </c>
-      <c r="D143">
+      <c r="D143" s="0">
         <v>29698</v>
       </c>
-      <c r="E143">
+      <c r="E143" s="0">
         <v>6074</v>
       </c>
-      <c r="F143">
+      <c r="F143" s="0">
         <v>2886</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+    <row r="144">
+      <c r="A144" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="0">
         <v>2036804</v>
       </c>
-      <c r="C144">
+      <c r="C144" s="0">
         <v>110136</v>
       </c>
-      <c r="D144">
+      <c r="D144" s="0">
         <v>29154</v>
       </c>
-      <c r="E144">
+      <c r="E144" s="0">
         <v>6017</v>
       </c>
-      <c r="F144">
+      <c r="F144" s="0">
         <v>2734</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+    <row r="145">
+      <c r="A145" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="B145">
+      <c r="B145" s="0">
         <v>2061938</v>
       </c>
-      <c r="C145">
+      <c r="C145" s="0">
         <v>110830</v>
       </c>
-      <c r="D145">
+      <c r="D145" s="0">
         <v>28450</v>
       </c>
-      <c r="E145">
+      <c r="E145" s="0">
         <v>5883</v>
       </c>
-      <c r="F145">
+      <c r="F145" s="0">
         <v>2726</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+    <row r="146">
+      <c r="A146" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="B146">
+      <c r="B146" s="0">
         <v>2083344</v>
       </c>
-      <c r="C146">
+      <c r="C146" s="0">
         <v>111186</v>
       </c>
-      <c r="D146">
+      <c r="D146" s="0">
         <v>27895</v>
       </c>
-      <c r="E146">
+      <c r="E146" s="0">
         <v>5749</v>
       </c>
-      <c r="F146">
+      <c r="F146" s="0">
         <v>2716</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+    <row r="147">
+      <c r="A147" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="B147">
+      <c r="B147" s="0">
         <v>2101922</v>
       </c>
-      <c r="C147">
+      <c r="C147" s="0">
         <v>111567</v>
       </c>
-      <c r="D147">
+      <c r="D147" s="0">
         <v>27867</v>
       </c>
-      <c r="E147">
+      <c r="E147" s="0">
         <v>5703</v>
       </c>
-      <c r="F147">
+      <c r="F147" s="0">
         <v>2640</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+    <row r="148">
+      <c r="A148" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="B148">
+      <c r="B148" s="0">
         <v>2125249</v>
       </c>
-      <c r="C148">
+      <c r="C148" s="0">
         <v>112297</v>
       </c>
-      <c r="D148">
+      <c r="D148" s="0">
         <v>28270</v>
       </c>
-      <c r="E148">
+      <c r="E148" s="0">
         <v>5570</v>
       </c>
-      <c r="F148">
+      <c r="F148" s="0">
         <v>2594</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+    <row r="149">
+      <c r="A149" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="0">
         <v>2149022</v>
       </c>
-      <c r="C149">
+      <c r="C149" s="0">
         <v>113064</v>
       </c>
-      <c r="D149">
+      <c r="D149" s="0">
         <v>28576</v>
       </c>
-      <c r="E149">
+      <c r="E149" s="0">
         <v>5612</v>
       </c>
-      <c r="F149">
+      <c r="F149" s="0">
         <v>2588</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+    <row r="150">
+      <c r="A150" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="B150">
+      <c r="B150" s="0">
         <v>2176157</v>
       </c>
-      <c r="C150">
+      <c r="C150" s="0">
         <v>113769</v>
       </c>
-      <c r="D150">
+      <c r="D150" s="0">
         <v>28415</v>
       </c>
-      <c r="E150">
+      <c r="E150" s="0">
         <v>5464</v>
       </c>
-      <c r="F150">
+      <c r="F150" s="0">
         <v>2520</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+    <row r="151">
+      <c r="A151" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="B151">
+      <c r="B151" s="0">
         <v>2207038</v>
       </c>
-      <c r="C151">
+      <c r="C151" s="0">
         <v>114424</v>
       </c>
-      <c r="D151">
+      <c r="D151" s="0">
         <v>28616</v>
       </c>
-      <c r="E151">
+      <c r="E151" s="0">
         <v>5341</v>
       </c>
-      <c r="F151">
+      <c r="F151" s="0">
         <v>2434</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+    <row r="152">
+      <c r="A152" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="B152">
+      <c r="B152" s="0">
         <v>2239049</v>
       </c>
-      <c r="C152">
+      <c r="C152" s="0">
         <v>115053</v>
       </c>
-      <c r="D152">
+      <c r="D152" s="0">
         <v>27967</v>
       </c>
-      <c r="E152">
+      <c r="E152" s="0">
         <v>5229</v>
       </c>
-      <c r="F152">
+      <c r="F152" s="0">
         <v>2380</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+    <row r="153">
+      <c r="A153" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="B153">
+      <c r="B153" s="0">
         <v>2268040</v>
       </c>
-      <c r="C153">
+      <c r="C153" s="0">
         <v>115347</v>
       </c>
-      <c r="D153">
+      <c r="D153" s="0">
         <v>28220</v>
       </c>
-      <c r="E153">
+      <c r="E153" s="0">
         <v>5195</v>
       </c>
-      <c r="F153">
+      <c r="F153" s="0">
         <v>2321</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+    <row r="154">
+      <c r="A154" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="B154">
+      <c r="B154" s="0">
         <v>2295114</v>
       </c>
-      <c r="C154">
+      <c r="C154" s="0">
         <v>115633</v>
       </c>
-      <c r="D154">
+      <c r="D154" s="0">
         <v>28799</v>
       </c>
-      <c r="E154">
+      <c r="E154" s="0">
         <v>5323</v>
       </c>
-      <c r="F154">
+      <c r="F154" s="0">
         <v>2299</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+    <row r="155">
+      <c r="A155" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="B155">
+      <c r="B155" s="0">
         <v>2328962</v>
       </c>
-      <c r="C155">
+      <c r="C155" s="0">
         <v>116343</v>
       </c>
-      <c r="D155">
+      <c r="D155" s="0">
         <v>30235</v>
       </c>
-      <c r="E155">
+      <c r="E155" s="0">
         <v>5402</v>
       </c>
-      <c r="F155">
+      <c r="F155" s="0">
         <v>2293</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+    <row r="156">
+      <c r="A156" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="B156">
+      <c r="B156" s="0">
         <v>2367889</v>
       </c>
-      <c r="C156">
+      <c r="C156" s="0">
         <v>117067</v>
       </c>
-      <c r="D156">
+      <c r="D156" s="0">
         <v>31102</v>
       </c>
-      <c r="E156">
+      <c r="E156" s="0">
         <v>5293</v>
       </c>
-      <c r="F156">
+      <c r="F156" s="0">
         <v>2248</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+    <row r="157">
+      <c r="A157" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="B157">
+      <c r="B157" s="0">
         <v>2407458</v>
       </c>
-      <c r="C157">
+      <c r="C157" s="0">
         <v>117714</v>
       </c>
-      <c r="D157">
+      <c r="D157" s="0">
         <v>31842</v>
       </c>
-      <c r="E157">
+      <c r="E157" s="0">
         <v>5320</v>
       </c>
-      <c r="F157">
+      <c r="F157" s="0">
         <v>2214</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+    <row r="158">
+      <c r="A158" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="B158">
+      <c r="B158" s="0">
         <v>2451832</v>
       </c>
-      <c r="C158">
+      <c r="C158" s="0">
         <v>118351</v>
       </c>
-      <c r="D158">
+      <c r="D158" s="0">
         <v>31738</v>
       </c>
-      <c r="E158">
+      <c r="E158" s="0">
         <v>5283</v>
       </c>
-      <c r="F158">
+      <c r="F158" s="0">
         <v>2075</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+    <row r="159">
+      <c r="A159" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="B159">
+      <c r="B159" s="0">
         <v>2494820</v>
       </c>
-      <c r="C159">
+      <c r="C159" s="0">
         <v>118862</v>
       </c>
-      <c r="D159">
+      <c r="D159" s="0">
         <v>32482</v>
       </c>
-      <c r="E159">
+      <c r="E159" s="0">
         <v>5314</v>
       </c>
-      <c r="F159">
+      <c r="F159" s="0">
         <v>2159</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+    <row r="160">
+      <c r="A160" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="B160">
+      <c r="B160" s="0">
         <v>2536113</v>
       </c>
-      <c r="C160">
+      <c r="C160" s="0">
         <v>119133</v>
       </c>
-      <c r="D160">
+      <c r="D160" s="0">
         <v>32488</v>
       </c>
-      <c r="E160">
+      <c r="E160" s="0">
         <v>5252</v>
       </c>
-      <c r="F160">
+      <c r="F160" s="0">
         <v>2077</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+    <row r="161">
+      <c r="A161" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="B161">
+      <c r="B161" s="0">
         <v>2575976</v>
       </c>
-      <c r="C161">
+      <c r="C161" s="0">
         <v>119465</v>
       </c>
-      <c r="D161">
+      <c r="D161" s="0">
         <v>33585</v>
       </c>
-      <c r="E161">
+      <c r="E161" s="0">
         <v>5380</v>
       </c>
-      <c r="F161">
+      <c r="F161" s="0">
         <v>2011</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+    <row r="162">
+      <c r="A162" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="B162">
+      <c r="B162" s="0">
         <v>2623614</v>
       </c>
-      <c r="C162">
+      <c r="C162" s="0">
         <v>120061</v>
       </c>
-      <c r="D162">
+      <c r="D162" s="0">
         <v>35248</v>
       </c>
-      <c r="E162">
+      <c r="E162" s="0">
         <v>5424</v>
       </c>
-      <c r="F162">
+      <c r="F162" s="0">
         <v>2044</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+    <row r="163">
+      <c r="A163" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="B163">
+      <c r="B163" s="0">
         <v>2674541</v>
       </c>
-      <c r="C163">
+      <c r="C163" s="0">
         <v>120762</v>
       </c>
-      <c r="D163">
+      <c r="D163" s="0">
         <v>36405</v>
       </c>
-      <c r="E163">
+      <c r="E163" s="0">
         <v>5512</v>
       </c>
-      <c r="F163">
+      <c r="F163" s="0">
         <v>2098</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+    <row r="164">
+      <c r="A164" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="B164">
+      <c r="B164" s="0">
         <v>2727926</v>
       </c>
-      <c r="C164">
+      <c r="C164" s="0">
         <v>121457</v>
       </c>
-      <c r="D164">
+      <c r="D164" s="0">
         <v>37500</v>
       </c>
-      <c r="E164">
+      <c r="E164" s="0">
         <v>5626</v>
       </c>
-      <c r="F164">
+      <c r="F164" s="0">
         <v>2105</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+    <row r="165">
+      <c r="A165" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="B165">
+      <c r="B165" s="0">
         <v>2781659</v>
       </c>
-      <c r="C165">
+      <c r="C165" s="0">
         <v>122055</v>
       </c>
-      <c r="D165">
+      <c r="D165" s="0">
         <v>37798</v>
       </c>
-      <c r="E165">
+      <c r="E165" s="0">
         <v>5597</v>
       </c>
-      <c r="F165">
+      <c r="F165" s="0">
         <v>2049</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+    <row r="166">
+      <c r="A166" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="B166">
+      <c r="B166" s="0">
         <v>2835791</v>
       </c>
-      <c r="C166">
+      <c r="C166" s="0">
         <v>122361</v>
       </c>
-      <c r="D166">
+      <c r="D166" s="0">
         <v>38146</v>
       </c>
-      <c r="E166">
+      <c r="E166" s="0">
         <v>5633</v>
       </c>
-      <c r="F166">
+      <c r="F166" s="0">
         <v>1982</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+    <row r="167">
+      <c r="A167" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="B167">
+      <c r="B167" s="0">
         <v>2881100</v>
       </c>
-      <c r="C167">
+      <c r="C167" s="0">
         <v>122570</v>
       </c>
-      <c r="D167">
+      <c r="D167" s="0">
         <v>38764</v>
       </c>
-      <c r="E167">
+      <c r="E167" s="0">
         <v>5653</v>
       </c>
-      <c r="F167">
+      <c r="F167" s="0">
         <v>2080</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+    <row r="168">
+      <c r="A168" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="B168">
+      <c r="B168" s="0">
         <v>2922516</v>
       </c>
-      <c r="C168">
+      <c r="C168" s="0">
         <v>122813</v>
       </c>
-      <c r="D168">
+      <c r="D168" s="0">
         <v>39769</v>
       </c>
-      <c r="E168">
+      <c r="E168" s="0">
         <v>5687</v>
       </c>
-      <c r="F168">
+      <c r="F168" s="0">
         <v>2105</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+    <row r="169">
+      <c r="A169" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="B169">
+      <c r="B169" s="0">
         <v>2974102</v>
       </c>
-      <c r="C169">
+      <c r="C169" s="0">
         <v>123736</v>
       </c>
-      <c r="D169">
+      <c r="D169" s="0">
         <v>41760</v>
       </c>
-      <c r="E169">
+      <c r="E169" s="0">
         <v>5832</v>
       </c>
-      <c r="F169">
+      <c r="F169" s="0">
         <v>2098</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+    <row r="170">
+      <c r="A170" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="B170">
+      <c r="B170" s="0">
         <v>3036725</v>
       </c>
-      <c r="C170">
+      <c r="C170" s="0">
         <v>124543</v>
       </c>
-      <c r="D170">
+      <c r="D170" s="0">
         <v>43076</v>
       </c>
-      <c r="E170">
+      <c r="E170" s="0">
         <v>5874</v>
       </c>
-      <c r="F170">
+      <c r="F170" s="0">
         <v>2172</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+    <row r="171">
+      <c r="A171" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="B171">
+      <c r="B171" s="0">
         <v>3095784</v>
       </c>
-      <c r="C171">
+      <c r="C171" s="0">
         <v>125410</v>
       </c>
-      <c r="D171">
+      <c r="D171" s="0">
         <v>43933</v>
       </c>
-      <c r="E171">
+      <c r="E171" s="0">
         <v>5845</v>
       </c>
-      <c r="F171">
+      <c r="F171" s="0">
         <v>2127</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+    <row r="172">
+      <c r="A172" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="B172">
+      <c r="B172" s="0">
         <v>3162288</v>
       </c>
-      <c r="C172">
+      <c r="C172" s="0">
         <v>126264</v>
       </c>
-      <c r="D172">
+      <c r="D172" s="0">
         <v>51599</v>
       </c>
-      <c r="E172">
+      <c r="E172" s="0">
         <v>5896</v>
       </c>
-      <c r="F172">
+      <c r="F172" s="0">
         <v>2197</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+    <row r="173">
+      <c r="A173" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="B173">
+      <c r="B173" s="0">
         <v>3224952</v>
       </c>
-      <c r="C173">
+      <c r="C173" s="0">
         <v>127021</v>
       </c>
-      <c r="D173">
+      <c r="D173" s="0">
         <v>51858</v>
       </c>
-      <c r="E173">
+      <c r="E173" s="0">
         <v>5939</v>
       </c>
-      <c r="F173">
+      <c r="F173" s="0">
         <v>2169</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+    <row r="174">
+      <c r="A174" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="B174">
+      <c r="B174" s="0">
         <v>3285973</v>
       </c>
-      <c r="C174">
+      <c r="C174" s="0">
         <v>127497</v>
       </c>
-      <c r="D174">
+      <c r="D174" s="0">
         <v>52727</v>
       </c>
-      <c r="E174">
+      <c r="E174" s="0">
         <v>5930</v>
       </c>
-      <c r="F174">
+      <c r="F174" s="0">
         <v>2182</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+    <row r="175">
+      <c r="A175" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="B175">
+      <c r="B175" s="0">
         <v>3343561</v>
       </c>
-      <c r="C175">
+      <c r="C175" s="0">
         <v>127824</v>
       </c>
-      <c r="D175">
+      <c r="D175" s="0">
         <v>53988</v>
       </c>
-      <c r="E175">
+      <c r="E175" s="0">
         <v>6074</v>
       </c>
-      <c r="F175">
+      <c r="F175" s="0">
         <v>2259</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+    <row r="176">
+      <c r="A176" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="B176">
+      <c r="B176" s="0">
         <v>3406217</v>
       </c>
-      <c r="C176">
+      <c r="C176" s="0">
         <v>128560</v>
       </c>
-      <c r="D176">
+      <c r="D176" s="0">
         <v>55565</v>
       </c>
-      <c r="E176">
+      <c r="E176" s="0">
         <v>6235</v>
       </c>
-      <c r="F176">
+      <c r="F176" s="0">
         <v>2263</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+    <row r="177">
+      <c r="A177" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="B177">
+      <c r="B177" s="0">
         <v>3471708</v>
       </c>
-      <c r="C177">
+      <c r="C177" s="0">
         <v>129418</v>
       </c>
-      <c r="D177">
+      <c r="D177" s="0">
         <v>56144</v>
       </c>
-      <c r="E177">
+      <c r="E177" s="0">
         <v>6317</v>
       </c>
-      <c r="F177">
+      <c r="F177" s="0">
         <v>2317</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+    <row r="178">
+      <c r="A178" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="B178">
+      <c r="B178" s="0">
         <v>3542419</v>
       </c>
-      <c r="C178">
+      <c r="C178" s="0">
         <v>130365</v>
       </c>
-      <c r="D178">
+      <c r="D178" s="0">
         <v>57440</v>
       </c>
-      <c r="E178">
+      <c r="E178" s="0">
         <v>6359</v>
       </c>
-      <c r="F178">
+      <c r="F178" s="0">
         <v>2317</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+    <row r="179">
+      <c r="A179" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="B179">
+      <c r="B179" s="0">
         <v>3618576</v>
       </c>
-      <c r="C179">
+      <c r="C179" s="0">
         <v>131316</v>
       </c>
-      <c r="D179">
+      <c r="D179" s="0">
         <v>57759</v>
       </c>
-      <c r="E179">
+      <c r="E179" s="0">
         <v>6452</v>
       </c>
-      <c r="F179">
+      <c r="F179" s="0">
         <v>2353</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+    <row r="180">
+      <c r="A180" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="B180">
+      <c r="B180" s="0">
         <v>3683228</v>
       </c>
-      <c r="C180">
+      <c r="C180" s="0">
         <v>132188</v>
       </c>
-      <c r="D180">
+      <c r="D180" s="0">
         <v>57645</v>
       </c>
-      <c r="E180">
+      <c r="E180" s="0">
         <v>6397</v>
       </c>
-      <c r="F180">
+      <c r="F180" s="0">
         <v>2343</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+    <row r="181">
+      <c r="A181" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="B181">
+      <c r="B181" s="0">
         <v>3747115</v>
       </c>
-      <c r="C181">
+      <c r="C181" s="0">
         <v>132715</v>
       </c>
-      <c r="D181">
+      <c r="D181" s="0">
         <v>57885</v>
       </c>
-      <c r="E181">
+      <c r="E181" s="0">
         <v>6384</v>
       </c>
-      <c r="F181">
+      <c r="F181" s="0">
         <v>2362</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+    <row r="182">
+      <c r="A182" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="B182">
+      <c r="B182" s="0">
         <v>3804036</v>
       </c>
-      <c r="C182">
+      <c r="C182" s="0">
         <v>133078</v>
       </c>
-      <c r="D182">
+      <c r="D182" s="0">
         <v>58370</v>
       </c>
-      <c r="E182">
+      <c r="E182" s="0">
         <v>6557</v>
       </c>
-      <c r="F182">
+      <c r="F182" s="0">
         <v>2403</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+    <row r="183">
+      <c r="A183" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="B183">
+      <c r="B183" s="0">
         <v>3867554</v>
       </c>
-      <c r="C183">
+      <c r="C183" s="0">
         <v>134117</v>
       </c>
-      <c r="D183">
+      <c r="D183" s="0">
         <v>59364</v>
       </c>
-      <c r="E183">
+      <c r="E183" s="0">
         <v>6711</v>
       </c>
-      <c r="F183">
+      <c r="F183" s="0">
         <v>2414</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+    <row r="184">
+      <c r="A184" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="B184">
+      <c r="B184" s="0">
         <v>3936743</v>
       </c>
-      <c r="C184">
+      <c r="C184" s="0">
         <v>135288</v>
       </c>
-      <c r="D184">
+      <c r="D184" s="0">
         <v>59596</v>
       </c>
-      <c r="E184">
+      <c r="E184" s="0">
         <v>10457</v>
       </c>
-      <c r="F184">
+      <c r="F184" s="0">
         <v>2440</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+    <row r="185">
+      <c r="A185" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="B185">
+      <c r="B185" s="0">
         <v>4007968</v>
       </c>
-      <c r="C185">
+      <c r="C185" s="0">
         <v>136344</v>
       </c>
-      <c r="D185">
+      <c r="D185" s="0">
         <v>59718</v>
       </c>
-      <c r="E185">
+      <c r="E185" s="0">
         <v>10414</v>
       </c>
-      <c r="F185">
+      <c r="F185" s="0">
         <v>2465</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+    <row r="186">
+      <c r="A186" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="B186">
+      <c r="B186" s="0">
         <v>4082805</v>
       </c>
-      <c r="C186">
+      <c r="C186" s="0">
         <v>137520</v>
       </c>
-      <c r="D186">
+      <c r="D186" s="0">
         <v>59682</v>
       </c>
-      <c r="E186">
+      <c r="E186" s="0">
         <v>10395</v>
       </c>
-      <c r="F186">
+      <c r="F186" s="0">
         <v>2711</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+    <row r="187">
+      <c r="A187" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="B187">
+      <c r="B187" s="0">
         <v>4147067</v>
       </c>
-      <c r="C187">
+      <c r="C187" s="0">
         <v>138543</v>
       </c>
-      <c r="D187">
+      <c r="D187" s="0">
         <v>59301</v>
       </c>
-      <c r="E187">
+      <c r="E187" s="0">
         <v>10380</v>
       </c>
-      <c r="F187">
+      <c r="F187" s="0">
         <v>2729</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+    <row r="188">
+      <c r="A188" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="B188">
+      <c r="B188" s="0">
         <v>4207560</v>
       </c>
-      <c r="C188">
+      <c r="C188" s="0">
         <v>139102</v>
       </c>
-      <c r="D188">
+      <c r="D188" s="0">
         <v>58621</v>
       </c>
-      <c r="E188">
+      <c r="E188" s="0">
         <v>10353</v>
       </c>
-      <c r="F188">
+      <c r="F188" s="0">
         <v>2723</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+    <row r="189">
+      <c r="A189" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="B189">
+      <c r="B189" s="0">
         <v>4262696</v>
       </c>
-      <c r="C189">
+      <c r="C189" s="0">
         <v>140162</v>
       </c>
-      <c r="D189">
+      <c r="D189" s="0">
         <v>58897</v>
       </c>
-      <c r="E189">
+      <c r="E189" s="0">
         <v>10328</v>
       </c>
-      <c r="F189">
+      <c r="F189" s="0">
         <v>2720</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+    <row r="190">
+      <c r="A190" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="B190">
+      <c r="B190" s="0">
         <v>4321367</v>
       </c>
-      <c r="C190">
+      <c r="C190" s="0">
         <v>141284</v>
       </c>
-      <c r="D190">
+      <c r="D190" s="0">
         <v>57091</v>
       </c>
-      <c r="E190">
+      <c r="E190" s="0">
         <v>10463</v>
       </c>
-      <c r="F190">
+      <c r="F190" s="0">
         <v>2752</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+    <row r="191">
+      <c r="A191" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="B191">
+      <c r="B191" s="0">
         <v>4385543</v>
       </c>
-      <c r="C191">
+      <c r="C191" s="0">
         <v>142776</v>
       </c>
-      <c r="D191">
+      <c r="D191" s="0">
         <v>57339</v>
       </c>
-      <c r="E191">
+      <c r="E191" s="0">
         <v>10539</v>
       </c>
-      <c r="F191">
+      <c r="F191" s="0">
         <v>2772</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+    <row r="192">
+      <c r="A192" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="B192">
+      <c r="B192" s="0">
         <v>4454549</v>
       </c>
-      <c r="C192">
+      <c r="C192" s="0">
         <v>144035</v>
       </c>
-      <c r="D192">
+      <c r="D192" s="0">
         <v>56427</v>
       </c>
-      <c r="E192">
+      <c r="E192" s="0">
         <v>10523</v>
       </c>
-      <c r="F192">
+      <c r="F192" s="0">
         <v>2760</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+    <row r="193">
+      <c r="A193" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="B193">
+      <c r="B193" s="0">
         <v>4521933</v>
       </c>
-      <c r="C193">
+      <c r="C193" s="0">
         <v>145347</v>
       </c>
-      <c r="D193">
+      <c r="D193" s="0">
         <v>55593</v>
       </c>
-      <c r="E193">
+      <c r="E193" s="0">
         <v>10472</v>
       </c>
-      <c r="F193">
+      <c r="F193" s="0">
         <v>2703</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+    <row r="194">
+      <c r="A194" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="B194">
+      <c r="B194" s="0">
         <v>4582349</v>
       </c>
-      <c r="C194">
+      <c r="C194" s="0">
         <v>146537</v>
       </c>
-      <c r="D194">
+      <c r="D194" s="0">
         <v>54470</v>
       </c>
-      <c r="E194">
+      <c r="E194" s="0">
         <v>10450</v>
       </c>
-      <c r="F194">
+      <c r="F194" s="0">
         <v>2698</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
+    <row r="195">
+      <c r="A195" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="B195">
+      <c r="B195" s="0">
         <v>4628866</v>
       </c>
-      <c r="C195">
+      <c r="C195" s="0">
         <v>147035</v>
       </c>
-      <c r="D195">
+      <c r="D195" s="0">
         <v>54017</v>
       </c>
-      <c r="E195">
+      <c r="E195" s="0">
         <v>10415</v>
       </c>
-      <c r="F195">
+      <c r="F195" s="0">
         <v>2645</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+    <row r="196">
+      <c r="A196" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="B196">
+      <c r="B196" s="0">
         <v>4678539</v>
       </c>
-      <c r="C196">
+      <c r="C196" s="0">
         <v>147554</v>
       </c>
-      <c r="D196">
+      <c r="D196" s="0">
         <v>53377</v>
       </c>
-      <c r="E196">
+      <c r="E196" s="0">
         <v>10230</v>
       </c>
-      <c r="F196">
+      <c r="F196" s="0">
         <v>2659</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
+    <row r="197">
+      <c r="A197" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="B197">
+      <c r="B197" s="0">
         <v>4730083</v>
       </c>
-      <c r="C197">
+      <c r="C197" s="0">
         <v>148809</v>
       </c>
-      <c r="D197">
+      <c r="D197" s="0">
         <v>53326</v>
       </c>
-      <c r="E197">
+      <c r="E197" s="0">
         <v>10207</v>
       </c>
-      <c r="F197">
+      <c r="F197" s="0">
         <v>2701</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+    <row r="198">
+      <c r="A198" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="B198">
+      <c r="B198" s="0">
         <v>4782366</v>
       </c>
-      <c r="C198">
+      <c r="C198" s="0">
         <v>150155</v>
       </c>
-      <c r="D198">
+      <c r="D198" s="0">
         <v>53353</v>
       </c>
-      <c r="E198">
+      <c r="E198" s="0">
         <v>9986</v>
       </c>
-      <c r="F198">
+      <c r="F198" s="0">
         <v>2719</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+    <row r="199">
+      <c r="A199" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="B199">
+      <c r="B199" s="0">
         <v>4836333</v>
       </c>
-      <c r="C199">
+      <c r="C199" s="0">
         <v>151406</v>
       </c>
-      <c r="D199">
+      <c r="D199" s="0">
         <v>53132</v>
       </c>
-      <c r="E199">
+      <c r="E199" s="0">
         <v>9994</v>
       </c>
-      <c r="F199">
+      <c r="F199" s="0">
         <v>2718</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+    <row r="200">
+      <c r="A200" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="B200">
+      <c r="B200" s="0">
         <v>4897187</v>
       </c>
-      <c r="C200">
+      <c r="C200" s="0">
         <v>152739</v>
       </c>
-      <c r="D200">
+      <c r="D200" s="0">
         <v>51207</v>
       </c>
-      <c r="E200">
+      <c r="E200" s="0">
         <v>9691</v>
       </c>
-      <c r="F200">
+      <c r="F200" s="0">
         <v>2617</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+    <row r="201">
+      <c r="A201" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="B201">
+      <c r="B201" s="0">
         <v>4950345</v>
       </c>
-      <c r="C201">
+      <c r="C201" s="0">
         <v>153828</v>
       </c>
-      <c r="D201">
+      <c r="D201" s="0">
         <v>49911</v>
       </c>
-      <c r="E201">
+      <c r="E201" s="0">
         <v>9662</v>
       </c>
-      <c r="F201">
+      <c r="F201" s="0">
         <v>2566</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+    <row r="202">
+      <c r="A202" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="B202">
+      <c r="B202" s="0">
         <v>5000546</v>
       </c>
-      <c r="C202">
+      <c r="C202" s="0">
         <v>154444</v>
       </c>
-      <c r="D202">
+      <c r="D202" s="0">
         <v>48899</v>
       </c>
-      <c r="E202">
+      <c r="E202" s="0">
         <v>9307</v>
       </c>
-      <c r="F202">
+      <c r="F202" s="0">
         <v>2507</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
+    <row r="203">
+      <c r="A203" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="B203">
+      <c r="B203" s="0">
         <v>5042315</v>
       </c>
-      <c r="C203">
+      <c r="C203" s="0">
         <v>154870</v>
       </c>
-      <c r="D203">
+      <c r="D203" s="0">
         <v>48635</v>
       </c>
-      <c r="E203">
+      <c r="E203" s="0">
         <v>9216</v>
       </c>
-      <c r="F203">
+      <c r="F203" s="0">
         <v>2533</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+    <row r="204">
+      <c r="A204" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="B204">
+      <c r="B204" s="0">
         <v>5097651</v>
       </c>
-      <c r="C204">
+      <c r="C204" s="0">
         <v>156196</v>
       </c>
-      <c r="D204">
+      <c r="D204" s="0">
         <v>48498</v>
       </c>
-      <c r="E204">
+      <c r="E204" s="0">
         <v>9136</v>
       </c>
-      <c r="F204">
+      <c r="F204" s="0">
         <v>2415</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+    <row r="205">
+      <c r="A205" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="B205">
+      <c r="B205" s="0">
         <v>5153664</v>
       </c>
-      <c r="C205">
+      <c r="C205" s="0">
         <v>157715</v>
       </c>
-      <c r="D205">
+      <c r="D205" s="0">
         <v>47991</v>
       </c>
-      <c r="E205">
+      <c r="E205" s="0">
         <v>9555</v>
       </c>
-      <c r="F205">
+      <c r="F205" s="0">
         <v>2604</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+    <row r="206">
+      <c r="A206" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="B206">
+      <c r="B206" s="0">
         <v>5205152</v>
       </c>
-      <c r="C206">
+      <c r="C206" s="0">
         <v>158878</v>
       </c>
-      <c r="D206">
+      <c r="D206" s="0">
         <v>47218</v>
       </c>
-      <c r="E206">
+      <c r="E206" s="0">
         <v>9487</v>
       </c>
-      <c r="F206">
+      <c r="F206" s="0">
         <v>2579</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
+    <row r="207">
+      <c r="A207" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="B207">
+      <c r="B207" s="0">
         <v>5262406</v>
       </c>
-      <c r="C207">
+      <c r="C207" s="0">
         <v>160094</v>
       </c>
-      <c r="D207">
+      <c r="D207" s="0">
         <v>45776</v>
       </c>
-      <c r="E207">
+      <c r="E207" s="0">
         <v>9277</v>
       </c>
-      <c r="F207">
+      <c r="F207" s="0">
         <v>2549</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
+    <row r="208">
+      <c r="A208" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="B208">
+      <c r="B208" s="0">
         <v>5318266</v>
       </c>
-      <c r="C208">
+      <c r="C208" s="0">
         <v>161315</v>
       </c>
-      <c r="D208">
+      <c r="D208" s="0">
         <v>44795</v>
       </c>
-      <c r="E208">
+      <c r="E208" s="0">
         <v>9087</v>
       </c>
-      <c r="F208">
+      <c r="F208" s="0">
         <v>2526</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+    <row r="209">
+      <c r="A209" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="B209">
+      <c r="B209" s="0">
         <v>5360592</v>
       </c>
-      <c r="C209">
+      <c r="C209" s="0">
         <v>161934</v>
       </c>
-      <c r="D209">
+      <c r="D209" s="0">
         <v>44046</v>
       </c>
-      <c r="E209">
+      <c r="E209" s="0">
         <v>8958</v>
       </c>
-      <c r="F209">
+      <c r="F209" s="0">
         <v>2481</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+    <row r="210">
+      <c r="A210" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="B210">
+      <c r="B210" s="0">
         <v>5398161</v>
       </c>
-      <c r="C210">
+      <c r="C210" s="0">
         <v>162341</v>
       </c>
-      <c r="D210">
+      <c r="D210" s="0">
         <v>43485</v>
       </c>
-      <c r="E210">
+      <c r="E210" s="0">
         <v>8871</v>
       </c>
-      <c r="F210">
+      <c r="F210" s="0">
         <v>2447</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+    <row r="211">
+      <c r="A211" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="B211">
+      <c r="B211" s="0">
         <v>5438600</v>
       </c>
-      <c r="C211">
+      <c r="C211" s="0">
         <v>163537</v>
       </c>
-      <c r="D211">
+      <c r="D211" s="0">
         <v>43758</v>
       </c>
-      <c r="E211">
+      <c r="E211" s="0">
         <v>8866</v>
       </c>
-      <c r="F211">
+      <c r="F211" s="0">
         <v>2468</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+    <row r="212">
+      <c r="A212" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="B212">
+      <c r="B212" s="0">
         <v>5483380</v>
       </c>
-      <c r="C212">
+      <c r="C212" s="0">
         <v>164957</v>
       </c>
-      <c r="D212">
+      <c r="D212" s="0">
         <v>43330</v>
       </c>
-      <c r="E212">
+      <c r="E212" s="0">
         <v>8744</v>
       </c>
-      <c r="F212">
+      <c r="F212" s="0">
         <v>2371</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
+    <row r="213">
+      <c r="A213" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="B213">
+      <c r="B213" s="0">
         <v>5527014</v>
       </c>
-      <c r="C213">
+      <c r="C213" s="0">
         <v>166091</v>
       </c>
-      <c r="D213">
+      <c r="D213" s="0">
         <v>41988</v>
       </c>
-      <c r="E213">
+      <c r="E213" s="0">
         <v>8483</v>
       </c>
-      <c r="F213">
+      <c r="F213" s="0">
         <v>2335</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
+    <row r="214">
+      <c r="A214" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="B214">
+      <c r="B214" s="0">
         <v>5573242</v>
       </c>
-      <c r="C214">
+      <c r="C214" s="0">
         <v>167214</v>
       </c>
-      <c r="D214">
+      <c r="D214" s="0">
         <v>40951</v>
       </c>
-      <c r="E214">
+      <c r="E214" s="0">
         <v>8357</v>
       </c>
-      <c r="F214">
+      <c r="F214" s="0">
         <v>2286</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
+    <row r="215">
+      <c r="A215" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="B215">
+      <c r="B215" s="0">
         <v>5618964</v>
       </c>
-      <c r="C215">
+      <c r="C215" s="0">
         <v>168243</v>
       </c>
-      <c r="D215">
+      <c r="D215" s="0">
         <v>39894</v>
       </c>
-      <c r="E215">
+      <c r="E215" s="0">
         <v>8207</v>
       </c>
-      <c r="F215">
+      <c r="F215" s="0">
         <v>2204</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
+    <row r="216">
+      <c r="A216" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="B216">
+      <c r="B216" s="0">
         <v>5656436</v>
       </c>
-      <c r="C216">
+      <c r="C216" s="0">
         <v>168815</v>
       </c>
-      <c r="D216">
+      <c r="D216" s="0">
         <v>39017</v>
       </c>
-      <c r="E216">
+      <c r="E216" s="0">
         <v>7949</v>
       </c>
-      <c r="F216">
+      <c r="F216" s="0">
         <v>2131</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
+    <row r="217">
+      <c r="A217" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="B217">
+      <c r="B217" s="0">
         <v>5690768</v>
       </c>
-      <c r="C217">
+      <c r="C217" s="0">
         <v>169158</v>
       </c>
-      <c r="D217">
+      <c r="D217" s="0">
         <v>38673</v>
       </c>
-      <c r="E217">
+      <c r="E217" s="0">
         <v>7851</v>
       </c>
-      <c r="F217">
+      <c r="F217" s="0">
         <v>2118</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
+    <row r="218">
+      <c r="A218" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="B218">
+      <c r="B218" s="0">
         <v>5727107</v>
       </c>
-      <c r="C218">
+      <c r="C218" s="0">
         <v>170305</v>
       </c>
-      <c r="D218">
+      <c r="D218" s="0">
         <v>38779</v>
       </c>
-      <c r="E218">
+      <c r="E218" s="0">
         <v>7863</v>
       </c>
-      <c r="F218">
+      <c r="F218" s="0">
         <v>2163</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
+    <row r="219">
+      <c r="A219" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="B219">
+      <c r="B219" s="0">
         <v>5770871</v>
       </c>
-      <c r="C219">
+      <c r="C219" s="0">
         <v>171603</v>
       </c>
-      <c r="D219">
+      <c r="D219" s="0">
         <v>38401</v>
       </c>
-      <c r="E219">
+      <c r="E219" s="0">
         <v>7737</v>
       </c>
-      <c r="F219">
+      <c r="F219" s="0">
         <v>2142</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
+    <row r="220">
+      <c r="A220" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="B220">
+      <c r="B220" s="0">
         <v>5814635</v>
       </c>
-      <c r="C220">
+      <c r="C220" s="0">
         <v>172732</v>
       </c>
-      <c r="D220">
+      <c r="D220" s="0">
         <v>37464</v>
       </c>
-      <c r="E220">
+      <c r="E220" s="0">
         <v>7717</v>
       </c>
-      <c r="F220">
+      <c r="F220" s="0">
         <v>2125</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
+    <row r="221">
+      <c r="A221" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="B221">
+      <c r="B221" s="0">
         <v>5860752</v>
       </c>
-      <c r="C221">
+      <c r="C221" s="0">
         <v>173756</v>
       </c>
-      <c r="D221">
+      <c r="D221" s="0">
         <v>37239</v>
       </c>
-      <c r="E221">
+      <c r="E221" s="0">
         <v>7558</v>
       </c>
-      <c r="F221">
+      <c r="F221" s="0">
         <v>2086</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
+    <row r="222">
+      <c r="A222" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="B222">
+      <c r="B222" s="0">
         <v>5904886</v>
       </c>
-      <c r="C222">
+      <c r="C222" s="0">
         <v>174771</v>
       </c>
-      <c r="D222">
+      <c r="D222" s="0">
         <v>36428</v>
       </c>
-      <c r="E222">
+      <c r="E222" s="0">
         <v>7413</v>
       </c>
-      <c r="F222">
+      <c r="F222" s="0">
         <v>2062</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
+    <row r="223">
+      <c r="A223" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="B223">
+      <c r="B223" s="0">
         <v>5944296</v>
       </c>
-      <c r="C223">
+      <c r="C223" s="0">
         <v>175246</v>
       </c>
-      <c r="D223">
+      <c r="D223" s="0">
         <v>35726</v>
       </c>
-      <c r="E223">
+      <c r="E223" s="0">
         <v>7268</v>
       </c>
-      <c r="F223">
+      <c r="F223" s="0">
         <v>2055</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
+    <row r="224">
+      <c r="A224" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="B224">
+      <c r="B224" s="0">
         <v>5975589</v>
       </c>
-      <c r="C224">
+      <c r="C224" s="0">
         <v>175612</v>
       </c>
-      <c r="D224">
+      <c r="D224" s="0">
         <v>35352</v>
       </c>
-      <c r="E224">
+      <c r="E224" s="0">
         <v>7043</v>
       </c>
-      <c r="F224">
+      <c r="F224" s="0">
         <v>2077</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
+    <row r="225">
+      <c r="A225" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="B225">
+      <c r="B225" s="0">
         <v>6017826</v>
       </c>
-      <c r="C225">
+      <c r="C225" s="0">
         <v>176639</v>
       </c>
-      <c r="D225">
+      <c r="D225" s="0">
         <v>35271</v>
       </c>
-      <c r="E225">
+      <c r="E225" s="0">
         <v>7090</v>
       </c>
-      <c r="F225">
+      <c r="F225" s="0">
         <v>2042</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
+    <row r="226">
+      <c r="A226" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="B226">
+      <c r="B226" s="0">
         <v>6048113</v>
       </c>
-      <c r="C226">
+      <c r="C226" s="0">
         <v>177671</v>
       </c>
-      <c r="D226">
+      <c r="D226" s="0">
         <v>35569</v>
       </c>
-      <c r="E226">
+      <c r="E226" s="0">
         <v>7087</v>
       </c>
-      <c r="F226">
+      <c r="F226" s="0">
         <v>2024</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
+    <row r="227">
+      <c r="A227" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="B227">
+      <c r="B227" s="0">
         <v>6092675</v>
       </c>
-      <c r="C227">
+      <c r="C227" s="0">
         <v>178741</v>
       </c>
-      <c r="D227">
+      <c r="D227" s="0">
         <v>34682</v>
       </c>
-      <c r="E227">
+      <c r="E227" s="0">
         <v>6921</v>
       </c>
-      <c r="F227">
+      <c r="F227" s="0">
         <v>2042</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
+    <row r="228">
+      <c r="A228" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="B228">
+      <c r="B228" s="0">
         <v>6144204</v>
       </c>
-      <c r="C228">
+      <c r="C228" s="0">
         <v>179739</v>
       </c>
-      <c r="D228">
+      <c r="D228" s="0">
         <v>34099</v>
       </c>
-      <c r="E228">
+      <c r="E228" s="0">
         <v>6924</v>
       </c>
-      <c r="F228">
+      <c r="F228" s="0">
         <v>1995</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
+    <row r="229">
+      <c r="A229" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="B229">
+      <c r="B229" s="0">
         <v>6188937</v>
       </c>
-      <c r="C229">
+      <c r="C229" s="0">
         <v>180657</v>
       </c>
-      <c r="D229">
+      <c r="D229" s="0">
         <v>33502</v>
       </c>
-      <c r="E229">
+      <c r="E229" s="0">
         <v>6766</v>
       </c>
-      <c r="F229">
+      <c r="F229" s="0">
         <v>1956</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
+    <row r="230">
+      <c r="A230" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="B230">
+      <c r="B230" s="0">
         <v>6221988</v>
       </c>
-      <c r="C230">
+      <c r="C230" s="0">
         <v>181106</v>
       </c>
-      <c r="D230">
+      <c r="D230" s="0">
         <v>32372</v>
       </c>
-      <c r="E230">
+      <c r="E230" s="0">
         <v>6700</v>
       </c>
-      <c r="F230">
+      <c r="F230" s="0">
         <v>1912</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
+    <row r="231">
+      <c r="A231" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="B231">
+      <c r="B231" s="0">
         <v>6250225</v>
       </c>
-      <c r="C231">
+      <c r="C231" s="0">
         <v>181331</v>
       </c>
-      <c r="D231">
+      <c r="D231" s="0">
         <v>31999</v>
       </c>
-      <c r="E231">
+      <c r="E231" s="0">
         <v>6630</v>
       </c>
-      <c r="F231">
+      <c r="F231" s="0">
         <v>1879</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
+    <row r="232">
+      <c r="A232" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="B232">
+      <c r="B232" s="0">
         <v>6272389</v>
       </c>
-      <c r="C232">
+      <c r="C232" s="0">
         <v>181689</v>
       </c>
-      <c r="D232">
+      <c r="D232" s="0">
         <v>32262</v>
       </c>
-      <c r="E232">
+      <c r="E232" s="0">
         <v>6542</v>
       </c>
-      <c r="F232">
+      <c r="F232" s="0">
         <v>1879</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
+    <row r="233">
+      <c r="A233" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="B233">
+      <c r="B233" s="0">
         <v>6303451</v>
       </c>
-      <c r="C233">
+      <c r="C233" s="0">
         <v>182773</v>
       </c>
-      <c r="D233">
+      <c r="D233" s="0">
         <v>32562</v>
       </c>
-      <c r="E233">
+      <c r="E233" s="0">
         <v>6646</v>
       </c>
-      <c r="F233">
+      <c r="F233" s="0">
         <v>1903</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
+    <row r="234">
+      <c r="A234" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="B234">
+      <c r="B234" s="0">
         <v>6340673</v>
       </c>
-      <c r="C234">
+      <c r="C234" s="0">
         <v>183943</v>
       </c>
-      <c r="D234">
+      <c r="D234" s="0">
         <v>32421</v>
       </c>
-      <c r="E234">
+      <c r="E234" s="0">
         <v>6531</v>
       </c>
-      <c r="F234">
+      <c r="F234" s="0">
         <v>1925</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
+    <row r="235">
+      <c r="A235" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="B235">
+      <c r="B235" s="0">
         <v>6385361</v>
       </c>
-      <c r="C235">
+      <c r="C235" s="0">
         <v>184961</v>
       </c>
-      <c r="D235">
+      <c r="D235" s="0">
         <v>31421</v>
       </c>
-      <c r="E235">
+      <c r="E235" s="0">
         <v>6379</v>
       </c>
-      <c r="F235">
+      <c r="F235" s="0">
         <v>1715</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
+    <row r="236">
+      <c r="A236" s="0" t="s">
         <v>240</v>
       </c>
-      <c r="B236">
+      <c r="B236" s="0">
         <v>6427159</v>
       </c>
-      <c r="C236">
+      <c r="C236" s="0">
         <v>185771</v>
       </c>
-      <c r="D236">
+      <c r="D236" s="0">
         <v>30655</v>
       </c>
-      <c r="E236">
+      <c r="E236" s="0">
         <v>6451</v>
       </c>
-      <c r="F236">
+      <c r="F236" s="0">
         <v>1619</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
+    <row r="237">
+      <c r="A237" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="B237">
+      <c r="B237" s="0">
         <v>6461467</v>
       </c>
-      <c r="C237">
+      <c r="C237" s="0">
         <v>186161</v>
       </c>
-      <c r="D237">
+      <c r="D237" s="0">
         <v>29810</v>
       </c>
-      <c r="E237">
+      <c r="E237" s="0">
         <v>6233</v>
       </c>
-      <c r="F237">
+      <c r="F237" s="0">
         <v>1562</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
+    <row r="238">
+      <c r="A238" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="B238">
+      <c r="B238" s="0">
         <v>6495151</v>
       </c>
-      <c r="C238">
+      <c r="C238" s="0">
         <v>186565</v>
       </c>
-      <c r="D238">
+      <c r="D238" s="0">
         <v>29895</v>
       </c>
-      <c r="E238">
+      <c r="E238" s="0">
         <v>6238</v>
       </c>
-      <c r="F238">
+      <c r="F238" s="0">
         <v>1507</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
+    <row r="239">
+      <c r="A239" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="B239">
+      <c r="B239" s="0">
         <v>6530030</v>
       </c>
-      <c r="C239">
+      <c r="C239" s="0">
         <v>187596</v>
       </c>
-      <c r="D239">
+      <c r="D239" s="0">
         <v>30328</v>
       </c>
-      <c r="E239">
+      <c r="E239" s="0">
         <v>6310</v>
       </c>
-      <c r="F239">
+      <c r="F239" s="0">
         <v>1572</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
+    <row r="240">
+      <c r="A240" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="B240">
+      <c r="B240" s="0">
         <v>6569918</v>
       </c>
-      <c r="C240">
+      <c r="C240" s="0">
         <v>188796</v>
       </c>
-      <c r="D240">
+      <c r="D240" s="0">
         <v>30278</v>
       </c>
-      <c r="E240">
+      <c r="E240" s="0">
         <v>6308</v>
       </c>
-      <c r="F240">
+      <c r="F240" s="0">
         <v>1651</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
+    <row r="241">
+      <c r="A241" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="B241">
+      <c r="B241" s="0">
         <v>6613293</v>
       </c>
-      <c r="C241">
+      <c r="C241" s="0">
         <v>189659</v>
       </c>
-      <c r="D241">
+      <c r="D241" s="0">
         <v>29900</v>
       </c>
-      <c r="E241">
+      <c r="E241" s="0">
         <v>6278</v>
       </c>
-      <c r="F241">
+      <c r="F241" s="0">
         <v>1658</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
+    <row r="242">
+      <c r="A242" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="B242">
+      <c r="B242" s="0">
         <v>6660414</v>
       </c>
-      <c r="C242">
+      <c r="C242" s="0">
         <v>190560</v>
       </c>
-      <c r="D242">
+      <c r="D242" s="0">
         <v>29501</v>
       </c>
-      <c r="E242">
+      <c r="E242" s="0">
         <v>6175</v>
       </c>
-      <c r="F242">
+      <c r="F242" s="0">
         <v>1608</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
+    <row r="243">
+      <c r="A243" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="B243">
+      <c r="B243" s="0">
         <v>6705300</v>
       </c>
-      <c r="C243">
+      <c r="C243" s="0">
         <v>191300</v>
       </c>
-      <c r="D243">
+      <c r="D243" s="0">
         <v>29035</v>
       </c>
-      <c r="E243">
+      <c r="E243" s="0">
         <v>6070</v>
       </c>
-      <c r="F243">
+      <c r="F243" s="0">
         <v>1577</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
+    <row r="244">
+      <c r="A244" s="0" t="s">
         <v>248</v>
       </c>
-      <c r="B244">
+      <c r="B244" s="0">
         <v>6740988</v>
       </c>
-      <c r="C244">
+      <c r="C244" s="0">
         <v>191627</v>
       </c>
-      <c r="D244">
+      <c r="D244" s="0">
         <v>28608</v>
       </c>
-      <c r="E244">
+      <c r="E244" s="0">
         <v>6015</v>
       </c>
-      <c r="F244">
+      <c r="F244" s="0">
         <v>1595</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
+    <row r="245">
+      <c r="A245" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="B245">
+      <c r="B245" s="0">
         <v>6780050</v>
       </c>
-      <c r="C245">
+      <c r="C245" s="0">
         <v>191914</v>
       </c>
-      <c r="D245">
+      <c r="D245" s="0">
         <v>28755</v>
       </c>
-      <c r="E245">
+      <c r="E245" s="0">
         <v>6071</v>
       </c>
-      <c r="F245">
+      <c r="F245" s="0">
         <v>1572</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
+    <row r="246">
+      <c r="A246" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="B246">
+      <c r="B246" s="0">
         <v>6829401</v>
       </c>
-      <c r="C246">
+      <c r="C246" s="0">
         <v>192768</v>
       </c>
-      <c r="D246">
+      <c r="D246" s="0">
         <v>29459</v>
       </c>
-      <c r="E246">
+      <c r="E246" s="0">
         <v>6111</v>
       </c>
-      <c r="F246">
+      <c r="F246" s="0">
         <v>1562</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
+    <row r="247">
+      <c r="A247" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="B247">
+      <c r="B247" s="0">
         <v>6867948</v>
       </c>
-      <c r="C247">
+      <c r="C247" s="0">
         <v>193927</v>
       </c>
-      <c r="D247">
+      <c r="D247" s="0">
         <v>29905</v>
       </c>
-      <c r="E247">
+      <c r="E247" s="0">
         <v>6113</v>
       </c>
-      <c r="F247">
+      <c r="F247" s="0">
         <v>1544</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
+    <row r="248">
+      <c r="A248" s="0" t="s">
         <v>252</v>
       </c>
-      <c r="B248">
+      <c r="B248" s="0">
         <v>6911191</v>
       </c>
-      <c r="C248">
+      <c r="C248" s="0">
         <v>194848</v>
       </c>
-      <c r="D248">
+      <c r="D248" s="0">
         <v>30043</v>
       </c>
-      <c r="E248">
+      <c r="E248" s="0">
         <v>6168</v>
       </c>
-      <c r="F248">
+      <c r="F248" s="0">
         <v>1560</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
+    <row r="249">
+      <c r="A249" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="B249">
+      <c r="B249" s="0">
         <v>6966328</v>
       </c>
-      <c r="C249">
+      <c r="C249" s="0">
         <v>195692</v>
       </c>
-      <c r="D249">
+      <c r="D249" s="0">
         <v>29769</v>
       </c>
-      <c r="E249">
+      <c r="E249" s="0">
         <v>6133</v>
       </c>
-      <c r="F249">
+      <c r="F249" s="0">
         <v>1506</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
+    <row r="250">
+      <c r="A250" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="B250">
+      <c r="B250" s="0">
         <v>7013908</v>
       </c>
-      <c r="C250">
+      <c r="C250" s="0">
         <v>196561</v>
       </c>
-      <c r="D250">
+      <c r="D250" s="0">
         <v>29554</v>
       </c>
-      <c r="E250">
+      <c r="E250" s="0">
         <v>6057</v>
       </c>
-      <c r="F250">
+      <c r="F250" s="0">
         <v>1509</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
+    <row r="251">
+      <c r="A251" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="B251">
+      <c r="B251" s="0">
         <v>7048969</v>
       </c>
-      <c r="C251">
+      <c r="C251" s="0">
         <v>196868</v>
       </c>
-      <c r="D251">
+      <c r="D251" s="0">
         <v>29434</v>
       </c>
-      <c r="E251">
+      <c r="E251" s="0">
         <v>6080</v>
       </c>
-      <c r="F251">
+      <c r="F251" s="0">
         <v>1511</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
+    <row r="252">
+      <c r="A252" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="B252">
+      <c r="B252" s="0">
         <v>7085025</v>
       </c>
-      <c r="C252">
+      <c r="C252" s="0">
         <v>197125</v>
       </c>
-      <c r="D252">
+      <c r="D252" s="0">
         <v>29608</v>
       </c>
-      <c r="E252">
+      <c r="E252" s="0">
         <v>5981</v>
       </c>
-      <c r="F252">
+      <c r="F252" s="0">
         <v>1518</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
+    <row r="253">
+      <c r="A253" s="0" t="s">
         <v>257</v>
       </c>
-      <c r="B253">
+      <c r="B253" s="0">
         <v>7121314</v>
       </c>
-      <c r="C253">
+      <c r="C253" s="0">
         <v>197864</v>
       </c>
-      <c r="D253">
+      <c r="D253" s="0">
         <v>30473</v>
       </c>
-      <c r="E253">
+      <c r="E253" s="0">
         <v>6106</v>
       </c>
-      <c r="F253">
+      <c r="F253" s="0">
         <v>1495</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
+    <row r="254">
+      <c r="A254" s="0" t="s">
         <v>258</v>
       </c>
-      <c r="B254">
+      <c r="B254" s="0">
         <v>7165581</v>
       </c>
-      <c r="C254">
+      <c r="C254" s="0">
         <v>198925</v>
       </c>
-      <c r="D254">
+      <c r="D254" s="0">
         <v>30911</v>
       </c>
-      <c r="E254">
+      <c r="E254" s="0">
         <v>6145</v>
       </c>
-      <c r="F254">
+      <c r="F254" s="0">
         <v>1507</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
+    <row r="255">
+      <c r="A255" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="B255">
+      <c r="B255" s="0">
         <v>7211062</v>
       </c>
-      <c r="C255">
+      <c r="C255" s="0">
         <v>199776</v>
       </c>
-      <c r="D255">
+      <c r="D255" s="0">
         <v>30790</v>
       </c>
-      <c r="E255">
+      <c r="E255" s="0">
         <v>6173</v>
       </c>
-      <c r="F255">
+      <c r="F255" s="0">
         <v>1547</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
+    <row r="256">
+      <c r="A256" s="0" t="s">
         <v>260</v>
       </c>
-      <c r="B256">
+      <c r="B256" s="0">
         <v>7260195</v>
       </c>
-      <c r="C256">
+      <c r="C256" s="0">
         <v>200611</v>
       </c>
-      <c r="D256">
+      <c r="D256" s="0">
         <v>30744</v>
       </c>
-      <c r="E256">
+      <c r="E256" s="0">
         <v>6106</v>
       </c>
-      <c r="F256">
+      <c r="F256" s="0">
         <v>1533</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
+    <row r="257">
+      <c r="A257" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="B257">
+      <c r="B257" s="0">
         <v>7311204</v>
       </c>
-      <c r="C257">
+      <c r="C257" s="0">
         <v>201352</v>
       </c>
-      <c r="D257">
+      <c r="D257" s="0">
         <v>30113</v>
       </c>
-      <c r="E257">
+      <c r="E257" s="0">
         <v>5996</v>
       </c>
-      <c r="F257">
+      <c r="F257" s="0">
         <v>1501</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
+    <row r="258">
+      <c r="A258" s="0" t="s">
         <v>262</v>
       </c>
-      <c r="B258">
+      <c r="B258" s="0">
         <v>7349491</v>
       </c>
-      <c r="C258">
+      <c r="C258" s="0">
         <v>201715</v>
       </c>
-      <c r="D258">
+      <c r="D258" s="0">
         <v>29942</v>
       </c>
-      <c r="E258">
+      <c r="E258" s="0">
         <v>5974</v>
       </c>
-      <c r="F258">
+      <c r="F258" s="0">
         <v>1485</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
+    <row r="259">
+      <c r="A259" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="B259">
+      <c r="B259" s="0">
         <v>7387348</v>
       </c>
-      <c r="C259">
+      <c r="C259" s="0">
         <v>202041</v>
       </c>
-      <c r="D259">
+      <c r="D259" s="0">
         <v>31299</v>
       </c>
-      <c r="E259">
+      <c r="E259" s="0">
         <v>6209</v>
       </c>
-      <c r="F259">
+      <c r="F259" s="0">
         <v>1515</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
+    <row r="260">
+      <c r="A260" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="B260">
+      <c r="B260" s="0">
         <v>7425765</v>
       </c>
-      <c r="C260">
+      <c r="C260" s="0">
         <v>202675</v>
       </c>
-      <c r="D260">
+      <c r="D260" s="0">
         <v>32595</v>
       </c>
-      <c r="E260">
+      <c r="E260" s="0">
         <v>6438</v>
       </c>
-      <c r="F260">
+      <c r="F260" s="0">
         <v>1609</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
+    <row r="261">
+      <c r="A261" s="0" t="s">
         <v>265</v>
       </c>
-      <c r="B261">
+      <c r="B261" s="0">
         <v>7476321</v>
       </c>
-      <c r="C261">
+      <c r="C261" s="0">
         <v>203591</v>
       </c>
-      <c r="D261">
+      <c r="D261" s="0">
         <v>33457</v>
       </c>
-      <c r="E261">
+      <c r="E261" s="0">
         <v>6507</v>
       </c>
-      <c r="F261">
+      <c r="F261" s="0">
         <v>1646</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
+    <row r="262">
+      <c r="A262" s="0" t="s">
         <v>266</v>
       </c>
-      <c r="B262">
+      <c r="B262" s="0">
         <v>7531439</v>
       </c>
-      <c r="C262">
+      <c r="C262" s="0">
         <v>204577</v>
       </c>
-      <c r="D262">
+      <c r="D262" s="0">
         <v>34322</v>
       </c>
-      <c r="E262">
+      <c r="E262" s="0">
         <v>6621</v>
       </c>
-      <c r="F262">
+      <c r="F262" s="0">
         <v>1638</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
+    <row r="263">
+      <c r="A263" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="B263">
+      <c r="B263" s="0">
         <v>7588162</v>
       </c>
-      <c r="C263">
+      <c r="C263" s="0">
         <v>205470</v>
       </c>
-      <c r="D263">
+      <c r="D263" s="0">
         <v>34839</v>
       </c>
-      <c r="E263">
+      <c r="E263" s="0">
         <v>6713</v>
       </c>
-      <c r="F263">
+      <c r="F263" s="0">
         <v>1655</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
+    <row r="264">
+      <c r="A264" s="0" t="s">
         <v>268</v>
       </c>
-      <c r="B264">
+      <c r="B264" s="0">
         <v>7645414</v>
       </c>
-      <c r="C264">
+      <c r="C264" s="0">
         <v>206135</v>
       </c>
-      <c r="D264">
+      <c r="D264" s="0">
         <v>34618</v>
       </c>
-      <c r="E264">
+      <c r="E264" s="0">
         <v>6683</v>
       </c>
-      <c r="F264">
+      <c r="F264" s="0">
         <v>1667</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
+    <row r="265">
+      <c r="A265" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="B265">
+      <c r="B265" s="0">
         <v>7692115</v>
       </c>
-      <c r="C265">
+      <c r="C265" s="0">
         <v>206601</v>
       </c>
-      <c r="D265">
+      <c r="D265" s="0">
         <v>34490</v>
       </c>
-      <c r="E265">
+      <c r="E265" s="0">
         <v>6679</v>
       </c>
-      <c r="F265">
+      <c r="F265" s="0">
         <v>1646</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
+    <row r="266">
+      <c r="A266" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="B266">
+      <c r="B266" s="0">
         <v>7734890</v>
       </c>
-      <c r="C266">
+      <c r="C266" s="0">
         <v>206888</v>
       </c>
-      <c r="D266">
+      <c r="D266" s="0">
         <v>35072</v>
       </c>
-      <c r="E266">
+      <c r="E266" s="0">
         <v>6807</v>
       </c>
-      <c r="F266">
+      <c r="F266" s="0">
         <v>1666</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
+    <row r="267">
+      <c r="A267" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="B267">
+      <c r="B267" s="0">
         <v>7783038</v>
       </c>
-      <c r="C267">
+      <c r="C267" s="0">
         <v>207578</v>
       </c>
-      <c r="D267">
+      <c r="D267" s="0">
         <v>36051</v>
       </c>
-      <c r="E267">
+      <c r="E267" s="0">
         <v>7020</v>
       </c>
-      <c r="F267">
+      <c r="F267" s="0">
         <v>1755</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
+    <row r="268">
+      <c r="A268" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="B268">
+      <c r="B268" s="0">
         <v>7839274</v>
       </c>
-      <c r="C268">
+      <c r="C268" s="0">
         <v>208389</v>
       </c>
-      <c r="D268">
+      <c r="D268" s="0">
         <v>37048</v>
       </c>
-      <c r="E268">
+      <c r="E268" s="0">
         <v>7156</v>
       </c>
-      <c r="F268">
+      <c r="F268" s="0">
         <v>1776</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
+    <row r="269">
+      <c r="A269" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="B269">
+      <c r="B269" s="0">
         <v>7902125</v>
       </c>
-      <c r="C269">
+      <c r="C269" s="0">
         <v>209340</v>
       </c>
-      <c r="D269">
+      <c r="D269" s="0">
         <v>37308</v>
       </c>
-      <c r="E269">
+      <c r="E269" s="0">
         <v>7220</v>
       </c>
-      <c r="F269">
+      <c r="F269" s="0">
         <v>1769</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
+    <row r="270">
+      <c r="A270" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="B270">
+      <c r="B270" s="0">
         <v>7970065</v>
       </c>
-      <c r="C270">
+      <c r="C270" s="0">
         <v>210217</v>
       </c>
-      <c r="D270">
+      <c r="D270" s="0">
         <v>37336</v>
       </c>
-      <c r="E270">
+      <c r="E270" s="0">
         <v>7251</v>
       </c>
-      <c r="F270">
+      <c r="F270" s="0">
         <v>1739</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
+    <row r="271">
+      <c r="A271" s="0" t="s">
         <v>275</v>
       </c>
-      <c r="B271">
+      <c r="B271" s="0">
         <v>8027813</v>
       </c>
-      <c r="C271">
+      <c r="C271" s="0">
         <v>210997</v>
       </c>
-      <c r="D271">
+      <c r="D271" s="0">
         <v>37359</v>
       </c>
-      <c r="E271">
+      <c r="E271" s="0">
         <v>7384</v>
       </c>
-      <c r="F271">
+      <c r="F271" s="0">
         <v>1791</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
+    <row r="272">
+      <c r="A272" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="B272">
+      <c r="B272" s="0">
         <v>8076445</v>
       </c>
-      <c r="C272">
+      <c r="C272" s="0">
         <v>211390</v>
       </c>
-      <c r="D272">
+      <c r="D272" s="0">
         <v>36437</v>
       </c>
-      <c r="E272">
+      <c r="E272" s="0">
         <v>7292</v>
       </c>
-      <c r="F272">
+      <c r="F272" s="0">
         <v>1762</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
+    <row r="273">
+      <c r="A273" s="0" t="s">
         <v>277</v>
       </c>
-      <c r="B273">
+      <c r="B273" s="0">
         <v>8133347</v>
       </c>
-      <c r="C273">
+      <c r="C273" s="0">
         <v>211846</v>
       </c>
-      <c r="D273">
+      <c r="D273" s="0">
         <v>37826</v>
       </c>
-      <c r="E273">
+      <c r="E273" s="0">
         <v>7997</v>
       </c>
-      <c r="F273">
+      <c r="F273" s="0">
         <v>1800</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
+    <row r="274">
+      <c r="A274" s="0" t="s">
         <v>278</v>
       </c>
-      <c r="B274">
+      <c r="B274" s="0">
         <v>8193659</v>
       </c>
-      <c r="C274">
+      <c r="C274" s="0">
         <v>212678</v>
       </c>
-      <c r="D274">
+      <c r="D274" s="0">
         <v>39230</v>
       </c>
-      <c r="E274">
+      <c r="E274" s="0">
         <v>8131</v>
       </c>
-      <c r="F274">
+      <c r="F274" s="0">
         <v>2045</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
+    <row r="275">
+      <c r="A275" s="0" t="s">
         <v>279</v>
       </c>
-      <c r="B275">
+      <c r="B275" s="0">
         <v>8254316</v>
       </c>
-      <c r="C275">
+      <c r="C275" s="0">
         <v>213702</v>
       </c>
-      <c r="D275">
+      <c r="D275" s="0">
         <v>40271</v>
       </c>
-      <c r="E275">
+      <c r="E275" s="0">
         <v>8182</v>
       </c>
-      <c r="F275">
+      <c r="F275" s="0">
         <v>2090</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
+    <row r="276">
+      <c r="A276" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="B276">
+      <c r="B276" s="0">
         <v>8327203</v>
       </c>
-      <c r="C276">
+      <c r="C276" s="0">
         <v>214845</v>
       </c>
-      <c r="D276">
+      <c r="D276" s="0">
         <v>41010</v>
       </c>
-      <c r="E276">
+      <c r="E276" s="0">
         <v>8086</v>
       </c>
-      <c r="F276">
+      <c r="F276" s="0">
         <v>2147</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
+    <row r="277">
+      <c r="A277" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="B277">
+      <c r="B277" s="0">
         <v>8409465</v>
       </c>
-      <c r="C277">
+      <c r="C277" s="0">
         <v>215762</v>
       </c>
-      <c r="D277">
+      <c r="D277" s="0">
         <v>41482</v>
       </c>
-      <c r="E277">
+      <c r="E277" s="0">
         <v>8237</v>
       </c>
-      <c r="F277">
+      <c r="F277" s="0">
         <v>2180</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
+    <row r="278">
+      <c r="A278" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="B278">
+      <c r="B278" s="0">
         <v>8492210</v>
       </c>
-      <c r="C278">
+      <c r="C278" s="0">
         <v>216652</v>
       </c>
-      <c r="D278">
+      <c r="D278" s="0">
         <v>41905</v>
       </c>
-      <c r="E278">
+      <c r="E278" s="0">
         <v>8561</v>
       </c>
-      <c r="F278">
+      <c r="F278" s="0">
         <v>2230</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
+    <row r="279">
+      <c r="A279" s="0" t="s">
         <v>283</v>
       </c>
-      <c r="B279">
+      <c r="B279" s="0">
         <v>8557302</v>
       </c>
-      <c r="C279">
+      <c r="C279" s="0">
         <v>217029</v>
       </c>
-      <c r="D279">
+      <c r="D279" s="0">
         <v>41776</v>
       </c>
-      <c r="E279">
+      <c r="E279" s="0">
         <v>8489</v>
       </c>
-      <c r="F279">
+      <c r="F279" s="0">
         <v>2176</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
+    <row r="280">
+      <c r="A280" s="0" t="s">
         <v>284</v>
       </c>
-      <c r="B280">
+      <c r="B280" s="0">
         <v>8619405</v>
       </c>
-      <c r="C280">
+      <c r="C280" s="0">
         <v>217418</v>
       </c>
-      <c r="D280">
+      <c r="D280" s="0">
         <v>42917</v>
       </c>
-      <c r="E280">
+      <c r="E280" s="0">
         <v>8842</v>
       </c>
-      <c r="F280">
+      <c r="F280" s="0">
         <v>2301</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
+    <row r="281">
+      <c r="A281" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="B281">
+      <c r="B281" s="0">
         <v>8692402</v>
       </c>
-      <c r="C281">
+      <c r="C281" s="0">
         <v>218349</v>
       </c>
-      <c r="D281">
+      <c r="D281" s="0">
         <v>44212</v>
       </c>
-      <c r="E281">
+      <c r="E281" s="0">
         <v>8909</v>
       </c>
-      <c r="F281">
+      <c r="F281" s="0">
         <v>2287</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
+    <row r="282">
+      <c r="A282" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="B282">
+      <c r="B282" s="0">
         <v>8771039</v>
       </c>
-      <c r="C282">
+      <c r="C282" s="0">
         <v>219374</v>
       </c>
-      <c r="D282">
+      <c r="D282" s="0">
         <v>45045</v>
       </c>
-      <c r="E282">
+      <c r="E282" s="0">
         <v>9034</v>
       </c>
-      <c r="F282">
+      <c r="F282" s="0">
         <v>2347</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
+    <row r="283">
+      <c r="A283" s="0" t="s">
         <v>287</v>
       </c>
-      <c r="B283">
+      <c r="B283" s="0">
         <v>8859032</v>
       </c>
-      <c r="C283">
+      <c r="C283" s="0">
         <v>220423</v>
       </c>
-      <c r="D283">
+      <c r="D283" s="0">
         <v>46095</v>
       </c>
-      <c r="E283">
+      <c r="E283" s="0">
         <v>9208</v>
       </c>
-      <c r="F283">
+      <c r="F283" s="0">
         <v>2403</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
+    <row r="284">
+      <c r="A284" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="B284">
+      <c r="B284" s="0">
         <v>8955741</v>
       </c>
-      <c r="C284">
+      <c r="C284" s="0">
         <v>221356</v>
       </c>
-      <c r="D284">
+      <c r="D284" s="0">
         <v>46688</v>
       </c>
-      <c r="E284">
+      <c r="E284" s="0">
         <v>9437</v>
       </c>
-      <c r="F284">
+      <c r="F284" s="0">
         <v>2477</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
+    <row r="285">
+      <c r="A285" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="B285">
+      <c r="B285" s="0">
         <v>9046233</v>
       </c>
-      <c r="C285">
+      <c r="C285" s="0">
         <v>222319</v>
       </c>
-      <c r="D285">
+      <c r="D285" s="0">
         <v>47375</v>
       </c>
-      <c r="E285">
+      <c r="E285" s="0">
         <v>9499</v>
       </c>
-      <c r="F285">
+      <c r="F285" s="0">
         <v>2502</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
+    <row r="286">
+      <c r="A286" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="B286">
+      <c r="B286" s="0">
         <v>9120284</v>
       </c>
-      <c r="C286">
+      <c r="C286" s="0">
         <v>222710</v>
       </c>
-      <c r="D286">
+      <c r="D286" s="0">
         <v>47520</v>
       </c>
-      <c r="E286">
+      <c r="E286" s="0">
         <v>9553</v>
       </c>
-      <c r="F286">
+      <c r="F286" s="0">
         <v>2553</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
+    <row r="287">
+      <c r="A287" s="0" t="s">
         <v>291</v>
       </c>
-      <c r="B287">
+      <c r="B287" s="0">
         <v>9202532</v>
       </c>
-      <c r="C287">
+      <c r="C287" s="0">
         <v>223186</v>
       </c>
-      <c r="D287">
+      <c r="D287" s="0">
         <v>48470</v>
       </c>
-      <c r="E287">
+      <c r="E287" s="0">
         <v>9858</v>
       </c>
-      <c r="F287">
+      <c r="F287" s="0">
         <v>2637</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
+    <row r="288">
+      <c r="A288" s="0" t="s">
         <v>292</v>
       </c>
-      <c r="B288">
+      <c r="B288" s="0">
         <v>9288613</v>
       </c>
-      <c r="C288">
+      <c r="C288" s="0">
         <v>224715</v>
       </c>
-      <c r="D288">
+      <c r="D288" s="0">
         <v>50340</v>
       </c>
-      <c r="E288">
+      <c r="E288" s="0">
         <v>10406</v>
       </c>
-      <c r="F288">
+      <c r="F288" s="0">
         <v>2733</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
+    <row r="289">
+      <c r="A289" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="B289">
+      <c r="B289" s="0">
         <v>9391680</v>
       </c>
-      <c r="C289">
+      <c r="C289" s="0">
         <v>225831</v>
       </c>
-      <c r="D289">
+      <c r="D289" s="0">
         <v>52049</v>
       </c>
-      <c r="E289">
+      <c r="E289" s="0">
         <v>10761</v>
       </c>
-      <c r="F289">
+      <c r="F289" s="0">
         <v>2832</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
+    <row r="290">
+      <c r="A290" s="0" t="s">
         <v>294</v>
       </c>
-      <c r="B290">
+      <c r="B290" s="0">
         <v>9507833</v>
       </c>
-      <c r="C290">
+      <c r="C290" s="0">
         <v>226955</v>
       </c>
-      <c r="D290">
+      <c r="D290" s="0">
         <v>53322</v>
       </c>
-      <c r="E290">
+      <c r="E290" s="0">
         <v>10918</v>
       </c>
-      <c r="F290">
+      <c r="F290" s="0">
         <v>2877</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
+    <row r="291">
+      <c r="A291" s="0" t="s">
         <v>295</v>
       </c>
-      <c r="B291">
+      <c r="B291" s="0">
         <v>9633085</v>
       </c>
-      <c r="C291">
+      <c r="C291" s="0">
         <v>228141</v>
       </c>
-      <c r="D291">
+      <c r="D291" s="0">
         <v>54824</v>
       </c>
-      <c r="E291">
+      <c r="E291" s="0">
         <v>11085</v>
       </c>
-      <c r="F291">
+      <c r="F291" s="0">
         <v>2850</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
+    <row r="292">
+      <c r="A292" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="B292">
+      <c r="B292" s="0">
         <v>9762276</v>
       </c>
-      <c r="C292">
+      <c r="C292" s="0">
         <v>229245</v>
       </c>
-      <c r="D292">
+      <c r="D292" s="0">
         <v>55840</v>
       </c>
-      <c r="E292">
+      <c r="E292" s="0">
         <v>11082</v>
       </c>
-      <c r="F292">
+      <c r="F292" s="0">
         <v>2947</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
+    <row r="293">
+      <c r="A293" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="B293">
+      <c r="B293" s="0">
         <v>9873114</v>
       </c>
-      <c r="C293">
+      <c r="C293" s="0">
         <v>229732</v>
       </c>
-      <c r="D293">
+      <c r="D293" s="0">
         <v>56799</v>
       </c>
-      <c r="E293">
+      <c r="E293" s="0">
         <v>11120</v>
       </c>
-      <c r="F293">
+      <c r="F293" s="0">
         <v>2977</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
+    <row r="294">
+      <c r="A294" s="0" t="s">
         <v>298</v>
       </c>
-      <c r="B294">
+      <c r="B294" s="0">
         <v>9991822</v>
       </c>
-      <c r="C294">
+      <c r="C294" s="0">
         <v>230312</v>
       </c>
-      <c r="D294">
+      <c r="D294" s="0">
         <v>59275</v>
       </c>
-      <c r="E294">
+      <c r="E294" s="0">
         <v>11533</v>
       </c>
-      <c r="F294">
+      <c r="F294" s="0">
         <v>3110</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
+    <row r="295">
+      <c r="A295" s="0" t="s">
         <v>299</v>
       </c>
-      <c r="B295">
+      <c r="B295" s="0">
         <v>10122811</v>
       </c>
-      <c r="C295">
+      <c r="C295" s="0">
         <v>231659</v>
       </c>
-      <c r="D295">
+      <c r="D295" s="0">
         <v>61964</v>
       </c>
-      <c r="E295">
+      <c r="E295" s="0">
         <v>11952</v>
       </c>
-      <c r="F295">
+      <c r="F295" s="0">
         <v>3205</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -16885,65 +16887,65 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/covid19/data/USCaseDeathBeds.xlsx
+++ b/covid19/data/USCaseDeathBeds.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FAB0EA-4421-49BD-A1C6-082DDBBC004A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF63DC6A-CFD7-4D33-9CAD-319C938B62BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,22 +16,22 @@
     <sheet name="Deaths" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">'Data'!$A$1:$F$295</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$296</definedName>
   </definedNames>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" odcFile="C:\Users\Mark\Documents\My Data Sources\howe-hp_howehp Covid19 CaseDeathsBeds.odc" keepAlive="1" name="howe-hp_howehp Covid19 CaseDeathsBeds" type="5" refreshedVersion="6" background="1" refreshOnLoad="1" saveData="1">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" odcFile="C:\Users\Mark\Documents\My Data Sources\howe-hp_howehp Covid19 CaseDeathsBeds.odc" keepAlive="1" name="howe-hp_howehp Covid19 CaseDeathsBeds" type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=SQLOLEDB.1;Integrated Security=SSPI;Persist Security Info=True;Initial Catalog=Covid19;Data Source=howe-hp\howehp;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=4096;Workstation ID=HOWE-HP;Use Encryption for Data=False;Tag with column collation when possible=False" command="&quot;Covid19&quot;.&quot;dbo&quot;.&quot;CaseDeathsBeds&quot;" commandType="3"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="301">
   <si>
     <t>date</t>
   </si>
@@ -931,14 +931,16 @@
   </si>
   <si>
     <t>2020-11-10</t>
+  </si>
+  <si>
+    <t>2020-11-11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -968,7 +970,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1020,9 +1022,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$295</c:f>
+              <c:f>Data!$A$2:$A$296</c:f>
               <c:strCache>
-                <c:ptCount val="294"/>
+                <c:ptCount val="295"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -1904,16 +1906,19 @@
                 </c:pt>
                 <c:pt idx="293">
                   <c:v>2020-11-10</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>2020-11-11</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$295</c:f>
+              <c:f>Data!$B$2:$B$296</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="294"/>
+                <c:ptCount val="295"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2795,6 +2800,9 @@
                 </c:pt>
                 <c:pt idx="293">
                   <c:v>10122811</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>10267081</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2903,9 +2911,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$295</c:f>
+              <c:f>Data!$A$2:$A$296</c:f>
               <c:strCache>
-                <c:ptCount val="294"/>
+                <c:ptCount val="295"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -3787,16 +3795,19 @@
                 </c:pt>
                 <c:pt idx="293">
                   <c:v>2020-11-10</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>2020-11-11</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$2:$D$295</c:f>
+              <c:f>Data!$D$2:$D$296</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="294"/>
+                <c:ptCount val="295"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4678,6 +4689,9 @@
                 </c:pt>
                 <c:pt idx="293">
                   <c:v>61964</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>65368</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4786,9 +4800,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$295</c:f>
+              <c:f>Data!$A$2:$A$296</c:f>
               <c:strCache>
-                <c:ptCount val="294"/>
+                <c:ptCount val="295"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -5670,16 +5684,19 @@
                 </c:pt>
                 <c:pt idx="293">
                   <c:v>2020-11-10</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>2020-11-11</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$295</c:f>
+              <c:f>Data!$E$2:$E$296</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="294"/>
+                <c:ptCount val="295"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6561,6 +6578,9 @@
                 </c:pt>
                 <c:pt idx="293">
                   <c:v>11952</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>12518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6669,9 +6689,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$295</c:f>
+              <c:f>Data!$A$2:$A$296</c:f>
               <c:strCache>
-                <c:ptCount val="294"/>
+                <c:ptCount val="295"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -7553,16 +7573,19 @@
                 </c:pt>
                 <c:pt idx="293">
                   <c:v>2020-11-10</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>2020-11-11</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$295</c:f>
+              <c:f>Data!$F$2:$F$296</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="294"/>
+                <c:ptCount val="295"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8444,6 +8467,9 @@
                 </c:pt>
                 <c:pt idx="293">
                   <c:v>3205</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>3367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8552,9 +8578,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$295</c:f>
+              <c:f>Data!$A$2:$A$296</c:f>
               <c:strCache>
-                <c:ptCount val="294"/>
+                <c:ptCount val="295"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -9436,16 +9462,19 @@
                 </c:pt>
                 <c:pt idx="293">
                   <c:v>2020-11-10</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>2020-11-11</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$295</c:f>
+              <c:f>Data!$C$2:$C$296</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="294"/>
+                <c:ptCount val="295"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10327,6 +10356,9 @@
                 </c:pt>
                 <c:pt idx="293">
                   <c:v>231659</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>233080</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10607,7 +10639,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="howe-hp_howehp Covid19 CaseDeathsBeds" refreshOnLoad="1" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="howe-hp_howehp Covid19 CaseDeathsBeds" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="7">
     <queryTableFields count="6">
       <queryTableField id="1" name="date" tableColumnId="1"/>
@@ -10622,9 +10654,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F295" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F295" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F295">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F296" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F296" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F296">
     <sortCondition ref="A1:A254"/>
   </sortState>
   <tableColumns count="6">
@@ -10960,7 +10992,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F295"/>
+  <dimension ref="A1:F296"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:F295"/>
@@ -10968,5917 +11000,5936 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" bestFit="1" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" bestFit="1" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" bestFit="1" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" bestFit="1" width="6.42578125" customWidth="1"/>
-    <col min="6" max="6" bestFit="1" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="0">
-        <v>0</v>
-      </c>
-      <c r="C2" s="0">
-        <v>0</v>
-      </c>
-      <c r="D2" s="0">
-        <v>0</v>
-      </c>
-      <c r="E2" s="0">
-        <v>0</v>
-      </c>
-      <c r="F2" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="0">
-        <v>0</v>
-      </c>
-      <c r="C3" s="0">
-        <v>0</v>
-      </c>
-      <c r="D3" s="0">
-        <v>0</v>
-      </c>
-      <c r="E3" s="0">
-        <v>0</v>
-      </c>
-      <c r="F3" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="0">
-        <v>0</v>
-      </c>
-      <c r="C4" s="0">
-        <v>0</v>
-      </c>
-      <c r="D4" s="0">
-        <v>0</v>
-      </c>
-      <c r="E4" s="0">
-        <v>0</v>
-      </c>
-      <c r="F4" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="0">
-        <v>0</v>
-      </c>
-      <c r="C5" s="0">
-        <v>0</v>
-      </c>
-      <c r="D5" s="0">
-        <v>0</v>
-      </c>
-      <c r="E5" s="0">
-        <v>0</v>
-      </c>
-      <c r="F5" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0">
-        <v>0</v>
-      </c>
-      <c r="C6" s="0">
-        <v>0</v>
-      </c>
-      <c r="D6" s="0">
-        <v>0</v>
-      </c>
-      <c r="E6" s="0">
-        <v>0</v>
-      </c>
-      <c r="F6" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="0">
-        <v>0</v>
-      </c>
-      <c r="C7" s="0">
-        <v>0</v>
-      </c>
-      <c r="D7" s="0">
-        <v>0</v>
-      </c>
-      <c r="E7" s="0">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="0">
-        <v>0</v>
-      </c>
-      <c r="C8" s="0">
-        <v>0</v>
-      </c>
-      <c r="D8" s="0">
-        <v>0</v>
-      </c>
-      <c r="E8" s="0">
-        <v>0</v>
-      </c>
-      <c r="F8" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="0">
-        <v>0</v>
-      </c>
-      <c r="C9" s="0">
-        <v>0</v>
-      </c>
-      <c r="D9" s="0">
-        <v>0</v>
-      </c>
-      <c r="E9" s="0">
-        <v>0</v>
-      </c>
-      <c r="F9" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="0">
-        <v>0</v>
-      </c>
-      <c r="C10" s="0">
-        <v>0</v>
-      </c>
-      <c r="D10" s="0">
-        <v>0</v>
-      </c>
-      <c r="E10" s="0">
-        <v>0</v>
-      </c>
-      <c r="F10" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="0">
-        <v>0</v>
-      </c>
-      <c r="C11" s="0">
-        <v>0</v>
-      </c>
-      <c r="D11" s="0">
-        <v>0</v>
-      </c>
-      <c r="E11" s="0">
-        <v>0</v>
-      </c>
-      <c r="F11" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="0">
-        <v>0</v>
-      </c>
-      <c r="C12" s="0">
-        <v>0</v>
-      </c>
-      <c r="D12" s="0">
-        <v>0</v>
-      </c>
-      <c r="E12" s="0">
-        <v>0</v>
-      </c>
-      <c r="F12" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="0">
-        <v>0</v>
-      </c>
-      <c r="C13" s="0">
-        <v>0</v>
-      </c>
-      <c r="D13" s="0">
-        <v>0</v>
-      </c>
-      <c r="E13" s="0">
-        <v>0</v>
-      </c>
-      <c r="F13" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="0">
-        <v>0</v>
-      </c>
-      <c r="C14" s="0">
-        <v>0</v>
-      </c>
-      <c r="D14" s="0">
-        <v>0</v>
-      </c>
-      <c r="E14" s="0">
-        <v>0</v>
-      </c>
-      <c r="F14" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="0">
-        <v>0</v>
-      </c>
-      <c r="C15" s="0">
-        <v>0</v>
-      </c>
-      <c r="D15" s="0">
-        <v>0</v>
-      </c>
-      <c r="E15" s="0">
-        <v>0</v>
-      </c>
-      <c r="F15" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="0">
-        <v>0</v>
-      </c>
-      <c r="C16" s="0">
-        <v>0</v>
-      </c>
-      <c r="D16" s="0">
-        <v>0</v>
-      </c>
-      <c r="E16" s="0">
-        <v>0</v>
-      </c>
-      <c r="F16" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="0">
-        <v>0</v>
-      </c>
-      <c r="C17" s="0">
-        <v>0</v>
-      </c>
-      <c r="D17" s="0">
-        <v>0</v>
-      </c>
-      <c r="E17" s="0">
-        <v>0</v>
-      </c>
-      <c r="F17" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="0">
-        <v>0</v>
-      </c>
-      <c r="C18" s="0">
-        <v>0</v>
-      </c>
-      <c r="D18" s="0">
-        <v>0</v>
-      </c>
-      <c r="E18" s="0">
-        <v>0</v>
-      </c>
-      <c r="F18" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="0">
-        <v>0</v>
-      </c>
-      <c r="C19" s="0">
-        <v>0</v>
-      </c>
-      <c r="D19" s="0">
-        <v>0</v>
-      </c>
-      <c r="E19" s="0">
-        <v>0</v>
-      </c>
-      <c r="F19" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0" t="s">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="0">
-        <v>0</v>
-      </c>
-      <c r="C20" s="0">
-        <v>0</v>
-      </c>
-      <c r="D20" s="0">
-        <v>0</v>
-      </c>
-      <c r="E20" s="0">
-        <v>0</v>
-      </c>
-      <c r="F20" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0" t="s">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="0">
-        <v>0</v>
-      </c>
-      <c r="C21" s="0">
-        <v>0</v>
-      </c>
-      <c r="D21" s="0">
-        <v>0</v>
-      </c>
-      <c r="E21" s="0">
-        <v>0</v>
-      </c>
-      <c r="F21" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0" t="s">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="0">
-        <v>0</v>
-      </c>
-      <c r="C22" s="0">
-        <v>0</v>
-      </c>
-      <c r="D22" s="0">
-        <v>0</v>
-      </c>
-      <c r="E22" s="0">
-        <v>0</v>
-      </c>
-      <c r="F22" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0" t="s">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="0">
-        <v>0</v>
-      </c>
-      <c r="C23" s="0">
-        <v>0</v>
-      </c>
-      <c r="D23" s="0">
-        <v>0</v>
-      </c>
-      <c r="E23" s="0">
-        <v>0</v>
-      </c>
-      <c r="F23" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0" t="s">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="0">
-        <v>0</v>
-      </c>
-      <c r="C24" s="0">
-        <v>0</v>
-      </c>
-      <c r="D24" s="0">
-        <v>0</v>
-      </c>
-      <c r="E24" s="0">
-        <v>0</v>
-      </c>
-      <c r="F24" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0" t="s">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="0">
-        <v>0</v>
-      </c>
-      <c r="C25" s="0">
-        <v>0</v>
-      </c>
-      <c r="D25" s="0">
-        <v>0</v>
-      </c>
-      <c r="E25" s="0">
-        <v>0</v>
-      </c>
-      <c r="F25" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0" t="s">
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="0">
-        <v>0</v>
-      </c>
-      <c r="C26" s="0">
-        <v>0</v>
-      </c>
-      <c r="D26" s="0">
-        <v>0</v>
-      </c>
-      <c r="E26" s="0">
-        <v>0</v>
-      </c>
-      <c r="F26" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0" t="s">
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="0">
-        <v>0</v>
-      </c>
-      <c r="C27" s="0">
-        <v>0</v>
-      </c>
-      <c r="D27" s="0">
-        <v>0</v>
-      </c>
-      <c r="E27" s="0">
-        <v>0</v>
-      </c>
-      <c r="F27" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0" t="s">
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="0">
-        <v>0</v>
-      </c>
-      <c r="C28" s="0">
-        <v>0</v>
-      </c>
-      <c r="D28" s="0">
-        <v>0</v>
-      </c>
-      <c r="E28" s="0">
-        <v>0</v>
-      </c>
-      <c r="F28" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0" t="s">
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="0">
-        <v>0</v>
-      </c>
-      <c r="C29" s="0">
-        <v>0</v>
-      </c>
-      <c r="D29" s="0">
-        <v>0</v>
-      </c>
-      <c r="E29" s="0">
-        <v>0</v>
-      </c>
-      <c r="F29" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0" t="s">
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="0">
-        <v>0</v>
-      </c>
-      <c r="C30" s="0">
-        <v>0</v>
-      </c>
-      <c r="D30" s="0">
-        <v>0</v>
-      </c>
-      <c r="E30" s="0">
-        <v>0</v>
-      </c>
-      <c r="F30" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0" t="s">
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="0">
-        <v>0</v>
-      </c>
-      <c r="C31" s="0">
-        <v>0</v>
-      </c>
-      <c r="D31" s="0">
-        <v>0</v>
-      </c>
-      <c r="E31" s="0">
-        <v>0</v>
-      </c>
-      <c r="F31" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0" t="s">
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="0">
-        <v>0</v>
-      </c>
-      <c r="C32" s="0">
-        <v>0</v>
-      </c>
-      <c r="D32" s="0">
-        <v>0</v>
-      </c>
-      <c r="E32" s="0">
-        <v>0</v>
-      </c>
-      <c r="F32" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0" t="s">
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="0">
-        <v>0</v>
-      </c>
-      <c r="C33" s="0">
-        <v>0</v>
-      </c>
-      <c r="D33" s="0">
-        <v>0</v>
-      </c>
-      <c r="E33" s="0">
-        <v>0</v>
-      </c>
-      <c r="F33" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0" t="s">
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="0">
-        <v>0</v>
-      </c>
-      <c r="C34" s="0">
-        <v>0</v>
-      </c>
-      <c r="D34" s="0">
-        <v>0</v>
-      </c>
-      <c r="E34" s="0">
-        <v>0</v>
-      </c>
-      <c r="F34" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0" t="s">
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="0">
-        <v>0</v>
-      </c>
-      <c r="C35" s="0">
-        <v>0</v>
-      </c>
-      <c r="D35" s="0">
-        <v>0</v>
-      </c>
-      <c r="E35" s="0">
-        <v>0</v>
-      </c>
-      <c r="F35" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0" t="s">
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="0">
-        <v>0</v>
-      </c>
-      <c r="C36" s="0">
-        <v>0</v>
-      </c>
-      <c r="D36" s="0">
-        <v>0</v>
-      </c>
-      <c r="E36" s="0">
-        <v>0</v>
-      </c>
-      <c r="F36" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0" t="s">
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="0">
-        <v>0</v>
-      </c>
-      <c r="C37" s="0">
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
         <v>2</v>
       </c>
-      <c r="D37" s="0">
-        <v>0</v>
-      </c>
-      <c r="E37" s="0">
-        <v>0</v>
-      </c>
-      <c r="F37" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0" t="s">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="0">
-        <v>0</v>
-      </c>
-      <c r="C38" s="0">
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
         <v>2</v>
       </c>
-      <c r="D38" s="0">
-        <v>0</v>
-      </c>
-      <c r="E38" s="0">
-        <v>0</v>
-      </c>
-      <c r="F38" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0" t="s">
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="0">
-        <v>0</v>
-      </c>
-      <c r="C39" s="0">
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
         <v>4</v>
       </c>
-      <c r="D39" s="0">
-        <v>0</v>
-      </c>
-      <c r="E39" s="0">
-        <v>0</v>
-      </c>
-      <c r="F39" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0" t="s">
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="0">
+      <c r="B40">
         <v>18</v>
       </c>
-      <c r="C40" s="0">
+      <c r="C40">
         <v>5</v>
       </c>
-      <c r="D40" s="0">
-        <v>0</v>
-      </c>
-      <c r="E40" s="0">
-        <v>0</v>
-      </c>
-      <c r="F40" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0" t="s">
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="0">
+      <c r="B41">
         <v>50</v>
       </c>
-      <c r="C41" s="0">
+      <c r="C41">
         <v>8</v>
       </c>
-      <c r="D41" s="0">
-        <v>0</v>
-      </c>
-      <c r="E41" s="0">
-        <v>0</v>
-      </c>
-      <c r="F41" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0" t="s">
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="0">
+      <c r="B42">
         <v>94</v>
       </c>
-      <c r="C42" s="0">
+      <c r="C42">
         <v>11</v>
       </c>
-      <c r="D42" s="0">
-        <v>0</v>
-      </c>
-      <c r="E42" s="0">
-        <v>0</v>
-      </c>
-      <c r="F42" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0" t="s">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="0">
+      <c r="B43">
         <v>144</v>
       </c>
-      <c r="C43" s="0">
+      <c r="C43">
         <v>14</v>
       </c>
-      <c r="D43" s="0">
-        <v>0</v>
-      </c>
-      <c r="E43" s="0">
-        <v>0</v>
-      </c>
-      <c r="F43" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0" t="s">
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="0">
+      <c r="B44">
         <v>282</v>
       </c>
-      <c r="C44" s="0">
+      <c r="C44">
         <v>16</v>
       </c>
-      <c r="D44" s="0">
-        <v>0</v>
-      </c>
-      <c r="E44" s="0">
-        <v>0</v>
-      </c>
-      <c r="F44" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0" t="s">
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="0">
+      <c r="B45">
         <v>386</v>
       </c>
-      <c r="C45" s="0">
+      <c r="C45">
         <v>20</v>
       </c>
-      <c r="D45" s="0">
-        <v>0</v>
-      </c>
-      <c r="E45" s="0">
-        <v>0</v>
-      </c>
-      <c r="F45" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0" t="s">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="0">
+      <c r="B46">
         <v>499</v>
       </c>
-      <c r="C46" s="0">
+      <c r="C46">
         <v>26</v>
       </c>
-      <c r="D46" s="0">
-        <v>0</v>
-      </c>
-      <c r="E46" s="0">
-        <v>0</v>
-      </c>
-      <c r="F46" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0" t="s">
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="0">
+      <c r="B47">
         <v>672</v>
       </c>
-      <c r="C47" s="0">
+      <c r="C47">
         <v>27</v>
       </c>
-      <c r="D47" s="0">
-        <v>0</v>
-      </c>
-      <c r="E47" s="0">
-        <v>0</v>
-      </c>
-      <c r="F47" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0" t="s">
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="0">
+      <c r="B48">
         <v>871</v>
       </c>
-      <c r="C48" s="0">
+      <c r="C48">
         <v>31</v>
       </c>
-      <c r="D48" s="0">
-        <v>0</v>
-      </c>
-      <c r="E48" s="0">
-        <v>0</v>
-      </c>
-      <c r="F48" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0" t="s">
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="0">
+      <c r="B49">
         <v>1163</v>
       </c>
-      <c r="C49" s="0">
+      <c r="C49">
         <v>35</v>
       </c>
-      <c r="D49" s="0">
-        <v>0</v>
-      </c>
-      <c r="E49" s="0">
-        <v>0</v>
-      </c>
-      <c r="F49" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0" t="s">
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>54</v>
       </c>
-      <c r="B50" s="0">
+      <c r="B50">
         <v>1554</v>
       </c>
-      <c r="C50" s="0">
+      <c r="C50">
         <v>37</v>
       </c>
-      <c r="D50" s="0">
-        <v>0</v>
-      </c>
-      <c r="E50" s="0">
-        <v>0</v>
-      </c>
-      <c r="F50" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0" t="s">
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="0">
+      <c r="B51">
         <v>2056</v>
       </c>
-      <c r="C51" s="0">
+      <c r="C51">
         <v>43</v>
       </c>
-      <c r="D51" s="0">
-        <v>0</v>
-      </c>
-      <c r="E51" s="0">
-        <v>0</v>
-      </c>
-      <c r="F51" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0" t="s">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>56</v>
       </c>
-      <c r="B52" s="0">
+      <c r="B52">
         <v>2729</v>
       </c>
-      <c r="C52" s="0">
+      <c r="C52">
         <v>51</v>
       </c>
-      <c r="D52" s="0">
-        <v>0</v>
-      </c>
-      <c r="E52" s="0">
-        <v>0</v>
-      </c>
-      <c r="F52" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0" t="s">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>57</v>
       </c>
-      <c r="B53" s="0">
+      <c r="B53">
         <v>3788</v>
       </c>
-      <c r="C53" s="0">
+      <c r="C53">
         <v>55</v>
       </c>
-      <c r="D53" s="0">
-        <v>0</v>
-      </c>
-      <c r="E53" s="0">
-        <v>0</v>
-      </c>
-      <c r="F53" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0" t="s">
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>58</v>
       </c>
-      <c r="B54" s="0">
+      <c r="B54">
         <v>4705</v>
       </c>
-      <c r="C54" s="0">
+      <c r="C54">
         <v>64</v>
       </c>
-      <c r="D54" s="0">
-        <v>0</v>
-      </c>
-      <c r="E54" s="0">
-        <v>0</v>
-      </c>
-      <c r="F54" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0" t="s">
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>59</v>
       </c>
-      <c r="B55" s="0">
+      <c r="B55">
         <v>5997</v>
       </c>
-      <c r="C55" s="0">
+      <c r="C55">
         <v>79</v>
       </c>
-      <c r="D55" s="0">
-        <v>0</v>
-      </c>
-      <c r="E55" s="0">
-        <v>0</v>
-      </c>
-      <c r="F55" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="0" t="s">
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>60</v>
       </c>
-      <c r="B56" s="0">
+      <c r="B56">
         <v>7751</v>
       </c>
-      <c r="C56" s="0">
+      <c r="C56">
         <v>100</v>
       </c>
-      <c r="D56" s="0">
-        <v>0</v>
-      </c>
-      <c r="E56" s="0">
-        <v>0</v>
-      </c>
-      <c r="F56" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="0" t="s">
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>61</v>
       </c>
-      <c r="B57" s="0">
+      <c r="B57">
         <v>10321</v>
       </c>
-      <c r="C57" s="0">
+      <c r="C57">
         <v>123</v>
       </c>
-      <c r="D57" s="0">
+      <c r="D57">
         <v>325</v>
       </c>
-      <c r="E57" s="0">
-        <v>0</v>
-      </c>
-      <c r="F57" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="0" t="s">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>62</v>
       </c>
-      <c r="B58" s="0">
+      <c r="B58">
         <v>13344</v>
       </c>
-      <c r="C58" s="0">
+      <c r="C58">
         <v>155</v>
       </c>
-      <c r="D58" s="0">
+      <c r="D58">
         <v>416</v>
       </c>
-      <c r="E58" s="0">
-        <v>0</v>
-      </c>
-      <c r="F58" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="0" t="s">
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>63</v>
       </c>
-      <c r="B59" s="0">
+      <c r="B59">
         <v>18018</v>
       </c>
-      <c r="C59" s="0">
+      <c r="C59">
         <v>203</v>
       </c>
-      <c r="D59" s="0">
+      <c r="D59">
         <v>617</v>
       </c>
-      <c r="E59" s="0">
-        <v>0</v>
-      </c>
-      <c r="F59" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="0" t="s">
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>64</v>
       </c>
-      <c r="B60" s="0">
+      <c r="B60">
         <v>24111</v>
       </c>
-      <c r="C60" s="0">
+      <c r="C60">
         <v>272</v>
       </c>
-      <c r="D60" s="0">
+      <c r="D60">
         <v>1042</v>
       </c>
-      <c r="E60" s="0">
-        <v>0</v>
-      </c>
-      <c r="F60" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="0" t="s">
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>65</v>
       </c>
-      <c r="B61" s="0">
+      <c r="B61">
         <v>30908</v>
       </c>
-      <c r="C61" s="0">
+      <c r="C61">
         <v>334</v>
       </c>
-      <c r="D61" s="0">
+      <c r="D61">
         <v>1436</v>
       </c>
-      <c r="E61" s="0">
-        <v>0</v>
-      </c>
-      <c r="F61" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="0" t="s">
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>66</v>
       </c>
-      <c r="B62" s="0">
+      <c r="B62">
         <v>40064</v>
       </c>
-      <c r="C62" s="0">
+      <c r="C62">
         <v>480</v>
       </c>
-      <c r="D62" s="0">
+      <c r="D62">
         <v>2155</v>
       </c>
-      <c r="E62" s="0">
-        <v>0</v>
-      </c>
-      <c r="F62" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="0" t="s">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>67</v>
       </c>
-      <c r="B63" s="0">
+      <c r="B63">
         <v>51460</v>
       </c>
-      <c r="C63" s="0">
+      <c r="C63">
         <v>581</v>
       </c>
-      <c r="D63" s="0">
+      <c r="D63">
         <v>2770</v>
       </c>
-      <c r="E63" s="0">
-        <v>0</v>
-      </c>
-      <c r="F63" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="0" t="s">
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>68</v>
       </c>
-      <c r="B64" s="0">
+      <c r="B64">
         <v>62164</v>
       </c>
-      <c r="C64" s="0">
+      <c r="C64">
         <v>815</v>
       </c>
-      <c r="D64" s="0">
+      <c r="D64">
         <v>3902</v>
       </c>
-      <c r="E64" s="0">
-        <v>0</v>
-      </c>
-      <c r="F64" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="0" t="s">
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>69</v>
       </c>
-      <c r="B65" s="0">
+      <c r="B65">
         <v>75085</v>
       </c>
-      <c r="C65" s="0">
+      <c r="C65">
         <v>1050</v>
       </c>
-      <c r="D65" s="0">
+      <c r="D65">
         <v>5062</v>
       </c>
-      <c r="E65" s="0">
-        <v>0</v>
-      </c>
-      <c r="F65" s="0">
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
         <v>167</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="0" t="s">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>70</v>
       </c>
-      <c r="B66" s="0">
+      <c r="B66">
         <v>92629</v>
       </c>
-      <c r="C66" s="0">
+      <c r="C66">
         <v>1369</v>
       </c>
-      <c r="D66" s="0">
+      <c r="D66">
         <v>7757</v>
       </c>
-      <c r="E66" s="0">
+      <c r="E66">
         <v>1299</v>
       </c>
-      <c r="F66" s="0">
+      <c r="F66">
         <v>258</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="0" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>71</v>
       </c>
-      <c r="B67" s="0">
+      <c r="B67">
         <v>111882</v>
       </c>
-      <c r="C67" s="0">
+      <c r="C67">
         <v>1775</v>
       </c>
-      <c r="D67" s="0">
+      <c r="D67">
         <v>10932</v>
       </c>
-      <c r="E67" s="0">
+      <c r="E67">
         <v>1792</v>
       </c>
-      <c r="F67" s="0">
+      <c r="F67">
         <v>324</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="0" t="s">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>72</v>
       </c>
-      <c r="B68" s="0">
+      <c r="B68">
         <v>131468</v>
       </c>
-      <c r="C68" s="0">
+      <c r="C68">
         <v>2319</v>
       </c>
-      <c r="D68" s="0">
+      <c r="D68">
         <v>12382</v>
       </c>
-      <c r="E68" s="0">
+      <c r="E68">
         <v>2174</v>
       </c>
-      <c r="F68" s="0">
+      <c r="F68">
         <v>390</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="0" t="s">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>73</v>
       </c>
-      <c r="B69" s="0">
+      <c r="B69">
         <v>151038</v>
       </c>
-      <c r="C69" s="0">
+      <c r="C69">
         <v>2834</v>
       </c>
-      <c r="D69" s="0">
+      <c r="D69">
         <v>14026</v>
       </c>
-      <c r="E69" s="0">
+      <c r="E69">
         <v>2456</v>
       </c>
-      <c r="F69" s="0">
+      <c r="F69">
         <v>439</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="0" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>74</v>
       </c>
-      <c r="B70" s="0">
+      <c r="B70">
         <v>172729</v>
       </c>
-      <c r="C70" s="0">
+      <c r="C70">
         <v>3423</v>
       </c>
-      <c r="D70" s="0">
+      <c r="D70">
         <v>15772</v>
       </c>
-      <c r="E70" s="0">
+      <c r="E70">
         <v>3087</v>
       </c>
-      <c r="F70" s="0">
+      <c r="F70">
         <v>451</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="0" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>75</v>
       </c>
-      <c r="B71" s="0">
+      <c r="B71">
         <v>197569</v>
       </c>
-      <c r="C71" s="0">
+      <c r="C71">
         <v>4313</v>
       </c>
-      <c r="D71" s="0">
+      <c r="D71">
         <v>18082</v>
       </c>
-      <c r="E71" s="0">
+      <c r="E71">
         <v>3487</v>
       </c>
-      <c r="F71" s="0">
+      <c r="F71">
         <v>507</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="0" t="s">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>76</v>
       </c>
-      <c r="B72" s="0">
+      <c r="B72">
         <v>223647</v>
       </c>
-      <c r="C72" s="0">
+      <c r="C72">
         <v>5324</v>
       </c>
-      <c r="D72" s="0">
+      <c r="D72">
         <v>20775</v>
       </c>
-      <c r="E72" s="0">
+      <c r="E72">
         <v>3937</v>
       </c>
-      <c r="F72" s="0">
+      <c r="F72">
         <v>561</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="0" t="s">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>77</v>
       </c>
-      <c r="B73" s="0">
+      <c r="B73">
         <v>251684</v>
       </c>
-      <c r="C73" s="0">
+      <c r="C73">
         <v>6496</v>
       </c>
-      <c r="D73" s="0">
+      <c r="D73">
         <v>22956</v>
       </c>
-      <c r="E73" s="0">
+      <c r="E73">
         <v>4513</v>
       </c>
-      <c r="F73" s="0">
+      <c r="F73">
         <v>574</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="0" t="s">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>78</v>
       </c>
-      <c r="B74" s="0">
+      <c r="B74">
         <v>283453</v>
       </c>
-      <c r="C74" s="0">
+      <c r="C74">
         <v>7782</v>
       </c>
-      <c r="D74" s="0">
+      <c r="D74">
         <v>25729</v>
       </c>
-      <c r="E74" s="0">
+      <c r="E74">
         <v>4928</v>
       </c>
-      <c r="F74" s="0">
+      <c r="F74">
         <v>605</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="0" t="s">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>79</v>
       </c>
-      <c r="B75" s="0">
+      <c r="B75">
         <v>316420</v>
       </c>
-      <c r="C75" s="0">
+      <c r="C75">
         <v>9264</v>
       </c>
-      <c r="D75" s="0">
+      <c r="D75">
         <v>30266</v>
       </c>
-      <c r="E75" s="0">
+      <c r="E75">
         <v>5500</v>
       </c>
-      <c r="F75" s="0">
+      <c r="F75">
         <v>656</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="0" t="s">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>80</v>
       </c>
-      <c r="B76" s="0">
+      <c r="B76">
         <v>342028</v>
       </c>
-      <c r="C76" s="0">
+      <c r="C76">
         <v>10604</v>
       </c>
-      <c r="D76" s="0">
+      <c r="D76">
         <v>32169</v>
       </c>
-      <c r="E76" s="0">
+      <c r="E76">
         <v>5811</v>
       </c>
-      <c r="F76" s="0">
+      <c r="F76">
         <v>652</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="0" t="s">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>81</v>
       </c>
-      <c r="B77" s="0">
+      <c r="B77">
         <v>370620</v>
       </c>
-      <c r="C77" s="0">
+      <c r="C77">
         <v>11922</v>
       </c>
-      <c r="D77" s="0">
+      <c r="D77">
         <v>36156</v>
       </c>
-      <c r="E77" s="0">
+      <c r="E77">
         <v>7079</v>
       </c>
-      <c r="F77" s="0">
+      <c r="F77">
         <v>2961</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="0" t="s">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>82</v>
       </c>
-      <c r="B78" s="0">
+      <c r="B78">
         <v>401241</v>
       </c>
-      <c r="C78" s="0">
+      <c r="C78">
         <v>13946</v>
       </c>
-      <c r="D78" s="0">
+      <c r="D78">
         <v>43799</v>
       </c>
-      <c r="E78" s="0">
+      <c r="E78">
         <v>9978</v>
       </c>
-      <c r="F78" s="0">
+      <c r="F78">
         <v>4076</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="0" t="s">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>83</v>
       </c>
-      <c r="B79" s="0">
+      <c r="B79">
         <v>432216</v>
       </c>
-      <c r="C79" s="0">
+      <c r="C79">
         <v>15956</v>
       </c>
-      <c r="D79" s="0">
+      <c r="D79">
         <v>45492</v>
       </c>
-      <c r="E79" s="0">
+      <c r="E79">
         <v>10337</v>
       </c>
-      <c r="F79" s="0">
+      <c r="F79">
         <v>4131</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="0" t="s">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>84</v>
       </c>
-      <c r="B80" s="0">
+      <c r="B80">
         <v>466856</v>
       </c>
-      <c r="C80" s="0">
+      <c r="C80">
         <v>17999</v>
       </c>
-      <c r="D80" s="0">
+      <c r="D80">
         <v>51305</v>
       </c>
-      <c r="E80" s="0">
+      <c r="E80">
         <v>12450</v>
       </c>
-      <c r="F80" s="0">
+      <c r="F80">
         <v>5794</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="0" t="s">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>85</v>
       </c>
-      <c r="B81" s="0">
+      <c r="B81">
         <v>501102</v>
       </c>
-      <c r="C81" s="0">
+      <c r="C81">
         <v>20107</v>
       </c>
-      <c r="D81" s="0">
+      <c r="D81">
         <v>53166</v>
       </c>
-      <c r="E81" s="0">
+      <c r="E81">
         <v>12693</v>
       </c>
-      <c r="F81" s="0">
+      <c r="F81">
         <v>5937</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="0" t="s">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>86</v>
       </c>
-      <c r="B82" s="0">
+      <c r="B82">
         <v>531728</v>
       </c>
-      <c r="C82" s="0">
+      <c r="C82">
         <v>22161</v>
       </c>
-      <c r="D82" s="0">
+      <c r="D82">
         <v>55573</v>
       </c>
-      <c r="E82" s="0">
+      <c r="E82">
         <v>13285</v>
       </c>
-      <c r="F82" s="0">
+      <c r="F82">
         <v>5978</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="0" t="s">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>87</v>
       </c>
-      <c r="B83" s="0">
+      <c r="B83">
         <v>559715</v>
       </c>
-      <c r="C83" s="0">
+      <c r="C83">
         <v>23864</v>
       </c>
-      <c r="D83" s="0">
+      <c r="D83">
         <v>55427</v>
       </c>
-      <c r="E83" s="0">
+      <c r="E83">
         <v>13620</v>
       </c>
-      <c r="F83" s="0">
+      <c r="F83">
         <v>5986</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="0" t="s">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>88</v>
       </c>
-      <c r="B84" s="0">
+      <c r="B84">
         <v>584473</v>
       </c>
-      <c r="C84" s="0">
+      <c r="C84">
         <v>25507</v>
       </c>
-      <c r="D84" s="0">
+      <c r="D84">
         <v>56184</v>
       </c>
-      <c r="E84" s="0">
+      <c r="E84">
         <v>13620</v>
       </c>
-      <c r="F84" s="0">
+      <c r="F84">
         <v>6168</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="0" t="s">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>89</v>
       </c>
-      <c r="B85" s="0">
+      <c r="B85">
         <v>610348</v>
       </c>
-      <c r="C85" s="0">
+      <c r="C85">
         <v>27843</v>
       </c>
-      <c r="D85" s="0">
+      <c r="D85">
         <v>59610</v>
       </c>
-      <c r="E85" s="0">
+      <c r="E85">
         <v>14039</v>
       </c>
-      <c r="F85" s="0">
+      <c r="F85">
         <v>5975</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="0" t="s">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>90</v>
       </c>
-      <c r="B86" s="0">
+      <c r="B86">
         <v>640103</v>
       </c>
-      <c r="C86" s="0">
+      <c r="C86">
         <v>30387</v>
       </c>
-      <c r="D86" s="0">
+      <c r="D86">
         <v>59940</v>
       </c>
-      <c r="E86" s="0">
+      <c r="E86">
         <v>14646</v>
       </c>
-      <c r="F86" s="0">
+      <c r="F86">
         <v>6032</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="0" t="s">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>91</v>
       </c>
-      <c r="B87" s="0">
+      <c r="B87">
         <v>671592</v>
       </c>
-      <c r="C87" s="0">
+      <c r="C87">
         <v>32587</v>
       </c>
-      <c r="D87" s="0">
+      <c r="D87">
         <v>59499</v>
       </c>
-      <c r="E87" s="0">
+      <c r="E87">
         <v>15130</v>
       </c>
-      <c r="F87" s="0">
+      <c r="F87">
         <v>5940</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="0" t="s">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>92</v>
       </c>
-      <c r="B88" s="0">
+      <c r="B88">
         <v>703593</v>
       </c>
-      <c r="C88" s="0">
+      <c r="C88">
         <v>34706</v>
       </c>
-      <c r="D88" s="0">
+      <c r="D88">
         <v>58895</v>
       </c>
-      <c r="E88" s="0">
+      <c r="E88">
         <v>14890</v>
       </c>
-      <c r="F88" s="0">
+      <c r="F88">
         <v>6096</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="0" t="s">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>93</v>
       </c>
-      <c r="B89" s="0">
+      <c r="B89">
         <v>731433</v>
       </c>
-      <c r="C89" s="0">
+      <c r="C89">
         <v>36599</v>
       </c>
-      <c r="D89" s="0">
+      <c r="D89">
         <v>57761</v>
       </c>
-      <c r="E89" s="0">
+      <c r="E89">
         <v>14769</v>
       </c>
-      <c r="F89" s="0">
+      <c r="F89">
         <v>5729</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="0" t="s">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>94</v>
       </c>
-      <c r="B90" s="0">
+      <c r="B90">
         <v>758834</v>
       </c>
-      <c r="C90" s="0">
+      <c r="C90">
         <v>38371</v>
       </c>
-      <c r="D90" s="0">
+      <c r="D90">
         <v>56486</v>
       </c>
-      <c r="E90" s="0">
+      <c r="E90">
         <v>14385</v>
       </c>
-      <c r="F90" s="0">
+      <c r="F90">
         <v>5603</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="0" t="s">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>95</v>
       </c>
-      <c r="B91" s="0">
+      <c r="B91">
         <v>784780</v>
       </c>
-      <c r="C91" s="0">
+      <c r="C91">
         <v>40169</v>
       </c>
-      <c r="D91" s="0">
+      <c r="D91">
         <v>56734</v>
       </c>
-      <c r="E91" s="0">
+      <c r="E91">
         <v>14463</v>
       </c>
-      <c r="F91" s="0">
+      <c r="F91">
         <v>5567</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="0" t="s">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>96</v>
       </c>
-      <c r="B92" s="0">
+      <c r="B92">
         <v>811058</v>
       </c>
-      <c r="C92" s="0">
+      <c r="C92">
         <v>42636</v>
       </c>
-      <c r="D92" s="0">
+      <c r="D92">
         <v>59780</v>
       </c>
-      <c r="E92" s="0">
+      <c r="E92">
         <v>14941</v>
       </c>
-      <c r="F92" s="0">
+      <c r="F92">
         <v>5514</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="0" t="s">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>97</v>
       </c>
-      <c r="B93" s="0">
+      <c r="B93">
         <v>840062</v>
       </c>
-      <c r="C93" s="0">
+      <c r="C93">
         <v>44734</v>
       </c>
-      <c r="D93" s="0">
+      <c r="D93">
         <v>59202</v>
       </c>
-      <c r="E93" s="0">
+      <c r="E93">
         <v>15013</v>
       </c>
-      <c r="F93" s="0">
+      <c r="F93">
         <v>5474</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="0" t="s">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>98</v>
       </c>
-      <c r="B94" s="0">
+      <c r="B94">
         <v>872048</v>
       </c>
-      <c r="C94" s="0">
+      <c r="C94">
         <v>46525</v>
       </c>
-      <c r="D94" s="0">
+      <c r="D94">
         <v>58989</v>
       </c>
-      <c r="E94" s="0">
+      <c r="E94">
         <v>14744</v>
       </c>
-      <c r="F94" s="0">
+      <c r="F94">
         <v>5464</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="0" t="s">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>99</v>
       </c>
-      <c r="B95" s="0">
+      <c r="B95">
         <v>905746</v>
       </c>
-      <c r="C95" s="0">
+      <c r="C95">
         <v>48420</v>
       </c>
-      <c r="D95" s="0">
+      <c r="D95">
         <v>57295</v>
       </c>
-      <c r="E95" s="0">
+      <c r="E95">
         <v>14605</v>
       </c>
-      <c r="F95" s="0">
+      <c r="F95">
         <v>5187</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="0" t="s">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>100</v>
       </c>
-      <c r="B96" s="0">
+      <c r="B96">
         <v>941680</v>
       </c>
-      <c r="C96" s="0">
+      <c r="C96">
         <v>50168</v>
       </c>
-      <c r="D96" s="0">
+      <c r="D96">
         <v>57381</v>
       </c>
-      <c r="E96" s="0">
+      <c r="E96">
         <v>14415</v>
       </c>
-      <c r="F96" s="0">
+      <c r="F96">
         <v>5266</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="0" t="s">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>101</v>
       </c>
-      <c r="B97" s="0">
+      <c r="B97">
         <v>969045</v>
       </c>
-      <c r="C97" s="0">
+      <c r="C97">
         <v>51383</v>
       </c>
-      <c r="D97" s="0">
+      <c r="D97">
         <v>56192</v>
       </c>
-      <c r="E97" s="0">
+      <c r="E97">
         <v>14104</v>
       </c>
-      <c r="F97" s="0">
+      <c r="F97">
         <v>5121</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="0" t="s">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>102</v>
       </c>
-      <c r="B98" s="0">
+      <c r="B98">
         <v>991648</v>
       </c>
-      <c r="C98" s="0">
+      <c r="C98">
         <v>52653</v>
       </c>
-      <c r="D98" s="0">
+      <c r="D98">
         <v>56189</v>
       </c>
-      <c r="E98" s="0">
+      <c r="E98">
         <v>13812</v>
       </c>
-      <c r="F98" s="0">
+      <c r="F98">
         <v>4867</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="0" t="s">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>103</v>
       </c>
-      <c r="B99" s="0">
+      <c r="B99">
         <v>1016960</v>
       </c>
-      <c r="C99" s="0">
+      <c r="C99">
         <v>54725</v>
       </c>
-      <c r="D99" s="0">
+      <c r="D99">
         <v>56062</v>
       </c>
-      <c r="E99" s="0">
+      <c r="E99">
         <v>13562</v>
       </c>
-      <c r="F99" s="0">
+      <c r="F99">
         <v>4760</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="0" t="s">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>104</v>
       </c>
-      <c r="B100" s="0">
+      <c r="B100">
         <v>1043097</v>
       </c>
-      <c r="C100" s="0">
+      <c r="C100">
         <v>57438</v>
       </c>
-      <c r="D100" s="0">
+      <c r="D100">
         <v>55979</v>
       </c>
-      <c r="E100" s="0">
+      <c r="E100">
         <v>13535</v>
       </c>
-      <c r="F100" s="0">
+      <c r="F100">
         <v>4796</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="0" t="s">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>105</v>
       </c>
-      <c r="B101" s="0">
+      <c r="B101">
         <v>1073034</v>
       </c>
-      <c r="C101" s="0">
+      <c r="C101">
         <v>59577</v>
       </c>
-      <c r="D101" s="0">
+      <c r="D101">
         <v>54919</v>
       </c>
-      <c r="E101" s="0">
+      <c r="E101">
         <v>13255</v>
       </c>
-      <c r="F101" s="0">
+      <c r="F101">
         <v>4712</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="0" t="s">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>106</v>
       </c>
-      <c r="B102" s="0">
+      <c r="B102">
         <v>1105967</v>
       </c>
-      <c r="C102" s="0">
+      <c r="C102">
         <v>61356</v>
       </c>
-      <c r="D102" s="0">
+      <c r="D102">
         <v>54903</v>
       </c>
-      <c r="E102" s="0">
+      <c r="E102">
         <v>12845</v>
       </c>
-      <c r="F102" s="0">
+      <c r="F102">
         <v>4707</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="0" t="s">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>107</v>
       </c>
-      <c r="B103" s="0">
+      <c r="B103">
         <v>1134916</v>
       </c>
-      <c r="C103" s="0">
+      <c r="C103">
         <v>62918</v>
       </c>
-      <c r="D103" s="0">
+      <c r="D103">
         <v>54048</v>
       </c>
-      <c r="E103" s="0">
+      <c r="E103">
         <v>12905</v>
       </c>
-      <c r="F103" s="0">
+      <c r="F103">
         <v>4845</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="0" t="s">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>108</v>
       </c>
-      <c r="B104" s="0">
+      <c r="B104">
         <v>1160598</v>
       </c>
-      <c r="C104" s="0">
+      <c r="C104">
         <v>64150</v>
       </c>
-      <c r="D104" s="0">
+      <c r="D104">
         <v>52623</v>
       </c>
-      <c r="E104" s="0">
+      <c r="E104">
         <v>12720</v>
       </c>
-      <c r="F104" s="0">
+      <c r="F104">
         <v>4761</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="0" t="s">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>109</v>
       </c>
-      <c r="B105" s="0">
+      <c r="B105">
         <v>1183174</v>
       </c>
-      <c r="C105" s="0">
+      <c r="C105">
         <v>65185</v>
       </c>
-      <c r="D105" s="0">
+      <c r="D105">
         <v>52409</v>
       </c>
-      <c r="E105" s="0">
+      <c r="E105">
         <v>12696</v>
       </c>
-      <c r="F105" s="0">
+      <c r="F105">
         <v>4848</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="0" t="s">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>110</v>
       </c>
-      <c r="B106" s="0">
+      <c r="B106">
         <v>1205573</v>
       </c>
-      <c r="C106" s="0">
+      <c r="C106">
         <v>67637</v>
       </c>
-      <c r="D106" s="0">
+      <c r="D106">
         <v>53221</v>
       </c>
-      <c r="E106" s="0">
+      <c r="E106">
         <v>12628</v>
       </c>
-      <c r="F106" s="0">
+      <c r="F106">
         <v>4818</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="0" t="s">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>111</v>
       </c>
-      <c r="B107" s="0">
+      <c r="B107">
         <v>1230663</v>
       </c>
-      <c r="C107" s="0">
+      <c r="C107">
         <v>69585</v>
       </c>
-      <c r="D107" s="0">
+      <c r="D107">
         <v>52560</v>
       </c>
-      <c r="E107" s="0">
+      <c r="E107">
         <v>12478</v>
       </c>
-      <c r="F107" s="0">
+      <c r="F107">
         <v>4753</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="0" t="s">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>112</v>
       </c>
-      <c r="B108" s="0">
+      <c r="B108">
         <v>1257943</v>
       </c>
-      <c r="C108" s="0">
+      <c r="C108">
         <v>72337</v>
       </c>
-      <c r="D108" s="0">
+      <c r="D108">
         <v>51398</v>
       </c>
-      <c r="E108" s="0">
+      <c r="E108">
         <v>12136</v>
       </c>
-      <c r="F108" s="0">
+      <c r="F108">
         <v>7070</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="0" t="s">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>113</v>
       </c>
-      <c r="B109" s="0">
+      <c r="B109">
         <v>1285029</v>
       </c>
-      <c r="C109" s="0">
+      <c r="C109">
         <v>74135</v>
       </c>
-      <c r="D109" s="0">
+      <c r="D109">
         <v>49785</v>
       </c>
-      <c r="E109" s="0">
+      <c r="E109">
         <v>11780</v>
       </c>
-      <c r="F109" s="0">
+      <c r="F109">
         <v>6788</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="0" t="s">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>114</v>
       </c>
-      <c r="B110" s="0">
+      <c r="B110">
         <v>1310198</v>
       </c>
-      <c r="C110" s="0">
+      <c r="C110">
         <v>75580</v>
       </c>
-      <c r="D110" s="0">
+      <c r="D110">
         <v>48564</v>
       </c>
-      <c r="E110" s="0">
+      <c r="E110">
         <v>11496</v>
       </c>
-      <c r="F110" s="0">
+      <c r="F110">
         <v>6551</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="0" t="s">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>115</v>
       </c>
-      <c r="B111" s="0">
+      <c r="B111">
         <v>1331320</v>
       </c>
-      <c r="C111" s="0">
+      <c r="C111">
         <v>76616</v>
       </c>
-      <c r="D111" s="0">
+      <c r="D111">
         <v>46981</v>
       </c>
-      <c r="E111" s="0">
+      <c r="E111">
         <v>11393</v>
       </c>
-      <c r="F111" s="0">
+      <c r="F111">
         <v>6395</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="0" t="s">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>116</v>
       </c>
-      <c r="B112" s="0">
+      <c r="B112">
         <v>1349650</v>
       </c>
-      <c r="C112" s="0">
+      <c r="C112">
         <v>77508</v>
       </c>
-      <c r="D112" s="0">
+      <c r="D112">
         <v>46372</v>
       </c>
-      <c r="E112" s="0">
+      <c r="E112">
         <v>11148</v>
       </c>
-      <c r="F112" s="0">
+      <c r="F112">
         <v>6350</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="0" t="s">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>117</v>
       </c>
-      <c r="B113" s="0">
+      <c r="B113">
         <v>1372170</v>
       </c>
-      <c r="C113" s="0">
+      <c r="C113">
         <v>78994</v>
       </c>
-      <c r="D113" s="0">
+      <c r="D113">
         <v>47402</v>
       </c>
-      <c r="E113" s="0">
+      <c r="E113">
         <v>11240</v>
       </c>
-      <c r="F113" s="0">
+      <c r="F113">
         <v>6352</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="0" t="s">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>118</v>
       </c>
-      <c r="B114" s="0">
+      <c r="B114">
         <v>1393747</v>
       </c>
-      <c r="C114" s="0">
+      <c r="C114">
         <v>80698</v>
       </c>
-      <c r="D114" s="0">
+      <c r="D114">
         <v>46742</v>
       </c>
-      <c r="E114" s="0">
+      <c r="E114">
         <v>10990</v>
       </c>
-      <c r="F114" s="0">
+      <c r="F114">
         <v>6156</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="0" t="s">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>119</v>
       </c>
-      <c r="B115" s="0">
+      <c r="B115">
         <v>1420427</v>
       </c>
-      <c r="C115" s="0">
+      <c r="C115">
         <v>82577</v>
       </c>
-      <c r="D115" s="0">
+      <c r="D115">
         <v>45635</v>
       </c>
-      <c r="E115" s="0">
+      <c r="E115">
         <v>10655</v>
       </c>
-      <c r="F115" s="0">
+      <c r="F115">
         <v>5940</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="0" t="s">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>120</v>
       </c>
-      <c r="B116" s="0">
+      <c r="B116">
         <v>1445798</v>
       </c>
-      <c r="C116" s="0">
+      <c r="C116">
         <v>84084</v>
       </c>
-      <c r="D116" s="0">
+      <c r="D116">
         <v>44299</v>
       </c>
-      <c r="E116" s="0">
+      <c r="E116">
         <v>10484</v>
       </c>
-      <c r="F116" s="0">
+      <c r="F116">
         <v>5746</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="0" t="s">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>121</v>
       </c>
-      <c r="B117" s="0">
+      <c r="B117">
         <v>1469358</v>
       </c>
-      <c r="C117" s="0">
+      <c r="C117">
         <v>85071</v>
       </c>
-      <c r="D117" s="0">
+      <c r="D117">
         <v>43211</v>
       </c>
-      <c r="E117" s="0">
+      <c r="E117">
         <v>10278</v>
       </c>
-      <c r="F117" s="0">
+      <c r="F117">
         <v>5529</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="0" t="s">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>122</v>
       </c>
-      <c r="B118" s="0">
+      <c r="B118">
         <v>1489702</v>
       </c>
-      <c r="C118" s="0">
+      <c r="C118">
         <v>85920</v>
       </c>
-      <c r="D118" s="0">
+      <c r="D118">
         <v>41606</v>
       </c>
-      <c r="E118" s="0">
+      <c r="E118">
         <v>9934</v>
       </c>
-      <c r="F118" s="0">
+      <c r="F118">
         <v>5467</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="0" t="s">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>123</v>
       </c>
-      <c r="B119" s="0">
+      <c r="B119">
         <v>1510514</v>
       </c>
-      <c r="C119" s="0">
+      <c r="C119">
         <v>86768</v>
       </c>
-      <c r="D119" s="0">
+      <c r="D119">
         <v>41553</v>
       </c>
-      <c r="E119" s="0">
+      <c r="E119">
         <v>9754</v>
       </c>
-      <c r="F119" s="0">
+      <c r="F119">
         <v>5257</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="0" t="s">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>124</v>
       </c>
-      <c r="B120" s="0">
+      <c r="B120">
         <v>1531438</v>
       </c>
-      <c r="C120" s="0">
+      <c r="C120">
         <v>88094</v>
       </c>
-      <c r="D120" s="0">
+      <c r="D120">
         <v>41661</v>
       </c>
-      <c r="E120" s="0">
+      <c r="E120">
         <v>9598</v>
       </c>
-      <c r="F120" s="0">
+      <c r="F120">
         <v>5032</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="0" t="s">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>125</v>
       </c>
-      <c r="B121" s="0">
+      <c r="B121">
         <v>1552632</v>
       </c>
-      <c r="C121" s="0">
+      <c r="C121">
         <v>89493</v>
       </c>
-      <c r="D121" s="0">
+      <c r="D121">
         <v>41546</v>
       </c>
-      <c r="E121" s="0">
+      <c r="E121">
         <v>9521</v>
       </c>
-      <c r="F121" s="0">
+      <c r="F121">
         <v>4911</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="0" t="s">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>126</v>
       </c>
-      <c r="B122" s="0">
+      <c r="B122">
         <v>1579266</v>
       </c>
-      <c r="C122" s="0">
+      <c r="C122">
         <v>90887</v>
       </c>
-      <c r="D122" s="0">
+      <c r="D122">
         <v>41065</v>
       </c>
-      <c r="E122" s="0">
+      <c r="E122">
         <v>9090</v>
       </c>
-      <c r="F122" s="0">
+      <c r="F122">
         <v>4868</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="0" t="s">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>127</v>
       </c>
-      <c r="B123" s="0">
+      <c r="B123">
         <v>1603539</v>
       </c>
-      <c r="C123" s="0">
+      <c r="C123">
         <v>92228</v>
       </c>
-      <c r="D123" s="0">
+      <c r="D123">
         <v>39822</v>
       </c>
-      <c r="E123" s="0">
+      <c r="E123">
         <v>9049</v>
       </c>
-      <c r="F123" s="0">
+      <c r="F123">
         <v>4716</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="0" t="s">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>128</v>
       </c>
-      <c r="B124" s="0">
+      <c r="B124">
         <v>1625706</v>
       </c>
-      <c r="C124" s="0">
+      <c r="C124">
         <v>93291</v>
       </c>
-      <c r="D124" s="0">
+      <c r="D124">
         <v>38391</v>
       </c>
-      <c r="E124" s="0">
+      <c r="E124">
         <v>8733</v>
       </c>
-      <c r="F124" s="0">
+      <c r="F124">
         <v>4620</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="0" t="s">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>129</v>
       </c>
-      <c r="B125" s="0">
+      <c r="B125">
         <v>1644854</v>
       </c>
-      <c r="C125" s="0">
+      <c r="C125">
         <v>93971</v>
       </c>
-      <c r="D125" s="0">
+      <c r="D125">
         <v>37483</v>
       </c>
-      <c r="E125" s="0">
+      <c r="E125">
         <v>8485</v>
       </c>
-      <c r="F125" s="0">
+      <c r="F125">
         <v>4383</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="0" t="s">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>130</v>
       </c>
-      <c r="B126" s="0">
+      <c r="B126">
         <v>1663565</v>
       </c>
-      <c r="C126" s="0">
+      <c r="C126">
         <v>94530</v>
       </c>
-      <c r="D126" s="0">
+      <c r="D126">
         <v>37432</v>
       </c>
-      <c r="E126" s="0">
+      <c r="E126">
         <v>8467</v>
       </c>
-      <c r="F126" s="0">
+      <c r="F126">
         <v>4237</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="0" t="s">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>131</v>
       </c>
-      <c r="B127" s="0">
+      <c r="B127">
         <v>1680321</v>
       </c>
-      <c r="C127" s="0">
+      <c r="C127">
         <v>95175</v>
       </c>
-      <c r="D127" s="0">
+      <c r="D127">
         <v>37561</v>
       </c>
-      <c r="E127" s="0">
+      <c r="E127">
         <v>8585</v>
       </c>
-      <c r="F127" s="0">
+      <c r="F127">
         <v>4215</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="0" t="s">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>132</v>
       </c>
-      <c r="B128" s="0">
+      <c r="B128">
         <v>1699810</v>
       </c>
-      <c r="C128" s="0">
+      <c r="C128">
         <v>96496</v>
       </c>
-      <c r="D128" s="0">
+      <c r="D128">
         <v>38038</v>
       </c>
-      <c r="E128" s="0">
+      <c r="E128">
         <v>8547</v>
       </c>
-      <c r="F128" s="0">
+      <c r="F128">
         <v>4222</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="0" t="s">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>133</v>
       </c>
-      <c r="B129" s="0">
+      <c r="B129">
         <v>1722326</v>
       </c>
-      <c r="C129" s="0">
+      <c r="C129">
         <v>97727</v>
       </c>
-      <c r="D129" s="0">
+      <c r="D129">
         <v>37818</v>
       </c>
-      <c r="E129" s="0">
+      <c r="E129">
         <v>8389</v>
       </c>
-      <c r="F129" s="0">
+      <c r="F129">
         <v>4080</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="0" t="s">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>134</v>
       </c>
-      <c r="B130" s="0">
+      <c r="B130">
         <v>1745759</v>
       </c>
-      <c r="C130" s="0">
+      <c r="C130">
         <v>98911</v>
       </c>
-      <c r="D130" s="0">
+      <c r="D130">
         <v>36764</v>
       </c>
-      <c r="E130" s="0">
+      <c r="E130">
         <v>8174</v>
       </c>
-      <c r="F130" s="0">
+      <c r="F130">
         <v>4032</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="0" t="s">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
         <v>135</v>
       </c>
-      <c r="B131" s="0">
+      <c r="B131">
         <v>1769202</v>
       </c>
-      <c r="C131" s="0">
+      <c r="C131">
         <v>99843</v>
       </c>
-      <c r="D131" s="0">
+      <c r="D131">
         <v>35524</v>
       </c>
-      <c r="E131" s="0">
+      <c r="E131">
         <v>7956</v>
       </c>
-      <c r="F131" s="0">
+      <c r="F131">
         <v>4004</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="0" t="s">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>136</v>
       </c>
-      <c r="B132" s="0">
+      <c r="B132">
         <v>1790837</v>
       </c>
-      <c r="C132" s="0">
+      <c r="C132">
         <v>100495</v>
       </c>
-      <c r="D132" s="0">
+      <c r="D132">
         <v>34648</v>
       </c>
-      <c r="E132" s="0">
+      <c r="E132">
         <v>7626</v>
       </c>
-      <c r="F132" s="0">
+      <c r="F132">
         <v>3669</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="0" t="s">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>137</v>
       </c>
-      <c r="B133" s="0">
+      <c r="B133">
         <v>1811258</v>
       </c>
-      <c r="C133" s="0">
+      <c r="C133">
         <v>101163</v>
       </c>
-      <c r="D133" s="0">
+      <c r="D133">
         <v>34075</v>
       </c>
-      <c r="E133" s="0">
+      <c r="E133">
         <v>7591</v>
       </c>
-      <c r="F133" s="0">
+      <c r="F133">
         <v>3950</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="0" t="s">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>138</v>
       </c>
-      <c r="B134" s="0">
+      <c r="B134">
         <v>1831291</v>
       </c>
-      <c r="C134" s="0">
+      <c r="C134">
         <v>102125</v>
       </c>
-      <c r="D134" s="0">
+      <c r="D134">
         <v>33724</v>
       </c>
-      <c r="E134" s="0">
+      <c r="E134">
         <v>7407</v>
       </c>
-      <c r="F134" s="0">
+      <c r="F134">
         <v>3852</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="0" t="s">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>139</v>
       </c>
-      <c r="B135" s="0">
+      <c r="B135">
         <v>1851493</v>
       </c>
-      <c r="C135" s="0">
+      <c r="C135">
         <v>103118</v>
       </c>
-      <c r="D135" s="0">
+      <c r="D135">
         <v>33070</v>
       </c>
-      <c r="E135" s="0">
+      <c r="E135">
         <v>7227</v>
       </c>
-      <c r="F135" s="0">
+      <c r="F135">
         <v>3749</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="0" t="s">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>140</v>
       </c>
-      <c r="B136" s="0">
+      <c r="B136">
         <v>1871749</v>
       </c>
-      <c r="C136" s="0">
+      <c r="C136">
         <v>104011</v>
       </c>
-      <c r="D136" s="0">
+      <c r="D136">
         <v>32639</v>
       </c>
-      <c r="E136" s="0">
+      <c r="E136">
         <v>7057</v>
       </c>
-      <c r="F136" s="0">
+      <c r="F136">
         <v>3665</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="0" t="s">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
         <v>141</v>
       </c>
-      <c r="B137" s="0">
+      <c r="B137">
         <v>1894753</v>
       </c>
-      <c r="C137" s="0">
+      <c r="C137">
         <v>104837</v>
       </c>
-      <c r="D137" s="0">
+      <c r="D137">
         <v>32280</v>
       </c>
-      <c r="E137" s="0">
+      <c r="E137">
         <v>6920</v>
       </c>
-      <c r="F137" s="0">
+      <c r="F137">
         <v>3523</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="0" t="s">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>142</v>
       </c>
-      <c r="B138" s="0">
+      <c r="B138">
         <v>1917526</v>
       </c>
-      <c r="C138" s="0">
+      <c r="C138">
         <v>105565</v>
       </c>
-      <c r="D138" s="0">
+      <c r="D138">
         <v>31761</v>
       </c>
-      <c r="E138" s="0">
+      <c r="E138">
         <v>6762</v>
       </c>
-      <c r="F138" s="0">
+      <c r="F138">
         <v>3476</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="0" t="s">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>143</v>
       </c>
-      <c r="B139" s="0">
+      <c r="B139">
         <v>1936412</v>
       </c>
-      <c r="C139" s="0">
+      <c r="C139">
         <v>106012</v>
       </c>
-      <c r="D139" s="0">
+      <c r="D139">
         <v>31225</v>
       </c>
-      <c r="E139" s="0">
+      <c r="E139">
         <v>6501</v>
       </c>
-      <c r="F139" s="0">
+      <c r="F139">
         <v>3298</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="0" t="s">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>144</v>
       </c>
-      <c r="B140" s="0">
+      <c r="B140">
         <v>1953632</v>
       </c>
-      <c r="C140" s="0">
+      <c r="C140">
         <v>106673</v>
       </c>
-      <c r="D140" s="0">
+      <c r="D140">
         <v>30996</v>
       </c>
-      <c r="E140" s="0">
+      <c r="E140">
         <v>6402</v>
       </c>
-      <c r="F140" s="0">
+      <c r="F140">
         <v>3240</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="0" t="s">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>145</v>
       </c>
-      <c r="B141" s="0">
+      <c r="B141">
         <v>1970880</v>
       </c>
-      <c r="C141" s="0">
+      <c r="C141">
         <v>107575</v>
       </c>
-      <c r="D141" s="0">
+      <c r="D141">
         <v>31009</v>
       </c>
-      <c r="E141" s="0">
+      <c r="E141">
         <v>6457</v>
       </c>
-      <c r="F141" s="0">
+      <c r="F141">
         <v>3090</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="0" t="s">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>146</v>
       </c>
-      <c r="B142" s="0">
+      <c r="B142">
         <v>1991517</v>
       </c>
-      <c r="C142" s="0">
+      <c r="C142">
         <v>108462</v>
       </c>
-      <c r="D142" s="0">
+      <c r="D142">
         <v>30864</v>
       </c>
-      <c r="E142" s="0">
+      <c r="E142">
         <v>6249</v>
       </c>
-      <c r="F142" s="0">
+      <c r="F142">
         <v>3020</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="0" t="s">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
         <v>147</v>
       </c>
-      <c r="B143" s="0">
+      <c r="B143">
         <v>2013619</v>
       </c>
-      <c r="C143" s="0">
+      <c r="C143">
         <v>109361</v>
       </c>
-      <c r="D143" s="0">
+      <c r="D143">
         <v>29698</v>
       </c>
-      <c r="E143" s="0">
+      <c r="E143">
         <v>6074</v>
       </c>
-      <c r="F143" s="0">
+      <c r="F143">
         <v>2886</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="0" t="s">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
         <v>148</v>
       </c>
-      <c r="B144" s="0">
+      <c r="B144">
         <v>2036804</v>
       </c>
-      <c r="C144" s="0">
+      <c r="C144">
         <v>110136</v>
       </c>
-      <c r="D144" s="0">
+      <c r="D144">
         <v>29154</v>
       </c>
-      <c r="E144" s="0">
+      <c r="E144">
         <v>6017</v>
       </c>
-      <c r="F144" s="0">
+      <c r="F144">
         <v>2734</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="0" t="s">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
         <v>149</v>
       </c>
-      <c r="B145" s="0">
+      <c r="B145">
         <v>2061938</v>
       </c>
-      <c r="C145" s="0">
+      <c r="C145">
         <v>110830</v>
       </c>
-      <c r="D145" s="0">
+      <c r="D145">
         <v>28450</v>
       </c>
-      <c r="E145" s="0">
+      <c r="E145">
         <v>5883</v>
       </c>
-      <c r="F145" s="0">
+      <c r="F145">
         <v>2726</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="0" t="s">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>150</v>
       </c>
-      <c r="B146" s="0">
+      <c r="B146">
         <v>2083344</v>
       </c>
-      <c r="C146" s="0">
+      <c r="C146">
         <v>111186</v>
       </c>
-      <c r="D146" s="0">
+      <c r="D146">
         <v>27895</v>
       </c>
-      <c r="E146" s="0">
+      <c r="E146">
         <v>5749</v>
       </c>
-      <c r="F146" s="0">
+      <c r="F146">
         <v>2716</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="0" t="s">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
         <v>151</v>
       </c>
-      <c r="B147" s="0">
+      <c r="B147">
         <v>2101922</v>
       </c>
-      <c r="C147" s="0">
+      <c r="C147">
         <v>111567</v>
       </c>
-      <c r="D147" s="0">
+      <c r="D147">
         <v>27867</v>
       </c>
-      <c r="E147" s="0">
+      <c r="E147">
         <v>5703</v>
       </c>
-      <c r="F147" s="0">
+      <c r="F147">
         <v>2640</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="0" t="s">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
         <v>152</v>
       </c>
-      <c r="B148" s="0">
+      <c r="B148">
         <v>2125249</v>
       </c>
-      <c r="C148" s="0">
+      <c r="C148">
         <v>112297</v>
       </c>
-      <c r="D148" s="0">
+      <c r="D148">
         <v>28270</v>
       </c>
-      <c r="E148" s="0">
+      <c r="E148">
         <v>5570</v>
       </c>
-      <c r="F148" s="0">
+      <c r="F148">
         <v>2594</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="0" t="s">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
         <v>153</v>
       </c>
-      <c r="B149" s="0">
+      <c r="B149">
         <v>2149022</v>
       </c>
-      <c r="C149" s="0">
+      <c r="C149">
         <v>113064</v>
       </c>
-      <c r="D149" s="0">
+      <c r="D149">
         <v>28576</v>
       </c>
-      <c r="E149" s="0">
+      <c r="E149">
         <v>5612</v>
       </c>
-      <c r="F149" s="0">
+      <c r="F149">
         <v>2588</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="0" t="s">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>154</v>
       </c>
-      <c r="B150" s="0">
+      <c r="B150">
         <v>2176157</v>
       </c>
-      <c r="C150" s="0">
+      <c r="C150">
         <v>113769</v>
       </c>
-      <c r="D150" s="0">
+      <c r="D150">
         <v>28415</v>
       </c>
-      <c r="E150" s="0">
+      <c r="E150">
         <v>5464</v>
       </c>
-      <c r="F150" s="0">
+      <c r="F150">
         <v>2520</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" s="0" t="s">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
         <v>155</v>
       </c>
-      <c r="B151" s="0">
+      <c r="B151">
         <v>2207038</v>
       </c>
-      <c r="C151" s="0">
+      <c r="C151">
         <v>114424</v>
       </c>
-      <c r="D151" s="0">
+      <c r="D151">
         <v>28616</v>
       </c>
-      <c r="E151" s="0">
+      <c r="E151">
         <v>5341</v>
       </c>
-      <c r="F151" s="0">
+      <c r="F151">
         <v>2434</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" s="0" t="s">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
         <v>156</v>
       </c>
-      <c r="B152" s="0">
+      <c r="B152">
         <v>2239049</v>
       </c>
-      <c r="C152" s="0">
+      <c r="C152">
         <v>115053</v>
       </c>
-      <c r="D152" s="0">
+      <c r="D152">
         <v>27967</v>
       </c>
-      <c r="E152" s="0">
+      <c r="E152">
         <v>5229</v>
       </c>
-      <c r="F152" s="0">
+      <c r="F152">
         <v>2380</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="0" t="s">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
         <v>157</v>
       </c>
-      <c r="B153" s="0">
+      <c r="B153">
         <v>2268040</v>
       </c>
-      <c r="C153" s="0">
+      <c r="C153">
         <v>115347</v>
       </c>
-      <c r="D153" s="0">
+      <c r="D153">
         <v>28220</v>
       </c>
-      <c r="E153" s="0">
+      <c r="E153">
         <v>5195</v>
       </c>
-      <c r="F153" s="0">
+      <c r="F153">
         <v>2321</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="0" t="s">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
         <v>158</v>
       </c>
-      <c r="B154" s="0">
+      <c r="B154">
         <v>2295114</v>
       </c>
-      <c r="C154" s="0">
+      <c r="C154">
         <v>115633</v>
       </c>
-      <c r="D154" s="0">
+      <c r="D154">
         <v>28799</v>
       </c>
-      <c r="E154" s="0">
+      <c r="E154">
         <v>5323</v>
       </c>
-      <c r="F154" s="0">
+      <c r="F154">
         <v>2299</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="0" t="s">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
         <v>159</v>
       </c>
-      <c r="B155" s="0">
+      <c r="B155">
         <v>2328962</v>
       </c>
-      <c r="C155" s="0">
+      <c r="C155">
         <v>116343</v>
       </c>
-      <c r="D155" s="0">
+      <c r="D155">
         <v>30235</v>
       </c>
-      <c r="E155" s="0">
+      <c r="E155">
         <v>5402</v>
       </c>
-      <c r="F155" s="0">
+      <c r="F155">
         <v>2293</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="0" t="s">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
         <v>160</v>
       </c>
-      <c r="B156" s="0">
+      <c r="B156">
         <v>2367889</v>
       </c>
-      <c r="C156" s="0">
+      <c r="C156">
         <v>117067</v>
       </c>
-      <c r="D156" s="0">
+      <c r="D156">
         <v>31102</v>
       </c>
-      <c r="E156" s="0">
+      <c r="E156">
         <v>5293</v>
       </c>
-      <c r="F156" s="0">
+      <c r="F156">
         <v>2248</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="0" t="s">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
         <v>161</v>
       </c>
-      <c r="B157" s="0">
+      <c r="B157">
         <v>2407458</v>
       </c>
-      <c r="C157" s="0">
+      <c r="C157">
         <v>117714</v>
       </c>
-      <c r="D157" s="0">
+      <c r="D157">
         <v>31842</v>
       </c>
-      <c r="E157" s="0">
+      <c r="E157">
         <v>5320</v>
       </c>
-      <c r="F157" s="0">
+      <c r="F157">
         <v>2214</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="0" t="s">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
         <v>162</v>
       </c>
-      <c r="B158" s="0">
+      <c r="B158">
         <v>2451832</v>
       </c>
-      <c r="C158" s="0">
+      <c r="C158">
         <v>118351</v>
       </c>
-      <c r="D158" s="0">
+      <c r="D158">
         <v>31738</v>
       </c>
-      <c r="E158" s="0">
+      <c r="E158">
         <v>5283</v>
       </c>
-      <c r="F158" s="0">
+      <c r="F158">
         <v>2075</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="0" t="s">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
         <v>163</v>
       </c>
-      <c r="B159" s="0">
+      <c r="B159">
         <v>2494820</v>
       </c>
-      <c r="C159" s="0">
+      <c r="C159">
         <v>118862</v>
       </c>
-      <c r="D159" s="0">
+      <c r="D159">
         <v>32482</v>
       </c>
-      <c r="E159" s="0">
+      <c r="E159">
         <v>5314</v>
       </c>
-      <c r="F159" s="0">
+      <c r="F159">
         <v>2159</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="0" t="s">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
         <v>164</v>
       </c>
-      <c r="B160" s="0">
+      <c r="B160">
         <v>2536113</v>
       </c>
-      <c r="C160" s="0">
+      <c r="C160">
         <v>119133</v>
       </c>
-      <c r="D160" s="0">
+      <c r="D160">
         <v>32488</v>
       </c>
-      <c r="E160" s="0">
+      <c r="E160">
         <v>5252</v>
       </c>
-      <c r="F160" s="0">
+      <c r="F160">
         <v>2077</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="0" t="s">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
         <v>165</v>
       </c>
-      <c r="B161" s="0">
+      <c r="B161">
         <v>2575976</v>
       </c>
-      <c r="C161" s="0">
+      <c r="C161">
         <v>119465</v>
       </c>
-      <c r="D161" s="0">
+      <c r="D161">
         <v>33585</v>
       </c>
-      <c r="E161" s="0">
+      <c r="E161">
         <v>5380</v>
       </c>
-      <c r="F161" s="0">
+      <c r="F161">
         <v>2011</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="0" t="s">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
         <v>166</v>
       </c>
-      <c r="B162" s="0">
+      <c r="B162">
         <v>2623614</v>
       </c>
-      <c r="C162" s="0">
+      <c r="C162">
         <v>120061</v>
       </c>
-      <c r="D162" s="0">
+      <c r="D162">
         <v>35248</v>
       </c>
-      <c r="E162" s="0">
+      <c r="E162">
         <v>5424</v>
       </c>
-      <c r="F162" s="0">
+      <c r="F162">
         <v>2044</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="0" t="s">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
         <v>167</v>
       </c>
-      <c r="B163" s="0">
+      <c r="B163">
         <v>2674541</v>
       </c>
-      <c r="C163" s="0">
+      <c r="C163">
         <v>120762</v>
       </c>
-      <c r="D163" s="0">
+      <c r="D163">
         <v>36405</v>
       </c>
-      <c r="E163" s="0">
+      <c r="E163">
         <v>5512</v>
       </c>
-      <c r="F163" s="0">
+      <c r="F163">
         <v>2098</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="0" t="s">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
         <v>168</v>
       </c>
-      <c r="B164" s="0">
+      <c r="B164">
         <v>2727926</v>
       </c>
-      <c r="C164" s="0">
+      <c r="C164">
         <v>121457</v>
       </c>
-      <c r="D164" s="0">
+      <c r="D164">
         <v>37500</v>
       </c>
-      <c r="E164" s="0">
+      <c r="E164">
         <v>5626</v>
       </c>
-      <c r="F164" s="0">
+      <c r="F164">
         <v>2105</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="0" t="s">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
         <v>169</v>
       </c>
-      <c r="B165" s="0">
+      <c r="B165">
         <v>2781659</v>
       </c>
-      <c r="C165" s="0">
+      <c r="C165">
         <v>122055</v>
       </c>
-      <c r="D165" s="0">
+      <c r="D165">
         <v>37798</v>
       </c>
-      <c r="E165" s="0">
+      <c r="E165">
         <v>5597</v>
       </c>
-      <c r="F165" s="0">
+      <c r="F165">
         <v>2049</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="0" t="s">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
         <v>170</v>
       </c>
-      <c r="B166" s="0">
+      <c r="B166">
         <v>2835791</v>
       </c>
-      <c r="C166" s="0">
+      <c r="C166">
         <v>122361</v>
       </c>
-      <c r="D166" s="0">
+      <c r="D166">
         <v>38146</v>
       </c>
-      <c r="E166" s="0">
+      <c r="E166">
         <v>5633</v>
       </c>
-      <c r="F166" s="0">
+      <c r="F166">
         <v>1982</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="0" t="s">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
         <v>171</v>
       </c>
-      <c r="B167" s="0">
+      <c r="B167">
         <v>2881100</v>
       </c>
-      <c r="C167" s="0">
+      <c r="C167">
         <v>122570</v>
       </c>
-      <c r="D167" s="0">
+      <c r="D167">
         <v>38764</v>
       </c>
-      <c r="E167" s="0">
+      <c r="E167">
         <v>5653</v>
       </c>
-      <c r="F167" s="0">
+      <c r="F167">
         <v>2080</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="0" t="s">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
         <v>172</v>
       </c>
-      <c r="B168" s="0">
+      <c r="B168">
         <v>2922516</v>
       </c>
-      <c r="C168" s="0">
+      <c r="C168">
         <v>122813</v>
       </c>
-      <c r="D168" s="0">
+      <c r="D168">
         <v>39769</v>
       </c>
-      <c r="E168" s="0">
+      <c r="E168">
         <v>5687</v>
       </c>
-      <c r="F168" s="0">
+      <c r="F168">
         <v>2105</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="0" t="s">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
         <v>173</v>
       </c>
-      <c r="B169" s="0">
+      <c r="B169">
         <v>2974102</v>
       </c>
-      <c r="C169" s="0">
+      <c r="C169">
         <v>123736</v>
       </c>
-      <c r="D169" s="0">
+      <c r="D169">
         <v>41760</v>
       </c>
-      <c r="E169" s="0">
+      <c r="E169">
         <v>5832</v>
       </c>
-      <c r="F169" s="0">
+      <c r="F169">
         <v>2098</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="0" t="s">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
         <v>174</v>
       </c>
-      <c r="B170" s="0">
+      <c r="B170">
         <v>3036725</v>
       </c>
-      <c r="C170" s="0">
+      <c r="C170">
         <v>124543</v>
       </c>
-      <c r="D170" s="0">
+      <c r="D170">
         <v>43076</v>
       </c>
-      <c r="E170" s="0">
+      <c r="E170">
         <v>5874</v>
       </c>
-      <c r="F170" s="0">
+      <c r="F170">
         <v>2172</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="0" t="s">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
         <v>175</v>
       </c>
-      <c r="B171" s="0">
+      <c r="B171">
         <v>3095784</v>
       </c>
-      <c r="C171" s="0">
+      <c r="C171">
         <v>125410</v>
       </c>
-      <c r="D171" s="0">
+      <c r="D171">
         <v>43933</v>
       </c>
-      <c r="E171" s="0">
+      <c r="E171">
         <v>5845</v>
       </c>
-      <c r="F171" s="0">
+      <c r="F171">
         <v>2127</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" s="0" t="s">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
         <v>176</v>
       </c>
-      <c r="B172" s="0">
+      <c r="B172">
         <v>3162288</v>
       </c>
-      <c r="C172" s="0">
+      <c r="C172">
         <v>126264</v>
       </c>
-      <c r="D172" s="0">
+      <c r="D172">
         <v>51599</v>
       </c>
-      <c r="E172" s="0">
+      <c r="E172">
         <v>5896</v>
       </c>
-      <c r="F172" s="0">
+      <c r="F172">
         <v>2197</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="0" t="s">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
         <v>177</v>
       </c>
-      <c r="B173" s="0">
+      <c r="B173">
         <v>3224952</v>
       </c>
-      <c r="C173" s="0">
+      <c r="C173">
         <v>127021</v>
       </c>
-      <c r="D173" s="0">
+      <c r="D173">
         <v>51858</v>
       </c>
-      <c r="E173" s="0">
+      <c r="E173">
         <v>5939</v>
       </c>
-      <c r="F173" s="0">
+      <c r="F173">
         <v>2169</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="0" t="s">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
         <v>178</v>
       </c>
-      <c r="B174" s="0">
+      <c r="B174">
         <v>3285973</v>
       </c>
-      <c r="C174" s="0">
+      <c r="C174">
         <v>127497</v>
       </c>
-      <c r="D174" s="0">
+      <c r="D174">
         <v>52727</v>
       </c>
-      <c r="E174" s="0">
+      <c r="E174">
         <v>5930</v>
       </c>
-      <c r="F174" s="0">
+      <c r="F174">
         <v>2182</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="0" t="s">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
         <v>179</v>
       </c>
-      <c r="B175" s="0">
+      <c r="B175">
         <v>3343561</v>
       </c>
-      <c r="C175" s="0">
+      <c r="C175">
         <v>127824</v>
       </c>
-      <c r="D175" s="0">
+      <c r="D175">
         <v>53988</v>
       </c>
-      <c r="E175" s="0">
+      <c r="E175">
         <v>6074</v>
       </c>
-      <c r="F175" s="0">
+      <c r="F175">
         <v>2259</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="0" t="s">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
         <v>180</v>
       </c>
-      <c r="B176" s="0">
+      <c r="B176">
         <v>3406217</v>
       </c>
-      <c r="C176" s="0">
+      <c r="C176">
         <v>128560</v>
       </c>
-      <c r="D176" s="0">
+      <c r="D176">
         <v>55565</v>
       </c>
-      <c r="E176" s="0">
+      <c r="E176">
         <v>6235</v>
       </c>
-      <c r="F176" s="0">
+      <c r="F176">
         <v>2263</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="0" t="s">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
         <v>181</v>
       </c>
-      <c r="B177" s="0">
+      <c r="B177">
         <v>3471708</v>
       </c>
-      <c r="C177" s="0">
+      <c r="C177">
         <v>129418</v>
       </c>
-      <c r="D177" s="0">
+      <c r="D177">
         <v>56144</v>
       </c>
-      <c r="E177" s="0">
+      <c r="E177">
         <v>6317</v>
       </c>
-      <c r="F177" s="0">
+      <c r="F177">
         <v>2317</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="0" t="s">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
         <v>182</v>
       </c>
-      <c r="B178" s="0">
+      <c r="B178">
         <v>3542419</v>
       </c>
-      <c r="C178" s="0">
+      <c r="C178">
         <v>130365</v>
       </c>
-      <c r="D178" s="0">
+      <c r="D178">
         <v>57440</v>
       </c>
-      <c r="E178" s="0">
+      <c r="E178">
         <v>6359</v>
       </c>
-      <c r="F178" s="0">
+      <c r="F178">
         <v>2317</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="0" t="s">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
         <v>183</v>
       </c>
-      <c r="B179" s="0">
+      <c r="B179">
         <v>3618576</v>
       </c>
-      <c r="C179" s="0">
+      <c r="C179">
         <v>131316</v>
       </c>
-      <c r="D179" s="0">
+      <c r="D179">
         <v>57759</v>
       </c>
-      <c r="E179" s="0">
+      <c r="E179">
         <v>6452</v>
       </c>
-      <c r="F179" s="0">
+      <c r="F179">
         <v>2353</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" s="0" t="s">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
         <v>184</v>
       </c>
-      <c r="B180" s="0">
+      <c r="B180">
         <v>3683228</v>
       </c>
-      <c r="C180" s="0">
+      <c r="C180">
         <v>132188</v>
       </c>
-      <c r="D180" s="0">
+      <c r="D180">
         <v>57645</v>
       </c>
-      <c r="E180" s="0">
+      <c r="E180">
         <v>6397</v>
       </c>
-      <c r="F180" s="0">
+      <c r="F180">
         <v>2343</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" s="0" t="s">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
         <v>185</v>
       </c>
-      <c r="B181" s="0">
+      <c r="B181">
         <v>3747115</v>
       </c>
-      <c r="C181" s="0">
+      <c r="C181">
         <v>132715</v>
       </c>
-      <c r="D181" s="0">
+      <c r="D181">
         <v>57885</v>
       </c>
-      <c r="E181" s="0">
+      <c r="E181">
         <v>6384</v>
       </c>
-      <c r="F181" s="0">
+      <c r="F181">
         <v>2362</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="0" t="s">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
         <v>186</v>
       </c>
-      <c r="B182" s="0">
+      <c r="B182">
         <v>3804036</v>
       </c>
-      <c r="C182" s="0">
+      <c r="C182">
         <v>133078</v>
       </c>
-      <c r="D182" s="0">
+      <c r="D182">
         <v>58370</v>
       </c>
-      <c r="E182" s="0">
+      <c r="E182">
         <v>6557</v>
       </c>
-      <c r="F182" s="0">
+      <c r="F182">
         <v>2403</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" s="0" t="s">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
         <v>187</v>
       </c>
-      <c r="B183" s="0">
+      <c r="B183">
         <v>3867554</v>
       </c>
-      <c r="C183" s="0">
+      <c r="C183">
         <v>134117</v>
       </c>
-      <c r="D183" s="0">
+      <c r="D183">
         <v>59364</v>
       </c>
-      <c r="E183" s="0">
+      <c r="E183">
         <v>6711</v>
       </c>
-      <c r="F183" s="0">
+      <c r="F183">
         <v>2414</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="0" t="s">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
         <v>188</v>
       </c>
-      <c r="B184" s="0">
+      <c r="B184">
         <v>3936743</v>
       </c>
-      <c r="C184" s="0">
+      <c r="C184">
         <v>135288</v>
       </c>
-      <c r="D184" s="0">
+      <c r="D184">
         <v>59596</v>
       </c>
-      <c r="E184" s="0">
+      <c r="E184">
         <v>10457</v>
       </c>
-      <c r="F184" s="0">
+      <c r="F184">
         <v>2440</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" s="0" t="s">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
         <v>189</v>
       </c>
-      <c r="B185" s="0">
+      <c r="B185">
         <v>4007968</v>
       </c>
-      <c r="C185" s="0">
+      <c r="C185">
         <v>136344</v>
       </c>
-      <c r="D185" s="0">
+      <c r="D185">
         <v>59718</v>
       </c>
-      <c r="E185" s="0">
+      <c r="E185">
         <v>10414</v>
       </c>
-      <c r="F185" s="0">
+      <c r="F185">
         <v>2465</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" s="0" t="s">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
         <v>190</v>
       </c>
-      <c r="B186" s="0">
+      <c r="B186">
         <v>4082805</v>
       </c>
-      <c r="C186" s="0">
+      <c r="C186">
         <v>137520</v>
       </c>
-      <c r="D186" s="0">
+      <c r="D186">
         <v>59682</v>
       </c>
-      <c r="E186" s="0">
+      <c r="E186">
         <v>10395</v>
       </c>
-      <c r="F186" s="0">
+      <c r="F186">
         <v>2711</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" s="0" t="s">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
         <v>191</v>
       </c>
-      <c r="B187" s="0">
+      <c r="B187">
         <v>4147067</v>
       </c>
-      <c r="C187" s="0">
+      <c r="C187">
         <v>138543</v>
       </c>
-      <c r="D187" s="0">
+      <c r="D187">
         <v>59301</v>
       </c>
-      <c r="E187" s="0">
+      <c r="E187">
         <v>10380</v>
       </c>
-      <c r="F187" s="0">
+      <c r="F187">
         <v>2729</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" s="0" t="s">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
         <v>192</v>
       </c>
-      <c r="B188" s="0">
+      <c r="B188">
         <v>4207560</v>
       </c>
-      <c r="C188" s="0">
+      <c r="C188">
         <v>139102</v>
       </c>
-      <c r="D188" s="0">
+      <c r="D188">
         <v>58621</v>
       </c>
-      <c r="E188" s="0">
+      <c r="E188">
         <v>10353</v>
       </c>
-      <c r="F188" s="0">
+      <c r="F188">
         <v>2723</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" s="0" t="s">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
         <v>193</v>
       </c>
-      <c r="B189" s="0">
+      <c r="B189">
         <v>4262696</v>
       </c>
-      <c r="C189" s="0">
+      <c r="C189">
         <v>140162</v>
       </c>
-      <c r="D189" s="0">
+      <c r="D189">
         <v>58897</v>
       </c>
-      <c r="E189" s="0">
+      <c r="E189">
         <v>10328</v>
       </c>
-      <c r="F189" s="0">
+      <c r="F189">
         <v>2720</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" s="0" t="s">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
         <v>194</v>
       </c>
-      <c r="B190" s="0">
+      <c r="B190">
         <v>4321367</v>
       </c>
-      <c r="C190" s="0">
+      <c r="C190">
         <v>141284</v>
       </c>
-      <c r="D190" s="0">
+      <c r="D190">
         <v>57091</v>
       </c>
-      <c r="E190" s="0">
+      <c r="E190">
         <v>10463</v>
       </c>
-      <c r="F190" s="0">
+      <c r="F190">
         <v>2752</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" s="0" t="s">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
         <v>195</v>
       </c>
-      <c r="B191" s="0">
+      <c r="B191">
         <v>4385543</v>
       </c>
-      <c r="C191" s="0">
+      <c r="C191">
         <v>142776</v>
       </c>
-      <c r="D191" s="0">
+      <c r="D191">
         <v>57339</v>
       </c>
-      <c r="E191" s="0">
+      <c r="E191">
         <v>10539</v>
       </c>
-      <c r="F191" s="0">
+      <c r="F191">
         <v>2772</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" s="0" t="s">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
         <v>196</v>
       </c>
-      <c r="B192" s="0">
+      <c r="B192">
         <v>4454549</v>
       </c>
-      <c r="C192" s="0">
+      <c r="C192">
         <v>144035</v>
       </c>
-      <c r="D192" s="0">
+      <c r="D192">
         <v>56427</v>
       </c>
-      <c r="E192" s="0">
+      <c r="E192">
         <v>10523</v>
       </c>
-      <c r="F192" s="0">
+      <c r="F192">
         <v>2760</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" s="0" t="s">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
         <v>197</v>
       </c>
-      <c r="B193" s="0">
+      <c r="B193">
         <v>4521933</v>
       </c>
-      <c r="C193" s="0">
+      <c r="C193">
         <v>145347</v>
       </c>
-      <c r="D193" s="0">
+      <c r="D193">
         <v>55593</v>
       </c>
-      <c r="E193" s="0">
+      <c r="E193">
         <v>10472</v>
       </c>
-      <c r="F193" s="0">
+      <c r="F193">
         <v>2703</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" s="0" t="s">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
         <v>198</v>
       </c>
-      <c r="B194" s="0">
+      <c r="B194">
         <v>4582349</v>
       </c>
-      <c r="C194" s="0">
+      <c r="C194">
         <v>146537</v>
       </c>
-      <c r="D194" s="0">
+      <c r="D194">
         <v>54470</v>
       </c>
-      <c r="E194" s="0">
+      <c r="E194">
         <v>10450</v>
       </c>
-      <c r="F194" s="0">
+      <c r="F194">
         <v>2698</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" s="0" t="s">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
         <v>199</v>
       </c>
-      <c r="B195" s="0">
+      <c r="B195">
         <v>4628866</v>
       </c>
-      <c r="C195" s="0">
+      <c r="C195">
         <v>147035</v>
       </c>
-      <c r="D195" s="0">
+      <c r="D195">
         <v>54017</v>
       </c>
-      <c r="E195" s="0">
+      <c r="E195">
         <v>10415</v>
       </c>
-      <c r="F195" s="0">
+      <c r="F195">
         <v>2645</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" s="0" t="s">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
         <v>200</v>
       </c>
-      <c r="B196" s="0">
+      <c r="B196">
         <v>4678539</v>
       </c>
-      <c r="C196" s="0">
+      <c r="C196">
         <v>147554</v>
       </c>
-      <c r="D196" s="0">
+      <c r="D196">
         <v>53377</v>
       </c>
-      <c r="E196" s="0">
+      <c r="E196">
         <v>10230</v>
       </c>
-      <c r="F196" s="0">
+      <c r="F196">
         <v>2659</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" s="0" t="s">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
         <v>201</v>
       </c>
-      <c r="B197" s="0">
+      <c r="B197">
         <v>4730083</v>
       </c>
-      <c r="C197" s="0">
+      <c r="C197">
         <v>148809</v>
       </c>
-      <c r="D197" s="0">
+      <c r="D197">
         <v>53326</v>
       </c>
-      <c r="E197" s="0">
+      <c r="E197">
         <v>10207</v>
       </c>
-      <c r="F197" s="0">
+      <c r="F197">
         <v>2701</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" s="0" t="s">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
         <v>202</v>
       </c>
-      <c r="B198" s="0">
+      <c r="B198">
         <v>4782366</v>
       </c>
-      <c r="C198" s="0">
+      <c r="C198">
         <v>150155</v>
       </c>
-      <c r="D198" s="0">
+      <c r="D198">
         <v>53353</v>
       </c>
-      <c r="E198" s="0">
+      <c r="E198">
         <v>9986</v>
       </c>
-      <c r="F198" s="0">
+      <c r="F198">
         <v>2719</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" s="0" t="s">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
         <v>203</v>
       </c>
-      <c r="B199" s="0">
+      <c r="B199">
         <v>4836333</v>
       </c>
-      <c r="C199" s="0">
+      <c r="C199">
         <v>151406</v>
       </c>
-      <c r="D199" s="0">
+      <c r="D199">
         <v>53132</v>
       </c>
-      <c r="E199" s="0">
+      <c r="E199">
         <v>9994</v>
       </c>
-      <c r="F199" s="0">
+      <c r="F199">
         <v>2718</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" s="0" t="s">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
         <v>204</v>
       </c>
-      <c r="B200" s="0">
+      <c r="B200">
         <v>4897187</v>
       </c>
-      <c r="C200" s="0">
+      <c r="C200">
         <v>152739</v>
       </c>
-      <c r="D200" s="0">
+      <c r="D200">
         <v>51207</v>
       </c>
-      <c r="E200" s="0">
+      <c r="E200">
         <v>9691</v>
       </c>
-      <c r="F200" s="0">
+      <c r="F200">
         <v>2617</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" s="0" t="s">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
         <v>205</v>
       </c>
-      <c r="B201" s="0">
+      <c r="B201">
         <v>4950345</v>
       </c>
-      <c r="C201" s="0">
+      <c r="C201">
         <v>153828</v>
       </c>
-      <c r="D201" s="0">
+      <c r="D201">
         <v>49911</v>
       </c>
-      <c r="E201" s="0">
+      <c r="E201">
         <v>9662</v>
       </c>
-      <c r="F201" s="0">
+      <c r="F201">
         <v>2566</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" s="0" t="s">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
         <v>206</v>
       </c>
-      <c r="B202" s="0">
+      <c r="B202">
         <v>5000546</v>
       </c>
-      <c r="C202" s="0">
+      <c r="C202">
         <v>154444</v>
       </c>
-      <c r="D202" s="0">
+      <c r="D202">
         <v>48899</v>
       </c>
-      <c r="E202" s="0">
+      <c r="E202">
         <v>9307</v>
       </c>
-      <c r="F202" s="0">
+      <c r="F202">
         <v>2507</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" s="0" t="s">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
         <v>207</v>
       </c>
-      <c r="B203" s="0">
+      <c r="B203">
         <v>5042315</v>
       </c>
-      <c r="C203" s="0">
+      <c r="C203">
         <v>154870</v>
       </c>
-      <c r="D203" s="0">
+      <c r="D203">
         <v>48635</v>
       </c>
-      <c r="E203" s="0">
+      <c r="E203">
         <v>9216</v>
       </c>
-      <c r="F203" s="0">
+      <c r="F203">
         <v>2533</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" s="0" t="s">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
         <v>208</v>
       </c>
-      <c r="B204" s="0">
+      <c r="B204">
         <v>5097651</v>
       </c>
-      <c r="C204" s="0">
+      <c r="C204">
         <v>156196</v>
       </c>
-      <c r="D204" s="0">
+      <c r="D204">
         <v>48498</v>
       </c>
-      <c r="E204" s="0">
+      <c r="E204">
         <v>9136</v>
       </c>
-      <c r="F204" s="0">
+      <c r="F204">
         <v>2415</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" s="0" t="s">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
         <v>209</v>
       </c>
-      <c r="B205" s="0">
+      <c r="B205">
         <v>5153664</v>
       </c>
-      <c r="C205" s="0">
+      <c r="C205">
         <v>157715</v>
       </c>
-      <c r="D205" s="0">
+      <c r="D205">
         <v>47991</v>
       </c>
-      <c r="E205" s="0">
+      <c r="E205">
         <v>9555</v>
       </c>
-      <c r="F205" s="0">
+      <c r="F205">
         <v>2604</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" s="0" t="s">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
         <v>210</v>
       </c>
-      <c r="B206" s="0">
+      <c r="B206">
         <v>5205152</v>
       </c>
-      <c r="C206" s="0">
+      <c r="C206">
         <v>158878</v>
       </c>
-      <c r="D206" s="0">
+      <c r="D206">
         <v>47218</v>
       </c>
-      <c r="E206" s="0">
+      <c r="E206">
         <v>9487</v>
       </c>
-      <c r="F206" s="0">
+      <c r="F206">
         <v>2579</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" s="0" t="s">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
         <v>211</v>
       </c>
-      <c r="B207" s="0">
+      <c r="B207">
         <v>5262406</v>
       </c>
-      <c r="C207" s="0">
+      <c r="C207">
         <v>160094</v>
       </c>
-      <c r="D207" s="0">
+      <c r="D207">
         <v>45776</v>
       </c>
-      <c r="E207" s="0">
+      <c r="E207">
         <v>9277</v>
       </c>
-      <c r="F207" s="0">
+      <c r="F207">
         <v>2549</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" s="0" t="s">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
         <v>212</v>
       </c>
-      <c r="B208" s="0">
+      <c r="B208">
         <v>5318266</v>
       </c>
-      <c r="C208" s="0">
+      <c r="C208">
         <v>161315</v>
       </c>
-      <c r="D208" s="0">
+      <c r="D208">
         <v>44795</v>
       </c>
-      <c r="E208" s="0">
+      <c r="E208">
         <v>9087</v>
       </c>
-      <c r="F208" s="0">
+      <c r="F208">
         <v>2526</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" s="0" t="s">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
         <v>213</v>
       </c>
-      <c r="B209" s="0">
+      <c r="B209">
         <v>5360592</v>
       </c>
-      <c r="C209" s="0">
+      <c r="C209">
         <v>161934</v>
       </c>
-      <c r="D209" s="0">
+      <c r="D209">
         <v>44046</v>
       </c>
-      <c r="E209" s="0">
+      <c r="E209">
         <v>8958</v>
       </c>
-      <c r="F209" s="0">
+      <c r="F209">
         <v>2481</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" s="0" t="s">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
         <v>214</v>
       </c>
-      <c r="B210" s="0">
+      <c r="B210">
         <v>5398161</v>
       </c>
-      <c r="C210" s="0">
+      <c r="C210">
         <v>162341</v>
       </c>
-      <c r="D210" s="0">
+      <c r="D210">
         <v>43485</v>
       </c>
-      <c r="E210" s="0">
+      <c r="E210">
         <v>8871</v>
       </c>
-      <c r="F210" s="0">
+      <c r="F210">
         <v>2447</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" s="0" t="s">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
         <v>215</v>
       </c>
-      <c r="B211" s="0">
+      <c r="B211">
         <v>5438600</v>
       </c>
-      <c r="C211" s="0">
+      <c r="C211">
         <v>163537</v>
       </c>
-      <c r="D211" s="0">
+      <c r="D211">
         <v>43758</v>
       </c>
-      <c r="E211" s="0">
+      <c r="E211">
         <v>8866</v>
       </c>
-      <c r="F211" s="0">
+      <c r="F211">
         <v>2468</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" s="0" t="s">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
         <v>216</v>
       </c>
-      <c r="B212" s="0">
+      <c r="B212">
         <v>5483380</v>
       </c>
-      <c r="C212" s="0">
+      <c r="C212">
         <v>164957</v>
       </c>
-      <c r="D212" s="0">
+      <c r="D212">
         <v>43330</v>
       </c>
-      <c r="E212" s="0">
+      <c r="E212">
         <v>8744</v>
       </c>
-      <c r="F212" s="0">
+      <c r="F212">
         <v>2371</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" s="0" t="s">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
         <v>217</v>
       </c>
-      <c r="B213" s="0">
+      <c r="B213">
         <v>5527014</v>
       </c>
-      <c r="C213" s="0">
+      <c r="C213">
         <v>166091</v>
       </c>
-      <c r="D213" s="0">
+      <c r="D213">
         <v>41988</v>
       </c>
-      <c r="E213" s="0">
+      <c r="E213">
         <v>8483</v>
       </c>
-      <c r="F213" s="0">
+      <c r="F213">
         <v>2335</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" s="0" t="s">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
         <v>218</v>
       </c>
-      <c r="B214" s="0">
+      <c r="B214">
         <v>5573242</v>
       </c>
-      <c r="C214" s="0">
+      <c r="C214">
         <v>167214</v>
       </c>
-      <c r="D214" s="0">
+      <c r="D214">
         <v>40951</v>
       </c>
-      <c r="E214" s="0">
+      <c r="E214">
         <v>8357</v>
       </c>
-      <c r="F214" s="0">
+      <c r="F214">
         <v>2286</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" s="0" t="s">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
         <v>219</v>
       </c>
-      <c r="B215" s="0">
+      <c r="B215">
         <v>5618964</v>
       </c>
-      <c r="C215" s="0">
+      <c r="C215">
         <v>168243</v>
       </c>
-      <c r="D215" s="0">
+      <c r="D215">
         <v>39894</v>
       </c>
-      <c r="E215" s="0">
+      <c r="E215">
         <v>8207</v>
       </c>
-      <c r="F215" s="0">
+      <c r="F215">
         <v>2204</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" s="0" t="s">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
         <v>220</v>
       </c>
-      <c r="B216" s="0">
+      <c r="B216">
         <v>5656436</v>
       </c>
-      <c r="C216" s="0">
+      <c r="C216">
         <v>168815</v>
       </c>
-      <c r="D216" s="0">
+      <c r="D216">
         <v>39017</v>
       </c>
-      <c r="E216" s="0">
+      <c r="E216">
         <v>7949</v>
       </c>
-      <c r="F216" s="0">
+      <c r="F216">
         <v>2131</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" s="0" t="s">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
         <v>221</v>
       </c>
-      <c r="B217" s="0">
+      <c r="B217">
         <v>5690768</v>
       </c>
-      <c r="C217" s="0">
+      <c r="C217">
         <v>169158</v>
       </c>
-      <c r="D217" s="0">
+      <c r="D217">
         <v>38673</v>
       </c>
-      <c r="E217" s="0">
+      <c r="E217">
         <v>7851</v>
       </c>
-      <c r="F217" s="0">
+      <c r="F217">
         <v>2118</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" s="0" t="s">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
         <v>222</v>
       </c>
-      <c r="B218" s="0">
+      <c r="B218">
         <v>5727107</v>
       </c>
-      <c r="C218" s="0">
+      <c r="C218">
         <v>170305</v>
       </c>
-      <c r="D218" s="0">
+      <c r="D218">
         <v>38779</v>
       </c>
-      <c r="E218" s="0">
+      <c r="E218">
         <v>7863</v>
       </c>
-      <c r="F218" s="0">
+      <c r="F218">
         <v>2163</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" s="0" t="s">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
         <v>223</v>
       </c>
-      <c r="B219" s="0">
+      <c r="B219">
         <v>5770871</v>
       </c>
-      <c r="C219" s="0">
+      <c r="C219">
         <v>171603</v>
       </c>
-      <c r="D219" s="0">
+      <c r="D219">
         <v>38401</v>
       </c>
-      <c r="E219" s="0">
+      <c r="E219">
         <v>7737</v>
       </c>
-      <c r="F219" s="0">
+      <c r="F219">
         <v>2142</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" s="0" t="s">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
         <v>224</v>
       </c>
-      <c r="B220" s="0">
+      <c r="B220">
         <v>5814635</v>
       </c>
-      <c r="C220" s="0">
+      <c r="C220">
         <v>172732</v>
       </c>
-      <c r="D220" s="0">
+      <c r="D220">
         <v>37464</v>
       </c>
-      <c r="E220" s="0">
+      <c r="E220">
         <v>7717</v>
       </c>
-      <c r="F220" s="0">
+      <c r="F220">
         <v>2125</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" s="0" t="s">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
         <v>225</v>
       </c>
-      <c r="B221" s="0">
+      <c r="B221">
         <v>5860752</v>
       </c>
-      <c r="C221" s="0">
+      <c r="C221">
         <v>173756</v>
       </c>
-      <c r="D221" s="0">
+      <c r="D221">
         <v>37239</v>
       </c>
-      <c r="E221" s="0">
+      <c r="E221">
         <v>7558</v>
       </c>
-      <c r="F221" s="0">
+      <c r="F221">
         <v>2086</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" s="0" t="s">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
         <v>226</v>
       </c>
-      <c r="B222" s="0">
+      <c r="B222">
         <v>5904886</v>
       </c>
-      <c r="C222" s="0">
+      <c r="C222">
         <v>174771</v>
       </c>
-      <c r="D222" s="0">
+      <c r="D222">
         <v>36428</v>
       </c>
-      <c r="E222" s="0">
+      <c r="E222">
         <v>7413</v>
       </c>
-      <c r="F222" s="0">
+      <c r="F222">
         <v>2062</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" s="0" t="s">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
         <v>227</v>
       </c>
-      <c r="B223" s="0">
+      <c r="B223">
         <v>5944296</v>
       </c>
-      <c r="C223" s="0">
+      <c r="C223">
         <v>175246</v>
       </c>
-      <c r="D223" s="0">
+      <c r="D223">
         <v>35726</v>
       </c>
-      <c r="E223" s="0">
+      <c r="E223">
         <v>7268</v>
       </c>
-      <c r="F223" s="0">
+      <c r="F223">
         <v>2055</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" s="0" t="s">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
         <v>228</v>
       </c>
-      <c r="B224" s="0">
+      <c r="B224">
         <v>5975589</v>
       </c>
-      <c r="C224" s="0">
+      <c r="C224">
         <v>175612</v>
       </c>
-      <c r="D224" s="0">
+      <c r="D224">
         <v>35352</v>
       </c>
-      <c r="E224" s="0">
+      <c r="E224">
         <v>7043</v>
       </c>
-      <c r="F224" s="0">
+      <c r="F224">
         <v>2077</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" s="0" t="s">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
         <v>229</v>
       </c>
-      <c r="B225" s="0">
+      <c r="B225">
         <v>6017826</v>
       </c>
-      <c r="C225" s="0">
+      <c r="C225">
         <v>176639</v>
       </c>
-      <c r="D225" s="0">
+      <c r="D225">
         <v>35271</v>
       </c>
-      <c r="E225" s="0">
+      <c r="E225">
         <v>7090</v>
       </c>
-      <c r="F225" s="0">
+      <c r="F225">
         <v>2042</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" s="0" t="s">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
         <v>230</v>
       </c>
-      <c r="B226" s="0">
+      <c r="B226">
         <v>6048113</v>
       </c>
-      <c r="C226" s="0">
+      <c r="C226">
         <v>177671</v>
       </c>
-      <c r="D226" s="0">
+      <c r="D226">
         <v>35569</v>
       </c>
-      <c r="E226" s="0">
+      <c r="E226">
         <v>7087</v>
       </c>
-      <c r="F226" s="0">
+      <c r="F226">
         <v>2024</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" s="0" t="s">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
         <v>231</v>
       </c>
-      <c r="B227" s="0">
+      <c r="B227">
         <v>6092675</v>
       </c>
-      <c r="C227" s="0">
+      <c r="C227">
         <v>178741</v>
       </c>
-      <c r="D227" s="0">
+      <c r="D227">
         <v>34682</v>
       </c>
-      <c r="E227" s="0">
+      <c r="E227">
         <v>6921</v>
       </c>
-      <c r="F227" s="0">
+      <c r="F227">
         <v>2042</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" s="0" t="s">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
         <v>232</v>
       </c>
-      <c r="B228" s="0">
+      <c r="B228">
         <v>6144204</v>
       </c>
-      <c r="C228" s="0">
+      <c r="C228">
         <v>179739</v>
       </c>
-      <c r="D228" s="0">
+      <c r="D228">
         <v>34099</v>
       </c>
-      <c r="E228" s="0">
+      <c r="E228">
         <v>6924</v>
       </c>
-      <c r="F228" s="0">
+      <c r="F228">
         <v>1995</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" s="0" t="s">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
         <v>233</v>
       </c>
-      <c r="B229" s="0">
+      <c r="B229">
         <v>6188937</v>
       </c>
-      <c r="C229" s="0">
+      <c r="C229">
         <v>180657</v>
       </c>
-      <c r="D229" s="0">
+      <c r="D229">
         <v>33502</v>
       </c>
-      <c r="E229" s="0">
+      <c r="E229">
         <v>6766</v>
       </c>
-      <c r="F229" s="0">
+      <c r="F229">
         <v>1956</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" s="0" t="s">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
         <v>234</v>
       </c>
-      <c r="B230" s="0">
+      <c r="B230">
         <v>6221988</v>
       </c>
-      <c r="C230" s="0">
+      <c r="C230">
         <v>181106</v>
       </c>
-      <c r="D230" s="0">
+      <c r="D230">
         <v>32372</v>
       </c>
-      <c r="E230" s="0">
+      <c r="E230">
         <v>6700</v>
       </c>
-      <c r="F230" s="0">
+      <c r="F230">
         <v>1912</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" s="0" t="s">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
         <v>235</v>
       </c>
-      <c r="B231" s="0">
+      <c r="B231">
         <v>6250225</v>
       </c>
-      <c r="C231" s="0">
+      <c r="C231">
         <v>181331</v>
       </c>
-      <c r="D231" s="0">
+      <c r="D231">
         <v>31999</v>
       </c>
-      <c r="E231" s="0">
+      <c r="E231">
         <v>6630</v>
       </c>
-      <c r="F231" s="0">
+      <c r="F231">
         <v>1879</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" s="0" t="s">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
         <v>236</v>
       </c>
-      <c r="B232" s="0">
+      <c r="B232">
         <v>6272389</v>
       </c>
-      <c r="C232" s="0">
+      <c r="C232">
         <v>181689</v>
       </c>
-      <c r="D232" s="0">
+      <c r="D232">
         <v>32262</v>
       </c>
-      <c r="E232" s="0">
+      <c r="E232">
         <v>6542</v>
       </c>
-      <c r="F232" s="0">
+      <c r="F232">
         <v>1879</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" s="0" t="s">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
         <v>237</v>
       </c>
-      <c r="B233" s="0">
+      <c r="B233">
         <v>6303451</v>
       </c>
-      <c r="C233" s="0">
+      <c r="C233">
         <v>182773</v>
       </c>
-      <c r="D233" s="0">
+      <c r="D233">
         <v>32562</v>
       </c>
-      <c r="E233" s="0">
+      <c r="E233">
         <v>6646</v>
       </c>
-      <c r="F233" s="0">
+      <c r="F233">
         <v>1903</v>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" s="0" t="s">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
         <v>238</v>
       </c>
-      <c r="B234" s="0">
+      <c r="B234">
         <v>6340673</v>
       </c>
-      <c r="C234" s="0">
+      <c r="C234">
         <v>183943</v>
       </c>
-      <c r="D234" s="0">
+      <c r="D234">
         <v>32421</v>
       </c>
-      <c r="E234" s="0">
+      <c r="E234">
         <v>6531</v>
       </c>
-      <c r="F234" s="0">
+      <c r="F234">
         <v>1925</v>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" s="0" t="s">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
         <v>239</v>
       </c>
-      <c r="B235" s="0">
+      <c r="B235">
         <v>6385361</v>
       </c>
-      <c r="C235" s="0">
+      <c r="C235">
         <v>184961</v>
       </c>
-      <c r="D235" s="0">
+      <c r="D235">
         <v>31421</v>
       </c>
-      <c r="E235" s="0">
+      <c r="E235">
         <v>6379</v>
       </c>
-      <c r="F235" s="0">
+      <c r="F235">
         <v>1715</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" s="0" t="s">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
         <v>240</v>
       </c>
-      <c r="B236" s="0">
+      <c r="B236">
         <v>6427159</v>
       </c>
-      <c r="C236" s="0">
+      <c r="C236">
         <v>185771</v>
       </c>
-      <c r="D236" s="0">
+      <c r="D236">
         <v>30655</v>
       </c>
-      <c r="E236" s="0">
+      <c r="E236">
         <v>6451</v>
       </c>
-      <c r="F236" s="0">
+      <c r="F236">
         <v>1619</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" s="0" t="s">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
         <v>241</v>
       </c>
-      <c r="B237" s="0">
+      <c r="B237">
         <v>6461467</v>
       </c>
-      <c r="C237" s="0">
+      <c r="C237">
         <v>186161</v>
       </c>
-      <c r="D237" s="0">
+      <c r="D237">
         <v>29810</v>
       </c>
-      <c r="E237" s="0">
+      <c r="E237">
         <v>6233</v>
       </c>
-      <c r="F237" s="0">
+      <c r="F237">
         <v>1562</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" s="0" t="s">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
         <v>242</v>
       </c>
-      <c r="B238" s="0">
+      <c r="B238">
         <v>6495151</v>
       </c>
-      <c r="C238" s="0">
+      <c r="C238">
         <v>186565</v>
       </c>
-      <c r="D238" s="0">
+      <c r="D238">
         <v>29895</v>
       </c>
-      <c r="E238" s="0">
+      <c r="E238">
         <v>6238</v>
       </c>
-      <c r="F238" s="0">
+      <c r="F238">
         <v>1507</v>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" s="0" t="s">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
         <v>243</v>
       </c>
-      <c r="B239" s="0">
+      <c r="B239">
         <v>6530030</v>
       </c>
-      <c r="C239" s="0">
+      <c r="C239">
         <v>187596</v>
       </c>
-      <c r="D239" s="0">
+      <c r="D239">
         <v>30328</v>
       </c>
-      <c r="E239" s="0">
+      <c r="E239">
         <v>6310</v>
       </c>
-      <c r="F239" s="0">
+      <c r="F239">
         <v>1572</v>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" s="0" t="s">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
         <v>244</v>
       </c>
-      <c r="B240" s="0">
+      <c r="B240">
         <v>6569918</v>
       </c>
-      <c r="C240" s="0">
+      <c r="C240">
         <v>188796</v>
       </c>
-      <c r="D240" s="0">
+      <c r="D240">
         <v>30278</v>
       </c>
-      <c r="E240" s="0">
+      <c r="E240">
         <v>6308</v>
       </c>
-      <c r="F240" s="0">
+      <c r="F240">
         <v>1651</v>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" s="0" t="s">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
         <v>245</v>
       </c>
-      <c r="B241" s="0">
+      <c r="B241">
         <v>6613293</v>
       </c>
-      <c r="C241" s="0">
+      <c r="C241">
         <v>189659</v>
       </c>
-      <c r="D241" s="0">
+      <c r="D241">
         <v>29900</v>
       </c>
-      <c r="E241" s="0">
+      <c r="E241">
         <v>6278</v>
       </c>
-      <c r="F241" s="0">
+      <c r="F241">
         <v>1658</v>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" s="0" t="s">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
         <v>246</v>
       </c>
-      <c r="B242" s="0">
+      <c r="B242">
         <v>6660414</v>
       </c>
-      <c r="C242" s="0">
+      <c r="C242">
         <v>190560</v>
       </c>
-      <c r="D242" s="0">
+      <c r="D242">
         <v>29501</v>
       </c>
-      <c r="E242" s="0">
+      <c r="E242">
         <v>6175</v>
       </c>
-      <c r="F242" s="0">
+      <c r="F242">
         <v>1608</v>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" s="0" t="s">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
         <v>247</v>
       </c>
-      <c r="B243" s="0">
+      <c r="B243">
         <v>6705300</v>
       </c>
-      <c r="C243" s="0">
+      <c r="C243">
         <v>191300</v>
       </c>
-      <c r="D243" s="0">
+      <c r="D243">
         <v>29035</v>
       </c>
-      <c r="E243" s="0">
+      <c r="E243">
         <v>6070</v>
       </c>
-      <c r="F243" s="0">
+      <c r="F243">
         <v>1577</v>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" s="0" t="s">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
         <v>248</v>
       </c>
-      <c r="B244" s="0">
+      <c r="B244">
         <v>6740988</v>
       </c>
-      <c r="C244" s="0">
+      <c r="C244">
         <v>191627</v>
       </c>
-      <c r="D244" s="0">
+      <c r="D244">
         <v>28608</v>
       </c>
-      <c r="E244" s="0">
+      <c r="E244">
         <v>6015</v>
       </c>
-      <c r="F244" s="0">
+      <c r="F244">
         <v>1595</v>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" s="0" t="s">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
         <v>249</v>
       </c>
-      <c r="B245" s="0">
+      <c r="B245">
         <v>6780050</v>
       </c>
-      <c r="C245" s="0">
+      <c r="C245">
         <v>191914</v>
       </c>
-      <c r="D245" s="0">
+      <c r="D245">
         <v>28755</v>
       </c>
-      <c r="E245" s="0">
+      <c r="E245">
         <v>6071</v>
       </c>
-      <c r="F245" s="0">
+      <c r="F245">
         <v>1572</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" s="0" t="s">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
         <v>250</v>
       </c>
-      <c r="B246" s="0">
+      <c r="B246">
         <v>6829401</v>
       </c>
-      <c r="C246" s="0">
+      <c r="C246">
         <v>192768</v>
       </c>
-      <c r="D246" s="0">
+      <c r="D246">
         <v>29459</v>
       </c>
-      <c r="E246" s="0">
+      <c r="E246">
         <v>6111</v>
       </c>
-      <c r="F246" s="0">
+      <c r="F246">
         <v>1562</v>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" s="0" t="s">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
         <v>251</v>
       </c>
-      <c r="B247" s="0">
+      <c r="B247">
         <v>6867948</v>
       </c>
-      <c r="C247" s="0">
+      <c r="C247">
         <v>193927</v>
       </c>
-      <c r="D247" s="0">
+      <c r="D247">
         <v>29905</v>
       </c>
-      <c r="E247" s="0">
+      <c r="E247">
         <v>6113</v>
       </c>
-      <c r="F247" s="0">
+      <c r="F247">
         <v>1544</v>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" s="0" t="s">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
         <v>252</v>
       </c>
-      <c r="B248" s="0">
+      <c r="B248">
         <v>6911191</v>
       </c>
-      <c r="C248" s="0">
+      <c r="C248">
         <v>194848</v>
       </c>
-      <c r="D248" s="0">
+      <c r="D248">
         <v>30043</v>
       </c>
-      <c r="E248" s="0">
+      <c r="E248">
         <v>6168</v>
       </c>
-      <c r="F248" s="0">
+      <c r="F248">
         <v>1560</v>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" s="0" t="s">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
         <v>253</v>
       </c>
-      <c r="B249" s="0">
+      <c r="B249">
         <v>6966328</v>
       </c>
-      <c r="C249" s="0">
+      <c r="C249">
         <v>195692</v>
       </c>
-      <c r="D249" s="0">
+      <c r="D249">
         <v>29769</v>
       </c>
-      <c r="E249" s="0">
+      <c r="E249">
         <v>6133</v>
       </c>
-      <c r="F249" s="0">
+      <c r="F249">
         <v>1506</v>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" s="0" t="s">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
         <v>254</v>
       </c>
-      <c r="B250" s="0">
+      <c r="B250">
         <v>7013908</v>
       </c>
-      <c r="C250" s="0">
+      <c r="C250">
         <v>196561</v>
       </c>
-      <c r="D250" s="0">
+      <c r="D250">
         <v>29554</v>
       </c>
-      <c r="E250" s="0">
+      <c r="E250">
         <v>6057</v>
       </c>
-      <c r="F250" s="0">
+      <c r="F250">
         <v>1509</v>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" s="0" t="s">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
         <v>255</v>
       </c>
-      <c r="B251" s="0">
+      <c r="B251">
         <v>7048969</v>
       </c>
-      <c r="C251" s="0">
+      <c r="C251">
         <v>196868</v>
       </c>
-      <c r="D251" s="0">
+      <c r="D251">
         <v>29434</v>
       </c>
-      <c r="E251" s="0">
+      <c r="E251">
         <v>6080</v>
       </c>
-      <c r="F251" s="0">
+      <c r="F251">
         <v>1511</v>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" s="0" t="s">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
         <v>256</v>
       </c>
-      <c r="B252" s="0">
+      <c r="B252">
         <v>7085025</v>
       </c>
-      <c r="C252" s="0">
+      <c r="C252">
         <v>197125</v>
       </c>
-      <c r="D252" s="0">
+      <c r="D252">
         <v>29608</v>
       </c>
-      <c r="E252" s="0">
+      <c r="E252">
         <v>5981</v>
       </c>
-      <c r="F252" s="0">
+      <c r="F252">
         <v>1518</v>
       </c>
     </row>
-    <row r="253">
-      <c r="A253" s="0" t="s">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
         <v>257</v>
       </c>
-      <c r="B253" s="0">
+      <c r="B253">
         <v>7121314</v>
       </c>
-      <c r="C253" s="0">
+      <c r="C253">
         <v>197864</v>
       </c>
-      <c r="D253" s="0">
+      <c r="D253">
         <v>30473</v>
       </c>
-      <c r="E253" s="0">
+      <c r="E253">
         <v>6106</v>
       </c>
-      <c r="F253" s="0">
+      <c r="F253">
         <v>1495</v>
       </c>
     </row>
-    <row r="254">
-      <c r="A254" s="0" t="s">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
         <v>258</v>
       </c>
-      <c r="B254" s="0">
+      <c r="B254">
         <v>7165581</v>
       </c>
-      <c r="C254" s="0">
+      <c r="C254">
         <v>198925</v>
       </c>
-      <c r="D254" s="0">
+      <c r="D254">
         <v>30911</v>
       </c>
-      <c r="E254" s="0">
+      <c r="E254">
         <v>6145</v>
       </c>
-      <c r="F254" s="0">
+      <c r="F254">
         <v>1507</v>
       </c>
     </row>
-    <row r="255">
-      <c r="A255" s="0" t="s">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
         <v>259</v>
       </c>
-      <c r="B255" s="0">
+      <c r="B255">
         <v>7211062</v>
       </c>
-      <c r="C255" s="0">
+      <c r="C255">
         <v>199776</v>
       </c>
-      <c r="D255" s="0">
+      <c r="D255">
         <v>30790</v>
       </c>
-      <c r="E255" s="0">
+      <c r="E255">
         <v>6173</v>
       </c>
-      <c r="F255" s="0">
+      <c r="F255">
         <v>1547</v>
       </c>
     </row>
-    <row r="256">
-      <c r="A256" s="0" t="s">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
         <v>260</v>
       </c>
-      <c r="B256" s="0">
+      <c r="B256">
         <v>7260195</v>
       </c>
-      <c r="C256" s="0">
+      <c r="C256">
         <v>200611</v>
       </c>
-      <c r="D256" s="0">
+      <c r="D256">
         <v>30744</v>
       </c>
-      <c r="E256" s="0">
+      <c r="E256">
         <v>6106</v>
       </c>
-      <c r="F256" s="0">
+      <c r="F256">
         <v>1533</v>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" s="0" t="s">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
         <v>261</v>
       </c>
-      <c r="B257" s="0">
+      <c r="B257">
         <v>7311204</v>
       </c>
-      <c r="C257" s="0">
+      <c r="C257">
         <v>201352</v>
       </c>
-      <c r="D257" s="0">
+      <c r="D257">
         <v>30113</v>
       </c>
-      <c r="E257" s="0">
+      <c r="E257">
         <v>5996</v>
       </c>
-      <c r="F257" s="0">
+      <c r="F257">
         <v>1501</v>
       </c>
     </row>
-    <row r="258">
-      <c r="A258" s="0" t="s">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
         <v>262</v>
       </c>
-      <c r="B258" s="0">
+      <c r="B258">
         <v>7349491</v>
       </c>
-      <c r="C258" s="0">
+      <c r="C258">
         <v>201715</v>
       </c>
-      <c r="D258" s="0">
+      <c r="D258">
         <v>29942</v>
       </c>
-      <c r="E258" s="0">
+      <c r="E258">
         <v>5974</v>
       </c>
-      <c r="F258" s="0">
+      <c r="F258">
         <v>1485</v>
       </c>
     </row>
-    <row r="259">
-      <c r="A259" s="0" t="s">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
         <v>263</v>
       </c>
-      <c r="B259" s="0">
+      <c r="B259">
         <v>7387348</v>
       </c>
-      <c r="C259" s="0">
+      <c r="C259">
         <v>202041</v>
       </c>
-      <c r="D259" s="0">
+      <c r="D259">
         <v>31299</v>
       </c>
-      <c r="E259" s="0">
+      <c r="E259">
         <v>6209</v>
       </c>
-      <c r="F259" s="0">
+      <c r="F259">
         <v>1515</v>
       </c>
     </row>
-    <row r="260">
-      <c r="A260" s="0" t="s">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
         <v>264</v>
       </c>
-      <c r="B260" s="0">
+      <c r="B260">
         <v>7425765</v>
       </c>
-      <c r="C260" s="0">
+      <c r="C260">
         <v>202675</v>
       </c>
-      <c r="D260" s="0">
+      <c r="D260">
         <v>32595</v>
       </c>
-      <c r="E260" s="0">
+      <c r="E260">
         <v>6438</v>
       </c>
-      <c r="F260" s="0">
+      <c r="F260">
         <v>1609</v>
       </c>
     </row>
-    <row r="261">
-      <c r="A261" s="0" t="s">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
         <v>265</v>
       </c>
-      <c r="B261" s="0">
+      <c r="B261">
         <v>7476321</v>
       </c>
-      <c r="C261" s="0">
+      <c r="C261">
         <v>203591</v>
       </c>
-      <c r="D261" s="0">
+      <c r="D261">
         <v>33457</v>
       </c>
-      <c r="E261" s="0">
+      <c r="E261">
         <v>6507</v>
       </c>
-      <c r="F261" s="0">
+      <c r="F261">
         <v>1646</v>
       </c>
     </row>
-    <row r="262">
-      <c r="A262" s="0" t="s">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
         <v>266</v>
       </c>
-      <c r="B262" s="0">
+      <c r="B262">
         <v>7531439</v>
       </c>
-      <c r="C262" s="0">
+      <c r="C262">
         <v>204577</v>
       </c>
-      <c r="D262" s="0">
+      <c r="D262">
         <v>34322</v>
       </c>
-      <c r="E262" s="0">
+      <c r="E262">
         <v>6621</v>
       </c>
-      <c r="F262" s="0">
+      <c r="F262">
         <v>1638</v>
       </c>
     </row>
-    <row r="263">
-      <c r="A263" s="0" t="s">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
         <v>267</v>
       </c>
-      <c r="B263" s="0">
+      <c r="B263">
         <v>7588162</v>
       </c>
-      <c r="C263" s="0">
+      <c r="C263">
         <v>205470</v>
       </c>
-      <c r="D263" s="0">
+      <c r="D263">
         <v>34839</v>
       </c>
-      <c r="E263" s="0">
+      <c r="E263">
         <v>6713</v>
       </c>
-      <c r="F263" s="0">
+      <c r="F263">
         <v>1655</v>
       </c>
     </row>
-    <row r="264">
-      <c r="A264" s="0" t="s">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
         <v>268</v>
       </c>
-      <c r="B264" s="0">
+      <c r="B264">
         <v>7645414</v>
       </c>
-      <c r="C264" s="0">
+      <c r="C264">
         <v>206135</v>
       </c>
-      <c r="D264" s="0">
+      <c r="D264">
         <v>34618</v>
       </c>
-      <c r="E264" s="0">
+      <c r="E264">
         <v>6683</v>
       </c>
-      <c r="F264" s="0">
+      <c r="F264">
         <v>1667</v>
       </c>
     </row>
-    <row r="265">
-      <c r="A265" s="0" t="s">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
         <v>269</v>
       </c>
-      <c r="B265" s="0">
+      <c r="B265">
         <v>7692115</v>
       </c>
-      <c r="C265" s="0">
+      <c r="C265">
         <v>206601</v>
       </c>
-      <c r="D265" s="0">
+      <c r="D265">
         <v>34490</v>
       </c>
-      <c r="E265" s="0">
+      <c r="E265">
         <v>6679</v>
       </c>
-      <c r="F265" s="0">
+      <c r="F265">
         <v>1646</v>
       </c>
     </row>
-    <row r="266">
-      <c r="A266" s="0" t="s">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
         <v>270</v>
       </c>
-      <c r="B266" s="0">
+      <c r="B266">
         <v>7734890</v>
       </c>
-      <c r="C266" s="0">
+      <c r="C266">
         <v>206888</v>
       </c>
-      <c r="D266" s="0">
+      <c r="D266">
         <v>35072</v>
       </c>
-      <c r="E266" s="0">
+      <c r="E266">
         <v>6807</v>
       </c>
-      <c r="F266" s="0">
+      <c r="F266">
         <v>1666</v>
       </c>
     </row>
-    <row r="267">
-      <c r="A267" s="0" t="s">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
         <v>271</v>
       </c>
-      <c r="B267" s="0">
+      <c r="B267">
         <v>7783038</v>
       </c>
-      <c r="C267" s="0">
+      <c r="C267">
         <v>207578</v>
       </c>
-      <c r="D267" s="0">
+      <c r="D267">
         <v>36051</v>
       </c>
-      <c r="E267" s="0">
+      <c r="E267">
         <v>7020</v>
       </c>
-      <c r="F267" s="0">
+      <c r="F267">
         <v>1755</v>
       </c>
     </row>
-    <row r="268">
-      <c r="A268" s="0" t="s">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
         <v>272</v>
       </c>
-      <c r="B268" s="0">
+      <c r="B268">
         <v>7839274</v>
       </c>
-      <c r="C268" s="0">
+      <c r="C268">
         <v>208389</v>
       </c>
-      <c r="D268" s="0">
+      <c r="D268">
         <v>37048</v>
       </c>
-      <c r="E268" s="0">
+      <c r="E268">
         <v>7156</v>
       </c>
-      <c r="F268" s="0">
+      <c r="F268">
         <v>1776</v>
       </c>
     </row>
-    <row r="269">
-      <c r="A269" s="0" t="s">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
         <v>273</v>
       </c>
-      <c r="B269" s="0">
+      <c r="B269">
         <v>7902125</v>
       </c>
-      <c r="C269" s="0">
+      <c r="C269">
         <v>209340</v>
       </c>
-      <c r="D269" s="0">
+      <c r="D269">
         <v>37308</v>
       </c>
-      <c r="E269" s="0">
+      <c r="E269">
         <v>7220</v>
       </c>
-      <c r="F269" s="0">
+      <c r="F269">
         <v>1769</v>
       </c>
     </row>
-    <row r="270">
-      <c r="A270" s="0" t="s">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
         <v>274</v>
       </c>
-      <c r="B270" s="0">
+      <c r="B270">
         <v>7970065</v>
       </c>
-      <c r="C270" s="0">
+      <c r="C270">
         <v>210217</v>
       </c>
-      <c r="D270" s="0">
+      <c r="D270">
         <v>37336</v>
       </c>
-      <c r="E270" s="0">
+      <c r="E270">
         <v>7251</v>
       </c>
-      <c r="F270" s="0">
+      <c r="F270">
         <v>1739</v>
       </c>
     </row>
-    <row r="271">
-      <c r="A271" s="0" t="s">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
         <v>275</v>
       </c>
-      <c r="B271" s="0">
+      <c r="B271">
         <v>8027813</v>
       </c>
-      <c r="C271" s="0">
+      <c r="C271">
         <v>210997</v>
       </c>
-      <c r="D271" s="0">
+      <c r="D271">
         <v>37359</v>
       </c>
-      <c r="E271" s="0">
+      <c r="E271">
         <v>7384</v>
       </c>
-      <c r="F271" s="0">
+      <c r="F271">
         <v>1791</v>
       </c>
     </row>
-    <row r="272">
-      <c r="A272" s="0" t="s">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
         <v>276</v>
       </c>
-      <c r="B272" s="0">
+      <c r="B272">
         <v>8076445</v>
       </c>
-      <c r="C272" s="0">
+      <c r="C272">
         <v>211390</v>
       </c>
-      <c r="D272" s="0">
+      <c r="D272">
         <v>36437</v>
       </c>
-      <c r="E272" s="0">
+      <c r="E272">
         <v>7292</v>
       </c>
-      <c r="F272" s="0">
+      <c r="F272">
         <v>1762</v>
       </c>
     </row>
-    <row r="273">
-      <c r="A273" s="0" t="s">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
         <v>277</v>
       </c>
-      <c r="B273" s="0">
+      <c r="B273">
         <v>8133347</v>
       </c>
-      <c r="C273" s="0">
+      <c r="C273">
         <v>211846</v>
       </c>
-      <c r="D273" s="0">
+      <c r="D273">
         <v>37826</v>
       </c>
-      <c r="E273" s="0">
+      <c r="E273">
         <v>7997</v>
       </c>
-      <c r="F273" s="0">
+      <c r="F273">
         <v>1800</v>
       </c>
     </row>
-    <row r="274">
-      <c r="A274" s="0" t="s">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
         <v>278</v>
       </c>
-      <c r="B274" s="0">
+      <c r="B274">
         <v>8193659</v>
       </c>
-      <c r="C274" s="0">
+      <c r="C274">
         <v>212678</v>
       </c>
-      <c r="D274" s="0">
+      <c r="D274">
         <v>39230</v>
       </c>
-      <c r="E274" s="0">
+      <c r="E274">
         <v>8131</v>
       </c>
-      <c r="F274" s="0">
+      <c r="F274">
         <v>2045</v>
       </c>
     </row>
-    <row r="275">
-      <c r="A275" s="0" t="s">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
         <v>279</v>
       </c>
-      <c r="B275" s="0">
+      <c r="B275">
         <v>8254316</v>
       </c>
-      <c r="C275" s="0">
+      <c r="C275">
         <v>213702</v>
       </c>
-      <c r="D275" s="0">
+      <c r="D275">
         <v>40271</v>
       </c>
-      <c r="E275" s="0">
+      <c r="E275">
         <v>8182</v>
       </c>
-      <c r="F275" s="0">
+      <c r="F275">
         <v>2090</v>
       </c>
     </row>
-    <row r="276">
-      <c r="A276" s="0" t="s">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
         <v>280</v>
       </c>
-      <c r="B276" s="0">
+      <c r="B276">
         <v>8327203</v>
       </c>
-      <c r="C276" s="0">
+      <c r="C276">
         <v>214845</v>
       </c>
-      <c r="D276" s="0">
+      <c r="D276">
         <v>41010</v>
       </c>
-      <c r="E276" s="0">
+      <c r="E276">
         <v>8086</v>
       </c>
-      <c r="F276" s="0">
+      <c r="F276">
         <v>2147</v>
       </c>
     </row>
-    <row r="277">
-      <c r="A277" s="0" t="s">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
         <v>281</v>
       </c>
-      <c r="B277" s="0">
+      <c r="B277">
         <v>8409465</v>
       </c>
-      <c r="C277" s="0">
+      <c r="C277">
         <v>215762</v>
       </c>
-      <c r="D277" s="0">
+      <c r="D277">
         <v>41482</v>
       </c>
-      <c r="E277" s="0">
+      <c r="E277">
         <v>8237</v>
       </c>
-      <c r="F277" s="0">
+      <c r="F277">
         <v>2180</v>
       </c>
     </row>
-    <row r="278">
-      <c r="A278" s="0" t="s">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
         <v>282</v>
       </c>
-      <c r="B278" s="0">
+      <c r="B278">
         <v>8492210</v>
       </c>
-      <c r="C278" s="0">
+      <c r="C278">
         <v>216652</v>
       </c>
-      <c r="D278" s="0">
+      <c r="D278">
         <v>41905</v>
       </c>
-      <c r="E278" s="0">
+      <c r="E278">
         <v>8561</v>
       </c>
-      <c r="F278" s="0">
+      <c r="F278">
         <v>2230</v>
       </c>
     </row>
-    <row r="279">
-      <c r="A279" s="0" t="s">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
         <v>283</v>
       </c>
-      <c r="B279" s="0">
+      <c r="B279">
         <v>8557302</v>
       </c>
-      <c r="C279" s="0">
+      <c r="C279">
         <v>217029</v>
       </c>
-      <c r="D279" s="0">
+      <c r="D279">
         <v>41776</v>
       </c>
-      <c r="E279" s="0">
+      <c r="E279">
         <v>8489</v>
       </c>
-      <c r="F279" s="0">
+      <c r="F279">
         <v>2176</v>
       </c>
     </row>
-    <row r="280">
-      <c r="A280" s="0" t="s">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
         <v>284</v>
       </c>
-      <c r="B280" s="0">
+      <c r="B280">
         <v>8619405</v>
       </c>
-      <c r="C280" s="0">
+      <c r="C280">
         <v>217418</v>
       </c>
-      <c r="D280" s="0">
+      <c r="D280">
         <v>42917</v>
       </c>
-      <c r="E280" s="0">
+      <c r="E280">
         <v>8842</v>
       </c>
-      <c r="F280" s="0">
+      <c r="F280">
         <v>2301</v>
       </c>
     </row>
-    <row r="281">
-      <c r="A281" s="0" t="s">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
         <v>285</v>
       </c>
-      <c r="B281" s="0">
+      <c r="B281">
         <v>8692402</v>
       </c>
-      <c r="C281" s="0">
+      <c r="C281">
         <v>218349</v>
       </c>
-      <c r="D281" s="0">
+      <c r="D281">
         <v>44212</v>
       </c>
-      <c r="E281" s="0">
+      <c r="E281">
         <v>8909</v>
       </c>
-      <c r="F281" s="0">
+      <c r="F281">
         <v>2287</v>
       </c>
     </row>
-    <row r="282">
-      <c r="A282" s="0" t="s">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
         <v>286</v>
       </c>
-      <c r="B282" s="0">
+      <c r="B282">
         <v>8771039</v>
       </c>
-      <c r="C282" s="0">
+      <c r="C282">
         <v>219374</v>
       </c>
-      <c r="D282" s="0">
+      <c r="D282">
         <v>45045</v>
       </c>
-      <c r="E282" s="0">
+      <c r="E282">
         <v>9034</v>
       </c>
-      <c r="F282" s="0">
+      <c r="F282">
         <v>2347</v>
       </c>
     </row>
-    <row r="283">
-      <c r="A283" s="0" t="s">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
         <v>287</v>
       </c>
-      <c r="B283" s="0">
+      <c r="B283">
         <v>8859032</v>
       </c>
-      <c r="C283" s="0">
+      <c r="C283">
         <v>220423</v>
       </c>
-      <c r="D283" s="0">
+      <c r="D283">
         <v>46095</v>
       </c>
-      <c r="E283" s="0">
+      <c r="E283">
         <v>9208</v>
       </c>
-      <c r="F283" s="0">
+      <c r="F283">
         <v>2403</v>
       </c>
     </row>
-    <row r="284">
-      <c r="A284" s="0" t="s">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
         <v>288</v>
       </c>
-      <c r="B284" s="0">
+      <c r="B284">
         <v>8955741</v>
       </c>
-      <c r="C284" s="0">
+      <c r="C284">
         <v>221356</v>
       </c>
-      <c r="D284" s="0">
+      <c r="D284">
         <v>46688</v>
       </c>
-      <c r="E284" s="0">
+      <c r="E284">
         <v>9437</v>
       </c>
-      <c r="F284" s="0">
+      <c r="F284">
         <v>2477</v>
       </c>
     </row>
-    <row r="285">
-      <c r="A285" s="0" t="s">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
         <v>289</v>
       </c>
-      <c r="B285" s="0">
+      <c r="B285">
         <v>9046233</v>
       </c>
-      <c r="C285" s="0">
+      <c r="C285">
         <v>222319</v>
       </c>
-      <c r="D285" s="0">
+      <c r="D285">
         <v>47375</v>
       </c>
-      <c r="E285" s="0">
+      <c r="E285">
         <v>9499</v>
       </c>
-      <c r="F285" s="0">
+      <c r="F285">
         <v>2502</v>
       </c>
     </row>
-    <row r="286">
-      <c r="A286" s="0" t="s">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
         <v>290</v>
       </c>
-      <c r="B286" s="0">
+      <c r="B286">
         <v>9120284</v>
       </c>
-      <c r="C286" s="0">
+      <c r="C286">
         <v>222710</v>
       </c>
-      <c r="D286" s="0">
+      <c r="D286">
         <v>47520</v>
       </c>
-      <c r="E286" s="0">
+      <c r="E286">
         <v>9553</v>
       </c>
-      <c r="F286" s="0">
+      <c r="F286">
         <v>2553</v>
       </c>
     </row>
-    <row r="287">
-      <c r="A287" s="0" t="s">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
         <v>291</v>
       </c>
-      <c r="B287" s="0">
+      <c r="B287">
         <v>9202532</v>
       </c>
-      <c r="C287" s="0">
+      <c r="C287">
         <v>223186</v>
       </c>
-      <c r="D287" s="0">
+      <c r="D287">
         <v>48470</v>
       </c>
-      <c r="E287" s="0">
+      <c r="E287">
         <v>9858</v>
       </c>
-      <c r="F287" s="0">
+      <c r="F287">
         <v>2637</v>
       </c>
     </row>
-    <row r="288">
-      <c r="A288" s="0" t="s">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
         <v>292</v>
       </c>
-      <c r="B288" s="0">
+      <c r="B288">
         <v>9288613</v>
       </c>
-      <c r="C288" s="0">
+      <c r="C288">
         <v>224715</v>
       </c>
-      <c r="D288" s="0">
+      <c r="D288">
         <v>50340</v>
       </c>
-      <c r="E288" s="0">
+      <c r="E288">
         <v>10406</v>
       </c>
-      <c r="F288" s="0">
+      <c r="F288">
         <v>2733</v>
       </c>
     </row>
-    <row r="289">
-      <c r="A289" s="0" t="s">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
         <v>293</v>
       </c>
-      <c r="B289" s="0">
+      <c r="B289">
         <v>9391680</v>
       </c>
-      <c r="C289" s="0">
+      <c r="C289">
         <v>225831</v>
       </c>
-      <c r="D289" s="0">
+      <c r="D289">
         <v>52049</v>
       </c>
-      <c r="E289" s="0">
+      <c r="E289">
         <v>10761</v>
       </c>
-      <c r="F289" s="0">
+      <c r="F289">
         <v>2832</v>
       </c>
     </row>
-    <row r="290">
-      <c r="A290" s="0" t="s">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
         <v>294</v>
       </c>
-      <c r="B290" s="0">
+      <c r="B290">
         <v>9507833</v>
       </c>
-      <c r="C290" s="0">
+      <c r="C290">
         <v>226955</v>
       </c>
-      <c r="D290" s="0">
+      <c r="D290">
         <v>53322</v>
       </c>
-      <c r="E290" s="0">
+      <c r="E290">
         <v>10918</v>
       </c>
-      <c r="F290" s="0">
+      <c r="F290">
         <v>2877</v>
       </c>
     </row>
-    <row r="291">
-      <c r="A291" s="0" t="s">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
         <v>295</v>
       </c>
-      <c r="B291" s="0">
+      <c r="B291">
         <v>9633085</v>
       </c>
-      <c r="C291" s="0">
+      <c r="C291">
         <v>228141</v>
       </c>
-      <c r="D291" s="0">
+      <c r="D291">
         <v>54824</v>
       </c>
-      <c r="E291" s="0">
+      <c r="E291">
         <v>11085</v>
       </c>
-      <c r="F291" s="0">
+      <c r="F291">
         <v>2850</v>
       </c>
     </row>
-    <row r="292">
-      <c r="A292" s="0" t="s">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
         <v>296</v>
       </c>
-      <c r="B292" s="0">
+      <c r="B292">
         <v>9762276</v>
       </c>
-      <c r="C292" s="0">
+      <c r="C292">
         <v>229245</v>
       </c>
-      <c r="D292" s="0">
+      <c r="D292">
         <v>55840</v>
       </c>
-      <c r="E292" s="0">
+      <c r="E292">
         <v>11082</v>
       </c>
-      <c r="F292" s="0">
+      <c r="F292">
         <v>2947</v>
       </c>
     </row>
-    <row r="293">
-      <c r="A293" s="0" t="s">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
         <v>297</v>
       </c>
-      <c r="B293" s="0">
+      <c r="B293">
         <v>9873114</v>
       </c>
-      <c r="C293" s="0">
+      <c r="C293">
         <v>229732</v>
       </c>
-      <c r="D293" s="0">
+      <c r="D293">
         <v>56799</v>
       </c>
-      <c r="E293" s="0">
+      <c r="E293">
         <v>11120</v>
       </c>
-      <c r="F293" s="0">
+      <c r="F293">
         <v>2977</v>
       </c>
     </row>
-    <row r="294">
-      <c r="A294" s="0" t="s">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
         <v>298</v>
       </c>
-      <c r="B294" s="0">
+      <c r="B294">
         <v>9991822</v>
       </c>
-      <c r="C294" s="0">
+      <c r="C294">
         <v>230312</v>
       </c>
-      <c r="D294" s="0">
+      <c r="D294">
         <v>59275</v>
       </c>
-      <c r="E294" s="0">
+      <c r="E294">
         <v>11533</v>
       </c>
-      <c r="F294" s="0">
+      <c r="F294">
         <v>3110</v>
       </c>
     </row>
-    <row r="295">
-      <c r="A295" s="0" t="s">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
         <v>299</v>
       </c>
-      <c r="B295" s="0">
+      <c r="B295">
         <v>10122811</v>
       </c>
-      <c r="C295" s="0">
+      <c r="C295">
         <v>231659</v>
       </c>
-      <c r="D295" s="0">
+      <c r="D295">
         <v>61964</v>
       </c>
-      <c r="E295" s="0">
+      <c r="E295">
         <v>11952</v>
       </c>
-      <c r="F295" s="0">
+      <c r="F295">
         <v>3205</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>300</v>
+      </c>
+      <c r="B296">
+        <v>10267081</v>
+      </c>
+      <c r="C296">
+        <v>233080</v>
+      </c>
+      <c r="D296">
+        <v>65368</v>
+      </c>
+      <c r="E296">
+        <v>12518</v>
+      </c>
+      <c r="F296">
+        <v>3367</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -16887,65 +16938,65 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/covid19/data/USCaseDeathBeds.xlsx
+++ b/covid19/data/USCaseDeathBeds.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF63DC6A-CFD7-4D33-9CAD-319C938B62BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B25A51-33E2-4BD7-A015-E00E90130D6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="Deaths" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$296</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$297</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="302">
   <si>
     <t>date</t>
   </si>
@@ -934,6 +934,9 @@
   </si>
   <si>
     <t>2020-11-11</t>
+  </si>
+  <si>
+    <t>2020-11-12</t>
   </si>
 </sst>
 </file>
@@ -1022,9 +1025,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$296</c:f>
+              <c:f>Data!$A$2:$A$297</c:f>
               <c:strCache>
-                <c:ptCount val="295"/>
+                <c:ptCount val="296"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -1909,16 +1912,19 @@
                 </c:pt>
                 <c:pt idx="294">
                   <c:v>2020-11-11</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>2020-11-12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$296</c:f>
+              <c:f>Data!$B$2:$B$297</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="295"/>
+                <c:ptCount val="296"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2802,7 +2808,10 @@
                   <c:v>10122811</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>10267081</c:v>
+                  <c:v>10267310</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>10417836</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2911,9 +2920,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$296</c:f>
+              <c:f>Data!$A$2:$A$297</c:f>
               <c:strCache>
-                <c:ptCount val="295"/>
+                <c:ptCount val="296"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -3798,16 +3807,19 @@
                 </c:pt>
                 <c:pt idx="294">
                   <c:v>2020-11-11</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>2020-11-12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$2:$D$296</c:f>
+              <c:f>Data!$D$2:$D$297</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="295"/>
+                <c:ptCount val="296"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4691,7 +4703,10 @@
                   <c:v>61964</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>65368</c:v>
+                  <c:v>65373</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>67096</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4800,9 +4815,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$296</c:f>
+              <c:f>Data!$A$2:$A$297</c:f>
               <c:strCache>
-                <c:ptCount val="295"/>
+                <c:ptCount val="296"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -5687,16 +5702,19 @@
                 </c:pt>
                 <c:pt idx="294">
                   <c:v>2020-11-11</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>2020-11-12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$296</c:f>
+              <c:f>Data!$E$2:$E$297</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="295"/>
+                <c:ptCount val="296"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6581,6 +6599,9 @@
                 </c:pt>
                 <c:pt idx="294">
                   <c:v>12518</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>12796</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6689,9 +6710,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$296</c:f>
+              <c:f>Data!$A$2:$A$297</c:f>
               <c:strCache>
-                <c:ptCount val="295"/>
+                <c:ptCount val="296"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -7576,16 +7597,19 @@
                 </c:pt>
                 <c:pt idx="294">
                   <c:v>2020-11-11</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>2020-11-12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$296</c:f>
+              <c:f>Data!$F$2:$F$297</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="295"/>
+                <c:ptCount val="296"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8470,6 +8494,9 @@
                 </c:pt>
                 <c:pt idx="294">
                   <c:v>3367</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>3459</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8578,9 +8605,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$296</c:f>
+              <c:f>Data!$A$2:$A$297</c:f>
               <c:strCache>
-                <c:ptCount val="295"/>
+                <c:ptCount val="296"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -9465,16 +9492,19 @@
                 </c:pt>
                 <c:pt idx="294">
                   <c:v>2020-11-11</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>2020-11-12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$296</c:f>
+              <c:f>Data!$C$2:$C$297</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="295"/>
+                <c:ptCount val="296"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10358,7 +10388,10 @@
                   <c:v>231659</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>233080</c:v>
+                  <c:v>233224</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>234328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10654,9 +10687,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F296" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F296" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F296">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F297" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F297" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F297">
     <sortCondition ref="A1:A254"/>
   </sortState>
   <tableColumns count="6">
@@ -10992,9 +11025,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F296"/>
+  <dimension ref="A1:F297"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A261" workbookViewId="0">
       <selection sqref="A1:F295"/>
     </sheetView>
   </sheetViews>
@@ -16913,19 +16946,39 @@
         <v>300</v>
       </c>
       <c r="B296">
-        <v>10267081</v>
+        <v>10267310</v>
       </c>
       <c r="C296">
-        <v>233080</v>
+        <v>233224</v>
       </c>
       <c r="D296">
-        <v>65368</v>
+        <v>65373</v>
       </c>
       <c r="E296">
         <v>12518</v>
       </c>
       <c r="F296">
         <v>3367</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>301</v>
+      </c>
+      <c r="B297">
+        <v>10417836</v>
+      </c>
+      <c r="C297">
+        <v>234328</v>
+      </c>
+      <c r="D297">
+        <v>67096</v>
+      </c>
+      <c r="E297">
+        <v>12796</v>
+      </c>
+      <c r="F297">
+        <v>3459</v>
       </c>
     </row>
   </sheetData>
@@ -16992,7 +17045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/covid19/data/USCaseDeathBeds.xlsx
+++ b/covid19/data/USCaseDeathBeds.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B25A51-33E2-4BD7-A015-E00E90130D6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01663C8A-F17A-43D7-9C47-8E901B36A152}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="Deaths" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$297</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$298</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -24,14 +24,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" odcFile="C:\Users\Mark\Documents\My Data Sources\howe-hp_howehp Covid19 CaseDeathsBeds.odc" keepAlive="1" name="howe-hp_howehp Covid19 CaseDeathsBeds" type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" odcFile="C:\Users\Mark\Documents\My Data Sources\howe-hp_howehp Covid19 CaseDeathsBeds.odc" keepAlive="1" name="howe-hp_howehp Covid19 CaseDeathsBeds" type="5" refreshedVersion="6" background="1" refreshOnLoad="1" saveData="1">
     <dbPr connection="Provider=SQLOLEDB.1;Integrated Security=SSPI;Persist Security Info=True;Initial Catalog=Covid19;Data Source=howe-hp\howehp;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=4096;Workstation ID=HOWE-HP;Use Encryption for Data=False;Tag with column collation when possible=False" command="&quot;Covid19&quot;.&quot;dbo&quot;.&quot;CaseDeathsBeds&quot;" commandType="3"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="303">
   <si>
     <t>date</t>
   </si>
@@ -937,6 +937,9 @@
   </si>
   <si>
     <t>2020-11-12</t>
+  </si>
+  <si>
+    <t>2020-11-13</t>
   </si>
 </sst>
 </file>
@@ -1025,9 +1028,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$297</c:f>
+              <c:f>Data!$A$2:$A$298</c:f>
               <c:strCache>
-                <c:ptCount val="296"/>
+                <c:ptCount val="297"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -1915,16 +1918,19 @@
                 </c:pt>
                 <c:pt idx="295">
                   <c:v>2020-11-12</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>2020-11-13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$297</c:f>
+              <c:f>Data!$B$2:$B$298</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="296"/>
+                <c:ptCount val="297"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2812,6 +2818,9 @@
                 </c:pt>
                 <c:pt idx="295">
                   <c:v>10417836</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>10588169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2920,9 +2929,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$297</c:f>
+              <c:f>Data!$A$2:$A$298</c:f>
               <c:strCache>
-                <c:ptCount val="296"/>
+                <c:ptCount val="297"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -3810,16 +3819,19 @@
                 </c:pt>
                 <c:pt idx="295">
                   <c:v>2020-11-12</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>2020-11-13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$2:$D$297</c:f>
+              <c:f>Data!$D$2:$D$298</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="296"/>
+                <c:ptCount val="297"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4707,6 +4719,9 @@
                 </c:pt>
                 <c:pt idx="295">
                   <c:v>67096</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>68516</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4815,9 +4830,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$297</c:f>
+              <c:f>Data!$A$2:$A$298</c:f>
               <c:strCache>
-                <c:ptCount val="296"/>
+                <c:ptCount val="297"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -5705,16 +5720,19 @@
                 </c:pt>
                 <c:pt idx="295">
                   <c:v>2020-11-12</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>2020-11-13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$297</c:f>
+              <c:f>Data!$E$2:$E$298</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="296"/>
+                <c:ptCount val="297"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6602,6 +6620,9 @@
                 </c:pt>
                 <c:pt idx="295">
                   <c:v>12796</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>13132</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6710,9 +6731,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$297</c:f>
+              <c:f>Data!$A$2:$A$298</c:f>
               <c:strCache>
-                <c:ptCount val="296"/>
+                <c:ptCount val="297"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -7600,16 +7621,19 @@
                 </c:pt>
                 <c:pt idx="295">
                   <c:v>2020-11-12</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>2020-11-13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$297</c:f>
+              <c:f>Data!$F$2:$F$298</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="296"/>
+                <c:ptCount val="297"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8496,7 +8520,10 @@
                   <c:v>3367</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>3459</c:v>
+                  <c:v>3622</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>3769</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8605,9 +8632,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$297</c:f>
+              <c:f>Data!$A$2:$A$298</c:f>
               <c:strCache>
-                <c:ptCount val="296"/>
+                <c:ptCount val="297"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -9495,16 +9522,19 @@
                 </c:pt>
                 <c:pt idx="295">
                   <c:v>2020-11-12</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>2020-11-13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$297</c:f>
+              <c:f>Data!$C$2:$C$298</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="296"/>
+                <c:ptCount val="297"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10392,6 +10422,9 @@
                 </c:pt>
                 <c:pt idx="295">
                   <c:v>234328</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>235629</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10672,7 +10705,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="howe-hp_howehp Covid19 CaseDeathsBeds" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="howe-hp_howehp Covid19 CaseDeathsBeds" refreshOnLoad="1" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="7">
     <queryTableFields count="6">
       <queryTableField id="1" name="date" tableColumnId="1"/>
@@ -10687,9 +10720,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F297" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F297" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F297">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F298" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F298" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F298">
     <sortCondition ref="A1:A254"/>
   </sortState>
   <tableColumns count="6">
@@ -11025,9 +11058,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F297"/>
+  <dimension ref="A1:F298"/>
   <sheetViews>
-    <sheetView topLeftCell="A261" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
       <selection sqref="A1:F295"/>
     </sheetView>
   </sheetViews>
@@ -16978,7 +17011,27 @@
         <v>12796</v>
       </c>
       <c r="F297">
-        <v>3459</v>
+        <v>3622</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>302</v>
+      </c>
+      <c r="B298">
+        <v>10588169</v>
+      </c>
+      <c r="C298">
+        <v>235629</v>
+      </c>
+      <c r="D298">
+        <v>68516</v>
+      </c>
+      <c r="E298">
+        <v>13132</v>
+      </c>
+      <c r="F298">
+        <v>3769</v>
       </c>
     </row>
   </sheetData>
@@ -17045,7 +17098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/covid19/data/USCaseDeathBeds.xlsx
+++ b/covid19/data/USCaseDeathBeds.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01663C8A-F17A-43D7-9C47-8E901B36A152}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F29FF1-1FDC-4E35-9319-DD065DD19038}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="Deaths" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$298</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$299</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="304">
   <si>
     <t>date</t>
   </si>
@@ -940,6 +940,9 @@
   </si>
   <si>
     <t>2020-11-13</t>
+  </si>
+  <si>
+    <t>2020-11-14</t>
   </si>
 </sst>
 </file>
@@ -1028,9 +1031,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$298</c:f>
+              <c:f>Data!$A$2:$A$299</c:f>
               <c:strCache>
-                <c:ptCount val="297"/>
+                <c:ptCount val="298"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -1921,16 +1924,19 @@
                 </c:pt>
                 <c:pt idx="296">
                   <c:v>2020-11-13</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>2020-11-14</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$298</c:f>
+              <c:f>Data!$B$2:$B$299</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="297"/>
+                <c:ptCount val="298"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2820,7 +2826,10 @@
                   <c:v>10417836</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>10588169</c:v>
+                  <c:v>10588628</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>10752101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2929,9 +2938,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$298</c:f>
+              <c:f>Data!$A$2:$A$299</c:f>
               <c:strCache>
-                <c:ptCount val="297"/>
+                <c:ptCount val="298"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -3822,16 +3831,19 @@
                 </c:pt>
                 <c:pt idx="296">
                   <c:v>2020-11-13</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>2020-11-14</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$2:$D$298</c:f>
+              <c:f>Data!$D$2:$D$299</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="297"/>
+                <c:ptCount val="298"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4722,6 +4734,9 @@
                 </c:pt>
                 <c:pt idx="296">
                   <c:v>68516</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>69455</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4830,9 +4845,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$298</c:f>
+              <c:f>Data!$A$2:$A$299</c:f>
               <c:strCache>
-                <c:ptCount val="297"/>
+                <c:ptCount val="298"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -5723,16 +5738,19 @@
                 </c:pt>
                 <c:pt idx="296">
                   <c:v>2020-11-13</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>2020-11-14</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$298</c:f>
+              <c:f>Data!$E$2:$E$299</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="297"/>
+                <c:ptCount val="298"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6623,6 +6641,9 @@
                 </c:pt>
                 <c:pt idx="296">
                   <c:v>13132</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>13341</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6731,9 +6752,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$298</c:f>
+              <c:f>Data!$A$2:$A$299</c:f>
               <c:strCache>
-                <c:ptCount val="297"/>
+                <c:ptCount val="298"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -7624,16 +7645,19 @@
                 </c:pt>
                 <c:pt idx="296">
                   <c:v>2020-11-13</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>2020-11-14</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$298</c:f>
+              <c:f>Data!$F$2:$F$299</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="297"/>
+                <c:ptCount val="298"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8524,6 +8548,9 @@
                 </c:pt>
                 <c:pt idx="296">
                   <c:v>3769</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>3944</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8632,9 +8659,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$298</c:f>
+              <c:f>Data!$A$2:$A$299</c:f>
               <c:strCache>
-                <c:ptCount val="297"/>
+                <c:ptCount val="298"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -9525,16 +9552,19 @@
                 </c:pt>
                 <c:pt idx="296">
                   <c:v>2020-11-13</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>2020-11-14</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$298</c:f>
+              <c:f>Data!$C$2:$C$299</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="297"/>
+                <c:ptCount val="298"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10424,7 +10454,10 @@
                   <c:v>234328</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>235629</c:v>
+                  <c:v>235632</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>236953</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10720,9 +10753,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F298" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F298" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F298">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F299" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F299" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F299">
     <sortCondition ref="A1:A254"/>
   </sortState>
   <tableColumns count="6">
@@ -11058,9 +11091,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F298"/>
+  <dimension ref="A1:F299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
+    <sheetView topLeftCell="A263" workbookViewId="0">
       <selection sqref="A1:F295"/>
     </sheetView>
   </sheetViews>
@@ -17019,10 +17052,10 @@
         <v>302</v>
       </c>
       <c r="B298">
-        <v>10588169</v>
+        <v>10588628</v>
       </c>
       <c r="C298">
-        <v>235629</v>
+        <v>235632</v>
       </c>
       <c r="D298">
         <v>68516</v>
@@ -17032,6 +17065,26 @@
       </c>
       <c r="F298">
         <v>3769</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>303</v>
+      </c>
+      <c r="B299">
+        <v>10752101</v>
+      </c>
+      <c r="C299">
+        <v>236953</v>
+      </c>
+      <c r="D299">
+        <v>69455</v>
+      </c>
+      <c r="E299">
+        <v>13341</v>
+      </c>
+      <c r="F299">
+        <v>3944</v>
       </c>
     </row>
   </sheetData>
@@ -17098,7 +17151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/covid19/data/USCaseDeathBeds.xlsx
+++ b/covid19/data/USCaseDeathBeds.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F29FF1-1FDC-4E35-9319-DD065DD19038}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC253C9-A6DE-40D0-98CD-D939E6152D47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="Deaths" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$299</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$300</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="305">
   <si>
     <t>date</t>
   </si>
@@ -943,6 +943,9 @@
   </si>
   <si>
     <t>2020-11-14</t>
+  </si>
+  <si>
+    <t>2020-11-15</t>
   </si>
 </sst>
 </file>
@@ -1031,9 +1034,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$299</c:f>
+              <c:f>Data!$A$2:$A$300</c:f>
               <c:strCache>
-                <c:ptCount val="298"/>
+                <c:ptCount val="299"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -1927,16 +1930,19 @@
                 </c:pt>
                 <c:pt idx="297">
                   <c:v>2020-11-14</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>2020-11-15</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$299</c:f>
+              <c:f>Data!$B$2:$B$300</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="298"/>
+                <c:ptCount val="299"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2830,6 +2836,9 @@
                 </c:pt>
                 <c:pt idx="297">
                   <c:v>10752101</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>10897771</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2938,9 +2947,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$299</c:f>
+              <c:f>Data!$A$2:$A$300</c:f>
               <c:strCache>
-                <c:ptCount val="298"/>
+                <c:ptCount val="299"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -3834,16 +3843,19 @@
                 </c:pt>
                 <c:pt idx="297">
                   <c:v>2020-11-14</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>2020-11-15</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$2:$D$299</c:f>
+              <c:f>Data!$D$2:$D$300</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="298"/>
+                <c:ptCount val="299"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4737,6 +4749,9 @@
                 </c:pt>
                 <c:pt idx="297">
                   <c:v>69455</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>69987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4845,9 +4860,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$299</c:f>
+              <c:f>Data!$A$2:$A$300</c:f>
               <c:strCache>
-                <c:ptCount val="298"/>
+                <c:ptCount val="299"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -5741,16 +5756,19 @@
                 </c:pt>
                 <c:pt idx="297">
                   <c:v>2020-11-14</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>2020-11-15</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$299</c:f>
+              <c:f>Data!$E$2:$E$300</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="298"/>
+                <c:ptCount val="299"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6644,6 +6662,9 @@
                 </c:pt>
                 <c:pt idx="297">
                   <c:v>13341</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>13697</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6752,9 +6773,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$299</c:f>
+              <c:f>Data!$A$2:$A$300</c:f>
               <c:strCache>
-                <c:ptCount val="298"/>
+                <c:ptCount val="299"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -7648,16 +7669,19 @@
                 </c:pt>
                 <c:pt idx="297">
                   <c:v>2020-11-14</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>2020-11-15</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$299</c:f>
+              <c:f>Data!$F$2:$F$300</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="298"/>
+                <c:ptCount val="299"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8551,6 +8575,9 @@
                 </c:pt>
                 <c:pt idx="297">
                   <c:v>3944</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>3934</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8659,9 +8686,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$299</c:f>
+              <c:f>Data!$A$2:$A$300</c:f>
               <c:strCache>
-                <c:ptCount val="298"/>
+                <c:ptCount val="299"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -9555,16 +9582,19 @@
                 </c:pt>
                 <c:pt idx="297">
                   <c:v>2020-11-14</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>2020-11-15</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$299</c:f>
+              <c:f>Data!$C$2:$C$300</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="298"/>
+                <c:ptCount val="299"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10458,6 +10488,9 @@
                 </c:pt>
                 <c:pt idx="297">
                   <c:v>236953</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>237625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10753,9 +10786,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F299" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F299" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F299">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F300" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F300" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F300">
     <sortCondition ref="A1:A254"/>
   </sortState>
   <tableColumns count="6">
@@ -11091,9 +11124,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F299"/>
+  <dimension ref="A1:F300"/>
   <sheetViews>
-    <sheetView topLeftCell="A263" workbookViewId="0">
+    <sheetView topLeftCell="A264" workbookViewId="0">
       <selection sqref="A1:F295"/>
     </sheetView>
   </sheetViews>
@@ -17087,6 +17120,26 @@
         <v>3944</v>
       </c>
     </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>304</v>
+      </c>
+      <c r="B300">
+        <v>10897771</v>
+      </c>
+      <c r="C300">
+        <v>237625</v>
+      </c>
+      <c r="D300">
+        <v>69987</v>
+      </c>
+      <c r="E300">
+        <v>13697</v>
+      </c>
+      <c r="F300">
+        <v>3934</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -17099,7 +17152,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -17151,7 +17204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/covid19/data/USCaseDeathBeds.xlsx
+++ b/covid19/data/USCaseDeathBeds.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC253C9-A6DE-40D0-98CD-D939E6152D47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201ADE3B-85C1-4140-B39E-1D836D710FBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="Deaths" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$300</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$302</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="307">
   <si>
     <t>date</t>
   </si>
@@ -946,6 +946,12 @@
   </si>
   <si>
     <t>2020-11-15</t>
+  </si>
+  <si>
+    <t>2020-11-16</t>
+  </si>
+  <si>
+    <t>2020-11-17</t>
   </si>
 </sst>
 </file>
@@ -1034,9 +1040,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$300</c:f>
+              <c:f>Data!$A$2:$A$302</c:f>
               <c:strCache>
-                <c:ptCount val="299"/>
+                <c:ptCount val="301"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -1933,16 +1939,22 @@
                 </c:pt>
                 <c:pt idx="298">
                   <c:v>2020-11-15</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>2020-11-16</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>2020-11-17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$300</c:f>
+              <c:f>Data!$B$2:$B$302</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="299"/>
+                <c:ptCount val="301"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2097,70 +2109,70 @@
                   <c:v>2729</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3788</c:v>
+                  <c:v>3787</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4705</c:v>
+                  <c:v>4704</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5997</c:v>
+                  <c:v>5996</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>7751</c:v>
+                  <c:v>7750</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>10321</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>13344</c:v>
+                  <c:v>13346</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>18018</c:v>
+                  <c:v>18023</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>24111</c:v>
+                  <c:v>24113</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>30908</c:v>
+                  <c:v>30909</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>40064</c:v>
+                  <c:v>40067</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>51460</c:v>
+                  <c:v>51476</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>62164</c:v>
+                  <c:v>62170</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>75085</c:v>
+                  <c:v>75092</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>92629</c:v>
+                  <c:v>92633</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>111882</c:v>
+                  <c:v>111887</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>131468</c:v>
+                  <c:v>131474</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>151038</c:v>
+                  <c:v>151046</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>172729</c:v>
+                  <c:v>172733</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>197569</c:v>
+                  <c:v>197578</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>223647</c:v>
+                  <c:v>223655</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>251684</c:v>
+                  <c:v>251690</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>283453</c:v>
+                  <c:v>283456</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>316420</c:v>
@@ -2280,565 +2292,571 @@
                   <c:v>1372170</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1393747</c:v>
+                  <c:v>1393748</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1420427</c:v>
+                  <c:v>1420429</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1445798</c:v>
+                  <c:v>1445800</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1469358</c:v>
+                  <c:v>1469360</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1489702</c:v>
+                  <c:v>1489704</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>1510514</c:v>
+                  <c:v>1510516</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>1531438</c:v>
+                  <c:v>1531440</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>1552632</c:v>
+                  <c:v>1552634</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>1579266</c:v>
+                  <c:v>1579268</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>1603539</c:v>
+                  <c:v>1603541</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>1625706</c:v>
+                  <c:v>1625708</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>1644854</c:v>
+                  <c:v>1644856</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>1663565</c:v>
+                  <c:v>1663567</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>1680321</c:v>
+                  <c:v>1680323</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>1699810</c:v>
+                  <c:v>1699812</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>1722326</c:v>
+                  <c:v>1722328</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>1745759</c:v>
+                  <c:v>1745761</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>1769202</c:v>
+                  <c:v>1769203</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>1790837</c:v>
+                  <c:v>1790866</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>1811258</c:v>
+                  <c:v>1811261</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>1831291</c:v>
+                  <c:v>1831294</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>1851493</c:v>
+                  <c:v>1851496</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>1871749</c:v>
+                  <c:v>1871754</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>1894753</c:v>
+                  <c:v>1894758</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>1917526</c:v>
+                  <c:v>1917531</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>1936412</c:v>
+                  <c:v>1936417</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>1953632</c:v>
+                  <c:v>1953636</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>1970880</c:v>
+                  <c:v>1970885</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>1991517</c:v>
+                  <c:v>1991522</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>2013619</c:v>
+                  <c:v>2013624</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>2036804</c:v>
+                  <c:v>2036809</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>2061938</c:v>
+                  <c:v>2061940</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>2083344</c:v>
+                  <c:v>2083348</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>2101922</c:v>
+                  <c:v>2101926</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>2125249</c:v>
+                  <c:v>2125254</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>2149022</c:v>
+                  <c:v>2149027</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>2176157</c:v>
+                  <c:v>2176162</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>2207038</c:v>
+                  <c:v>2207045</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>2239049</c:v>
+                  <c:v>2239056</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>2268040</c:v>
+                  <c:v>2268046</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>2295114</c:v>
+                  <c:v>2295120</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>2328962</c:v>
+                  <c:v>2328967</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>2367889</c:v>
+                  <c:v>2367894</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>2407458</c:v>
+                  <c:v>2407463</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>2451832</c:v>
+                  <c:v>2451835</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>2494820</c:v>
+                  <c:v>2494824</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>2536113</c:v>
+                  <c:v>2536117</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>2575976</c:v>
+                  <c:v>2575980</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>2623614</c:v>
+                  <c:v>2623618</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>2674541</c:v>
+                  <c:v>2674545</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>2727926</c:v>
+                  <c:v>2727929</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>2781659</c:v>
+                  <c:v>2781661</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>2835791</c:v>
+                  <c:v>2835794</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>2881100</c:v>
+                  <c:v>2881103</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>2922516</c:v>
+                  <c:v>2922546</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>2974102</c:v>
+                  <c:v>2974104</c:v>
                 </c:pt>
                 <c:pt idx="168">
                   <c:v>3036725</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>3095784</c:v>
+                  <c:v>3095785</c:v>
                 </c:pt>
                 <c:pt idx="170">
                   <c:v>3162288</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>3224952</c:v>
+                  <c:v>3224953</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>3285973</c:v>
+                  <c:v>3285972</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>3343561</c:v>
+                  <c:v>3343559</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>3406217</c:v>
+                  <c:v>3406218</c:v>
                 </c:pt>
                 <c:pt idx="175">
                   <c:v>3471708</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>3542419</c:v>
+                  <c:v>3542082</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>3618576</c:v>
+                  <c:v>3618232</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>3683228</c:v>
+                  <c:v>3682868</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>3747115</c:v>
+                  <c:v>3746720</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>3804036</c:v>
+                  <c:v>3803577</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>3867554</c:v>
+                  <c:v>3867074</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>3936743</c:v>
+                  <c:v>3936263</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>4007968</c:v>
+                  <c:v>4007487</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>4082805</c:v>
+                  <c:v>4082317</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>4147067</c:v>
+                  <c:v>4146547</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>4207560</c:v>
+                  <c:v>4206991</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>4262696</c:v>
+                  <c:v>4262117</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>4321367</c:v>
+                  <c:v>4320752</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>4385543</c:v>
+                  <c:v>4384904</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>4454549</c:v>
+                  <c:v>4453877</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>4521933</c:v>
+                  <c:v>4521249</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>4582349</c:v>
+                  <c:v>4581659</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>4628866</c:v>
+                  <c:v>4628155</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>4678539</c:v>
+                  <c:v>4677806</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>4730083</c:v>
+                  <c:v>4729350</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>4782366</c:v>
+                  <c:v>4781630</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>4836333</c:v>
+                  <c:v>4835597</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>4897187</c:v>
+                  <c:v>4896441</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>4950345</c:v>
+                  <c:v>4949593</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>5000546</c:v>
+                  <c:v>4999791</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>5042315</c:v>
+                  <c:v>5041562</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>5097651</c:v>
+                  <c:v>5096897</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>5153664</c:v>
+                  <c:v>5152905</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>5205152</c:v>
+                  <c:v>5204380</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>5262406</c:v>
+                  <c:v>5261615</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>5318266</c:v>
+                  <c:v>5317474</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>5360592</c:v>
+                  <c:v>5359795</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>5398161</c:v>
+                  <c:v>5397364</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>5438600</c:v>
+                  <c:v>5437802</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>5483380</c:v>
+                  <c:v>5482585</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>5527014</c:v>
+                  <c:v>5526217</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>5573242</c:v>
+                  <c:v>5572443</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>5618964</c:v>
+                  <c:v>5618162</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>5656436</c:v>
+                  <c:v>5655636</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>5690768</c:v>
+                  <c:v>5689969</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>5727107</c:v>
+                  <c:v>5726303</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>5770871</c:v>
+                  <c:v>5770066</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>5814635</c:v>
+                  <c:v>5813832</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>5860752</c:v>
+                  <c:v>5859943</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>5904886</c:v>
+                  <c:v>5904058</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>5944296</c:v>
+                  <c:v>5943460</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>5975589</c:v>
+                  <c:v>5974750</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>6017826</c:v>
+                  <c:v>6016987</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>6048113</c:v>
+                  <c:v>6047267</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>6092675</c:v>
+                  <c:v>6091811</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>6144204</c:v>
+                  <c:v>6143329</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>6188937</c:v>
+                  <c:v>6188051</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>6221988</c:v>
+                  <c:v>6221108</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>6250225</c:v>
+                  <c:v>6249345</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>6272389</c:v>
+                  <c:v>6271508</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>6303451</c:v>
+                  <c:v>6302569</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>6340673</c:v>
+                  <c:v>6339780</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>6385361</c:v>
+                  <c:v>6384448</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>6427159</c:v>
+                  <c:v>6426242</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>6461467</c:v>
+                  <c:v>6460549</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>6495151</c:v>
+                  <c:v>6494231</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>6530030</c:v>
+                  <c:v>6529110</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>6569918</c:v>
+                  <c:v>6568996</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>6613293</c:v>
+                  <c:v>6612373</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>6660414</c:v>
+                  <c:v>6659485</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>6705300</c:v>
+                  <c:v>6704378</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>6740988</c:v>
+                  <c:v>6740081</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>6780050</c:v>
+                  <c:v>6779142</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>6829401</c:v>
+                  <c:v>6828502</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>6867948</c:v>
+                  <c:v>6867070</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>6911191</c:v>
+                  <c:v>6910444</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>6966328</c:v>
+                  <c:v>6965446</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>7013908</c:v>
+                  <c:v>7013032</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>7048969</c:v>
+                  <c:v>7048087</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>7085025</c:v>
+                  <c:v>7084139</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>7121314</c:v>
+                  <c:v>7120425</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>7165581</c:v>
+                  <c:v>7164690</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>7211062</c:v>
+                  <c:v>7210176</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>7260195</c:v>
+                  <c:v>7259322</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>7311204</c:v>
+                  <c:v>7310323</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>7349491</c:v>
+                  <c:v>7348562</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>7387348</c:v>
+                  <c:v>7386404</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>7425765</c:v>
+                  <c:v>7424968</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>7476321</c:v>
+                  <c:v>7475371</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>7531439</c:v>
+                  <c:v>7530488</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>7588162</c:v>
+                  <c:v>7587218</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>7645414</c:v>
+                  <c:v>7644448</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>7692115</c:v>
+                  <c:v>7691141</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>7734890</c:v>
+                  <c:v>7733909</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>7783038</c:v>
+                  <c:v>7782058</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>7839274</c:v>
+                  <c:v>7838305</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>7902125</c:v>
+                  <c:v>7901157</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>7970065</c:v>
+                  <c:v>7969090</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>8027813</c:v>
+                  <c:v>8026832</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>8076445</c:v>
+                  <c:v>8075450</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>8133347</c:v>
+                  <c:v>8132352</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>8193659</c:v>
+                  <c:v>8192683</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>8254316</c:v>
+                  <c:v>8253352</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>8327203</c:v>
+                  <c:v>8326245</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>8409465</c:v>
+                  <c:v>8408471</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>8492210</c:v>
+                  <c:v>8491198</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>8557302</c:v>
+                  <c:v>8556279</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>8619405</c:v>
+                  <c:v>8618383</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>8692402</c:v>
+                  <c:v>8691383</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>8771039</c:v>
+                  <c:v>8770015</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>8859032</c:v>
+                  <c:v>8857991</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>8955741</c:v>
+                  <c:v>8954691</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>9046233</c:v>
+                  <c:v>9045190</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>9120284</c:v>
+                  <c:v>9119242</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>9202532</c:v>
+                  <c:v>9201482</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>9288613</c:v>
+                  <c:v>9287555</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>9391680</c:v>
+                  <c:v>9390618</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>9507833</c:v>
+                  <c:v>9506770</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>9633085</c:v>
+                  <c:v>9632004</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>9762276</c:v>
+                  <c:v>9761191</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>9873114</c:v>
+                  <c:v>9872020</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>9991822</c:v>
+                  <c:v>9990718</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>10122811</c:v>
+                  <c:v>10121713</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>10267310</c:v>
+                  <c:v>10266200</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>10417836</c:v>
+                  <c:v>10416726</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>10588628</c:v>
+                  <c:v>10588102</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>10752101</c:v>
+                  <c:v>10752950</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>10897771</c:v>
+                  <c:v>10898532</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>11047064</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>11202899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2947,9 +2965,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$300</c:f>
+              <c:f>Data!$A$2:$A$302</c:f>
               <c:strCache>
-                <c:ptCount val="299"/>
+                <c:ptCount val="301"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -3846,16 +3864,22 @@
                 </c:pt>
                 <c:pt idx="298">
                   <c:v>2020-11-15</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>2020-11-16</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>2020-11-17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$2:$D$300</c:f>
+              <c:f>Data!$D$2:$D$302</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="299"/>
+                <c:ptCount val="301"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4745,13 +4769,19 @@
                   <c:v>67096</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>68516</c:v>
+                  <c:v>68519</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>69455</c:v>
+                  <c:v>69463</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>69987</c:v>
+                  <c:v>69980</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>73014</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>76823</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4860,9 +4890,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$300</c:f>
+              <c:f>Data!$A$2:$A$302</c:f>
               <c:strCache>
-                <c:ptCount val="299"/>
+                <c:ptCount val="301"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -5759,16 +5789,22 @@
                 </c:pt>
                 <c:pt idx="298">
                   <c:v>2020-11-15</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>2020-11-16</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>2020-11-17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$300</c:f>
+              <c:f>Data!$E$2:$E$302</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="299"/>
+                <c:ptCount val="301"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6661,10 +6697,16 @@
                   <c:v>13132</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>13341</c:v>
+                  <c:v>13337</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>13697</c:v>
+                  <c:v>13691</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>14313</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>14851</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6773,9 +6815,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$300</c:f>
+              <c:f>Data!$A$2:$A$302</c:f>
               <c:strCache>
-                <c:ptCount val="299"/>
+                <c:ptCount val="301"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -7672,16 +7714,22 @@
                 </c:pt>
                 <c:pt idx="298">
                   <c:v>2020-11-15</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>2020-11-16</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>2020-11-17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$300</c:f>
+              <c:f>Data!$F$2:$F$302</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="299"/>
+                <c:ptCount val="301"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8574,10 +8622,16 @@
                   <c:v>3769</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>3944</c:v>
+                  <c:v>3945</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>3934</c:v>
+                  <c:v>3932</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>4157</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>4379</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8686,9 +8740,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$300</c:f>
+              <c:f>Data!$A$2:$A$302</c:f>
               <c:strCache>
-                <c:ptCount val="299"/>
+                <c:ptCount val="301"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -9585,16 +9639,22 @@
                 </c:pt>
                 <c:pt idx="298">
                   <c:v>2020-11-15</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>2020-11-16</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>2020-11-17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$300</c:f>
+              <c:f>Data!$C$2:$C$302</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="299"/>
+                <c:ptCount val="301"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10487,10 +10547,16 @@
                   <c:v>235632</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>236953</c:v>
+                  <c:v>236956</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>237625</c:v>
+                  <c:v>237636</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>238217</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>239784</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10786,9 +10852,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F300" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F300" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F300">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F302" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F302" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F302">
     <sortCondition ref="A1:A254"/>
   </sortState>
   <tableColumns count="6">
@@ -11124,10 +11190,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F300"/>
+  <dimension ref="A1:F302"/>
   <sheetViews>
-    <sheetView topLeftCell="A264" workbookViewId="0">
-      <selection sqref="A1:F295"/>
+    <sheetView tabSelected="1" topLeftCell="A266" workbookViewId="0">
+      <selection activeCell="I298" sqref="I298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12185,7 +12251,7 @@
         <v>57</v>
       </c>
       <c r="B53">
-        <v>3788</v>
+        <v>3787</v>
       </c>
       <c r="C53">
         <v>55</v>
@@ -12205,7 +12271,7 @@
         <v>58</v>
       </c>
       <c r="B54">
-        <v>4705</v>
+        <v>4704</v>
       </c>
       <c r="C54">
         <v>64</v>
@@ -12225,7 +12291,7 @@
         <v>59</v>
       </c>
       <c r="B55">
-        <v>5997</v>
+        <v>5996</v>
       </c>
       <c r="C55">
         <v>79</v>
@@ -12245,7 +12311,7 @@
         <v>60</v>
       </c>
       <c r="B56">
-        <v>7751</v>
+        <v>7750</v>
       </c>
       <c r="C56">
         <v>100</v>
@@ -12285,7 +12351,7 @@
         <v>62</v>
       </c>
       <c r="B58">
-        <v>13344</v>
+        <v>13346</v>
       </c>
       <c r="C58">
         <v>155</v>
@@ -12305,7 +12371,7 @@
         <v>63</v>
       </c>
       <c r="B59">
-        <v>18018</v>
+        <v>18023</v>
       </c>
       <c r="C59">
         <v>203</v>
@@ -12325,7 +12391,7 @@
         <v>64</v>
       </c>
       <c r="B60">
-        <v>24111</v>
+        <v>24113</v>
       </c>
       <c r="C60">
         <v>272</v>
@@ -12345,7 +12411,7 @@
         <v>65</v>
       </c>
       <c r="B61">
-        <v>30908</v>
+        <v>30909</v>
       </c>
       <c r="C61">
         <v>334</v>
@@ -12365,7 +12431,7 @@
         <v>66</v>
       </c>
       <c r="B62">
-        <v>40064</v>
+        <v>40067</v>
       </c>
       <c r="C62">
         <v>480</v>
@@ -12385,7 +12451,7 @@
         <v>67</v>
       </c>
       <c r="B63">
-        <v>51460</v>
+        <v>51476</v>
       </c>
       <c r="C63">
         <v>581</v>
@@ -12405,7 +12471,7 @@
         <v>68</v>
       </c>
       <c r="B64">
-        <v>62164</v>
+        <v>62170</v>
       </c>
       <c r="C64">
         <v>815</v>
@@ -12425,7 +12491,7 @@
         <v>69</v>
       </c>
       <c r="B65">
-        <v>75085</v>
+        <v>75092</v>
       </c>
       <c r="C65">
         <v>1050</v>
@@ -12445,7 +12511,7 @@
         <v>70</v>
       </c>
       <c r="B66">
-        <v>92629</v>
+        <v>92633</v>
       </c>
       <c r="C66">
         <v>1369</v>
@@ -12465,7 +12531,7 @@
         <v>71</v>
       </c>
       <c r="B67">
-        <v>111882</v>
+        <v>111887</v>
       </c>
       <c r="C67">
         <v>1775</v>
@@ -12485,7 +12551,7 @@
         <v>72</v>
       </c>
       <c r="B68">
-        <v>131468</v>
+        <v>131474</v>
       </c>
       <c r="C68">
         <v>2319</v>
@@ -12505,7 +12571,7 @@
         <v>73</v>
       </c>
       <c r="B69">
-        <v>151038</v>
+        <v>151046</v>
       </c>
       <c r="C69">
         <v>2834</v>
@@ -12525,7 +12591,7 @@
         <v>74</v>
       </c>
       <c r="B70">
-        <v>172729</v>
+        <v>172733</v>
       </c>
       <c r="C70">
         <v>3423</v>
@@ -12545,7 +12611,7 @@
         <v>75</v>
       </c>
       <c r="B71">
-        <v>197569</v>
+        <v>197578</v>
       </c>
       <c r="C71">
         <v>4313</v>
@@ -12565,7 +12631,7 @@
         <v>76</v>
       </c>
       <c r="B72">
-        <v>223647</v>
+        <v>223655</v>
       </c>
       <c r="C72">
         <v>5324</v>
@@ -12585,7 +12651,7 @@
         <v>77</v>
       </c>
       <c r="B73">
-        <v>251684</v>
+        <v>251690</v>
       </c>
       <c r="C73">
         <v>6496</v>
@@ -12605,7 +12671,7 @@
         <v>78</v>
       </c>
       <c r="B74">
-        <v>283453</v>
+        <v>283456</v>
       </c>
       <c r="C74">
         <v>7782</v>
@@ -13405,7 +13471,7 @@
         <v>118</v>
       </c>
       <c r="B114">
-        <v>1393747</v>
+        <v>1393748</v>
       </c>
       <c r="C114">
         <v>80698</v>
@@ -13425,7 +13491,7 @@
         <v>119</v>
       </c>
       <c r="B115">
-        <v>1420427</v>
+        <v>1420429</v>
       </c>
       <c r="C115">
         <v>82577</v>
@@ -13445,7 +13511,7 @@
         <v>120</v>
       </c>
       <c r="B116">
-        <v>1445798</v>
+        <v>1445800</v>
       </c>
       <c r="C116">
         <v>84084</v>
@@ -13465,7 +13531,7 @@
         <v>121</v>
       </c>
       <c r="B117">
-        <v>1469358</v>
+        <v>1469360</v>
       </c>
       <c r="C117">
         <v>85071</v>
@@ -13485,7 +13551,7 @@
         <v>122</v>
       </c>
       <c r="B118">
-        <v>1489702</v>
+        <v>1489704</v>
       </c>
       <c r="C118">
         <v>85920</v>
@@ -13505,7 +13571,7 @@
         <v>123</v>
       </c>
       <c r="B119">
-        <v>1510514</v>
+        <v>1510516</v>
       </c>
       <c r="C119">
         <v>86768</v>
@@ -13525,7 +13591,7 @@
         <v>124</v>
       </c>
       <c r="B120">
-        <v>1531438</v>
+        <v>1531440</v>
       </c>
       <c r="C120">
         <v>88094</v>
@@ -13545,7 +13611,7 @@
         <v>125</v>
       </c>
       <c r="B121">
-        <v>1552632</v>
+        <v>1552634</v>
       </c>
       <c r="C121">
         <v>89493</v>
@@ -13565,7 +13631,7 @@
         <v>126</v>
       </c>
       <c r="B122">
-        <v>1579266</v>
+        <v>1579268</v>
       </c>
       <c r="C122">
         <v>90887</v>
@@ -13585,7 +13651,7 @@
         <v>127</v>
       </c>
       <c r="B123">
-        <v>1603539</v>
+        <v>1603541</v>
       </c>
       <c r="C123">
         <v>92228</v>
@@ -13605,7 +13671,7 @@
         <v>128</v>
       </c>
       <c r="B124">
-        <v>1625706</v>
+        <v>1625708</v>
       </c>
       <c r="C124">
         <v>93291</v>
@@ -13625,7 +13691,7 @@
         <v>129</v>
       </c>
       <c r="B125">
-        <v>1644854</v>
+        <v>1644856</v>
       </c>
       <c r="C125">
         <v>93971</v>
@@ -13645,7 +13711,7 @@
         <v>130</v>
       </c>
       <c r="B126">
-        <v>1663565</v>
+        <v>1663567</v>
       </c>
       <c r="C126">
         <v>94530</v>
@@ -13665,7 +13731,7 @@
         <v>131</v>
       </c>
       <c r="B127">
-        <v>1680321</v>
+        <v>1680323</v>
       </c>
       <c r="C127">
         <v>95175</v>
@@ -13685,7 +13751,7 @@
         <v>132</v>
       </c>
       <c r="B128">
-        <v>1699810</v>
+        <v>1699812</v>
       </c>
       <c r="C128">
         <v>96496</v>
@@ -13705,7 +13771,7 @@
         <v>133</v>
       </c>
       <c r="B129">
-        <v>1722326</v>
+        <v>1722328</v>
       </c>
       <c r="C129">
         <v>97727</v>
@@ -13725,7 +13791,7 @@
         <v>134</v>
       </c>
       <c r="B130">
-        <v>1745759</v>
+        <v>1745761</v>
       </c>
       <c r="C130">
         <v>98911</v>
@@ -13745,7 +13811,7 @@
         <v>135</v>
       </c>
       <c r="B131">
-        <v>1769202</v>
+        <v>1769203</v>
       </c>
       <c r="C131">
         <v>99843</v>
@@ -13765,7 +13831,7 @@
         <v>136</v>
       </c>
       <c r="B132">
-        <v>1790837</v>
+        <v>1790866</v>
       </c>
       <c r="C132">
         <v>100495</v>
@@ -13785,7 +13851,7 @@
         <v>137</v>
       </c>
       <c r="B133">
-        <v>1811258</v>
+        <v>1811261</v>
       </c>
       <c r="C133">
         <v>101163</v>
@@ -13805,7 +13871,7 @@
         <v>138</v>
       </c>
       <c r="B134">
-        <v>1831291</v>
+        <v>1831294</v>
       </c>
       <c r="C134">
         <v>102125</v>
@@ -13825,7 +13891,7 @@
         <v>139</v>
       </c>
       <c r="B135">
-        <v>1851493</v>
+        <v>1851496</v>
       </c>
       <c r="C135">
         <v>103118</v>
@@ -13845,7 +13911,7 @@
         <v>140</v>
       </c>
       <c r="B136">
-        <v>1871749</v>
+        <v>1871754</v>
       </c>
       <c r="C136">
         <v>104011</v>
@@ -13865,7 +13931,7 @@
         <v>141</v>
       </c>
       <c r="B137">
-        <v>1894753</v>
+        <v>1894758</v>
       </c>
       <c r="C137">
         <v>104837</v>
@@ -13885,7 +13951,7 @@
         <v>142</v>
       </c>
       <c r="B138">
-        <v>1917526</v>
+        <v>1917531</v>
       </c>
       <c r="C138">
         <v>105565</v>
@@ -13905,7 +13971,7 @@
         <v>143</v>
       </c>
       <c r="B139">
-        <v>1936412</v>
+        <v>1936417</v>
       </c>
       <c r="C139">
         <v>106012</v>
@@ -13925,7 +13991,7 @@
         <v>144</v>
       </c>
       <c r="B140">
-        <v>1953632</v>
+        <v>1953636</v>
       </c>
       <c r="C140">
         <v>106673</v>
@@ -13945,7 +14011,7 @@
         <v>145</v>
       </c>
       <c r="B141">
-        <v>1970880</v>
+        <v>1970885</v>
       </c>
       <c r="C141">
         <v>107575</v>
@@ -13965,7 +14031,7 @@
         <v>146</v>
       </c>
       <c r="B142">
-        <v>1991517</v>
+        <v>1991522</v>
       </c>
       <c r="C142">
         <v>108462</v>
@@ -13985,7 +14051,7 @@
         <v>147</v>
       </c>
       <c r="B143">
-        <v>2013619</v>
+        <v>2013624</v>
       </c>
       <c r="C143">
         <v>109361</v>
@@ -14005,7 +14071,7 @@
         <v>148</v>
       </c>
       <c r="B144">
-        <v>2036804</v>
+        <v>2036809</v>
       </c>
       <c r="C144">
         <v>110136</v>
@@ -14025,7 +14091,7 @@
         <v>149</v>
       </c>
       <c r="B145">
-        <v>2061938</v>
+        <v>2061940</v>
       </c>
       <c r="C145">
         <v>110830</v>
@@ -14045,7 +14111,7 @@
         <v>150</v>
       </c>
       <c r="B146">
-        <v>2083344</v>
+        <v>2083348</v>
       </c>
       <c r="C146">
         <v>111186</v>
@@ -14065,7 +14131,7 @@
         <v>151</v>
       </c>
       <c r="B147">
-        <v>2101922</v>
+        <v>2101926</v>
       </c>
       <c r="C147">
         <v>111567</v>
@@ -14085,7 +14151,7 @@
         <v>152</v>
       </c>
       <c r="B148">
-        <v>2125249</v>
+        <v>2125254</v>
       </c>
       <c r="C148">
         <v>112297</v>
@@ -14105,7 +14171,7 @@
         <v>153</v>
       </c>
       <c r="B149">
-        <v>2149022</v>
+        <v>2149027</v>
       </c>
       <c r="C149">
         <v>113064</v>
@@ -14125,7 +14191,7 @@
         <v>154</v>
       </c>
       <c r="B150">
-        <v>2176157</v>
+        <v>2176162</v>
       </c>
       <c r="C150">
         <v>113769</v>
@@ -14145,7 +14211,7 @@
         <v>155</v>
       </c>
       <c r="B151">
-        <v>2207038</v>
+        <v>2207045</v>
       </c>
       <c r="C151">
         <v>114424</v>
@@ -14165,7 +14231,7 @@
         <v>156</v>
       </c>
       <c r="B152">
-        <v>2239049</v>
+        <v>2239056</v>
       </c>
       <c r="C152">
         <v>115053</v>
@@ -14185,7 +14251,7 @@
         <v>157</v>
       </c>
       <c r="B153">
-        <v>2268040</v>
+        <v>2268046</v>
       </c>
       <c r="C153">
         <v>115347</v>
@@ -14205,7 +14271,7 @@
         <v>158</v>
       </c>
       <c r="B154">
-        <v>2295114</v>
+        <v>2295120</v>
       </c>
       <c r="C154">
         <v>115633</v>
@@ -14225,7 +14291,7 @@
         <v>159</v>
       </c>
       <c r="B155">
-        <v>2328962</v>
+        <v>2328967</v>
       </c>
       <c r="C155">
         <v>116343</v>
@@ -14245,7 +14311,7 @@
         <v>160</v>
       </c>
       <c r="B156">
-        <v>2367889</v>
+        <v>2367894</v>
       </c>
       <c r="C156">
         <v>117067</v>
@@ -14265,7 +14331,7 @@
         <v>161</v>
       </c>
       <c r="B157">
-        <v>2407458</v>
+        <v>2407463</v>
       </c>
       <c r="C157">
         <v>117714</v>
@@ -14285,7 +14351,7 @@
         <v>162</v>
       </c>
       <c r="B158">
-        <v>2451832</v>
+        <v>2451835</v>
       </c>
       <c r="C158">
         <v>118351</v>
@@ -14305,7 +14371,7 @@
         <v>163</v>
       </c>
       <c r="B159">
-        <v>2494820</v>
+        <v>2494824</v>
       </c>
       <c r="C159">
         <v>118862</v>
@@ -14325,7 +14391,7 @@
         <v>164</v>
       </c>
       <c r="B160">
-        <v>2536113</v>
+        <v>2536117</v>
       </c>
       <c r="C160">
         <v>119133</v>
@@ -14345,7 +14411,7 @@
         <v>165</v>
       </c>
       <c r="B161">
-        <v>2575976</v>
+        <v>2575980</v>
       </c>
       <c r="C161">
         <v>119465</v>
@@ -14365,7 +14431,7 @@
         <v>166</v>
       </c>
       <c r="B162">
-        <v>2623614</v>
+        <v>2623618</v>
       </c>
       <c r="C162">
         <v>120061</v>
@@ -14385,7 +14451,7 @@
         <v>167</v>
       </c>
       <c r="B163">
-        <v>2674541</v>
+        <v>2674545</v>
       </c>
       <c r="C163">
         <v>120762</v>
@@ -14405,7 +14471,7 @@
         <v>168</v>
       </c>
       <c r="B164">
-        <v>2727926</v>
+        <v>2727929</v>
       </c>
       <c r="C164">
         <v>121457</v>
@@ -14425,7 +14491,7 @@
         <v>169</v>
       </c>
       <c r="B165">
-        <v>2781659</v>
+        <v>2781661</v>
       </c>
       <c r="C165">
         <v>122055</v>
@@ -14445,7 +14511,7 @@
         <v>170</v>
       </c>
       <c r="B166">
-        <v>2835791</v>
+        <v>2835794</v>
       </c>
       <c r="C166">
         <v>122361</v>
@@ -14465,7 +14531,7 @@
         <v>171</v>
       </c>
       <c r="B167">
-        <v>2881100</v>
+        <v>2881103</v>
       </c>
       <c r="C167">
         <v>122570</v>
@@ -14485,7 +14551,7 @@
         <v>172</v>
       </c>
       <c r="B168">
-        <v>2922516</v>
+        <v>2922546</v>
       </c>
       <c r="C168">
         <v>122813</v>
@@ -14505,7 +14571,7 @@
         <v>173</v>
       </c>
       <c r="B169">
-        <v>2974102</v>
+        <v>2974104</v>
       </c>
       <c r="C169">
         <v>123736</v>
@@ -14545,7 +14611,7 @@
         <v>175</v>
       </c>
       <c r="B171">
-        <v>3095784</v>
+        <v>3095785</v>
       </c>
       <c r="C171">
         <v>125410</v>
@@ -14585,7 +14651,7 @@
         <v>177</v>
       </c>
       <c r="B173">
-        <v>3224952</v>
+        <v>3224953</v>
       </c>
       <c r="C173">
         <v>127021</v>
@@ -14605,7 +14671,7 @@
         <v>178</v>
       </c>
       <c r="B174">
-        <v>3285973</v>
+        <v>3285972</v>
       </c>
       <c r="C174">
         <v>127497</v>
@@ -14625,7 +14691,7 @@
         <v>179</v>
       </c>
       <c r="B175">
-        <v>3343561</v>
+        <v>3343559</v>
       </c>
       <c r="C175">
         <v>127824</v>
@@ -14645,7 +14711,7 @@
         <v>180</v>
       </c>
       <c r="B176">
-        <v>3406217</v>
+        <v>3406218</v>
       </c>
       <c r="C176">
         <v>128560</v>
@@ -14685,7 +14751,7 @@
         <v>182</v>
       </c>
       <c r="B178">
-        <v>3542419</v>
+        <v>3542082</v>
       </c>
       <c r="C178">
         <v>130365</v>
@@ -14705,7 +14771,7 @@
         <v>183</v>
       </c>
       <c r="B179">
-        <v>3618576</v>
+        <v>3618232</v>
       </c>
       <c r="C179">
         <v>131316</v>
@@ -14725,7 +14791,7 @@
         <v>184</v>
       </c>
       <c r="B180">
-        <v>3683228</v>
+        <v>3682868</v>
       </c>
       <c r="C180">
         <v>132188</v>
@@ -14745,7 +14811,7 @@
         <v>185</v>
       </c>
       <c r="B181">
-        <v>3747115</v>
+        <v>3746720</v>
       </c>
       <c r="C181">
         <v>132715</v>
@@ -14765,7 +14831,7 @@
         <v>186</v>
       </c>
       <c r="B182">
-        <v>3804036</v>
+        <v>3803577</v>
       </c>
       <c r="C182">
         <v>133078</v>
@@ -14785,7 +14851,7 @@
         <v>187</v>
       </c>
       <c r="B183">
-        <v>3867554</v>
+        <v>3867074</v>
       </c>
       <c r="C183">
         <v>134117</v>
@@ -14805,7 +14871,7 @@
         <v>188</v>
       </c>
       <c r="B184">
-        <v>3936743</v>
+        <v>3936263</v>
       </c>
       <c r="C184">
         <v>135288</v>
@@ -14825,7 +14891,7 @@
         <v>189</v>
       </c>
       <c r="B185">
-        <v>4007968</v>
+        <v>4007487</v>
       </c>
       <c r="C185">
         <v>136344</v>
@@ -14845,7 +14911,7 @@
         <v>190</v>
       </c>
       <c r="B186">
-        <v>4082805</v>
+        <v>4082317</v>
       </c>
       <c r="C186">
         <v>137520</v>
@@ -14865,7 +14931,7 @@
         <v>191</v>
       </c>
       <c r="B187">
-        <v>4147067</v>
+        <v>4146547</v>
       </c>
       <c r="C187">
         <v>138543</v>
@@ -14885,7 +14951,7 @@
         <v>192</v>
       </c>
       <c r="B188">
-        <v>4207560</v>
+        <v>4206991</v>
       </c>
       <c r="C188">
         <v>139102</v>
@@ -14905,7 +14971,7 @@
         <v>193</v>
       </c>
       <c r="B189">
-        <v>4262696</v>
+        <v>4262117</v>
       </c>
       <c r="C189">
         <v>140162</v>
@@ -14925,7 +14991,7 @@
         <v>194</v>
       </c>
       <c r="B190">
-        <v>4321367</v>
+        <v>4320752</v>
       </c>
       <c r="C190">
         <v>141284</v>
@@ -14945,7 +15011,7 @@
         <v>195</v>
       </c>
       <c r="B191">
-        <v>4385543</v>
+        <v>4384904</v>
       </c>
       <c r="C191">
         <v>142776</v>
@@ -14965,7 +15031,7 @@
         <v>196</v>
       </c>
       <c r="B192">
-        <v>4454549</v>
+        <v>4453877</v>
       </c>
       <c r="C192">
         <v>144035</v>
@@ -14985,7 +15051,7 @@
         <v>197</v>
       </c>
       <c r="B193">
-        <v>4521933</v>
+        <v>4521249</v>
       </c>
       <c r="C193">
         <v>145347</v>
@@ -15005,7 +15071,7 @@
         <v>198</v>
       </c>
       <c r="B194">
-        <v>4582349</v>
+        <v>4581659</v>
       </c>
       <c r="C194">
         <v>146537</v>
@@ -15025,7 +15091,7 @@
         <v>199</v>
       </c>
       <c r="B195">
-        <v>4628866</v>
+        <v>4628155</v>
       </c>
       <c r="C195">
         <v>147035</v>
@@ -15045,7 +15111,7 @@
         <v>200</v>
       </c>
       <c r="B196">
-        <v>4678539</v>
+        <v>4677806</v>
       </c>
       <c r="C196">
         <v>147554</v>
@@ -15065,7 +15131,7 @@
         <v>201</v>
       </c>
       <c r="B197">
-        <v>4730083</v>
+        <v>4729350</v>
       </c>
       <c r="C197">
         <v>148809</v>
@@ -15085,7 +15151,7 @@
         <v>202</v>
       </c>
       <c r="B198">
-        <v>4782366</v>
+        <v>4781630</v>
       </c>
       <c r="C198">
         <v>150155</v>
@@ -15105,7 +15171,7 @@
         <v>203</v>
       </c>
       <c r="B199">
-        <v>4836333</v>
+        <v>4835597</v>
       </c>
       <c r="C199">
         <v>151406</v>
@@ -15125,7 +15191,7 @@
         <v>204</v>
       </c>
       <c r="B200">
-        <v>4897187</v>
+        <v>4896441</v>
       </c>
       <c r="C200">
         <v>152739</v>
@@ -15145,7 +15211,7 @@
         <v>205</v>
       </c>
       <c r="B201">
-        <v>4950345</v>
+        <v>4949593</v>
       </c>
       <c r="C201">
         <v>153828</v>
@@ -15165,7 +15231,7 @@
         <v>206</v>
       </c>
       <c r="B202">
-        <v>5000546</v>
+        <v>4999791</v>
       </c>
       <c r="C202">
         <v>154444</v>
@@ -15185,7 +15251,7 @@
         <v>207</v>
       </c>
       <c r="B203">
-        <v>5042315</v>
+        <v>5041562</v>
       </c>
       <c r="C203">
         <v>154870</v>
@@ -15205,7 +15271,7 @@
         <v>208</v>
       </c>
       <c r="B204">
-        <v>5097651</v>
+        <v>5096897</v>
       </c>
       <c r="C204">
         <v>156196</v>
@@ -15225,7 +15291,7 @@
         <v>209</v>
       </c>
       <c r="B205">
-        <v>5153664</v>
+        <v>5152905</v>
       </c>
       <c r="C205">
         <v>157715</v>
@@ -15245,7 +15311,7 @@
         <v>210</v>
       </c>
       <c r="B206">
-        <v>5205152</v>
+        <v>5204380</v>
       </c>
       <c r="C206">
         <v>158878</v>
@@ -15265,7 +15331,7 @@
         <v>211</v>
       </c>
       <c r="B207">
-        <v>5262406</v>
+        <v>5261615</v>
       </c>
       <c r="C207">
         <v>160094</v>
@@ -15285,7 +15351,7 @@
         <v>212</v>
       </c>
       <c r="B208">
-        <v>5318266</v>
+        <v>5317474</v>
       </c>
       <c r="C208">
         <v>161315</v>
@@ -15305,7 +15371,7 @@
         <v>213</v>
       </c>
       <c r="B209">
-        <v>5360592</v>
+        <v>5359795</v>
       </c>
       <c r="C209">
         <v>161934</v>
@@ -15325,7 +15391,7 @@
         <v>214</v>
       </c>
       <c r="B210">
-        <v>5398161</v>
+        <v>5397364</v>
       </c>
       <c r="C210">
         <v>162341</v>
@@ -15345,7 +15411,7 @@
         <v>215</v>
       </c>
       <c r="B211">
-        <v>5438600</v>
+        <v>5437802</v>
       </c>
       <c r="C211">
         <v>163537</v>
@@ -15365,7 +15431,7 @@
         <v>216</v>
       </c>
       <c r="B212">
-        <v>5483380</v>
+        <v>5482585</v>
       </c>
       <c r="C212">
         <v>164957</v>
@@ -15385,7 +15451,7 @@
         <v>217</v>
       </c>
       <c r="B213">
-        <v>5527014</v>
+        <v>5526217</v>
       </c>
       <c r="C213">
         <v>166091</v>
@@ -15405,7 +15471,7 @@
         <v>218</v>
       </c>
       <c r="B214">
-        <v>5573242</v>
+        <v>5572443</v>
       </c>
       <c r="C214">
         <v>167214</v>
@@ -15425,7 +15491,7 @@
         <v>219</v>
       </c>
       <c r="B215">
-        <v>5618964</v>
+        <v>5618162</v>
       </c>
       <c r="C215">
         <v>168243</v>
@@ -15445,7 +15511,7 @@
         <v>220</v>
       </c>
       <c r="B216">
-        <v>5656436</v>
+        <v>5655636</v>
       </c>
       <c r="C216">
         <v>168815</v>
@@ -15465,7 +15531,7 @@
         <v>221</v>
       </c>
       <c r="B217">
-        <v>5690768</v>
+        <v>5689969</v>
       </c>
       <c r="C217">
         <v>169158</v>
@@ -15485,7 +15551,7 @@
         <v>222</v>
       </c>
       <c r="B218">
-        <v>5727107</v>
+        <v>5726303</v>
       </c>
       <c r="C218">
         <v>170305</v>
@@ -15505,7 +15571,7 @@
         <v>223</v>
       </c>
       <c r="B219">
-        <v>5770871</v>
+        <v>5770066</v>
       </c>
       <c r="C219">
         <v>171603</v>
@@ -15525,7 +15591,7 @@
         <v>224</v>
       </c>
       <c r="B220">
-        <v>5814635</v>
+        <v>5813832</v>
       </c>
       <c r="C220">
         <v>172732</v>
@@ -15545,7 +15611,7 @@
         <v>225</v>
       </c>
       <c r="B221">
-        <v>5860752</v>
+        <v>5859943</v>
       </c>
       <c r="C221">
         <v>173756</v>
@@ -15565,7 +15631,7 @@
         <v>226</v>
       </c>
       <c r="B222">
-        <v>5904886</v>
+        <v>5904058</v>
       </c>
       <c r="C222">
         <v>174771</v>
@@ -15585,7 +15651,7 @@
         <v>227</v>
       </c>
       <c r="B223">
-        <v>5944296</v>
+        <v>5943460</v>
       </c>
       <c r="C223">
         <v>175246</v>
@@ -15605,7 +15671,7 @@
         <v>228</v>
       </c>
       <c r="B224">
-        <v>5975589</v>
+        <v>5974750</v>
       </c>
       <c r="C224">
         <v>175612</v>
@@ -15625,7 +15691,7 @@
         <v>229</v>
       </c>
       <c r="B225">
-        <v>6017826</v>
+        <v>6016987</v>
       </c>
       <c r="C225">
         <v>176639</v>
@@ -15645,7 +15711,7 @@
         <v>230</v>
       </c>
       <c r="B226">
-        <v>6048113</v>
+        <v>6047267</v>
       </c>
       <c r="C226">
         <v>177671</v>
@@ -15665,7 +15731,7 @@
         <v>231</v>
       </c>
       <c r="B227">
-        <v>6092675</v>
+        <v>6091811</v>
       </c>
       <c r="C227">
         <v>178741</v>
@@ -15685,7 +15751,7 @@
         <v>232</v>
       </c>
       <c r="B228">
-        <v>6144204</v>
+        <v>6143329</v>
       </c>
       <c r="C228">
         <v>179739</v>
@@ -15705,7 +15771,7 @@
         <v>233</v>
       </c>
       <c r="B229">
-        <v>6188937</v>
+        <v>6188051</v>
       </c>
       <c r="C229">
         <v>180657</v>
@@ -15725,7 +15791,7 @@
         <v>234</v>
       </c>
       <c r="B230">
-        <v>6221988</v>
+        <v>6221108</v>
       </c>
       <c r="C230">
         <v>181106</v>
@@ -15745,7 +15811,7 @@
         <v>235</v>
       </c>
       <c r="B231">
-        <v>6250225</v>
+        <v>6249345</v>
       </c>
       <c r="C231">
         <v>181331</v>
@@ -15765,7 +15831,7 @@
         <v>236</v>
       </c>
       <c r="B232">
-        <v>6272389</v>
+        <v>6271508</v>
       </c>
       <c r="C232">
         <v>181689</v>
@@ -15785,7 +15851,7 @@
         <v>237</v>
       </c>
       <c r="B233">
-        <v>6303451</v>
+        <v>6302569</v>
       </c>
       <c r="C233">
         <v>182773</v>
@@ -15805,7 +15871,7 @@
         <v>238</v>
       </c>
       <c r="B234">
-        <v>6340673</v>
+        <v>6339780</v>
       </c>
       <c r="C234">
         <v>183943</v>
@@ -15825,7 +15891,7 @@
         <v>239</v>
       </c>
       <c r="B235">
-        <v>6385361</v>
+        <v>6384448</v>
       </c>
       <c r="C235">
         <v>184961</v>
@@ -15845,7 +15911,7 @@
         <v>240</v>
       </c>
       <c r="B236">
-        <v>6427159</v>
+        <v>6426242</v>
       </c>
       <c r="C236">
         <v>185771</v>
@@ -15865,7 +15931,7 @@
         <v>241</v>
       </c>
       <c r="B237">
-        <v>6461467</v>
+        <v>6460549</v>
       </c>
       <c r="C237">
         <v>186161</v>
@@ -15885,7 +15951,7 @@
         <v>242</v>
       </c>
       <c r="B238">
-        <v>6495151</v>
+        <v>6494231</v>
       </c>
       <c r="C238">
         <v>186565</v>
@@ -15905,7 +15971,7 @@
         <v>243</v>
       </c>
       <c r="B239">
-        <v>6530030</v>
+        <v>6529110</v>
       </c>
       <c r="C239">
         <v>187596</v>
@@ -15925,7 +15991,7 @@
         <v>244</v>
       </c>
       <c r="B240">
-        <v>6569918</v>
+        <v>6568996</v>
       </c>
       <c r="C240">
         <v>188796</v>
@@ -15945,7 +16011,7 @@
         <v>245</v>
       </c>
       <c r="B241">
-        <v>6613293</v>
+        <v>6612373</v>
       </c>
       <c r="C241">
         <v>189659</v>
@@ -15965,7 +16031,7 @@
         <v>246</v>
       </c>
       <c r="B242">
-        <v>6660414</v>
+        <v>6659485</v>
       </c>
       <c r="C242">
         <v>190560</v>
@@ -15985,7 +16051,7 @@
         <v>247</v>
       </c>
       <c r="B243">
-        <v>6705300</v>
+        <v>6704378</v>
       </c>
       <c r="C243">
         <v>191300</v>
@@ -16005,7 +16071,7 @@
         <v>248</v>
       </c>
       <c r="B244">
-        <v>6740988</v>
+        <v>6740081</v>
       </c>
       <c r="C244">
         <v>191627</v>
@@ -16025,7 +16091,7 @@
         <v>249</v>
       </c>
       <c r="B245">
-        <v>6780050</v>
+        <v>6779142</v>
       </c>
       <c r="C245">
         <v>191914</v>
@@ -16045,7 +16111,7 @@
         <v>250</v>
       </c>
       <c r="B246">
-        <v>6829401</v>
+        <v>6828502</v>
       </c>
       <c r="C246">
         <v>192768</v>
@@ -16065,7 +16131,7 @@
         <v>251</v>
       </c>
       <c r="B247">
-        <v>6867948</v>
+        <v>6867070</v>
       </c>
       <c r="C247">
         <v>193927</v>
@@ -16085,7 +16151,7 @@
         <v>252</v>
       </c>
       <c r="B248">
-        <v>6911191</v>
+        <v>6910444</v>
       </c>
       <c r="C248">
         <v>194848</v>
@@ -16105,7 +16171,7 @@
         <v>253</v>
       </c>
       <c r="B249">
-        <v>6966328</v>
+        <v>6965446</v>
       </c>
       <c r="C249">
         <v>195692</v>
@@ -16125,7 +16191,7 @@
         <v>254</v>
       </c>
       <c r="B250">
-        <v>7013908</v>
+        <v>7013032</v>
       </c>
       <c r="C250">
         <v>196561</v>
@@ -16145,7 +16211,7 @@
         <v>255</v>
       </c>
       <c r="B251">
-        <v>7048969</v>
+        <v>7048087</v>
       </c>
       <c r="C251">
         <v>196868</v>
@@ -16165,7 +16231,7 @@
         <v>256</v>
       </c>
       <c r="B252">
-        <v>7085025</v>
+        <v>7084139</v>
       </c>
       <c r="C252">
         <v>197125</v>
@@ -16185,7 +16251,7 @@
         <v>257</v>
       </c>
       <c r="B253">
-        <v>7121314</v>
+        <v>7120425</v>
       </c>
       <c r="C253">
         <v>197864</v>
@@ -16205,7 +16271,7 @@
         <v>258</v>
       </c>
       <c r="B254">
-        <v>7165581</v>
+        <v>7164690</v>
       </c>
       <c r="C254">
         <v>198925</v>
@@ -16225,7 +16291,7 @@
         <v>259</v>
       </c>
       <c r="B255">
-        <v>7211062</v>
+        <v>7210176</v>
       </c>
       <c r="C255">
         <v>199776</v>
@@ -16245,7 +16311,7 @@
         <v>260</v>
       </c>
       <c r="B256">
-        <v>7260195</v>
+        <v>7259322</v>
       </c>
       <c r="C256">
         <v>200611</v>
@@ -16265,7 +16331,7 @@
         <v>261</v>
       </c>
       <c r="B257">
-        <v>7311204</v>
+        <v>7310323</v>
       </c>
       <c r="C257">
         <v>201352</v>
@@ -16285,7 +16351,7 @@
         <v>262</v>
       </c>
       <c r="B258">
-        <v>7349491</v>
+        <v>7348562</v>
       </c>
       <c r="C258">
         <v>201715</v>
@@ -16305,7 +16371,7 @@
         <v>263</v>
       </c>
       <c r="B259">
-        <v>7387348</v>
+        <v>7386404</v>
       </c>
       <c r="C259">
         <v>202041</v>
@@ -16325,7 +16391,7 @@
         <v>264</v>
       </c>
       <c r="B260">
-        <v>7425765</v>
+        <v>7424968</v>
       </c>
       <c r="C260">
         <v>202675</v>
@@ -16345,7 +16411,7 @@
         <v>265</v>
       </c>
       <c r="B261">
-        <v>7476321</v>
+        <v>7475371</v>
       </c>
       <c r="C261">
         <v>203591</v>
@@ -16365,7 +16431,7 @@
         <v>266</v>
       </c>
       <c r="B262">
-        <v>7531439</v>
+        <v>7530488</v>
       </c>
       <c r="C262">
         <v>204577</v>
@@ -16385,7 +16451,7 @@
         <v>267</v>
       </c>
       <c r="B263">
-        <v>7588162</v>
+        <v>7587218</v>
       </c>
       <c r="C263">
         <v>205470</v>
@@ -16405,7 +16471,7 @@
         <v>268</v>
       </c>
       <c r="B264">
-        <v>7645414</v>
+        <v>7644448</v>
       </c>
       <c r="C264">
         <v>206135</v>
@@ -16425,7 +16491,7 @@
         <v>269</v>
       </c>
       <c r="B265">
-        <v>7692115</v>
+        <v>7691141</v>
       </c>
       <c r="C265">
         <v>206601</v>
@@ -16445,7 +16511,7 @@
         <v>270</v>
       </c>
       <c r="B266">
-        <v>7734890</v>
+        <v>7733909</v>
       </c>
       <c r="C266">
         <v>206888</v>
@@ -16465,7 +16531,7 @@
         <v>271</v>
       </c>
       <c r="B267">
-        <v>7783038</v>
+        <v>7782058</v>
       </c>
       <c r="C267">
         <v>207578</v>
@@ -16485,7 +16551,7 @@
         <v>272</v>
       </c>
       <c r="B268">
-        <v>7839274</v>
+        <v>7838305</v>
       </c>
       <c r="C268">
         <v>208389</v>
@@ -16505,7 +16571,7 @@
         <v>273</v>
       </c>
       <c r="B269">
-        <v>7902125</v>
+        <v>7901157</v>
       </c>
       <c r="C269">
         <v>209340</v>
@@ -16525,7 +16591,7 @@
         <v>274</v>
       </c>
       <c r="B270">
-        <v>7970065</v>
+        <v>7969090</v>
       </c>
       <c r="C270">
         <v>210217</v>
@@ -16545,7 +16611,7 @@
         <v>275</v>
       </c>
       <c r="B271">
-        <v>8027813</v>
+        <v>8026832</v>
       </c>
       <c r="C271">
         <v>210997</v>
@@ -16565,7 +16631,7 @@
         <v>276</v>
       </c>
       <c r="B272">
-        <v>8076445</v>
+        <v>8075450</v>
       </c>
       <c r="C272">
         <v>211390</v>
@@ -16585,7 +16651,7 @@
         <v>277</v>
       </c>
       <c r="B273">
-        <v>8133347</v>
+        <v>8132352</v>
       </c>
       <c r="C273">
         <v>211846</v>
@@ -16605,7 +16671,7 @@
         <v>278</v>
       </c>
       <c r="B274">
-        <v>8193659</v>
+        <v>8192683</v>
       </c>
       <c r="C274">
         <v>212678</v>
@@ -16625,7 +16691,7 @@
         <v>279</v>
       </c>
       <c r="B275">
-        <v>8254316</v>
+        <v>8253352</v>
       </c>
       <c r="C275">
         <v>213702</v>
@@ -16645,7 +16711,7 @@
         <v>280</v>
       </c>
       <c r="B276">
-        <v>8327203</v>
+        <v>8326245</v>
       </c>
       <c r="C276">
         <v>214845</v>
@@ -16665,7 +16731,7 @@
         <v>281</v>
       </c>
       <c r="B277">
-        <v>8409465</v>
+        <v>8408471</v>
       </c>
       <c r="C277">
         <v>215762</v>
@@ -16685,7 +16751,7 @@
         <v>282</v>
       </c>
       <c r="B278">
-        <v>8492210</v>
+        <v>8491198</v>
       </c>
       <c r="C278">
         <v>216652</v>
@@ -16705,7 +16771,7 @@
         <v>283</v>
       </c>
       <c r="B279">
-        <v>8557302</v>
+        <v>8556279</v>
       </c>
       <c r="C279">
         <v>217029</v>
@@ -16725,7 +16791,7 @@
         <v>284</v>
       </c>
       <c r="B280">
-        <v>8619405</v>
+        <v>8618383</v>
       </c>
       <c r="C280">
         <v>217418</v>
@@ -16745,7 +16811,7 @@
         <v>285</v>
       </c>
       <c r="B281">
-        <v>8692402</v>
+        <v>8691383</v>
       </c>
       <c r="C281">
         <v>218349</v>
@@ -16765,7 +16831,7 @@
         <v>286</v>
       </c>
       <c r="B282">
-        <v>8771039</v>
+        <v>8770015</v>
       </c>
       <c r="C282">
         <v>219374</v>
@@ -16785,7 +16851,7 @@
         <v>287</v>
       </c>
       <c r="B283">
-        <v>8859032</v>
+        <v>8857991</v>
       </c>
       <c r="C283">
         <v>220423</v>
@@ -16805,7 +16871,7 @@
         <v>288</v>
       </c>
       <c r="B284">
-        <v>8955741</v>
+        <v>8954691</v>
       </c>
       <c r="C284">
         <v>221356</v>
@@ -16825,7 +16891,7 @@
         <v>289</v>
       </c>
       <c r="B285">
-        <v>9046233</v>
+        <v>9045190</v>
       </c>
       <c r="C285">
         <v>222319</v>
@@ -16845,7 +16911,7 @@
         <v>290</v>
       </c>
       <c r="B286">
-        <v>9120284</v>
+        <v>9119242</v>
       </c>
       <c r="C286">
         <v>222710</v>
@@ -16865,7 +16931,7 @@
         <v>291</v>
       </c>
       <c r="B287">
-        <v>9202532</v>
+        <v>9201482</v>
       </c>
       <c r="C287">
         <v>223186</v>
@@ -16885,7 +16951,7 @@
         <v>292</v>
       </c>
       <c r="B288">
-        <v>9288613</v>
+        <v>9287555</v>
       </c>
       <c r="C288">
         <v>224715</v>
@@ -16905,7 +16971,7 @@
         <v>293</v>
       </c>
       <c r="B289">
-        <v>9391680</v>
+        <v>9390618</v>
       </c>
       <c r="C289">
         <v>225831</v>
@@ -16925,7 +16991,7 @@
         <v>294</v>
       </c>
       <c r="B290">
-        <v>9507833</v>
+        <v>9506770</v>
       </c>
       <c r="C290">
         <v>226955</v>
@@ -16945,7 +17011,7 @@
         <v>295</v>
       </c>
       <c r="B291">
-        <v>9633085</v>
+        <v>9632004</v>
       </c>
       <c r="C291">
         <v>228141</v>
@@ -16965,7 +17031,7 @@
         <v>296</v>
       </c>
       <c r="B292">
-        <v>9762276</v>
+        <v>9761191</v>
       </c>
       <c r="C292">
         <v>229245</v>
@@ -16985,7 +17051,7 @@
         <v>297</v>
       </c>
       <c r="B293">
-        <v>9873114</v>
+        <v>9872020</v>
       </c>
       <c r="C293">
         <v>229732</v>
@@ -17005,7 +17071,7 @@
         <v>298</v>
       </c>
       <c r="B294">
-        <v>9991822</v>
+        <v>9990718</v>
       </c>
       <c r="C294">
         <v>230312</v>
@@ -17025,7 +17091,7 @@
         <v>299</v>
       </c>
       <c r="B295">
-        <v>10122811</v>
+        <v>10121713</v>
       </c>
       <c r="C295">
         <v>231659</v>
@@ -17045,7 +17111,7 @@
         <v>300</v>
       </c>
       <c r="B296">
-        <v>10267310</v>
+        <v>10266200</v>
       </c>
       <c r="C296">
         <v>233224</v>
@@ -17065,7 +17131,7 @@
         <v>301</v>
       </c>
       <c r="B297">
-        <v>10417836</v>
+        <v>10416726</v>
       </c>
       <c r="C297">
         <v>234328</v>
@@ -17085,13 +17151,13 @@
         <v>302</v>
       </c>
       <c r="B298">
-        <v>10588628</v>
+        <v>10588102</v>
       </c>
       <c r="C298">
         <v>235632</v>
       </c>
       <c r="D298">
-        <v>68516</v>
+        <v>68519</v>
       </c>
       <c r="E298">
         <v>13132</v>
@@ -17105,19 +17171,19 @@
         <v>303</v>
       </c>
       <c r="B299">
-        <v>10752101</v>
+        <v>10752950</v>
       </c>
       <c r="C299">
-        <v>236953</v>
+        <v>236956</v>
       </c>
       <c r="D299">
-        <v>69455</v>
+        <v>69463</v>
       </c>
       <c r="E299">
-        <v>13341</v>
+        <v>13337</v>
       </c>
       <c r="F299">
-        <v>3944</v>
+        <v>3945</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
@@ -17125,19 +17191,59 @@
         <v>304</v>
       </c>
       <c r="B300">
-        <v>10897771</v>
+        <v>10898532</v>
       </c>
       <c r="C300">
-        <v>237625</v>
+        <v>237636</v>
       </c>
       <c r="D300">
-        <v>69987</v>
+        <v>69980</v>
       </c>
       <c r="E300">
-        <v>13697</v>
+        <v>13691</v>
       </c>
       <c r="F300">
-        <v>3934</v>
+        <v>3932</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>305</v>
+      </c>
+      <c r="B301">
+        <v>11047064</v>
+      </c>
+      <c r="C301">
+        <v>238217</v>
+      </c>
+      <c r="D301">
+        <v>73014</v>
+      </c>
+      <c r="E301">
+        <v>14313</v>
+      </c>
+      <c r="F301">
+        <v>4157</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>306</v>
+      </c>
+      <c r="B302">
+        <v>11202899</v>
+      </c>
+      <c r="C302">
+        <v>239784</v>
+      </c>
+      <c r="D302">
+        <v>76823</v>
+      </c>
+      <c r="E302">
+        <v>14851</v>
+      </c>
+      <c r="F302">
+        <v>4379</v>
       </c>
     </row>
   </sheetData>
@@ -17152,7 +17258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/covid19/data/USCaseDeathBeds.xlsx
+++ b/covid19/data/USCaseDeathBeds.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201ADE3B-85C1-4140-B39E-1D836D710FBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E1E608-5A5C-4B5F-AE64-B018FDBF2C2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Deaths" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$302</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$303</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="308">
   <si>
     <t>date</t>
   </si>
@@ -952,6 +952,9 @@
   </si>
   <si>
     <t>2020-11-17</t>
+  </si>
+  <si>
+    <t>2020-11-18</t>
   </si>
 </sst>
 </file>
@@ -1040,9 +1043,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$302</c:f>
+              <c:f>Data!$A$2:$A$303</c:f>
               <c:strCache>
-                <c:ptCount val="301"/>
+                <c:ptCount val="302"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -1945,16 +1948,19 @@
                 </c:pt>
                 <c:pt idx="300">
                   <c:v>2020-11-17</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>2020-11-18</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$302</c:f>
+              <c:f>Data!$B$2:$B$303</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="301"/>
+                <c:ptCount val="302"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2082,781 +2088,784 @@
                   <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>282</c:v>
+                  <c:v>284</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>386</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>499</c:v>
+                  <c:v>505</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>672</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>871</c:v>
+                  <c:v>872</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1163</c:v>
+                  <c:v>1166</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1554</c:v>
+                  <c:v>1573</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2056</c:v>
+                  <c:v>2075</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2729</c:v>
+                  <c:v>2761</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3787</c:v>
+                  <c:v>3816</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4704</c:v>
+                  <c:v>4737</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5996</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>7750</c:v>
+                  <c:v>7785</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>10321</c:v>
+                  <c:v>10349</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>13346</c:v>
+                  <c:v>13386</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>18023</c:v>
+                  <c:v>18092</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>24113</c:v>
+                  <c:v>24213</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>30909</c:v>
+                  <c:v>31021</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>40067</c:v>
+                  <c:v>40191</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>51476</c:v>
+                  <c:v>51623</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>62170</c:v>
+                  <c:v>62379</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>75092</c:v>
+                  <c:v>75278</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>92633</c:v>
+                  <c:v>93001</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>111887</c:v>
+                  <c:v>112246</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>131474</c:v>
+                  <c:v>131847</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>151046</c:v>
+                  <c:v>151292</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>172733</c:v>
+                  <c:v>172777</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>197578</c:v>
+                  <c:v>197951</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>223655</c:v>
+                  <c:v>224079</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>251690</c:v>
+                  <c:v>252116</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>283456</c:v>
+                  <c:v>283993</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>316420</c:v>
+                  <c:v>316860</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>342028</c:v>
+                  <c:v>342494</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>370620</c:v>
+                  <c:v>370904</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>401241</c:v>
+                  <c:v>401606</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>432216</c:v>
+                  <c:v>432513</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>466856</c:v>
+                  <c:v>467629</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>501102</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>531728</c:v>
+                  <c:v>532194</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>559715</c:v>
+                  <c:v>560196</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>584473</c:v>
+                  <c:v>584580</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>610348</c:v>
+                  <c:v>610660</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>640103</c:v>
+                  <c:v>640519</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>671592</c:v>
+                  <c:v>672100</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>703593</c:v>
+                  <c:v>704079</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>731433</c:v>
+                  <c:v>731906</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>758834</c:v>
+                  <c:v>759178</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>784780</c:v>
+                  <c:v>785282</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>811058</c:v>
+                  <c:v>811500</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>840062</c:v>
+                  <c:v>840631</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>872048</c:v>
+                  <c:v>872601</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>905746</c:v>
+                  <c:v>906881</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>941680</c:v>
+                  <c:v>942532</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>969045</c:v>
+                  <c:v>969584</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>991648</c:v>
+                  <c:v>992183</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1016960</c:v>
+                  <c:v>1017548</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1043097</c:v>
+                  <c:v>1043778</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1073034</c:v>
+                  <c:v>1073758</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1105967</c:v>
+                  <c:v>1106553</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1134916</c:v>
+                  <c:v>1135592</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1160598</c:v>
+                  <c:v>1161126</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1183174</c:v>
+                  <c:v>1183627</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1205573</c:v>
+                  <c:v>1206137</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1230663</c:v>
+                  <c:v>1231282</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>1257943</c:v>
+                  <c:v>1258686</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>1285029</c:v>
+                  <c:v>1285665</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1310198</c:v>
+                  <c:v>1310851</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1331320</c:v>
+                  <c:v>1331733</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1349650</c:v>
+                  <c:v>1350032</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1372170</c:v>
+                  <c:v>1372591</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1393748</c:v>
+                  <c:v>1394218</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1420429</c:v>
+                  <c:v>1420931</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1445800</c:v>
+                  <c:v>1446353</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1469360</c:v>
+                  <c:v>1469946</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1489704</c:v>
+                  <c:v>1490090</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>1510516</c:v>
+                  <c:v>1510938</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>1531440</c:v>
+                  <c:v>1531816</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>1552634</c:v>
+                  <c:v>1553074</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>1579268</c:v>
+                  <c:v>1579817</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>1603541</c:v>
+                  <c:v>1603990</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>1625708</c:v>
+                  <c:v>1626355</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>1644856</c:v>
+                  <c:v>1645214</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>1663567</c:v>
+                  <c:v>1663745</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>1680323</c:v>
+                  <c:v>1680723</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>1699812</c:v>
+                  <c:v>1700136</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>1722328</c:v>
+                  <c:v>1722794</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>1745761</c:v>
+                  <c:v>1746382</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>1769203</c:v>
+                  <c:v>1769819</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>1790866</c:v>
+                  <c:v>1791211</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>1811261</c:v>
+                  <c:v>1811571</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>1831294</c:v>
+                  <c:v>1831729</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>1851496</c:v>
+                  <c:v>1851884</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>1871754</c:v>
+                  <c:v>1872267</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>1894758</c:v>
+                  <c:v>1895332</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>1917531</c:v>
+                  <c:v>1917892</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>1936417</c:v>
+                  <c:v>1936710</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>1953636</c:v>
+                  <c:v>1953940</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>1970885</c:v>
+                  <c:v>1971092</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>1991522</c:v>
+                  <c:v>1991819</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>2013624</c:v>
+                  <c:v>2013889</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>2036809</c:v>
+                  <c:v>2036984</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>2061940</c:v>
+                  <c:v>2062230</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>2083348</c:v>
+                  <c:v>2083563</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>2101926</c:v>
+                  <c:v>2102217</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>2125254</c:v>
+                  <c:v>2125485</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>2149027</c:v>
+                  <c:v>2149390</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>2176162</c:v>
+                  <c:v>2176478</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>2207045</c:v>
+                  <c:v>2207438</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>2239056</c:v>
+                  <c:v>2239388</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>2268046</c:v>
+                  <c:v>2268236</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>2295120</c:v>
+                  <c:v>2295415</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>2328967</c:v>
+                  <c:v>2329299</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>2367894</c:v>
+                  <c:v>2368308</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>2407463</c:v>
+                  <c:v>2407989</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>2451835</c:v>
+                  <c:v>2452368</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>2494824</c:v>
+                  <c:v>2495261</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>2536117</c:v>
+                  <c:v>2536592</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>2575980</c:v>
+                  <c:v>2576357</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>2623618</c:v>
+                  <c:v>2623987</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>2674545</c:v>
+                  <c:v>2674988</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>2727929</c:v>
+                  <c:v>2728496</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>2781661</c:v>
+                  <c:v>2782184</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>2835794</c:v>
+                  <c:v>2836328</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>2881103</c:v>
+                  <c:v>2881495</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>2922546</c:v>
+                  <c:v>2922989</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>2974104</c:v>
+                  <c:v>2974731</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>3036725</c:v>
+                  <c:v>3037467</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>3095785</c:v>
+                  <c:v>3096428</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>3162288</c:v>
+                  <c:v>3163252</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>3224953</c:v>
+                  <c:v>3225577</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>3285972</c:v>
+                  <c:v>3286549</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>3343559</c:v>
+                  <c:v>3344151</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>3406218</c:v>
+                  <c:v>3406885</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>3471708</c:v>
+                  <c:v>3472504</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>3542082</c:v>
+                  <c:v>3542950</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>3618232</c:v>
+                  <c:v>3619168</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>3682868</c:v>
+                  <c:v>3683592</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>3746720</c:v>
+                  <c:v>3747309</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>3803577</c:v>
+                  <c:v>3804245</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>3867074</c:v>
+                  <c:v>3867869</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>3936263</c:v>
+                  <c:v>3937213</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>4007487</c:v>
+                  <c:v>4008438</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>4082317</c:v>
+                  <c:v>4083295</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>4146547</c:v>
+                  <c:v>4147669</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>4206991</c:v>
+                  <c:v>4207792</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>4262117</c:v>
+                  <c:v>4262806</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>4320752</c:v>
+                  <c:v>4321790</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>4384904</c:v>
+                  <c:v>4385731</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>4453877</c:v>
+                  <c:v>4454537</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>4521249</c:v>
+                  <c:v>4522066</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>4581659</c:v>
+                  <c:v>4582313</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>4628155</c:v>
+                  <c:v>4628824</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>4677806</c:v>
+                  <c:v>4678172</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>4729350</c:v>
+                  <c:v>4729986</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>4781630</c:v>
+                  <c:v>4782450</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>4835597</c:v>
+                  <c:v>4836252</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>4896441</c:v>
+                  <c:v>4897090</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>4949593</c:v>
+                  <c:v>4950174</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>4999791</c:v>
+                  <c:v>5000327</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>5041562</c:v>
+                  <c:v>5042070</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>5096897</c:v>
+                  <c:v>5097498</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>5152905</c:v>
+                  <c:v>5153393</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>5204380</c:v>
+                  <c:v>5205014</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>5261615</c:v>
+                  <c:v>5262107</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>5317474</c:v>
+                  <c:v>5317916</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>5359795</c:v>
+                  <c:v>5360239</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>5397364</c:v>
+                  <c:v>5397650</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>5437802</c:v>
+                  <c:v>5438142</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>5482585</c:v>
+                  <c:v>5483025</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>5526217</c:v>
+                  <c:v>5526748</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>5572443</c:v>
+                  <c:v>5572943</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>5618162</c:v>
+                  <c:v>5618666</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>5655636</c:v>
+                  <c:v>5655990</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>5689969</c:v>
+                  <c:v>5690240</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>5726303</c:v>
+                  <c:v>5726828</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>5770066</c:v>
+                  <c:v>5770456</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>5813832</c:v>
+                  <c:v>5814370</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>5859943</c:v>
+                  <c:v>5860495</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>5904058</c:v>
+                  <c:v>5904462</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>5943460</c:v>
+                  <c:v>5943747</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>5974750</c:v>
+                  <c:v>5975020</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>6016987</c:v>
+                  <c:v>6017446</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>6047267</c:v>
+                  <c:v>6047663</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>6091811</c:v>
+                  <c:v>6092279</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>6143329</c:v>
+                  <c:v>6143787</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>6188051</c:v>
+                  <c:v>6188531</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>6221108</c:v>
+                  <c:v>6221452</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>6249345</c:v>
+                  <c:v>6249595</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>6271508</c:v>
+                  <c:v>6271732</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>6302569</c:v>
+                  <c:v>6302902</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>6339780</c:v>
+                  <c:v>6340206</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>6384448</c:v>
+                  <c:v>6384889</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>6426242</c:v>
+                  <c:v>6426755</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>6460549</c:v>
+                  <c:v>6461066</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>6494231</c:v>
+                  <c:v>6494687</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>6529110</c:v>
+                  <c:v>6529591</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>6568996</c:v>
+                  <c:v>6569701</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>6612373</c:v>
+                  <c:v>6612990</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>6659485</c:v>
+                  <c:v>6660241</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>6704378</c:v>
+                  <c:v>6705146</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>6740081</c:v>
+                  <c:v>6740649</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>6779142</c:v>
+                  <c:v>6779788</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>6828502</c:v>
+                  <c:v>6829263</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>6867070</c:v>
+                  <c:v>6867883</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>6910444</c:v>
+                  <c:v>6911229</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>6965446</c:v>
+                  <c:v>6966418</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>7013032</c:v>
+                  <c:v>7013821</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>7048087</c:v>
+                  <c:v>7048808</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>7084139</c:v>
+                  <c:v>7084691</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>7120425</c:v>
+                  <c:v>7121132</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>7164690</c:v>
+                  <c:v>7165479</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>7210176</c:v>
+                  <c:v>7211084</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>7259322</c:v>
+                  <c:v>7260341</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>7310323</c:v>
+                  <c:v>7311276</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>7348562</c:v>
+                  <c:v>7349264</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>7386404</c:v>
+                  <c:v>7387020</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>7424968</c:v>
+                  <c:v>7425937</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>7475371</c:v>
+                  <c:v>7476527</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>7530488</c:v>
+                  <c:v>7531735</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>7587218</c:v>
+                  <c:v>7588537</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>7644448</c:v>
+                  <c:v>7645952</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>7691141</c:v>
+                  <c:v>7692221</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>7733909</c:v>
+                  <c:v>7734864</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>7782058</c:v>
+                  <c:v>7783457</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>7838305</c:v>
+                  <c:v>7839574</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>7901157</c:v>
+                  <c:v>7902966</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>7969090</c:v>
+                  <c:v>7971214</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>8026832</c:v>
+                  <c:v>8028544</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>8075450</c:v>
+                  <c:v>8076828</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>8132352</c:v>
+                  <c:v>8133938</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>8192683</c:v>
+                  <c:v>8194485</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>8253352</c:v>
+                  <c:v>8255438</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>8326245</c:v>
+                  <c:v>8328280</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>8408471</c:v>
+                  <c:v>8410612</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>8491198</c:v>
+                  <c:v>8493898</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>8556279</c:v>
+                  <c:v>8558791</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>8618383</c:v>
+                  <c:v>8621317</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>8691383</c:v>
+                  <c:v>8693399</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>8770015</c:v>
+                  <c:v>8772147</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>8857991</c:v>
+                  <c:v>8860875</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>8954691</c:v>
+                  <c:v>8958108</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>9045190</c:v>
+                  <c:v>9048695</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>9119242</c:v>
+                  <c:v>9122544</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>9201482</c:v>
+                  <c:v>9204591</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>9287555</c:v>
+                  <c:v>9291253</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>9390618</c:v>
+                  <c:v>9394557</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>9506770</c:v>
+                  <c:v>9510998</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>9632004</c:v>
+                  <c:v>9636751</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>9761191</c:v>
+                  <c:v>9765966</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>9872020</c:v>
+                  <c:v>9876247</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>9990718</c:v>
+                  <c:v>9995679</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>10121713</c:v>
+                  <c:v>10126861</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>10266200</c:v>
+                  <c:v>10271662</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>10416726</c:v>
+                  <c:v>10423665</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>10588102</c:v>
+                  <c:v>10595771</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>10752950</c:v>
+                  <c:v>10759311</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>10898532</c:v>
+                  <c:v>10903745</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>11047064</c:v>
+                  <c:v>11052613</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>11202899</c:v>
+                  <c:v>11209335</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>11373310</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2965,9 +2974,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$302</c:f>
+              <c:f>Data!$A$2:$A$303</c:f>
               <c:strCache>
-                <c:ptCount val="301"/>
+                <c:ptCount val="302"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -3870,16 +3879,19 @@
                 </c:pt>
                 <c:pt idx="300">
                   <c:v>2020-11-17</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>2020-11-18</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$2:$D$302</c:f>
+              <c:f>Data!$D$2:$D$303</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="301"/>
+                <c:ptCount val="302"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4058,490 +4070,490 @@
                   <c:v>1042</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1436</c:v>
+                  <c:v>1492</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2155</c:v>
+                  <c:v>2173</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2770</c:v>
+                  <c:v>2812</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3902</c:v>
+                  <c:v>3938</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>5062</c:v>
+                  <c:v>5140</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>7757</c:v>
+                  <c:v>7805</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>10932</c:v>
+                  <c:v>10978</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>12382</c:v>
+                  <c:v>12409</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>14026</c:v>
+                  <c:v>14055</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>15772</c:v>
+                  <c:v>15917</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>18082</c:v>
+                  <c:v>18155</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>20775</c:v>
+                  <c:v>20906</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>22956</c:v>
+                  <c:v>22997</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>25729</c:v>
+                  <c:v>25777</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>30266</c:v>
+                  <c:v>30268</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>32169</c:v>
+                  <c:v>32180</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>36156</c:v>
+                  <c:v>36159</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>43799</c:v>
+                  <c:v>43849</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>45492</c:v>
+                  <c:v>45515</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>51305</c:v>
+                  <c:v>51313</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>53166</c:v>
+                  <c:v>53167</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>55573</c:v>
+                  <c:v>55557</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>55427</c:v>
+                  <c:v>55449</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>56184</c:v>
+                  <c:v>56237</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>59610</c:v>
+                  <c:v>59600</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>59940</c:v>
+                  <c:v>59924</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>59499</c:v>
+                  <c:v>59498</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>58895</c:v>
+                  <c:v>58886</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>57761</c:v>
+                  <c:v>57788</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>56486</c:v>
+                  <c:v>56497</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>56734</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>59780</c:v>
+                  <c:v>59773</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>59202</c:v>
+                  <c:v>59212</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>58989</c:v>
+                  <c:v>59216</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>57295</c:v>
+                  <c:v>57324</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>57381</c:v>
+                  <c:v>57343</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>56192</c:v>
+                  <c:v>56149</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>56189</c:v>
+                  <c:v>56183</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>56062</c:v>
+                  <c:v>56034</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>55979</c:v>
+                  <c:v>55987</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>54919</c:v>
+                  <c:v>54921</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>54903</c:v>
+                  <c:v>54862</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>54048</c:v>
+                  <c:v>54009</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>52623</c:v>
+                  <c:v>52619</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>52409</c:v>
+                  <c:v>52377</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>53221</c:v>
+                  <c:v>53176</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>52560</c:v>
+                  <c:v>52581</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>51398</c:v>
+                  <c:v>51425</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>49785</c:v>
+                  <c:v>49758</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>48564</c:v>
+                  <c:v>48561</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>46981</c:v>
+                  <c:v>46760</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>46372</c:v>
+                  <c:v>46550</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>47402</c:v>
+                  <c:v>47344</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>46742</c:v>
+                  <c:v>46740</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>45635</c:v>
+                  <c:v>45644</c:v>
                 </c:pt>
                 <c:pt idx="114">
                   <c:v>44299</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>43211</c:v>
+                  <c:v>43175</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>41606</c:v>
+                  <c:v>41609</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>41553</c:v>
+                  <c:v>41531</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>41661</c:v>
+                  <c:v>41652</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>41546</c:v>
+                  <c:v>41535</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>41065</c:v>
+                  <c:v>41071</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>39822</c:v>
+                  <c:v>39774</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>38391</c:v>
+                  <c:v>38360</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>37483</c:v>
+                  <c:v>37510</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>37432</c:v>
+                  <c:v>37382</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>37561</c:v>
+                  <c:v>37533</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>38038</c:v>
+                  <c:v>38017</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>37818</c:v>
+                  <c:v>37804</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>36764</c:v>
+                  <c:v>36718</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>35524</c:v>
+                  <c:v>35513</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>34648</c:v>
+                  <c:v>34641</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>34075</c:v>
+                  <c:v>34064</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>33724</c:v>
+                  <c:v>33709</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>33070</c:v>
+                  <c:v>33026</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>32639</c:v>
+                  <c:v>32602</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>32280</c:v>
+                  <c:v>32265</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>31761</c:v>
+                  <c:v>31762</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>31225</c:v>
+                  <c:v>31249</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>30996</c:v>
+                  <c:v>30984</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>31009</c:v>
+                  <c:v>31020</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>30864</c:v>
+                  <c:v>30840</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>29698</c:v>
+                  <c:v>29686</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>29154</c:v>
+                  <c:v>29149</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>28450</c:v>
+                  <c:v>28431</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>27895</c:v>
+                  <c:v>27899</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>27867</c:v>
+                  <c:v>27866</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>28270</c:v>
+                  <c:v>28279</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>28576</c:v>
+                  <c:v>28561</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>28415</c:v>
+                  <c:v>28411</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>28616</c:v>
+                  <c:v>28586</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>27967</c:v>
+                  <c:v>27970</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>28220</c:v>
+                  <c:v>28221</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>28799</c:v>
+                  <c:v>28797</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>30235</c:v>
+                  <c:v>30226</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>31102</c:v>
+                  <c:v>31119</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>31842</c:v>
+                  <c:v>31828</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>31738</c:v>
+                  <c:v>31710</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>32482</c:v>
+                  <c:v>32485</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>32488</c:v>
+                  <c:v>32479</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>33585</c:v>
+                  <c:v>33627</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>35248</c:v>
+                  <c:v>35222</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>36405</c:v>
+                  <c:v>36430</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>37500</c:v>
+                  <c:v>37508</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>37798</c:v>
+                  <c:v>37801</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>38146</c:v>
+                  <c:v>38150</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>38764</c:v>
+                  <c:v>38765</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>39769</c:v>
+                  <c:v>39820</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>41760</c:v>
+                  <c:v>41772</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>43076</c:v>
+                  <c:v>43097</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>43933</c:v>
+                  <c:v>43916</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>51599</c:v>
+                  <c:v>51606</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>51858</c:v>
+                  <c:v>51861</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>52727</c:v>
+                  <c:v>52739</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>53988</c:v>
+                  <c:v>54044</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>55565</c:v>
+                  <c:v>55554</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>56144</c:v>
+                  <c:v>56168</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>57440</c:v>
+                  <c:v>57459</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>57759</c:v>
+                  <c:v>57737</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>57645</c:v>
+                  <c:v>57646</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>57885</c:v>
+                  <c:v>57882</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>58370</c:v>
+                  <c:v>58352</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>59364</c:v>
+                  <c:v>59351</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>59596</c:v>
+                  <c:v>59598</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>59718</c:v>
+                  <c:v>59712</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>59682</c:v>
+                  <c:v>59677</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>59301</c:v>
+                  <c:v>59269</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>58621</c:v>
+                  <c:v>58644</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>58897</c:v>
+                  <c:v>58906</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>57091</c:v>
+                  <c:v>57086</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>57339</c:v>
+                  <c:v>57325</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>56427</c:v>
+                  <c:v>56434</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>55593</c:v>
+                  <c:v>55589</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>54470</c:v>
+                  <c:v>54437</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>54017</c:v>
+                  <c:v>53983</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>53377</c:v>
+                  <c:v>53413</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>53326</c:v>
+                  <c:v>53323</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>53353</c:v>
+                  <c:v>53343</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>53132</c:v>
+                  <c:v>53129</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>51207</c:v>
+                  <c:v>51201</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>49911</c:v>
+                  <c:v>49935</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>48899</c:v>
+                  <c:v>48866</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>48635</c:v>
+                  <c:v>48631</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>48498</c:v>
+                  <c:v>48511</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>47991</c:v>
+                  <c:v>47949</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>47218</c:v>
+                  <c:v>47204</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>45776</c:v>
+                  <c:v>45744</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>44795</c:v>
+                  <c:v>44783</c:v>
                 </c:pt>
                 <c:pt idx="207">
                   <c:v>44046</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>43485</c:v>
+                  <c:v>43500</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>43758</c:v>
+                  <c:v>43767</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>43330</c:v>
+                  <c:v>43289</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>41988</c:v>
+                  <c:v>41968</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>40951</c:v>
+                  <c:v>40940</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>39894</c:v>
+                  <c:v>39919</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>39017</c:v>
+                  <c:v>38980</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>38673</c:v>
+                  <c:v>38695</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>38779</c:v>
+                  <c:v>38775</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>38401</c:v>
+                  <c:v>38418</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>37464</c:v>
+                  <c:v>37421</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>37239</c:v>
+                  <c:v>37255</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>36428</c:v>
+                  <c:v>36437</c:v>
                 </c:pt>
                 <c:pt idx="221">
                   <c:v>35726</c:v>
@@ -4550,238 +4562,241 @@
                   <c:v>35352</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>35271</c:v>
+                  <c:v>35273</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>35569</c:v>
+                  <c:v>35579</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>34682</c:v>
+                  <c:v>34650</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>34099</c:v>
+                  <c:v>34101</c:v>
                 </c:pt>
                 <c:pt idx="227">
                   <c:v>33502</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>32372</c:v>
+                  <c:v>32376</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>31999</c:v>
+                  <c:v>32009</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>32262</c:v>
+                  <c:v>32246</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>32562</c:v>
+                  <c:v>32579</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>32421</c:v>
+                  <c:v>32438</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>31421</c:v>
+                  <c:v>31406</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>30655</c:v>
+                  <c:v>30643</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>29810</c:v>
+                  <c:v>29804</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>29895</c:v>
+                  <c:v>29907</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>30328</c:v>
+                  <c:v>30361</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>30278</c:v>
+                  <c:v>30253</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>29900</c:v>
+                  <c:v>29875</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>29501</c:v>
+                  <c:v>29521</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>29035</c:v>
+                  <c:v>29038</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>28608</c:v>
+                  <c:v>28606</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>28755</c:v>
+                  <c:v>28762</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>29459</c:v>
+                  <c:v>29448</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>29905</c:v>
+                  <c:v>29937</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>30043</c:v>
+                  <c:v>30036</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>29769</c:v>
+                  <c:v>29768</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>29554</c:v>
+                  <c:v>29551</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>29434</c:v>
+                  <c:v>29443</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>29608</c:v>
+                  <c:v>29601</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>30473</c:v>
+                  <c:v>30499</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>30911</c:v>
+                  <c:v>30912</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>30790</c:v>
+                  <c:v>30809</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>30744</c:v>
+                  <c:v>30769</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>30113</c:v>
+                  <c:v>30111</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>29942</c:v>
+                  <c:v>29945</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>31299</c:v>
+                  <c:v>31327</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>32595</c:v>
+                  <c:v>32626</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>33457</c:v>
+                  <c:v>33482</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>34322</c:v>
+                  <c:v>34319</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>34839</c:v>
+                  <c:v>34877</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>34618</c:v>
+                  <c:v>34600</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>34490</c:v>
+                  <c:v>34498</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>35072</c:v>
+                  <c:v>35066</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>36051</c:v>
+                  <c:v>36064</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>37048</c:v>
+                  <c:v>37088</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>37308</c:v>
+                  <c:v>37328</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>37336</c:v>
+                  <c:v>37368</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>37359</c:v>
+                  <c:v>37358</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>36437</c:v>
+                  <c:v>36452</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>37826</c:v>
+                  <c:v>37858</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>39230</c:v>
+                  <c:v>39303</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>40271</c:v>
+                  <c:v>40284</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>41010</c:v>
+                  <c:v>41036</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>41482</c:v>
+                  <c:v>41501</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>41905</c:v>
+                  <c:v>41989</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>41776</c:v>
+                  <c:v>41786</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>42917</c:v>
+                  <c:v>42924</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>44212</c:v>
+                  <c:v>44287</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>45045</c:v>
+                  <c:v>45124</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>46095</c:v>
+                  <c:v>46126</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>46688</c:v>
+                  <c:v>46738</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>47375</c:v>
+                  <c:v>47402</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>47520</c:v>
+                  <c:v>47531</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>48470</c:v>
+                  <c:v>48557</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>50340</c:v>
+                  <c:v>50426</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>52049</c:v>
+                  <c:v>52086</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>53322</c:v>
+                  <c:v>53375</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>54824</c:v>
+                  <c:v>54851</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>55840</c:v>
+                  <c:v>55925</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>56799</c:v>
+                  <c:v>56842</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>59275</c:v>
+                  <c:v>59301</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>61964</c:v>
+                  <c:v>62059</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>65373</c:v>
+                  <c:v>65463</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>67096</c:v>
+                  <c:v>67100</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>68519</c:v>
+                  <c:v>68496</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>69463</c:v>
+                  <c:v>69498</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>69980</c:v>
+                  <c:v>70113</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>73014</c:v>
+                  <c:v>73268</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>76823</c:v>
+                  <c:v>76958</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>79410</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4890,9 +4905,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$302</c:f>
+              <c:f>Data!$A$2:$A$303</c:f>
               <c:strCache>
-                <c:ptCount val="301"/>
+                <c:ptCount val="302"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -5795,16 +5810,19 @@
                 </c:pt>
                 <c:pt idx="300">
                   <c:v>2020-11-17</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>2020-11-18</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$302</c:f>
+              <c:f>Data!$E$2:$E$303</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="301"/>
+                <c:ptCount val="302"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6685,7 +6703,7 @@
                   <c:v>11533</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>11952</c:v>
+                  <c:v>11961</c:v>
                 </c:pt>
                 <c:pt idx="294">
                   <c:v>12518</c:v>
@@ -6700,13 +6718,16 @@
                   <c:v>13337</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>13691</c:v>
+                  <c:v>13693</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>14313</c:v>
+                  <c:v>14317</c:v>
                 </c:pt>
                 <c:pt idx="300">
                   <c:v>14851</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>15350</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6815,9 +6836,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$302</c:f>
+              <c:f>Data!$A$2:$A$303</c:f>
               <c:strCache>
-                <c:ptCount val="301"/>
+                <c:ptCount val="302"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -7720,16 +7741,19 @@
                 </c:pt>
                 <c:pt idx="300">
                   <c:v>2020-11-17</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>2020-11-18</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$302</c:f>
+              <c:f>Data!$F$2:$F$303</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="301"/>
+                <c:ptCount val="302"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7947,7 +7971,7 @@
                   <c:v>574</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>605</c:v>
+                  <c:v>623</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>656</c:v>
@@ -7974,7 +7998,7 @@
                   <c:v>5978</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>5986</c:v>
+                  <c:v>5968</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>6168</c:v>
@@ -8610,7 +8634,7 @@
                   <c:v>3110</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>3205</c:v>
+                  <c:v>3201</c:v>
                 </c:pt>
                 <c:pt idx="294">
                   <c:v>3367</c:v>
@@ -8625,13 +8649,16 @@
                   <c:v>3945</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>3932</c:v>
+                  <c:v>3939</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>4157</c:v>
+                  <c:v>4166</c:v>
                 </c:pt>
                 <c:pt idx="300">
                   <c:v>4379</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>4701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8740,9 +8767,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$302</c:f>
+              <c:f>Data!$A$2:$A$303</c:f>
               <c:strCache>
-                <c:ptCount val="301"/>
+                <c:ptCount val="302"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -9645,16 +9672,19 @@
                 </c:pt>
                 <c:pt idx="300">
                   <c:v>2020-11-17</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>2020-11-18</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$302</c:f>
+              <c:f>Data!$C$2:$C$303</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="301"/>
+                <c:ptCount val="302"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9809,7 +9839,7 @@
                   <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>55</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>64</c:v>
@@ -9821,7 +9851,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>123</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>155</c:v>
@@ -9830,733 +9860,736 @@
                   <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>272</c:v>
+                  <c:v>273</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>334</c:v>
+                  <c:v>335</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>480</c:v>
+                  <c:v>481</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>581</c:v>
+                  <c:v>582</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>815</c:v>
+                  <c:v>820</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1050</c:v>
+                  <c:v>1058</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1369</c:v>
+                  <c:v>1374</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1775</c:v>
+                  <c:v>1782</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2319</c:v>
+                  <c:v>2333</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2834</c:v>
+                  <c:v>2837</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3423</c:v>
+                  <c:v>3425</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>4313</c:v>
+                  <c:v>4332</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>5324</c:v>
+                  <c:v>5336</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>6496</c:v>
+                  <c:v>6514</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>7782</c:v>
+                  <c:v>7799</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>9264</c:v>
+                  <c:v>9280</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>10604</c:v>
+                  <c:v>10619</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>11922</c:v>
+                  <c:v>11932</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>13946</c:v>
+                  <c:v>13976</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>15956</c:v>
+                  <c:v>15973</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>17999</c:v>
+                  <c:v>18035</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>20107</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>22161</c:v>
+                  <c:v>22186</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>23864</c:v>
+                  <c:v>23886</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>25507</c:v>
+                  <c:v>25516</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>27843</c:v>
+                  <c:v>27869</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>30387</c:v>
+                  <c:v>30415</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>32587</c:v>
+                  <c:v>32612</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>34706</c:v>
+                  <c:v>34730</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>36599</c:v>
+                  <c:v>36621</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>38371</c:v>
+                  <c:v>38384</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>40169</c:v>
+                  <c:v>40199</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>42636</c:v>
+                  <c:v>42680</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>44734</c:v>
+                  <c:v>44762</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>46525</c:v>
+                  <c:v>46576</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>48420</c:v>
+                  <c:v>48548</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>50168</c:v>
+                  <c:v>50175</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>51383</c:v>
+                  <c:v>51397</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>52653</c:v>
+                  <c:v>52684</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>54725</c:v>
+                  <c:v>54761</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>57438</c:v>
+                  <c:v>57446</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>59577</c:v>
+                  <c:v>59599</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>61356</c:v>
+                  <c:v>61407</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>62918</c:v>
+                  <c:v>62938</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>64150</c:v>
+                  <c:v>64172</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>65185</c:v>
+                  <c:v>65199</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>67637</c:v>
+                  <c:v>67695</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>69585</c:v>
+                  <c:v>69610</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>72337</c:v>
+                  <c:v>72363</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>74135</c:v>
+                  <c:v>74143</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>75580</c:v>
+                  <c:v>75597</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>76616</c:v>
+                  <c:v>76629</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>77508</c:v>
+                  <c:v>77522</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>78994</c:v>
+                  <c:v>79027</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>80698</c:v>
+                  <c:v>80763</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>82577</c:v>
+                  <c:v>82617</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>84084</c:v>
+                  <c:v>83882</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>85071</c:v>
+                  <c:v>85077</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>85920</c:v>
+                  <c:v>85926</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>86768</c:v>
+                  <c:v>86816</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>88094</c:v>
+                  <c:v>88147</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>89493</c:v>
+                  <c:v>89533</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>90887</c:v>
+                  <c:v>90959</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>92228</c:v>
+                  <c:v>92262</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>93291</c:v>
+                  <c:v>93297</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>93971</c:v>
+                  <c:v>93980</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>94530</c:v>
+                  <c:v>94533</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>95175</c:v>
+                  <c:v>95206</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>96496</c:v>
+                  <c:v>96521</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>97727</c:v>
+                  <c:v>97766</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>98911</c:v>
+                  <c:v>98933</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>99843</c:v>
+                  <c:v>99850</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>100495</c:v>
+                  <c:v>100500</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>101163</c:v>
+                  <c:v>101173</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>102125</c:v>
+                  <c:v>102173</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>103118</c:v>
+                  <c:v>103152</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>104011</c:v>
+                  <c:v>104020</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>104837</c:v>
+                  <c:v>104860</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>105565</c:v>
+                  <c:v>105570</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>106012</c:v>
+                  <c:v>106016</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>106673</c:v>
+                  <c:v>106695</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>107575</c:v>
+                  <c:v>107599</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>108462</c:v>
+                  <c:v>108484</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>109361</c:v>
+                  <c:v>109382</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>110136</c:v>
+                  <c:v>110145</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>110830</c:v>
+                  <c:v>110835</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>111186</c:v>
+                  <c:v>111190</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>111567</c:v>
+                  <c:v>111597</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>112297</c:v>
+                  <c:v>112304</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>113064</c:v>
+                  <c:v>113098</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>113769</c:v>
+                  <c:v>113788</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>114424</c:v>
+                  <c:v>114444</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>115053</c:v>
+                  <c:v>115055</c:v>
                 </c:pt>
                 <c:pt idx="151">
                   <c:v>115347</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>115633</c:v>
+                  <c:v>115642</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>116343</c:v>
+                  <c:v>116367</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>117067</c:v>
+                  <c:v>117073</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>117714</c:v>
+                  <c:v>117737</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>118351</c:v>
+                  <c:v>118362</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>118862</c:v>
+                  <c:v>118864</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>119133</c:v>
+                  <c:v>119134</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>119465</c:v>
+                  <c:v>119492</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>120061</c:v>
+                  <c:v>120077</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>120762</c:v>
+                  <c:v>120765</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>121457</c:v>
+                  <c:v>121461</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>122055</c:v>
+                  <c:v>122063</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>122361</c:v>
+                  <c:v>122363</c:v>
                 </c:pt>
                 <c:pt idx="165">
                   <c:v>122570</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>122813</c:v>
+                  <c:v>122836</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>123736</c:v>
+                  <c:v>123740</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>124543</c:v>
+                  <c:v>124553</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>125410</c:v>
+                  <c:v>125453</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>126264</c:v>
+                  <c:v>126275</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>127021</c:v>
+                  <c:v>127025</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>127497</c:v>
+                  <c:v>127499</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>127824</c:v>
+                  <c:v>127830</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>128560</c:v>
+                  <c:v>128568</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>129418</c:v>
+                  <c:v>129431</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>130365</c:v>
+                  <c:v>130384</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>131316</c:v>
+                  <c:v>131319</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>132188</c:v>
+                  <c:v>132192</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>132715</c:v>
+                  <c:v>132717</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>133078</c:v>
+                  <c:v>133085</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>134117</c:v>
+                  <c:v>134155</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>135288</c:v>
+                  <c:v>135291</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>136344</c:v>
+                  <c:v>136351</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>137520</c:v>
+                  <c:v>137541</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>138543</c:v>
+                  <c:v>138549</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>139102</c:v>
+                  <c:v>139109</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>140162</c:v>
+                  <c:v>140174</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>141284</c:v>
+                  <c:v>141302</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>142776</c:v>
+                  <c:v>142791</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>144035</c:v>
+                  <c:v>144041</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>145347</c:v>
+                  <c:v>145354</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>146537</c:v>
+                  <c:v>146546</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>147035</c:v>
+                  <c:v>147038</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>147554</c:v>
+                  <c:v>147574</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>148809</c:v>
+                  <c:v>148812</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>150155</c:v>
+                  <c:v>150171</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>151406</c:v>
+                  <c:v>151420</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>152739</c:v>
+                  <c:v>152752</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>153828</c:v>
+                  <c:v>153834</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>154444</c:v>
+                  <c:v>154448</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>154870</c:v>
+                  <c:v>154885</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>156196</c:v>
+                  <c:v>156204</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>157715</c:v>
+                  <c:v>157722</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>158878</c:v>
+                  <c:v>158887</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>160094</c:v>
+                  <c:v>160105</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>161315</c:v>
+                  <c:v>161323</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>161934</c:v>
+                  <c:v>161937</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>162341</c:v>
+                  <c:v>162355</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>163537</c:v>
+                  <c:v>163552</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>164957</c:v>
+                  <c:v>164975</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>166091</c:v>
+                  <c:v>166111</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>167214</c:v>
+                  <c:v>167219</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>168243</c:v>
+                  <c:v>168247</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>168815</c:v>
+                  <c:v>168817</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>169158</c:v>
+                  <c:v>169169</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>170305</c:v>
+                  <c:v>170310</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>171603</c:v>
+                  <c:v>171617</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>172732</c:v>
+                  <c:v>172741</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>173756</c:v>
+                  <c:v>173767</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>174771</c:v>
+                  <c:v>174773</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>175246</c:v>
+                  <c:v>175247</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>175612</c:v>
+                  <c:v>175627</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>176639</c:v>
+                  <c:v>176651</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>177671</c:v>
+                  <c:v>177674</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>178741</c:v>
+                  <c:v>178750</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>179739</c:v>
+                  <c:v>179747</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>180657</c:v>
+                  <c:v>180663</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>181106</c:v>
+                  <c:v>181109</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>181331</c:v>
+                  <c:v>181335</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>181689</c:v>
+                  <c:v>181691</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>182773</c:v>
+                  <c:v>182793</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>183943</c:v>
+                  <c:v>183953</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>184961</c:v>
+                  <c:v>184963</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>185771</c:v>
+                  <c:v>185774</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>186161</c:v>
+                  <c:v>186163</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>186565</c:v>
+                  <c:v>186570</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>187596</c:v>
+                  <c:v>187614</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>188796</c:v>
+                  <c:v>188798</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>189659</c:v>
+                  <c:v>189669</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>190560</c:v>
+                  <c:v>190567</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>191300</c:v>
+                  <c:v>191306</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>191627</c:v>
+                  <c:v>191629</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>191914</c:v>
+                  <c:v>191917</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>192768</c:v>
+                  <c:v>192783</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>193927</c:v>
+                  <c:v>193930</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>194848</c:v>
+                  <c:v>194859</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>195692</c:v>
+                  <c:v>195703</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>196561</c:v>
+                  <c:v>196566</c:v>
                 </c:pt>
                 <c:pt idx="249">
                   <c:v>196868</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>197125</c:v>
+                  <c:v>197133</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>197864</c:v>
+                  <c:v>197873</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>198925</c:v>
+                  <c:v>198935</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>199776</c:v>
+                  <c:v>199783</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>200611</c:v>
+                  <c:v>200622</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>201352</c:v>
+                  <c:v>201355</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>201715</c:v>
+                  <c:v>201717</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>202041</c:v>
+                  <c:v>202058</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>202675</c:v>
+                  <c:v>202690</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>203591</c:v>
+                  <c:v>203600</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>204577</c:v>
+                  <c:v>204587</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>205470</c:v>
+                  <c:v>205474</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>206135</c:v>
+                  <c:v>206140</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>206601</c:v>
+                  <c:v>206605</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>206888</c:v>
+                  <c:v>206892</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>207578</c:v>
+                  <c:v>207592</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>208389</c:v>
+                  <c:v>208408</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>209340</c:v>
+                  <c:v>209345</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>210217</c:v>
+                  <c:v>210236</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>210997</c:v>
+                  <c:v>210998</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>211390</c:v>
+                  <c:v>211395</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>211846</c:v>
+                  <c:v>211856</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>212678</c:v>
+                  <c:v>212694</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>213702</c:v>
+                  <c:v>213716</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>214845</c:v>
+                  <c:v>214852</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>215762</c:v>
+                  <c:v>215775</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>216652</c:v>
+                  <c:v>216657</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>217029</c:v>
+                  <c:v>217031</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>217418</c:v>
+                  <c:v>217433</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>218349</c:v>
+                  <c:v>218353</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>219374</c:v>
+                  <c:v>219397</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>220423</c:v>
+                  <c:v>220427</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>221356</c:v>
+                  <c:v>221379</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>222319</c:v>
+                  <c:v>222330</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>222710</c:v>
+                  <c:v>222718</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>223186</c:v>
+                  <c:v>223217</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>224715</c:v>
+                  <c:v>224732</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>225831</c:v>
+                  <c:v>225858</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>226955</c:v>
+                  <c:v>226989</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>228141</c:v>
+                  <c:v>228157</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>229245</c:v>
+                  <c:v>229261</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>229732</c:v>
+                  <c:v>229746</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>230312</c:v>
+                  <c:v>230335</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>231659</c:v>
+                  <c:v>231695</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>233224</c:v>
+                  <c:v>233238</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>234328</c:v>
+                  <c:v>234379</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>235632</c:v>
+                  <c:v>235654</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>236956</c:v>
+                  <c:v>236966</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>237636</c:v>
+                  <c:v>237643</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>238217</c:v>
+                  <c:v>238280</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>239784</c:v>
+                  <c:v>239835</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>241704</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10852,9 +10885,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F302" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F302" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F302">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F303" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F303" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F303">
     <sortCondition ref="A1:A254"/>
   </sortState>
   <tableColumns count="6">
@@ -11190,9 +11223,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F302"/>
+  <dimension ref="A1:F303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A266" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A267" workbookViewId="0">
       <selection activeCell="I298" sqref="I298"/>
     </sheetView>
   </sheetViews>
@@ -12071,7 +12104,7 @@
         <v>48</v>
       </c>
       <c r="B44">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C44">
         <v>16</v>
@@ -12111,7 +12144,7 @@
         <v>50</v>
       </c>
       <c r="B46">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="C46">
         <v>26</v>
@@ -12151,7 +12184,7 @@
         <v>52</v>
       </c>
       <c r="B48">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="C48">
         <v>31</v>
@@ -12171,7 +12204,7 @@
         <v>53</v>
       </c>
       <c r="B49">
-        <v>1163</v>
+        <v>1166</v>
       </c>
       <c r="C49">
         <v>35</v>
@@ -12191,7 +12224,7 @@
         <v>54</v>
       </c>
       <c r="B50">
-        <v>1554</v>
+        <v>1573</v>
       </c>
       <c r="C50">
         <v>37</v>
@@ -12211,7 +12244,7 @@
         <v>55</v>
       </c>
       <c r="B51">
-        <v>2056</v>
+        <v>2075</v>
       </c>
       <c r="C51">
         <v>43</v>
@@ -12231,7 +12264,7 @@
         <v>56</v>
       </c>
       <c r="B52">
-        <v>2729</v>
+        <v>2761</v>
       </c>
       <c r="C52">
         <v>51</v>
@@ -12251,10 +12284,10 @@
         <v>57</v>
       </c>
       <c r="B53">
-        <v>3787</v>
+        <v>3816</v>
       </c>
       <c r="C53">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -12271,7 +12304,7 @@
         <v>58</v>
       </c>
       <c r="B54">
-        <v>4704</v>
+        <v>4737</v>
       </c>
       <c r="C54">
         <v>64</v>
@@ -12291,7 +12324,7 @@
         <v>59</v>
       </c>
       <c r="B55">
-        <v>5996</v>
+        <v>6000</v>
       </c>
       <c r="C55">
         <v>79</v>
@@ -12311,7 +12344,7 @@
         <v>60</v>
       </c>
       <c r="B56">
-        <v>7750</v>
+        <v>7785</v>
       </c>
       <c r="C56">
         <v>100</v>
@@ -12331,10 +12364,10 @@
         <v>61</v>
       </c>
       <c r="B57">
-        <v>10321</v>
+        <v>10349</v>
       </c>
       <c r="C57">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D57">
         <v>325</v>
@@ -12351,7 +12384,7 @@
         <v>62</v>
       </c>
       <c r="B58">
-        <v>13346</v>
+        <v>13386</v>
       </c>
       <c r="C58">
         <v>155</v>
@@ -12371,7 +12404,7 @@
         <v>63</v>
       </c>
       <c r="B59">
-        <v>18023</v>
+        <v>18092</v>
       </c>
       <c r="C59">
         <v>203</v>
@@ -12391,10 +12424,10 @@
         <v>64</v>
       </c>
       <c r="B60">
-        <v>24113</v>
+        <v>24213</v>
       </c>
       <c r="C60">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D60">
         <v>1042</v>
@@ -12411,13 +12444,13 @@
         <v>65</v>
       </c>
       <c r="B61">
-        <v>30909</v>
+        <v>31021</v>
       </c>
       <c r="C61">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D61">
-        <v>1436</v>
+        <v>1492</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -12431,13 +12464,13 @@
         <v>66</v>
       </c>
       <c r="B62">
-        <v>40067</v>
+        <v>40191</v>
       </c>
       <c r="C62">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D62">
-        <v>2155</v>
+        <v>2173</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -12451,13 +12484,13 @@
         <v>67</v>
       </c>
       <c r="B63">
-        <v>51476</v>
+        <v>51623</v>
       </c>
       <c r="C63">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D63">
-        <v>2770</v>
+        <v>2812</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -12471,13 +12504,13 @@
         <v>68</v>
       </c>
       <c r="B64">
-        <v>62170</v>
+        <v>62379</v>
       </c>
       <c r="C64">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="D64">
-        <v>3902</v>
+        <v>3938</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -12491,13 +12524,13 @@
         <v>69</v>
       </c>
       <c r="B65">
-        <v>75092</v>
+        <v>75278</v>
       </c>
       <c r="C65">
-        <v>1050</v>
+        <v>1058</v>
       </c>
       <c r="D65">
-        <v>5062</v>
+        <v>5140</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -12511,13 +12544,13 @@
         <v>70</v>
       </c>
       <c r="B66">
-        <v>92633</v>
+        <v>93001</v>
       </c>
       <c r="C66">
-        <v>1369</v>
+        <v>1374</v>
       </c>
       <c r="D66">
-        <v>7757</v>
+        <v>7805</v>
       </c>
       <c r="E66">
         <v>1299</v>
@@ -12531,13 +12564,13 @@
         <v>71</v>
       </c>
       <c r="B67">
-        <v>111887</v>
+        <v>112246</v>
       </c>
       <c r="C67">
-        <v>1775</v>
+        <v>1782</v>
       </c>
       <c r="D67">
-        <v>10932</v>
+        <v>10978</v>
       </c>
       <c r="E67">
         <v>1792</v>
@@ -12551,13 +12584,13 @@
         <v>72</v>
       </c>
       <c r="B68">
-        <v>131474</v>
+        <v>131847</v>
       </c>
       <c r="C68">
-        <v>2319</v>
+        <v>2333</v>
       </c>
       <c r="D68">
-        <v>12382</v>
+        <v>12409</v>
       </c>
       <c r="E68">
         <v>2174</v>
@@ -12571,13 +12604,13 @@
         <v>73</v>
       </c>
       <c r="B69">
-        <v>151046</v>
+        <v>151292</v>
       </c>
       <c r="C69">
-        <v>2834</v>
+        <v>2837</v>
       </c>
       <c r="D69">
-        <v>14026</v>
+        <v>14055</v>
       </c>
       <c r="E69">
         <v>2456</v>
@@ -12591,13 +12624,13 @@
         <v>74</v>
       </c>
       <c r="B70">
-        <v>172733</v>
+        <v>172777</v>
       </c>
       <c r="C70">
-        <v>3423</v>
+        <v>3425</v>
       </c>
       <c r="D70">
-        <v>15772</v>
+        <v>15917</v>
       </c>
       <c r="E70">
         <v>3087</v>
@@ -12611,13 +12644,13 @@
         <v>75</v>
       </c>
       <c r="B71">
-        <v>197578</v>
+        <v>197951</v>
       </c>
       <c r="C71">
-        <v>4313</v>
+        <v>4332</v>
       </c>
       <c r="D71">
-        <v>18082</v>
+        <v>18155</v>
       </c>
       <c r="E71">
         <v>3487</v>
@@ -12631,13 +12664,13 @@
         <v>76</v>
       </c>
       <c r="B72">
-        <v>223655</v>
+        <v>224079</v>
       </c>
       <c r="C72">
-        <v>5324</v>
+        <v>5336</v>
       </c>
       <c r="D72">
-        <v>20775</v>
+        <v>20906</v>
       </c>
       <c r="E72">
         <v>3937</v>
@@ -12651,13 +12684,13 @@
         <v>77</v>
       </c>
       <c r="B73">
-        <v>251690</v>
+        <v>252116</v>
       </c>
       <c r="C73">
-        <v>6496</v>
+        <v>6514</v>
       </c>
       <c r="D73">
-        <v>22956</v>
+        <v>22997</v>
       </c>
       <c r="E73">
         <v>4513</v>
@@ -12671,19 +12704,19 @@
         <v>78</v>
       </c>
       <c r="B74">
-        <v>283456</v>
+        <v>283993</v>
       </c>
       <c r="C74">
-        <v>7782</v>
+        <v>7799</v>
       </c>
       <c r="D74">
-        <v>25729</v>
+        <v>25777</v>
       </c>
       <c r="E74">
         <v>4928</v>
       </c>
       <c r="F74">
-        <v>605</v>
+        <v>623</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -12691,13 +12724,13 @@
         <v>79</v>
       </c>
       <c r="B75">
-        <v>316420</v>
+        <v>316860</v>
       </c>
       <c r="C75">
-        <v>9264</v>
+        <v>9280</v>
       </c>
       <c r="D75">
-        <v>30266</v>
+        <v>30268</v>
       </c>
       <c r="E75">
         <v>5500</v>
@@ -12711,13 +12744,13 @@
         <v>80</v>
       </c>
       <c r="B76">
-        <v>342028</v>
+        <v>342494</v>
       </c>
       <c r="C76">
-        <v>10604</v>
+        <v>10619</v>
       </c>
       <c r="D76">
-        <v>32169</v>
+        <v>32180</v>
       </c>
       <c r="E76">
         <v>5811</v>
@@ -12731,13 +12764,13 @@
         <v>81</v>
       </c>
       <c r="B77">
-        <v>370620</v>
+        <v>370904</v>
       </c>
       <c r="C77">
-        <v>11922</v>
+        <v>11932</v>
       </c>
       <c r="D77">
-        <v>36156</v>
+        <v>36159</v>
       </c>
       <c r="E77">
         <v>7079</v>
@@ -12751,13 +12784,13 @@
         <v>82</v>
       </c>
       <c r="B78">
-        <v>401241</v>
+        <v>401606</v>
       </c>
       <c r="C78">
-        <v>13946</v>
+        <v>13976</v>
       </c>
       <c r="D78">
-        <v>43799</v>
+        <v>43849</v>
       </c>
       <c r="E78">
         <v>9978</v>
@@ -12771,13 +12804,13 @@
         <v>83</v>
       </c>
       <c r="B79">
-        <v>432216</v>
+        <v>432513</v>
       </c>
       <c r="C79">
-        <v>15956</v>
+        <v>15973</v>
       </c>
       <c r="D79">
-        <v>45492</v>
+        <v>45515</v>
       </c>
       <c r="E79">
         <v>10337</v>
@@ -12791,13 +12824,13 @@
         <v>84</v>
       </c>
       <c r="B80">
-        <v>466856</v>
+        <v>467629</v>
       </c>
       <c r="C80">
-        <v>17999</v>
+        <v>18035</v>
       </c>
       <c r="D80">
-        <v>51305</v>
+        <v>51313</v>
       </c>
       <c r="E80">
         <v>12450</v>
@@ -12817,7 +12850,7 @@
         <v>20107</v>
       </c>
       <c r="D81">
-        <v>53166</v>
+        <v>53167</v>
       </c>
       <c r="E81">
         <v>12693</v>
@@ -12831,13 +12864,13 @@
         <v>86</v>
       </c>
       <c r="B82">
-        <v>531728</v>
+        <v>532194</v>
       </c>
       <c r="C82">
-        <v>22161</v>
+        <v>22186</v>
       </c>
       <c r="D82">
-        <v>55573</v>
+        <v>55557</v>
       </c>
       <c r="E82">
         <v>13285</v>
@@ -12851,19 +12884,19 @@
         <v>87</v>
       </c>
       <c r="B83">
-        <v>559715</v>
+        <v>560196</v>
       </c>
       <c r="C83">
-        <v>23864</v>
+        <v>23886</v>
       </c>
       <c r="D83">
-        <v>55427</v>
+        <v>55449</v>
       </c>
       <c r="E83">
         <v>13620</v>
       </c>
       <c r="F83">
-        <v>5986</v>
+        <v>5968</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -12871,13 +12904,13 @@
         <v>88</v>
       </c>
       <c r="B84">
-        <v>584473</v>
+        <v>584580</v>
       </c>
       <c r="C84">
-        <v>25507</v>
+        <v>25516</v>
       </c>
       <c r="D84">
-        <v>56184</v>
+        <v>56237</v>
       </c>
       <c r="E84">
         <v>13620</v>
@@ -12891,13 +12924,13 @@
         <v>89</v>
       </c>
       <c r="B85">
-        <v>610348</v>
+        <v>610660</v>
       </c>
       <c r="C85">
-        <v>27843</v>
+        <v>27869</v>
       </c>
       <c r="D85">
-        <v>59610</v>
+        <v>59600</v>
       </c>
       <c r="E85">
         <v>14039</v>
@@ -12911,13 +12944,13 @@
         <v>90</v>
       </c>
       <c r="B86">
-        <v>640103</v>
+        <v>640519</v>
       </c>
       <c r="C86">
-        <v>30387</v>
+        <v>30415</v>
       </c>
       <c r="D86">
-        <v>59940</v>
+        <v>59924</v>
       </c>
       <c r="E86">
         <v>14646</v>
@@ -12931,13 +12964,13 @@
         <v>91</v>
       </c>
       <c r="B87">
-        <v>671592</v>
+        <v>672100</v>
       </c>
       <c r="C87">
-        <v>32587</v>
+        <v>32612</v>
       </c>
       <c r="D87">
-        <v>59499</v>
+        <v>59498</v>
       </c>
       <c r="E87">
         <v>15130</v>
@@ -12951,13 +12984,13 @@
         <v>92</v>
       </c>
       <c r="B88">
-        <v>703593</v>
+        <v>704079</v>
       </c>
       <c r="C88">
-        <v>34706</v>
+        <v>34730</v>
       </c>
       <c r="D88">
-        <v>58895</v>
+        <v>58886</v>
       </c>
       <c r="E88">
         <v>14890</v>
@@ -12971,13 +13004,13 @@
         <v>93</v>
       </c>
       <c r="B89">
-        <v>731433</v>
+        <v>731906</v>
       </c>
       <c r="C89">
-        <v>36599</v>
+        <v>36621</v>
       </c>
       <c r="D89">
-        <v>57761</v>
+        <v>57788</v>
       </c>
       <c r="E89">
         <v>14769</v>
@@ -12991,13 +13024,13 @@
         <v>94</v>
       </c>
       <c r="B90">
-        <v>758834</v>
+        <v>759178</v>
       </c>
       <c r="C90">
-        <v>38371</v>
+        <v>38384</v>
       </c>
       <c r="D90">
-        <v>56486</v>
+        <v>56497</v>
       </c>
       <c r="E90">
         <v>14385</v>
@@ -13011,10 +13044,10 @@
         <v>95</v>
       </c>
       <c r="B91">
-        <v>784780</v>
+        <v>785282</v>
       </c>
       <c r="C91">
-        <v>40169</v>
+        <v>40199</v>
       </c>
       <c r="D91">
         <v>56734</v>
@@ -13031,13 +13064,13 @@
         <v>96</v>
       </c>
       <c r="B92">
-        <v>811058</v>
+        <v>811500</v>
       </c>
       <c r="C92">
-        <v>42636</v>
+        <v>42680</v>
       </c>
       <c r="D92">
-        <v>59780</v>
+        <v>59773</v>
       </c>
       <c r="E92">
         <v>14941</v>
@@ -13051,13 +13084,13 @@
         <v>97</v>
       </c>
       <c r="B93">
-        <v>840062</v>
+        <v>840631</v>
       </c>
       <c r="C93">
-        <v>44734</v>
+        <v>44762</v>
       </c>
       <c r="D93">
-        <v>59202</v>
+        <v>59212</v>
       </c>
       <c r="E93">
         <v>15013</v>
@@ -13071,13 +13104,13 @@
         <v>98</v>
       </c>
       <c r="B94">
-        <v>872048</v>
+        <v>872601</v>
       </c>
       <c r="C94">
-        <v>46525</v>
+        <v>46576</v>
       </c>
       <c r="D94">
-        <v>58989</v>
+        <v>59216</v>
       </c>
       <c r="E94">
         <v>14744</v>
@@ -13091,13 +13124,13 @@
         <v>99</v>
       </c>
       <c r="B95">
-        <v>905746</v>
+        <v>906881</v>
       </c>
       <c r="C95">
-        <v>48420</v>
+        <v>48548</v>
       </c>
       <c r="D95">
-        <v>57295</v>
+        <v>57324</v>
       </c>
       <c r="E95">
         <v>14605</v>
@@ -13111,13 +13144,13 @@
         <v>100</v>
       </c>
       <c r="B96">
-        <v>941680</v>
+        <v>942532</v>
       </c>
       <c r="C96">
-        <v>50168</v>
+        <v>50175</v>
       </c>
       <c r="D96">
-        <v>57381</v>
+        <v>57343</v>
       </c>
       <c r="E96">
         <v>14415</v>
@@ -13131,13 +13164,13 @@
         <v>101</v>
       </c>
       <c r="B97">
-        <v>969045</v>
+        <v>969584</v>
       </c>
       <c r="C97">
-        <v>51383</v>
+        <v>51397</v>
       </c>
       <c r="D97">
-        <v>56192</v>
+        <v>56149</v>
       </c>
       <c r="E97">
         <v>14104</v>
@@ -13151,13 +13184,13 @@
         <v>102</v>
       </c>
       <c r="B98">
-        <v>991648</v>
+        <v>992183</v>
       </c>
       <c r="C98">
-        <v>52653</v>
+        <v>52684</v>
       </c>
       <c r="D98">
-        <v>56189</v>
+        <v>56183</v>
       </c>
       <c r="E98">
         <v>13812</v>
@@ -13171,13 +13204,13 @@
         <v>103</v>
       </c>
       <c r="B99">
-        <v>1016960</v>
+        <v>1017548</v>
       </c>
       <c r="C99">
-        <v>54725</v>
+        <v>54761</v>
       </c>
       <c r="D99">
-        <v>56062</v>
+        <v>56034</v>
       </c>
       <c r="E99">
         <v>13562</v>
@@ -13191,13 +13224,13 @@
         <v>104</v>
       </c>
       <c r="B100">
-        <v>1043097</v>
+        <v>1043778</v>
       </c>
       <c r="C100">
-        <v>57438</v>
+        <v>57446</v>
       </c>
       <c r="D100">
-        <v>55979</v>
+        <v>55987</v>
       </c>
       <c r="E100">
         <v>13535</v>
@@ -13211,13 +13244,13 @@
         <v>105</v>
       </c>
       <c r="B101">
-        <v>1073034</v>
+        <v>1073758</v>
       </c>
       <c r="C101">
-        <v>59577</v>
+        <v>59599</v>
       </c>
       <c r="D101">
-        <v>54919</v>
+        <v>54921</v>
       </c>
       <c r="E101">
         <v>13255</v>
@@ -13231,13 +13264,13 @@
         <v>106</v>
       </c>
       <c r="B102">
-        <v>1105967</v>
+        <v>1106553</v>
       </c>
       <c r="C102">
-        <v>61356</v>
+        <v>61407</v>
       </c>
       <c r="D102">
-        <v>54903</v>
+        <v>54862</v>
       </c>
       <c r="E102">
         <v>12845</v>
@@ -13251,13 +13284,13 @@
         <v>107</v>
       </c>
       <c r="B103">
-        <v>1134916</v>
+        <v>1135592</v>
       </c>
       <c r="C103">
-        <v>62918</v>
+        <v>62938</v>
       </c>
       <c r="D103">
-        <v>54048</v>
+        <v>54009</v>
       </c>
       <c r="E103">
         <v>12905</v>
@@ -13271,13 +13304,13 @@
         <v>108</v>
       </c>
       <c r="B104">
-        <v>1160598</v>
+        <v>1161126</v>
       </c>
       <c r="C104">
-        <v>64150</v>
+        <v>64172</v>
       </c>
       <c r="D104">
-        <v>52623</v>
+        <v>52619</v>
       </c>
       <c r="E104">
         <v>12720</v>
@@ -13291,13 +13324,13 @@
         <v>109</v>
       </c>
       <c r="B105">
-        <v>1183174</v>
+        <v>1183627</v>
       </c>
       <c r="C105">
-        <v>65185</v>
+        <v>65199</v>
       </c>
       <c r="D105">
-        <v>52409</v>
+        <v>52377</v>
       </c>
       <c r="E105">
         <v>12696</v>
@@ -13311,13 +13344,13 @@
         <v>110</v>
       </c>
       <c r="B106">
-        <v>1205573</v>
+        <v>1206137</v>
       </c>
       <c r="C106">
-        <v>67637</v>
+        <v>67695</v>
       </c>
       <c r="D106">
-        <v>53221</v>
+        <v>53176</v>
       </c>
       <c r="E106">
         <v>12628</v>
@@ -13331,13 +13364,13 @@
         <v>111</v>
       </c>
       <c r="B107">
-        <v>1230663</v>
+        <v>1231282</v>
       </c>
       <c r="C107">
-        <v>69585</v>
+        <v>69610</v>
       </c>
       <c r="D107">
-        <v>52560</v>
+        <v>52581</v>
       </c>
       <c r="E107">
         <v>12478</v>
@@ -13351,13 +13384,13 @@
         <v>112</v>
       </c>
       <c r="B108">
-        <v>1257943</v>
+        <v>1258686</v>
       </c>
       <c r="C108">
-        <v>72337</v>
+        <v>72363</v>
       </c>
       <c r="D108">
-        <v>51398</v>
+        <v>51425</v>
       </c>
       <c r="E108">
         <v>12136</v>
@@ -13371,13 +13404,13 @@
         <v>113</v>
       </c>
       <c r="B109">
-        <v>1285029</v>
+        <v>1285665</v>
       </c>
       <c r="C109">
-        <v>74135</v>
+        <v>74143</v>
       </c>
       <c r="D109">
-        <v>49785</v>
+        <v>49758</v>
       </c>
       <c r="E109">
         <v>11780</v>
@@ -13391,13 +13424,13 @@
         <v>114</v>
       </c>
       <c r="B110">
-        <v>1310198</v>
+        <v>1310851</v>
       </c>
       <c r="C110">
-        <v>75580</v>
+        <v>75597</v>
       </c>
       <c r="D110">
-        <v>48564</v>
+        <v>48561</v>
       </c>
       <c r="E110">
         <v>11496</v>
@@ -13411,13 +13444,13 @@
         <v>115</v>
       </c>
       <c r="B111">
-        <v>1331320</v>
+        <v>1331733</v>
       </c>
       <c r="C111">
-        <v>76616</v>
+        <v>76629</v>
       </c>
       <c r="D111">
-        <v>46981</v>
+        <v>46760</v>
       </c>
       <c r="E111">
         <v>11393</v>
@@ -13431,13 +13464,13 @@
         <v>116</v>
       </c>
       <c r="B112">
-        <v>1349650</v>
+        <v>1350032</v>
       </c>
       <c r="C112">
-        <v>77508</v>
+        <v>77522</v>
       </c>
       <c r="D112">
-        <v>46372</v>
+        <v>46550</v>
       </c>
       <c r="E112">
         <v>11148</v>
@@ -13451,13 +13484,13 @@
         <v>117</v>
       </c>
       <c r="B113">
-        <v>1372170</v>
+        <v>1372591</v>
       </c>
       <c r="C113">
-        <v>78994</v>
+        <v>79027</v>
       </c>
       <c r="D113">
-        <v>47402</v>
+        <v>47344</v>
       </c>
       <c r="E113">
         <v>11240</v>
@@ -13471,13 +13504,13 @@
         <v>118</v>
       </c>
       <c r="B114">
-        <v>1393748</v>
+        <v>1394218</v>
       </c>
       <c r="C114">
-        <v>80698</v>
+        <v>80763</v>
       </c>
       <c r="D114">
-        <v>46742</v>
+        <v>46740</v>
       </c>
       <c r="E114">
         <v>10990</v>
@@ -13491,13 +13524,13 @@
         <v>119</v>
       </c>
       <c r="B115">
-        <v>1420429</v>
+        <v>1420931</v>
       </c>
       <c r="C115">
-        <v>82577</v>
+        <v>82617</v>
       </c>
       <c r="D115">
-        <v>45635</v>
+        <v>45644</v>
       </c>
       <c r="E115">
         <v>10655</v>
@@ -13511,10 +13544,10 @@
         <v>120</v>
       </c>
       <c r="B116">
-        <v>1445800</v>
+        <v>1446353</v>
       </c>
       <c r="C116">
-        <v>84084</v>
+        <v>83882</v>
       </c>
       <c r="D116">
         <v>44299</v>
@@ -13531,13 +13564,13 @@
         <v>121</v>
       </c>
       <c r="B117">
-        <v>1469360</v>
+        <v>1469946</v>
       </c>
       <c r="C117">
-        <v>85071</v>
+        <v>85077</v>
       </c>
       <c r="D117">
-        <v>43211</v>
+        <v>43175</v>
       </c>
       <c r="E117">
         <v>10278</v>
@@ -13551,13 +13584,13 @@
         <v>122</v>
       </c>
       <c r="B118">
-        <v>1489704</v>
+        <v>1490090</v>
       </c>
       <c r="C118">
-        <v>85920</v>
+        <v>85926</v>
       </c>
       <c r="D118">
-        <v>41606</v>
+        <v>41609</v>
       </c>
       <c r="E118">
         <v>9934</v>
@@ -13571,13 +13604,13 @@
         <v>123</v>
       </c>
       <c r="B119">
-        <v>1510516</v>
+        <v>1510938</v>
       </c>
       <c r="C119">
-        <v>86768</v>
+        <v>86816</v>
       </c>
       <c r="D119">
-        <v>41553</v>
+        <v>41531</v>
       </c>
       <c r="E119">
         <v>9754</v>
@@ -13591,13 +13624,13 @@
         <v>124</v>
       </c>
       <c r="B120">
-        <v>1531440</v>
+        <v>1531816</v>
       </c>
       <c r="C120">
-        <v>88094</v>
+        <v>88147</v>
       </c>
       <c r="D120">
-        <v>41661</v>
+        <v>41652</v>
       </c>
       <c r="E120">
         <v>9598</v>
@@ -13611,13 +13644,13 @@
         <v>125</v>
       </c>
       <c r="B121">
-        <v>1552634</v>
+        <v>1553074</v>
       </c>
       <c r="C121">
-        <v>89493</v>
+        <v>89533</v>
       </c>
       <c r="D121">
-        <v>41546</v>
+        <v>41535</v>
       </c>
       <c r="E121">
         <v>9521</v>
@@ -13631,13 +13664,13 @@
         <v>126</v>
       </c>
       <c r="B122">
-        <v>1579268</v>
+        <v>1579817</v>
       </c>
       <c r="C122">
-        <v>90887</v>
+        <v>90959</v>
       </c>
       <c r="D122">
-        <v>41065</v>
+        <v>41071</v>
       </c>
       <c r="E122">
         <v>9090</v>
@@ -13651,13 +13684,13 @@
         <v>127</v>
       </c>
       <c r="B123">
-        <v>1603541</v>
+        <v>1603990</v>
       </c>
       <c r="C123">
-        <v>92228</v>
+        <v>92262</v>
       </c>
       <c r="D123">
-        <v>39822</v>
+        <v>39774</v>
       </c>
       <c r="E123">
         <v>9049</v>
@@ -13671,13 +13704,13 @@
         <v>128</v>
       </c>
       <c r="B124">
-        <v>1625708</v>
+        <v>1626355</v>
       </c>
       <c r="C124">
-        <v>93291</v>
+        <v>93297</v>
       </c>
       <c r="D124">
-        <v>38391</v>
+        <v>38360</v>
       </c>
       <c r="E124">
         <v>8733</v>
@@ -13691,13 +13724,13 @@
         <v>129</v>
       </c>
       <c r="B125">
-        <v>1644856</v>
+        <v>1645214</v>
       </c>
       <c r="C125">
-        <v>93971</v>
+        <v>93980</v>
       </c>
       <c r="D125">
-        <v>37483</v>
+        <v>37510</v>
       </c>
       <c r="E125">
         <v>8485</v>
@@ -13711,13 +13744,13 @@
         <v>130</v>
       </c>
       <c r="B126">
-        <v>1663567</v>
+        <v>1663745</v>
       </c>
       <c r="C126">
-        <v>94530</v>
+        <v>94533</v>
       </c>
       <c r="D126">
-        <v>37432</v>
+        <v>37382</v>
       </c>
       <c r="E126">
         <v>8467</v>
@@ -13731,13 +13764,13 @@
         <v>131</v>
       </c>
       <c r="B127">
-        <v>1680323</v>
+        <v>1680723</v>
       </c>
       <c r="C127">
-        <v>95175</v>
+        <v>95206</v>
       </c>
       <c r="D127">
-        <v>37561</v>
+        <v>37533</v>
       </c>
       <c r="E127">
         <v>8585</v>
@@ -13751,13 +13784,13 @@
         <v>132</v>
       </c>
       <c r="B128">
-        <v>1699812</v>
+        <v>1700136</v>
       </c>
       <c r="C128">
-        <v>96496</v>
+        <v>96521</v>
       </c>
       <c r="D128">
-        <v>38038</v>
+        <v>38017</v>
       </c>
       <c r="E128">
         <v>8547</v>
@@ -13771,13 +13804,13 @@
         <v>133</v>
       </c>
       <c r="B129">
-        <v>1722328</v>
+        <v>1722794</v>
       </c>
       <c r="C129">
-        <v>97727</v>
+        <v>97766</v>
       </c>
       <c r="D129">
-        <v>37818</v>
+        <v>37804</v>
       </c>
       <c r="E129">
         <v>8389</v>
@@ -13791,13 +13824,13 @@
         <v>134</v>
       </c>
       <c r="B130">
-        <v>1745761</v>
+        <v>1746382</v>
       </c>
       <c r="C130">
-        <v>98911</v>
+        <v>98933</v>
       </c>
       <c r="D130">
-        <v>36764</v>
+        <v>36718</v>
       </c>
       <c r="E130">
         <v>8174</v>
@@ -13811,13 +13844,13 @@
         <v>135</v>
       </c>
       <c r="B131">
-        <v>1769203</v>
+        <v>1769819</v>
       </c>
       <c r="C131">
-        <v>99843</v>
+        <v>99850</v>
       </c>
       <c r="D131">
-        <v>35524</v>
+        <v>35513</v>
       </c>
       <c r="E131">
         <v>7956</v>
@@ -13831,13 +13864,13 @@
         <v>136</v>
       </c>
       <c r="B132">
-        <v>1790866</v>
+        <v>1791211</v>
       </c>
       <c r="C132">
-        <v>100495</v>
+        <v>100500</v>
       </c>
       <c r="D132">
-        <v>34648</v>
+        <v>34641</v>
       </c>
       <c r="E132">
         <v>7626</v>
@@ -13851,13 +13884,13 @@
         <v>137</v>
       </c>
       <c r="B133">
-        <v>1811261</v>
+        <v>1811571</v>
       </c>
       <c r="C133">
-        <v>101163</v>
+        <v>101173</v>
       </c>
       <c r="D133">
-        <v>34075</v>
+        <v>34064</v>
       </c>
       <c r="E133">
         <v>7591</v>
@@ -13871,13 +13904,13 @@
         <v>138</v>
       </c>
       <c r="B134">
-        <v>1831294</v>
+        <v>1831729</v>
       </c>
       <c r="C134">
-        <v>102125</v>
+        <v>102173</v>
       </c>
       <c r="D134">
-        <v>33724</v>
+        <v>33709</v>
       </c>
       <c r="E134">
         <v>7407</v>
@@ -13891,13 +13924,13 @@
         <v>139</v>
       </c>
       <c r="B135">
-        <v>1851496</v>
+        <v>1851884</v>
       </c>
       <c r="C135">
-        <v>103118</v>
+        <v>103152</v>
       </c>
       <c r="D135">
-        <v>33070</v>
+        <v>33026</v>
       </c>
       <c r="E135">
         <v>7227</v>
@@ -13911,13 +13944,13 @@
         <v>140</v>
       </c>
       <c r="B136">
-        <v>1871754</v>
+        <v>1872267</v>
       </c>
       <c r="C136">
-        <v>104011</v>
+        <v>104020</v>
       </c>
       <c r="D136">
-        <v>32639</v>
+        <v>32602</v>
       </c>
       <c r="E136">
         <v>7057</v>
@@ -13931,13 +13964,13 @@
         <v>141</v>
       </c>
       <c r="B137">
-        <v>1894758</v>
+        <v>1895332</v>
       </c>
       <c r="C137">
-        <v>104837</v>
+        <v>104860</v>
       </c>
       <c r="D137">
-        <v>32280</v>
+        <v>32265</v>
       </c>
       <c r="E137">
         <v>6920</v>
@@ -13951,13 +13984,13 @@
         <v>142</v>
       </c>
       <c r="B138">
-        <v>1917531</v>
+        <v>1917892</v>
       </c>
       <c r="C138">
-        <v>105565</v>
+        <v>105570</v>
       </c>
       <c r="D138">
-        <v>31761</v>
+        <v>31762</v>
       </c>
       <c r="E138">
         <v>6762</v>
@@ -13971,13 +14004,13 @@
         <v>143</v>
       </c>
       <c r="B139">
-        <v>1936417</v>
+        <v>1936710</v>
       </c>
       <c r="C139">
-        <v>106012</v>
+        <v>106016</v>
       </c>
       <c r="D139">
-        <v>31225</v>
+        <v>31249</v>
       </c>
       <c r="E139">
         <v>6501</v>
@@ -13991,13 +14024,13 @@
         <v>144</v>
       </c>
       <c r="B140">
-        <v>1953636</v>
+        <v>1953940</v>
       </c>
       <c r="C140">
-        <v>106673</v>
+        <v>106695</v>
       </c>
       <c r="D140">
-        <v>30996</v>
+        <v>30984</v>
       </c>
       <c r="E140">
         <v>6402</v>
@@ -14011,13 +14044,13 @@
         <v>145</v>
       </c>
       <c r="B141">
-        <v>1970885</v>
+        <v>1971092</v>
       </c>
       <c r="C141">
-        <v>107575</v>
+        <v>107599</v>
       </c>
       <c r="D141">
-        <v>31009</v>
+        <v>31020</v>
       </c>
       <c r="E141">
         <v>6457</v>
@@ -14031,13 +14064,13 @@
         <v>146</v>
       </c>
       <c r="B142">
-        <v>1991522</v>
+        <v>1991819</v>
       </c>
       <c r="C142">
-        <v>108462</v>
+        <v>108484</v>
       </c>
       <c r="D142">
-        <v>30864</v>
+        <v>30840</v>
       </c>
       <c r="E142">
         <v>6249</v>
@@ -14051,13 +14084,13 @@
         <v>147</v>
       </c>
       <c r="B143">
-        <v>2013624</v>
+        <v>2013889</v>
       </c>
       <c r="C143">
-        <v>109361</v>
+        <v>109382</v>
       </c>
       <c r="D143">
-        <v>29698</v>
+        <v>29686</v>
       </c>
       <c r="E143">
         <v>6074</v>
@@ -14071,13 +14104,13 @@
         <v>148</v>
       </c>
       <c r="B144">
-        <v>2036809</v>
+        <v>2036984</v>
       </c>
       <c r="C144">
-        <v>110136</v>
+        <v>110145</v>
       </c>
       <c r="D144">
-        <v>29154</v>
+        <v>29149</v>
       </c>
       <c r="E144">
         <v>6017</v>
@@ -14091,13 +14124,13 @@
         <v>149</v>
       </c>
       <c r="B145">
-        <v>2061940</v>
+        <v>2062230</v>
       </c>
       <c r="C145">
-        <v>110830</v>
+        <v>110835</v>
       </c>
       <c r="D145">
-        <v>28450</v>
+        <v>28431</v>
       </c>
       <c r="E145">
         <v>5883</v>
@@ -14111,13 +14144,13 @@
         <v>150</v>
       </c>
       <c r="B146">
-        <v>2083348</v>
+        <v>2083563</v>
       </c>
       <c r="C146">
-        <v>111186</v>
+        <v>111190</v>
       </c>
       <c r="D146">
-        <v>27895</v>
+        <v>27899</v>
       </c>
       <c r="E146">
         <v>5749</v>
@@ -14131,13 +14164,13 @@
         <v>151</v>
       </c>
       <c r="B147">
-        <v>2101926</v>
+        <v>2102217</v>
       </c>
       <c r="C147">
-        <v>111567</v>
+        <v>111597</v>
       </c>
       <c r="D147">
-        <v>27867</v>
+        <v>27866</v>
       </c>
       <c r="E147">
         <v>5703</v>
@@ -14151,13 +14184,13 @@
         <v>152</v>
       </c>
       <c r="B148">
-        <v>2125254</v>
+        <v>2125485</v>
       </c>
       <c r="C148">
-        <v>112297</v>
+        <v>112304</v>
       </c>
       <c r="D148">
-        <v>28270</v>
+        <v>28279</v>
       </c>
       <c r="E148">
         <v>5570</v>
@@ -14171,13 +14204,13 @@
         <v>153</v>
       </c>
       <c r="B149">
-        <v>2149027</v>
+        <v>2149390</v>
       </c>
       <c r="C149">
-        <v>113064</v>
+        <v>113098</v>
       </c>
       <c r="D149">
-        <v>28576</v>
+        <v>28561</v>
       </c>
       <c r="E149">
         <v>5612</v>
@@ -14191,13 +14224,13 @@
         <v>154</v>
       </c>
       <c r="B150">
-        <v>2176162</v>
+        <v>2176478</v>
       </c>
       <c r="C150">
-        <v>113769</v>
+        <v>113788</v>
       </c>
       <c r="D150">
-        <v>28415</v>
+        <v>28411</v>
       </c>
       <c r="E150">
         <v>5464</v>
@@ -14211,13 +14244,13 @@
         <v>155</v>
       </c>
       <c r="B151">
-        <v>2207045</v>
+        <v>2207438</v>
       </c>
       <c r="C151">
-        <v>114424</v>
+        <v>114444</v>
       </c>
       <c r="D151">
-        <v>28616</v>
+        <v>28586</v>
       </c>
       <c r="E151">
         <v>5341</v>
@@ -14231,13 +14264,13 @@
         <v>156</v>
       </c>
       <c r="B152">
-        <v>2239056</v>
+        <v>2239388</v>
       </c>
       <c r="C152">
-        <v>115053</v>
+        <v>115055</v>
       </c>
       <c r="D152">
-        <v>27967</v>
+        <v>27970</v>
       </c>
       <c r="E152">
         <v>5229</v>
@@ -14251,13 +14284,13 @@
         <v>157</v>
       </c>
       <c r="B153">
-        <v>2268046</v>
+        <v>2268236</v>
       </c>
       <c r="C153">
         <v>115347</v>
       </c>
       <c r="D153">
-        <v>28220</v>
+        <v>28221</v>
       </c>
       <c r="E153">
         <v>5195</v>
@@ -14271,13 +14304,13 @@
         <v>158</v>
       </c>
       <c r="B154">
-        <v>2295120</v>
+        <v>2295415</v>
       </c>
       <c r="C154">
-        <v>115633</v>
+        <v>115642</v>
       </c>
       <c r="D154">
-        <v>28799</v>
+        <v>28797</v>
       </c>
       <c r="E154">
         <v>5323</v>
@@ -14291,13 +14324,13 @@
         <v>159</v>
       </c>
       <c r="B155">
-        <v>2328967</v>
+        <v>2329299</v>
       </c>
       <c r="C155">
-        <v>116343</v>
+        <v>116367</v>
       </c>
       <c r="D155">
-        <v>30235</v>
+        <v>30226</v>
       </c>
       <c r="E155">
         <v>5402</v>
@@ -14311,13 +14344,13 @@
         <v>160</v>
       </c>
       <c r="B156">
-        <v>2367894</v>
+        <v>2368308</v>
       </c>
       <c r="C156">
-        <v>117067</v>
+        <v>117073</v>
       </c>
       <c r="D156">
-        <v>31102</v>
+        <v>31119</v>
       </c>
       <c r="E156">
         <v>5293</v>
@@ -14331,13 +14364,13 @@
         <v>161</v>
       </c>
       <c r="B157">
-        <v>2407463</v>
+        <v>2407989</v>
       </c>
       <c r="C157">
-        <v>117714</v>
+        <v>117737</v>
       </c>
       <c r="D157">
-        <v>31842</v>
+        <v>31828</v>
       </c>
       <c r="E157">
         <v>5320</v>
@@ -14351,13 +14384,13 @@
         <v>162</v>
       </c>
       <c r="B158">
-        <v>2451835</v>
+        <v>2452368</v>
       </c>
       <c r="C158">
-        <v>118351</v>
+        <v>118362</v>
       </c>
       <c r="D158">
-        <v>31738</v>
+        <v>31710</v>
       </c>
       <c r="E158">
         <v>5283</v>
@@ -14371,13 +14404,13 @@
         <v>163</v>
       </c>
       <c r="B159">
-        <v>2494824</v>
+        <v>2495261</v>
       </c>
       <c r="C159">
-        <v>118862</v>
+        <v>118864</v>
       </c>
       <c r="D159">
-        <v>32482</v>
+        <v>32485</v>
       </c>
       <c r="E159">
         <v>5314</v>
@@ -14391,13 +14424,13 @@
         <v>164</v>
       </c>
       <c r="B160">
-        <v>2536117</v>
+        <v>2536592</v>
       </c>
       <c r="C160">
-        <v>119133</v>
+        <v>119134</v>
       </c>
       <c r="D160">
-        <v>32488</v>
+        <v>32479</v>
       </c>
       <c r="E160">
         <v>5252</v>
@@ -14411,13 +14444,13 @@
         <v>165</v>
       </c>
       <c r="B161">
-        <v>2575980</v>
+        <v>2576357</v>
       </c>
       <c r="C161">
-        <v>119465</v>
+        <v>119492</v>
       </c>
       <c r="D161">
-        <v>33585</v>
+        <v>33627</v>
       </c>
       <c r="E161">
         <v>5380</v>
@@ -14431,13 +14464,13 @@
         <v>166</v>
       </c>
       <c r="B162">
-        <v>2623618</v>
+        <v>2623987</v>
       </c>
       <c r="C162">
-        <v>120061</v>
+        <v>120077</v>
       </c>
       <c r="D162">
-        <v>35248</v>
+        <v>35222</v>
       </c>
       <c r="E162">
         <v>5424</v>
@@ -14451,13 +14484,13 @@
         <v>167</v>
       </c>
       <c r="B163">
-        <v>2674545</v>
+        <v>2674988</v>
       </c>
       <c r="C163">
-        <v>120762</v>
+        <v>120765</v>
       </c>
       <c r="D163">
-        <v>36405</v>
+        <v>36430</v>
       </c>
       <c r="E163">
         <v>5512</v>
@@ -14471,13 +14504,13 @@
         <v>168</v>
       </c>
       <c r="B164">
-        <v>2727929</v>
+        <v>2728496</v>
       </c>
       <c r="C164">
-        <v>121457</v>
+        <v>121461</v>
       </c>
       <c r="D164">
-        <v>37500</v>
+        <v>37508</v>
       </c>
       <c r="E164">
         <v>5626</v>
@@ -14491,13 +14524,13 @@
         <v>169</v>
       </c>
       <c r="B165">
-        <v>2781661</v>
+        <v>2782184</v>
       </c>
       <c r="C165">
-        <v>122055</v>
+        <v>122063</v>
       </c>
       <c r="D165">
-        <v>37798</v>
+        <v>37801</v>
       </c>
       <c r="E165">
         <v>5597</v>
@@ -14511,13 +14544,13 @@
         <v>170</v>
       </c>
       <c r="B166">
-        <v>2835794</v>
+        <v>2836328</v>
       </c>
       <c r="C166">
-        <v>122361</v>
+        <v>122363</v>
       </c>
       <c r="D166">
-        <v>38146</v>
+        <v>38150</v>
       </c>
       <c r="E166">
         <v>5633</v>
@@ -14531,13 +14564,13 @@
         <v>171</v>
       </c>
       <c r="B167">
-        <v>2881103</v>
+        <v>2881495</v>
       </c>
       <c r="C167">
         <v>122570</v>
       </c>
       <c r="D167">
-        <v>38764</v>
+        <v>38765</v>
       </c>
       <c r="E167">
         <v>5653</v>
@@ -14551,13 +14584,13 @@
         <v>172</v>
       </c>
       <c r="B168">
-        <v>2922546</v>
+        <v>2922989</v>
       </c>
       <c r="C168">
-        <v>122813</v>
+        <v>122836</v>
       </c>
       <c r="D168">
-        <v>39769</v>
+        <v>39820</v>
       </c>
       <c r="E168">
         <v>5687</v>
@@ -14571,13 +14604,13 @@
         <v>173</v>
       </c>
       <c r="B169">
-        <v>2974104</v>
+        <v>2974731</v>
       </c>
       <c r="C169">
-        <v>123736</v>
+        <v>123740</v>
       </c>
       <c r="D169">
-        <v>41760</v>
+        <v>41772</v>
       </c>
       <c r="E169">
         <v>5832</v>
@@ -14591,13 +14624,13 @@
         <v>174</v>
       </c>
       <c r="B170">
-        <v>3036725</v>
+        <v>3037467</v>
       </c>
       <c r="C170">
-        <v>124543</v>
+        <v>124553</v>
       </c>
       <c r="D170">
-        <v>43076</v>
+        <v>43097</v>
       </c>
       <c r="E170">
         <v>5874</v>
@@ -14611,13 +14644,13 @@
         <v>175</v>
       </c>
       <c r="B171">
-        <v>3095785</v>
+        <v>3096428</v>
       </c>
       <c r="C171">
-        <v>125410</v>
+        <v>125453</v>
       </c>
       <c r="D171">
-        <v>43933</v>
+        <v>43916</v>
       </c>
       <c r="E171">
         <v>5845</v>
@@ -14631,13 +14664,13 @@
         <v>176</v>
       </c>
       <c r="B172">
-        <v>3162288</v>
+        <v>3163252</v>
       </c>
       <c r="C172">
-        <v>126264</v>
+        <v>126275</v>
       </c>
       <c r="D172">
-        <v>51599</v>
+        <v>51606</v>
       </c>
       <c r="E172">
         <v>5896</v>
@@ -14651,13 +14684,13 @@
         <v>177</v>
       </c>
       <c r="B173">
-        <v>3224953</v>
+        <v>3225577</v>
       </c>
       <c r="C173">
-        <v>127021</v>
+        <v>127025</v>
       </c>
       <c r="D173">
-        <v>51858</v>
+        <v>51861</v>
       </c>
       <c r="E173">
         <v>5939</v>
@@ -14671,13 +14704,13 @@
         <v>178</v>
       </c>
       <c r="B174">
-        <v>3285972</v>
+        <v>3286549</v>
       </c>
       <c r="C174">
-        <v>127497</v>
+        <v>127499</v>
       </c>
       <c r="D174">
-        <v>52727</v>
+        <v>52739</v>
       </c>
       <c r="E174">
         <v>5930</v>
@@ -14691,13 +14724,13 @@
         <v>179</v>
       </c>
       <c r="B175">
-        <v>3343559</v>
+        <v>3344151</v>
       </c>
       <c r="C175">
-        <v>127824</v>
+        <v>127830</v>
       </c>
       <c r="D175">
-        <v>53988</v>
+        <v>54044</v>
       </c>
       <c r="E175">
         <v>6074</v>
@@ -14711,13 +14744,13 @@
         <v>180</v>
       </c>
       <c r="B176">
-        <v>3406218</v>
+        <v>3406885</v>
       </c>
       <c r="C176">
-        <v>128560</v>
+        <v>128568</v>
       </c>
       <c r="D176">
-        <v>55565</v>
+        <v>55554</v>
       </c>
       <c r="E176">
         <v>6235</v>
@@ -14731,13 +14764,13 @@
         <v>181</v>
       </c>
       <c r="B177">
-        <v>3471708</v>
+        <v>3472504</v>
       </c>
       <c r="C177">
-        <v>129418</v>
+        <v>129431</v>
       </c>
       <c r="D177">
-        <v>56144</v>
+        <v>56168</v>
       </c>
       <c r="E177">
         <v>6317</v>
@@ -14751,13 +14784,13 @@
         <v>182</v>
       </c>
       <c r="B178">
-        <v>3542082</v>
+        <v>3542950</v>
       </c>
       <c r="C178">
-        <v>130365</v>
+        <v>130384</v>
       </c>
       <c r="D178">
-        <v>57440</v>
+        <v>57459</v>
       </c>
       <c r="E178">
         <v>6359</v>
@@ -14771,13 +14804,13 @@
         <v>183</v>
       </c>
       <c r="B179">
-        <v>3618232</v>
+        <v>3619168</v>
       </c>
       <c r="C179">
-        <v>131316</v>
+        <v>131319</v>
       </c>
       <c r="D179">
-        <v>57759</v>
+        <v>57737</v>
       </c>
       <c r="E179">
         <v>6452</v>
@@ -14791,13 +14824,13 @@
         <v>184</v>
       </c>
       <c r="B180">
-        <v>3682868</v>
+        <v>3683592</v>
       </c>
       <c r="C180">
-        <v>132188</v>
+        <v>132192</v>
       </c>
       <c r="D180">
-        <v>57645</v>
+        <v>57646</v>
       </c>
       <c r="E180">
         <v>6397</v>
@@ -14811,13 +14844,13 @@
         <v>185</v>
       </c>
       <c r="B181">
-        <v>3746720</v>
+        <v>3747309</v>
       </c>
       <c r="C181">
-        <v>132715</v>
+        <v>132717</v>
       </c>
       <c r="D181">
-        <v>57885</v>
+        <v>57882</v>
       </c>
       <c r="E181">
         <v>6384</v>
@@ -14831,13 +14864,13 @@
         <v>186</v>
       </c>
       <c r="B182">
-        <v>3803577</v>
+        <v>3804245</v>
       </c>
       <c r="C182">
-        <v>133078</v>
+        <v>133085</v>
       </c>
       <c r="D182">
-        <v>58370</v>
+        <v>58352</v>
       </c>
       <c r="E182">
         <v>6557</v>
@@ -14851,13 +14884,13 @@
         <v>187</v>
       </c>
       <c r="B183">
-        <v>3867074</v>
+        <v>3867869</v>
       </c>
       <c r="C183">
-        <v>134117</v>
+        <v>134155</v>
       </c>
       <c r="D183">
-        <v>59364</v>
+        <v>59351</v>
       </c>
       <c r="E183">
         <v>6711</v>
@@ -14871,13 +14904,13 @@
         <v>188</v>
       </c>
       <c r="B184">
-        <v>3936263</v>
+        <v>3937213</v>
       </c>
       <c r="C184">
-        <v>135288</v>
+        <v>135291</v>
       </c>
       <c r="D184">
-        <v>59596</v>
+        <v>59598</v>
       </c>
       <c r="E184">
         <v>10457</v>
@@ -14891,13 +14924,13 @@
         <v>189</v>
       </c>
       <c r="B185">
-        <v>4007487</v>
+        <v>4008438</v>
       </c>
       <c r="C185">
-        <v>136344</v>
+        <v>136351</v>
       </c>
       <c r="D185">
-        <v>59718</v>
+        <v>59712</v>
       </c>
       <c r="E185">
         <v>10414</v>
@@ -14911,13 +14944,13 @@
         <v>190</v>
       </c>
       <c r="B186">
-        <v>4082317</v>
+        <v>4083295</v>
       </c>
       <c r="C186">
-        <v>137520</v>
+        <v>137541</v>
       </c>
       <c r="D186">
-        <v>59682</v>
+        <v>59677</v>
       </c>
       <c r="E186">
         <v>10395</v>
@@ -14931,13 +14964,13 @@
         <v>191</v>
       </c>
       <c r="B187">
-        <v>4146547</v>
+        <v>4147669</v>
       </c>
       <c r="C187">
-        <v>138543</v>
+        <v>138549</v>
       </c>
       <c r="D187">
-        <v>59301</v>
+        <v>59269</v>
       </c>
       <c r="E187">
         <v>10380</v>
@@ -14951,13 +14984,13 @@
         <v>192</v>
       </c>
       <c r="B188">
-        <v>4206991</v>
+        <v>4207792</v>
       </c>
       <c r="C188">
-        <v>139102</v>
+        <v>139109</v>
       </c>
       <c r="D188">
-        <v>58621</v>
+        <v>58644</v>
       </c>
       <c r="E188">
         <v>10353</v>
@@ -14971,13 +15004,13 @@
         <v>193</v>
       </c>
       <c r="B189">
-        <v>4262117</v>
+        <v>4262806</v>
       </c>
       <c r="C189">
-        <v>140162</v>
+        <v>140174</v>
       </c>
       <c r="D189">
-        <v>58897</v>
+        <v>58906</v>
       </c>
       <c r="E189">
         <v>10328</v>
@@ -14991,13 +15024,13 @@
         <v>194</v>
       </c>
       <c r="B190">
-        <v>4320752</v>
+        <v>4321790</v>
       </c>
       <c r="C190">
-        <v>141284</v>
+        <v>141302</v>
       </c>
       <c r="D190">
-        <v>57091</v>
+        <v>57086</v>
       </c>
       <c r="E190">
         <v>10463</v>
@@ -15011,13 +15044,13 @@
         <v>195</v>
       </c>
       <c r="B191">
-        <v>4384904</v>
+        <v>4385731</v>
       </c>
       <c r="C191">
-        <v>142776</v>
+        <v>142791</v>
       </c>
       <c r="D191">
-        <v>57339</v>
+        <v>57325</v>
       </c>
       <c r="E191">
         <v>10539</v>
@@ -15031,13 +15064,13 @@
         <v>196</v>
       </c>
       <c r="B192">
-        <v>4453877</v>
+        <v>4454537</v>
       </c>
       <c r="C192">
-        <v>144035</v>
+        <v>144041</v>
       </c>
       <c r="D192">
-        <v>56427</v>
+        <v>56434</v>
       </c>
       <c r="E192">
         <v>10523</v>
@@ -15051,13 +15084,13 @@
         <v>197</v>
       </c>
       <c r="B193">
-        <v>4521249</v>
+        <v>4522066</v>
       </c>
       <c r="C193">
-        <v>145347</v>
+        <v>145354</v>
       </c>
       <c r="D193">
-        <v>55593</v>
+        <v>55589</v>
       </c>
       <c r="E193">
         <v>10472</v>
@@ -15071,13 +15104,13 @@
         <v>198</v>
       </c>
       <c r="B194">
-        <v>4581659</v>
+        <v>4582313</v>
       </c>
       <c r="C194">
-        <v>146537</v>
+        <v>146546</v>
       </c>
       <c r="D194">
-        <v>54470</v>
+        <v>54437</v>
       </c>
       <c r="E194">
         <v>10450</v>
@@ -15091,13 +15124,13 @@
         <v>199</v>
       </c>
       <c r="B195">
-        <v>4628155</v>
+        <v>4628824</v>
       </c>
       <c r="C195">
-        <v>147035</v>
+        <v>147038</v>
       </c>
       <c r="D195">
-        <v>54017</v>
+        <v>53983</v>
       </c>
       <c r="E195">
         <v>10415</v>
@@ -15111,13 +15144,13 @@
         <v>200</v>
       </c>
       <c r="B196">
-        <v>4677806</v>
+        <v>4678172</v>
       </c>
       <c r="C196">
-        <v>147554</v>
+        <v>147574</v>
       </c>
       <c r="D196">
-        <v>53377</v>
+        <v>53413</v>
       </c>
       <c r="E196">
         <v>10230</v>
@@ -15131,13 +15164,13 @@
         <v>201</v>
       </c>
       <c r="B197">
-        <v>4729350</v>
+        <v>4729986</v>
       </c>
       <c r="C197">
-        <v>148809</v>
+        <v>148812</v>
       </c>
       <c r="D197">
-        <v>53326</v>
+        <v>53323</v>
       </c>
       <c r="E197">
         <v>10207</v>
@@ -15151,13 +15184,13 @@
         <v>202</v>
       </c>
       <c r="B198">
-        <v>4781630</v>
+        <v>4782450</v>
       </c>
       <c r="C198">
-        <v>150155</v>
+        <v>150171</v>
       </c>
       <c r="D198">
-        <v>53353</v>
+        <v>53343</v>
       </c>
       <c r="E198">
         <v>9986</v>
@@ -15171,13 +15204,13 @@
         <v>203</v>
       </c>
       <c r="B199">
-        <v>4835597</v>
+        <v>4836252</v>
       </c>
       <c r="C199">
-        <v>151406</v>
+        <v>151420</v>
       </c>
       <c r="D199">
-        <v>53132</v>
+        <v>53129</v>
       </c>
       <c r="E199">
         <v>9994</v>
@@ -15191,13 +15224,13 @@
         <v>204</v>
       </c>
       <c r="B200">
-        <v>4896441</v>
+        <v>4897090</v>
       </c>
       <c r="C200">
-        <v>152739</v>
+        <v>152752</v>
       </c>
       <c r="D200">
-        <v>51207</v>
+        <v>51201</v>
       </c>
       <c r="E200">
         <v>9691</v>
@@ -15211,13 +15244,13 @@
         <v>205</v>
       </c>
       <c r="B201">
-        <v>4949593</v>
+        <v>4950174</v>
       </c>
       <c r="C201">
-        <v>153828</v>
+        <v>153834</v>
       </c>
       <c r="D201">
-        <v>49911</v>
+        <v>49935</v>
       </c>
       <c r="E201">
         <v>9662</v>
@@ -15231,13 +15264,13 @@
         <v>206</v>
       </c>
       <c r="B202">
-        <v>4999791</v>
+        <v>5000327</v>
       </c>
       <c r="C202">
-        <v>154444</v>
+        <v>154448</v>
       </c>
       <c r="D202">
-        <v>48899</v>
+        <v>48866</v>
       </c>
       <c r="E202">
         <v>9307</v>
@@ -15251,13 +15284,13 @@
         <v>207</v>
       </c>
       <c r="B203">
-        <v>5041562</v>
+        <v>5042070</v>
       </c>
       <c r="C203">
-        <v>154870</v>
+        <v>154885</v>
       </c>
       <c r="D203">
-        <v>48635</v>
+        <v>48631</v>
       </c>
       <c r="E203">
         <v>9216</v>
@@ -15271,13 +15304,13 @@
         <v>208</v>
       </c>
       <c r="B204">
-        <v>5096897</v>
+        <v>5097498</v>
       </c>
       <c r="C204">
-        <v>156196</v>
+        <v>156204</v>
       </c>
       <c r="D204">
-        <v>48498</v>
+        <v>48511</v>
       </c>
       <c r="E204">
         <v>9136</v>
@@ -15291,13 +15324,13 @@
         <v>209</v>
       </c>
       <c r="B205">
-        <v>5152905</v>
+        <v>5153393</v>
       </c>
       <c r="C205">
-        <v>157715</v>
+        <v>157722</v>
       </c>
       <c r="D205">
-        <v>47991</v>
+        <v>47949</v>
       </c>
       <c r="E205">
         <v>9555</v>
@@ -15311,13 +15344,13 @@
         <v>210</v>
       </c>
       <c r="B206">
-        <v>5204380</v>
+        <v>5205014</v>
       </c>
       <c r="C206">
-        <v>158878</v>
+        <v>158887</v>
       </c>
       <c r="D206">
-        <v>47218</v>
+        <v>47204</v>
       </c>
       <c r="E206">
         <v>9487</v>
@@ -15331,13 +15364,13 @@
         <v>211</v>
       </c>
       <c r="B207">
-        <v>5261615</v>
+        <v>5262107</v>
       </c>
       <c r="C207">
-        <v>160094</v>
+        <v>160105</v>
       </c>
       <c r="D207">
-        <v>45776</v>
+        <v>45744</v>
       </c>
       <c r="E207">
         <v>9277</v>
@@ -15351,13 +15384,13 @@
         <v>212</v>
       </c>
       <c r="B208">
-        <v>5317474</v>
+        <v>5317916</v>
       </c>
       <c r="C208">
-        <v>161315</v>
+        <v>161323</v>
       </c>
       <c r="D208">
-        <v>44795</v>
+        <v>44783</v>
       </c>
       <c r="E208">
         <v>9087</v>
@@ -15371,10 +15404,10 @@
         <v>213</v>
       </c>
       <c r="B209">
-        <v>5359795</v>
+        <v>5360239</v>
       </c>
       <c r="C209">
-        <v>161934</v>
+        <v>161937</v>
       </c>
       <c r="D209">
         <v>44046</v>
@@ -15391,13 +15424,13 @@
         <v>214</v>
       </c>
       <c r="B210">
-        <v>5397364</v>
+        <v>5397650</v>
       </c>
       <c r="C210">
-        <v>162341</v>
+        <v>162355</v>
       </c>
       <c r="D210">
-        <v>43485</v>
+        <v>43500</v>
       </c>
       <c r="E210">
         <v>8871</v>
@@ -15411,13 +15444,13 @@
         <v>215</v>
       </c>
       <c r="B211">
-        <v>5437802</v>
+        <v>5438142</v>
       </c>
       <c r="C211">
-        <v>163537</v>
+        <v>163552</v>
       </c>
       <c r="D211">
-        <v>43758</v>
+        <v>43767</v>
       </c>
       <c r="E211">
         <v>8866</v>
@@ -15431,13 +15464,13 @@
         <v>216</v>
       </c>
       <c r="B212">
-        <v>5482585</v>
+        <v>5483025</v>
       </c>
       <c r="C212">
-        <v>164957</v>
+        <v>164975</v>
       </c>
       <c r="D212">
-        <v>43330</v>
+        <v>43289</v>
       </c>
       <c r="E212">
         <v>8744</v>
@@ -15451,13 +15484,13 @@
         <v>217</v>
       </c>
       <c r="B213">
-        <v>5526217</v>
+        <v>5526748</v>
       </c>
       <c r="C213">
-        <v>166091</v>
+        <v>166111</v>
       </c>
       <c r="D213">
-        <v>41988</v>
+        <v>41968</v>
       </c>
       <c r="E213">
         <v>8483</v>
@@ -15471,13 +15504,13 @@
         <v>218</v>
       </c>
       <c r="B214">
-        <v>5572443</v>
+        <v>5572943</v>
       </c>
       <c r="C214">
-        <v>167214</v>
+        <v>167219</v>
       </c>
       <c r="D214">
-        <v>40951</v>
+        <v>40940</v>
       </c>
       <c r="E214">
         <v>8357</v>
@@ -15491,13 +15524,13 @@
         <v>219</v>
       </c>
       <c r="B215">
-        <v>5618162</v>
+        <v>5618666</v>
       </c>
       <c r="C215">
-        <v>168243</v>
+        <v>168247</v>
       </c>
       <c r="D215">
-        <v>39894</v>
+        <v>39919</v>
       </c>
       <c r="E215">
         <v>8207</v>
@@ -15511,13 +15544,13 @@
         <v>220</v>
       </c>
       <c r="B216">
-        <v>5655636</v>
+        <v>5655990</v>
       </c>
       <c r="C216">
-        <v>168815</v>
+        <v>168817</v>
       </c>
       <c r="D216">
-        <v>39017</v>
+        <v>38980</v>
       </c>
       <c r="E216">
         <v>7949</v>
@@ -15531,13 +15564,13 @@
         <v>221</v>
       </c>
       <c r="B217">
-        <v>5689969</v>
+        <v>5690240</v>
       </c>
       <c r="C217">
-        <v>169158</v>
+        <v>169169</v>
       </c>
       <c r="D217">
-        <v>38673</v>
+        <v>38695</v>
       </c>
       <c r="E217">
         <v>7851</v>
@@ -15551,13 +15584,13 @@
         <v>222</v>
       </c>
       <c r="B218">
-        <v>5726303</v>
+        <v>5726828</v>
       </c>
       <c r="C218">
-        <v>170305</v>
+        <v>170310</v>
       </c>
       <c r="D218">
-        <v>38779</v>
+        <v>38775</v>
       </c>
       <c r="E218">
         <v>7863</v>
@@ -15571,13 +15604,13 @@
         <v>223</v>
       </c>
       <c r="B219">
-        <v>5770066</v>
+        <v>5770456</v>
       </c>
       <c r="C219">
-        <v>171603</v>
+        <v>171617</v>
       </c>
       <c r="D219">
-        <v>38401</v>
+        <v>38418</v>
       </c>
       <c r="E219">
         <v>7737</v>
@@ -15591,13 +15624,13 @@
         <v>224</v>
       </c>
       <c r="B220">
-        <v>5813832</v>
+        <v>5814370</v>
       </c>
       <c r="C220">
-        <v>172732</v>
+        <v>172741</v>
       </c>
       <c r="D220">
-        <v>37464</v>
+        <v>37421</v>
       </c>
       <c r="E220">
         <v>7717</v>
@@ -15611,13 +15644,13 @@
         <v>225</v>
       </c>
       <c r="B221">
-        <v>5859943</v>
+        <v>5860495</v>
       </c>
       <c r="C221">
-        <v>173756</v>
+        <v>173767</v>
       </c>
       <c r="D221">
-        <v>37239</v>
+        <v>37255</v>
       </c>
       <c r="E221">
         <v>7558</v>
@@ -15631,13 +15664,13 @@
         <v>226</v>
       </c>
       <c r="B222">
-        <v>5904058</v>
+        <v>5904462</v>
       </c>
       <c r="C222">
-        <v>174771</v>
+        <v>174773</v>
       </c>
       <c r="D222">
-        <v>36428</v>
+        <v>36437</v>
       </c>
       <c r="E222">
         <v>7413</v>
@@ -15651,10 +15684,10 @@
         <v>227</v>
       </c>
       <c r="B223">
-        <v>5943460</v>
+        <v>5943747</v>
       </c>
       <c r="C223">
-        <v>175246</v>
+        <v>175247</v>
       </c>
       <c r="D223">
         <v>35726</v>
@@ -15671,10 +15704,10 @@
         <v>228</v>
       </c>
       <c r="B224">
-        <v>5974750</v>
+        <v>5975020</v>
       </c>
       <c r="C224">
-        <v>175612</v>
+        <v>175627</v>
       </c>
       <c r="D224">
         <v>35352</v>
@@ -15691,13 +15724,13 @@
         <v>229</v>
       </c>
       <c r="B225">
-        <v>6016987</v>
+        <v>6017446</v>
       </c>
       <c r="C225">
-        <v>176639</v>
+        <v>176651</v>
       </c>
       <c r="D225">
-        <v>35271</v>
+        <v>35273</v>
       </c>
       <c r="E225">
         <v>7090</v>
@@ -15711,13 +15744,13 @@
         <v>230</v>
       </c>
       <c r="B226">
-        <v>6047267</v>
+        <v>6047663</v>
       </c>
       <c r="C226">
-        <v>177671</v>
+        <v>177674</v>
       </c>
       <c r="D226">
-        <v>35569</v>
+        <v>35579</v>
       </c>
       <c r="E226">
         <v>7087</v>
@@ -15731,13 +15764,13 @@
         <v>231</v>
       </c>
       <c r="B227">
-        <v>6091811</v>
+        <v>6092279</v>
       </c>
       <c r="C227">
-        <v>178741</v>
+        <v>178750</v>
       </c>
       <c r="D227">
-        <v>34682</v>
+        <v>34650</v>
       </c>
       <c r="E227">
         <v>6921</v>
@@ -15751,13 +15784,13 @@
         <v>232</v>
       </c>
       <c r="B228">
-        <v>6143329</v>
+        <v>6143787</v>
       </c>
       <c r="C228">
-        <v>179739</v>
+        <v>179747</v>
       </c>
       <c r="D228">
-        <v>34099</v>
+        <v>34101</v>
       </c>
       <c r="E228">
         <v>6924</v>
@@ -15771,10 +15804,10 @@
         <v>233</v>
       </c>
       <c r="B229">
-        <v>6188051</v>
+        <v>6188531</v>
       </c>
       <c r="C229">
-        <v>180657</v>
+        <v>180663</v>
       </c>
       <c r="D229">
         <v>33502</v>
@@ -15791,13 +15824,13 @@
         <v>234</v>
       </c>
       <c r="B230">
-        <v>6221108</v>
+        <v>6221452</v>
       </c>
       <c r="C230">
-        <v>181106</v>
+        <v>181109</v>
       </c>
       <c r="D230">
-        <v>32372</v>
+        <v>32376</v>
       </c>
       <c r="E230">
         <v>6700</v>
@@ -15811,13 +15844,13 @@
         <v>235</v>
       </c>
       <c r="B231">
-        <v>6249345</v>
+        <v>6249595</v>
       </c>
       <c r="C231">
-        <v>181331</v>
+        <v>181335</v>
       </c>
       <c r="D231">
-        <v>31999</v>
+        <v>32009</v>
       </c>
       <c r="E231">
         <v>6630</v>
@@ -15831,13 +15864,13 @@
         <v>236</v>
       </c>
       <c r="B232">
-        <v>6271508</v>
+        <v>6271732</v>
       </c>
       <c r="C232">
-        <v>181689</v>
+        <v>181691</v>
       </c>
       <c r="D232">
-        <v>32262</v>
+        <v>32246</v>
       </c>
       <c r="E232">
         <v>6542</v>
@@ -15851,13 +15884,13 @@
         <v>237</v>
       </c>
       <c r="B233">
-        <v>6302569</v>
+        <v>6302902</v>
       </c>
       <c r="C233">
-        <v>182773</v>
+        <v>182793</v>
       </c>
       <c r="D233">
-        <v>32562</v>
+        <v>32579</v>
       </c>
       <c r="E233">
         <v>6646</v>
@@ -15871,13 +15904,13 @@
         <v>238</v>
       </c>
       <c r="B234">
-        <v>6339780</v>
+        <v>6340206</v>
       </c>
       <c r="C234">
-        <v>183943</v>
+        <v>183953</v>
       </c>
       <c r="D234">
-        <v>32421</v>
+        <v>32438</v>
       </c>
       <c r="E234">
         <v>6531</v>
@@ -15891,13 +15924,13 @@
         <v>239</v>
       </c>
       <c r="B235">
-        <v>6384448</v>
+        <v>6384889</v>
       </c>
       <c r="C235">
-        <v>184961</v>
+        <v>184963</v>
       </c>
       <c r="D235">
-        <v>31421</v>
+        <v>31406</v>
       </c>
       <c r="E235">
         <v>6379</v>
@@ -15911,13 +15944,13 @@
         <v>240</v>
       </c>
       <c r="B236">
-        <v>6426242</v>
+        <v>6426755</v>
       </c>
       <c r="C236">
-        <v>185771</v>
+        <v>185774</v>
       </c>
       <c r="D236">
-        <v>30655</v>
+        <v>30643</v>
       </c>
       <c r="E236">
         <v>6451</v>
@@ -15931,13 +15964,13 @@
         <v>241</v>
       </c>
       <c r="B237">
-        <v>6460549</v>
+        <v>6461066</v>
       </c>
       <c r="C237">
-        <v>186161</v>
+        <v>186163</v>
       </c>
       <c r="D237">
-        <v>29810</v>
+        <v>29804</v>
       </c>
       <c r="E237">
         <v>6233</v>
@@ -15951,13 +15984,13 @@
         <v>242</v>
       </c>
       <c r="B238">
-        <v>6494231</v>
+        <v>6494687</v>
       </c>
       <c r="C238">
-        <v>186565</v>
+        <v>186570</v>
       </c>
       <c r="D238">
-        <v>29895</v>
+        <v>29907</v>
       </c>
       <c r="E238">
         <v>6238</v>
@@ -15971,13 +16004,13 @@
         <v>243</v>
       </c>
       <c r="B239">
-        <v>6529110</v>
+        <v>6529591</v>
       </c>
       <c r="C239">
-        <v>187596</v>
+        <v>187614</v>
       </c>
       <c r="D239">
-        <v>30328</v>
+        <v>30361</v>
       </c>
       <c r="E239">
         <v>6310</v>
@@ -15991,13 +16024,13 @@
         <v>244</v>
       </c>
       <c r="B240">
-        <v>6568996</v>
+        <v>6569701</v>
       </c>
       <c r="C240">
-        <v>188796</v>
+        <v>188798</v>
       </c>
       <c r="D240">
-        <v>30278</v>
+        <v>30253</v>
       </c>
       <c r="E240">
         <v>6308</v>
@@ -16011,13 +16044,13 @@
         <v>245</v>
       </c>
       <c r="B241">
-        <v>6612373</v>
+        <v>6612990</v>
       </c>
       <c r="C241">
-        <v>189659</v>
+        <v>189669</v>
       </c>
       <c r="D241">
-        <v>29900</v>
+        <v>29875</v>
       </c>
       <c r="E241">
         <v>6278</v>
@@ -16031,13 +16064,13 @@
         <v>246</v>
       </c>
       <c r="B242">
-        <v>6659485</v>
+        <v>6660241</v>
       </c>
       <c r="C242">
-        <v>190560</v>
+        <v>190567</v>
       </c>
       <c r="D242">
-        <v>29501</v>
+        <v>29521</v>
       </c>
       <c r="E242">
         <v>6175</v>
@@ -16051,13 +16084,13 @@
         <v>247</v>
       </c>
       <c r="B243">
-        <v>6704378</v>
+        <v>6705146</v>
       </c>
       <c r="C243">
-        <v>191300</v>
+        <v>191306</v>
       </c>
       <c r="D243">
-        <v>29035</v>
+        <v>29038</v>
       </c>
       <c r="E243">
         <v>6070</v>
@@ -16071,13 +16104,13 @@
         <v>248</v>
       </c>
       <c r="B244">
-        <v>6740081</v>
+        <v>6740649</v>
       </c>
       <c r="C244">
-        <v>191627</v>
+        <v>191629</v>
       </c>
       <c r="D244">
-        <v>28608</v>
+        <v>28606</v>
       </c>
       <c r="E244">
         <v>6015</v>
@@ -16091,13 +16124,13 @@
         <v>249</v>
       </c>
       <c r="B245">
-        <v>6779142</v>
+        <v>6779788</v>
       </c>
       <c r="C245">
-        <v>191914</v>
+        <v>191917</v>
       </c>
       <c r="D245">
-        <v>28755</v>
+        <v>28762</v>
       </c>
       <c r="E245">
         <v>6071</v>
@@ -16111,13 +16144,13 @@
         <v>250</v>
       </c>
       <c r="B246">
-        <v>6828502</v>
+        <v>6829263</v>
       </c>
       <c r="C246">
-        <v>192768</v>
+        <v>192783</v>
       </c>
       <c r="D246">
-        <v>29459</v>
+        <v>29448</v>
       </c>
       <c r="E246">
         <v>6111</v>
@@ -16131,13 +16164,13 @@
         <v>251</v>
       </c>
       <c r="B247">
-        <v>6867070</v>
+        <v>6867883</v>
       </c>
       <c r="C247">
-        <v>193927</v>
+        <v>193930</v>
       </c>
       <c r="D247">
-        <v>29905</v>
+        <v>29937</v>
       </c>
       <c r="E247">
         <v>6113</v>
@@ -16151,13 +16184,13 @@
         <v>252</v>
       </c>
       <c r="B248">
-        <v>6910444</v>
+        <v>6911229</v>
       </c>
       <c r="C248">
-        <v>194848</v>
+        <v>194859</v>
       </c>
       <c r="D248">
-        <v>30043</v>
+        <v>30036</v>
       </c>
       <c r="E248">
         <v>6168</v>
@@ -16171,13 +16204,13 @@
         <v>253</v>
       </c>
       <c r="B249">
-        <v>6965446</v>
+        <v>6966418</v>
       </c>
       <c r="C249">
-        <v>195692</v>
+        <v>195703</v>
       </c>
       <c r="D249">
-        <v>29769</v>
+        <v>29768</v>
       </c>
       <c r="E249">
         <v>6133</v>
@@ -16191,13 +16224,13 @@
         <v>254</v>
       </c>
       <c r="B250">
-        <v>7013032</v>
+        <v>7013821</v>
       </c>
       <c r="C250">
-        <v>196561</v>
+        <v>196566</v>
       </c>
       <c r="D250">
-        <v>29554</v>
+        <v>29551</v>
       </c>
       <c r="E250">
         <v>6057</v>
@@ -16211,13 +16244,13 @@
         <v>255</v>
       </c>
       <c r="B251">
-        <v>7048087</v>
+        <v>7048808</v>
       </c>
       <c r="C251">
         <v>196868</v>
       </c>
       <c r="D251">
-        <v>29434</v>
+        <v>29443</v>
       </c>
       <c r="E251">
         <v>6080</v>
@@ -16231,13 +16264,13 @@
         <v>256</v>
       </c>
       <c r="B252">
-        <v>7084139</v>
+        <v>7084691</v>
       </c>
       <c r="C252">
-        <v>197125</v>
+        <v>197133</v>
       </c>
       <c r="D252">
-        <v>29608</v>
+        <v>29601</v>
       </c>
       <c r="E252">
         <v>5981</v>
@@ -16251,13 +16284,13 @@
         <v>257</v>
       </c>
       <c r="B253">
-        <v>7120425</v>
+        <v>7121132</v>
       </c>
       <c r="C253">
-        <v>197864</v>
+        <v>197873</v>
       </c>
       <c r="D253">
-        <v>30473</v>
+        <v>30499</v>
       </c>
       <c r="E253">
         <v>6106</v>
@@ -16271,13 +16304,13 @@
         <v>258</v>
       </c>
       <c r="B254">
-        <v>7164690</v>
+        <v>7165479</v>
       </c>
       <c r="C254">
-        <v>198925</v>
+        <v>198935</v>
       </c>
       <c r="D254">
-        <v>30911</v>
+        <v>30912</v>
       </c>
       <c r="E254">
         <v>6145</v>
@@ -16291,13 +16324,13 @@
         <v>259</v>
       </c>
       <c r="B255">
-        <v>7210176</v>
+        <v>7211084</v>
       </c>
       <c r="C255">
-        <v>199776</v>
+        <v>199783</v>
       </c>
       <c r="D255">
-        <v>30790</v>
+        <v>30809</v>
       </c>
       <c r="E255">
         <v>6173</v>
@@ -16311,13 +16344,13 @@
         <v>260</v>
       </c>
       <c r="B256">
-        <v>7259322</v>
+        <v>7260341</v>
       </c>
       <c r="C256">
-        <v>200611</v>
+        <v>200622</v>
       </c>
       <c r="D256">
-        <v>30744</v>
+        <v>30769</v>
       </c>
       <c r="E256">
         <v>6106</v>
@@ -16331,13 +16364,13 @@
         <v>261</v>
       </c>
       <c r="B257">
-        <v>7310323</v>
+        <v>7311276</v>
       </c>
       <c r="C257">
-        <v>201352</v>
+        <v>201355</v>
       </c>
       <c r="D257">
-        <v>30113</v>
+        <v>30111</v>
       </c>
       <c r="E257">
         <v>5996</v>
@@ -16351,13 +16384,13 @@
         <v>262</v>
       </c>
       <c r="B258">
-        <v>7348562</v>
+        <v>7349264</v>
       </c>
       <c r="C258">
-        <v>201715</v>
+        <v>201717</v>
       </c>
       <c r="D258">
-        <v>29942</v>
+        <v>29945</v>
       </c>
       <c r="E258">
         <v>5974</v>
@@ -16371,13 +16404,13 @@
         <v>263</v>
       </c>
       <c r="B259">
-        <v>7386404</v>
+        <v>7387020</v>
       </c>
       <c r="C259">
-        <v>202041</v>
+        <v>202058</v>
       </c>
       <c r="D259">
-        <v>31299</v>
+        <v>31327</v>
       </c>
       <c r="E259">
         <v>6209</v>
@@ -16391,13 +16424,13 @@
         <v>264</v>
       </c>
       <c r="B260">
-        <v>7424968</v>
+        <v>7425937</v>
       </c>
       <c r="C260">
-        <v>202675</v>
+        <v>202690</v>
       </c>
       <c r="D260">
-        <v>32595</v>
+        <v>32626</v>
       </c>
       <c r="E260">
         <v>6438</v>
@@ -16411,13 +16444,13 @@
         <v>265</v>
       </c>
       <c r="B261">
-        <v>7475371</v>
+        <v>7476527</v>
       </c>
       <c r="C261">
-        <v>203591</v>
+        <v>203600</v>
       </c>
       <c r="D261">
-        <v>33457</v>
+        <v>33482</v>
       </c>
       <c r="E261">
         <v>6507</v>
@@ -16431,13 +16464,13 @@
         <v>266</v>
       </c>
       <c r="B262">
-        <v>7530488</v>
+        <v>7531735</v>
       </c>
       <c r="C262">
-        <v>204577</v>
+        <v>204587</v>
       </c>
       <c r="D262">
-        <v>34322</v>
+        <v>34319</v>
       </c>
       <c r="E262">
         <v>6621</v>
@@ -16451,13 +16484,13 @@
         <v>267</v>
       </c>
       <c r="B263">
-        <v>7587218</v>
+        <v>7588537</v>
       </c>
       <c r="C263">
-        <v>205470</v>
+        <v>205474</v>
       </c>
       <c r="D263">
-        <v>34839</v>
+        <v>34877</v>
       </c>
       <c r="E263">
         <v>6713</v>
@@ -16471,13 +16504,13 @@
         <v>268</v>
       </c>
       <c r="B264">
-        <v>7644448</v>
+        <v>7645952</v>
       </c>
       <c r="C264">
-        <v>206135</v>
+        <v>206140</v>
       </c>
       <c r="D264">
-        <v>34618</v>
+        <v>34600</v>
       </c>
       <c r="E264">
         <v>6683</v>
@@ -16491,13 +16524,13 @@
         <v>269</v>
       </c>
       <c r="B265">
-        <v>7691141</v>
+        <v>7692221</v>
       </c>
       <c r="C265">
-        <v>206601</v>
+        <v>206605</v>
       </c>
       <c r="D265">
-        <v>34490</v>
+        <v>34498</v>
       </c>
       <c r="E265">
         <v>6679</v>
@@ -16511,13 +16544,13 @@
         <v>270</v>
       </c>
       <c r="B266">
-        <v>7733909</v>
+        <v>7734864</v>
       </c>
       <c r="C266">
-        <v>206888</v>
+        <v>206892</v>
       </c>
       <c r="D266">
-        <v>35072</v>
+        <v>35066</v>
       </c>
       <c r="E266">
         <v>6807</v>
@@ -16531,13 +16564,13 @@
         <v>271</v>
       </c>
       <c r="B267">
-        <v>7782058</v>
+        <v>7783457</v>
       </c>
       <c r="C267">
-        <v>207578</v>
+        <v>207592</v>
       </c>
       <c r="D267">
-        <v>36051</v>
+        <v>36064</v>
       </c>
       <c r="E267">
         <v>7020</v>
@@ -16551,13 +16584,13 @@
         <v>272</v>
       </c>
       <c r="B268">
-        <v>7838305</v>
+        <v>7839574</v>
       </c>
       <c r="C268">
-        <v>208389</v>
+        <v>208408</v>
       </c>
       <c r="D268">
-        <v>37048</v>
+        <v>37088</v>
       </c>
       <c r="E268">
         <v>7156</v>
@@ -16571,13 +16604,13 @@
         <v>273</v>
       </c>
       <c r="B269">
-        <v>7901157</v>
+        <v>7902966</v>
       </c>
       <c r="C269">
-        <v>209340</v>
+        <v>209345</v>
       </c>
       <c r="D269">
-        <v>37308</v>
+        <v>37328</v>
       </c>
       <c r="E269">
         <v>7220</v>
@@ -16591,13 +16624,13 @@
         <v>274</v>
       </c>
       <c r="B270">
-        <v>7969090</v>
+        <v>7971214</v>
       </c>
       <c r="C270">
-        <v>210217</v>
+        <v>210236</v>
       </c>
       <c r="D270">
-        <v>37336</v>
+        <v>37368</v>
       </c>
       <c r="E270">
         <v>7251</v>
@@ -16611,13 +16644,13 @@
         <v>275</v>
       </c>
       <c r="B271">
-        <v>8026832</v>
+        <v>8028544</v>
       </c>
       <c r="C271">
-        <v>210997</v>
+        <v>210998</v>
       </c>
       <c r="D271">
-        <v>37359</v>
+        <v>37358</v>
       </c>
       <c r="E271">
         <v>7384</v>
@@ -16631,13 +16664,13 @@
         <v>276</v>
       </c>
       <c r="B272">
-        <v>8075450</v>
+        <v>8076828</v>
       </c>
       <c r="C272">
-        <v>211390</v>
+        <v>211395</v>
       </c>
       <c r="D272">
-        <v>36437</v>
+        <v>36452</v>
       </c>
       <c r="E272">
         <v>7292</v>
@@ -16651,13 +16684,13 @@
         <v>277</v>
       </c>
       <c r="B273">
-        <v>8132352</v>
+        <v>8133938</v>
       </c>
       <c r="C273">
-        <v>211846</v>
+        <v>211856</v>
       </c>
       <c r="D273">
-        <v>37826</v>
+        <v>37858</v>
       </c>
       <c r="E273">
         <v>7997</v>
@@ -16671,13 +16704,13 @@
         <v>278</v>
       </c>
       <c r="B274">
-        <v>8192683</v>
+        <v>8194485</v>
       </c>
       <c r="C274">
-        <v>212678</v>
+        <v>212694</v>
       </c>
       <c r="D274">
-        <v>39230</v>
+        <v>39303</v>
       </c>
       <c r="E274">
         <v>8131</v>
@@ -16691,13 +16724,13 @@
         <v>279</v>
       </c>
       <c r="B275">
-        <v>8253352</v>
+        <v>8255438</v>
       </c>
       <c r="C275">
-        <v>213702</v>
+        <v>213716</v>
       </c>
       <c r="D275">
-        <v>40271</v>
+        <v>40284</v>
       </c>
       <c r="E275">
         <v>8182</v>
@@ -16711,13 +16744,13 @@
         <v>280</v>
       </c>
       <c r="B276">
-        <v>8326245</v>
+        <v>8328280</v>
       </c>
       <c r="C276">
-        <v>214845</v>
+        <v>214852</v>
       </c>
       <c r="D276">
-        <v>41010</v>
+        <v>41036</v>
       </c>
       <c r="E276">
         <v>8086</v>
@@ -16731,13 +16764,13 @@
         <v>281</v>
       </c>
       <c r="B277">
-        <v>8408471</v>
+        <v>8410612</v>
       </c>
       <c r="C277">
-        <v>215762</v>
+        <v>215775</v>
       </c>
       <c r="D277">
-        <v>41482</v>
+        <v>41501</v>
       </c>
       <c r="E277">
         <v>8237</v>
@@ -16751,13 +16784,13 @@
         <v>282</v>
       </c>
       <c r="B278">
-        <v>8491198</v>
+        <v>8493898</v>
       </c>
       <c r="C278">
-        <v>216652</v>
+        <v>216657</v>
       </c>
       <c r="D278">
-        <v>41905</v>
+        <v>41989</v>
       </c>
       <c r="E278">
         <v>8561</v>
@@ -16771,13 +16804,13 @@
         <v>283</v>
       </c>
       <c r="B279">
-        <v>8556279</v>
+        <v>8558791</v>
       </c>
       <c r="C279">
-        <v>217029</v>
+        <v>217031</v>
       </c>
       <c r="D279">
-        <v>41776</v>
+        <v>41786</v>
       </c>
       <c r="E279">
         <v>8489</v>
@@ -16791,13 +16824,13 @@
         <v>284</v>
       </c>
       <c r="B280">
-        <v>8618383</v>
+        <v>8621317</v>
       </c>
       <c r="C280">
-        <v>217418</v>
+        <v>217433</v>
       </c>
       <c r="D280">
-        <v>42917</v>
+        <v>42924</v>
       </c>
       <c r="E280">
         <v>8842</v>
@@ -16811,13 +16844,13 @@
         <v>285</v>
       </c>
       <c r="B281">
-        <v>8691383</v>
+        <v>8693399</v>
       </c>
       <c r="C281">
-        <v>218349</v>
+        <v>218353</v>
       </c>
       <c r="D281">
-        <v>44212</v>
+        <v>44287</v>
       </c>
       <c r="E281">
         <v>8909</v>
@@ -16831,13 +16864,13 @@
         <v>286</v>
       </c>
       <c r="B282">
-        <v>8770015</v>
+        <v>8772147</v>
       </c>
       <c r="C282">
-        <v>219374</v>
+        <v>219397</v>
       </c>
       <c r="D282">
-        <v>45045</v>
+        <v>45124</v>
       </c>
       <c r="E282">
         <v>9034</v>
@@ -16851,13 +16884,13 @@
         <v>287</v>
       </c>
       <c r="B283">
-        <v>8857991</v>
+        <v>8860875</v>
       </c>
       <c r="C283">
-        <v>220423</v>
+        <v>220427</v>
       </c>
       <c r="D283">
-        <v>46095</v>
+        <v>46126</v>
       </c>
       <c r="E283">
         <v>9208</v>
@@ -16871,13 +16904,13 @@
         <v>288</v>
       </c>
       <c r="B284">
-        <v>8954691</v>
+        <v>8958108</v>
       </c>
       <c r="C284">
-        <v>221356</v>
+        <v>221379</v>
       </c>
       <c r="D284">
-        <v>46688</v>
+        <v>46738</v>
       </c>
       <c r="E284">
         <v>9437</v>
@@ -16891,13 +16924,13 @@
         <v>289</v>
       </c>
       <c r="B285">
-        <v>9045190</v>
+        <v>9048695</v>
       </c>
       <c r="C285">
-        <v>222319</v>
+        <v>222330</v>
       </c>
       <c r="D285">
-        <v>47375</v>
+        <v>47402</v>
       </c>
       <c r="E285">
         <v>9499</v>
@@ -16911,13 +16944,13 @@
         <v>290</v>
       </c>
       <c r="B286">
-        <v>9119242</v>
+        <v>9122544</v>
       </c>
       <c r="C286">
-        <v>222710</v>
+        <v>222718</v>
       </c>
       <c r="D286">
-        <v>47520</v>
+        <v>47531</v>
       </c>
       <c r="E286">
         <v>9553</v>
@@ -16931,13 +16964,13 @@
         <v>291</v>
       </c>
       <c r="B287">
-        <v>9201482</v>
+        <v>9204591</v>
       </c>
       <c r="C287">
-        <v>223186</v>
+        <v>223217</v>
       </c>
       <c r="D287">
-        <v>48470</v>
+        <v>48557</v>
       </c>
       <c r="E287">
         <v>9858</v>
@@ -16951,13 +16984,13 @@
         <v>292</v>
       </c>
       <c r="B288">
-        <v>9287555</v>
+        <v>9291253</v>
       </c>
       <c r="C288">
-        <v>224715</v>
+        <v>224732</v>
       </c>
       <c r="D288">
-        <v>50340</v>
+        <v>50426</v>
       </c>
       <c r="E288">
         <v>10406</v>
@@ -16971,13 +17004,13 @@
         <v>293</v>
       </c>
       <c r="B289">
-        <v>9390618</v>
+        <v>9394557</v>
       </c>
       <c r="C289">
-        <v>225831</v>
+        <v>225858</v>
       </c>
       <c r="D289">
-        <v>52049</v>
+        <v>52086</v>
       </c>
       <c r="E289">
         <v>10761</v>
@@ -16991,13 +17024,13 @@
         <v>294</v>
       </c>
       <c r="B290">
-        <v>9506770</v>
+        <v>9510998</v>
       </c>
       <c r="C290">
-        <v>226955</v>
+        <v>226989</v>
       </c>
       <c r="D290">
-        <v>53322</v>
+        <v>53375</v>
       </c>
       <c r="E290">
         <v>10918</v>
@@ -17011,13 +17044,13 @@
         <v>295</v>
       </c>
       <c r="B291">
-        <v>9632004</v>
+        <v>9636751</v>
       </c>
       <c r="C291">
-        <v>228141</v>
+        <v>228157</v>
       </c>
       <c r="D291">
-        <v>54824</v>
+        <v>54851</v>
       </c>
       <c r="E291">
         <v>11085</v>
@@ -17031,13 +17064,13 @@
         <v>296</v>
       </c>
       <c r="B292">
-        <v>9761191</v>
+        <v>9765966</v>
       </c>
       <c r="C292">
-        <v>229245</v>
+        <v>229261</v>
       </c>
       <c r="D292">
-        <v>55840</v>
+        <v>55925</v>
       </c>
       <c r="E292">
         <v>11082</v>
@@ -17051,13 +17084,13 @@
         <v>297</v>
       </c>
       <c r="B293">
-        <v>9872020</v>
+        <v>9876247</v>
       </c>
       <c r="C293">
-        <v>229732</v>
+        <v>229746</v>
       </c>
       <c r="D293">
-        <v>56799</v>
+        <v>56842</v>
       </c>
       <c r="E293">
         <v>11120</v>
@@ -17071,13 +17104,13 @@
         <v>298</v>
       </c>
       <c r="B294">
-        <v>9990718</v>
+        <v>9995679</v>
       </c>
       <c r="C294">
-        <v>230312</v>
+        <v>230335</v>
       </c>
       <c r="D294">
-        <v>59275</v>
+        <v>59301</v>
       </c>
       <c r="E294">
         <v>11533</v>
@@ -17091,19 +17124,19 @@
         <v>299</v>
       </c>
       <c r="B295">
-        <v>10121713</v>
+        <v>10126861</v>
       </c>
       <c r="C295">
-        <v>231659</v>
+        <v>231695</v>
       </c>
       <c r="D295">
-        <v>61964</v>
+        <v>62059</v>
       </c>
       <c r="E295">
-        <v>11952</v>
+        <v>11961</v>
       </c>
       <c r="F295">
-        <v>3205</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
@@ -17111,13 +17144,13 @@
         <v>300</v>
       </c>
       <c r="B296">
-        <v>10266200</v>
+        <v>10271662</v>
       </c>
       <c r="C296">
-        <v>233224</v>
+        <v>233238</v>
       </c>
       <c r="D296">
-        <v>65373</v>
+        <v>65463</v>
       </c>
       <c r="E296">
         <v>12518</v>
@@ -17131,13 +17164,13 @@
         <v>301</v>
       </c>
       <c r="B297">
-        <v>10416726</v>
+        <v>10423665</v>
       </c>
       <c r="C297">
-        <v>234328</v>
+        <v>234379</v>
       </c>
       <c r="D297">
-        <v>67096</v>
+        <v>67100</v>
       </c>
       <c r="E297">
         <v>12796</v>
@@ -17151,13 +17184,13 @@
         <v>302</v>
       </c>
       <c r="B298">
-        <v>10588102</v>
+        <v>10595771</v>
       </c>
       <c r="C298">
-        <v>235632</v>
+        <v>235654</v>
       </c>
       <c r="D298">
-        <v>68519</v>
+        <v>68496</v>
       </c>
       <c r="E298">
         <v>13132</v>
@@ -17171,13 +17204,13 @@
         <v>303</v>
       </c>
       <c r="B299">
-        <v>10752950</v>
+        <v>10759311</v>
       </c>
       <c r="C299">
-        <v>236956</v>
+        <v>236966</v>
       </c>
       <c r="D299">
-        <v>69463</v>
+        <v>69498</v>
       </c>
       <c r="E299">
         <v>13337</v>
@@ -17191,19 +17224,19 @@
         <v>304</v>
       </c>
       <c r="B300">
-        <v>10898532</v>
+        <v>10903745</v>
       </c>
       <c r="C300">
-        <v>237636</v>
+        <v>237643</v>
       </c>
       <c r="D300">
-        <v>69980</v>
+        <v>70113</v>
       </c>
       <c r="E300">
-        <v>13691</v>
+        <v>13693</v>
       </c>
       <c r="F300">
-        <v>3932</v>
+        <v>3939</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
@@ -17211,19 +17244,19 @@
         <v>305</v>
       </c>
       <c r="B301">
-        <v>11047064</v>
+        <v>11052613</v>
       </c>
       <c r="C301">
-        <v>238217</v>
+        <v>238280</v>
       </c>
       <c r="D301">
-        <v>73014</v>
+        <v>73268</v>
       </c>
       <c r="E301">
-        <v>14313</v>
+        <v>14317</v>
       </c>
       <c r="F301">
-        <v>4157</v>
+        <v>4166</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
@@ -17231,19 +17264,39 @@
         <v>306</v>
       </c>
       <c r="B302">
-        <v>11202899</v>
+        <v>11209335</v>
       </c>
       <c r="C302">
-        <v>239784</v>
+        <v>239835</v>
       </c>
       <c r="D302">
-        <v>76823</v>
+        <v>76958</v>
       </c>
       <c r="E302">
         <v>14851</v>
       </c>
       <c r="F302">
         <v>4379</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>307</v>
+      </c>
+      <c r="B303">
+        <v>11373310</v>
+      </c>
+      <c r="C303">
+        <v>241704</v>
+      </c>
+      <c r="D303">
+        <v>79410</v>
+      </c>
+      <c r="E303">
+        <v>15350</v>
+      </c>
+      <c r="F303">
+        <v>4701</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathBeds.xlsx
+++ b/covid19/data/USCaseDeathBeds.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E1E608-5A5C-4B5F-AE64-B018FDBF2C2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA225C7-1831-4512-8063-39E05BCEFECA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Deaths" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$303</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$304</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="309">
   <si>
     <t>date</t>
   </si>
@@ -955,6 +955,9 @@
   </si>
   <si>
     <t>2020-11-18</t>
+  </si>
+  <si>
+    <t>2020-11-19</t>
   </si>
 </sst>
 </file>
@@ -1043,9 +1046,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$303</c:f>
+              <c:f>Data!$A$2:$A$304</c:f>
               <c:strCache>
-                <c:ptCount val="302"/>
+                <c:ptCount val="303"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -1951,16 +1954,19 @@
                 </c:pt>
                 <c:pt idx="301">
                   <c:v>2020-11-18</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>2020-11-19</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$303</c:f>
+              <c:f>Data!$B$2:$B$304</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="302"/>
+                <c:ptCount val="303"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2866,6 +2872,9 @@
                 </c:pt>
                 <c:pt idx="301">
                   <c:v>11373310</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>11556142</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2974,9 +2983,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$303</c:f>
+              <c:f>Data!$A$2:$A$304</c:f>
               <c:strCache>
-                <c:ptCount val="302"/>
+                <c:ptCount val="303"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -3882,16 +3891,19 @@
                 </c:pt>
                 <c:pt idx="301">
                   <c:v>2020-11-18</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>2020-11-19</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$2:$D$303</c:f>
+              <c:f>Data!$D$2:$D$304</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="302"/>
+                <c:ptCount val="303"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4797,6 +4809,9 @@
                 </c:pt>
                 <c:pt idx="301">
                   <c:v>79410</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>80698</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4905,9 +4920,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$303</c:f>
+              <c:f>Data!$A$2:$A$304</c:f>
               <c:strCache>
-                <c:ptCount val="302"/>
+                <c:ptCount val="303"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -5813,16 +5828,19 @@
                 </c:pt>
                 <c:pt idx="301">
                   <c:v>2020-11-18</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>2020-11-19</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$303</c:f>
+              <c:f>Data!$E$2:$E$304</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="302"/>
+                <c:ptCount val="303"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6728,6 +6746,9 @@
                 </c:pt>
                 <c:pt idx="301">
                   <c:v>15350</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>15573</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6836,9 +6857,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$303</c:f>
+              <c:f>Data!$A$2:$A$304</c:f>
               <c:strCache>
-                <c:ptCount val="302"/>
+                <c:ptCount val="303"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -7744,16 +7765,19 @@
                 </c:pt>
                 <c:pt idx="301">
                   <c:v>2020-11-18</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>2020-11-19</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$303</c:f>
+              <c:f>Data!$F$2:$F$304</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="302"/>
+                <c:ptCount val="303"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8659,6 +8683,9 @@
                 </c:pt>
                 <c:pt idx="301">
                   <c:v>4701</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>4859</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8767,9 +8794,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$303</c:f>
+              <c:f>Data!$A$2:$A$304</c:f>
               <c:strCache>
-                <c:ptCount val="302"/>
+                <c:ptCount val="303"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -9675,16 +9702,19 @@
                 </c:pt>
                 <c:pt idx="301">
                   <c:v>2020-11-18</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>2020-11-19</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$303</c:f>
+              <c:f>Data!$C$2:$C$304</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="302"/>
+                <c:ptCount val="303"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10590,6 +10620,9 @@
                 </c:pt>
                 <c:pt idx="301">
                   <c:v>241704</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>243675</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10885,9 +10918,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F303" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F303" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F303">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F304" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F304" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F304">
     <sortCondition ref="A1:A254"/>
   </sortState>
   <tableColumns count="6">
@@ -11223,9 +11256,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F303"/>
+  <dimension ref="A1:F304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A267" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A269" workbookViewId="0">
       <selection activeCell="I298" sqref="I298"/>
     </sheetView>
   </sheetViews>
@@ -17297,6 +17330,26 @@
       </c>
       <c r="F303">
         <v>4701</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>308</v>
+      </c>
+      <c r="B304">
+        <v>11556142</v>
+      </c>
+      <c r="C304">
+        <v>243675</v>
+      </c>
+      <c r="D304">
+        <v>80698</v>
+      </c>
+      <c r="E304">
+        <v>15573</v>
+      </c>
+      <c r="F304">
+        <v>4859</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathBeds.xlsx
+++ b/covid19/data/USCaseDeathBeds.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA225C7-1831-4512-8063-39E05BCEFECA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2896339C-FCFD-48A6-8686-5C1AEDFF17F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Deaths" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$304</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$305</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="310">
   <si>
     <t>date</t>
   </si>
@@ -958,6 +958,9 @@
   </si>
   <si>
     <t>2020-11-19</t>
+  </si>
+  <si>
+    <t>2020-11-20</t>
   </si>
 </sst>
 </file>
@@ -1046,9 +1049,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$304</c:f>
+              <c:f>Data!$A$2:$A$305</c:f>
               <c:strCache>
-                <c:ptCount val="303"/>
+                <c:ptCount val="304"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -1957,16 +1960,19 @@
                 </c:pt>
                 <c:pt idx="302">
                   <c:v>2020-11-19</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>2020-11-20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$304</c:f>
+              <c:f>Data!$B$2:$B$305</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="303"/>
+                <c:ptCount val="304"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2875,6 +2881,9 @@
                 </c:pt>
                 <c:pt idx="302">
                   <c:v>11556142</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>11748947</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2983,9 +2992,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$304</c:f>
+              <c:f>Data!$A$2:$A$305</c:f>
               <c:strCache>
-                <c:ptCount val="303"/>
+                <c:ptCount val="304"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -3894,16 +3903,19 @@
                 </c:pt>
                 <c:pt idx="302">
                   <c:v>2020-11-19</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>2020-11-20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$2:$D$304</c:f>
+              <c:f>Data!$D$2:$D$305</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="303"/>
+                <c:ptCount val="304"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4812,6 +4824,9 @@
                 </c:pt>
                 <c:pt idx="302">
                   <c:v>80698</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>82178</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4920,9 +4935,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$304</c:f>
+              <c:f>Data!$A$2:$A$305</c:f>
               <c:strCache>
-                <c:ptCount val="303"/>
+                <c:ptCount val="304"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -5831,16 +5846,19 @@
                 </c:pt>
                 <c:pt idx="302">
                   <c:v>2020-11-19</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>2020-11-20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$304</c:f>
+              <c:f>Data!$E$2:$E$305</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="303"/>
+                <c:ptCount val="304"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6749,6 +6767,9 @@
                 </c:pt>
                 <c:pt idx="302">
                   <c:v>15573</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>15915</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6857,9 +6878,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$304</c:f>
+              <c:f>Data!$A$2:$A$305</c:f>
               <c:strCache>
-                <c:ptCount val="303"/>
+                <c:ptCount val="304"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -7768,16 +7789,19 @@
                 </c:pt>
                 <c:pt idx="302">
                   <c:v>2020-11-19</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>2020-11-20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$304</c:f>
+              <c:f>Data!$F$2:$F$305</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="303"/>
+                <c:ptCount val="304"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8686,6 +8710,9 @@
                 </c:pt>
                 <c:pt idx="302">
                   <c:v>4859</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>5055</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8794,9 +8821,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$304</c:f>
+              <c:f>Data!$A$2:$A$305</c:f>
               <c:strCache>
-                <c:ptCount val="303"/>
+                <c:ptCount val="304"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -9705,16 +9732,19 @@
                 </c:pt>
                 <c:pt idx="302">
                   <c:v>2020-11-19</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>2020-11-20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$304</c:f>
+              <c:f>Data!$C$2:$C$305</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="303"/>
+                <c:ptCount val="304"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10623,6 +10653,9 @@
                 </c:pt>
                 <c:pt idx="302">
                   <c:v>243675</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>245537</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10918,9 +10951,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F304" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F304" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F304">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F305" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F305" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F305">
     <sortCondition ref="A1:A254"/>
   </sortState>
   <tableColumns count="6">
@@ -11256,10 +11289,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F304"/>
+  <dimension ref="A1:F305"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A269" workbookViewId="0">
-      <selection activeCell="I298" sqref="I298"/>
+      <selection activeCell="B305" sqref="B305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17350,6 +17383,26 @@
       </c>
       <c r="F304">
         <v>4859</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>309</v>
+      </c>
+      <c r="B305">
+        <v>11748947</v>
+      </c>
+      <c r="C305">
+        <v>245537</v>
+      </c>
+      <c r="D305">
+        <v>82178</v>
+      </c>
+      <c r="E305">
+        <v>15915</v>
+      </c>
+      <c r="F305">
+        <v>5055</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathBeds.xlsx
+++ b/covid19/data/USCaseDeathBeds.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2896339C-FCFD-48A6-8686-5C1AEDFF17F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6BC913-8307-4856-A17D-719C2D8E6FC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="Deaths" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$305</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$306</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="311">
   <si>
     <t>date</t>
   </si>
@@ -961,6 +961,9 @@
   </si>
   <si>
     <t>2020-11-20</t>
+  </si>
+  <si>
+    <t>2020-11-21</t>
   </si>
 </sst>
 </file>
@@ -1049,9 +1052,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$305</c:f>
+              <c:f>Data!$A$2:$A$306</c:f>
               <c:strCache>
-                <c:ptCount val="304"/>
+                <c:ptCount val="305"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -1963,16 +1966,19 @@
                 </c:pt>
                 <c:pt idx="303">
                   <c:v>2020-11-20</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>2020-11-21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$305</c:f>
+              <c:f>Data!$B$2:$B$306</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="304"/>
+                <c:ptCount val="305"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2884,6 +2890,9 @@
                 </c:pt>
                 <c:pt idx="303">
                   <c:v>11748947</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>11927256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2992,9 +3001,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$305</c:f>
+              <c:f>Data!$A$2:$A$306</c:f>
               <c:strCache>
-                <c:ptCount val="304"/>
+                <c:ptCount val="305"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -3906,16 +3915,19 @@
                 </c:pt>
                 <c:pt idx="303">
                   <c:v>2020-11-20</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>2020-11-21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$2:$D$305</c:f>
+              <c:f>Data!$D$2:$D$306</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="304"/>
+                <c:ptCount val="305"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4827,6 +4839,9 @@
                 </c:pt>
                 <c:pt idx="303">
                   <c:v>82178</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>83227</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4935,9 +4950,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$305</c:f>
+              <c:f>Data!$A$2:$A$306</c:f>
               <c:strCache>
-                <c:ptCount val="304"/>
+                <c:ptCount val="305"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -5849,16 +5864,19 @@
                 </c:pt>
                 <c:pt idx="303">
                   <c:v>2020-11-20</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>2020-11-21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$305</c:f>
+              <c:f>Data!$E$2:$E$306</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="304"/>
+                <c:ptCount val="305"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6770,6 +6788,9 @@
                 </c:pt>
                 <c:pt idx="303">
                   <c:v>15915</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>16054</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6878,9 +6899,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$305</c:f>
+              <c:f>Data!$A$2:$A$306</c:f>
               <c:strCache>
-                <c:ptCount val="304"/>
+                <c:ptCount val="305"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -7792,16 +7813,19 @@
                 </c:pt>
                 <c:pt idx="303">
                   <c:v>2020-11-20</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>2020-11-21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$305</c:f>
+              <c:f>Data!$F$2:$F$306</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="304"/>
+                <c:ptCount val="305"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8713,6 +8737,9 @@
                 </c:pt>
                 <c:pt idx="303">
                   <c:v>5055</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>5103</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8821,9 +8848,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$305</c:f>
+              <c:f>Data!$A$2:$A$306</c:f>
               <c:strCache>
-                <c:ptCount val="304"/>
+                <c:ptCount val="305"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -9735,16 +9762,19 @@
                 </c:pt>
                 <c:pt idx="303">
                   <c:v>2020-11-20</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>2020-11-21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$305</c:f>
+              <c:f>Data!$C$2:$C$306</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="304"/>
+                <c:ptCount val="305"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10656,6 +10686,9 @@
                 </c:pt>
                 <c:pt idx="303">
                   <c:v>245537</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>247043</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10951,9 +10984,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F305" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F305" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F305">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F306" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F306" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F306">
     <sortCondition ref="A1:A254"/>
   </sortState>
   <tableColumns count="6">
@@ -11289,9 +11322,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F305"/>
+  <dimension ref="A1:F306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A269" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
       <selection activeCell="B305" sqref="B305"/>
     </sheetView>
   </sheetViews>
@@ -17403,6 +17436,26 @@
       </c>
       <c r="F305">
         <v>5055</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>310</v>
+      </c>
+      <c r="B306">
+        <v>11927256</v>
+      </c>
+      <c r="C306">
+        <v>247043</v>
+      </c>
+      <c r="D306">
+        <v>83227</v>
+      </c>
+      <c r="E306">
+        <v>16054</v>
+      </c>
+      <c r="F306">
+        <v>5103</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathBeds.xlsx
+++ b/covid19/data/USCaseDeathBeds.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6BC913-8307-4856-A17D-719C2D8E6FC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1027887-739E-43E1-BAB4-6B140810865C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Deaths" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$306</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$307</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="312">
   <si>
     <t>date</t>
   </si>
@@ -964,6 +964,9 @@
   </si>
   <si>
     <t>2020-11-21</t>
+  </si>
+  <si>
+    <t>2020-11-22</t>
   </si>
 </sst>
 </file>
@@ -1052,9 +1055,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$306</c:f>
+              <c:f>Data!$A$2:$A$307</c:f>
               <c:strCache>
-                <c:ptCount val="305"/>
+                <c:ptCount val="306"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -1969,16 +1972,19 @@
                 </c:pt>
                 <c:pt idx="304">
                   <c:v>2020-11-21</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>2020-11-22</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$306</c:f>
+              <c:f>Data!$B$2:$B$307</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="305"/>
+                <c:ptCount val="306"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2893,6 +2899,9 @@
                 </c:pt>
                 <c:pt idx="304">
                   <c:v>11927256</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>12077354</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3001,9 +3010,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$306</c:f>
+              <c:f>Data!$A$2:$A$307</c:f>
               <c:strCache>
-                <c:ptCount val="305"/>
+                <c:ptCount val="306"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -3918,16 +3927,19 @@
                 </c:pt>
                 <c:pt idx="304">
                   <c:v>2020-11-21</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>2020-11-22</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$2:$D$306</c:f>
+              <c:f>Data!$D$2:$D$307</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="305"/>
+                <c:ptCount val="306"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4835,13 +4847,16 @@
                   <c:v>79410</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>80698</c:v>
+                  <c:v>80585</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>82178</c:v>
+                  <c:v>82150</c:v>
                 </c:pt>
                 <c:pt idx="304">
                   <c:v>83227</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>83782</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4950,9 +4965,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$306</c:f>
+              <c:f>Data!$A$2:$A$307</c:f>
               <c:strCache>
-                <c:ptCount val="305"/>
+                <c:ptCount val="306"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -5867,16 +5882,19 @@
                 </c:pt>
                 <c:pt idx="304">
                   <c:v>2020-11-21</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>2020-11-22</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$306</c:f>
+              <c:f>Data!$E$2:$E$307</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="305"/>
+                <c:ptCount val="306"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6784,13 +6802,16 @@
                   <c:v>15350</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>15573</c:v>
+                  <c:v>15572</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>15915</c:v>
+                  <c:v>15929</c:v>
                 </c:pt>
                 <c:pt idx="304">
                   <c:v>16054</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>16206</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6899,9 +6920,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$306</c:f>
+              <c:f>Data!$A$2:$A$307</c:f>
               <c:strCache>
-                <c:ptCount val="305"/>
+                <c:ptCount val="306"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -7816,16 +7837,19 @@
                 </c:pt>
                 <c:pt idx="304">
                   <c:v>2020-11-21</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>2020-11-22</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$306</c:f>
+              <c:f>Data!$F$2:$F$307</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="305"/>
+                <c:ptCount val="306"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8740,6 +8764,9 @@
                 </c:pt>
                 <c:pt idx="304">
                   <c:v>5103</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>5233</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8848,9 +8875,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$306</c:f>
+              <c:f>Data!$A$2:$A$307</c:f>
               <c:strCache>
-                <c:ptCount val="305"/>
+                <c:ptCount val="306"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -9765,16 +9792,19 @@
                 </c:pt>
                 <c:pt idx="304">
                   <c:v>2020-11-21</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>2020-11-22</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$306</c:f>
+              <c:f>Data!$C$2:$C$307</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="305"/>
+                <c:ptCount val="306"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10689,6 +10719,9 @@
                 </c:pt>
                 <c:pt idx="304">
                   <c:v>247043</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>247932</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10984,9 +11017,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F306" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F306" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F306">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F307" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F307" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F307">
     <sortCondition ref="A1:A254"/>
   </sortState>
   <tableColumns count="6">
@@ -11322,7 +11355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F306"/>
+  <dimension ref="A1:F307"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
       <selection activeCell="B305" sqref="B305"/>
@@ -17409,10 +17442,10 @@
         <v>243675</v>
       </c>
       <c r="D304">
-        <v>80698</v>
+        <v>80585</v>
       </c>
       <c r="E304">
-        <v>15573</v>
+        <v>15572</v>
       </c>
       <c r="F304">
         <v>4859</v>
@@ -17429,10 +17462,10 @@
         <v>245537</v>
       </c>
       <c r="D305">
-        <v>82178</v>
+        <v>82150</v>
       </c>
       <c r="E305">
-        <v>15915</v>
+        <v>15929</v>
       </c>
       <c r="F305">
         <v>5055</v>
@@ -17456,6 +17489,26 @@
       </c>
       <c r="F306">
         <v>5103</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>311</v>
+      </c>
+      <c r="B307">
+        <v>12077354</v>
+      </c>
+      <c r="C307">
+        <v>247932</v>
+      </c>
+      <c r="D307">
+        <v>83782</v>
+      </c>
+      <c r="E307">
+        <v>16206</v>
+      </c>
+      <c r="F307">
+        <v>5233</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathBeds.xlsx
+++ b/covid19/data/USCaseDeathBeds.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1027887-739E-43E1-BAB4-6B140810865C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66551A03-978E-4872-8DD6-E5EA65582586}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Deaths" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$307</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$308</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="313">
   <si>
     <t>date</t>
   </si>
@@ -967,6 +967,9 @@
   </si>
   <si>
     <t>2020-11-22</t>
+  </si>
+  <si>
+    <t>2020-11-23</t>
   </si>
 </sst>
 </file>
@@ -1055,9 +1058,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$307</c:f>
+              <c:f>Data!$A$2:$A$308</c:f>
               <c:strCache>
-                <c:ptCount val="306"/>
+                <c:ptCount val="307"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -1975,16 +1978,19 @@
                 </c:pt>
                 <c:pt idx="305">
                   <c:v>2020-11-22</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>2020-11-23</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$307</c:f>
+              <c:f>Data!$B$2:$B$308</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="306"/>
+                <c:ptCount val="307"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2109,52 +2115,52 @@
                   <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>144</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>284</c:v>
+                  <c:v>279</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>386</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>505</c:v>
+                  <c:v>497</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>672</c:v>
+                  <c:v>632</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>872</c:v>
+                  <c:v>827</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1166</c:v>
+                  <c:v>1112</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1573</c:v>
+                  <c:v>1551</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2075</c:v>
+                  <c:v>2054</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2761</c:v>
+                  <c:v>2796</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3816</c:v>
+                  <c:v>3748</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4737</c:v>
+                  <c:v>4730</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>6000</c:v>
+                  <c:v>5919</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>7785</c:v>
+                  <c:v>7777</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>10349</c:v>
+                  <c:v>10023</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>13386</c:v>
+                  <c:v>13387</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>18092</c:v>
@@ -2175,13 +2181,13 @@
                   <c:v>62379</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>75278</c:v>
+                  <c:v>75277</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>93001</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>112246</c:v>
+                  <c:v>112248</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>131847</c:v>
@@ -2304,7 +2310,7 @@
                   <c:v>1231282</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>1258686</c:v>
+                  <c:v>1258506</c:v>
                 </c:pt>
                 <c:pt idx="107">
                   <c:v>1285665</c:v>
@@ -2898,10 +2904,13 @@
                   <c:v>11748947</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>11927256</c:v>
+                  <c:v>11928661</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>12077354</c:v>
+                  <c:v>12079497</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>12230472</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3010,9 +3019,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$307</c:f>
+              <c:f>Data!$A$2:$A$308</c:f>
               <c:strCache>
-                <c:ptCount val="306"/>
+                <c:ptCount val="307"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -3930,16 +3939,19 @@
                 </c:pt>
                 <c:pt idx="305">
                   <c:v>2020-11-22</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>2020-11-23</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$2:$D$307</c:f>
+              <c:f>Data!$D$2:$D$308</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="306"/>
+                <c:ptCount val="307"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4853,10 +4865,13 @@
                   <c:v>82150</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>83227</c:v>
+                  <c:v>83232</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>83782</c:v>
+                  <c:v>83779</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>85836</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4965,9 +4980,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$307</c:f>
+              <c:f>Data!$A$2:$A$308</c:f>
               <c:strCache>
-                <c:ptCount val="306"/>
+                <c:ptCount val="307"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -5885,16 +5900,19 @@
                 </c:pt>
                 <c:pt idx="305">
                   <c:v>2020-11-22</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>2020-11-23</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$307</c:f>
+              <c:f>Data!$E$2:$E$308</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="306"/>
+                <c:ptCount val="307"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6808,10 +6826,13 @@
                   <c:v>15929</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>16054</c:v>
+                  <c:v>16058</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>16206</c:v>
+                  <c:v>16212</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>16811</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6920,9 +6941,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$307</c:f>
+              <c:f>Data!$A$2:$A$308</c:f>
               <c:strCache>
-                <c:ptCount val="306"/>
+                <c:ptCount val="307"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -7840,16 +7861,19 @@
                 </c:pt>
                 <c:pt idx="305">
                   <c:v>2020-11-22</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>2020-11-23</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$307</c:f>
+              <c:f>Data!$F$2:$F$308</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="306"/>
+                <c:ptCount val="307"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8767,6 +8791,9 @@
                 </c:pt>
                 <c:pt idx="305">
                   <c:v>5233</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>5411</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8875,9 +8902,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$307</c:f>
+              <c:f>Data!$A$2:$A$308</c:f>
               <c:strCache>
-                <c:ptCount val="306"/>
+                <c:ptCount val="307"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -9795,16 +9822,19 @@
                 </c:pt>
                 <c:pt idx="305">
                   <c:v>2020-11-22</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>2020-11-23</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$307</c:f>
+              <c:f>Data!$C$2:$C$308</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="306"/>
+                <c:ptCount val="307"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10718,10 +10748,13 @@
                   <c:v>245537</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>247043</c:v>
+                  <c:v>247049</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>247932</c:v>
+                  <c:v>247941</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>248897</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11017,9 +11050,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F307" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F307" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F307">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F308" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F308" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F308">
     <sortCondition ref="A1:A254"/>
   </sortState>
   <tableColumns count="6">
@@ -11355,7 +11388,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F307"/>
+  <dimension ref="A1:F308"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
       <selection activeCell="B305" sqref="B305"/>
@@ -12216,7 +12249,7 @@
         <v>47</v>
       </c>
       <c r="B43">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C43">
         <v>14</v>
@@ -12236,7 +12269,7 @@
         <v>48</v>
       </c>
       <c r="B44">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C44">
         <v>16</v>
@@ -12256,7 +12289,7 @@
         <v>49</v>
       </c>
       <c r="B45">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="C45">
         <v>20</v>
@@ -12276,7 +12309,7 @@
         <v>50</v>
       </c>
       <c r="B46">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="C46">
         <v>26</v>
@@ -12296,7 +12329,7 @@
         <v>51</v>
       </c>
       <c r="B47">
-        <v>672</v>
+        <v>632</v>
       </c>
       <c r="C47">
         <v>27</v>
@@ -12316,7 +12349,7 @@
         <v>52</v>
       </c>
       <c r="B48">
-        <v>872</v>
+        <v>827</v>
       </c>
       <c r="C48">
         <v>31</v>
@@ -12336,7 +12369,7 @@
         <v>53</v>
       </c>
       <c r="B49">
-        <v>1166</v>
+        <v>1112</v>
       </c>
       <c r="C49">
         <v>35</v>
@@ -12356,7 +12389,7 @@
         <v>54</v>
       </c>
       <c r="B50">
-        <v>1573</v>
+        <v>1551</v>
       </c>
       <c r="C50">
         <v>37</v>
@@ -12376,7 +12409,7 @@
         <v>55</v>
       </c>
       <c r="B51">
-        <v>2075</v>
+        <v>2054</v>
       </c>
       <c r="C51">
         <v>43</v>
@@ -12396,7 +12429,7 @@
         <v>56</v>
       </c>
       <c r="B52">
-        <v>2761</v>
+        <v>2796</v>
       </c>
       <c r="C52">
         <v>51</v>
@@ -12416,7 +12449,7 @@
         <v>57</v>
       </c>
       <c r="B53">
-        <v>3816</v>
+        <v>3748</v>
       </c>
       <c r="C53">
         <v>56</v>
@@ -12436,7 +12469,7 @@
         <v>58</v>
       </c>
       <c r="B54">
-        <v>4737</v>
+        <v>4730</v>
       </c>
       <c r="C54">
         <v>64</v>
@@ -12456,7 +12489,7 @@
         <v>59</v>
       </c>
       <c r="B55">
-        <v>6000</v>
+        <v>5919</v>
       </c>
       <c r="C55">
         <v>79</v>
@@ -12476,7 +12509,7 @@
         <v>60</v>
       </c>
       <c r="B56">
-        <v>7785</v>
+        <v>7777</v>
       </c>
       <c r="C56">
         <v>100</v>
@@ -12496,7 +12529,7 @@
         <v>61</v>
       </c>
       <c r="B57">
-        <v>10349</v>
+        <v>10023</v>
       </c>
       <c r="C57">
         <v>124</v>
@@ -12516,7 +12549,7 @@
         <v>62</v>
       </c>
       <c r="B58">
-        <v>13386</v>
+        <v>13387</v>
       </c>
       <c r="C58">
         <v>155</v>
@@ -12656,7 +12689,7 @@
         <v>69</v>
       </c>
       <c r="B65">
-        <v>75278</v>
+        <v>75277</v>
       </c>
       <c r="C65">
         <v>1058</v>
@@ -12696,7 +12729,7 @@
         <v>71</v>
       </c>
       <c r="B67">
-        <v>112246</v>
+        <v>112248</v>
       </c>
       <c r="C67">
         <v>1782</v>
@@ -13516,7 +13549,7 @@
         <v>112</v>
       </c>
       <c r="B108">
-        <v>1258686</v>
+        <v>1258506</v>
       </c>
       <c r="C108">
         <v>72363</v>
@@ -17476,16 +17509,16 @@
         <v>310</v>
       </c>
       <c r="B306">
-        <v>11927256</v>
+        <v>11928661</v>
       </c>
       <c r="C306">
-        <v>247043</v>
+        <v>247049</v>
       </c>
       <c r="D306">
-        <v>83227</v>
+        <v>83232</v>
       </c>
       <c r="E306">
-        <v>16054</v>
+        <v>16058</v>
       </c>
       <c r="F306">
         <v>5103</v>
@@ -17496,19 +17529,39 @@
         <v>311</v>
       </c>
       <c r="B307">
-        <v>12077354</v>
+        <v>12079497</v>
       </c>
       <c r="C307">
-        <v>247932</v>
+        <v>247941</v>
       </c>
       <c r="D307">
-        <v>83782</v>
+        <v>83779</v>
       </c>
       <c r="E307">
-        <v>16206</v>
+        <v>16212</v>
       </c>
       <c r="F307">
         <v>5233</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>312</v>
+      </c>
+      <c r="B308">
+        <v>12230472</v>
+      </c>
+      <c r="C308">
+        <v>248897</v>
+      </c>
+      <c r="D308">
+        <v>85836</v>
+      </c>
+      <c r="E308">
+        <v>16811</v>
+      </c>
+      <c r="F308">
+        <v>5411</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathBeds.xlsx
+++ b/covid19/data/USCaseDeathBeds.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66551A03-978E-4872-8DD6-E5EA65582586}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A953F9A7-746F-4D48-A921-0BB7499D0C5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Deaths" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$308</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$309</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="314">
   <si>
     <t>date</t>
   </si>
@@ -970,6 +970,9 @@
   </si>
   <si>
     <t>2020-11-23</t>
+  </si>
+  <si>
+    <t>2020-11-24</t>
   </si>
 </sst>
 </file>
@@ -1058,9 +1061,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$308</c:f>
+              <c:f>Data!$A$2:$A$309</c:f>
               <c:strCache>
-                <c:ptCount val="307"/>
+                <c:ptCount val="308"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -1981,16 +1984,19 @@
                 </c:pt>
                 <c:pt idx="306">
                   <c:v>2020-11-23</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>2020-11-24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$308</c:f>
+              <c:f>Data!$B$2:$B$309</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="307"/>
+                <c:ptCount val="308"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2911,6 +2917,9 @@
                 </c:pt>
                 <c:pt idx="306">
                   <c:v>12230472</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>12397144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3019,9 +3028,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$308</c:f>
+              <c:f>Data!$A$2:$A$309</c:f>
               <c:strCache>
-                <c:ptCount val="307"/>
+                <c:ptCount val="308"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -3942,16 +3951,19 @@
                 </c:pt>
                 <c:pt idx="306">
                   <c:v>2020-11-23</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>2020-11-24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$2:$D$308</c:f>
+              <c:f>Data!$D$2:$D$309</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="307"/>
+                <c:ptCount val="308"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4871,7 +4883,10 @@
                   <c:v>83779</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>85836</c:v>
+                  <c:v>85870</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>88080</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4980,9 +4995,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$308</c:f>
+              <c:f>Data!$A$2:$A$309</c:f>
               <c:strCache>
-                <c:ptCount val="307"/>
+                <c:ptCount val="308"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -5903,16 +5918,19 @@
                 </c:pt>
                 <c:pt idx="306">
                   <c:v>2020-11-23</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>2020-11-24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$308</c:f>
+              <c:f>Data!$E$2:$E$309</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="307"/>
+                <c:ptCount val="308"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6832,7 +6850,10 @@
                   <c:v>16212</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>16811</c:v>
+                  <c:v>16915</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>17127</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6941,9 +6962,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$308</c:f>
+              <c:f>Data!$A$2:$A$309</c:f>
               <c:strCache>
-                <c:ptCount val="307"/>
+                <c:ptCount val="308"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -7864,16 +7885,19 @@
                 </c:pt>
                 <c:pt idx="306">
                   <c:v>2020-11-23</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>2020-11-24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$308</c:f>
+              <c:f>Data!$F$2:$F$309</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="307"/>
+                <c:ptCount val="308"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8793,7 +8817,10 @@
                   <c:v>5233</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>5411</c:v>
+                  <c:v>5458</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>5630</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8902,9 +8929,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$308</c:f>
+              <c:f>Data!$A$2:$A$309</c:f>
               <c:strCache>
-                <c:ptCount val="307"/>
+                <c:ptCount val="308"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -9825,16 +9852,19 @@
                 </c:pt>
                 <c:pt idx="306">
                   <c:v>2020-11-23</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>2020-11-24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$308</c:f>
+              <c:f>Data!$C$2:$C$309</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="307"/>
+                <c:ptCount val="308"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10755,6 +10785,9 @@
                 </c:pt>
                 <c:pt idx="306">
                   <c:v>248897</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>250925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11050,9 +11083,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F308" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F308" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F308">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F309" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F309" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F309">
     <sortCondition ref="A1:A254"/>
   </sortState>
   <tableColumns count="6">
@@ -11388,7 +11421,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F308"/>
+  <dimension ref="A1:F309"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
       <selection activeCell="B305" sqref="B305"/>
@@ -17555,13 +17588,33 @@
         <v>248897</v>
       </c>
       <c r="D308">
-        <v>85836</v>
+        <v>85870</v>
       </c>
       <c r="E308">
-        <v>16811</v>
+        <v>16915</v>
       </c>
       <c r="F308">
-        <v>5411</v>
+        <v>5458</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>313</v>
+      </c>
+      <c r="B309">
+        <v>12397144</v>
+      </c>
+      <c r="C309">
+        <v>250925</v>
+      </c>
+      <c r="D309">
+        <v>88080</v>
+      </c>
+      <c r="E309">
+        <v>17127</v>
+      </c>
+      <c r="F309">
+        <v>5630</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathBeds.xlsx
+++ b/covid19/data/USCaseDeathBeds.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A953F9A7-746F-4D48-A921-0BB7499D0C5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982D1A3E-549A-4E06-8138-8F5959AFED62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Deaths" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$309</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$310</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="315">
   <si>
     <t>date</t>
   </si>
@@ -973,6 +973,9 @@
   </si>
   <si>
     <t>2020-11-24</t>
+  </si>
+  <si>
+    <t>2020-11-25</t>
   </si>
 </sst>
 </file>
@@ -1061,9 +1064,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$309</c:f>
+              <c:f>Data!$A$2:$A$310</c:f>
               <c:strCache>
-                <c:ptCount val="308"/>
+                <c:ptCount val="309"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -1987,16 +1990,19 @@
                 </c:pt>
                 <c:pt idx="307">
                   <c:v>2020-11-24</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>2020-11-25</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$309</c:f>
+              <c:f>Data!$B$2:$B$310</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="308"/>
+                <c:ptCount val="309"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2919,7 +2925,10 @@
                   <c:v>12230472</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>12397144</c:v>
+                  <c:v>12397484</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>12581085</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3028,9 +3037,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$309</c:f>
+              <c:f>Data!$A$2:$A$310</c:f>
               <c:strCache>
-                <c:ptCount val="308"/>
+                <c:ptCount val="309"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -3954,16 +3963,19 @@
                 </c:pt>
                 <c:pt idx="307">
                   <c:v>2020-11-24</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>2020-11-25</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$2:$D$309</c:f>
+              <c:f>Data!$D$2:$D$310</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="308"/>
+                <c:ptCount val="309"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4820,7 +4832,7 @@
                   <c:v>47531</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>48557</c:v>
+                  <c:v>48693</c:v>
                 </c:pt>
                 <c:pt idx="286">
                   <c:v>50426</c:v>
@@ -4887,6 +4899,9 @@
                 </c:pt>
                 <c:pt idx="307">
                   <c:v>88080</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>89959</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4995,9 +5010,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$309</c:f>
+              <c:f>Data!$A$2:$A$310</c:f>
               <c:strCache>
-                <c:ptCount val="308"/>
+                <c:ptCount val="309"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -5921,16 +5936,19 @@
                 </c:pt>
                 <c:pt idx="307">
                   <c:v>2020-11-24</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>2020-11-25</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$309</c:f>
+              <c:f>Data!$E$2:$E$310</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="308"/>
+                <c:ptCount val="309"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6787,7 +6805,7 @@
                   <c:v>9553</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>9858</c:v>
+                  <c:v>9867</c:v>
                 </c:pt>
                 <c:pt idx="286">
                   <c:v>10406</c:v>
@@ -6854,6 +6872,9 @@
                 </c:pt>
                 <c:pt idx="307">
                   <c:v>17127</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>17526</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6962,9 +6983,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$309</c:f>
+              <c:f>Data!$A$2:$A$310</c:f>
               <c:strCache>
-                <c:ptCount val="308"/>
+                <c:ptCount val="309"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -7888,16 +7909,19 @@
                 </c:pt>
                 <c:pt idx="307">
                   <c:v>2020-11-24</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>2020-11-25</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$309</c:f>
+              <c:f>Data!$F$2:$F$310</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="308"/>
+                <c:ptCount val="309"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8821,6 +8845,9 @@
                 </c:pt>
                 <c:pt idx="307">
                   <c:v>5630</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>5990</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8929,9 +8956,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$309</c:f>
+              <c:f>Data!$A$2:$A$310</c:f>
               <c:strCache>
-                <c:ptCount val="308"/>
+                <c:ptCount val="309"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -9855,16 +9882,19 @@
                 </c:pt>
                 <c:pt idx="307">
                   <c:v>2020-11-24</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>2020-11-25</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$309</c:f>
+              <c:f>Data!$C$2:$C$310</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="308"/>
+                <c:ptCount val="309"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10787,7 +10817,10 @@
                   <c:v>248897</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>250925</c:v>
+                  <c:v>250926</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>253211</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11083,9 +11116,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F309" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F309" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F309">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F310" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F310" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F310">
     <sortCondition ref="A1:A254"/>
   </sortState>
   <tableColumns count="6">
@@ -11421,7 +11454,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F309"/>
+  <dimension ref="A1:F310"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
       <selection activeCell="B305" sqref="B305"/>
@@ -17168,10 +17201,10 @@
         <v>223217</v>
       </c>
       <c r="D287">
-        <v>48557</v>
+        <v>48693</v>
       </c>
       <c r="E287">
-        <v>9858</v>
+        <v>9867</v>
       </c>
       <c r="F287">
         <v>2637</v>
@@ -17602,10 +17635,10 @@
         <v>313</v>
       </c>
       <c r="B309">
-        <v>12397144</v>
+        <v>12397484</v>
       </c>
       <c r="C309">
-        <v>250925</v>
+        <v>250926</v>
       </c>
       <c r="D309">
         <v>88080</v>
@@ -17615,6 +17648,26 @@
       </c>
       <c r="F309">
         <v>5630</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>314</v>
+      </c>
+      <c r="B310">
+        <v>12581085</v>
+      </c>
+      <c r="C310">
+        <v>253211</v>
+      </c>
+      <c r="D310">
+        <v>89959</v>
+      </c>
+      <c r="E310">
+        <v>17526</v>
+      </c>
+      <c r="F310">
+        <v>5990</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathBeds.xlsx
+++ b/covid19/data/USCaseDeathBeds.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982D1A3E-549A-4E06-8138-8F5959AFED62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599172D4-2144-459A-B3A5-6BDEB01061C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Deaths" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$310</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$311</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="316">
   <si>
     <t>date</t>
   </si>
@@ -976,6 +976,9 @@
   </si>
   <si>
     <t>2020-11-25</t>
+  </si>
+  <si>
+    <t>2020-11-26</t>
   </si>
 </sst>
 </file>
@@ -1064,9 +1067,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$310</c:f>
+              <c:f>Data!$A$2:$A$311</c:f>
               <c:strCache>
-                <c:ptCount val="309"/>
+                <c:ptCount val="310"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -1993,16 +1996,19 @@
                 </c:pt>
                 <c:pt idx="308">
                   <c:v>2020-11-25</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>2020-11-26</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$310</c:f>
+              <c:f>Data!$B$2:$B$311</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="309"/>
+                <c:ptCount val="310"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2929,6 +2935,9 @@
                 </c:pt>
                 <c:pt idx="308">
                   <c:v>12581085</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>12706167</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3037,9 +3046,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$310</c:f>
+              <c:f>Data!$A$2:$A$311</c:f>
               <c:strCache>
-                <c:ptCount val="309"/>
+                <c:ptCount val="310"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -3966,16 +3975,19 @@
                 </c:pt>
                 <c:pt idx="308">
                   <c:v>2020-11-25</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>2020-11-26</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$2:$D$310</c:f>
+              <c:f>Data!$D$2:$D$311</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="309"/>
+                <c:ptCount val="310"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4902,6 +4914,9 @@
                 </c:pt>
                 <c:pt idx="308">
                   <c:v>89959</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>90481</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5010,9 +5025,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$310</c:f>
+              <c:f>Data!$A$2:$A$311</c:f>
               <c:strCache>
-                <c:ptCount val="309"/>
+                <c:ptCount val="310"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -5939,16 +5954,19 @@
                 </c:pt>
                 <c:pt idx="308">
                   <c:v>2020-11-25</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>2020-11-26</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$310</c:f>
+              <c:f>Data!$E$2:$E$311</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="309"/>
+                <c:ptCount val="310"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6875,6 +6893,9 @@
                 </c:pt>
                 <c:pt idx="308">
                   <c:v>17526</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>17802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6983,9 +7004,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$310</c:f>
+              <c:f>Data!$A$2:$A$311</c:f>
               <c:strCache>
-                <c:ptCount val="309"/>
+                <c:ptCount val="310"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -7912,16 +7933,19 @@
                 </c:pt>
                 <c:pt idx="308">
                   <c:v>2020-11-25</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>2020-11-26</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$310</c:f>
+              <c:f>Data!$F$2:$F$311</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="309"/>
+                <c:ptCount val="310"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8848,6 +8872,9 @@
                 </c:pt>
                 <c:pt idx="308">
                   <c:v>5990</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>5979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8956,9 +8983,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$310</c:f>
+              <c:f>Data!$A$2:$A$311</c:f>
               <c:strCache>
-                <c:ptCount val="309"/>
+                <c:ptCount val="310"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -9885,16 +9912,19 @@
                 </c:pt>
                 <c:pt idx="308">
                   <c:v>2020-11-25</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>2020-11-26</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$310</c:f>
+              <c:f>Data!$C$2:$C$311</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="309"/>
+                <c:ptCount val="310"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10821,6 +10851,9 @@
                 </c:pt>
                 <c:pt idx="308">
                   <c:v>253211</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>254530</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11116,9 +11149,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F310" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F310" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F310">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F311" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F311" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F311">
     <sortCondition ref="A1:A254"/>
   </sortState>
   <tableColumns count="6">
@@ -11454,9 +11487,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F310"/>
+  <dimension ref="A1:F311"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A275" workbookViewId="0">
       <selection activeCell="B305" sqref="B305"/>
     </sheetView>
   </sheetViews>
@@ -17668,6 +17701,26 @@
       </c>
       <c r="F310">
         <v>5990</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>315</v>
+      </c>
+      <c r="B311">
+        <v>12706167</v>
+      </c>
+      <c r="C311">
+        <v>254530</v>
+      </c>
+      <c r="D311">
+        <v>90481</v>
+      </c>
+      <c r="E311">
+        <v>17802</v>
+      </c>
+      <c r="F311">
+        <v>5979</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathBeds.xlsx
+++ b/covid19/data/USCaseDeathBeds.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599172D4-2144-459A-B3A5-6BDEB01061C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBD3B88-9DF0-4543-8BB3-ACD610429EA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Deaths" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$311</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$312</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="317">
   <si>
     <t>date</t>
   </si>
@@ -979,6 +979,9 @@
   </si>
   <si>
     <t>2020-11-26</t>
+  </si>
+  <si>
+    <t>2020-11-27</t>
   </si>
 </sst>
 </file>
@@ -1067,9 +1070,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$311</c:f>
+              <c:f>Data!$A$2:$A$312</c:f>
               <c:strCache>
-                <c:ptCount val="310"/>
+                <c:ptCount val="311"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -1999,16 +2002,19 @@
                 </c:pt>
                 <c:pt idx="309">
                   <c:v>2020-11-26</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>2020-11-27</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$311</c:f>
+              <c:f>Data!$B$2:$B$312</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="310"/>
+                <c:ptCount val="311"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2938,6 +2944,9 @@
                 </c:pt>
                 <c:pt idx="309">
                   <c:v>12706167</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>12901146</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3046,9 +3055,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$311</c:f>
+              <c:f>Data!$A$2:$A$312</c:f>
               <c:strCache>
-                <c:ptCount val="310"/>
+                <c:ptCount val="311"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -3978,16 +3987,19 @@
                 </c:pt>
                 <c:pt idx="309">
                   <c:v>2020-11-26</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>2020-11-27</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$2:$D$311</c:f>
+              <c:f>Data!$D$2:$D$312</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="310"/>
+                <c:ptCount val="311"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4917,6 +4929,9 @@
                 </c:pt>
                 <c:pt idx="309">
                   <c:v>90481</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>89834</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5025,9 +5040,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$311</c:f>
+              <c:f>Data!$A$2:$A$312</c:f>
               <c:strCache>
-                <c:ptCount val="310"/>
+                <c:ptCount val="311"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -5957,16 +5972,19 @@
                 </c:pt>
                 <c:pt idx="309">
                   <c:v>2020-11-26</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>2020-11-27</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$311</c:f>
+              <c:f>Data!$E$2:$E$312</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="310"/>
+                <c:ptCount val="311"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6896,6 +6914,9 @@
                 </c:pt>
                 <c:pt idx="309">
                   <c:v>17802</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>17835</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7004,9 +7025,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$311</c:f>
+              <c:f>Data!$A$2:$A$312</c:f>
               <c:strCache>
-                <c:ptCount val="310"/>
+                <c:ptCount val="311"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -7936,16 +7957,19 @@
                 </c:pt>
                 <c:pt idx="309">
                   <c:v>2020-11-26</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>2020-11-27</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$311</c:f>
+              <c:f>Data!$F$2:$F$312</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="310"/>
+                <c:ptCount val="311"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8875,6 +8899,9 @@
                 </c:pt>
                 <c:pt idx="309">
                   <c:v>5979</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>6030</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8983,9 +9010,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$311</c:f>
+              <c:f>Data!$A$2:$A$312</c:f>
               <c:strCache>
-                <c:ptCount val="310"/>
+                <c:ptCount val="311"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -9915,16 +9942,19 @@
                 </c:pt>
                 <c:pt idx="309">
                   <c:v>2020-11-26</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>2020-11-27</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$311</c:f>
+              <c:f>Data!$C$2:$C$312</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="310"/>
+                <c:ptCount val="311"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10854,6 +10884,9 @@
                 </c:pt>
                 <c:pt idx="309">
                   <c:v>254530</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>255904</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11149,9 +11182,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F311" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F311" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F311">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F312" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F312" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F312">
     <sortCondition ref="A1:A254"/>
   </sortState>
   <tableColumns count="6">
@@ -11487,9 +11520,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F311"/>
+  <dimension ref="A1:F312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A275" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A279" workbookViewId="0">
       <selection activeCell="B305" sqref="B305"/>
     </sheetView>
   </sheetViews>
@@ -17721,6 +17754,26 @@
       </c>
       <c r="F311">
         <v>5979</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>316</v>
+      </c>
+      <c r="B312">
+        <v>12901146</v>
+      </c>
+      <c r="C312">
+        <v>255904</v>
+      </c>
+      <c r="D312">
+        <v>89834</v>
+      </c>
+      <c r="E312">
+        <v>17835</v>
+      </c>
+      <c r="F312">
+        <v>6030</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathBeds.xlsx
+++ b/covid19/data/USCaseDeathBeds.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBD3B88-9DF0-4543-8BB3-ACD610429EA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D24BAB-ADE1-4913-B602-97AE44C01AD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="Deaths" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$312</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$313</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="318">
   <si>
     <t>date</t>
   </si>
@@ -982,6 +982,9 @@
   </si>
   <si>
     <t>2020-11-27</t>
+  </si>
+  <si>
+    <t>2020-11-28</t>
   </si>
 </sst>
 </file>
@@ -1070,9 +1073,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$312</c:f>
+              <c:f>Data!$A$2:$A$313</c:f>
               <c:strCache>
-                <c:ptCount val="311"/>
+                <c:ptCount val="312"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -2005,16 +2008,19 @@
                 </c:pt>
                 <c:pt idx="310">
                   <c:v>2020-11-27</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>2020-11-28</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$312</c:f>
+              <c:f>Data!$B$2:$B$313</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="311"/>
+                <c:ptCount val="312"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2947,6 +2953,9 @@
                 </c:pt>
                 <c:pt idx="310">
                   <c:v>12901146</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>13054593</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3055,9 +3064,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$312</c:f>
+              <c:f>Data!$A$2:$A$313</c:f>
               <c:strCache>
-                <c:ptCount val="311"/>
+                <c:ptCount val="312"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -3990,16 +3999,19 @@
                 </c:pt>
                 <c:pt idx="310">
                   <c:v>2020-11-27</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>2020-11-28</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$2:$D$312</c:f>
+              <c:f>Data!$D$2:$D$313</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="311"/>
+                <c:ptCount val="312"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4932,6 +4944,9 @@
                 </c:pt>
                 <c:pt idx="310">
                   <c:v>89834</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>91635</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5040,9 +5055,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$312</c:f>
+              <c:f>Data!$A$2:$A$313</c:f>
               <c:strCache>
-                <c:ptCount val="311"/>
+                <c:ptCount val="312"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -5975,16 +5990,19 @@
                 </c:pt>
                 <c:pt idx="310">
                   <c:v>2020-11-27</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>2020-11-28</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$312</c:f>
+              <c:f>Data!$E$2:$E$313</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="311"/>
+                <c:ptCount val="312"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6917,6 +6935,9 @@
                 </c:pt>
                 <c:pt idx="310">
                   <c:v>17835</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>18040</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7025,9 +7046,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$312</c:f>
+              <c:f>Data!$A$2:$A$313</c:f>
               <c:strCache>
-                <c:ptCount val="311"/>
+                <c:ptCount val="312"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -7960,16 +7981,19 @@
                 </c:pt>
                 <c:pt idx="310">
                   <c:v>2020-11-27</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>2020-11-28</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$312</c:f>
+              <c:f>Data!$F$2:$F$313</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="311"/>
+                <c:ptCount val="312"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8902,6 +8926,9 @@
                 </c:pt>
                 <c:pt idx="310">
                   <c:v>6030</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>6152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9010,9 +9037,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$312</c:f>
+              <c:f>Data!$A$2:$A$313</c:f>
               <c:strCache>
-                <c:ptCount val="311"/>
+                <c:ptCount val="312"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -9945,16 +9972,19 @@
                 </c:pt>
                 <c:pt idx="310">
                   <c:v>2020-11-27</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>2020-11-28</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$312</c:f>
+              <c:f>Data!$C$2:$C$313</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="311"/>
+                <c:ptCount val="312"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10887,6 +10917,9 @@
                 </c:pt>
                 <c:pt idx="310">
                   <c:v>255904</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>257119</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11182,9 +11215,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F312" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F312" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F312">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F313" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F313" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F313">
     <sortCondition ref="A1:A254"/>
   </sortState>
   <tableColumns count="6">
@@ -11520,7 +11553,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F312"/>
+  <dimension ref="A1:F313"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A279" workbookViewId="0">
       <selection activeCell="B305" sqref="B305"/>
@@ -17774,6 +17807,26 @@
       </c>
       <c r="F312">
         <v>6030</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>317</v>
+      </c>
+      <c r="B313">
+        <v>13054593</v>
+      </c>
+      <c r="C313">
+        <v>257119</v>
+      </c>
+      <c r="D313">
+        <v>91635</v>
+      </c>
+      <c r="E313">
+        <v>18040</v>
+      </c>
+      <c r="F313">
+        <v>6152</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathBeds.xlsx
+++ b/covid19/data/USCaseDeathBeds.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D24BAB-ADE1-4913-B602-97AE44C01AD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD0602C-0424-4CF0-9CE6-235266330E91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Deaths" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$313</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$314</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="319">
   <si>
     <t>date</t>
   </si>
@@ -985,6 +985,9 @@
   </si>
   <si>
     <t>2020-11-28</t>
+  </si>
+  <si>
+    <t>2020-11-29</t>
   </si>
 </sst>
 </file>
@@ -1073,9 +1076,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$313</c:f>
+              <c:f>Data!$A$2:$A$314</c:f>
               <c:strCache>
-                <c:ptCount val="312"/>
+                <c:ptCount val="313"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -2011,16 +2014,19 @@
                 </c:pt>
                 <c:pt idx="311">
                   <c:v>2020-11-28</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>2020-11-29</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$313</c:f>
+              <c:f>Data!$B$2:$B$314</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="312"/>
+                <c:ptCount val="313"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2956,6 +2962,9 @@
                 </c:pt>
                 <c:pt idx="311">
                   <c:v>13054593</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>13188777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3064,9 +3073,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$313</c:f>
+              <c:f>Data!$A$2:$A$314</c:f>
               <c:strCache>
-                <c:ptCount val="312"/>
+                <c:ptCount val="313"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -4002,16 +4011,19 @@
                 </c:pt>
                 <c:pt idx="311">
                   <c:v>2020-11-28</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>2020-11-29</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$2:$D$313</c:f>
+              <c:f>Data!$D$2:$D$314</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="312"/>
+                <c:ptCount val="313"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4947,6 +4959,9 @@
                 </c:pt>
                 <c:pt idx="311">
                   <c:v>91635</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>93219</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5055,9 +5070,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$313</c:f>
+              <c:f>Data!$A$2:$A$314</c:f>
               <c:strCache>
-                <c:ptCount val="312"/>
+                <c:ptCount val="313"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -5993,16 +6008,19 @@
                 </c:pt>
                 <c:pt idx="311">
                   <c:v>2020-11-28</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>2020-11-29</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$313</c:f>
+              <c:f>Data!$E$2:$E$314</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="312"/>
+                <c:ptCount val="313"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6938,6 +6956,9 @@
                 </c:pt>
                 <c:pt idx="311">
                   <c:v>18040</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>18198</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7046,9 +7067,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$313</c:f>
+              <c:f>Data!$A$2:$A$314</c:f>
               <c:strCache>
-                <c:ptCount val="312"/>
+                <c:ptCount val="313"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -7984,16 +8005,19 @@
                 </c:pt>
                 <c:pt idx="311">
                   <c:v>2020-11-28</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>2020-11-29</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$313</c:f>
+              <c:f>Data!$F$2:$F$314</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="312"/>
+                <c:ptCount val="313"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8929,6 +8953,9 @@
                 </c:pt>
                 <c:pt idx="311">
                   <c:v>6152</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>6249</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9037,9 +9064,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$313</c:f>
+              <c:f>Data!$A$2:$A$314</c:f>
               <c:strCache>
-                <c:ptCount val="312"/>
+                <c:ptCount val="313"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -9975,16 +10002,19 @@
                 </c:pt>
                 <c:pt idx="311">
                   <c:v>2020-11-28</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>2020-11-29</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$313</c:f>
+              <c:f>Data!$C$2:$C$314</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="312"/>
+                <c:ptCount val="313"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10920,6 +10950,9 @@
                 </c:pt>
                 <c:pt idx="311">
                   <c:v>257119</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>257920</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11215,9 +11248,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F313" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F313" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F313">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F314" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F314" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F314">
     <sortCondition ref="A1:A254"/>
   </sortState>
   <tableColumns count="6">
@@ -11553,7 +11586,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F313"/>
+  <dimension ref="A1:F314"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A279" workbookViewId="0">
       <selection activeCell="B305" sqref="B305"/>
@@ -17827,6 +17860,26 @@
       </c>
       <c r="F313">
         <v>6152</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>318</v>
+      </c>
+      <c r="B314">
+        <v>13188777</v>
+      </c>
+      <c r="C314">
+        <v>257920</v>
+      </c>
+      <c r="D314">
+        <v>93219</v>
+      </c>
+      <c r="E314">
+        <v>18198</v>
+      </c>
+      <c r="F314">
+        <v>6249</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathBeds.xlsx
+++ b/covid19/data/USCaseDeathBeds.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD0602C-0424-4CF0-9CE6-235266330E91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D6EA05-B672-4E22-BD31-584AA40EDA5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Deaths" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$314</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$315</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="320">
   <si>
     <t>date</t>
   </si>
@@ -988,6 +988,9 @@
   </si>
   <si>
     <t>2020-11-29</t>
+  </si>
+  <si>
+    <t>2020-11-30</t>
   </si>
 </sst>
 </file>
@@ -1076,9 +1079,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$314</c:f>
+              <c:f>Data!$A$2:$A$315</c:f>
               <c:strCache>
-                <c:ptCount val="313"/>
+                <c:ptCount val="314"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -2017,16 +2020,19 @@
                 </c:pt>
                 <c:pt idx="312">
                   <c:v>2020-11-29</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>2020-11-30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$314</c:f>
+              <c:f>Data!$B$2:$B$315</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="313"/>
+                <c:ptCount val="314"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2955,16 +2961,19 @@
                   <c:v>12581085</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>12706167</c:v>
+                  <c:v>12707341</c:v>
                 </c:pt>
                 <c:pt idx="310">
                   <c:v>12901146</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>13054593</c:v>
+                  <c:v>13055656</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>13188777</c:v>
+                  <c:v>13190895</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>13337969</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3073,9 +3082,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$314</c:f>
+              <c:f>Data!$A$2:$A$315</c:f>
               <c:strCache>
-                <c:ptCount val="313"/>
+                <c:ptCount val="314"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -4014,16 +4023,19 @@
                 </c:pt>
                 <c:pt idx="312">
                   <c:v>2020-11-29</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>2020-11-30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$2:$D$314</c:f>
+              <c:f>Data!$D$2:$D$315</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="313"/>
+                <c:ptCount val="314"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4952,16 +4964,19 @@
                   <c:v>89959</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>90481</c:v>
+                  <c:v>90443</c:v>
                 </c:pt>
                 <c:pt idx="310">
                   <c:v>89834</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>91635</c:v>
+                  <c:v>91665</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>93219</c:v>
+                  <c:v>93265</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>96039</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5070,9 +5085,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$314</c:f>
+              <c:f>Data!$A$2:$A$315</c:f>
               <c:strCache>
-                <c:ptCount val="313"/>
+                <c:ptCount val="314"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -6011,16 +6026,19 @@
                 </c:pt>
                 <c:pt idx="312">
                   <c:v>2020-11-29</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>2020-11-30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$314</c:f>
+              <c:f>Data!$E$2:$E$315</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="313"/>
+                <c:ptCount val="314"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6949,16 +6967,19 @@
                   <c:v>17526</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>17802</c:v>
+                  <c:v>17804</c:v>
                 </c:pt>
                 <c:pt idx="310">
                   <c:v>17835</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>18040</c:v>
+                  <c:v>18042</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>18198</c:v>
+                  <c:v>18201</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>18545</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7067,9 +7088,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$314</c:f>
+              <c:f>Data!$A$2:$A$315</c:f>
               <c:strCache>
-                <c:ptCount val="313"/>
+                <c:ptCount val="314"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -8008,16 +8029,19 @@
                 </c:pt>
                 <c:pt idx="312">
                   <c:v>2020-11-29</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>2020-11-30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$314</c:f>
+              <c:f>Data!$F$2:$F$315</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="313"/>
+                <c:ptCount val="314"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8946,16 +8970,19 @@
                   <c:v>5990</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>5979</c:v>
+                  <c:v>5986</c:v>
                 </c:pt>
                 <c:pt idx="310">
                   <c:v>6030</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>6152</c:v>
+                  <c:v>6148</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>6249</c:v>
+                  <c:v>6245</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>6520</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9064,9 +9091,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$314</c:f>
+              <c:f>Data!$A$2:$A$315</c:f>
               <c:strCache>
-                <c:ptCount val="313"/>
+                <c:ptCount val="314"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -10005,16 +10032,19 @@
                 </c:pt>
                 <c:pt idx="312">
                   <c:v>2020-11-29</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>2020-11-30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$314</c:f>
+              <c:f>Data!$C$2:$C$315</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="313"/>
+                <c:ptCount val="314"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10943,16 +10973,19 @@
                   <c:v>253211</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>254530</c:v>
+                  <c:v>254537</c:v>
                 </c:pt>
                 <c:pt idx="310">
                   <c:v>255904</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>257119</c:v>
+                  <c:v>257136</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>257920</c:v>
+                  <c:v>257939</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>259075</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11248,9 +11281,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F314" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F314" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F314">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F315" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F315" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F315">
     <sortCondition ref="A1:A254"/>
   </sortState>
   <tableColumns count="6">
@@ -11586,7 +11619,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F314"/>
+  <dimension ref="A1:F315"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A279" workbookViewId="0">
       <selection activeCell="B305" sqref="B305"/>
@@ -17807,19 +17840,19 @@
         <v>315</v>
       </c>
       <c r="B311">
-        <v>12706167</v>
+        <v>12707341</v>
       </c>
       <c r="C311">
-        <v>254530</v>
+        <v>254537</v>
       </c>
       <c r="D311">
-        <v>90481</v>
+        <v>90443</v>
       </c>
       <c r="E311">
-        <v>17802</v>
+        <v>17804</v>
       </c>
       <c r="F311">
-        <v>5979</v>
+        <v>5986</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
@@ -17847,19 +17880,19 @@
         <v>317</v>
       </c>
       <c r="B313">
-        <v>13054593</v>
+        <v>13055656</v>
       </c>
       <c r="C313">
-        <v>257119</v>
+        <v>257136</v>
       </c>
       <c r="D313">
-        <v>91635</v>
+        <v>91665</v>
       </c>
       <c r="E313">
-        <v>18040</v>
+        <v>18042</v>
       </c>
       <c r="F313">
-        <v>6152</v>
+        <v>6148</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
@@ -17867,19 +17900,39 @@
         <v>318</v>
       </c>
       <c r="B314">
-        <v>13188777</v>
+        <v>13190895</v>
       </c>
       <c r="C314">
-        <v>257920</v>
+        <v>257939</v>
       </c>
       <c r="D314">
-        <v>93219</v>
+        <v>93265</v>
       </c>
       <c r="E314">
-        <v>18198</v>
+        <v>18201</v>
       </c>
       <c r="F314">
-        <v>6249</v>
+        <v>6245</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>319</v>
+      </c>
+      <c r="B315">
+        <v>13337969</v>
+      </c>
+      <c r="C315">
+        <v>259075</v>
+      </c>
+      <c r="D315">
+        <v>96039</v>
+      </c>
+      <c r="E315">
+        <v>18545</v>
+      </c>
+      <c r="F315">
+        <v>6520</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathBeds.xlsx
+++ b/covid19/data/USCaseDeathBeds.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D6EA05-B672-4E22-BD31-584AA40EDA5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2680FF18-1610-42D1-97C9-F08FD3379FFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="Deaths" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$315</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$316</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="321">
   <si>
     <t>date</t>
   </si>
@@ -991,6 +991,9 @@
   </si>
   <si>
     <t>2020-11-30</t>
+  </si>
+  <si>
+    <t>2020-12-01</t>
   </si>
 </sst>
 </file>
@@ -1079,9 +1082,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$315</c:f>
+              <c:f>Data!$A$2:$A$316</c:f>
               <c:strCache>
-                <c:ptCount val="314"/>
+                <c:ptCount val="315"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -2023,16 +2026,19 @@
                 </c:pt>
                 <c:pt idx="313">
                   <c:v>2020-11-30</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>2020-12-01</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$315</c:f>
+              <c:f>Data!$B$2:$B$316</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="314"/>
+                <c:ptCount val="315"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2973,7 +2979,10 @@
                   <c:v>13190895</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>13337969</c:v>
+                  <c:v>13338483</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>13515234</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3082,9 +3091,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$315</c:f>
+              <c:f>Data!$A$2:$A$316</c:f>
               <c:strCache>
-                <c:ptCount val="314"/>
+                <c:ptCount val="315"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -4026,16 +4035,19 @@
                 </c:pt>
                 <c:pt idx="313">
                   <c:v>2020-11-30</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>2020-12-01</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$2:$D$315</c:f>
+              <c:f>Data!$D$2:$D$316</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="314"/>
+                <c:ptCount val="315"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4976,7 +4988,10 @@
                   <c:v>93265</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>96039</c:v>
+                  <c:v>96053</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>98691</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5085,9 +5100,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$315</c:f>
+              <c:f>Data!$A$2:$A$316</c:f>
               <c:strCache>
-                <c:ptCount val="314"/>
+                <c:ptCount val="315"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -6029,16 +6044,19 @@
                 </c:pt>
                 <c:pt idx="313">
                   <c:v>2020-11-30</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>2020-12-01</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$315</c:f>
+              <c:f>Data!$E$2:$E$316</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="314"/>
+                <c:ptCount val="315"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6980,6 +6998,9 @@
                 </c:pt>
                 <c:pt idx="313">
                   <c:v>18545</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>19035</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7088,9 +7109,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$315</c:f>
+              <c:f>Data!$A$2:$A$316</c:f>
               <c:strCache>
-                <c:ptCount val="314"/>
+                <c:ptCount val="315"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -8032,16 +8053,19 @@
                 </c:pt>
                 <c:pt idx="313">
                   <c:v>2020-11-30</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>2020-12-01</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$315</c:f>
+              <c:f>Data!$F$2:$F$316</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="314"/>
+                <c:ptCount val="315"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8983,6 +9007,9 @@
                 </c:pt>
                 <c:pt idx="313">
                   <c:v>6520</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>6649</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9091,9 +9118,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$315</c:f>
+              <c:f>Data!$A$2:$A$316</c:f>
               <c:strCache>
-                <c:ptCount val="314"/>
+                <c:ptCount val="315"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -10035,16 +10062,19 @@
                 </c:pt>
                 <c:pt idx="313">
                   <c:v>2020-11-30</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>2020-12-01</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$315</c:f>
+              <c:f>Data!$C$2:$C$316</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="314"/>
+                <c:ptCount val="315"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10352,640 +10382,643 @@
                   <c:v>62938</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>64172</c:v>
+                  <c:v>64181</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>65199</c:v>
+                  <c:v>65209</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>67695</c:v>
+                  <c:v>67703</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>69610</c:v>
+                  <c:v>69619</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>72363</c:v>
+                  <c:v>72371</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>74143</c:v>
+                  <c:v>74152</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>75597</c:v>
+                  <c:v>75608</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>76629</c:v>
+                  <c:v>76640</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>77522</c:v>
+                  <c:v>77534</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>79027</c:v>
+                  <c:v>79040</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>80763</c:v>
+                  <c:v>80774</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>82617</c:v>
+                  <c:v>82626</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>83882</c:v>
+                  <c:v>83889</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>85077</c:v>
+                  <c:v>85084</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>85926</c:v>
+                  <c:v>85934</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>86816</c:v>
+                  <c:v>86823</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>88147</c:v>
+                  <c:v>88155</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>89533</c:v>
+                  <c:v>89545</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>90959</c:v>
+                  <c:v>90972</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>92262</c:v>
+                  <c:v>92275</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>93297</c:v>
+                  <c:v>93310</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>93980</c:v>
+                  <c:v>93994</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>94533</c:v>
+                  <c:v>94548</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>95206</c:v>
+                  <c:v>95220</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>96521</c:v>
+                  <c:v>96536</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>97766</c:v>
+                  <c:v>97778</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>98933</c:v>
+                  <c:v>98947</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>99850</c:v>
+                  <c:v>99865</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>100500</c:v>
+                  <c:v>100516</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>101173</c:v>
+                  <c:v>101187</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>102173</c:v>
+                  <c:v>102187</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>103152</c:v>
+                  <c:v>103167</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>104020</c:v>
+                  <c:v>104031</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>104860</c:v>
+                  <c:v>104875</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>105570</c:v>
+                  <c:v>105586</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>106016</c:v>
+                  <c:v>106032</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>106695</c:v>
+                  <c:v>106708</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>107599</c:v>
+                  <c:v>107609</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>108484</c:v>
+                  <c:v>108493</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>109382</c:v>
+                  <c:v>109392</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>110145</c:v>
+                  <c:v>110155</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>110835</c:v>
+                  <c:v>110845</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>111190</c:v>
+                  <c:v>111200</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>111597</c:v>
+                  <c:v>111606</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>112304</c:v>
+                  <c:v>112312</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>113098</c:v>
+                  <c:v>113106</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>113788</c:v>
+                  <c:v>113799</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>114444</c:v>
+                  <c:v>114455</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>115055</c:v>
+                  <c:v>115066</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>115347</c:v>
+                  <c:v>115359</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>115642</c:v>
+                  <c:v>115653</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>116367</c:v>
+                  <c:v>116378</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>117073</c:v>
+                  <c:v>117085</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>117737</c:v>
+                  <c:v>117748</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>118362</c:v>
+                  <c:v>118372</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>118864</c:v>
+                  <c:v>118874</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>119134</c:v>
+                  <c:v>119145</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>119492</c:v>
+                  <c:v>119503</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>120077</c:v>
+                  <c:v>120087</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>120765</c:v>
+                  <c:v>120776</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>121461</c:v>
+                  <c:v>121472</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>122063</c:v>
+                  <c:v>122074</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>122363</c:v>
+                  <c:v>122374</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>122570</c:v>
+                  <c:v>122581</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>122836</c:v>
+                  <c:v>122847</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>123740</c:v>
+                  <c:v>123752</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>124553</c:v>
+                  <c:v>124564</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>125453</c:v>
+                  <c:v>125464</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>126275</c:v>
+                  <c:v>126286</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>127025</c:v>
+                  <c:v>127038</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>127499</c:v>
+                  <c:v>127512</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>127830</c:v>
+                  <c:v>127843</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>128568</c:v>
+                  <c:v>128582</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>129431</c:v>
+                  <c:v>129442</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>130384</c:v>
+                  <c:v>130395</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>131319</c:v>
+                  <c:v>131331</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>132192</c:v>
+                  <c:v>132204</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>132717</c:v>
+                  <c:v>132731</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>133085</c:v>
+                  <c:v>133100</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>134155</c:v>
+                  <c:v>134169</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>135291</c:v>
+                  <c:v>135303</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>136351</c:v>
+                  <c:v>136364</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>137541</c:v>
+                  <c:v>137556</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>138549</c:v>
+                  <c:v>138561</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>139109</c:v>
+                  <c:v>139121</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>140174</c:v>
+                  <c:v>140186</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>141302</c:v>
+                  <c:v>141314</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>142791</c:v>
+                  <c:v>142805</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>144041</c:v>
+                  <c:v>144053</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>145354</c:v>
+                  <c:v>145366</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>146546</c:v>
+                  <c:v>146558</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>147038</c:v>
+                  <c:v>147052</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>147574</c:v>
+                  <c:v>147588</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>148812</c:v>
+                  <c:v>148827</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>150171</c:v>
+                  <c:v>150187</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>151420</c:v>
+                  <c:v>151435</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>152752</c:v>
+                  <c:v>152768</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>153834</c:v>
+                  <c:v>153852</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>154448</c:v>
+                  <c:v>154466</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>154885</c:v>
+                  <c:v>154901</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>156204</c:v>
+                  <c:v>156224</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>157722</c:v>
+                  <c:v>157742</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>158887</c:v>
+                  <c:v>158906</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>160105</c:v>
+                  <c:v>160125</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>161323</c:v>
+                  <c:v>161343</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>161937</c:v>
+                  <c:v>161961</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>162355</c:v>
+                  <c:v>162380</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>163552</c:v>
+                  <c:v>163575</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>164975</c:v>
+                  <c:v>164999</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>166111</c:v>
+                  <c:v>166133</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>167219</c:v>
+                  <c:v>167243</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>168247</c:v>
+                  <c:v>168271</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>168817</c:v>
+                  <c:v>168845</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>169169</c:v>
+                  <c:v>169197</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>170310</c:v>
+                  <c:v>170337</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>171617</c:v>
+                  <c:v>171642</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>172741</c:v>
+                  <c:v>172766</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>173767</c:v>
+                  <c:v>173792</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>174773</c:v>
+                  <c:v>174800</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>175247</c:v>
+                  <c:v>175274</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>175627</c:v>
+                  <c:v>175656</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>176651</c:v>
+                  <c:v>176678</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>177674</c:v>
+                  <c:v>177704</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>178750</c:v>
+                  <c:v>178780</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>179747</c:v>
+                  <c:v>179776</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>180663</c:v>
+                  <c:v>180697</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>181109</c:v>
+                  <c:v>181144</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>181335</c:v>
+                  <c:v>181370</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>181691</c:v>
+                  <c:v>181722</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>182793</c:v>
+                  <c:v>182824</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>183953</c:v>
+                  <c:v>183985</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>184963</c:v>
+                  <c:v>184993</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>185774</c:v>
+                  <c:v>185811</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>186163</c:v>
+                  <c:v>186201</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>186570</c:v>
+                  <c:v>186609</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>187614</c:v>
+                  <c:v>187654</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>188798</c:v>
+                  <c:v>188832</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>189669</c:v>
+                  <c:v>189712</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>190567</c:v>
+                  <c:v>190612</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>191306</c:v>
+                  <c:v>191359</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>191629</c:v>
+                  <c:v>191682</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>191917</c:v>
+                  <c:v>191962</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>192783</c:v>
+                  <c:v>192826</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>193930</c:v>
+                  <c:v>193980</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>194859</c:v>
+                  <c:v>194919</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>195703</c:v>
+                  <c:v>195769</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>196566</c:v>
+                  <c:v>196640</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>196868</c:v>
+                  <c:v>196946</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>197133</c:v>
+                  <c:v>197193</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>197873</c:v>
+                  <c:v>197930</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>198935</c:v>
+                  <c:v>198993</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>199783</c:v>
+                  <c:v>199851</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>200622</c:v>
+                  <c:v>200698</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>201355</c:v>
+                  <c:v>201438</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>201717</c:v>
+                  <c:v>201803</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>202058</c:v>
+                  <c:v>202147</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>202690</c:v>
+                  <c:v>202757</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>203600</c:v>
+                  <c:v>203682</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>204587</c:v>
+                  <c:v>204667</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>205474</c:v>
+                  <c:v>205565</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>206140</c:v>
+                  <c:v>206246</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>206605</c:v>
+                  <c:v>206714</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>206892</c:v>
+                  <c:v>206996</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>207592</c:v>
+                  <c:v>207694</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>208408</c:v>
+                  <c:v>208501</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>209345</c:v>
+                  <c:v>209431</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>210236</c:v>
+                  <c:v>210328</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>210998</c:v>
+                  <c:v>211101</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>211395</c:v>
+                  <c:v>211503</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>211856</c:v>
+                  <c:v>211959</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>212694</c:v>
+                  <c:v>212796</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>213716</c:v>
+                  <c:v>213815</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>214852</c:v>
+                  <c:v>214941</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>215775</c:v>
+                  <c:v>215875</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>216657</c:v>
+                  <c:v>216765</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>217031</c:v>
+                  <c:v>217147</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>217433</c:v>
+                  <c:v>217549</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>218353</c:v>
+                  <c:v>218468</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>219397</c:v>
+                  <c:v>219512</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>220427</c:v>
+                  <c:v>220549</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>221379</c:v>
+                  <c:v>221496</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>222330</c:v>
+                  <c:v>222459</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>222718</c:v>
+                  <c:v>222854</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>223217</c:v>
+                  <c:v>223345</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>224732</c:v>
+                  <c:v>224859</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>225858</c:v>
+                  <c:v>225976</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>226989</c:v>
+                  <c:v>227122</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>228157</c:v>
+                  <c:v>228295</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>229261</c:v>
+                  <c:v>229414</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>229746</c:v>
+                  <c:v>229910</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>230335</c:v>
+                  <c:v>230487</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>231695</c:v>
+                  <c:v>231847</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>233238</c:v>
+                  <c:v>233410</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>234379</c:v>
+                  <c:v>234529</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>235654</c:v>
+                  <c:v>235797</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>236966</c:v>
+                  <c:v>237128</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>237643</c:v>
+                  <c:v>237815</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>238280</c:v>
+                  <c:v>238434</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>239835</c:v>
+                  <c:v>239989</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>241704</c:v>
+                  <c:v>241853</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>243675</c:v>
+                  <c:v>243820</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>245537</c:v>
+                  <c:v>245704</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>247049</c:v>
+                  <c:v>247216</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>247941</c:v>
+                  <c:v>248114</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>248897</c:v>
+                  <c:v>249069</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>250926</c:v>
+                  <c:v>251135</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>253211</c:v>
+                  <c:v>253424</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>254537</c:v>
+                  <c:v>254760</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>255904</c:v>
+                  <c:v>256132</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>257136</c:v>
+                  <c:v>257377</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>257939</c:v>
+                  <c:v>258180</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>259075</c:v>
+                  <c:v>259316</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>261789</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11281,9 +11314,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F315" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F315" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F315">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F316" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F316" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F316">
     <sortCondition ref="A1:A254"/>
   </sortState>
   <tableColumns count="6">
@@ -11619,9 +11652,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F315"/>
+  <dimension ref="A1:F316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A279" workbookViewId="0">
+    <sheetView topLeftCell="A279" workbookViewId="0">
       <selection activeCell="B305" sqref="B305"/>
     </sheetView>
   </sheetViews>
@@ -13703,7 +13736,7 @@
         <v>1161126</v>
       </c>
       <c r="C104">
-        <v>64172</v>
+        <v>64181</v>
       </c>
       <c r="D104">
         <v>52619</v>
@@ -13723,7 +13756,7 @@
         <v>1183627</v>
       </c>
       <c r="C105">
-        <v>65199</v>
+        <v>65209</v>
       </c>
       <c r="D105">
         <v>52377</v>
@@ -13743,7 +13776,7 @@
         <v>1206137</v>
       </c>
       <c r="C106">
-        <v>67695</v>
+        <v>67703</v>
       </c>
       <c r="D106">
         <v>53176</v>
@@ -13763,7 +13796,7 @@
         <v>1231282</v>
       </c>
       <c r="C107">
-        <v>69610</v>
+        <v>69619</v>
       </c>
       <c r="D107">
         <v>52581</v>
@@ -13783,7 +13816,7 @@
         <v>1258506</v>
       </c>
       <c r="C108">
-        <v>72363</v>
+        <v>72371</v>
       </c>
       <c r="D108">
         <v>51425</v>
@@ -13803,7 +13836,7 @@
         <v>1285665</v>
       </c>
       <c r="C109">
-        <v>74143</v>
+        <v>74152</v>
       </c>
       <c r="D109">
         <v>49758</v>
@@ -13823,7 +13856,7 @@
         <v>1310851</v>
       </c>
       <c r="C110">
-        <v>75597</v>
+        <v>75608</v>
       </c>
       <c r="D110">
         <v>48561</v>
@@ -13843,7 +13876,7 @@
         <v>1331733</v>
       </c>
       <c r="C111">
-        <v>76629</v>
+        <v>76640</v>
       </c>
       <c r="D111">
         <v>46760</v>
@@ -13863,7 +13896,7 @@
         <v>1350032</v>
       </c>
       <c r="C112">
-        <v>77522</v>
+        <v>77534</v>
       </c>
       <c r="D112">
         <v>46550</v>
@@ -13883,7 +13916,7 @@
         <v>1372591</v>
       </c>
       <c r="C113">
-        <v>79027</v>
+        <v>79040</v>
       </c>
       <c r="D113">
         <v>47344</v>
@@ -13903,7 +13936,7 @@
         <v>1394218</v>
       </c>
       <c r="C114">
-        <v>80763</v>
+        <v>80774</v>
       </c>
       <c r="D114">
         <v>46740</v>
@@ -13923,7 +13956,7 @@
         <v>1420931</v>
       </c>
       <c r="C115">
-        <v>82617</v>
+        <v>82626</v>
       </c>
       <c r="D115">
         <v>45644</v>
@@ -13943,7 +13976,7 @@
         <v>1446353</v>
       </c>
       <c r="C116">
-        <v>83882</v>
+        <v>83889</v>
       </c>
       <c r="D116">
         <v>44299</v>
@@ -13963,7 +13996,7 @@
         <v>1469946</v>
       </c>
       <c r="C117">
-        <v>85077</v>
+        <v>85084</v>
       </c>
       <c r="D117">
         <v>43175</v>
@@ -13983,7 +14016,7 @@
         <v>1490090</v>
       </c>
       <c r="C118">
-        <v>85926</v>
+        <v>85934</v>
       </c>
       <c r="D118">
         <v>41609</v>
@@ -14003,7 +14036,7 @@
         <v>1510938</v>
       </c>
       <c r="C119">
-        <v>86816</v>
+        <v>86823</v>
       </c>
       <c r="D119">
         <v>41531</v>
@@ -14023,7 +14056,7 @@
         <v>1531816</v>
       </c>
       <c r="C120">
-        <v>88147</v>
+        <v>88155</v>
       </c>
       <c r="D120">
         <v>41652</v>
@@ -14043,7 +14076,7 @@
         <v>1553074</v>
       </c>
       <c r="C121">
-        <v>89533</v>
+        <v>89545</v>
       </c>
       <c r="D121">
         <v>41535</v>
@@ -14063,7 +14096,7 @@
         <v>1579817</v>
       </c>
       <c r="C122">
-        <v>90959</v>
+        <v>90972</v>
       </c>
       <c r="D122">
         <v>41071</v>
@@ -14083,7 +14116,7 @@
         <v>1603990</v>
       </c>
       <c r="C123">
-        <v>92262</v>
+        <v>92275</v>
       </c>
       <c r="D123">
         <v>39774</v>
@@ -14103,7 +14136,7 @@
         <v>1626355</v>
       </c>
       <c r="C124">
-        <v>93297</v>
+        <v>93310</v>
       </c>
       <c r="D124">
         <v>38360</v>
@@ -14123,7 +14156,7 @@
         <v>1645214</v>
       </c>
       <c r="C125">
-        <v>93980</v>
+        <v>93994</v>
       </c>
       <c r="D125">
         <v>37510</v>
@@ -14143,7 +14176,7 @@
         <v>1663745</v>
       </c>
       <c r="C126">
-        <v>94533</v>
+        <v>94548</v>
       </c>
       <c r="D126">
         <v>37382</v>
@@ -14163,7 +14196,7 @@
         <v>1680723</v>
       </c>
       <c r="C127">
-        <v>95206</v>
+        <v>95220</v>
       </c>
       <c r="D127">
         <v>37533</v>
@@ -14183,7 +14216,7 @@
         <v>1700136</v>
       </c>
       <c r="C128">
-        <v>96521</v>
+        <v>96536</v>
       </c>
       <c r="D128">
         <v>38017</v>
@@ -14203,7 +14236,7 @@
         <v>1722794</v>
       </c>
       <c r="C129">
-        <v>97766</v>
+        <v>97778</v>
       </c>
       <c r="D129">
         <v>37804</v>
@@ -14223,7 +14256,7 @@
         <v>1746382</v>
       </c>
       <c r="C130">
-        <v>98933</v>
+        <v>98947</v>
       </c>
       <c r="D130">
         <v>36718</v>
@@ -14243,7 +14276,7 @@
         <v>1769819</v>
       </c>
       <c r="C131">
-        <v>99850</v>
+        <v>99865</v>
       </c>
       <c r="D131">
         <v>35513</v>
@@ -14263,7 +14296,7 @@
         <v>1791211</v>
       </c>
       <c r="C132">
-        <v>100500</v>
+        <v>100516</v>
       </c>
       <c r="D132">
         <v>34641</v>
@@ -14283,7 +14316,7 @@
         <v>1811571</v>
       </c>
       <c r="C133">
-        <v>101173</v>
+        <v>101187</v>
       </c>
       <c r="D133">
         <v>34064</v>
@@ -14303,7 +14336,7 @@
         <v>1831729</v>
       </c>
       <c r="C134">
-        <v>102173</v>
+        <v>102187</v>
       </c>
       <c r="D134">
         <v>33709</v>
@@ -14323,7 +14356,7 @@
         <v>1851884</v>
       </c>
       <c r="C135">
-        <v>103152</v>
+        <v>103167</v>
       </c>
       <c r="D135">
         <v>33026</v>
@@ -14343,7 +14376,7 @@
         <v>1872267</v>
       </c>
       <c r="C136">
-        <v>104020</v>
+        <v>104031</v>
       </c>
       <c r="D136">
         <v>32602</v>
@@ -14363,7 +14396,7 @@
         <v>1895332</v>
       </c>
       <c r="C137">
-        <v>104860</v>
+        <v>104875</v>
       </c>
       <c r="D137">
         <v>32265</v>
@@ -14383,7 +14416,7 @@
         <v>1917892</v>
       </c>
       <c r="C138">
-        <v>105570</v>
+        <v>105586</v>
       </c>
       <c r="D138">
         <v>31762</v>
@@ -14403,7 +14436,7 @@
         <v>1936710</v>
       </c>
       <c r="C139">
-        <v>106016</v>
+        <v>106032</v>
       </c>
       <c r="D139">
         <v>31249</v>
@@ -14423,7 +14456,7 @@
         <v>1953940</v>
       </c>
       <c r="C140">
-        <v>106695</v>
+        <v>106708</v>
       </c>
       <c r="D140">
         <v>30984</v>
@@ -14443,7 +14476,7 @@
         <v>1971092</v>
       </c>
       <c r="C141">
-        <v>107599</v>
+        <v>107609</v>
       </c>
       <c r="D141">
         <v>31020</v>
@@ -14463,7 +14496,7 @@
         <v>1991819</v>
       </c>
       <c r="C142">
-        <v>108484</v>
+        <v>108493</v>
       </c>
       <c r="D142">
         <v>30840</v>
@@ -14483,7 +14516,7 @@
         <v>2013889</v>
       </c>
       <c r="C143">
-        <v>109382</v>
+        <v>109392</v>
       </c>
       <c r="D143">
         <v>29686</v>
@@ -14503,7 +14536,7 @@
         <v>2036984</v>
       </c>
       <c r="C144">
-        <v>110145</v>
+        <v>110155</v>
       </c>
       <c r="D144">
         <v>29149</v>
@@ -14523,7 +14556,7 @@
         <v>2062230</v>
       </c>
       <c r="C145">
-        <v>110835</v>
+        <v>110845</v>
       </c>
       <c r="D145">
         <v>28431</v>
@@ -14543,7 +14576,7 @@
         <v>2083563</v>
       </c>
       <c r="C146">
-        <v>111190</v>
+        <v>111200</v>
       </c>
       <c r="D146">
         <v>27899</v>
@@ -14563,7 +14596,7 @@
         <v>2102217</v>
       </c>
       <c r="C147">
-        <v>111597</v>
+        <v>111606</v>
       </c>
       <c r="D147">
         <v>27866</v>
@@ -14583,7 +14616,7 @@
         <v>2125485</v>
       </c>
       <c r="C148">
-        <v>112304</v>
+        <v>112312</v>
       </c>
       <c r="D148">
         <v>28279</v>
@@ -14603,7 +14636,7 @@
         <v>2149390</v>
       </c>
       <c r="C149">
-        <v>113098</v>
+        <v>113106</v>
       </c>
       <c r="D149">
         <v>28561</v>
@@ -14623,7 +14656,7 @@
         <v>2176478</v>
       </c>
       <c r="C150">
-        <v>113788</v>
+        <v>113799</v>
       </c>
       <c r="D150">
         <v>28411</v>
@@ -14643,7 +14676,7 @@
         <v>2207438</v>
       </c>
       <c r="C151">
-        <v>114444</v>
+        <v>114455</v>
       </c>
       <c r="D151">
         <v>28586</v>
@@ -14663,7 +14696,7 @@
         <v>2239388</v>
       </c>
       <c r="C152">
-        <v>115055</v>
+        <v>115066</v>
       </c>
       <c r="D152">
         <v>27970</v>
@@ -14683,7 +14716,7 @@
         <v>2268236</v>
       </c>
       <c r="C153">
-        <v>115347</v>
+        <v>115359</v>
       </c>
       <c r="D153">
         <v>28221</v>
@@ -14703,7 +14736,7 @@
         <v>2295415</v>
       </c>
       <c r="C154">
-        <v>115642</v>
+        <v>115653</v>
       </c>
       <c r="D154">
         <v>28797</v>
@@ -14723,7 +14756,7 @@
         <v>2329299</v>
       </c>
       <c r="C155">
-        <v>116367</v>
+        <v>116378</v>
       </c>
       <c r="D155">
         <v>30226</v>
@@ -14743,7 +14776,7 @@
         <v>2368308</v>
       </c>
       <c r="C156">
-        <v>117073</v>
+        <v>117085</v>
       </c>
       <c r="D156">
         <v>31119</v>
@@ -14763,7 +14796,7 @@
         <v>2407989</v>
       </c>
       <c r="C157">
-        <v>117737</v>
+        <v>117748</v>
       </c>
       <c r="D157">
         <v>31828</v>
@@ -14783,7 +14816,7 @@
         <v>2452368</v>
       </c>
       <c r="C158">
-        <v>118362</v>
+        <v>118372</v>
       </c>
       <c r="D158">
         <v>31710</v>
@@ -14803,7 +14836,7 @@
         <v>2495261</v>
       </c>
       <c r="C159">
-        <v>118864</v>
+        <v>118874</v>
       </c>
       <c r="D159">
         <v>32485</v>
@@ -14823,7 +14856,7 @@
         <v>2536592</v>
       </c>
       <c r="C160">
-        <v>119134</v>
+        <v>119145</v>
       </c>
       <c r="D160">
         <v>32479</v>
@@ -14843,7 +14876,7 @@
         <v>2576357</v>
       </c>
       <c r="C161">
-        <v>119492</v>
+        <v>119503</v>
       </c>
       <c r="D161">
         <v>33627</v>
@@ -14863,7 +14896,7 @@
         <v>2623987</v>
       </c>
       <c r="C162">
-        <v>120077</v>
+        <v>120087</v>
       </c>
       <c r="D162">
         <v>35222</v>
@@ -14883,7 +14916,7 @@
         <v>2674988</v>
       </c>
       <c r="C163">
-        <v>120765</v>
+        <v>120776</v>
       </c>
       <c r="D163">
         <v>36430</v>
@@ -14903,7 +14936,7 @@
         <v>2728496</v>
       </c>
       <c r="C164">
-        <v>121461</v>
+        <v>121472</v>
       </c>
       <c r="D164">
         <v>37508</v>
@@ -14923,7 +14956,7 @@
         <v>2782184</v>
       </c>
       <c r="C165">
-        <v>122063</v>
+        <v>122074</v>
       </c>
       <c r="D165">
         <v>37801</v>
@@ -14943,7 +14976,7 @@
         <v>2836328</v>
       </c>
       <c r="C166">
-        <v>122363</v>
+        <v>122374</v>
       </c>
       <c r="D166">
         <v>38150</v>
@@ -14963,7 +14996,7 @@
         <v>2881495</v>
       </c>
       <c r="C167">
-        <v>122570</v>
+        <v>122581</v>
       </c>
       <c r="D167">
         <v>38765</v>
@@ -14983,7 +15016,7 @@
         <v>2922989</v>
       </c>
       <c r="C168">
-        <v>122836</v>
+        <v>122847</v>
       </c>
       <c r="D168">
         <v>39820</v>
@@ -15003,7 +15036,7 @@
         <v>2974731</v>
       </c>
       <c r="C169">
-        <v>123740</v>
+        <v>123752</v>
       </c>
       <c r="D169">
         <v>41772</v>
@@ -15023,7 +15056,7 @@
         <v>3037467</v>
       </c>
       <c r="C170">
-        <v>124553</v>
+        <v>124564</v>
       </c>
       <c r="D170">
         <v>43097</v>
@@ -15043,7 +15076,7 @@
         <v>3096428</v>
       </c>
       <c r="C171">
-        <v>125453</v>
+        <v>125464</v>
       </c>
       <c r="D171">
         <v>43916</v>
@@ -15063,7 +15096,7 @@
         <v>3163252</v>
       </c>
       <c r="C172">
-        <v>126275</v>
+        <v>126286</v>
       </c>
       <c r="D172">
         <v>51606</v>
@@ -15083,7 +15116,7 @@
         <v>3225577</v>
       </c>
       <c r="C173">
-        <v>127025</v>
+        <v>127038</v>
       </c>
       <c r="D173">
         <v>51861</v>
@@ -15103,7 +15136,7 @@
         <v>3286549</v>
       </c>
       <c r="C174">
-        <v>127499</v>
+        <v>127512</v>
       </c>
       <c r="D174">
         <v>52739</v>
@@ -15123,7 +15156,7 @@
         <v>3344151</v>
       </c>
       <c r="C175">
-        <v>127830</v>
+        <v>127843</v>
       </c>
       <c r="D175">
         <v>54044</v>
@@ -15143,7 +15176,7 @@
         <v>3406885</v>
       </c>
       <c r="C176">
-        <v>128568</v>
+        <v>128582</v>
       </c>
       <c r="D176">
         <v>55554</v>
@@ -15163,7 +15196,7 @@
         <v>3472504</v>
       </c>
       <c r="C177">
-        <v>129431</v>
+        <v>129442</v>
       </c>
       <c r="D177">
         <v>56168</v>
@@ -15183,7 +15216,7 @@
         <v>3542950</v>
       </c>
       <c r="C178">
-        <v>130384</v>
+        <v>130395</v>
       </c>
       <c r="D178">
         <v>57459</v>
@@ -15203,7 +15236,7 @@
         <v>3619168</v>
       </c>
       <c r="C179">
-        <v>131319</v>
+        <v>131331</v>
       </c>
       <c r="D179">
         <v>57737</v>
@@ -15223,7 +15256,7 @@
         <v>3683592</v>
       </c>
       <c r="C180">
-        <v>132192</v>
+        <v>132204</v>
       </c>
       <c r="D180">
         <v>57646</v>
@@ -15243,7 +15276,7 @@
         <v>3747309</v>
       </c>
       <c r="C181">
-        <v>132717</v>
+        <v>132731</v>
       </c>
       <c r="D181">
         <v>57882</v>
@@ -15263,7 +15296,7 @@
         <v>3804245</v>
       </c>
       <c r="C182">
-        <v>133085</v>
+        <v>133100</v>
       </c>
       <c r="D182">
         <v>58352</v>
@@ -15283,7 +15316,7 @@
         <v>3867869</v>
       </c>
       <c r="C183">
-        <v>134155</v>
+        <v>134169</v>
       </c>
       <c r="D183">
         <v>59351</v>
@@ -15303,7 +15336,7 @@
         <v>3937213</v>
       </c>
       <c r="C184">
-        <v>135291</v>
+        <v>135303</v>
       </c>
       <c r="D184">
         <v>59598</v>
@@ -15323,7 +15356,7 @@
         <v>4008438</v>
       </c>
       <c r="C185">
-        <v>136351</v>
+        <v>136364</v>
       </c>
       <c r="D185">
         <v>59712</v>
@@ -15343,7 +15376,7 @@
         <v>4083295</v>
       </c>
       <c r="C186">
-        <v>137541</v>
+        <v>137556</v>
       </c>
       <c r="D186">
         <v>59677</v>
@@ -15363,7 +15396,7 @@
         <v>4147669</v>
       </c>
       <c r="C187">
-        <v>138549</v>
+        <v>138561</v>
       </c>
       <c r="D187">
         <v>59269</v>
@@ -15383,7 +15416,7 @@
         <v>4207792</v>
       </c>
       <c r="C188">
-        <v>139109</v>
+        <v>139121</v>
       </c>
       <c r="D188">
         <v>58644</v>
@@ -15403,7 +15436,7 @@
         <v>4262806</v>
       </c>
       <c r="C189">
-        <v>140174</v>
+        <v>140186</v>
       </c>
       <c r="D189">
         <v>58906</v>
@@ -15423,7 +15456,7 @@
         <v>4321790</v>
       </c>
       <c r="C190">
-        <v>141302</v>
+        <v>141314</v>
       </c>
       <c r="D190">
         <v>57086</v>
@@ -15443,7 +15476,7 @@
         <v>4385731</v>
       </c>
       <c r="C191">
-        <v>142791</v>
+        <v>142805</v>
       </c>
       <c r="D191">
         <v>57325</v>
@@ -15463,7 +15496,7 @@
         <v>4454537</v>
       </c>
       <c r="C192">
-        <v>144041</v>
+        <v>144053</v>
       </c>
       <c r="D192">
         <v>56434</v>
@@ -15483,7 +15516,7 @@
         <v>4522066</v>
       </c>
       <c r="C193">
-        <v>145354</v>
+        <v>145366</v>
       </c>
       <c r="D193">
         <v>55589</v>
@@ -15503,7 +15536,7 @@
         <v>4582313</v>
       </c>
       <c r="C194">
-        <v>146546</v>
+        <v>146558</v>
       </c>
       <c r="D194">
         <v>54437</v>
@@ -15523,7 +15556,7 @@
         <v>4628824</v>
       </c>
       <c r="C195">
-        <v>147038</v>
+        <v>147052</v>
       </c>
       <c r="D195">
         <v>53983</v>
@@ -15543,7 +15576,7 @@
         <v>4678172</v>
       </c>
       <c r="C196">
-        <v>147574</v>
+        <v>147588</v>
       </c>
       <c r="D196">
         <v>53413</v>
@@ -15563,7 +15596,7 @@
         <v>4729986</v>
       </c>
       <c r="C197">
-        <v>148812</v>
+        <v>148827</v>
       </c>
       <c r="D197">
         <v>53323</v>
@@ -15583,7 +15616,7 @@
         <v>4782450</v>
       </c>
       <c r="C198">
-        <v>150171</v>
+        <v>150187</v>
       </c>
       <c r="D198">
         <v>53343</v>
@@ -15603,7 +15636,7 @@
         <v>4836252</v>
       </c>
       <c r="C199">
-        <v>151420</v>
+        <v>151435</v>
       </c>
       <c r="D199">
         <v>53129</v>
@@ -15623,7 +15656,7 @@
         <v>4897090</v>
       </c>
       <c r="C200">
-        <v>152752</v>
+        <v>152768</v>
       </c>
       <c r="D200">
         <v>51201</v>
@@ -15643,7 +15676,7 @@
         <v>4950174</v>
       </c>
       <c r="C201">
-        <v>153834</v>
+        <v>153852</v>
       </c>
       <c r="D201">
         <v>49935</v>
@@ -15663,7 +15696,7 @@
         <v>5000327</v>
       </c>
       <c r="C202">
-        <v>154448</v>
+        <v>154466</v>
       </c>
       <c r="D202">
         <v>48866</v>
@@ -15683,7 +15716,7 @@
         <v>5042070</v>
       </c>
       <c r="C203">
-        <v>154885</v>
+        <v>154901</v>
       </c>
       <c r="D203">
         <v>48631</v>
@@ -15703,7 +15736,7 @@
         <v>5097498</v>
       </c>
       <c r="C204">
-        <v>156204</v>
+        <v>156224</v>
       </c>
       <c r="D204">
         <v>48511</v>
@@ -15723,7 +15756,7 @@
         <v>5153393</v>
       </c>
       <c r="C205">
-        <v>157722</v>
+        <v>157742</v>
       </c>
       <c r="D205">
         <v>47949</v>
@@ -15743,7 +15776,7 @@
         <v>5205014</v>
       </c>
       <c r="C206">
-        <v>158887</v>
+        <v>158906</v>
       </c>
       <c r="D206">
         <v>47204</v>
@@ -15763,7 +15796,7 @@
         <v>5262107</v>
       </c>
       <c r="C207">
-        <v>160105</v>
+        <v>160125</v>
       </c>
       <c r="D207">
         <v>45744</v>
@@ -15783,7 +15816,7 @@
         <v>5317916</v>
       </c>
       <c r="C208">
-        <v>161323</v>
+        <v>161343</v>
       </c>
       <c r="D208">
         <v>44783</v>
@@ -15803,7 +15836,7 @@
         <v>5360239</v>
       </c>
       <c r="C209">
-        <v>161937</v>
+        <v>161961</v>
       </c>
       <c r="D209">
         <v>44046</v>
@@ -15823,7 +15856,7 @@
         <v>5397650</v>
       </c>
       <c r="C210">
-        <v>162355</v>
+        <v>162380</v>
       </c>
       <c r="D210">
         <v>43500</v>
@@ -15843,7 +15876,7 @@
         <v>5438142</v>
       </c>
       <c r="C211">
-        <v>163552</v>
+        <v>163575</v>
       </c>
       <c r="D211">
         <v>43767</v>
@@ -15863,7 +15896,7 @@
         <v>5483025</v>
       </c>
       <c r="C212">
-        <v>164975</v>
+        <v>164999</v>
       </c>
       <c r="D212">
         <v>43289</v>
@@ -15883,7 +15916,7 @@
         <v>5526748</v>
       </c>
       <c r="C213">
-        <v>166111</v>
+        <v>166133</v>
       </c>
       <c r="D213">
         <v>41968</v>
@@ -15903,7 +15936,7 @@
         <v>5572943</v>
       </c>
       <c r="C214">
-        <v>167219</v>
+        <v>167243</v>
       </c>
       <c r="D214">
         <v>40940</v>
@@ -15923,7 +15956,7 @@
         <v>5618666</v>
       </c>
       <c r="C215">
-        <v>168247</v>
+        <v>168271</v>
       </c>
       <c r="D215">
         <v>39919</v>
@@ -15943,7 +15976,7 @@
         <v>5655990</v>
       </c>
       <c r="C216">
-        <v>168817</v>
+        <v>168845</v>
       </c>
       <c r="D216">
         <v>38980</v>
@@ -15963,7 +15996,7 @@
         <v>5690240</v>
       </c>
       <c r="C217">
-        <v>169169</v>
+        <v>169197</v>
       </c>
       <c r="D217">
         <v>38695</v>
@@ -15983,7 +16016,7 @@
         <v>5726828</v>
       </c>
       <c r="C218">
-        <v>170310</v>
+        <v>170337</v>
       </c>
       <c r="D218">
         <v>38775</v>
@@ -16003,7 +16036,7 @@
         <v>5770456</v>
       </c>
       <c r="C219">
-        <v>171617</v>
+        <v>171642</v>
       </c>
       <c r="D219">
         <v>38418</v>
@@ -16023,7 +16056,7 @@
         <v>5814370</v>
       </c>
       <c r="C220">
-        <v>172741</v>
+        <v>172766</v>
       </c>
       <c r="D220">
         <v>37421</v>
@@ -16043,7 +16076,7 @@
         <v>5860495</v>
       </c>
       <c r="C221">
-        <v>173767</v>
+        <v>173792</v>
       </c>
       <c r="D221">
         <v>37255</v>
@@ -16063,7 +16096,7 @@
         <v>5904462</v>
       </c>
       <c r="C222">
-        <v>174773</v>
+        <v>174800</v>
       </c>
       <c r="D222">
         <v>36437</v>
@@ -16083,7 +16116,7 @@
         <v>5943747</v>
       </c>
       <c r="C223">
-        <v>175247</v>
+        <v>175274</v>
       </c>
       <c r="D223">
         <v>35726</v>
@@ -16103,7 +16136,7 @@
         <v>5975020</v>
       </c>
       <c r="C224">
-        <v>175627</v>
+        <v>175656</v>
       </c>
       <c r="D224">
         <v>35352</v>
@@ -16123,7 +16156,7 @@
         <v>6017446</v>
       </c>
       <c r="C225">
-        <v>176651</v>
+        <v>176678</v>
       </c>
       <c r="D225">
         <v>35273</v>
@@ -16143,7 +16176,7 @@
         <v>6047663</v>
       </c>
       <c r="C226">
-        <v>177674</v>
+        <v>177704</v>
       </c>
       <c r="D226">
         <v>35579</v>
@@ -16163,7 +16196,7 @@
         <v>6092279</v>
       </c>
       <c r="C227">
-        <v>178750</v>
+        <v>178780</v>
       </c>
       <c r="D227">
         <v>34650</v>
@@ -16183,7 +16216,7 @@
         <v>6143787</v>
       </c>
       <c r="C228">
-        <v>179747</v>
+        <v>179776</v>
       </c>
       <c r="D228">
         <v>34101</v>
@@ -16203,7 +16236,7 @@
         <v>6188531</v>
       </c>
       <c r="C229">
-        <v>180663</v>
+        <v>180697</v>
       </c>
       <c r="D229">
         <v>33502</v>
@@ -16223,7 +16256,7 @@
         <v>6221452</v>
       </c>
       <c r="C230">
-        <v>181109</v>
+        <v>181144</v>
       </c>
       <c r="D230">
         <v>32376</v>
@@ -16243,7 +16276,7 @@
         <v>6249595</v>
       </c>
       <c r="C231">
-        <v>181335</v>
+        <v>181370</v>
       </c>
       <c r="D231">
         <v>32009</v>
@@ -16263,7 +16296,7 @@
         <v>6271732</v>
       </c>
       <c r="C232">
-        <v>181691</v>
+        <v>181722</v>
       </c>
       <c r="D232">
         <v>32246</v>
@@ -16283,7 +16316,7 @@
         <v>6302902</v>
       </c>
       <c r="C233">
-        <v>182793</v>
+        <v>182824</v>
       </c>
       <c r="D233">
         <v>32579</v>
@@ -16303,7 +16336,7 @@
         <v>6340206</v>
       </c>
       <c r="C234">
-        <v>183953</v>
+        <v>183985</v>
       </c>
       <c r="D234">
         <v>32438</v>
@@ -16323,7 +16356,7 @@
         <v>6384889</v>
       </c>
       <c r="C235">
-        <v>184963</v>
+        <v>184993</v>
       </c>
       <c r="D235">
         <v>31406</v>
@@ -16343,7 +16376,7 @@
         <v>6426755</v>
       </c>
       <c r="C236">
-        <v>185774</v>
+        <v>185811</v>
       </c>
       <c r="D236">
         <v>30643</v>
@@ -16363,7 +16396,7 @@
         <v>6461066</v>
       </c>
       <c r="C237">
-        <v>186163</v>
+        <v>186201</v>
       </c>
       <c r="D237">
         <v>29804</v>
@@ -16383,7 +16416,7 @@
         <v>6494687</v>
       </c>
       <c r="C238">
-        <v>186570</v>
+        <v>186609</v>
       </c>
       <c r="D238">
         <v>29907</v>
@@ -16403,7 +16436,7 @@
         <v>6529591</v>
       </c>
       <c r="C239">
-        <v>187614</v>
+        <v>187654</v>
       </c>
       <c r="D239">
         <v>30361</v>
@@ -16423,7 +16456,7 @@
         <v>6569701</v>
       </c>
       <c r="C240">
-        <v>188798</v>
+        <v>188832</v>
       </c>
       <c r="D240">
         <v>30253</v>
@@ -16443,7 +16476,7 @@
         <v>6612990</v>
       </c>
       <c r="C241">
-        <v>189669</v>
+        <v>189712</v>
       </c>
       <c r="D241">
         <v>29875</v>
@@ -16463,7 +16496,7 @@
         <v>6660241</v>
       </c>
       <c r="C242">
-        <v>190567</v>
+        <v>190612</v>
       </c>
       <c r="D242">
         <v>29521</v>
@@ -16483,7 +16516,7 @@
         <v>6705146</v>
       </c>
       <c r="C243">
-        <v>191306</v>
+        <v>191359</v>
       </c>
       <c r="D243">
         <v>29038</v>
@@ -16503,7 +16536,7 @@
         <v>6740649</v>
       </c>
       <c r="C244">
-        <v>191629</v>
+        <v>191682</v>
       </c>
       <c r="D244">
         <v>28606</v>
@@ -16523,7 +16556,7 @@
         <v>6779788</v>
       </c>
       <c r="C245">
-        <v>191917</v>
+        <v>191962</v>
       </c>
       <c r="D245">
         <v>28762</v>
@@ -16543,7 +16576,7 @@
         <v>6829263</v>
       </c>
       <c r="C246">
-        <v>192783</v>
+        <v>192826</v>
       </c>
       <c r="D246">
         <v>29448</v>
@@ -16563,7 +16596,7 @@
         <v>6867883</v>
       </c>
       <c r="C247">
-        <v>193930</v>
+        <v>193980</v>
       </c>
       <c r="D247">
         <v>29937</v>
@@ -16583,7 +16616,7 @@
         <v>6911229</v>
       </c>
       <c r="C248">
-        <v>194859</v>
+        <v>194919</v>
       </c>
       <c r="D248">
         <v>30036</v>
@@ -16603,7 +16636,7 @@
         <v>6966418</v>
       </c>
       <c r="C249">
-        <v>195703</v>
+        <v>195769</v>
       </c>
       <c r="D249">
         <v>29768</v>
@@ -16623,7 +16656,7 @@
         <v>7013821</v>
       </c>
       <c r="C250">
-        <v>196566</v>
+        <v>196640</v>
       </c>
       <c r="D250">
         <v>29551</v>
@@ -16643,7 +16676,7 @@
         <v>7048808</v>
       </c>
       <c r="C251">
-        <v>196868</v>
+        <v>196946</v>
       </c>
       <c r="D251">
         <v>29443</v>
@@ -16663,7 +16696,7 @@
         <v>7084691</v>
       </c>
       <c r="C252">
-        <v>197133</v>
+        <v>197193</v>
       </c>
       <c r="D252">
         <v>29601</v>
@@ -16683,7 +16716,7 @@
         <v>7121132</v>
       </c>
       <c r="C253">
-        <v>197873</v>
+        <v>197930</v>
       </c>
       <c r="D253">
         <v>30499</v>
@@ -16703,7 +16736,7 @@
         <v>7165479</v>
       </c>
       <c r="C254">
-        <v>198935</v>
+        <v>198993</v>
       </c>
       <c r="D254">
         <v>30912</v>
@@ -16723,7 +16756,7 @@
         <v>7211084</v>
       </c>
       <c r="C255">
-        <v>199783</v>
+        <v>199851</v>
       </c>
       <c r="D255">
         <v>30809</v>
@@ -16743,7 +16776,7 @@
         <v>7260341</v>
       </c>
       <c r="C256">
-        <v>200622</v>
+        <v>200698</v>
       </c>
       <c r="D256">
         <v>30769</v>
@@ -16763,7 +16796,7 @@
         <v>7311276</v>
       </c>
       <c r="C257">
-        <v>201355</v>
+        <v>201438</v>
       </c>
       <c r="D257">
         <v>30111</v>
@@ -16783,7 +16816,7 @@
         <v>7349264</v>
       </c>
       <c r="C258">
-        <v>201717</v>
+        <v>201803</v>
       </c>
       <c r="D258">
         <v>29945</v>
@@ -16803,7 +16836,7 @@
         <v>7387020</v>
       </c>
       <c r="C259">
-        <v>202058</v>
+        <v>202147</v>
       </c>
       <c r="D259">
         <v>31327</v>
@@ -16823,7 +16856,7 @@
         <v>7425937</v>
       </c>
       <c r="C260">
-        <v>202690</v>
+        <v>202757</v>
       </c>
       <c r="D260">
         <v>32626</v>
@@ -16843,7 +16876,7 @@
         <v>7476527</v>
       </c>
       <c r="C261">
-        <v>203600</v>
+        <v>203682</v>
       </c>
       <c r="D261">
         <v>33482</v>
@@ -16863,7 +16896,7 @@
         <v>7531735</v>
       </c>
       <c r="C262">
-        <v>204587</v>
+        <v>204667</v>
       </c>
       <c r="D262">
         <v>34319</v>
@@ -16883,7 +16916,7 @@
         <v>7588537</v>
       </c>
       <c r="C263">
-        <v>205474</v>
+        <v>205565</v>
       </c>
       <c r="D263">
         <v>34877</v>
@@ -16903,7 +16936,7 @@
         <v>7645952</v>
       </c>
       <c r="C264">
-        <v>206140</v>
+        <v>206246</v>
       </c>
       <c r="D264">
         <v>34600</v>
@@ -16923,7 +16956,7 @@
         <v>7692221</v>
       </c>
       <c r="C265">
-        <v>206605</v>
+        <v>206714</v>
       </c>
       <c r="D265">
         <v>34498</v>
@@ -16943,7 +16976,7 @@
         <v>7734864</v>
       </c>
       <c r="C266">
-        <v>206892</v>
+        <v>206996</v>
       </c>
       <c r="D266">
         <v>35066</v>
@@ -16963,7 +16996,7 @@
         <v>7783457</v>
       </c>
       <c r="C267">
-        <v>207592</v>
+        <v>207694</v>
       </c>
       <c r="D267">
         <v>36064</v>
@@ -16983,7 +17016,7 @@
         <v>7839574</v>
       </c>
       <c r="C268">
-        <v>208408</v>
+        <v>208501</v>
       </c>
       <c r="D268">
         <v>37088</v>
@@ -17003,7 +17036,7 @@
         <v>7902966</v>
       </c>
       <c r="C269">
-        <v>209345</v>
+        <v>209431</v>
       </c>
       <c r="D269">
         <v>37328</v>
@@ -17023,7 +17056,7 @@
         <v>7971214</v>
       </c>
       <c r="C270">
-        <v>210236</v>
+        <v>210328</v>
       </c>
       <c r="D270">
         <v>37368</v>
@@ -17043,7 +17076,7 @@
         <v>8028544</v>
       </c>
       <c r="C271">
-        <v>210998</v>
+        <v>211101</v>
       </c>
       <c r="D271">
         <v>37358</v>
@@ -17063,7 +17096,7 @@
         <v>8076828</v>
       </c>
       <c r="C272">
-        <v>211395</v>
+        <v>211503</v>
       </c>
       <c r="D272">
         <v>36452</v>
@@ -17083,7 +17116,7 @@
         <v>8133938</v>
       </c>
       <c r="C273">
-        <v>211856</v>
+        <v>211959</v>
       </c>
       <c r="D273">
         <v>37858</v>
@@ -17103,7 +17136,7 @@
         <v>8194485</v>
       </c>
       <c r="C274">
-        <v>212694</v>
+        <v>212796</v>
       </c>
       <c r="D274">
         <v>39303</v>
@@ -17123,7 +17156,7 @@
         <v>8255438</v>
       </c>
       <c r="C275">
-        <v>213716</v>
+        <v>213815</v>
       </c>
       <c r="D275">
         <v>40284</v>
@@ -17143,7 +17176,7 @@
         <v>8328280</v>
       </c>
       <c r="C276">
-        <v>214852</v>
+        <v>214941</v>
       </c>
       <c r="D276">
         <v>41036</v>
@@ -17163,7 +17196,7 @@
         <v>8410612</v>
       </c>
       <c r="C277">
-        <v>215775</v>
+        <v>215875</v>
       </c>
       <c r="D277">
         <v>41501</v>
@@ -17183,7 +17216,7 @@
         <v>8493898</v>
       </c>
       <c r="C278">
-        <v>216657</v>
+        <v>216765</v>
       </c>
       <c r="D278">
         <v>41989</v>
@@ -17203,7 +17236,7 @@
         <v>8558791</v>
       </c>
       <c r="C279">
-        <v>217031</v>
+        <v>217147</v>
       </c>
       <c r="D279">
         <v>41786</v>
@@ -17223,7 +17256,7 @@
         <v>8621317</v>
       </c>
       <c r="C280">
-        <v>217433</v>
+        <v>217549</v>
       </c>
       <c r="D280">
         <v>42924</v>
@@ -17243,7 +17276,7 @@
         <v>8693399</v>
       </c>
       <c r="C281">
-        <v>218353</v>
+        <v>218468</v>
       </c>
       <c r="D281">
         <v>44287</v>
@@ -17263,7 +17296,7 @@
         <v>8772147</v>
       </c>
       <c r="C282">
-        <v>219397</v>
+        <v>219512</v>
       </c>
       <c r="D282">
         <v>45124</v>
@@ -17283,7 +17316,7 @@
         <v>8860875</v>
       </c>
       <c r="C283">
-        <v>220427</v>
+        <v>220549</v>
       </c>
       <c r="D283">
         <v>46126</v>
@@ -17303,7 +17336,7 @@
         <v>8958108</v>
       </c>
       <c r="C284">
-        <v>221379</v>
+        <v>221496</v>
       </c>
       <c r="D284">
         <v>46738</v>
@@ -17323,7 +17356,7 @@
         <v>9048695</v>
       </c>
       <c r="C285">
-        <v>222330</v>
+        <v>222459</v>
       </c>
       <c r="D285">
         <v>47402</v>
@@ -17343,7 +17376,7 @@
         <v>9122544</v>
       </c>
       <c r="C286">
-        <v>222718</v>
+        <v>222854</v>
       </c>
       <c r="D286">
         <v>47531</v>
@@ -17363,7 +17396,7 @@
         <v>9204591</v>
       </c>
       <c r="C287">
-        <v>223217</v>
+        <v>223345</v>
       </c>
       <c r="D287">
         <v>48693</v>
@@ -17383,7 +17416,7 @@
         <v>9291253</v>
       </c>
       <c r="C288">
-        <v>224732</v>
+        <v>224859</v>
       </c>
       <c r="D288">
         <v>50426</v>
@@ -17403,7 +17436,7 @@
         <v>9394557</v>
       </c>
       <c r="C289">
-        <v>225858</v>
+        <v>225976</v>
       </c>
       <c r="D289">
         <v>52086</v>
@@ -17423,7 +17456,7 @@
         <v>9510998</v>
       </c>
       <c r="C290">
-        <v>226989</v>
+        <v>227122</v>
       </c>
       <c r="D290">
         <v>53375</v>
@@ -17443,7 +17476,7 @@
         <v>9636751</v>
       </c>
       <c r="C291">
-        <v>228157</v>
+        <v>228295</v>
       </c>
       <c r="D291">
         <v>54851</v>
@@ -17463,7 +17496,7 @@
         <v>9765966</v>
       </c>
       <c r="C292">
-        <v>229261</v>
+        <v>229414</v>
       </c>
       <c r="D292">
         <v>55925</v>
@@ -17483,7 +17516,7 @@
         <v>9876247</v>
       </c>
       <c r="C293">
-        <v>229746</v>
+        <v>229910</v>
       </c>
       <c r="D293">
         <v>56842</v>
@@ -17503,7 +17536,7 @@
         <v>9995679</v>
       </c>
       <c r="C294">
-        <v>230335</v>
+        <v>230487</v>
       </c>
       <c r="D294">
         <v>59301</v>
@@ -17523,7 +17556,7 @@
         <v>10126861</v>
       </c>
       <c r="C295">
-        <v>231695</v>
+        <v>231847</v>
       </c>
       <c r="D295">
         <v>62059</v>
@@ -17543,7 +17576,7 @@
         <v>10271662</v>
       </c>
       <c r="C296">
-        <v>233238</v>
+        <v>233410</v>
       </c>
       <c r="D296">
         <v>65463</v>
@@ -17563,7 +17596,7 @@
         <v>10423665</v>
       </c>
       <c r="C297">
-        <v>234379</v>
+        <v>234529</v>
       </c>
       <c r="D297">
         <v>67100</v>
@@ -17583,7 +17616,7 @@
         <v>10595771</v>
       </c>
       <c r="C298">
-        <v>235654</v>
+        <v>235797</v>
       </c>
       <c r="D298">
         <v>68496</v>
@@ -17603,7 +17636,7 @@
         <v>10759311</v>
       </c>
       <c r="C299">
-        <v>236966</v>
+        <v>237128</v>
       </c>
       <c r="D299">
         <v>69498</v>
@@ -17623,7 +17656,7 @@
         <v>10903745</v>
       </c>
       <c r="C300">
-        <v>237643</v>
+        <v>237815</v>
       </c>
       <c r="D300">
         <v>70113</v>
@@ -17643,7 +17676,7 @@
         <v>11052613</v>
       </c>
       <c r="C301">
-        <v>238280</v>
+        <v>238434</v>
       </c>
       <c r="D301">
         <v>73268</v>
@@ -17663,7 +17696,7 @@
         <v>11209335</v>
       </c>
       <c r="C302">
-        <v>239835</v>
+        <v>239989</v>
       </c>
       <c r="D302">
         <v>76958</v>
@@ -17683,7 +17716,7 @@
         <v>11373310</v>
       </c>
       <c r="C303">
-        <v>241704</v>
+        <v>241853</v>
       </c>
       <c r="D303">
         <v>79410</v>
@@ -17703,7 +17736,7 @@
         <v>11556142</v>
       </c>
       <c r="C304">
-        <v>243675</v>
+        <v>243820</v>
       </c>
       <c r="D304">
         <v>80585</v>
@@ -17723,7 +17756,7 @@
         <v>11748947</v>
       </c>
       <c r="C305">
-        <v>245537</v>
+        <v>245704</v>
       </c>
       <c r="D305">
         <v>82150</v>
@@ -17743,7 +17776,7 @@
         <v>11928661</v>
       </c>
       <c r="C306">
-        <v>247049</v>
+        <v>247216</v>
       </c>
       <c r="D306">
         <v>83232</v>
@@ -17763,7 +17796,7 @@
         <v>12079497</v>
       </c>
       <c r="C307">
-        <v>247941</v>
+        <v>248114</v>
       </c>
       <c r="D307">
         <v>83779</v>
@@ -17783,7 +17816,7 @@
         <v>12230472</v>
       </c>
       <c r="C308">
-        <v>248897</v>
+        <v>249069</v>
       </c>
       <c r="D308">
         <v>85870</v>
@@ -17803,7 +17836,7 @@
         <v>12397484</v>
       </c>
       <c r="C309">
-        <v>250926</v>
+        <v>251135</v>
       </c>
       <c r="D309">
         <v>88080</v>
@@ -17823,7 +17856,7 @@
         <v>12581085</v>
       </c>
       <c r="C310">
-        <v>253211</v>
+        <v>253424</v>
       </c>
       <c r="D310">
         <v>89959</v>
@@ -17843,7 +17876,7 @@
         <v>12707341</v>
       </c>
       <c r="C311">
-        <v>254537</v>
+        <v>254760</v>
       </c>
       <c r="D311">
         <v>90443</v>
@@ -17863,7 +17896,7 @@
         <v>12901146</v>
       </c>
       <c r="C312">
-        <v>255904</v>
+        <v>256132</v>
       </c>
       <c r="D312">
         <v>89834</v>
@@ -17883,7 +17916,7 @@
         <v>13055656</v>
       </c>
       <c r="C313">
-        <v>257136</v>
+        <v>257377</v>
       </c>
       <c r="D313">
         <v>91665</v>
@@ -17903,7 +17936,7 @@
         <v>13190895</v>
       </c>
       <c r="C314">
-        <v>257939</v>
+        <v>258180</v>
       </c>
       <c r="D314">
         <v>93265</v>
@@ -17920,19 +17953,39 @@
         <v>319</v>
       </c>
       <c r="B315">
-        <v>13337969</v>
+        <v>13338483</v>
       </c>
       <c r="C315">
-        <v>259075</v>
+        <v>259316</v>
       </c>
       <c r="D315">
-        <v>96039</v>
+        <v>96053</v>
       </c>
       <c r="E315">
         <v>18545</v>
       </c>
       <c r="F315">
         <v>6520</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>320</v>
+      </c>
+      <c r="B316">
+        <v>13515234</v>
+      </c>
+      <c r="C316">
+        <v>261789</v>
+      </c>
+      <c r="D316">
+        <v>98691</v>
+      </c>
+      <c r="E316">
+        <v>19035</v>
+      </c>
+      <c r="F316">
+        <v>6649</v>
       </c>
     </row>
   </sheetData>
@@ -17947,7 +18000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/covid19/data/USCaseDeathBeds.xlsx
+++ b/covid19/data/USCaseDeathBeds.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2680FF18-1610-42D1-97C9-F08FD3379FFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869350E9-9F17-4270-BB57-66AC4819B621}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" odcFile="C:\Users\Mark\Documents\My Data Sources\howe-hp_howehp Covid19 CaseDeathsBeds.odc" keepAlive="1" name="howe-hp_howehp Covid19 CaseDeathsBeds" type="5" refreshedVersion="6" background="1" refreshOnLoad="1" saveData="1">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" odcFile="C:\Users\Mark\Documents\My Data Sources\howe-hp_howehp Covid19 CaseDeathsBeds.odc" keepAlive="1" name="howe-hp_howehp Covid19 CaseDeathsBeds" type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=SQLOLEDB.1;Integrated Security=SSPI;Persist Security Info=True;Initial Catalog=Covid19;Data Source=howe-hp\howehp;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=4096;Workstation ID=HOWE-HP;Use Encryption for Data=False;Tag with column collation when possible=False" command="&quot;Covid19&quot;.&quot;dbo&quot;.&quot;CaseDeathsBeds&quot;" commandType="3"/>
   </connection>
 </connections>
@@ -11299,7 +11299,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="howe-hp_howehp Covid19 CaseDeathsBeds" refreshOnLoad="1" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="howe-hp_howehp Covid19 CaseDeathsBeds" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="7">
     <queryTableFields count="6">
       <queryTableField id="1" name="date" tableColumnId="1"/>
@@ -11654,8 +11654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F316"/>
   <sheetViews>
-    <sheetView topLeftCell="A279" workbookViewId="0">
-      <selection activeCell="B305" sqref="B305"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18000,7 +18000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/covid19/data/USCaseDeathBeds.xlsx
+++ b/covid19/data/USCaseDeathBeds.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869350E9-9F17-4270-BB57-66AC4819B621}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531FF68B-8F8E-414F-B366-1C9F995BDDED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -11654,7 +11654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F316"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
       <selection sqref="A1:F316"/>
     </sheetView>
   </sheetViews>

--- a/covid19/data/USCaseDeathBeds.xlsx
+++ b/covid19/data/USCaseDeathBeds.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531FF68B-8F8E-414F-B366-1C9F995BDDED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF3D456-2634-432C-9E71-692373D9DA4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="Deaths" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$316</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$317</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="322">
   <si>
     <t>date</t>
   </si>
@@ -994,6 +994,9 @@
   </si>
   <si>
     <t>2020-12-01</t>
+  </si>
+  <si>
+    <t>2020-12-02</t>
   </si>
 </sst>
 </file>
@@ -1082,9 +1085,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$316</c:f>
+              <c:f>Data!$A$2:$A$317</c:f>
               <c:strCache>
-                <c:ptCount val="315"/>
+                <c:ptCount val="316"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -2029,16 +2032,19 @@
                 </c:pt>
                 <c:pt idx="314">
                   <c:v>2020-12-01</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>2020-12-02</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$316</c:f>
+              <c:f>Data!$B$2:$B$317</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="315"/>
+                <c:ptCount val="316"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2394,595 +2400,598 @@
                   <c:v>1510938</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>1531816</c:v>
+                  <c:v>1531817</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>1553074</c:v>
+                  <c:v>1553080</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>1579817</c:v>
+                  <c:v>1579819</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>1603990</c:v>
+                  <c:v>1603992</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>1626355</c:v>
+                  <c:v>1626358</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>1645214</c:v>
+                  <c:v>1645221</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>1663745</c:v>
+                  <c:v>1663751</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>1680723</c:v>
+                  <c:v>1680726</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>1700136</c:v>
+                  <c:v>1700139</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>1722794</c:v>
+                  <c:v>1722795</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>1746382</c:v>
+                  <c:v>1746384</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>1769819</c:v>
+                  <c:v>1769823</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>1791211</c:v>
+                  <c:v>1791215</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>1811571</c:v>
+                  <c:v>1811575</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>1831729</c:v>
+                  <c:v>1831730</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>1851884</c:v>
+                  <c:v>1851919</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>1872267</c:v>
+                  <c:v>1872268</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>1895332</c:v>
+                  <c:v>1895349</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>1917892</c:v>
+                  <c:v>1917907</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>1936710</c:v>
+                  <c:v>1936720</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>1953940</c:v>
+                  <c:v>1953946</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>1971092</c:v>
+                  <c:v>1971100</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>1991819</c:v>
+                  <c:v>1991832</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>2013889</c:v>
+                  <c:v>2013897</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>2036984</c:v>
+                  <c:v>2036988</c:v>
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>2062230</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>2083563</c:v>
+                  <c:v>2083562</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>2102217</c:v>
+                  <c:v>2102218</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>2125485</c:v>
+                  <c:v>2125483</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>2149390</c:v>
+                  <c:v>2149395</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>2176478</c:v>
+                  <c:v>2176486</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>2207438</c:v>
+                  <c:v>2207441</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>2239388</c:v>
+                  <c:v>2239400</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>2268236</c:v>
+                  <c:v>2268240</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>2295415</c:v>
+                  <c:v>2295417</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>2329299</c:v>
+                  <c:v>2329320</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>2368308</c:v>
+                  <c:v>2368316</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>2407989</c:v>
+                  <c:v>2407997</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>2452368</c:v>
+                  <c:v>2452371</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>2495261</c:v>
+                  <c:v>2495265</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>2536592</c:v>
+                  <c:v>2536600</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>2576357</c:v>
+                  <c:v>2576359</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>2623987</c:v>
+                  <c:v>2623991</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>2674988</c:v>
+                  <c:v>2675007</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>2728496</c:v>
+                  <c:v>2728507</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>2782184</c:v>
+                  <c:v>2782188</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>2836328</c:v>
+                  <c:v>2836341</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>2881495</c:v>
+                  <c:v>2881499</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>2922989</c:v>
+                  <c:v>2922994</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>2974731</c:v>
+                  <c:v>2974735</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>3037467</c:v>
+                  <c:v>3037483</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>3096428</c:v>
+                  <c:v>3096433</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>3163252</c:v>
+                  <c:v>3163257</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>3225577</c:v>
+                  <c:v>3225589</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>3286549</c:v>
+                  <c:v>3286554</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>3344151</c:v>
+                  <c:v>3344155</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>3406885</c:v>
+                  <c:v>3406897</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>3472504</c:v>
+                  <c:v>3472513</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>3542950</c:v>
+                  <c:v>3542961</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>3619168</c:v>
+                  <c:v>3619173</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>3683592</c:v>
+                  <c:v>3683603</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>3747309</c:v>
+                  <c:v>3747318</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>3804245</c:v>
+                  <c:v>3804251</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>3867869</c:v>
+                  <c:v>3867871</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>3937213</c:v>
+                  <c:v>3937226</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>4008438</c:v>
+                  <c:v>4008445</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>4083295</c:v>
+                  <c:v>4083307</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>4147669</c:v>
+                  <c:v>4147674</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>4207792</c:v>
+                  <c:v>4207795</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>4262806</c:v>
+                  <c:v>4262810</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>4321790</c:v>
+                  <c:v>4321792</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>4385731</c:v>
+                  <c:v>4385733</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>4454537</c:v>
+                  <c:v>4454546</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>4522066</c:v>
+                  <c:v>4522073</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>4582313</c:v>
+                  <c:v>4582317</c:v>
                 </c:pt>
                 <c:pt idx="193">
                   <c:v>4628824</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>4678172</c:v>
+                  <c:v>4678176</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>4729986</c:v>
+                  <c:v>4729991</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>4782450</c:v>
+                  <c:v>4782460</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>4836252</c:v>
+                  <c:v>4836254</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>4897090</c:v>
+                  <c:v>4897095</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>4950174</c:v>
+                  <c:v>4950178</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>5000327</c:v>
+                  <c:v>5000329</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>5042070</c:v>
+                  <c:v>5042081</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>5097498</c:v>
+                  <c:v>5097504</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>5153393</c:v>
+                  <c:v>5153399</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>5205014</c:v>
+                  <c:v>5205031</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>5262107</c:v>
+                  <c:v>5262116</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>5317916</c:v>
+                  <c:v>5317922</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>5360239</c:v>
+                  <c:v>5360251</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>5397650</c:v>
+                  <c:v>5397653</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>5438142</c:v>
+                  <c:v>5438144</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>5483025</c:v>
+                  <c:v>5483028</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>5526748</c:v>
+                  <c:v>5526751</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>5572943</c:v>
+                  <c:v>5572953</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>5618666</c:v>
+                  <c:v>5618669</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>5655990</c:v>
+                  <c:v>5655997</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>5690240</c:v>
+                  <c:v>5690244</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>5726828</c:v>
+                  <c:v>5726830</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>5770456</c:v>
+                  <c:v>5770464</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>5814370</c:v>
+                  <c:v>5814373</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>5860495</c:v>
+                  <c:v>5860507</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>5904462</c:v>
+                  <c:v>5904469</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>5943747</c:v>
+                  <c:v>5943748</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>5975020</c:v>
+                  <c:v>5975019</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>6017446</c:v>
+                  <c:v>6017436</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>6047663</c:v>
+                  <c:v>6047656</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>6092279</c:v>
+                  <c:v>6092282</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>6143787</c:v>
+                  <c:v>6143790</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>6188531</c:v>
+                  <c:v>6188530</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>6221452</c:v>
+                  <c:v>6221454</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>6249595</c:v>
+                  <c:v>6249596</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>6271732</c:v>
+                  <c:v>6271735</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>6302902</c:v>
+                  <c:v>6302906</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>6340206</c:v>
+                  <c:v>6340213</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>6384889</c:v>
+                  <c:v>6384898</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>6426755</c:v>
+                  <c:v>6426762</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>6461066</c:v>
+                  <c:v>6461077</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>6494687</c:v>
+                  <c:v>6494693</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>6529591</c:v>
+                  <c:v>6529593</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>6569701</c:v>
+                  <c:v>6569706</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>6612990</c:v>
+                  <c:v>6612994</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>6660241</c:v>
+                  <c:v>6660248</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>6705146</c:v>
+                  <c:v>6705154</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>6740649</c:v>
+                  <c:v>6740656</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>6779788</c:v>
+                  <c:v>6779793</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>6829263</c:v>
+                  <c:v>6829267</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>6867883</c:v>
+                  <c:v>6867888</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>6911229</c:v>
+                  <c:v>6911239</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>6966418</c:v>
+                  <c:v>6966431</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>7013821</c:v>
+                  <c:v>7013828</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>7048808</c:v>
+                  <c:v>7048815</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>7084691</c:v>
+                  <c:v>7084699</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>7121132</c:v>
+                  <c:v>7121139</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>7165479</c:v>
+                  <c:v>7165486</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>7211084</c:v>
+                  <c:v>7211102</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>7260341</c:v>
+                  <c:v>7260355</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>7311276</c:v>
+                  <c:v>7311286</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>7349264</c:v>
+                  <c:v>7349300</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>7387020</c:v>
+                  <c:v>7387028</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>7425937</c:v>
+                  <c:v>7425948</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>7476527</c:v>
+                  <c:v>7476543</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>7531735</c:v>
+                  <c:v>7531748</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>7588537</c:v>
+                  <c:v>7588552</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>7645952</c:v>
+                  <c:v>7645966</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>7692221</c:v>
+                  <c:v>7692233</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>7734864</c:v>
+                  <c:v>7734879</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>7783457</c:v>
+                  <c:v>7783465</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>7839574</c:v>
+                  <c:v>7839595</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>7902966</c:v>
+                  <c:v>7902986</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>7971214</c:v>
+                  <c:v>7971231</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>8028544</c:v>
+                  <c:v>8028561</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>8076828</c:v>
+                  <c:v>8076842</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>8133938</c:v>
+                  <c:v>8133955</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>8194485</c:v>
+                  <c:v>8194512</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>8255438</c:v>
+                  <c:v>8255466</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>8328280</c:v>
+                  <c:v>8328322</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>8410612</c:v>
+                  <c:v>8410653</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>8493898</c:v>
+                  <c:v>8493942</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>8558791</c:v>
+                  <c:v>8558814</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>8621317</c:v>
+                  <c:v>8621361</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>8693399</c:v>
+                  <c:v>8693424</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>8772147</c:v>
+                  <c:v>8772181</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>8860875</c:v>
+                  <c:v>8860907</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>8958108</c:v>
+                  <c:v>8958148</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>9048695</c:v>
+                  <c:v>9048728</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>9122544</c:v>
+                  <c:v>9122583</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>9204591</c:v>
+                  <c:v>9204629</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>9291253</c:v>
+                  <c:v>9291304</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>9394557</c:v>
+                  <c:v>9394616</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>9510998</c:v>
+                  <c:v>9511049</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>9636751</c:v>
+                  <c:v>9636807</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>9765966</c:v>
+                  <c:v>9766055</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>9876247</c:v>
+                  <c:v>9876316</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>9995679</c:v>
+                  <c:v>9995777</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>10126861</c:v>
+                  <c:v>10127001</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>10271662</c:v>
+                  <c:v>10271854</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>10423665</c:v>
+                  <c:v>10423843</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>10595771</c:v>
+                  <c:v>10595955</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>10759311</c:v>
+                  <c:v>10759439</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>10903745</c:v>
+                  <c:v>10903951</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>11052613</c:v>
+                  <c:v>11052806</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>11209335</c:v>
+                  <c:v>11209486</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>11373310</c:v>
+                  <c:v>11373556</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>11556142</c:v>
+                  <c:v>11556383</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>11748947</c:v>
+                  <c:v>11749127</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>11928661</c:v>
+                  <c:v>11928842</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>12079497</c:v>
+                  <c:v>12079663</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>12230472</c:v>
+                  <c:v>12230603</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>12397484</c:v>
+                  <c:v>12397660</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>12581085</c:v>
+                  <c:v>12581275</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>12707341</c:v>
+                  <c:v>12707628</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>12901146</c:v>
+                  <c:v>12901295</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>13055656</c:v>
+                  <c:v>13055846</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>13190895</c:v>
+                  <c:v>13191088</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>13338483</c:v>
+                  <c:v>13338671</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>13515234</c:v>
+                  <c:v>13515456</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>13711151</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3091,9 +3100,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$316</c:f>
+              <c:f>Data!$A$2:$A$317</c:f>
               <c:strCache>
-                <c:ptCount val="315"/>
+                <c:ptCount val="316"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -4038,16 +4047,19 @@
                 </c:pt>
                 <c:pt idx="314">
                   <c:v>2020-12-01</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>2020-12-02</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$2:$D$316</c:f>
+              <c:f>Data!$D$2:$D$317</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="315"/>
+                <c:ptCount val="316"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4992,6 +5004,9 @@
                 </c:pt>
                 <c:pt idx="314">
                   <c:v>98691</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>100226</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5100,9 +5115,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$316</c:f>
+              <c:f>Data!$A$2:$A$317</c:f>
               <c:strCache>
-                <c:ptCount val="315"/>
+                <c:ptCount val="316"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -6047,16 +6062,19 @@
                 </c:pt>
                 <c:pt idx="314">
                   <c:v>2020-12-01</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>2020-12-02</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$316</c:f>
+              <c:f>Data!$E$2:$E$317</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="315"/>
+                <c:ptCount val="316"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7001,6 +7019,9 @@
                 </c:pt>
                 <c:pt idx="314">
                   <c:v>19035</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>19396</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7109,9 +7130,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$316</c:f>
+              <c:f>Data!$A$2:$A$317</c:f>
               <c:strCache>
-                <c:ptCount val="315"/>
+                <c:ptCount val="316"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -8056,16 +8077,19 @@
                 </c:pt>
                 <c:pt idx="314">
                   <c:v>2020-12-01</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>2020-12-02</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$316</c:f>
+              <c:f>Data!$F$2:$F$317</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="315"/>
+                <c:ptCount val="316"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9010,6 +9034,9 @@
                 </c:pt>
                 <c:pt idx="314">
                   <c:v>6649</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>6855</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9118,9 +9145,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$316</c:f>
+              <c:f>Data!$A$2:$A$317</c:f>
               <c:strCache>
-                <c:ptCount val="315"/>
+                <c:ptCount val="316"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -10065,16 +10092,19 @@
                 </c:pt>
                 <c:pt idx="314">
                   <c:v>2020-12-01</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>2020-12-02</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$316</c:f>
+              <c:f>Data!$C$2:$C$317</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="315"/>
+                <c:ptCount val="316"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11019,6 +11049,9 @@
                 </c:pt>
                 <c:pt idx="314">
                   <c:v>261789</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>264522</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11314,9 +11347,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F316" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F316" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F316">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F317" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F317" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F317">
     <sortCondition ref="A1:A254"/>
   </sortState>
   <tableColumns count="6">
@@ -11652,7 +11685,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F316"/>
+  <dimension ref="A1:F317"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
       <selection sqref="A1:F316"/>
@@ -14053,7 +14086,7 @@
         <v>124</v>
       </c>
       <c r="B120">
-        <v>1531816</v>
+        <v>1531817</v>
       </c>
       <c r="C120">
         <v>88155</v>
@@ -14073,7 +14106,7 @@
         <v>125</v>
       </c>
       <c r="B121">
-        <v>1553074</v>
+        <v>1553080</v>
       </c>
       <c r="C121">
         <v>89545</v>
@@ -14093,7 +14126,7 @@
         <v>126</v>
       </c>
       <c r="B122">
-        <v>1579817</v>
+        <v>1579819</v>
       </c>
       <c r="C122">
         <v>90972</v>
@@ -14113,7 +14146,7 @@
         <v>127</v>
       </c>
       <c r="B123">
-        <v>1603990</v>
+        <v>1603992</v>
       </c>
       <c r="C123">
         <v>92275</v>
@@ -14133,7 +14166,7 @@
         <v>128</v>
       </c>
       <c r="B124">
-        <v>1626355</v>
+        <v>1626358</v>
       </c>
       <c r="C124">
         <v>93310</v>
@@ -14153,7 +14186,7 @@
         <v>129</v>
       </c>
       <c r="B125">
-        <v>1645214</v>
+        <v>1645221</v>
       </c>
       <c r="C125">
         <v>93994</v>
@@ -14173,7 +14206,7 @@
         <v>130</v>
       </c>
       <c r="B126">
-        <v>1663745</v>
+        <v>1663751</v>
       </c>
       <c r="C126">
         <v>94548</v>
@@ -14193,7 +14226,7 @@
         <v>131</v>
       </c>
       <c r="B127">
-        <v>1680723</v>
+        <v>1680726</v>
       </c>
       <c r="C127">
         <v>95220</v>
@@ -14213,7 +14246,7 @@
         <v>132</v>
       </c>
       <c r="B128">
-        <v>1700136</v>
+        <v>1700139</v>
       </c>
       <c r="C128">
         <v>96536</v>
@@ -14233,7 +14266,7 @@
         <v>133</v>
       </c>
       <c r="B129">
-        <v>1722794</v>
+        <v>1722795</v>
       </c>
       <c r="C129">
         <v>97778</v>
@@ -14253,7 +14286,7 @@
         <v>134</v>
       </c>
       <c r="B130">
-        <v>1746382</v>
+        <v>1746384</v>
       </c>
       <c r="C130">
         <v>98947</v>
@@ -14273,7 +14306,7 @@
         <v>135</v>
       </c>
       <c r="B131">
-        <v>1769819</v>
+        <v>1769823</v>
       </c>
       <c r="C131">
         <v>99865</v>
@@ -14293,7 +14326,7 @@
         <v>136</v>
       </c>
       <c r="B132">
-        <v>1791211</v>
+        <v>1791215</v>
       </c>
       <c r="C132">
         <v>100516</v>
@@ -14313,7 +14346,7 @@
         <v>137</v>
       </c>
       <c r="B133">
-        <v>1811571</v>
+        <v>1811575</v>
       </c>
       <c r="C133">
         <v>101187</v>
@@ -14333,7 +14366,7 @@
         <v>138</v>
       </c>
       <c r="B134">
-        <v>1831729</v>
+        <v>1831730</v>
       </c>
       <c r="C134">
         <v>102187</v>
@@ -14353,7 +14386,7 @@
         <v>139</v>
       </c>
       <c r="B135">
-        <v>1851884</v>
+        <v>1851919</v>
       </c>
       <c r="C135">
         <v>103167</v>
@@ -14373,7 +14406,7 @@
         <v>140</v>
       </c>
       <c r="B136">
-        <v>1872267</v>
+        <v>1872268</v>
       </c>
       <c r="C136">
         <v>104031</v>
@@ -14393,7 +14426,7 @@
         <v>141</v>
       </c>
       <c r="B137">
-        <v>1895332</v>
+        <v>1895349</v>
       </c>
       <c r="C137">
         <v>104875</v>
@@ -14413,7 +14446,7 @@
         <v>142</v>
       </c>
       <c r="B138">
-        <v>1917892</v>
+        <v>1917907</v>
       </c>
       <c r="C138">
         <v>105586</v>
@@ -14433,7 +14466,7 @@
         <v>143</v>
       </c>
       <c r="B139">
-        <v>1936710</v>
+        <v>1936720</v>
       </c>
       <c r="C139">
         <v>106032</v>
@@ -14453,7 +14486,7 @@
         <v>144</v>
       </c>
       <c r="B140">
-        <v>1953940</v>
+        <v>1953946</v>
       </c>
       <c r="C140">
         <v>106708</v>
@@ -14473,7 +14506,7 @@
         <v>145</v>
       </c>
       <c r="B141">
-        <v>1971092</v>
+        <v>1971100</v>
       </c>
       <c r="C141">
         <v>107609</v>
@@ -14493,7 +14526,7 @@
         <v>146</v>
       </c>
       <c r="B142">
-        <v>1991819</v>
+        <v>1991832</v>
       </c>
       <c r="C142">
         <v>108493</v>
@@ -14513,7 +14546,7 @@
         <v>147</v>
       </c>
       <c r="B143">
-        <v>2013889</v>
+        <v>2013897</v>
       </c>
       <c r="C143">
         <v>109392</v>
@@ -14533,7 +14566,7 @@
         <v>148</v>
       </c>
       <c r="B144">
-        <v>2036984</v>
+        <v>2036988</v>
       </c>
       <c r="C144">
         <v>110155</v>
@@ -14573,7 +14606,7 @@
         <v>150</v>
       </c>
       <c r="B146">
-        <v>2083563</v>
+        <v>2083562</v>
       </c>
       <c r="C146">
         <v>111200</v>
@@ -14593,7 +14626,7 @@
         <v>151</v>
       </c>
       <c r="B147">
-        <v>2102217</v>
+        <v>2102218</v>
       </c>
       <c r="C147">
         <v>111606</v>
@@ -14613,7 +14646,7 @@
         <v>152</v>
       </c>
       <c r="B148">
-        <v>2125485</v>
+        <v>2125483</v>
       </c>
       <c r="C148">
         <v>112312</v>
@@ -14633,7 +14666,7 @@
         <v>153</v>
       </c>
       <c r="B149">
-        <v>2149390</v>
+        <v>2149395</v>
       </c>
       <c r="C149">
         <v>113106</v>
@@ -14653,7 +14686,7 @@
         <v>154</v>
       </c>
       <c r="B150">
-        <v>2176478</v>
+        <v>2176486</v>
       </c>
       <c r="C150">
         <v>113799</v>
@@ -14673,7 +14706,7 @@
         <v>155</v>
       </c>
       <c r="B151">
-        <v>2207438</v>
+        <v>2207441</v>
       </c>
       <c r="C151">
         <v>114455</v>
@@ -14693,7 +14726,7 @@
         <v>156</v>
       </c>
       <c r="B152">
-        <v>2239388</v>
+        <v>2239400</v>
       </c>
       <c r="C152">
         <v>115066</v>
@@ -14713,7 +14746,7 @@
         <v>157</v>
       </c>
       <c r="B153">
-        <v>2268236</v>
+        <v>2268240</v>
       </c>
       <c r="C153">
         <v>115359</v>
@@ -14733,7 +14766,7 @@
         <v>158</v>
       </c>
       <c r="B154">
-        <v>2295415</v>
+        <v>2295417</v>
       </c>
       <c r="C154">
         <v>115653</v>
@@ -14753,7 +14786,7 @@
         <v>159</v>
       </c>
       <c r="B155">
-        <v>2329299</v>
+        <v>2329320</v>
       </c>
       <c r="C155">
         <v>116378</v>
@@ -14773,7 +14806,7 @@
         <v>160</v>
       </c>
       <c r="B156">
-        <v>2368308</v>
+        <v>2368316</v>
       </c>
       <c r="C156">
         <v>117085</v>
@@ -14793,7 +14826,7 @@
         <v>161</v>
       </c>
       <c r="B157">
-        <v>2407989</v>
+        <v>2407997</v>
       </c>
       <c r="C157">
         <v>117748</v>
@@ -14813,7 +14846,7 @@
         <v>162</v>
       </c>
       <c r="B158">
-        <v>2452368</v>
+        <v>2452371</v>
       </c>
       <c r="C158">
         <v>118372</v>
@@ -14833,7 +14866,7 @@
         <v>163</v>
       </c>
       <c r="B159">
-        <v>2495261</v>
+        <v>2495265</v>
       </c>
       <c r="C159">
         <v>118874</v>
@@ -14853,7 +14886,7 @@
         <v>164</v>
       </c>
       <c r="B160">
-        <v>2536592</v>
+        <v>2536600</v>
       </c>
       <c r="C160">
         <v>119145</v>
@@ -14873,7 +14906,7 @@
         <v>165</v>
       </c>
       <c r="B161">
-        <v>2576357</v>
+        <v>2576359</v>
       </c>
       <c r="C161">
         <v>119503</v>
@@ -14893,7 +14926,7 @@
         <v>166</v>
       </c>
       <c r="B162">
-        <v>2623987</v>
+        <v>2623991</v>
       </c>
       <c r="C162">
         <v>120087</v>
@@ -14913,7 +14946,7 @@
         <v>167</v>
       </c>
       <c r="B163">
-        <v>2674988</v>
+        <v>2675007</v>
       </c>
       <c r="C163">
         <v>120776</v>
@@ -14933,7 +14966,7 @@
         <v>168</v>
       </c>
       <c r="B164">
-        <v>2728496</v>
+        <v>2728507</v>
       </c>
       <c r="C164">
         <v>121472</v>
@@ -14953,7 +14986,7 @@
         <v>169</v>
       </c>
       <c r="B165">
-        <v>2782184</v>
+        <v>2782188</v>
       </c>
       <c r="C165">
         <v>122074</v>
@@ -14973,7 +15006,7 @@
         <v>170</v>
       </c>
       <c r="B166">
-        <v>2836328</v>
+        <v>2836341</v>
       </c>
       <c r="C166">
         <v>122374</v>
@@ -14993,7 +15026,7 @@
         <v>171</v>
       </c>
       <c r="B167">
-        <v>2881495</v>
+        <v>2881499</v>
       </c>
       <c r="C167">
         <v>122581</v>
@@ -15013,7 +15046,7 @@
         <v>172</v>
       </c>
       <c r="B168">
-        <v>2922989</v>
+        <v>2922994</v>
       </c>
       <c r="C168">
         <v>122847</v>
@@ -15033,7 +15066,7 @@
         <v>173</v>
       </c>
       <c r="B169">
-        <v>2974731</v>
+        <v>2974735</v>
       </c>
       <c r="C169">
         <v>123752</v>
@@ -15053,7 +15086,7 @@
         <v>174</v>
       </c>
       <c r="B170">
-        <v>3037467</v>
+        <v>3037483</v>
       </c>
       <c r="C170">
         <v>124564</v>
@@ -15073,7 +15106,7 @@
         <v>175</v>
       </c>
       <c r="B171">
-        <v>3096428</v>
+        <v>3096433</v>
       </c>
       <c r="C171">
         <v>125464</v>
@@ -15093,7 +15126,7 @@
         <v>176</v>
       </c>
       <c r="B172">
-        <v>3163252</v>
+        <v>3163257</v>
       </c>
       <c r="C172">
         <v>126286</v>
@@ -15113,7 +15146,7 @@
         <v>177</v>
       </c>
       <c r="B173">
-        <v>3225577</v>
+        <v>3225589</v>
       </c>
       <c r="C173">
         <v>127038</v>
@@ -15133,7 +15166,7 @@
         <v>178</v>
       </c>
       <c r="B174">
-        <v>3286549</v>
+        <v>3286554</v>
       </c>
       <c r="C174">
         <v>127512</v>
@@ -15153,7 +15186,7 @@
         <v>179</v>
       </c>
       <c r="B175">
-        <v>3344151</v>
+        <v>3344155</v>
       </c>
       <c r="C175">
         <v>127843</v>
@@ -15173,7 +15206,7 @@
         <v>180</v>
       </c>
       <c r="B176">
-        <v>3406885</v>
+        <v>3406897</v>
       </c>
       <c r="C176">
         <v>128582</v>
@@ -15193,7 +15226,7 @@
         <v>181</v>
       </c>
       <c r="B177">
-        <v>3472504</v>
+        <v>3472513</v>
       </c>
       <c r="C177">
         <v>129442</v>
@@ -15213,7 +15246,7 @@
         <v>182</v>
       </c>
       <c r="B178">
-        <v>3542950</v>
+        <v>3542961</v>
       </c>
       <c r="C178">
         <v>130395</v>
@@ -15233,7 +15266,7 @@
         <v>183</v>
       </c>
       <c r="B179">
-        <v>3619168</v>
+        <v>3619173</v>
       </c>
       <c r="C179">
         <v>131331</v>
@@ -15253,7 +15286,7 @@
         <v>184</v>
       </c>
       <c r="B180">
-        <v>3683592</v>
+        <v>3683603</v>
       </c>
       <c r="C180">
         <v>132204</v>
@@ -15273,7 +15306,7 @@
         <v>185</v>
       </c>
       <c r="B181">
-        <v>3747309</v>
+        <v>3747318</v>
       </c>
       <c r="C181">
         <v>132731</v>
@@ -15293,7 +15326,7 @@
         <v>186</v>
       </c>
       <c r="B182">
-        <v>3804245</v>
+        <v>3804251</v>
       </c>
       <c r="C182">
         <v>133100</v>
@@ -15313,7 +15346,7 @@
         <v>187</v>
       </c>
       <c r="B183">
-        <v>3867869</v>
+        <v>3867871</v>
       </c>
       <c r="C183">
         <v>134169</v>
@@ -15333,7 +15366,7 @@
         <v>188</v>
       </c>
       <c r="B184">
-        <v>3937213</v>
+        <v>3937226</v>
       </c>
       <c r="C184">
         <v>135303</v>
@@ -15353,7 +15386,7 @@
         <v>189</v>
       </c>
       <c r="B185">
-        <v>4008438</v>
+        <v>4008445</v>
       </c>
       <c r="C185">
         <v>136364</v>
@@ -15373,7 +15406,7 @@
         <v>190</v>
       </c>
       <c r="B186">
-        <v>4083295</v>
+        <v>4083307</v>
       </c>
       <c r="C186">
         <v>137556</v>
@@ -15393,7 +15426,7 @@
         <v>191</v>
       </c>
       <c r="B187">
-        <v>4147669</v>
+        <v>4147674</v>
       </c>
       <c r="C187">
         <v>138561</v>
@@ -15413,7 +15446,7 @@
         <v>192</v>
       </c>
       <c r="B188">
-        <v>4207792</v>
+        <v>4207795</v>
       </c>
       <c r="C188">
         <v>139121</v>
@@ -15433,7 +15466,7 @@
         <v>193</v>
       </c>
       <c r="B189">
-        <v>4262806</v>
+        <v>4262810</v>
       </c>
       <c r="C189">
         <v>140186</v>
@@ -15453,7 +15486,7 @@
         <v>194</v>
       </c>
       <c r="B190">
-        <v>4321790</v>
+        <v>4321792</v>
       </c>
       <c r="C190">
         <v>141314</v>
@@ -15473,7 +15506,7 @@
         <v>195</v>
       </c>
       <c r="B191">
-        <v>4385731</v>
+        <v>4385733</v>
       </c>
       <c r="C191">
         <v>142805</v>
@@ -15493,7 +15526,7 @@
         <v>196</v>
       </c>
       <c r="B192">
-        <v>4454537</v>
+        <v>4454546</v>
       </c>
       <c r="C192">
         <v>144053</v>
@@ -15513,7 +15546,7 @@
         <v>197</v>
       </c>
       <c r="B193">
-        <v>4522066</v>
+        <v>4522073</v>
       </c>
       <c r="C193">
         <v>145366</v>
@@ -15533,7 +15566,7 @@
         <v>198</v>
       </c>
       <c r="B194">
-        <v>4582313</v>
+        <v>4582317</v>
       </c>
       <c r="C194">
         <v>146558</v>
@@ -15573,7 +15606,7 @@
         <v>200</v>
       </c>
       <c r="B196">
-        <v>4678172</v>
+        <v>4678176</v>
       </c>
       <c r="C196">
         <v>147588</v>
@@ -15593,7 +15626,7 @@
         <v>201</v>
       </c>
       <c r="B197">
-        <v>4729986</v>
+        <v>4729991</v>
       </c>
       <c r="C197">
         <v>148827</v>
@@ -15613,7 +15646,7 @@
         <v>202</v>
       </c>
       <c r="B198">
-        <v>4782450</v>
+        <v>4782460</v>
       </c>
       <c r="C198">
         <v>150187</v>
@@ -15633,7 +15666,7 @@
         <v>203</v>
       </c>
       <c r="B199">
-        <v>4836252</v>
+        <v>4836254</v>
       </c>
       <c r="C199">
         <v>151435</v>
@@ -15653,7 +15686,7 @@
         <v>204</v>
       </c>
       <c r="B200">
-        <v>4897090</v>
+        <v>4897095</v>
       </c>
       <c r="C200">
         <v>152768</v>
@@ -15673,7 +15706,7 @@
         <v>205</v>
       </c>
       <c r="B201">
-        <v>4950174</v>
+        <v>4950178</v>
       </c>
       <c r="C201">
         <v>153852</v>
@@ -15693,7 +15726,7 @@
         <v>206</v>
       </c>
       <c r="B202">
-        <v>5000327</v>
+        <v>5000329</v>
       </c>
       <c r="C202">
         <v>154466</v>
@@ -15713,7 +15746,7 @@
         <v>207</v>
       </c>
       <c r="B203">
-        <v>5042070</v>
+        <v>5042081</v>
       </c>
       <c r="C203">
         <v>154901</v>
@@ -15733,7 +15766,7 @@
         <v>208</v>
       </c>
       <c r="B204">
-        <v>5097498</v>
+        <v>5097504</v>
       </c>
       <c r="C204">
         <v>156224</v>
@@ -15753,7 +15786,7 @@
         <v>209</v>
       </c>
       <c r="B205">
-        <v>5153393</v>
+        <v>5153399</v>
       </c>
       <c r="C205">
         <v>157742</v>
@@ -15773,7 +15806,7 @@
         <v>210</v>
       </c>
       <c r="B206">
-        <v>5205014</v>
+        <v>5205031</v>
       </c>
       <c r="C206">
         <v>158906</v>
@@ -15793,7 +15826,7 @@
         <v>211</v>
       </c>
       <c r="B207">
-        <v>5262107</v>
+        <v>5262116</v>
       </c>
       <c r="C207">
         <v>160125</v>
@@ -15813,7 +15846,7 @@
         <v>212</v>
       </c>
       <c r="B208">
-        <v>5317916</v>
+        <v>5317922</v>
       </c>
       <c r="C208">
         <v>161343</v>
@@ -15833,7 +15866,7 @@
         <v>213</v>
       </c>
       <c r="B209">
-        <v>5360239</v>
+        <v>5360251</v>
       </c>
       <c r="C209">
         <v>161961</v>
@@ -15853,7 +15886,7 @@
         <v>214</v>
       </c>
       <c r="B210">
-        <v>5397650</v>
+        <v>5397653</v>
       </c>
       <c r="C210">
         <v>162380</v>
@@ -15873,7 +15906,7 @@
         <v>215</v>
       </c>
       <c r="B211">
-        <v>5438142</v>
+        <v>5438144</v>
       </c>
       <c r="C211">
         <v>163575</v>
@@ -15893,7 +15926,7 @@
         <v>216</v>
       </c>
       <c r="B212">
-        <v>5483025</v>
+        <v>5483028</v>
       </c>
       <c r="C212">
         <v>164999</v>
@@ -15913,7 +15946,7 @@
         <v>217</v>
       </c>
       <c r="B213">
-        <v>5526748</v>
+        <v>5526751</v>
       </c>
       <c r="C213">
         <v>166133</v>
@@ -15933,7 +15966,7 @@
         <v>218</v>
       </c>
       <c r="B214">
-        <v>5572943</v>
+        <v>5572953</v>
       </c>
       <c r="C214">
         <v>167243</v>
@@ -15953,7 +15986,7 @@
         <v>219</v>
       </c>
       <c r="B215">
-        <v>5618666</v>
+        <v>5618669</v>
       </c>
       <c r="C215">
         <v>168271</v>
@@ -15973,7 +16006,7 @@
         <v>220</v>
       </c>
       <c r="B216">
-        <v>5655990</v>
+        <v>5655997</v>
       </c>
       <c r="C216">
         <v>168845</v>
@@ -15993,7 +16026,7 @@
         <v>221</v>
       </c>
       <c r="B217">
-        <v>5690240</v>
+        <v>5690244</v>
       </c>
       <c r="C217">
         <v>169197</v>
@@ -16013,7 +16046,7 @@
         <v>222</v>
       </c>
       <c r="B218">
-        <v>5726828</v>
+        <v>5726830</v>
       </c>
       <c r="C218">
         <v>170337</v>
@@ -16033,7 +16066,7 @@
         <v>223</v>
       </c>
       <c r="B219">
-        <v>5770456</v>
+        <v>5770464</v>
       </c>
       <c r="C219">
         <v>171642</v>
@@ -16053,7 +16086,7 @@
         <v>224</v>
       </c>
       <c r="B220">
-        <v>5814370</v>
+        <v>5814373</v>
       </c>
       <c r="C220">
         <v>172766</v>
@@ -16073,7 +16106,7 @@
         <v>225</v>
       </c>
       <c r="B221">
-        <v>5860495</v>
+        <v>5860507</v>
       </c>
       <c r="C221">
         <v>173792</v>
@@ -16093,7 +16126,7 @@
         <v>226</v>
       </c>
       <c r="B222">
-        <v>5904462</v>
+        <v>5904469</v>
       </c>
       <c r="C222">
         <v>174800</v>
@@ -16113,7 +16146,7 @@
         <v>227</v>
       </c>
       <c r="B223">
-        <v>5943747</v>
+        <v>5943748</v>
       </c>
       <c r="C223">
         <v>175274</v>
@@ -16133,7 +16166,7 @@
         <v>228</v>
       </c>
       <c r="B224">
-        <v>5975020</v>
+        <v>5975019</v>
       </c>
       <c r="C224">
         <v>175656</v>
@@ -16153,7 +16186,7 @@
         <v>229</v>
       </c>
       <c r="B225">
-        <v>6017446</v>
+        <v>6017436</v>
       </c>
       <c r="C225">
         <v>176678</v>
@@ -16173,7 +16206,7 @@
         <v>230</v>
       </c>
       <c r="B226">
-        <v>6047663</v>
+        <v>6047656</v>
       </c>
       <c r="C226">
         <v>177704</v>
@@ -16193,7 +16226,7 @@
         <v>231</v>
       </c>
       <c r="B227">
-        <v>6092279</v>
+        <v>6092282</v>
       </c>
       <c r="C227">
         <v>178780</v>
@@ -16213,7 +16246,7 @@
         <v>232</v>
       </c>
       <c r="B228">
-        <v>6143787</v>
+        <v>6143790</v>
       </c>
       <c r="C228">
         <v>179776</v>
@@ -16233,7 +16266,7 @@
         <v>233</v>
       </c>
       <c r="B229">
-        <v>6188531</v>
+        <v>6188530</v>
       </c>
       <c r="C229">
         <v>180697</v>
@@ -16253,7 +16286,7 @@
         <v>234</v>
       </c>
       <c r="B230">
-        <v>6221452</v>
+        <v>6221454</v>
       </c>
       <c r="C230">
         <v>181144</v>
@@ -16273,7 +16306,7 @@
         <v>235</v>
       </c>
       <c r="B231">
-        <v>6249595</v>
+        <v>6249596</v>
       </c>
       <c r="C231">
         <v>181370</v>
@@ -16293,7 +16326,7 @@
         <v>236</v>
       </c>
       <c r="B232">
-        <v>6271732</v>
+        <v>6271735</v>
       </c>
       <c r="C232">
         <v>181722</v>
@@ -16313,7 +16346,7 @@
         <v>237</v>
       </c>
       <c r="B233">
-        <v>6302902</v>
+        <v>6302906</v>
       </c>
       <c r="C233">
         <v>182824</v>
@@ -16333,7 +16366,7 @@
         <v>238</v>
       </c>
       <c r="B234">
-        <v>6340206</v>
+        <v>6340213</v>
       </c>
       <c r="C234">
         <v>183985</v>
@@ -16353,7 +16386,7 @@
         <v>239</v>
       </c>
       <c r="B235">
-        <v>6384889</v>
+        <v>6384898</v>
       </c>
       <c r="C235">
         <v>184993</v>
@@ -16373,7 +16406,7 @@
         <v>240</v>
       </c>
       <c r="B236">
-        <v>6426755</v>
+        <v>6426762</v>
       </c>
       <c r="C236">
         <v>185811</v>
@@ -16393,7 +16426,7 @@
         <v>241</v>
       </c>
       <c r="B237">
-        <v>6461066</v>
+        <v>6461077</v>
       </c>
       <c r="C237">
         <v>186201</v>
@@ -16413,7 +16446,7 @@
         <v>242</v>
       </c>
       <c r="B238">
-        <v>6494687</v>
+        <v>6494693</v>
       </c>
       <c r="C238">
         <v>186609</v>
@@ -16433,7 +16466,7 @@
         <v>243</v>
       </c>
       <c r="B239">
-        <v>6529591</v>
+        <v>6529593</v>
       </c>
       <c r="C239">
         <v>187654</v>
@@ -16453,7 +16486,7 @@
         <v>244</v>
       </c>
       <c r="B240">
-        <v>6569701</v>
+        <v>6569706</v>
       </c>
       <c r="C240">
         <v>188832</v>
@@ -16473,7 +16506,7 @@
         <v>245</v>
       </c>
       <c r="B241">
-        <v>6612990</v>
+        <v>6612994</v>
       </c>
       <c r="C241">
         <v>189712</v>
@@ -16493,7 +16526,7 @@
         <v>246</v>
       </c>
       <c r="B242">
-        <v>6660241</v>
+        <v>6660248</v>
       </c>
       <c r="C242">
         <v>190612</v>
@@ -16513,7 +16546,7 @@
         <v>247</v>
       </c>
       <c r="B243">
-        <v>6705146</v>
+        <v>6705154</v>
       </c>
       <c r="C243">
         <v>191359</v>
@@ -16533,7 +16566,7 @@
         <v>248</v>
       </c>
       <c r="B244">
-        <v>6740649</v>
+        <v>6740656</v>
       </c>
       <c r="C244">
         <v>191682</v>
@@ -16553,7 +16586,7 @@
         <v>249</v>
       </c>
       <c r="B245">
-        <v>6779788</v>
+        <v>6779793</v>
       </c>
       <c r="C245">
         <v>191962</v>
@@ -16573,7 +16606,7 @@
         <v>250</v>
       </c>
       <c r="B246">
-        <v>6829263</v>
+        <v>6829267</v>
       </c>
       <c r="C246">
         <v>192826</v>
@@ -16593,7 +16626,7 @@
         <v>251</v>
       </c>
       <c r="B247">
-        <v>6867883</v>
+        <v>6867888</v>
       </c>
       <c r="C247">
         <v>193980</v>
@@ -16613,7 +16646,7 @@
         <v>252</v>
       </c>
       <c r="B248">
-        <v>6911229</v>
+        <v>6911239</v>
       </c>
       <c r="C248">
         <v>194919</v>
@@ -16633,7 +16666,7 @@
         <v>253</v>
       </c>
       <c r="B249">
-        <v>6966418</v>
+        <v>6966431</v>
       </c>
       <c r="C249">
         <v>195769</v>
@@ -16653,7 +16686,7 @@
         <v>254</v>
       </c>
       <c r="B250">
-        <v>7013821</v>
+        <v>7013828</v>
       </c>
       <c r="C250">
         <v>196640</v>
@@ -16673,7 +16706,7 @@
         <v>255</v>
       </c>
       <c r="B251">
-        <v>7048808</v>
+        <v>7048815</v>
       </c>
       <c r="C251">
         <v>196946</v>
@@ -16693,7 +16726,7 @@
         <v>256</v>
       </c>
       <c r="B252">
-        <v>7084691</v>
+        <v>7084699</v>
       </c>
       <c r="C252">
         <v>197193</v>
@@ -16713,7 +16746,7 @@
         <v>257</v>
       </c>
       <c r="B253">
-        <v>7121132</v>
+        <v>7121139</v>
       </c>
       <c r="C253">
         <v>197930</v>
@@ -16733,7 +16766,7 @@
         <v>258</v>
       </c>
       <c r="B254">
-        <v>7165479</v>
+        <v>7165486</v>
       </c>
       <c r="C254">
         <v>198993</v>
@@ -16753,7 +16786,7 @@
         <v>259</v>
       </c>
       <c r="B255">
-        <v>7211084</v>
+        <v>7211102</v>
       </c>
       <c r="C255">
         <v>199851</v>
@@ -16773,7 +16806,7 @@
         <v>260</v>
       </c>
       <c r="B256">
-        <v>7260341</v>
+        <v>7260355</v>
       </c>
       <c r="C256">
         <v>200698</v>
@@ -16793,7 +16826,7 @@
         <v>261</v>
       </c>
       <c r="B257">
-        <v>7311276</v>
+        <v>7311286</v>
       </c>
       <c r="C257">
         <v>201438</v>
@@ -16813,7 +16846,7 @@
         <v>262</v>
       </c>
       <c r="B258">
-        <v>7349264</v>
+        <v>7349300</v>
       </c>
       <c r="C258">
         <v>201803</v>
@@ -16833,7 +16866,7 @@
         <v>263</v>
       </c>
       <c r="B259">
-        <v>7387020</v>
+        <v>7387028</v>
       </c>
       <c r="C259">
         <v>202147</v>
@@ -16853,7 +16886,7 @@
         <v>264</v>
       </c>
       <c r="B260">
-        <v>7425937</v>
+        <v>7425948</v>
       </c>
       <c r="C260">
         <v>202757</v>
@@ -16873,7 +16906,7 @@
         <v>265</v>
       </c>
       <c r="B261">
-        <v>7476527</v>
+        <v>7476543</v>
       </c>
       <c r="C261">
         <v>203682</v>
@@ -16893,7 +16926,7 @@
         <v>266</v>
       </c>
       <c r="B262">
-        <v>7531735</v>
+        <v>7531748</v>
       </c>
       <c r="C262">
         <v>204667</v>
@@ -16913,7 +16946,7 @@
         <v>267</v>
       </c>
       <c r="B263">
-        <v>7588537</v>
+        <v>7588552</v>
       </c>
       <c r="C263">
         <v>205565</v>
@@ -16933,7 +16966,7 @@
         <v>268</v>
       </c>
       <c r="B264">
-        <v>7645952</v>
+        <v>7645966</v>
       </c>
       <c r="C264">
         <v>206246</v>
@@ -16953,7 +16986,7 @@
         <v>269</v>
       </c>
       <c r="B265">
-        <v>7692221</v>
+        <v>7692233</v>
       </c>
       <c r="C265">
         <v>206714</v>
@@ -16973,7 +17006,7 @@
         <v>270</v>
       </c>
       <c r="B266">
-        <v>7734864</v>
+        <v>7734879</v>
       </c>
       <c r="C266">
         <v>206996</v>
@@ -16993,7 +17026,7 @@
         <v>271</v>
       </c>
       <c r="B267">
-        <v>7783457</v>
+        <v>7783465</v>
       </c>
       <c r="C267">
         <v>207694</v>
@@ -17013,7 +17046,7 @@
         <v>272</v>
       </c>
       <c r="B268">
-        <v>7839574</v>
+        <v>7839595</v>
       </c>
       <c r="C268">
         <v>208501</v>
@@ -17033,7 +17066,7 @@
         <v>273</v>
       </c>
       <c r="B269">
-        <v>7902966</v>
+        <v>7902986</v>
       </c>
       <c r="C269">
         <v>209431</v>
@@ -17053,7 +17086,7 @@
         <v>274</v>
       </c>
       <c r="B270">
-        <v>7971214</v>
+        <v>7971231</v>
       </c>
       <c r="C270">
         <v>210328</v>
@@ -17073,7 +17106,7 @@
         <v>275</v>
       </c>
       <c r="B271">
-        <v>8028544</v>
+        <v>8028561</v>
       </c>
       <c r="C271">
         <v>211101</v>
@@ -17093,7 +17126,7 @@
         <v>276</v>
       </c>
       <c r="B272">
-        <v>8076828</v>
+        <v>8076842</v>
       </c>
       <c r="C272">
         <v>211503</v>
@@ -17113,7 +17146,7 @@
         <v>277</v>
       </c>
       <c r="B273">
-        <v>8133938</v>
+        <v>8133955</v>
       </c>
       <c r="C273">
         <v>211959</v>
@@ -17133,7 +17166,7 @@
         <v>278</v>
       </c>
       <c r="B274">
-        <v>8194485</v>
+        <v>8194512</v>
       </c>
       <c r="C274">
         <v>212796</v>
@@ -17153,7 +17186,7 @@
         <v>279</v>
       </c>
       <c r="B275">
-        <v>8255438</v>
+        <v>8255466</v>
       </c>
       <c r="C275">
         <v>213815</v>
@@ -17173,7 +17206,7 @@
         <v>280</v>
       </c>
       <c r="B276">
-        <v>8328280</v>
+        <v>8328322</v>
       </c>
       <c r="C276">
         <v>214941</v>
@@ -17193,7 +17226,7 @@
         <v>281</v>
       </c>
       <c r="B277">
-        <v>8410612</v>
+        <v>8410653</v>
       </c>
       <c r="C277">
         <v>215875</v>
@@ -17213,7 +17246,7 @@
         <v>282</v>
       </c>
       <c r="B278">
-        <v>8493898</v>
+        <v>8493942</v>
       </c>
       <c r="C278">
         <v>216765</v>
@@ -17233,7 +17266,7 @@
         <v>283</v>
       </c>
       <c r="B279">
-        <v>8558791</v>
+        <v>8558814</v>
       </c>
       <c r="C279">
         <v>217147</v>
@@ -17253,7 +17286,7 @@
         <v>284</v>
       </c>
       <c r="B280">
-        <v>8621317</v>
+        <v>8621361</v>
       </c>
       <c r="C280">
         <v>217549</v>
@@ -17273,7 +17306,7 @@
         <v>285</v>
       </c>
       <c r="B281">
-        <v>8693399</v>
+        <v>8693424</v>
       </c>
       <c r="C281">
         <v>218468</v>
@@ -17293,7 +17326,7 @@
         <v>286</v>
       </c>
       <c r="B282">
-        <v>8772147</v>
+        <v>8772181</v>
       </c>
       <c r="C282">
         <v>219512</v>
@@ -17313,7 +17346,7 @@
         <v>287</v>
       </c>
       <c r="B283">
-        <v>8860875</v>
+        <v>8860907</v>
       </c>
       <c r="C283">
         <v>220549</v>
@@ -17333,7 +17366,7 @@
         <v>288</v>
       </c>
       <c r="B284">
-        <v>8958108</v>
+        <v>8958148</v>
       </c>
       <c r="C284">
         <v>221496</v>
@@ -17353,7 +17386,7 @@
         <v>289</v>
       </c>
       <c r="B285">
-        <v>9048695</v>
+        <v>9048728</v>
       </c>
       <c r="C285">
         <v>222459</v>
@@ -17373,7 +17406,7 @@
         <v>290</v>
       </c>
       <c r="B286">
-        <v>9122544</v>
+        <v>9122583</v>
       </c>
       <c r="C286">
         <v>222854</v>
@@ -17393,7 +17426,7 @@
         <v>291</v>
       </c>
       <c r="B287">
-        <v>9204591</v>
+        <v>9204629</v>
       </c>
       <c r="C287">
         <v>223345</v>
@@ -17413,7 +17446,7 @@
         <v>292</v>
       </c>
       <c r="B288">
-        <v>9291253</v>
+        <v>9291304</v>
       </c>
       <c r="C288">
         <v>224859</v>
@@ -17433,7 +17466,7 @@
         <v>293</v>
       </c>
       <c r="B289">
-        <v>9394557</v>
+        <v>9394616</v>
       </c>
       <c r="C289">
         <v>225976</v>
@@ -17453,7 +17486,7 @@
         <v>294</v>
       </c>
       <c r="B290">
-        <v>9510998</v>
+        <v>9511049</v>
       </c>
       <c r="C290">
         <v>227122</v>
@@ -17473,7 +17506,7 @@
         <v>295</v>
       </c>
       <c r="B291">
-        <v>9636751</v>
+        <v>9636807</v>
       </c>
       <c r="C291">
         <v>228295</v>
@@ -17493,7 +17526,7 @@
         <v>296</v>
       </c>
       <c r="B292">
-        <v>9765966</v>
+        <v>9766055</v>
       </c>
       <c r="C292">
         <v>229414</v>
@@ -17513,7 +17546,7 @@
         <v>297</v>
       </c>
       <c r="B293">
-        <v>9876247</v>
+        <v>9876316</v>
       </c>
       <c r="C293">
         <v>229910</v>
@@ -17533,7 +17566,7 @@
         <v>298</v>
       </c>
       <c r="B294">
-        <v>9995679</v>
+        <v>9995777</v>
       </c>
       <c r="C294">
         <v>230487</v>
@@ -17553,7 +17586,7 @@
         <v>299</v>
       </c>
       <c r="B295">
-        <v>10126861</v>
+        <v>10127001</v>
       </c>
       <c r="C295">
         <v>231847</v>
@@ -17573,7 +17606,7 @@
         <v>300</v>
       </c>
       <c r="B296">
-        <v>10271662</v>
+        <v>10271854</v>
       </c>
       <c r="C296">
         <v>233410</v>
@@ -17593,7 +17626,7 @@
         <v>301</v>
       </c>
       <c r="B297">
-        <v>10423665</v>
+        <v>10423843</v>
       </c>
       <c r="C297">
         <v>234529</v>
@@ -17613,7 +17646,7 @@
         <v>302</v>
       </c>
       <c r="B298">
-        <v>10595771</v>
+        <v>10595955</v>
       </c>
       <c r="C298">
         <v>235797</v>
@@ -17633,7 +17666,7 @@
         <v>303</v>
       </c>
       <c r="B299">
-        <v>10759311</v>
+        <v>10759439</v>
       </c>
       <c r="C299">
         <v>237128</v>
@@ -17653,7 +17686,7 @@
         <v>304</v>
       </c>
       <c r="B300">
-        <v>10903745</v>
+        <v>10903951</v>
       </c>
       <c r="C300">
         <v>237815</v>
@@ -17673,7 +17706,7 @@
         <v>305</v>
       </c>
       <c r="B301">
-        <v>11052613</v>
+        <v>11052806</v>
       </c>
       <c r="C301">
         <v>238434</v>
@@ -17693,7 +17726,7 @@
         <v>306</v>
       </c>
       <c r="B302">
-        <v>11209335</v>
+        <v>11209486</v>
       </c>
       <c r="C302">
         <v>239989</v>
@@ -17713,7 +17746,7 @@
         <v>307</v>
       </c>
       <c r="B303">
-        <v>11373310</v>
+        <v>11373556</v>
       </c>
       <c r="C303">
         <v>241853</v>
@@ -17733,7 +17766,7 @@
         <v>308</v>
       </c>
       <c r="B304">
-        <v>11556142</v>
+        <v>11556383</v>
       </c>
       <c r="C304">
         <v>243820</v>
@@ -17753,7 +17786,7 @@
         <v>309</v>
       </c>
       <c r="B305">
-        <v>11748947</v>
+        <v>11749127</v>
       </c>
       <c r="C305">
         <v>245704</v>
@@ -17773,7 +17806,7 @@
         <v>310</v>
       </c>
       <c r="B306">
-        <v>11928661</v>
+        <v>11928842</v>
       </c>
       <c r="C306">
         <v>247216</v>
@@ -17793,7 +17826,7 @@
         <v>311</v>
       </c>
       <c r="B307">
-        <v>12079497</v>
+        <v>12079663</v>
       </c>
       <c r="C307">
         <v>248114</v>
@@ -17813,7 +17846,7 @@
         <v>312</v>
       </c>
       <c r="B308">
-        <v>12230472</v>
+        <v>12230603</v>
       </c>
       <c r="C308">
         <v>249069</v>
@@ -17833,7 +17866,7 @@
         <v>313</v>
       </c>
       <c r="B309">
-        <v>12397484</v>
+        <v>12397660</v>
       </c>
       <c r="C309">
         <v>251135</v>
@@ -17853,7 +17886,7 @@
         <v>314</v>
       </c>
       <c r="B310">
-        <v>12581085</v>
+        <v>12581275</v>
       </c>
       <c r="C310">
         <v>253424</v>
@@ -17873,7 +17906,7 @@
         <v>315</v>
       </c>
       <c r="B311">
-        <v>12707341</v>
+        <v>12707628</v>
       </c>
       <c r="C311">
         <v>254760</v>
@@ -17893,7 +17926,7 @@
         <v>316</v>
       </c>
       <c r="B312">
-        <v>12901146</v>
+        <v>12901295</v>
       </c>
       <c r="C312">
         <v>256132</v>
@@ -17913,7 +17946,7 @@
         <v>317</v>
       </c>
       <c r="B313">
-        <v>13055656</v>
+        <v>13055846</v>
       </c>
       <c r="C313">
         <v>257377</v>
@@ -17933,7 +17966,7 @@
         <v>318</v>
       </c>
       <c r="B314">
-        <v>13190895</v>
+        <v>13191088</v>
       </c>
       <c r="C314">
         <v>258180</v>
@@ -17953,7 +17986,7 @@
         <v>319</v>
       </c>
       <c r="B315">
-        <v>13338483</v>
+        <v>13338671</v>
       </c>
       <c r="C315">
         <v>259316</v>
@@ -17973,7 +18006,7 @@
         <v>320</v>
       </c>
       <c r="B316">
-        <v>13515234</v>
+        <v>13515456</v>
       </c>
       <c r="C316">
         <v>261789</v>
@@ -17986,6 +18019,26 @@
       </c>
       <c r="F316">
         <v>6649</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>321</v>
+      </c>
+      <c r="B317">
+        <v>13711151</v>
+      </c>
+      <c r="C317">
+        <v>264522</v>
+      </c>
+      <c r="D317">
+        <v>100226</v>
+      </c>
+      <c r="E317">
+        <v>19396</v>
+      </c>
+      <c r="F317">
+        <v>6855</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathBeds.xlsx
+++ b/covid19/data/USCaseDeathBeds.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF3D456-2634-432C-9E71-692373D9DA4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62B177F-C848-47AA-BABD-EC43E69E4C2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Deaths" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$317</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$318</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="323">
   <si>
     <t>date</t>
   </si>
@@ -997,6 +997,9 @@
   </si>
   <si>
     <t>2020-12-02</t>
+  </si>
+  <si>
+    <t>2020-12-03</t>
   </si>
 </sst>
 </file>
@@ -1085,9 +1088,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$317</c:f>
+              <c:f>Data!$A$2:$A$318</c:f>
               <c:strCache>
-                <c:ptCount val="316"/>
+                <c:ptCount val="317"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -2035,16 +2038,19 @@
                 </c:pt>
                 <c:pt idx="315">
                   <c:v>2020-12-02</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>2020-12-03</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$317</c:f>
+              <c:f>Data!$B$2:$B$318</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="316"/>
+                <c:ptCount val="317"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2992,6 +2998,9 @@
                 </c:pt>
                 <c:pt idx="315">
                   <c:v>13711151</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>13921312</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3100,9 +3109,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$317</c:f>
+              <c:f>Data!$A$2:$A$318</c:f>
               <c:strCache>
-                <c:ptCount val="316"/>
+                <c:ptCount val="317"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -4050,16 +4059,19 @@
                 </c:pt>
                 <c:pt idx="315">
                   <c:v>2020-12-02</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>2020-12-03</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$2:$D$317</c:f>
+              <c:f>Data!$D$2:$D$318</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="316"/>
+                <c:ptCount val="317"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5007,6 +5019,9 @@
                 </c:pt>
                 <c:pt idx="315">
                   <c:v>100226</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>100667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5115,9 +5130,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$317</c:f>
+              <c:f>Data!$A$2:$A$318</c:f>
               <c:strCache>
-                <c:ptCount val="316"/>
+                <c:ptCount val="317"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -6065,16 +6080,19 @@
                 </c:pt>
                 <c:pt idx="315">
                   <c:v>2020-12-02</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>2020-12-03</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$317</c:f>
+              <c:f>Data!$E$2:$E$318</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="316"/>
+                <c:ptCount val="317"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7022,6 +7040,9 @@
                 </c:pt>
                 <c:pt idx="315">
                   <c:v>19396</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>19442</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7130,9 +7151,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$317</c:f>
+              <c:f>Data!$A$2:$A$318</c:f>
               <c:strCache>
-                <c:ptCount val="316"/>
+                <c:ptCount val="317"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -8080,16 +8101,19 @@
                 </c:pt>
                 <c:pt idx="315">
                   <c:v>2020-12-02</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>2020-12-03</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$317</c:f>
+              <c:f>Data!$F$2:$F$318</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="316"/>
+                <c:ptCount val="317"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9037,6 +9061,9 @@
                 </c:pt>
                 <c:pt idx="315">
                   <c:v>6855</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>6867</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9145,9 +9172,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$317</c:f>
+              <c:f>Data!$A$2:$A$318</c:f>
               <c:strCache>
-                <c:ptCount val="316"/>
+                <c:ptCount val="317"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -10095,16 +10122,19 @@
                 </c:pt>
                 <c:pt idx="315">
                   <c:v>2020-12-02</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>2020-12-03</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$317</c:f>
+              <c:f>Data!$C$2:$C$318</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="316"/>
+                <c:ptCount val="317"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11052,6 +11082,9 @@
                 </c:pt>
                 <c:pt idx="315">
                   <c:v>264522</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>267228</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11347,9 +11380,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F317" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F317" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F317">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F318" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F318" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F318">
     <sortCondition ref="A1:A254"/>
   </sortState>
   <tableColumns count="6">
@@ -11685,7 +11718,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F317"/>
+  <dimension ref="A1:F318"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
       <selection sqref="A1:F316"/>
@@ -18039,6 +18072,26 @@
       </c>
       <c r="F317">
         <v>6855</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>322</v>
+      </c>
+      <c r="B318">
+        <v>13921312</v>
+      </c>
+      <c r="C318">
+        <v>267228</v>
+      </c>
+      <c r="D318">
+        <v>100667</v>
+      </c>
+      <c r="E318">
+        <v>19442</v>
+      </c>
+      <c r="F318">
+        <v>6867</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathBeds.xlsx
+++ b/covid19/data/USCaseDeathBeds.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62B177F-C848-47AA-BABD-EC43E69E4C2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562DA4D0-776C-4554-AE0A-1A2EE474DB81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -11720,8 +11720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
-      <selection sqref="A1:F316"/>
+    <sheetView topLeftCell="A282" workbookViewId="0">
+      <selection activeCell="K308" sqref="K308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18106,7 +18106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/covid19/data/USCaseDeathBeds.xlsx
+++ b/covid19/data/USCaseDeathBeds.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562DA4D0-776C-4554-AE0A-1A2EE474DB81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7431FE07-5A4B-4C41-B7C1-7689D185FB43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="Deaths" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$318</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$319</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="324">
   <si>
     <t>date</t>
   </si>
@@ -1000,6 +1000,9 @@
   </si>
   <si>
     <t>2020-12-03</t>
+  </si>
+  <si>
+    <t>2020-12-04</t>
   </si>
 </sst>
 </file>
@@ -1088,9 +1091,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$318</c:f>
+              <c:f>Data!$A$2:$A$319</c:f>
               <c:strCache>
-                <c:ptCount val="317"/>
+                <c:ptCount val="318"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -2041,16 +2044,19 @@
                 </c:pt>
                 <c:pt idx="316">
                   <c:v>2020-12-03</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>2020-12-04</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$318</c:f>
+              <c:f>Data!$B$2:$B$319</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="317"/>
+                <c:ptCount val="318"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2187,7 +2193,7 @@
                   <c:v>497</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>632</c:v>
+                  <c:v>631</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>827</c:v>
@@ -2199,808 +2205,811 @@
                   <c:v>1551</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2054</c:v>
+                  <c:v>2053</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>2796</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3748</c:v>
+                  <c:v>3745</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4730</c:v>
+                  <c:v>4727</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5919</c:v>
+                  <c:v>5915</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>7777</c:v>
+                  <c:v>7772</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>10023</c:v>
+                  <c:v>10021</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>13387</c:v>
+                  <c:v>13385</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>18092</c:v>
+                  <c:v>18085</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>24213</c:v>
+                  <c:v>24197</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>31021</c:v>
+                  <c:v>31013</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>40191</c:v>
+                  <c:v>40167</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>51623</c:v>
+                  <c:v>51602</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>62379</c:v>
+                  <c:v>62351</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>75277</c:v>
+                  <c:v>75242</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>93001</c:v>
+                  <c:v>92976</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>112248</c:v>
+                  <c:v>112220</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>131847</c:v>
+                  <c:v>131826</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>151292</c:v>
+                  <c:v>151270</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>172777</c:v>
+                  <c:v>172740</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>197951</c:v>
+                  <c:v>197924</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>224079</c:v>
+                  <c:v>224040</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>252116</c:v>
+                  <c:v>252085</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>283993</c:v>
+                  <c:v>283923</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>316860</c:v>
+                  <c:v>316808</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>342494</c:v>
+                  <c:v>342463</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>370904</c:v>
+                  <c:v>370872</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>401606</c:v>
+                  <c:v>401573</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>432513</c:v>
+                  <c:v>432490</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>467629</c:v>
+                  <c:v>467580</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>501102</c:v>
+                  <c:v>501069</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>532194</c:v>
+                  <c:v>532174</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>560196</c:v>
+                  <c:v>560175</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>584580</c:v>
+                  <c:v>584573</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>610660</c:v>
+                  <c:v>610651</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>640519</c:v>
+                  <c:v>640510</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>672100</c:v>
+                  <c:v>672087</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>704079</c:v>
+                  <c:v>704069</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>731906</c:v>
+                  <c:v>731895</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>759178</c:v>
+                  <c:v>759174</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>785282</c:v>
+                  <c:v>785279</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>811500</c:v>
+                  <c:v>811492</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>840631</c:v>
+                  <c:v>840628</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>872601</c:v>
+                  <c:v>872598</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>906881</c:v>
+                  <c:v>906872</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>942532</c:v>
+                  <c:v>942523</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>969584</c:v>
+                  <c:v>969581</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>992183</c:v>
+                  <c:v>992176</c:v>
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>1017548</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1043778</c:v>
+                  <c:v>1043774</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1073758</c:v>
+                  <c:v>1073745</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1106553</c:v>
+                  <c:v>1106547</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1135592</c:v>
+                  <c:v>1135581</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1161126</c:v>
+                  <c:v>1161121</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1183627</c:v>
+                  <c:v>1183622</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1206137</c:v>
+                  <c:v>1206134</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1231282</c:v>
+                  <c:v>1231277</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>1258506</c:v>
+                  <c:v>1258504</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>1285665</c:v>
+                  <c:v>1285663</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1310851</c:v>
+                  <c:v>1310843</c:v>
                 </c:pt>
                 <c:pt idx="109">
                   <c:v>1331733</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1350032</c:v>
+                  <c:v>1350031</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1372591</c:v>
+                  <c:v>1372589</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1394218</c:v>
+                  <c:v>1394217</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1420931</c:v>
+                  <c:v>1420930</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1446353</c:v>
+                  <c:v>1446352</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1469946</c:v>
+                  <c:v>1469938</c:v>
                 </c:pt>
                 <c:pt idx="116">
                   <c:v>1490090</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>1510938</c:v>
+                  <c:v>1510934</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>1531817</c:v>
+                  <c:v>1531816</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>1553080</c:v>
+                  <c:v>1553075</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>1579819</c:v>
+                  <c:v>1579817</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>1603992</c:v>
+                  <c:v>1603990</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>1626358</c:v>
+                  <c:v>1626355</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>1645221</c:v>
+                  <c:v>1645215</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>1663751</c:v>
+                  <c:v>1663746</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>1680726</c:v>
+                  <c:v>1680724</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>1700139</c:v>
+                  <c:v>1700135</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>1722795</c:v>
+                  <c:v>1722794</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>1746384</c:v>
+                  <c:v>1746382</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>1769823</c:v>
+                  <c:v>1769819</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>1791215</c:v>
+                  <c:v>1791211</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>1811575</c:v>
+                  <c:v>1811573</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>1831730</c:v>
+                  <c:v>1831728</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>1851919</c:v>
+                  <c:v>1851883</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>1872268</c:v>
+                  <c:v>1872266</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>1895349</c:v>
+                  <c:v>1895332</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>1917907</c:v>
+                  <c:v>1917890</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>1936720</c:v>
+                  <c:v>1936708</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>1953946</c:v>
+                  <c:v>1953938</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>1971100</c:v>
+                  <c:v>1971089</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>1991832</c:v>
+                  <c:v>1991816</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>2013897</c:v>
+                  <c:v>2013887</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>2036988</c:v>
+                  <c:v>2036983</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>2062230</c:v>
+                  <c:v>2062228</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>2083562</c:v>
+                  <c:v>2083561</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>2102218</c:v>
+                  <c:v>2102215</c:v>
                 </c:pt>
                 <c:pt idx="146">
                   <c:v>2125483</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>2149395</c:v>
+                  <c:v>2149389</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>2176486</c:v>
+                  <c:v>2176478</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>2207441</c:v>
+                  <c:v>2207437</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>2239400</c:v>
+                  <c:v>2239388</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>2268240</c:v>
+                  <c:v>2268236</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>2295417</c:v>
+                  <c:v>2295415</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>2329320</c:v>
+                  <c:v>2329300</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>2368316</c:v>
+                  <c:v>2368309</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>2407997</c:v>
+                  <c:v>2407990</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>2452371</c:v>
+                  <c:v>2452369</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>2495265</c:v>
+                  <c:v>2495262</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>2536600</c:v>
+                  <c:v>2536594</c:v>
                 </c:pt>
                 <c:pt idx="159">
                   <c:v>2576359</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>2623991</c:v>
+                  <c:v>2623989</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>2675007</c:v>
+                  <c:v>2674990</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>2728507</c:v>
+                  <c:v>2728498</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>2782188</c:v>
+                  <c:v>2782186</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>2836341</c:v>
+                  <c:v>2836330</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>2881499</c:v>
+                  <c:v>2881497</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>2922994</c:v>
+                  <c:v>2922991</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>2974735</c:v>
+                  <c:v>2974733</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>3037483</c:v>
+                  <c:v>3037469</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>3096433</c:v>
+                  <c:v>3096428</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>3163257</c:v>
+                  <c:v>3163252</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>3225589</c:v>
+                  <c:v>3225576</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>3286554</c:v>
+                  <c:v>3286548</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>3344155</c:v>
+                  <c:v>3344151</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>3406897</c:v>
+                  <c:v>3406885</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>3472513</c:v>
+                  <c:v>3472503</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>3542961</c:v>
+                  <c:v>3542952</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>3619173</c:v>
+                  <c:v>3619170</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>3683603</c:v>
+                  <c:v>3683593</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>3747318</c:v>
+                  <c:v>3747308</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>3804251</c:v>
+                  <c:v>3804244</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>3867871</c:v>
+                  <c:v>3867869</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>3937226</c:v>
+                  <c:v>3937215</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>4008445</c:v>
+                  <c:v>4008440</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>4083307</c:v>
+                  <c:v>4083294</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>4147674</c:v>
+                  <c:v>4147670</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>4207795</c:v>
+                  <c:v>4207793</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>4262810</c:v>
+                  <c:v>4262807</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>4321792</c:v>
+                  <c:v>4321791</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>4385733</c:v>
+                  <c:v>4385732</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>4454546</c:v>
+                  <c:v>4454538</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>4522073</c:v>
+                  <c:v>4522068</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>4582317</c:v>
+                  <c:v>4582313</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>4628824</c:v>
+                  <c:v>4628823</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>4678176</c:v>
+                  <c:v>4678171</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>4729991</c:v>
+                  <c:v>4729986</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>4782460</c:v>
+                  <c:v>4782450</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>4836254</c:v>
+                  <c:v>4836253</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>4897095</c:v>
+                  <c:v>4897089</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>4950178</c:v>
+                  <c:v>4950173</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>5000329</c:v>
+                  <c:v>5000326</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>5042081</c:v>
+                  <c:v>5042069</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>5097504</c:v>
+                  <c:v>5097499</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>5153399</c:v>
+                  <c:v>5153393</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>5205031</c:v>
+                  <c:v>5205014</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>5262116</c:v>
+                  <c:v>5262107</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>5317922</c:v>
+                  <c:v>5317917</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>5360251</c:v>
+                  <c:v>5360239</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>5397653</c:v>
+                  <c:v>5397650</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>5438144</c:v>
+                  <c:v>5438142</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>5483028</c:v>
+                  <c:v>5483024</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>5526751</c:v>
+                  <c:v>5526747</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>5572953</c:v>
+                  <c:v>5572942</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>5618669</c:v>
+                  <c:v>5618664</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>5655997</c:v>
+                  <c:v>5655989</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>5690244</c:v>
+                  <c:v>5690238</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>5726830</c:v>
+                  <c:v>5726826</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>5770464</c:v>
+                  <c:v>5770453</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>5814373</c:v>
+                  <c:v>5814369</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>5860507</c:v>
+                  <c:v>5860495</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>5904469</c:v>
+                  <c:v>5904458</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>5943748</c:v>
+                  <c:v>5943743</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>5975019</c:v>
+                  <c:v>5975013</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>6017436</c:v>
+                  <c:v>6017434</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>6047656</c:v>
+                  <c:v>6047651</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>6092282</c:v>
+                  <c:v>6092272</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>6143790</c:v>
+                  <c:v>6143785</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>6188530</c:v>
+                  <c:v>6188529</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>6221454</c:v>
+                  <c:v>6221450</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>6249596</c:v>
+                  <c:v>6249594</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>6271735</c:v>
+                  <c:v>6271730</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>6302906</c:v>
+                  <c:v>6302903</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>6340213</c:v>
+                  <c:v>6340205</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>6384898</c:v>
+                  <c:v>6384889</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>6426762</c:v>
+                  <c:v>6426755</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>6461077</c:v>
+                  <c:v>6461066</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>6494693</c:v>
+                  <c:v>6494686</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>6529593</c:v>
+                  <c:v>6529591</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>6569706</c:v>
+                  <c:v>6569703</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>6612994</c:v>
+                  <c:v>6612992</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>6660248</c:v>
+                  <c:v>6660244</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>6705154</c:v>
+                  <c:v>6705149</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>6740656</c:v>
+                  <c:v>6740652</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>6779793</c:v>
+                  <c:v>6779791</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>6829267</c:v>
+                  <c:v>6829266</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>6867888</c:v>
+                  <c:v>6867886</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>6911239</c:v>
+                  <c:v>6911232</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>6966431</c:v>
+                  <c:v>6966421</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>7013828</c:v>
+                  <c:v>7013826</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>7048815</c:v>
+                  <c:v>7048812</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>7084699</c:v>
+                  <c:v>7084695</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>7121139</c:v>
+                  <c:v>7121136</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>7165486</c:v>
+                  <c:v>7165483</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>7211102</c:v>
+                  <c:v>7211088</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>7260355</c:v>
+                  <c:v>7260346</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>7311286</c:v>
+                  <c:v>7311280</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>7349300</c:v>
+                  <c:v>7349267</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>7387028</c:v>
+                  <c:v>7387024</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>7425948</c:v>
+                  <c:v>7425941</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>7476543</c:v>
+                  <c:v>7476532</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>7531748</c:v>
+                  <c:v>7531740</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>7588552</c:v>
+                  <c:v>7588542</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>7645966</c:v>
+                  <c:v>7645956</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>7692233</c:v>
+                  <c:v>7692224</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>7734879</c:v>
+                  <c:v>7734868</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>7783465</c:v>
+                  <c:v>7783462</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>7839595</c:v>
+                  <c:v>7839579</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>7902986</c:v>
+                  <c:v>7902973</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>7971231</c:v>
+                  <c:v>7971222</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>8028561</c:v>
+                  <c:v>8028550</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>8076842</c:v>
+                  <c:v>8076834</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>8133955</c:v>
+                  <c:v>8133943</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>8194512</c:v>
+                  <c:v>8194492</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>8255466</c:v>
+                  <c:v>8255450</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>8328322</c:v>
+                  <c:v>8328292</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>8410653</c:v>
+                  <c:v>8410625</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>8493942</c:v>
+                  <c:v>8493912</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>8558814</c:v>
+                  <c:v>8558805</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>8621361</c:v>
+                  <c:v>8621330</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>8693424</c:v>
+                  <c:v>8693413</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>8772181</c:v>
+                  <c:v>8772165</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>8860907</c:v>
+                  <c:v>8860888</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>8958148</c:v>
+                  <c:v>8958126</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>9048728</c:v>
+                  <c:v>9048711</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>9122583</c:v>
+                  <c:v>9122560</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>9204629</c:v>
+                  <c:v>9204607</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>9291304</c:v>
+                  <c:v>9291273</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>9394616</c:v>
+                  <c:v>9394578</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>9511049</c:v>
+                  <c:v>9511021</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>9636807</c:v>
+                  <c:v>9636779</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>9766055</c:v>
+                  <c:v>9766001</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>9876316</c:v>
+                  <c:v>9876291</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>9995777</c:v>
+                  <c:v>9995725</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>10127001</c:v>
+                  <c:v>10126912</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>10271854</c:v>
+                  <c:v>10271729</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>10423843</c:v>
+                  <c:v>10423741</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>10595955</c:v>
+                  <c:v>10595857</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>10759439</c:v>
+                  <c:v>10759395</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>10903951</c:v>
+                  <c:v>10903827</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>11052806</c:v>
+                  <c:v>11052700</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>11209486</c:v>
+                  <c:v>11209432</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>11373556</c:v>
+                  <c:v>11373404</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>11556383</c:v>
+                  <c:v>11556239</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>11749127</c:v>
+                  <c:v>11749039</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>11928842</c:v>
+                  <c:v>11928754</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>12079663</c:v>
+                  <c:v>12079595</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>12230603</c:v>
+                  <c:v>12230553</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>12397660</c:v>
+                  <c:v>12397567</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>12581275</c:v>
+                  <c:v>12581196</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>12707628</c:v>
+                  <c:v>12707531</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>12901295</c:v>
+                  <c:v>12901256</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>13055846</c:v>
+                  <c:v>13055778</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>13191088</c:v>
+                  <c:v>13191020</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>13338671</c:v>
+                  <c:v>13338607</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>13515456</c:v>
+                  <c:v>13515360</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>13711151</c:v>
+                  <c:v>13711156</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>13921312</c:v>
+                  <c:v>13921360</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>14146191</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3109,9 +3118,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$318</c:f>
+              <c:f>Data!$A$2:$A$319</c:f>
               <c:strCache>
-                <c:ptCount val="317"/>
+                <c:ptCount val="318"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -4062,16 +4071,19 @@
                 </c:pt>
                 <c:pt idx="316">
                   <c:v>2020-12-03</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>2020-12-04</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$2:$D$318</c:f>
+              <c:f>Data!$D$2:$D$319</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="317"/>
+                <c:ptCount val="318"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4409,619 +4421,622 @@
                   <c:v>47344</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>46740</c:v>
+                  <c:v>46918</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>45644</c:v>
+                  <c:v>45924</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>44299</c:v>
+                  <c:v>44551</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>43175</c:v>
+                  <c:v>43507</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>41609</c:v>
+                  <c:v>42022</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>41531</c:v>
+                  <c:v>41921</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>41652</c:v>
+                  <c:v>42023</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>41535</c:v>
+                  <c:v>41871</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>41071</c:v>
+                  <c:v>41347</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>39774</c:v>
+                  <c:v>40014</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>38360</c:v>
+                  <c:v>38581</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>37510</c:v>
+                  <c:v>37757</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>37382</c:v>
+                  <c:v>37711</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>37533</c:v>
+                  <c:v>37775</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>38017</c:v>
+                  <c:v>38297</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>37804</c:v>
+                  <c:v>38003</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>36718</c:v>
+                  <c:v>36948</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>35513</c:v>
+                  <c:v>35735</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>34641</c:v>
+                  <c:v>34911</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>34064</c:v>
+                  <c:v>34316</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>33709</c:v>
+                  <c:v>33950</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>33026</c:v>
+                  <c:v>33237</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>32602</c:v>
+                  <c:v>32814</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>32265</c:v>
+                  <c:v>32499</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>31762</c:v>
+                  <c:v>31994</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>31249</c:v>
+                  <c:v>31490</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>30984</c:v>
+                  <c:v>31121</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>31020</c:v>
+                  <c:v>31187</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>30840</c:v>
+                  <c:v>30952</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>29686</c:v>
+                  <c:v>29844</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>29149</c:v>
+                  <c:v>29309</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>28431</c:v>
+                  <c:v>28578</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>27899</c:v>
+                  <c:v>28020</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>27866</c:v>
+                  <c:v>28026</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>28279</c:v>
+                  <c:v>28386</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>28561</c:v>
+                  <c:v>28664</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>28411</c:v>
+                  <c:v>28521</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>28586</c:v>
+                  <c:v>28706</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>27970</c:v>
+                  <c:v>28084</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>28221</c:v>
+                  <c:v>28325</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>28797</c:v>
+                  <c:v>28954</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>30226</c:v>
+                  <c:v>30394</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>31119</c:v>
+                  <c:v>31271</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>31828</c:v>
+                  <c:v>31926</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>31710</c:v>
+                  <c:v>31810</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>32485</c:v>
+                  <c:v>32566</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>32479</c:v>
+                  <c:v>32575</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>33627</c:v>
+                  <c:v>33744</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>35222</c:v>
+                  <c:v>35335</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>36430</c:v>
+                  <c:v>36569</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>37508</c:v>
+                  <c:v>37627</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>37801</c:v>
+                  <c:v>37927</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>38150</c:v>
+                  <c:v>38281</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>38765</c:v>
+                  <c:v>38872</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>39820</c:v>
+                  <c:v>39970</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>41772</c:v>
+                  <c:v>41957</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>43097</c:v>
+                  <c:v>43204</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>43916</c:v>
+                  <c:v>44055</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>51606</c:v>
+                  <c:v>51740</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>51861</c:v>
+                  <c:v>51982</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>52739</c:v>
+                  <c:v>52860</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>54044</c:v>
+                  <c:v>54156</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>55554</c:v>
+                  <c:v>55667</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>56168</c:v>
+                  <c:v>56312</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>57459</c:v>
+                  <c:v>57614</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>57737</c:v>
+                  <c:v>57894</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>57646</c:v>
+                  <c:v>57822</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>57882</c:v>
+                  <c:v>58052</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>58352</c:v>
+                  <c:v>58509</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>59351</c:v>
+                  <c:v>59480</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>59598</c:v>
+                  <c:v>59752</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>59712</c:v>
+                  <c:v>59854</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>59677</c:v>
+                  <c:v>59808</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>59269</c:v>
+                  <c:v>59382</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>58644</c:v>
+                  <c:v>58731</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>58906</c:v>
+                  <c:v>58991</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>57086</c:v>
+                  <c:v>57178</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>57325</c:v>
+                  <c:v>57427</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>56434</c:v>
+                  <c:v>56565</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>55589</c:v>
+                  <c:v>55700</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>54437</c:v>
+                  <c:v>54554</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>53983</c:v>
+                  <c:v>54106</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>53413</c:v>
+                  <c:v>53524</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>53323</c:v>
+                  <c:v>53440</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>53343</c:v>
+                  <c:v>53444</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>53129</c:v>
+                  <c:v>53221</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>51201</c:v>
+                  <c:v>51301</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>49935</c:v>
+                  <c:v>50071</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>48866</c:v>
+                  <c:v>48997</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>48631</c:v>
+                  <c:v>48761</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>48511</c:v>
+                  <c:v>48620</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>47949</c:v>
+                  <c:v>48046</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>47204</c:v>
+                  <c:v>47322</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>45744</c:v>
+                  <c:v>45860</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>44783</c:v>
+                  <c:v>44922</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>44046</c:v>
+                  <c:v>44155</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>43500</c:v>
+                  <c:v>43596</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>43767</c:v>
+                  <c:v>43848</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>43289</c:v>
+                  <c:v>43395</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>41968</c:v>
+                  <c:v>42081</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>40940</c:v>
+                  <c:v>41047</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>39919</c:v>
+                  <c:v>40017</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>38980</c:v>
+                  <c:v>39064</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>38695</c:v>
+                  <c:v>38776</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>38775</c:v>
+                  <c:v>38842</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>38418</c:v>
+                  <c:v>38501</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>37421</c:v>
+                  <c:v>37529</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>37255</c:v>
+                  <c:v>37351</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>36437</c:v>
+                  <c:v>36516</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>35726</c:v>
+                  <c:v>35801</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>35352</c:v>
+                  <c:v>35423</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>35273</c:v>
+                  <c:v>35334</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>35579</c:v>
+                  <c:v>35667</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>34650</c:v>
+                  <c:v>34747</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>34101</c:v>
+                  <c:v>34191</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>33502</c:v>
+                  <c:v>33626</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>32376</c:v>
+                  <c:v>32497</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>32009</c:v>
+                  <c:v>32116</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>32246</c:v>
+                  <c:v>32345</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>32579</c:v>
+                  <c:v>32647</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>32438</c:v>
+                  <c:v>32536</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>31406</c:v>
+                  <c:v>31529</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>30643</c:v>
+                  <c:v>30758</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>29804</c:v>
+                  <c:v>29921</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>29907</c:v>
+                  <c:v>30045</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>30361</c:v>
+                  <c:v>30447</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>30253</c:v>
+                  <c:v>30362</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>29875</c:v>
+                  <c:v>30007</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>29521</c:v>
+                  <c:v>29652</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>29038</c:v>
+                  <c:v>29185</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>28606</c:v>
+                  <c:v>28724</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>28762</c:v>
+                  <c:v>28873</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>29448</c:v>
+                  <c:v>29658</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>29937</c:v>
+                  <c:v>30021</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>30036</c:v>
+                  <c:v>30158</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>29768</c:v>
+                  <c:v>29900</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>29551</c:v>
+                  <c:v>29670</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>29443</c:v>
+                  <c:v>29579</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>29601</c:v>
+                  <c:v>29688</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>30499</c:v>
+                  <c:v>30583</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>30912</c:v>
+                  <c:v>31018</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>30809</c:v>
+                  <c:v>30951</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>30769</c:v>
+                  <c:v>30877</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>30111</c:v>
+                  <c:v>30209</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>29945</c:v>
+                  <c:v>30063</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>31327</c:v>
+                  <c:v>31434</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>32626</c:v>
+                  <c:v>32720</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>33482</c:v>
+                  <c:v>33584</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>34319</c:v>
+                  <c:v>34446</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>34877</c:v>
+                  <c:v>34989</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>34600</c:v>
+                  <c:v>34700</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>34498</c:v>
+                  <c:v>34609</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>35066</c:v>
+                  <c:v>35156</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>36064</c:v>
+                  <c:v>36161</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>37088</c:v>
+                  <c:v>37176</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>37328</c:v>
+                  <c:v>37420</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>37368</c:v>
+                  <c:v>37470</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>37358</c:v>
+                  <c:v>37474</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>36452</c:v>
+                  <c:v>36536</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>37858</c:v>
+                  <c:v>37954</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>39303</c:v>
+                  <c:v>39406</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>40284</c:v>
+                  <c:v>40397</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>41036</c:v>
+                  <c:v>41125</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>41501</c:v>
+                  <c:v>41617</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>41989</c:v>
+                  <c:v>42087</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>41786</c:v>
+                  <c:v>41883</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>42924</c:v>
+                  <c:v>43005</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>44287</c:v>
+                  <c:v>44392</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>45124</c:v>
+                  <c:v>45205</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>46126</c:v>
+                  <c:v>46220</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>46738</c:v>
+                  <c:v>46856</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>47402</c:v>
+                  <c:v>47486</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>47531</c:v>
+                  <c:v>47615</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>48693</c:v>
+                  <c:v>48773</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>50426</c:v>
+                  <c:v>50512</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>52086</c:v>
+                  <c:v>52166</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>53375</c:v>
+                  <c:v>53465</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>54851</c:v>
+                  <c:v>54949</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>55925</c:v>
+                  <c:v>56037</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>56842</c:v>
+                  <c:v>56942</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>59301</c:v>
+                  <c:v>59394</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>62059</c:v>
+                  <c:v>62138</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>65463</c:v>
+                  <c:v>65557</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>67100</c:v>
+                  <c:v>67233</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>68496</c:v>
+                  <c:v>68599</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>69498</c:v>
+                  <c:v>69588</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>70113</c:v>
+                  <c:v>70202</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>73268</c:v>
+                  <c:v>73377</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>76958</c:v>
+                  <c:v>77079</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>79410</c:v>
+                  <c:v>79517</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>80585</c:v>
+                  <c:v>80682</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>82150</c:v>
+                  <c:v>82279</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>83232</c:v>
+                  <c:v>83346</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>83779</c:v>
+                  <c:v>83882</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>85870</c:v>
+                  <c:v>85979</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>88080</c:v>
+                  <c:v>88174</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>89959</c:v>
+                  <c:v>90041</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>90443</c:v>
+                  <c:v>90564</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>89834</c:v>
+                  <c:v>89950</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>91665</c:v>
+                  <c:v>91762</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>93265</c:v>
+                  <c:v>93357</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>96053</c:v>
+                  <c:v>96149</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>98691</c:v>
+                  <c:v>98777</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>100226</c:v>
+                  <c:v>100322</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>100667</c:v>
+                  <c:v>100755</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>101276</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5130,9 +5145,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$318</c:f>
+              <c:f>Data!$A$2:$A$319</c:f>
               <c:strCache>
-                <c:ptCount val="317"/>
+                <c:ptCount val="318"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -6083,16 +6098,19 @@
                 </c:pt>
                 <c:pt idx="316">
                   <c:v>2020-12-03</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>2020-12-04</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$318</c:f>
+              <c:f>Data!$E$2:$E$319</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="317"/>
+                <c:ptCount val="318"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6817,232 +6835,235 @@
                   <c:v>6175</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>6070</c:v>
+                  <c:v>6163</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>6015</c:v>
+                  <c:v>6100</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>6071</c:v>
+                  <c:v>6140</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>6111</c:v>
+                  <c:v>6196</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>6113</c:v>
+                  <c:v>6203</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>6168</c:v>
+                  <c:v>6269</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>6133</c:v>
+                  <c:v>6220</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>6057</c:v>
+                  <c:v>6143</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>6080</c:v>
+                  <c:v>6170</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>5981</c:v>
+                  <c:v>6052</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>6106</c:v>
+                  <c:v>6181</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>6145</c:v>
+                  <c:v>6236</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>6173</c:v>
+                  <c:v>6263</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>6106</c:v>
+                  <c:v>6194</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>5996</c:v>
+                  <c:v>6073</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>5974</c:v>
+                  <c:v>6056</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>6209</c:v>
+                  <c:v>6287</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>6438</c:v>
+                  <c:v>6502</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>6507</c:v>
+                  <c:v>6575</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>6621</c:v>
+                  <c:v>6694</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>6713</c:v>
+                  <c:v>6785</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>6683</c:v>
+                  <c:v>6752</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>6679</c:v>
+                  <c:v>6749</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>6807</c:v>
+                  <c:v>6866</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>7020</c:v>
+                  <c:v>7096</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>7156</c:v>
+                  <c:v>7239</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>7220</c:v>
+                  <c:v>7302</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>7251</c:v>
+                  <c:v>7328</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>7384</c:v>
+                  <c:v>7466</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>7292</c:v>
+                  <c:v>7383</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>7997</c:v>
+                  <c:v>8069</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>8131</c:v>
+                  <c:v>8213</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>8182</c:v>
+                  <c:v>8291</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>8086</c:v>
+                  <c:v>8178</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>8237</c:v>
+                  <c:v>8340</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>8561</c:v>
+                  <c:v>8675</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>8489</c:v>
+                  <c:v>8590</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>8842</c:v>
+                  <c:v>8942</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>8909</c:v>
+                  <c:v>8997</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>9034</c:v>
+                  <c:v>9134</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>9208</c:v>
+                  <c:v>9320</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>9437</c:v>
+                  <c:v>9549</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>9499</c:v>
+                  <c:v>9613</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>9553</c:v>
+                  <c:v>9665</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>9867</c:v>
+                  <c:v>9970</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>10406</c:v>
+                  <c:v>10530</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>10761</c:v>
+                  <c:v>10892</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>10918</c:v>
+                  <c:v>11046</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>11085</c:v>
+                  <c:v>11213</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>11082</c:v>
+                  <c:v>11215</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>11120</c:v>
+                  <c:v>11223</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>11533</c:v>
+                  <c:v>11638</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>11961</c:v>
+                  <c:v>12071</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>12518</c:v>
+                  <c:v>12625</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>12796</c:v>
+                  <c:v>12911</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>13132</c:v>
+                  <c:v>13279</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>13337</c:v>
+                  <c:v>13491</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>13693</c:v>
+                  <c:v>13849</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>14317</c:v>
+                  <c:v>14494</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>14851</c:v>
+                  <c:v>15018</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>15350</c:v>
+                  <c:v>15558</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>15572</c:v>
+                  <c:v>15763</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>15929</c:v>
+                  <c:v>16138</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>16058</c:v>
+                  <c:v>16264</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>16212</c:v>
+                  <c:v>16411</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>16915</c:v>
+                  <c:v>17080</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>17127</c:v>
+                  <c:v>17314</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>17526</c:v>
+                  <c:v>17740</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>17804</c:v>
+                  <c:v>18019</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>17835</c:v>
+                  <c:v>18061</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>18042</c:v>
+                  <c:v>18249</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>18201</c:v>
+                  <c:v>18437</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>18545</c:v>
+                  <c:v>18801</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>19035</c:v>
+                  <c:v>19295</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>19396</c:v>
+                  <c:v>19680</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>19442</c:v>
+                  <c:v>19723</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>19858</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7151,9 +7172,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$318</c:f>
+              <c:f>Data!$A$2:$A$319</c:f>
               <c:strCache>
-                <c:ptCount val="317"/>
+                <c:ptCount val="318"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -8104,16 +8125,19 @@
                 </c:pt>
                 <c:pt idx="316">
                   <c:v>2020-12-03</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>2020-12-04</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$318</c:f>
+              <c:f>Data!$F$2:$F$319</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="317"/>
+                <c:ptCount val="318"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9064,6 +9088,9 @@
                 </c:pt>
                 <c:pt idx="316">
                   <c:v>6867</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>6999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9172,9 +9199,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$318</c:f>
+              <c:f>Data!$A$2:$A$319</c:f>
               <c:strCache>
-                <c:ptCount val="317"/>
+                <c:ptCount val="318"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -10125,16 +10152,19 @@
                 </c:pt>
                 <c:pt idx="316">
                   <c:v>2020-12-03</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>2020-12-04</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$318</c:f>
+              <c:f>Data!$C$2:$C$319</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="317"/>
+                <c:ptCount val="318"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11085,6 +11115,9 @@
                 </c:pt>
                 <c:pt idx="316">
                   <c:v>267228</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>269791</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11380,9 +11413,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F318" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F318" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F318">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F319" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F319" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F319">
     <sortCondition ref="A1:A254"/>
   </sortState>
   <tableColumns count="6">
@@ -11718,7 +11751,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F318"/>
+  <dimension ref="A1:F319"/>
   <sheetViews>
     <sheetView topLeftCell="A282" workbookViewId="0">
       <selection activeCell="K308" sqref="K308"/>
@@ -12659,7 +12692,7 @@
         <v>51</v>
       </c>
       <c r="B47">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C47">
         <v>27</v>
@@ -12739,7 +12772,7 @@
         <v>55</v>
       </c>
       <c r="B51">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="C51">
         <v>43</v>
@@ -12779,7 +12812,7 @@
         <v>57</v>
       </c>
       <c r="B53">
-        <v>3748</v>
+        <v>3745</v>
       </c>
       <c r="C53">
         <v>56</v>
@@ -12799,7 +12832,7 @@
         <v>58</v>
       </c>
       <c r="B54">
-        <v>4730</v>
+        <v>4727</v>
       </c>
       <c r="C54">
         <v>64</v>
@@ -12819,7 +12852,7 @@
         <v>59</v>
       </c>
       <c r="B55">
-        <v>5919</v>
+        <v>5915</v>
       </c>
       <c r="C55">
         <v>79</v>
@@ -12839,7 +12872,7 @@
         <v>60</v>
       </c>
       <c r="B56">
-        <v>7777</v>
+        <v>7772</v>
       </c>
       <c r="C56">
         <v>100</v>
@@ -12859,7 +12892,7 @@
         <v>61</v>
       </c>
       <c r="B57">
-        <v>10023</v>
+        <v>10021</v>
       </c>
       <c r="C57">
         <v>124</v>
@@ -12879,7 +12912,7 @@
         <v>62</v>
       </c>
       <c r="B58">
-        <v>13387</v>
+        <v>13385</v>
       </c>
       <c r="C58">
         <v>155</v>
@@ -12899,7 +12932,7 @@
         <v>63</v>
       </c>
       <c r="B59">
-        <v>18092</v>
+        <v>18085</v>
       </c>
       <c r="C59">
         <v>203</v>
@@ -12919,7 +12952,7 @@
         <v>64</v>
       </c>
       <c r="B60">
-        <v>24213</v>
+        <v>24197</v>
       </c>
       <c r="C60">
         <v>273</v>
@@ -12939,7 +12972,7 @@
         <v>65</v>
       </c>
       <c r="B61">
-        <v>31021</v>
+        <v>31013</v>
       </c>
       <c r="C61">
         <v>335</v>
@@ -12959,7 +12992,7 @@
         <v>66</v>
       </c>
       <c r="B62">
-        <v>40191</v>
+        <v>40167</v>
       </c>
       <c r="C62">
         <v>481</v>
@@ -12979,7 +13012,7 @@
         <v>67</v>
       </c>
       <c r="B63">
-        <v>51623</v>
+        <v>51602</v>
       </c>
       <c r="C63">
         <v>582</v>
@@ -12999,7 +13032,7 @@
         <v>68</v>
       </c>
       <c r="B64">
-        <v>62379</v>
+        <v>62351</v>
       </c>
       <c r="C64">
         <v>820</v>
@@ -13019,7 +13052,7 @@
         <v>69</v>
       </c>
       <c r="B65">
-        <v>75277</v>
+        <v>75242</v>
       </c>
       <c r="C65">
         <v>1058</v>
@@ -13039,7 +13072,7 @@
         <v>70</v>
       </c>
       <c r="B66">
-        <v>93001</v>
+        <v>92976</v>
       </c>
       <c r="C66">
         <v>1374</v>
@@ -13059,7 +13092,7 @@
         <v>71</v>
       </c>
       <c r="B67">
-        <v>112248</v>
+        <v>112220</v>
       </c>
       <c r="C67">
         <v>1782</v>
@@ -13079,7 +13112,7 @@
         <v>72</v>
       </c>
       <c r="B68">
-        <v>131847</v>
+        <v>131826</v>
       </c>
       <c r="C68">
         <v>2333</v>
@@ -13099,7 +13132,7 @@
         <v>73</v>
       </c>
       <c r="B69">
-        <v>151292</v>
+        <v>151270</v>
       </c>
       <c r="C69">
         <v>2837</v>
@@ -13119,7 +13152,7 @@
         <v>74</v>
       </c>
       <c r="B70">
-        <v>172777</v>
+        <v>172740</v>
       </c>
       <c r="C70">
         <v>3425</v>
@@ -13139,7 +13172,7 @@
         <v>75</v>
       </c>
       <c r="B71">
-        <v>197951</v>
+        <v>197924</v>
       </c>
       <c r="C71">
         <v>4332</v>
@@ -13159,7 +13192,7 @@
         <v>76</v>
       </c>
       <c r="B72">
-        <v>224079</v>
+        <v>224040</v>
       </c>
       <c r="C72">
         <v>5336</v>
@@ -13179,7 +13212,7 @@
         <v>77</v>
       </c>
       <c r="B73">
-        <v>252116</v>
+        <v>252085</v>
       </c>
       <c r="C73">
         <v>6514</v>
@@ -13199,7 +13232,7 @@
         <v>78</v>
       </c>
       <c r="B74">
-        <v>283993</v>
+        <v>283923</v>
       </c>
       <c r="C74">
         <v>7799</v>
@@ -13219,7 +13252,7 @@
         <v>79</v>
       </c>
       <c r="B75">
-        <v>316860</v>
+        <v>316808</v>
       </c>
       <c r="C75">
         <v>9280</v>
@@ -13239,7 +13272,7 @@
         <v>80</v>
       </c>
       <c r="B76">
-        <v>342494</v>
+        <v>342463</v>
       </c>
       <c r="C76">
         <v>10619</v>
@@ -13259,7 +13292,7 @@
         <v>81</v>
       </c>
       <c r="B77">
-        <v>370904</v>
+        <v>370872</v>
       </c>
       <c r="C77">
         <v>11932</v>
@@ -13279,7 +13312,7 @@
         <v>82</v>
       </c>
       <c r="B78">
-        <v>401606</v>
+        <v>401573</v>
       </c>
       <c r="C78">
         <v>13976</v>
@@ -13299,7 +13332,7 @@
         <v>83</v>
       </c>
       <c r="B79">
-        <v>432513</v>
+        <v>432490</v>
       </c>
       <c r="C79">
         <v>15973</v>
@@ -13319,7 +13352,7 @@
         <v>84</v>
       </c>
       <c r="B80">
-        <v>467629</v>
+        <v>467580</v>
       </c>
       <c r="C80">
         <v>18035</v>
@@ -13339,7 +13372,7 @@
         <v>85</v>
       </c>
       <c r="B81">
-        <v>501102</v>
+        <v>501069</v>
       </c>
       <c r="C81">
         <v>20107</v>
@@ -13359,7 +13392,7 @@
         <v>86</v>
       </c>
       <c r="B82">
-        <v>532194</v>
+        <v>532174</v>
       </c>
       <c r="C82">
         <v>22186</v>
@@ -13379,7 +13412,7 @@
         <v>87</v>
       </c>
       <c r="B83">
-        <v>560196</v>
+        <v>560175</v>
       </c>
       <c r="C83">
         <v>23886</v>
@@ -13399,7 +13432,7 @@
         <v>88</v>
       </c>
       <c r="B84">
-        <v>584580</v>
+        <v>584573</v>
       </c>
       <c r="C84">
         <v>25516</v>
@@ -13419,7 +13452,7 @@
         <v>89</v>
       </c>
       <c r="B85">
-        <v>610660</v>
+        <v>610651</v>
       </c>
       <c r="C85">
         <v>27869</v>
@@ -13439,7 +13472,7 @@
         <v>90</v>
       </c>
       <c r="B86">
-        <v>640519</v>
+        <v>640510</v>
       </c>
       <c r="C86">
         <v>30415</v>
@@ -13459,7 +13492,7 @@
         <v>91</v>
       </c>
       <c r="B87">
-        <v>672100</v>
+        <v>672087</v>
       </c>
       <c r="C87">
         <v>32612</v>
@@ -13479,7 +13512,7 @@
         <v>92</v>
       </c>
       <c r="B88">
-        <v>704079</v>
+        <v>704069</v>
       </c>
       <c r="C88">
         <v>34730</v>
@@ -13499,7 +13532,7 @@
         <v>93</v>
       </c>
       <c r="B89">
-        <v>731906</v>
+        <v>731895</v>
       </c>
       <c r="C89">
         <v>36621</v>
@@ -13519,7 +13552,7 @@
         <v>94</v>
       </c>
       <c r="B90">
-        <v>759178</v>
+        <v>759174</v>
       </c>
       <c r="C90">
         <v>38384</v>
@@ -13539,7 +13572,7 @@
         <v>95</v>
       </c>
       <c r="B91">
-        <v>785282</v>
+        <v>785279</v>
       </c>
       <c r="C91">
         <v>40199</v>
@@ -13559,7 +13592,7 @@
         <v>96</v>
       </c>
       <c r="B92">
-        <v>811500</v>
+        <v>811492</v>
       </c>
       <c r="C92">
         <v>42680</v>
@@ -13579,7 +13612,7 @@
         <v>97</v>
       </c>
       <c r="B93">
-        <v>840631</v>
+        <v>840628</v>
       </c>
       <c r="C93">
         <v>44762</v>
@@ -13599,7 +13632,7 @@
         <v>98</v>
       </c>
       <c r="B94">
-        <v>872601</v>
+        <v>872598</v>
       </c>
       <c r="C94">
         <v>46576</v>
@@ -13619,7 +13652,7 @@
         <v>99</v>
       </c>
       <c r="B95">
-        <v>906881</v>
+        <v>906872</v>
       </c>
       <c r="C95">
         <v>48548</v>
@@ -13639,7 +13672,7 @@
         <v>100</v>
       </c>
       <c r="B96">
-        <v>942532</v>
+        <v>942523</v>
       </c>
       <c r="C96">
         <v>50175</v>
@@ -13659,7 +13692,7 @@
         <v>101</v>
       </c>
       <c r="B97">
-        <v>969584</v>
+        <v>969581</v>
       </c>
       <c r="C97">
         <v>51397</v>
@@ -13679,7 +13712,7 @@
         <v>102</v>
       </c>
       <c r="B98">
-        <v>992183</v>
+        <v>992176</v>
       </c>
       <c r="C98">
         <v>52684</v>
@@ -13719,7 +13752,7 @@
         <v>104</v>
       </c>
       <c r="B100">
-        <v>1043778</v>
+        <v>1043774</v>
       </c>
       <c r="C100">
         <v>57446</v>
@@ -13739,7 +13772,7 @@
         <v>105</v>
       </c>
       <c r="B101">
-        <v>1073758</v>
+        <v>1073745</v>
       </c>
       <c r="C101">
         <v>59599</v>
@@ -13759,7 +13792,7 @@
         <v>106</v>
       </c>
       <c r="B102">
-        <v>1106553</v>
+        <v>1106547</v>
       </c>
       <c r="C102">
         <v>61407</v>
@@ -13779,7 +13812,7 @@
         <v>107</v>
       </c>
       <c r="B103">
-        <v>1135592</v>
+        <v>1135581</v>
       </c>
       <c r="C103">
         <v>62938</v>
@@ -13799,7 +13832,7 @@
         <v>108</v>
       </c>
       <c r="B104">
-        <v>1161126</v>
+        <v>1161121</v>
       </c>
       <c r="C104">
         <v>64181</v>
@@ -13819,7 +13852,7 @@
         <v>109</v>
       </c>
       <c r="B105">
-        <v>1183627</v>
+        <v>1183622</v>
       </c>
       <c r="C105">
         <v>65209</v>
@@ -13839,7 +13872,7 @@
         <v>110</v>
       </c>
       <c r="B106">
-        <v>1206137</v>
+        <v>1206134</v>
       </c>
       <c r="C106">
         <v>67703</v>
@@ -13859,7 +13892,7 @@
         <v>111</v>
       </c>
       <c r="B107">
-        <v>1231282</v>
+        <v>1231277</v>
       </c>
       <c r="C107">
         <v>69619</v>
@@ -13879,7 +13912,7 @@
         <v>112</v>
       </c>
       <c r="B108">
-        <v>1258506</v>
+        <v>1258504</v>
       </c>
       <c r="C108">
         <v>72371</v>
@@ -13899,7 +13932,7 @@
         <v>113</v>
       </c>
       <c r="B109">
-        <v>1285665</v>
+        <v>1285663</v>
       </c>
       <c r="C109">
         <v>74152</v>
@@ -13919,7 +13952,7 @@
         <v>114</v>
       </c>
       <c r="B110">
-        <v>1310851</v>
+        <v>1310843</v>
       </c>
       <c r="C110">
         <v>75608</v>
@@ -13959,7 +13992,7 @@
         <v>116</v>
       </c>
       <c r="B112">
-        <v>1350032</v>
+        <v>1350031</v>
       </c>
       <c r="C112">
         <v>77534</v>
@@ -13979,7 +14012,7 @@
         <v>117</v>
       </c>
       <c r="B113">
-        <v>1372591</v>
+        <v>1372589</v>
       </c>
       <c r="C113">
         <v>79040</v>
@@ -13999,13 +14032,13 @@
         <v>118</v>
       </c>
       <c r="B114">
-        <v>1394218</v>
+        <v>1394217</v>
       </c>
       <c r="C114">
         <v>80774</v>
       </c>
       <c r="D114">
-        <v>46740</v>
+        <v>46918</v>
       </c>
       <c r="E114">
         <v>10990</v>
@@ -14019,13 +14052,13 @@
         <v>119</v>
       </c>
       <c r="B115">
-        <v>1420931</v>
+        <v>1420930</v>
       </c>
       <c r="C115">
         <v>82626</v>
       </c>
       <c r="D115">
-        <v>45644</v>
+        <v>45924</v>
       </c>
       <c r="E115">
         <v>10655</v>
@@ -14039,13 +14072,13 @@
         <v>120</v>
       </c>
       <c r="B116">
-        <v>1446353</v>
+        <v>1446352</v>
       </c>
       <c r="C116">
         <v>83889</v>
       </c>
       <c r="D116">
-        <v>44299</v>
+        <v>44551</v>
       </c>
       <c r="E116">
         <v>10484</v>
@@ -14059,13 +14092,13 @@
         <v>121</v>
       </c>
       <c r="B117">
-        <v>1469946</v>
+        <v>1469938</v>
       </c>
       <c r="C117">
         <v>85084</v>
       </c>
       <c r="D117">
-        <v>43175</v>
+        <v>43507</v>
       </c>
       <c r="E117">
         <v>10278</v>
@@ -14085,7 +14118,7 @@
         <v>85934</v>
       </c>
       <c r="D118">
-        <v>41609</v>
+        <v>42022</v>
       </c>
       <c r="E118">
         <v>9934</v>
@@ -14099,13 +14132,13 @@
         <v>123</v>
       </c>
       <c r="B119">
-        <v>1510938</v>
+        <v>1510934</v>
       </c>
       <c r="C119">
         <v>86823</v>
       </c>
       <c r="D119">
-        <v>41531</v>
+        <v>41921</v>
       </c>
       <c r="E119">
         <v>9754</v>
@@ -14119,13 +14152,13 @@
         <v>124</v>
       </c>
       <c r="B120">
-        <v>1531817</v>
+        <v>1531816</v>
       </c>
       <c r="C120">
         <v>88155</v>
       </c>
       <c r="D120">
-        <v>41652</v>
+        <v>42023</v>
       </c>
       <c r="E120">
         <v>9598</v>
@@ -14139,13 +14172,13 @@
         <v>125</v>
       </c>
       <c r="B121">
-        <v>1553080</v>
+        <v>1553075</v>
       </c>
       <c r="C121">
         <v>89545</v>
       </c>
       <c r="D121">
-        <v>41535</v>
+        <v>41871</v>
       </c>
       <c r="E121">
         <v>9521</v>
@@ -14159,13 +14192,13 @@
         <v>126</v>
       </c>
       <c r="B122">
-        <v>1579819</v>
+        <v>1579817</v>
       </c>
       <c r="C122">
         <v>90972</v>
       </c>
       <c r="D122">
-        <v>41071</v>
+        <v>41347</v>
       </c>
       <c r="E122">
         <v>9090</v>
@@ -14179,13 +14212,13 @@
         <v>127</v>
       </c>
       <c r="B123">
-        <v>1603992</v>
+        <v>1603990</v>
       </c>
       <c r="C123">
         <v>92275</v>
       </c>
       <c r="D123">
-        <v>39774</v>
+        <v>40014</v>
       </c>
       <c r="E123">
         <v>9049</v>
@@ -14199,13 +14232,13 @@
         <v>128</v>
       </c>
       <c r="B124">
-        <v>1626358</v>
+        <v>1626355</v>
       </c>
       <c r="C124">
         <v>93310</v>
       </c>
       <c r="D124">
-        <v>38360</v>
+        <v>38581</v>
       </c>
       <c r="E124">
         <v>8733</v>
@@ -14219,13 +14252,13 @@
         <v>129</v>
       </c>
       <c r="B125">
-        <v>1645221</v>
+        <v>1645215</v>
       </c>
       <c r="C125">
         <v>93994</v>
       </c>
       <c r="D125">
-        <v>37510</v>
+        <v>37757</v>
       </c>
       <c r="E125">
         <v>8485</v>
@@ -14239,13 +14272,13 @@
         <v>130</v>
       </c>
       <c r="B126">
-        <v>1663751</v>
+        <v>1663746</v>
       </c>
       <c r="C126">
         <v>94548</v>
       </c>
       <c r="D126">
-        <v>37382</v>
+        <v>37711</v>
       </c>
       <c r="E126">
         <v>8467</v>
@@ -14259,13 +14292,13 @@
         <v>131</v>
       </c>
       <c r="B127">
-        <v>1680726</v>
+        <v>1680724</v>
       </c>
       <c r="C127">
         <v>95220</v>
       </c>
       <c r="D127">
-        <v>37533</v>
+        <v>37775</v>
       </c>
       <c r="E127">
         <v>8585</v>
@@ -14279,13 +14312,13 @@
         <v>132</v>
       </c>
       <c r="B128">
-        <v>1700139</v>
+        <v>1700135</v>
       </c>
       <c r="C128">
         <v>96536</v>
       </c>
       <c r="D128">
-        <v>38017</v>
+        <v>38297</v>
       </c>
       <c r="E128">
         <v>8547</v>
@@ -14299,13 +14332,13 @@
         <v>133</v>
       </c>
       <c r="B129">
-        <v>1722795</v>
+        <v>1722794</v>
       </c>
       <c r="C129">
         <v>97778</v>
       </c>
       <c r="D129">
-        <v>37804</v>
+        <v>38003</v>
       </c>
       <c r="E129">
         <v>8389</v>
@@ -14319,13 +14352,13 @@
         <v>134</v>
       </c>
       <c r="B130">
-        <v>1746384</v>
+        <v>1746382</v>
       </c>
       <c r="C130">
         <v>98947</v>
       </c>
       <c r="D130">
-        <v>36718</v>
+        <v>36948</v>
       </c>
       <c r="E130">
         <v>8174</v>
@@ -14339,13 +14372,13 @@
         <v>135</v>
       </c>
       <c r="B131">
-        <v>1769823</v>
+        <v>1769819</v>
       </c>
       <c r="C131">
         <v>99865</v>
       </c>
       <c r="D131">
-        <v>35513</v>
+        <v>35735</v>
       </c>
       <c r="E131">
         <v>7956</v>
@@ -14359,13 +14392,13 @@
         <v>136</v>
       </c>
       <c r="B132">
-        <v>1791215</v>
+        <v>1791211</v>
       </c>
       <c r="C132">
         <v>100516</v>
       </c>
       <c r="D132">
-        <v>34641</v>
+        <v>34911</v>
       </c>
       <c r="E132">
         <v>7626</v>
@@ -14379,13 +14412,13 @@
         <v>137</v>
       </c>
       <c r="B133">
-        <v>1811575</v>
+        <v>1811573</v>
       </c>
       <c r="C133">
         <v>101187</v>
       </c>
       <c r="D133">
-        <v>34064</v>
+        <v>34316</v>
       </c>
       <c r="E133">
         <v>7591</v>
@@ -14399,13 +14432,13 @@
         <v>138</v>
       </c>
       <c r="B134">
-        <v>1831730</v>
+        <v>1831728</v>
       </c>
       <c r="C134">
         <v>102187</v>
       </c>
       <c r="D134">
-        <v>33709</v>
+        <v>33950</v>
       </c>
       <c r="E134">
         <v>7407</v>
@@ -14419,13 +14452,13 @@
         <v>139</v>
       </c>
       <c r="B135">
-        <v>1851919</v>
+        <v>1851883</v>
       </c>
       <c r="C135">
         <v>103167</v>
       </c>
       <c r="D135">
-        <v>33026</v>
+        <v>33237</v>
       </c>
       <c r="E135">
         <v>7227</v>
@@ -14439,13 +14472,13 @@
         <v>140</v>
       </c>
       <c r="B136">
-        <v>1872268</v>
+        <v>1872266</v>
       </c>
       <c r="C136">
         <v>104031</v>
       </c>
       <c r="D136">
-        <v>32602</v>
+        <v>32814</v>
       </c>
       <c r="E136">
         <v>7057</v>
@@ -14459,13 +14492,13 @@
         <v>141</v>
       </c>
       <c r="B137">
-        <v>1895349</v>
+        <v>1895332</v>
       </c>
       <c r="C137">
         <v>104875</v>
       </c>
       <c r="D137">
-        <v>32265</v>
+        <v>32499</v>
       </c>
       <c r="E137">
         <v>6920</v>
@@ -14479,13 +14512,13 @@
         <v>142</v>
       </c>
       <c r="B138">
-        <v>1917907</v>
+        <v>1917890</v>
       </c>
       <c r="C138">
         <v>105586</v>
       </c>
       <c r="D138">
-        <v>31762</v>
+        <v>31994</v>
       </c>
       <c r="E138">
         <v>6762</v>
@@ -14499,13 +14532,13 @@
         <v>143</v>
       </c>
       <c r="B139">
-        <v>1936720</v>
+        <v>1936708</v>
       </c>
       <c r="C139">
         <v>106032</v>
       </c>
       <c r="D139">
-        <v>31249</v>
+        <v>31490</v>
       </c>
       <c r="E139">
         <v>6501</v>
@@ -14519,13 +14552,13 @@
         <v>144</v>
       </c>
       <c r="B140">
-        <v>1953946</v>
+        <v>1953938</v>
       </c>
       <c r="C140">
         <v>106708</v>
       </c>
       <c r="D140">
-        <v>30984</v>
+        <v>31121</v>
       </c>
       <c r="E140">
         <v>6402</v>
@@ -14539,13 +14572,13 @@
         <v>145</v>
       </c>
       <c r="B141">
-        <v>1971100</v>
+        <v>1971089</v>
       </c>
       <c r="C141">
         <v>107609</v>
       </c>
       <c r="D141">
-        <v>31020</v>
+        <v>31187</v>
       </c>
       <c r="E141">
         <v>6457</v>
@@ -14559,13 +14592,13 @@
         <v>146</v>
       </c>
       <c r="B142">
-        <v>1991832</v>
+        <v>1991816</v>
       </c>
       <c r="C142">
         <v>108493</v>
       </c>
       <c r="D142">
-        <v>30840</v>
+        <v>30952</v>
       </c>
       <c r="E142">
         <v>6249</v>
@@ -14579,13 +14612,13 @@
         <v>147</v>
       </c>
       <c r="B143">
-        <v>2013897</v>
+        <v>2013887</v>
       </c>
       <c r="C143">
         <v>109392</v>
       </c>
       <c r="D143">
-        <v>29686</v>
+        <v>29844</v>
       </c>
       <c r="E143">
         <v>6074</v>
@@ -14599,13 +14632,13 @@
         <v>148</v>
       </c>
       <c r="B144">
-        <v>2036988</v>
+        <v>2036983</v>
       </c>
       <c r="C144">
         <v>110155</v>
       </c>
       <c r="D144">
-        <v>29149</v>
+        <v>29309</v>
       </c>
       <c r="E144">
         <v>6017</v>
@@ -14619,13 +14652,13 @@
         <v>149</v>
       </c>
       <c r="B145">
-        <v>2062230</v>
+        <v>2062228</v>
       </c>
       <c r="C145">
         <v>110845</v>
       </c>
       <c r="D145">
-        <v>28431</v>
+        <v>28578</v>
       </c>
       <c r="E145">
         <v>5883</v>
@@ -14639,13 +14672,13 @@
         <v>150</v>
       </c>
       <c r="B146">
-        <v>2083562</v>
+        <v>2083561</v>
       </c>
       <c r="C146">
         <v>111200</v>
       </c>
       <c r="D146">
-        <v>27899</v>
+        <v>28020</v>
       </c>
       <c r="E146">
         <v>5749</v>
@@ -14659,13 +14692,13 @@
         <v>151</v>
       </c>
       <c r="B147">
-        <v>2102218</v>
+        <v>2102215</v>
       </c>
       <c r="C147">
         <v>111606</v>
       </c>
       <c r="D147">
-        <v>27866</v>
+        <v>28026</v>
       </c>
       <c r="E147">
         <v>5703</v>
@@ -14685,7 +14718,7 @@
         <v>112312</v>
       </c>
       <c r="D148">
-        <v>28279</v>
+        <v>28386</v>
       </c>
       <c r="E148">
         <v>5570</v>
@@ -14699,13 +14732,13 @@
         <v>153</v>
       </c>
       <c r="B149">
-        <v>2149395</v>
+        <v>2149389</v>
       </c>
       <c r="C149">
         <v>113106</v>
       </c>
       <c r="D149">
-        <v>28561</v>
+        <v>28664</v>
       </c>
       <c r="E149">
         <v>5612</v>
@@ -14719,13 +14752,13 @@
         <v>154</v>
       </c>
       <c r="B150">
-        <v>2176486</v>
+        <v>2176478</v>
       </c>
       <c r="C150">
         <v>113799</v>
       </c>
       <c r="D150">
-        <v>28411</v>
+        <v>28521</v>
       </c>
       <c r="E150">
         <v>5464</v>
@@ -14739,13 +14772,13 @@
         <v>155</v>
       </c>
       <c r="B151">
-        <v>2207441</v>
+        <v>2207437</v>
       </c>
       <c r="C151">
         <v>114455</v>
       </c>
       <c r="D151">
-        <v>28586</v>
+        <v>28706</v>
       </c>
       <c r="E151">
         <v>5341</v>
@@ -14759,13 +14792,13 @@
         <v>156</v>
       </c>
       <c r="B152">
-        <v>2239400</v>
+        <v>2239388</v>
       </c>
       <c r="C152">
         <v>115066</v>
       </c>
       <c r="D152">
-        <v>27970</v>
+        <v>28084</v>
       </c>
       <c r="E152">
         <v>5229</v>
@@ -14779,13 +14812,13 @@
         <v>157</v>
       </c>
       <c r="B153">
-        <v>2268240</v>
+        <v>2268236</v>
       </c>
       <c r="C153">
         <v>115359</v>
       </c>
       <c r="D153">
-        <v>28221</v>
+        <v>28325</v>
       </c>
       <c r="E153">
         <v>5195</v>
@@ -14799,13 +14832,13 @@
         <v>158</v>
       </c>
       <c r="B154">
-        <v>2295417</v>
+        <v>2295415</v>
       </c>
       <c r="C154">
         <v>115653</v>
       </c>
       <c r="D154">
-        <v>28797</v>
+        <v>28954</v>
       </c>
       <c r="E154">
         <v>5323</v>
@@ -14819,13 +14852,13 @@
         <v>159</v>
       </c>
       <c r="B155">
-        <v>2329320</v>
+        <v>2329300</v>
       </c>
       <c r="C155">
         <v>116378</v>
       </c>
       <c r="D155">
-        <v>30226</v>
+        <v>30394</v>
       </c>
       <c r="E155">
         <v>5402</v>
@@ -14839,13 +14872,13 @@
         <v>160</v>
       </c>
       <c r="B156">
-        <v>2368316</v>
+        <v>2368309</v>
       </c>
       <c r="C156">
         <v>117085</v>
       </c>
       <c r="D156">
-        <v>31119</v>
+        <v>31271</v>
       </c>
       <c r="E156">
         <v>5293</v>
@@ -14859,13 +14892,13 @@
         <v>161</v>
       </c>
       <c r="B157">
-        <v>2407997</v>
+        <v>2407990</v>
       </c>
       <c r="C157">
         <v>117748</v>
       </c>
       <c r="D157">
-        <v>31828</v>
+        <v>31926</v>
       </c>
       <c r="E157">
         <v>5320</v>
@@ -14879,13 +14912,13 @@
         <v>162</v>
       </c>
       <c r="B158">
-        <v>2452371</v>
+        <v>2452369</v>
       </c>
       <c r="C158">
         <v>118372</v>
       </c>
       <c r="D158">
-        <v>31710</v>
+        <v>31810</v>
       </c>
       <c r="E158">
         <v>5283</v>
@@ -14899,13 +14932,13 @@
         <v>163</v>
       </c>
       <c r="B159">
-        <v>2495265</v>
+        <v>2495262</v>
       </c>
       <c r="C159">
         <v>118874</v>
       </c>
       <c r="D159">
-        <v>32485</v>
+        <v>32566</v>
       </c>
       <c r="E159">
         <v>5314</v>
@@ -14919,13 +14952,13 @@
         <v>164</v>
       </c>
       <c r="B160">
-        <v>2536600</v>
+        <v>2536594</v>
       </c>
       <c r="C160">
         <v>119145</v>
       </c>
       <c r="D160">
-        <v>32479</v>
+        <v>32575</v>
       </c>
       <c r="E160">
         <v>5252</v>
@@ -14945,7 +14978,7 @@
         <v>119503</v>
       </c>
       <c r="D161">
-        <v>33627</v>
+        <v>33744</v>
       </c>
       <c r="E161">
         <v>5380</v>
@@ -14959,13 +14992,13 @@
         <v>166</v>
       </c>
       <c r="B162">
-        <v>2623991</v>
+        <v>2623989</v>
       </c>
       <c r="C162">
         <v>120087</v>
       </c>
       <c r="D162">
-        <v>35222</v>
+        <v>35335</v>
       </c>
       <c r="E162">
         <v>5424</v>
@@ -14979,13 +15012,13 @@
         <v>167</v>
       </c>
       <c r="B163">
-        <v>2675007</v>
+        <v>2674990</v>
       </c>
       <c r="C163">
         <v>120776</v>
       </c>
       <c r="D163">
-        <v>36430</v>
+        <v>36569</v>
       </c>
       <c r="E163">
         <v>5512</v>
@@ -14999,13 +15032,13 @@
         <v>168</v>
       </c>
       <c r="B164">
-        <v>2728507</v>
+        <v>2728498</v>
       </c>
       <c r="C164">
         <v>121472</v>
       </c>
       <c r="D164">
-        <v>37508</v>
+        <v>37627</v>
       </c>
       <c r="E164">
         <v>5626</v>
@@ -15019,13 +15052,13 @@
         <v>169</v>
       </c>
       <c r="B165">
-        <v>2782188</v>
+        <v>2782186</v>
       </c>
       <c r="C165">
         <v>122074</v>
       </c>
       <c r="D165">
-        <v>37801</v>
+        <v>37927</v>
       </c>
       <c r="E165">
         <v>5597</v>
@@ -15039,13 +15072,13 @@
         <v>170</v>
       </c>
       <c r="B166">
-        <v>2836341</v>
+        <v>2836330</v>
       </c>
       <c r="C166">
         <v>122374</v>
       </c>
       <c r="D166">
-        <v>38150</v>
+        <v>38281</v>
       </c>
       <c r="E166">
         <v>5633</v>
@@ -15059,13 +15092,13 @@
         <v>171</v>
       </c>
       <c r="B167">
-        <v>2881499</v>
+        <v>2881497</v>
       </c>
       <c r="C167">
         <v>122581</v>
       </c>
       <c r="D167">
-        <v>38765</v>
+        <v>38872</v>
       </c>
       <c r="E167">
         <v>5653</v>
@@ -15079,13 +15112,13 @@
         <v>172</v>
       </c>
       <c r="B168">
-        <v>2922994</v>
+        <v>2922991</v>
       </c>
       <c r="C168">
         <v>122847</v>
       </c>
       <c r="D168">
-        <v>39820</v>
+        <v>39970</v>
       </c>
       <c r="E168">
         <v>5687</v>
@@ -15099,13 +15132,13 @@
         <v>173</v>
       </c>
       <c r="B169">
-        <v>2974735</v>
+        <v>2974733</v>
       </c>
       <c r="C169">
         <v>123752</v>
       </c>
       <c r="D169">
-        <v>41772</v>
+        <v>41957</v>
       </c>
       <c r="E169">
         <v>5832</v>
@@ -15119,13 +15152,13 @@
         <v>174</v>
       </c>
       <c r="B170">
-        <v>3037483</v>
+        <v>3037469</v>
       </c>
       <c r="C170">
         <v>124564</v>
       </c>
       <c r="D170">
-        <v>43097</v>
+        <v>43204</v>
       </c>
       <c r="E170">
         <v>5874</v>
@@ -15139,13 +15172,13 @@
         <v>175</v>
       </c>
       <c r="B171">
-        <v>3096433</v>
+        <v>3096428</v>
       </c>
       <c r="C171">
         <v>125464</v>
       </c>
       <c r="D171">
-        <v>43916</v>
+        <v>44055</v>
       </c>
       <c r="E171">
         <v>5845</v>
@@ -15159,13 +15192,13 @@
         <v>176</v>
       </c>
       <c r="B172">
-        <v>3163257</v>
+        <v>3163252</v>
       </c>
       <c r="C172">
         <v>126286</v>
       </c>
       <c r="D172">
-        <v>51606</v>
+        <v>51740</v>
       </c>
       <c r="E172">
         <v>5896</v>
@@ -15179,13 +15212,13 @@
         <v>177</v>
       </c>
       <c r="B173">
-        <v>3225589</v>
+        <v>3225576</v>
       </c>
       <c r="C173">
         <v>127038</v>
       </c>
       <c r="D173">
-        <v>51861</v>
+        <v>51982</v>
       </c>
       <c r="E173">
         <v>5939</v>
@@ -15199,13 +15232,13 @@
         <v>178</v>
       </c>
       <c r="B174">
-        <v>3286554</v>
+        <v>3286548</v>
       </c>
       <c r="C174">
         <v>127512</v>
       </c>
       <c r="D174">
-        <v>52739</v>
+        <v>52860</v>
       </c>
       <c r="E174">
         <v>5930</v>
@@ -15219,13 +15252,13 @@
         <v>179</v>
       </c>
       <c r="B175">
-        <v>3344155</v>
+        <v>3344151</v>
       </c>
       <c r="C175">
         <v>127843</v>
       </c>
       <c r="D175">
-        <v>54044</v>
+        <v>54156</v>
       </c>
       <c r="E175">
         <v>6074</v>
@@ -15239,13 +15272,13 @@
         <v>180</v>
       </c>
       <c r="B176">
-        <v>3406897</v>
+        <v>3406885</v>
       </c>
       <c r="C176">
         <v>128582</v>
       </c>
       <c r="D176">
-        <v>55554</v>
+        <v>55667</v>
       </c>
       <c r="E176">
         <v>6235</v>
@@ -15259,13 +15292,13 @@
         <v>181</v>
       </c>
       <c r="B177">
-        <v>3472513</v>
+        <v>3472503</v>
       </c>
       <c r="C177">
         <v>129442</v>
       </c>
       <c r="D177">
-        <v>56168</v>
+        <v>56312</v>
       </c>
       <c r="E177">
         <v>6317</v>
@@ -15279,13 +15312,13 @@
         <v>182</v>
       </c>
       <c r="B178">
-        <v>3542961</v>
+        <v>3542952</v>
       </c>
       <c r="C178">
         <v>130395</v>
       </c>
       <c r="D178">
-        <v>57459</v>
+        <v>57614</v>
       </c>
       <c r="E178">
         <v>6359</v>
@@ -15299,13 +15332,13 @@
         <v>183</v>
       </c>
       <c r="B179">
-        <v>3619173</v>
+        <v>3619170</v>
       </c>
       <c r="C179">
         <v>131331</v>
       </c>
       <c r="D179">
-        <v>57737</v>
+        <v>57894</v>
       </c>
       <c r="E179">
         <v>6452</v>
@@ -15319,13 +15352,13 @@
         <v>184</v>
       </c>
       <c r="B180">
-        <v>3683603</v>
+        <v>3683593</v>
       </c>
       <c r="C180">
         <v>132204</v>
       </c>
       <c r="D180">
-        <v>57646</v>
+        <v>57822</v>
       </c>
       <c r="E180">
         <v>6397</v>
@@ -15339,13 +15372,13 @@
         <v>185</v>
       </c>
       <c r="B181">
-        <v>3747318</v>
+        <v>3747308</v>
       </c>
       <c r="C181">
         <v>132731</v>
       </c>
       <c r="D181">
-        <v>57882</v>
+        <v>58052</v>
       </c>
       <c r="E181">
         <v>6384</v>
@@ -15359,13 +15392,13 @@
         <v>186</v>
       </c>
       <c r="B182">
-        <v>3804251</v>
+        <v>3804244</v>
       </c>
       <c r="C182">
         <v>133100</v>
       </c>
       <c r="D182">
-        <v>58352</v>
+        <v>58509</v>
       </c>
       <c r="E182">
         <v>6557</v>
@@ -15379,13 +15412,13 @@
         <v>187</v>
       </c>
       <c r="B183">
-        <v>3867871</v>
+        <v>3867869</v>
       </c>
       <c r="C183">
         <v>134169</v>
       </c>
       <c r="D183">
-        <v>59351</v>
+        <v>59480</v>
       </c>
       <c r="E183">
         <v>6711</v>
@@ -15399,13 +15432,13 @@
         <v>188</v>
       </c>
       <c r="B184">
-        <v>3937226</v>
+        <v>3937215</v>
       </c>
       <c r="C184">
         <v>135303</v>
       </c>
       <c r="D184">
-        <v>59598</v>
+        <v>59752</v>
       </c>
       <c r="E184">
         <v>10457</v>
@@ -15419,13 +15452,13 @@
         <v>189</v>
       </c>
       <c r="B185">
-        <v>4008445</v>
+        <v>4008440</v>
       </c>
       <c r="C185">
         <v>136364</v>
       </c>
       <c r="D185">
-        <v>59712</v>
+        <v>59854</v>
       </c>
       <c r="E185">
         <v>10414</v>
@@ -15439,13 +15472,13 @@
         <v>190</v>
       </c>
       <c r="B186">
-        <v>4083307</v>
+        <v>4083294</v>
       </c>
       <c r="C186">
         <v>137556</v>
       </c>
       <c r="D186">
-        <v>59677</v>
+        <v>59808</v>
       </c>
       <c r="E186">
         <v>10395</v>
@@ -15459,13 +15492,13 @@
         <v>191</v>
       </c>
       <c r="B187">
-        <v>4147674</v>
+        <v>4147670</v>
       </c>
       <c r="C187">
         <v>138561</v>
       </c>
       <c r="D187">
-        <v>59269</v>
+        <v>59382</v>
       </c>
       <c r="E187">
         <v>10380</v>
@@ -15479,13 +15512,13 @@
         <v>192</v>
       </c>
       <c r="B188">
-        <v>4207795</v>
+        <v>4207793</v>
       </c>
       <c r="C188">
         <v>139121</v>
       </c>
       <c r="D188">
-        <v>58644</v>
+        <v>58731</v>
       </c>
       <c r="E188">
         <v>10353</v>
@@ -15499,13 +15532,13 @@
         <v>193</v>
       </c>
       <c r="B189">
-        <v>4262810</v>
+        <v>4262807</v>
       </c>
       <c r="C189">
         <v>140186</v>
       </c>
       <c r="D189">
-        <v>58906</v>
+        <v>58991</v>
       </c>
       <c r="E189">
         <v>10328</v>
@@ -15519,13 +15552,13 @@
         <v>194</v>
       </c>
       <c r="B190">
-        <v>4321792</v>
+        <v>4321791</v>
       </c>
       <c r="C190">
         <v>141314</v>
       </c>
       <c r="D190">
-        <v>57086</v>
+        <v>57178</v>
       </c>
       <c r="E190">
         <v>10463</v>
@@ -15539,13 +15572,13 @@
         <v>195</v>
       </c>
       <c r="B191">
-        <v>4385733</v>
+        <v>4385732</v>
       </c>
       <c r="C191">
         <v>142805</v>
       </c>
       <c r="D191">
-        <v>57325</v>
+        <v>57427</v>
       </c>
       <c r="E191">
         <v>10539</v>
@@ -15559,13 +15592,13 @@
         <v>196</v>
       </c>
       <c r="B192">
-        <v>4454546</v>
+        <v>4454538</v>
       </c>
       <c r="C192">
         <v>144053</v>
       </c>
       <c r="D192">
-        <v>56434</v>
+        <v>56565</v>
       </c>
       <c r="E192">
         <v>10523</v>
@@ -15579,13 +15612,13 @@
         <v>197</v>
       </c>
       <c r="B193">
-        <v>4522073</v>
+        <v>4522068</v>
       </c>
       <c r="C193">
         <v>145366</v>
       </c>
       <c r="D193">
-        <v>55589</v>
+        <v>55700</v>
       </c>
       <c r="E193">
         <v>10472</v>
@@ -15599,13 +15632,13 @@
         <v>198</v>
       </c>
       <c r="B194">
-        <v>4582317</v>
+        <v>4582313</v>
       </c>
       <c r="C194">
         <v>146558</v>
       </c>
       <c r="D194">
-        <v>54437</v>
+        <v>54554</v>
       </c>
       <c r="E194">
         <v>10450</v>
@@ -15619,13 +15652,13 @@
         <v>199</v>
       </c>
       <c r="B195">
-        <v>4628824</v>
+        <v>4628823</v>
       </c>
       <c r="C195">
         <v>147052</v>
       </c>
       <c r="D195">
-        <v>53983</v>
+        <v>54106</v>
       </c>
       <c r="E195">
         <v>10415</v>
@@ -15639,13 +15672,13 @@
         <v>200</v>
       </c>
       <c r="B196">
-        <v>4678176</v>
+        <v>4678171</v>
       </c>
       <c r="C196">
         <v>147588</v>
       </c>
       <c r="D196">
-        <v>53413</v>
+        <v>53524</v>
       </c>
       <c r="E196">
         <v>10230</v>
@@ -15659,13 +15692,13 @@
         <v>201</v>
       </c>
       <c r="B197">
-        <v>4729991</v>
+        <v>4729986</v>
       </c>
       <c r="C197">
         <v>148827</v>
       </c>
       <c r="D197">
-        <v>53323</v>
+        <v>53440</v>
       </c>
       <c r="E197">
         <v>10207</v>
@@ -15679,13 +15712,13 @@
         <v>202</v>
       </c>
       <c r="B198">
-        <v>4782460</v>
+        <v>4782450</v>
       </c>
       <c r="C198">
         <v>150187</v>
       </c>
       <c r="D198">
-        <v>53343</v>
+        <v>53444</v>
       </c>
       <c r="E198">
         <v>9986</v>
@@ -15699,13 +15732,13 @@
         <v>203</v>
       </c>
       <c r="B199">
-        <v>4836254</v>
+        <v>4836253</v>
       </c>
       <c r="C199">
         <v>151435</v>
       </c>
       <c r="D199">
-        <v>53129</v>
+        <v>53221</v>
       </c>
       <c r="E199">
         <v>9994</v>
@@ -15719,13 +15752,13 @@
         <v>204</v>
       </c>
       <c r="B200">
-        <v>4897095</v>
+        <v>4897089</v>
       </c>
       <c r="C200">
         <v>152768</v>
       </c>
       <c r="D200">
-        <v>51201</v>
+        <v>51301</v>
       </c>
       <c r="E200">
         <v>9691</v>
@@ -15739,13 +15772,13 @@
         <v>205</v>
       </c>
       <c r="B201">
-        <v>4950178</v>
+        <v>4950173</v>
       </c>
       <c r="C201">
         <v>153852</v>
       </c>
       <c r="D201">
-        <v>49935</v>
+        <v>50071</v>
       </c>
       <c r="E201">
         <v>9662</v>
@@ -15759,13 +15792,13 @@
         <v>206</v>
       </c>
       <c r="B202">
-        <v>5000329</v>
+        <v>5000326</v>
       </c>
       <c r="C202">
         <v>154466</v>
       </c>
       <c r="D202">
-        <v>48866</v>
+        <v>48997</v>
       </c>
       <c r="E202">
         <v>9307</v>
@@ -15779,13 +15812,13 @@
         <v>207</v>
       </c>
       <c r="B203">
-        <v>5042081</v>
+        <v>5042069</v>
       </c>
       <c r="C203">
         <v>154901</v>
       </c>
       <c r="D203">
-        <v>48631</v>
+        <v>48761</v>
       </c>
       <c r="E203">
         <v>9216</v>
@@ -15799,13 +15832,13 @@
         <v>208</v>
       </c>
       <c r="B204">
-        <v>5097504</v>
+        <v>5097499</v>
       </c>
       <c r="C204">
         <v>156224</v>
       </c>
       <c r="D204">
-        <v>48511</v>
+        <v>48620</v>
       </c>
       <c r="E204">
         <v>9136</v>
@@ -15819,13 +15852,13 @@
         <v>209</v>
       </c>
       <c r="B205">
-        <v>5153399</v>
+        <v>5153393</v>
       </c>
       <c r="C205">
         <v>157742</v>
       </c>
       <c r="D205">
-        <v>47949</v>
+        <v>48046</v>
       </c>
       <c r="E205">
         <v>9555</v>
@@ -15839,13 +15872,13 @@
         <v>210</v>
       </c>
       <c r="B206">
-        <v>5205031</v>
+        <v>5205014</v>
       </c>
       <c r="C206">
         <v>158906</v>
       </c>
       <c r="D206">
-        <v>47204</v>
+        <v>47322</v>
       </c>
       <c r="E206">
         <v>9487</v>
@@ -15859,13 +15892,13 @@
         <v>211</v>
       </c>
       <c r="B207">
-        <v>5262116</v>
+        <v>5262107</v>
       </c>
       <c r="C207">
         <v>160125</v>
       </c>
       <c r="D207">
-        <v>45744</v>
+        <v>45860</v>
       </c>
       <c r="E207">
         <v>9277</v>
@@ -15879,13 +15912,13 @@
         <v>212</v>
       </c>
       <c r="B208">
-        <v>5317922</v>
+        <v>5317917</v>
       </c>
       <c r="C208">
         <v>161343</v>
       </c>
       <c r="D208">
-        <v>44783</v>
+        <v>44922</v>
       </c>
       <c r="E208">
         <v>9087</v>
@@ -15899,13 +15932,13 @@
         <v>213</v>
       </c>
       <c r="B209">
-        <v>5360251</v>
+        <v>5360239</v>
       </c>
       <c r="C209">
         <v>161961</v>
       </c>
       <c r="D209">
-        <v>44046</v>
+        <v>44155</v>
       </c>
       <c r="E209">
         <v>8958</v>
@@ -15919,13 +15952,13 @@
         <v>214</v>
       </c>
       <c r="B210">
-        <v>5397653</v>
+        <v>5397650</v>
       </c>
       <c r="C210">
         <v>162380</v>
       </c>
       <c r="D210">
-        <v>43500</v>
+        <v>43596</v>
       </c>
       <c r="E210">
         <v>8871</v>
@@ -15939,13 +15972,13 @@
         <v>215</v>
       </c>
       <c r="B211">
-        <v>5438144</v>
+        <v>5438142</v>
       </c>
       <c r="C211">
         <v>163575</v>
       </c>
       <c r="D211">
-        <v>43767</v>
+        <v>43848</v>
       </c>
       <c r="E211">
         <v>8866</v>
@@ -15959,13 +15992,13 @@
         <v>216</v>
       </c>
       <c r="B212">
-        <v>5483028</v>
+        <v>5483024</v>
       </c>
       <c r="C212">
         <v>164999</v>
       </c>
       <c r="D212">
-        <v>43289</v>
+        <v>43395</v>
       </c>
       <c r="E212">
         <v>8744</v>
@@ -15979,13 +16012,13 @@
         <v>217</v>
       </c>
       <c r="B213">
-        <v>5526751</v>
+        <v>5526747</v>
       </c>
       <c r="C213">
         <v>166133</v>
       </c>
       <c r="D213">
-        <v>41968</v>
+        <v>42081</v>
       </c>
       <c r="E213">
         <v>8483</v>
@@ -15999,13 +16032,13 @@
         <v>218</v>
       </c>
       <c r="B214">
-        <v>5572953</v>
+        <v>5572942</v>
       </c>
       <c r="C214">
         <v>167243</v>
       </c>
       <c r="D214">
-        <v>40940</v>
+        <v>41047</v>
       </c>
       <c r="E214">
         <v>8357</v>
@@ -16019,13 +16052,13 @@
         <v>219</v>
       </c>
       <c r="B215">
-        <v>5618669</v>
+        <v>5618664</v>
       </c>
       <c r="C215">
         <v>168271</v>
       </c>
       <c r="D215">
-        <v>39919</v>
+        <v>40017</v>
       </c>
       <c r="E215">
         <v>8207</v>
@@ -16039,13 +16072,13 @@
         <v>220</v>
       </c>
       <c r="B216">
-        <v>5655997</v>
+        <v>5655989</v>
       </c>
       <c r="C216">
         <v>168845</v>
       </c>
       <c r="D216">
-        <v>38980</v>
+        <v>39064</v>
       </c>
       <c r="E216">
         <v>7949</v>
@@ -16059,13 +16092,13 @@
         <v>221</v>
       </c>
       <c r="B217">
-        <v>5690244</v>
+        <v>5690238</v>
       </c>
       <c r="C217">
         <v>169197</v>
       </c>
       <c r="D217">
-        <v>38695</v>
+        <v>38776</v>
       </c>
       <c r="E217">
         <v>7851</v>
@@ -16079,13 +16112,13 @@
         <v>222</v>
       </c>
       <c r="B218">
-        <v>5726830</v>
+        <v>5726826</v>
       </c>
       <c r="C218">
         <v>170337</v>
       </c>
       <c r="D218">
-        <v>38775</v>
+        <v>38842</v>
       </c>
       <c r="E218">
         <v>7863</v>
@@ -16099,13 +16132,13 @@
         <v>223</v>
       </c>
       <c r="B219">
-        <v>5770464</v>
+        <v>5770453</v>
       </c>
       <c r="C219">
         <v>171642</v>
       </c>
       <c r="D219">
-        <v>38418</v>
+        <v>38501</v>
       </c>
       <c r="E219">
         <v>7737</v>
@@ -16119,13 +16152,13 @@
         <v>224</v>
       </c>
       <c r="B220">
-        <v>5814373</v>
+        <v>5814369</v>
       </c>
       <c r="C220">
         <v>172766</v>
       </c>
       <c r="D220">
-        <v>37421</v>
+        <v>37529</v>
       </c>
       <c r="E220">
         <v>7717</v>
@@ -16139,13 +16172,13 @@
         <v>225</v>
       </c>
       <c r="B221">
-        <v>5860507</v>
+        <v>5860495</v>
       </c>
       <c r="C221">
         <v>173792</v>
       </c>
       <c r="D221">
-        <v>37255</v>
+        <v>37351</v>
       </c>
       <c r="E221">
         <v>7558</v>
@@ -16159,13 +16192,13 @@
         <v>226</v>
       </c>
       <c r="B222">
-        <v>5904469</v>
+        <v>5904458</v>
       </c>
       <c r="C222">
         <v>174800</v>
       </c>
       <c r="D222">
-        <v>36437</v>
+        <v>36516</v>
       </c>
       <c r="E222">
         <v>7413</v>
@@ -16179,13 +16212,13 @@
         <v>227</v>
       </c>
       <c r="B223">
-        <v>5943748</v>
+        <v>5943743</v>
       </c>
       <c r="C223">
         <v>175274</v>
       </c>
       <c r="D223">
-        <v>35726</v>
+        <v>35801</v>
       </c>
       <c r="E223">
         <v>7268</v>
@@ -16199,13 +16232,13 @@
         <v>228</v>
       </c>
       <c r="B224">
-        <v>5975019</v>
+        <v>5975013</v>
       </c>
       <c r="C224">
         <v>175656</v>
       </c>
       <c r="D224">
-        <v>35352</v>
+        <v>35423</v>
       </c>
       <c r="E224">
         <v>7043</v>
@@ -16219,13 +16252,13 @@
         <v>229</v>
       </c>
       <c r="B225">
-        <v>6017436</v>
+        <v>6017434</v>
       </c>
       <c r="C225">
         <v>176678</v>
       </c>
       <c r="D225">
-        <v>35273</v>
+        <v>35334</v>
       </c>
       <c r="E225">
         <v>7090</v>
@@ -16239,13 +16272,13 @@
         <v>230</v>
       </c>
       <c r="B226">
-        <v>6047656</v>
+        <v>6047651</v>
       </c>
       <c r="C226">
         <v>177704</v>
       </c>
       <c r="D226">
-        <v>35579</v>
+        <v>35667</v>
       </c>
       <c r="E226">
         <v>7087</v>
@@ -16259,13 +16292,13 @@
         <v>231</v>
       </c>
       <c r="B227">
-        <v>6092282</v>
+        <v>6092272</v>
       </c>
       <c r="C227">
         <v>178780</v>
       </c>
       <c r="D227">
-        <v>34650</v>
+        <v>34747</v>
       </c>
       <c r="E227">
         <v>6921</v>
@@ -16279,13 +16312,13 @@
         <v>232</v>
       </c>
       <c r="B228">
-        <v>6143790</v>
+        <v>6143785</v>
       </c>
       <c r="C228">
         <v>179776</v>
       </c>
       <c r="D228">
-        <v>34101</v>
+        <v>34191</v>
       </c>
       <c r="E228">
         <v>6924</v>
@@ -16299,13 +16332,13 @@
         <v>233</v>
       </c>
       <c r="B229">
-        <v>6188530</v>
+        <v>6188529</v>
       </c>
       <c r="C229">
         <v>180697</v>
       </c>
       <c r="D229">
-        <v>33502</v>
+        <v>33626</v>
       </c>
       <c r="E229">
         <v>6766</v>
@@ -16319,13 +16352,13 @@
         <v>234</v>
       </c>
       <c r="B230">
-        <v>6221454</v>
+        <v>6221450</v>
       </c>
       <c r="C230">
         <v>181144</v>
       </c>
       <c r="D230">
-        <v>32376</v>
+        <v>32497</v>
       </c>
       <c r="E230">
         <v>6700</v>
@@ -16339,13 +16372,13 @@
         <v>235</v>
       </c>
       <c r="B231">
-        <v>6249596</v>
+        <v>6249594</v>
       </c>
       <c r="C231">
         <v>181370</v>
       </c>
       <c r="D231">
-        <v>32009</v>
+        <v>32116</v>
       </c>
       <c r="E231">
         <v>6630</v>
@@ -16359,13 +16392,13 @@
         <v>236</v>
       </c>
       <c r="B232">
-        <v>6271735</v>
+        <v>6271730</v>
       </c>
       <c r="C232">
         <v>181722</v>
       </c>
       <c r="D232">
-        <v>32246</v>
+        <v>32345</v>
       </c>
       <c r="E232">
         <v>6542</v>
@@ -16379,13 +16412,13 @@
         <v>237</v>
       </c>
       <c r="B233">
-        <v>6302906</v>
+        <v>6302903</v>
       </c>
       <c r="C233">
         <v>182824</v>
       </c>
       <c r="D233">
-        <v>32579</v>
+        <v>32647</v>
       </c>
       <c r="E233">
         <v>6646</v>
@@ -16399,13 +16432,13 @@
         <v>238</v>
       </c>
       <c r="B234">
-        <v>6340213</v>
+        <v>6340205</v>
       </c>
       <c r="C234">
         <v>183985</v>
       </c>
       <c r="D234">
-        <v>32438</v>
+        <v>32536</v>
       </c>
       <c r="E234">
         <v>6531</v>
@@ -16419,13 +16452,13 @@
         <v>239</v>
       </c>
       <c r="B235">
-        <v>6384898</v>
+        <v>6384889</v>
       </c>
       <c r="C235">
         <v>184993</v>
       </c>
       <c r="D235">
-        <v>31406</v>
+        <v>31529</v>
       </c>
       <c r="E235">
         <v>6379</v>
@@ -16439,13 +16472,13 @@
         <v>240</v>
       </c>
       <c r="B236">
-        <v>6426762</v>
+        <v>6426755</v>
       </c>
       <c r="C236">
         <v>185811</v>
       </c>
       <c r="D236">
-        <v>30643</v>
+        <v>30758</v>
       </c>
       <c r="E236">
         <v>6451</v>
@@ -16459,13 +16492,13 @@
         <v>241</v>
       </c>
       <c r="B237">
-        <v>6461077</v>
+        <v>6461066</v>
       </c>
       <c r="C237">
         <v>186201</v>
       </c>
       <c r="D237">
-        <v>29804</v>
+        <v>29921</v>
       </c>
       <c r="E237">
         <v>6233</v>
@@ -16479,13 +16512,13 @@
         <v>242</v>
       </c>
       <c r="B238">
-        <v>6494693</v>
+        <v>6494686</v>
       </c>
       <c r="C238">
         <v>186609</v>
       </c>
       <c r="D238">
-        <v>29907</v>
+        <v>30045</v>
       </c>
       <c r="E238">
         <v>6238</v>
@@ -16499,13 +16532,13 @@
         <v>243</v>
       </c>
       <c r="B239">
-        <v>6529593</v>
+        <v>6529591</v>
       </c>
       <c r="C239">
         <v>187654</v>
       </c>
       <c r="D239">
-        <v>30361</v>
+        <v>30447</v>
       </c>
       <c r="E239">
         <v>6310</v>
@@ -16519,13 +16552,13 @@
         <v>244</v>
       </c>
       <c r="B240">
-        <v>6569706</v>
+        <v>6569703</v>
       </c>
       <c r="C240">
         <v>188832</v>
       </c>
       <c r="D240">
-        <v>30253</v>
+        <v>30362</v>
       </c>
       <c r="E240">
         <v>6308</v>
@@ -16539,13 +16572,13 @@
         <v>245</v>
       </c>
       <c r="B241">
-        <v>6612994</v>
+        <v>6612992</v>
       </c>
       <c r="C241">
         <v>189712</v>
       </c>
       <c r="D241">
-        <v>29875</v>
+        <v>30007</v>
       </c>
       <c r="E241">
         <v>6278</v>
@@ -16559,13 +16592,13 @@
         <v>246</v>
       </c>
       <c r="B242">
-        <v>6660248</v>
+        <v>6660244</v>
       </c>
       <c r="C242">
         <v>190612</v>
       </c>
       <c r="D242">
-        <v>29521</v>
+        <v>29652</v>
       </c>
       <c r="E242">
         <v>6175</v>
@@ -16579,16 +16612,16 @@
         <v>247</v>
       </c>
       <c r="B243">
-        <v>6705154</v>
+        <v>6705149</v>
       </c>
       <c r="C243">
         <v>191359</v>
       </c>
       <c r="D243">
-        <v>29038</v>
+        <v>29185</v>
       </c>
       <c r="E243">
-        <v>6070</v>
+        <v>6163</v>
       </c>
       <c r="F243">
         <v>1577</v>
@@ -16599,16 +16632,16 @@
         <v>248</v>
       </c>
       <c r="B244">
-        <v>6740656</v>
+        <v>6740652</v>
       </c>
       <c r="C244">
         <v>191682</v>
       </c>
       <c r="D244">
-        <v>28606</v>
+        <v>28724</v>
       </c>
       <c r="E244">
-        <v>6015</v>
+        <v>6100</v>
       </c>
       <c r="F244">
         <v>1595</v>
@@ -16619,16 +16652,16 @@
         <v>249</v>
       </c>
       <c r="B245">
-        <v>6779793</v>
+        <v>6779791</v>
       </c>
       <c r="C245">
         <v>191962</v>
       </c>
       <c r="D245">
-        <v>28762</v>
+        <v>28873</v>
       </c>
       <c r="E245">
-        <v>6071</v>
+        <v>6140</v>
       </c>
       <c r="F245">
         <v>1572</v>
@@ -16639,16 +16672,16 @@
         <v>250</v>
       </c>
       <c r="B246">
-        <v>6829267</v>
+        <v>6829266</v>
       </c>
       <c r="C246">
         <v>192826</v>
       </c>
       <c r="D246">
-        <v>29448</v>
+        <v>29658</v>
       </c>
       <c r="E246">
-        <v>6111</v>
+        <v>6196</v>
       </c>
       <c r="F246">
         <v>1562</v>
@@ -16659,16 +16692,16 @@
         <v>251</v>
       </c>
       <c r="B247">
-        <v>6867888</v>
+        <v>6867886</v>
       </c>
       <c r="C247">
         <v>193980</v>
       </c>
       <c r="D247">
-        <v>29937</v>
+        <v>30021</v>
       </c>
       <c r="E247">
-        <v>6113</v>
+        <v>6203</v>
       </c>
       <c r="F247">
         <v>1544</v>
@@ -16679,16 +16712,16 @@
         <v>252</v>
       </c>
       <c r="B248">
-        <v>6911239</v>
+        <v>6911232</v>
       </c>
       <c r="C248">
         <v>194919</v>
       </c>
       <c r="D248">
-        <v>30036</v>
+        <v>30158</v>
       </c>
       <c r="E248">
-        <v>6168</v>
+        <v>6269</v>
       </c>
       <c r="F248">
         <v>1560</v>
@@ -16699,16 +16732,16 @@
         <v>253</v>
       </c>
       <c r="B249">
-        <v>6966431</v>
+        <v>6966421</v>
       </c>
       <c r="C249">
         <v>195769</v>
       </c>
       <c r="D249">
-        <v>29768</v>
+        <v>29900</v>
       </c>
       <c r="E249">
-        <v>6133</v>
+        <v>6220</v>
       </c>
       <c r="F249">
         <v>1506</v>
@@ -16719,16 +16752,16 @@
         <v>254</v>
       </c>
       <c r="B250">
-        <v>7013828</v>
+        <v>7013826</v>
       </c>
       <c r="C250">
         <v>196640</v>
       </c>
       <c r="D250">
-        <v>29551</v>
+        <v>29670</v>
       </c>
       <c r="E250">
-        <v>6057</v>
+        <v>6143</v>
       </c>
       <c r="F250">
         <v>1509</v>
@@ -16739,16 +16772,16 @@
         <v>255</v>
       </c>
       <c r="B251">
-        <v>7048815</v>
+        <v>7048812</v>
       </c>
       <c r="C251">
         <v>196946</v>
       </c>
       <c r="D251">
-        <v>29443</v>
+        <v>29579</v>
       </c>
       <c r="E251">
-        <v>6080</v>
+        <v>6170</v>
       </c>
       <c r="F251">
         <v>1511</v>
@@ -16759,16 +16792,16 @@
         <v>256</v>
       </c>
       <c r="B252">
-        <v>7084699</v>
+        <v>7084695</v>
       </c>
       <c r="C252">
         <v>197193</v>
       </c>
       <c r="D252">
-        <v>29601</v>
+        <v>29688</v>
       </c>
       <c r="E252">
-        <v>5981</v>
+        <v>6052</v>
       </c>
       <c r="F252">
         <v>1518</v>
@@ -16779,16 +16812,16 @@
         <v>257</v>
       </c>
       <c r="B253">
-        <v>7121139</v>
+        <v>7121136</v>
       </c>
       <c r="C253">
         <v>197930</v>
       </c>
       <c r="D253">
-        <v>30499</v>
+        <v>30583</v>
       </c>
       <c r="E253">
-        <v>6106</v>
+        <v>6181</v>
       </c>
       <c r="F253">
         <v>1495</v>
@@ -16799,16 +16832,16 @@
         <v>258</v>
       </c>
       <c r="B254">
-        <v>7165486</v>
+        <v>7165483</v>
       </c>
       <c r="C254">
         <v>198993</v>
       </c>
       <c r="D254">
-        <v>30912</v>
+        <v>31018</v>
       </c>
       <c r="E254">
-        <v>6145</v>
+        <v>6236</v>
       </c>
       <c r="F254">
         <v>1507</v>
@@ -16819,16 +16852,16 @@
         <v>259</v>
       </c>
       <c r="B255">
-        <v>7211102</v>
+        <v>7211088</v>
       </c>
       <c r="C255">
         <v>199851</v>
       </c>
       <c r="D255">
-        <v>30809</v>
+        <v>30951</v>
       </c>
       <c r="E255">
-        <v>6173</v>
+        <v>6263</v>
       </c>
       <c r="F255">
         <v>1547</v>
@@ -16839,16 +16872,16 @@
         <v>260</v>
       </c>
       <c r="B256">
-        <v>7260355</v>
+        <v>7260346</v>
       </c>
       <c r="C256">
         <v>200698</v>
       </c>
       <c r="D256">
-        <v>30769</v>
+        <v>30877</v>
       </c>
       <c r="E256">
-        <v>6106</v>
+        <v>6194</v>
       </c>
       <c r="F256">
         <v>1533</v>
@@ -16859,16 +16892,16 @@
         <v>261</v>
       </c>
       <c r="B257">
-        <v>7311286</v>
+        <v>7311280</v>
       </c>
       <c r="C257">
         <v>201438</v>
       </c>
       <c r="D257">
-        <v>30111</v>
+        <v>30209</v>
       </c>
       <c r="E257">
-        <v>5996</v>
+        <v>6073</v>
       </c>
       <c r="F257">
         <v>1501</v>
@@ -16879,16 +16912,16 @@
         <v>262</v>
       </c>
       <c r="B258">
-        <v>7349300</v>
+        <v>7349267</v>
       </c>
       <c r="C258">
         <v>201803</v>
       </c>
       <c r="D258">
-        <v>29945</v>
+        <v>30063</v>
       </c>
       <c r="E258">
-        <v>5974</v>
+        <v>6056</v>
       </c>
       <c r="F258">
         <v>1485</v>
@@ -16899,16 +16932,16 @@
         <v>263</v>
       </c>
       <c r="B259">
-        <v>7387028</v>
+        <v>7387024</v>
       </c>
       <c r="C259">
         <v>202147</v>
       </c>
       <c r="D259">
-        <v>31327</v>
+        <v>31434</v>
       </c>
       <c r="E259">
-        <v>6209</v>
+        <v>6287</v>
       </c>
       <c r="F259">
         <v>1515</v>
@@ -16919,16 +16952,16 @@
         <v>264</v>
       </c>
       <c r="B260">
-        <v>7425948</v>
+        <v>7425941</v>
       </c>
       <c r="C260">
         <v>202757</v>
       </c>
       <c r="D260">
-        <v>32626</v>
+        <v>32720</v>
       </c>
       <c r="E260">
-        <v>6438</v>
+        <v>6502</v>
       </c>
       <c r="F260">
         <v>1609</v>
@@ -16939,16 +16972,16 @@
         <v>265</v>
       </c>
       <c r="B261">
-        <v>7476543</v>
+        <v>7476532</v>
       </c>
       <c r="C261">
         <v>203682</v>
       </c>
       <c r="D261">
-        <v>33482</v>
+        <v>33584</v>
       </c>
       <c r="E261">
-        <v>6507</v>
+        <v>6575</v>
       </c>
       <c r="F261">
         <v>1646</v>
@@ -16959,16 +16992,16 @@
         <v>266</v>
       </c>
       <c r="B262">
-        <v>7531748</v>
+        <v>7531740</v>
       </c>
       <c r="C262">
         <v>204667</v>
       </c>
       <c r="D262">
-        <v>34319</v>
+        <v>34446</v>
       </c>
       <c r="E262">
-        <v>6621</v>
+        <v>6694</v>
       </c>
       <c r="F262">
         <v>1638</v>
@@ -16979,16 +17012,16 @@
         <v>267</v>
       </c>
       <c r="B263">
-        <v>7588552</v>
+        <v>7588542</v>
       </c>
       <c r="C263">
         <v>205565</v>
       </c>
       <c r="D263">
-        <v>34877</v>
+        <v>34989</v>
       </c>
       <c r="E263">
-        <v>6713</v>
+        <v>6785</v>
       </c>
       <c r="F263">
         <v>1655</v>
@@ -16999,16 +17032,16 @@
         <v>268</v>
       </c>
       <c r="B264">
-        <v>7645966</v>
+        <v>7645956</v>
       </c>
       <c r="C264">
         <v>206246</v>
       </c>
       <c r="D264">
-        <v>34600</v>
+        <v>34700</v>
       </c>
       <c r="E264">
-        <v>6683</v>
+        <v>6752</v>
       </c>
       <c r="F264">
         <v>1667</v>
@@ -17019,16 +17052,16 @@
         <v>269</v>
       </c>
       <c r="B265">
-        <v>7692233</v>
+        <v>7692224</v>
       </c>
       <c r="C265">
         <v>206714</v>
       </c>
       <c r="D265">
-        <v>34498</v>
+        <v>34609</v>
       </c>
       <c r="E265">
-        <v>6679</v>
+        <v>6749</v>
       </c>
       <c r="F265">
         <v>1646</v>
@@ -17039,16 +17072,16 @@
         <v>270</v>
       </c>
       <c r="B266">
-        <v>7734879</v>
+        <v>7734868</v>
       </c>
       <c r="C266">
         <v>206996</v>
       </c>
       <c r="D266">
-        <v>35066</v>
+        <v>35156</v>
       </c>
       <c r="E266">
-        <v>6807</v>
+        <v>6866</v>
       </c>
       <c r="F266">
         <v>1666</v>
@@ -17059,16 +17092,16 @@
         <v>271</v>
       </c>
       <c r="B267">
-        <v>7783465</v>
+        <v>7783462</v>
       </c>
       <c r="C267">
         <v>207694</v>
       </c>
       <c r="D267">
-        <v>36064</v>
+        <v>36161</v>
       </c>
       <c r="E267">
-        <v>7020</v>
+        <v>7096</v>
       </c>
       <c r="F267">
         <v>1755</v>
@@ -17079,16 +17112,16 @@
         <v>272</v>
       </c>
       <c r="B268">
-        <v>7839595</v>
+        <v>7839579</v>
       </c>
       <c r="C268">
         <v>208501</v>
       </c>
       <c r="D268">
-        <v>37088</v>
+        <v>37176</v>
       </c>
       <c r="E268">
-        <v>7156</v>
+        <v>7239</v>
       </c>
       <c r="F268">
         <v>1776</v>
@@ -17099,16 +17132,16 @@
         <v>273</v>
       </c>
       <c r="B269">
-        <v>7902986</v>
+        <v>7902973</v>
       </c>
       <c r="C269">
         <v>209431</v>
       </c>
       <c r="D269">
-        <v>37328</v>
+        <v>37420</v>
       </c>
       <c r="E269">
-        <v>7220</v>
+        <v>7302</v>
       </c>
       <c r="F269">
         <v>1769</v>
@@ -17119,16 +17152,16 @@
         <v>274</v>
       </c>
       <c r="B270">
-        <v>7971231</v>
+        <v>7971222</v>
       </c>
       <c r="C270">
         <v>210328</v>
       </c>
       <c r="D270">
-        <v>37368</v>
+        <v>37470</v>
       </c>
       <c r="E270">
-        <v>7251</v>
+        <v>7328</v>
       </c>
       <c r="F270">
         <v>1739</v>
@@ -17139,16 +17172,16 @@
         <v>275</v>
       </c>
       <c r="B271">
-        <v>8028561</v>
+        <v>8028550</v>
       </c>
       <c r="C271">
         <v>211101</v>
       </c>
       <c r="D271">
-        <v>37358</v>
+        <v>37474</v>
       </c>
       <c r="E271">
-        <v>7384</v>
+        <v>7466</v>
       </c>
       <c r="F271">
         <v>1791</v>
@@ -17159,16 +17192,16 @@
         <v>276</v>
       </c>
       <c r="B272">
-        <v>8076842</v>
+        <v>8076834</v>
       </c>
       <c r="C272">
         <v>211503</v>
       </c>
       <c r="D272">
-        <v>36452</v>
+        <v>36536</v>
       </c>
       <c r="E272">
-        <v>7292</v>
+        <v>7383</v>
       </c>
       <c r="F272">
         <v>1762</v>
@@ -17179,16 +17212,16 @@
         <v>277</v>
       </c>
       <c r="B273">
-        <v>8133955</v>
+        <v>8133943</v>
       </c>
       <c r="C273">
         <v>211959</v>
       </c>
       <c r="D273">
-        <v>37858</v>
+        <v>37954</v>
       </c>
       <c r="E273">
-        <v>7997</v>
+        <v>8069</v>
       </c>
       <c r="F273">
         <v>1800</v>
@@ -17199,16 +17232,16 @@
         <v>278</v>
       </c>
       <c r="B274">
-        <v>8194512</v>
+        <v>8194492</v>
       </c>
       <c r="C274">
         <v>212796</v>
       </c>
       <c r="D274">
-        <v>39303</v>
+        <v>39406</v>
       </c>
       <c r="E274">
-        <v>8131</v>
+        <v>8213</v>
       </c>
       <c r="F274">
         <v>2045</v>
@@ -17219,16 +17252,16 @@
         <v>279</v>
       </c>
       <c r="B275">
-        <v>8255466</v>
+        <v>8255450</v>
       </c>
       <c r="C275">
         <v>213815</v>
       </c>
       <c r="D275">
-        <v>40284</v>
+        <v>40397</v>
       </c>
       <c r="E275">
-        <v>8182</v>
+        <v>8291</v>
       </c>
       <c r="F275">
         <v>2090</v>
@@ -17239,16 +17272,16 @@
         <v>280</v>
       </c>
       <c r="B276">
-        <v>8328322</v>
+        <v>8328292</v>
       </c>
       <c r="C276">
         <v>214941</v>
       </c>
       <c r="D276">
-        <v>41036</v>
+        <v>41125</v>
       </c>
       <c r="E276">
-        <v>8086</v>
+        <v>8178</v>
       </c>
       <c r="F276">
         <v>2147</v>
@@ -17259,16 +17292,16 @@
         <v>281</v>
       </c>
       <c r="B277">
-        <v>8410653</v>
+        <v>8410625</v>
       </c>
       <c r="C277">
         <v>215875</v>
       </c>
       <c r="D277">
-        <v>41501</v>
+        <v>41617</v>
       </c>
       <c r="E277">
-        <v>8237</v>
+        <v>8340</v>
       </c>
       <c r="F277">
         <v>2180</v>
@@ -17279,16 +17312,16 @@
         <v>282</v>
       </c>
       <c r="B278">
-        <v>8493942</v>
+        <v>8493912</v>
       </c>
       <c r="C278">
         <v>216765</v>
       </c>
       <c r="D278">
-        <v>41989</v>
+        <v>42087</v>
       </c>
       <c r="E278">
-        <v>8561</v>
+        <v>8675</v>
       </c>
       <c r="F278">
         <v>2230</v>
@@ -17299,16 +17332,16 @@
         <v>283</v>
       </c>
       <c r="B279">
-        <v>8558814</v>
+        <v>8558805</v>
       </c>
       <c r="C279">
         <v>217147</v>
       </c>
       <c r="D279">
-        <v>41786</v>
+        <v>41883</v>
       </c>
       <c r="E279">
-        <v>8489</v>
+        <v>8590</v>
       </c>
       <c r="F279">
         <v>2176</v>
@@ -17319,16 +17352,16 @@
         <v>284</v>
       </c>
       <c r="B280">
-        <v>8621361</v>
+        <v>8621330</v>
       </c>
       <c r="C280">
         <v>217549</v>
       </c>
       <c r="D280">
-        <v>42924</v>
+        <v>43005</v>
       </c>
       <c r="E280">
-        <v>8842</v>
+        <v>8942</v>
       </c>
       <c r="F280">
         <v>2301</v>
@@ -17339,16 +17372,16 @@
         <v>285</v>
       </c>
       <c r="B281">
-        <v>8693424</v>
+        <v>8693413</v>
       </c>
       <c r="C281">
         <v>218468</v>
       </c>
       <c r="D281">
-        <v>44287</v>
+        <v>44392</v>
       </c>
       <c r="E281">
-        <v>8909</v>
+        <v>8997</v>
       </c>
       <c r="F281">
         <v>2287</v>
@@ -17359,16 +17392,16 @@
         <v>286</v>
       </c>
       <c r="B282">
-        <v>8772181</v>
+        <v>8772165</v>
       </c>
       <c r="C282">
         <v>219512</v>
       </c>
       <c r="D282">
-        <v>45124</v>
+        <v>45205</v>
       </c>
       <c r="E282">
-        <v>9034</v>
+        <v>9134</v>
       </c>
       <c r="F282">
         <v>2347</v>
@@ -17379,16 +17412,16 @@
         <v>287</v>
       </c>
       <c r="B283">
-        <v>8860907</v>
+        <v>8860888</v>
       </c>
       <c r="C283">
         <v>220549</v>
       </c>
       <c r="D283">
-        <v>46126</v>
+        <v>46220</v>
       </c>
       <c r="E283">
-        <v>9208</v>
+        <v>9320</v>
       </c>
       <c r="F283">
         <v>2403</v>
@@ -17399,16 +17432,16 @@
         <v>288</v>
       </c>
       <c r="B284">
-        <v>8958148</v>
+        <v>8958126</v>
       </c>
       <c r="C284">
         <v>221496</v>
       </c>
       <c r="D284">
-        <v>46738</v>
+        <v>46856</v>
       </c>
       <c r="E284">
-        <v>9437</v>
+        <v>9549</v>
       </c>
       <c r="F284">
         <v>2477</v>
@@ -17419,16 +17452,16 @@
         <v>289</v>
       </c>
       <c r="B285">
-        <v>9048728</v>
+        <v>9048711</v>
       </c>
       <c r="C285">
         <v>222459</v>
       </c>
       <c r="D285">
-        <v>47402</v>
+        <v>47486</v>
       </c>
       <c r="E285">
-        <v>9499</v>
+        <v>9613</v>
       </c>
       <c r="F285">
         <v>2502</v>
@@ -17439,16 +17472,16 @@
         <v>290</v>
       </c>
       <c r="B286">
-        <v>9122583</v>
+        <v>9122560</v>
       </c>
       <c r="C286">
         <v>222854</v>
       </c>
       <c r="D286">
-        <v>47531</v>
+        <v>47615</v>
       </c>
       <c r="E286">
-        <v>9553</v>
+        <v>9665</v>
       </c>
       <c r="F286">
         <v>2553</v>
@@ -17459,16 +17492,16 @@
         <v>291</v>
       </c>
       <c r="B287">
-        <v>9204629</v>
+        <v>9204607</v>
       </c>
       <c r="C287">
         <v>223345</v>
       </c>
       <c r="D287">
-        <v>48693</v>
+        <v>48773</v>
       </c>
       <c r="E287">
-        <v>9867</v>
+        <v>9970</v>
       </c>
       <c r="F287">
         <v>2637</v>
@@ -17479,16 +17512,16 @@
         <v>292</v>
       </c>
       <c r="B288">
-        <v>9291304</v>
+        <v>9291273</v>
       </c>
       <c r="C288">
         <v>224859</v>
       </c>
       <c r="D288">
-        <v>50426</v>
+        <v>50512</v>
       </c>
       <c r="E288">
-        <v>10406</v>
+        <v>10530</v>
       </c>
       <c r="F288">
         <v>2733</v>
@@ -17499,16 +17532,16 @@
         <v>293</v>
       </c>
       <c r="B289">
-        <v>9394616</v>
+        <v>9394578</v>
       </c>
       <c r="C289">
         <v>225976</v>
       </c>
       <c r="D289">
-        <v>52086</v>
+        <v>52166</v>
       </c>
       <c r="E289">
-        <v>10761</v>
+        <v>10892</v>
       </c>
       <c r="F289">
         <v>2832</v>
@@ -17519,16 +17552,16 @@
         <v>294</v>
       </c>
       <c r="B290">
-        <v>9511049</v>
+        <v>9511021</v>
       </c>
       <c r="C290">
         <v>227122</v>
       </c>
       <c r="D290">
-        <v>53375</v>
+        <v>53465</v>
       </c>
       <c r="E290">
-        <v>10918</v>
+        <v>11046</v>
       </c>
       <c r="F290">
         <v>2877</v>
@@ -17539,16 +17572,16 @@
         <v>295</v>
       </c>
       <c r="B291">
-        <v>9636807</v>
+        <v>9636779</v>
       </c>
       <c r="C291">
         <v>228295</v>
       </c>
       <c r="D291">
-        <v>54851</v>
+        <v>54949</v>
       </c>
       <c r="E291">
-        <v>11085</v>
+        <v>11213</v>
       </c>
       <c r="F291">
         <v>2850</v>
@@ -17559,16 +17592,16 @@
         <v>296</v>
       </c>
       <c r="B292">
-        <v>9766055</v>
+        <v>9766001</v>
       </c>
       <c r="C292">
         <v>229414</v>
       </c>
       <c r="D292">
-        <v>55925</v>
+        <v>56037</v>
       </c>
       <c r="E292">
-        <v>11082</v>
+        <v>11215</v>
       </c>
       <c r="F292">
         <v>2947</v>
@@ -17579,16 +17612,16 @@
         <v>297</v>
       </c>
       <c r="B293">
-        <v>9876316</v>
+        <v>9876291</v>
       </c>
       <c r="C293">
         <v>229910</v>
       </c>
       <c r="D293">
-        <v>56842</v>
+        <v>56942</v>
       </c>
       <c r="E293">
-        <v>11120</v>
+        <v>11223</v>
       </c>
       <c r="F293">
         <v>2977</v>
@@ -17599,16 +17632,16 @@
         <v>298</v>
       </c>
       <c r="B294">
-        <v>9995777</v>
+        <v>9995725</v>
       </c>
       <c r="C294">
         <v>230487</v>
       </c>
       <c r="D294">
-        <v>59301</v>
+        <v>59394</v>
       </c>
       <c r="E294">
-        <v>11533</v>
+        <v>11638</v>
       </c>
       <c r="F294">
         <v>3110</v>
@@ -17619,16 +17652,16 @@
         <v>299</v>
       </c>
       <c r="B295">
-        <v>10127001</v>
+        <v>10126912</v>
       </c>
       <c r="C295">
         <v>231847</v>
       </c>
       <c r="D295">
-        <v>62059</v>
+        <v>62138</v>
       </c>
       <c r="E295">
-        <v>11961</v>
+        <v>12071</v>
       </c>
       <c r="F295">
         <v>3201</v>
@@ -17639,16 +17672,16 @@
         <v>300</v>
       </c>
       <c r="B296">
-        <v>10271854</v>
+        <v>10271729</v>
       </c>
       <c r="C296">
         <v>233410</v>
       </c>
       <c r="D296">
-        <v>65463</v>
+        <v>65557</v>
       </c>
       <c r="E296">
-        <v>12518</v>
+        <v>12625</v>
       </c>
       <c r="F296">
         <v>3367</v>
@@ -17659,16 +17692,16 @@
         <v>301</v>
       </c>
       <c r="B297">
-        <v>10423843</v>
+        <v>10423741</v>
       </c>
       <c r="C297">
         <v>234529</v>
       </c>
       <c r="D297">
-        <v>67100</v>
+        <v>67233</v>
       </c>
       <c r="E297">
-        <v>12796</v>
+        <v>12911</v>
       </c>
       <c r="F297">
         <v>3622</v>
@@ -17679,16 +17712,16 @@
         <v>302</v>
       </c>
       <c r="B298">
-        <v>10595955</v>
+        <v>10595857</v>
       </c>
       <c r="C298">
         <v>235797</v>
       </c>
       <c r="D298">
-        <v>68496</v>
+        <v>68599</v>
       </c>
       <c r="E298">
-        <v>13132</v>
+        <v>13279</v>
       </c>
       <c r="F298">
         <v>3769</v>
@@ -17699,16 +17732,16 @@
         <v>303</v>
       </c>
       <c r="B299">
-        <v>10759439</v>
+        <v>10759395</v>
       </c>
       <c r="C299">
         <v>237128</v>
       </c>
       <c r="D299">
-        <v>69498</v>
+        <v>69588</v>
       </c>
       <c r="E299">
-        <v>13337</v>
+        <v>13491</v>
       </c>
       <c r="F299">
         <v>3945</v>
@@ -17719,16 +17752,16 @@
         <v>304</v>
       </c>
       <c r="B300">
-        <v>10903951</v>
+        <v>10903827</v>
       </c>
       <c r="C300">
         <v>237815</v>
       </c>
       <c r="D300">
-        <v>70113</v>
+        <v>70202</v>
       </c>
       <c r="E300">
-        <v>13693</v>
+        <v>13849</v>
       </c>
       <c r="F300">
         <v>3939</v>
@@ -17739,16 +17772,16 @@
         <v>305</v>
       </c>
       <c r="B301">
-        <v>11052806</v>
+        <v>11052700</v>
       </c>
       <c r="C301">
         <v>238434</v>
       </c>
       <c r="D301">
-        <v>73268</v>
+        <v>73377</v>
       </c>
       <c r="E301">
-        <v>14317</v>
+        <v>14494</v>
       </c>
       <c r="F301">
         <v>4166</v>
@@ -17759,16 +17792,16 @@
         <v>306</v>
       </c>
       <c r="B302">
-        <v>11209486</v>
+        <v>11209432</v>
       </c>
       <c r="C302">
         <v>239989</v>
       </c>
       <c r="D302">
-        <v>76958</v>
+        <v>77079</v>
       </c>
       <c r="E302">
-        <v>14851</v>
+        <v>15018</v>
       </c>
       <c r="F302">
         <v>4379</v>
@@ -17779,16 +17812,16 @@
         <v>307</v>
       </c>
       <c r="B303">
-        <v>11373556</v>
+        <v>11373404</v>
       </c>
       <c r="C303">
         <v>241853</v>
       </c>
       <c r="D303">
-        <v>79410</v>
+        <v>79517</v>
       </c>
       <c r="E303">
-        <v>15350</v>
+        <v>15558</v>
       </c>
       <c r="F303">
         <v>4701</v>
@@ -17799,16 +17832,16 @@
         <v>308</v>
       </c>
       <c r="B304">
-        <v>11556383</v>
+        <v>11556239</v>
       </c>
       <c r="C304">
         <v>243820</v>
       </c>
       <c r="D304">
-        <v>80585</v>
+        <v>80682</v>
       </c>
       <c r="E304">
-        <v>15572</v>
+        <v>15763</v>
       </c>
       <c r="F304">
         <v>4859</v>
@@ -17819,16 +17852,16 @@
         <v>309</v>
       </c>
       <c r="B305">
-        <v>11749127</v>
+        <v>11749039</v>
       </c>
       <c r="C305">
         <v>245704</v>
       </c>
       <c r="D305">
-        <v>82150</v>
+        <v>82279</v>
       </c>
       <c r="E305">
-        <v>15929</v>
+        <v>16138</v>
       </c>
       <c r="F305">
         <v>5055</v>
@@ -17839,16 +17872,16 @@
         <v>310</v>
       </c>
       <c r="B306">
-        <v>11928842</v>
+        <v>11928754</v>
       </c>
       <c r="C306">
         <v>247216</v>
       </c>
       <c r="D306">
-        <v>83232</v>
+        <v>83346</v>
       </c>
       <c r="E306">
-        <v>16058</v>
+        <v>16264</v>
       </c>
       <c r="F306">
         <v>5103</v>
@@ -17859,16 +17892,16 @@
         <v>311</v>
       </c>
       <c r="B307">
-        <v>12079663</v>
+        <v>12079595</v>
       </c>
       <c r="C307">
         <v>248114</v>
       </c>
       <c r="D307">
-        <v>83779</v>
+        <v>83882</v>
       </c>
       <c r="E307">
-        <v>16212</v>
+        <v>16411</v>
       </c>
       <c r="F307">
         <v>5233</v>
@@ -17879,16 +17912,16 @@
         <v>312</v>
       </c>
       <c r="B308">
-        <v>12230603</v>
+        <v>12230553</v>
       </c>
       <c r="C308">
         <v>249069</v>
       </c>
       <c r="D308">
-        <v>85870</v>
+        <v>85979</v>
       </c>
       <c r="E308">
-        <v>16915</v>
+        <v>17080</v>
       </c>
       <c r="F308">
         <v>5458</v>
@@ -17899,16 +17932,16 @@
         <v>313</v>
       </c>
       <c r="B309">
-        <v>12397660</v>
+        <v>12397567</v>
       </c>
       <c r="C309">
         <v>251135</v>
       </c>
       <c r="D309">
-        <v>88080</v>
+        <v>88174</v>
       </c>
       <c r="E309">
-        <v>17127</v>
+        <v>17314</v>
       </c>
       <c r="F309">
         <v>5630</v>
@@ -17919,16 +17952,16 @@
         <v>314</v>
       </c>
       <c r="B310">
-        <v>12581275</v>
+        <v>12581196</v>
       </c>
       <c r="C310">
         <v>253424</v>
       </c>
       <c r="D310">
-        <v>89959</v>
+        <v>90041</v>
       </c>
       <c r="E310">
-        <v>17526</v>
+        <v>17740</v>
       </c>
       <c r="F310">
         <v>5990</v>
@@ -17939,16 +17972,16 @@
         <v>315</v>
       </c>
       <c r="B311">
-        <v>12707628</v>
+        <v>12707531</v>
       </c>
       <c r="C311">
         <v>254760</v>
       </c>
       <c r="D311">
-        <v>90443</v>
+        <v>90564</v>
       </c>
       <c r="E311">
-        <v>17804</v>
+        <v>18019</v>
       </c>
       <c r="F311">
         <v>5986</v>
@@ -17959,16 +17992,16 @@
         <v>316</v>
       </c>
       <c r="B312">
-        <v>12901295</v>
+        <v>12901256</v>
       </c>
       <c r="C312">
         <v>256132</v>
       </c>
       <c r="D312">
-        <v>89834</v>
+        <v>89950</v>
       </c>
       <c r="E312">
-        <v>17835</v>
+        <v>18061</v>
       </c>
       <c r="F312">
         <v>6030</v>
@@ -17979,16 +18012,16 @@
         <v>317</v>
       </c>
       <c r="B313">
-        <v>13055846</v>
+        <v>13055778</v>
       </c>
       <c r="C313">
         <v>257377</v>
       </c>
       <c r="D313">
-        <v>91665</v>
+        <v>91762</v>
       </c>
       <c r="E313">
-        <v>18042</v>
+        <v>18249</v>
       </c>
       <c r="F313">
         <v>6148</v>
@@ -17999,16 +18032,16 @@
         <v>318</v>
       </c>
       <c r="B314">
-        <v>13191088</v>
+        <v>13191020</v>
       </c>
       <c r="C314">
         <v>258180</v>
       </c>
       <c r="D314">
-        <v>93265</v>
+        <v>93357</v>
       </c>
       <c r="E314">
-        <v>18201</v>
+        <v>18437</v>
       </c>
       <c r="F314">
         <v>6245</v>
@@ -18019,16 +18052,16 @@
         <v>319</v>
       </c>
       <c r="B315">
-        <v>13338671</v>
+        <v>13338607</v>
       </c>
       <c r="C315">
         <v>259316</v>
       </c>
       <c r="D315">
-        <v>96053</v>
+        <v>96149</v>
       </c>
       <c r="E315">
-        <v>18545</v>
+        <v>18801</v>
       </c>
       <c r="F315">
         <v>6520</v>
@@ -18039,16 +18072,16 @@
         <v>320</v>
       </c>
       <c r="B316">
-        <v>13515456</v>
+        <v>13515360</v>
       </c>
       <c r="C316">
         <v>261789</v>
       </c>
       <c r="D316">
-        <v>98691</v>
+        <v>98777</v>
       </c>
       <c r="E316">
-        <v>19035</v>
+        <v>19295</v>
       </c>
       <c r="F316">
         <v>6649</v>
@@ -18059,16 +18092,16 @@
         <v>321</v>
       </c>
       <c r="B317">
-        <v>13711151</v>
+        <v>13711156</v>
       </c>
       <c r="C317">
         <v>264522</v>
       </c>
       <c r="D317">
-        <v>100226</v>
+        <v>100322</v>
       </c>
       <c r="E317">
-        <v>19396</v>
+        <v>19680</v>
       </c>
       <c r="F317">
         <v>6855</v>
@@ -18079,19 +18112,39 @@
         <v>322</v>
       </c>
       <c r="B318">
-        <v>13921312</v>
+        <v>13921360</v>
       </c>
       <c r="C318">
         <v>267228</v>
       </c>
       <c r="D318">
-        <v>100667</v>
+        <v>100755</v>
       </c>
       <c r="E318">
-        <v>19442</v>
+        <v>19723</v>
       </c>
       <c r="F318">
         <v>6867</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>323</v>
+      </c>
+      <c r="B319">
+        <v>14146191</v>
+      </c>
+      <c r="C319">
+        <v>269791</v>
+      </c>
+      <c r="D319">
+        <v>101276</v>
+      </c>
+      <c r="E319">
+        <v>19858</v>
+      </c>
+      <c r="F319">
+        <v>6999</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathBeds.xlsx
+++ b/covid19/data/USCaseDeathBeds.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7431FE07-5A4B-4C41-B7C1-7689D185FB43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BE8852-4ADF-42F4-8E16-7FA6ABD03D64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Deaths" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$319</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$320</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="325">
   <si>
     <t>date</t>
   </si>
@@ -1003,6 +1003,9 @@
   </si>
   <si>
     <t>2020-12-04</t>
+  </si>
+  <si>
+    <t>2020-12-05</t>
   </si>
 </sst>
 </file>
@@ -1091,9 +1094,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$319</c:f>
+              <c:f>Data!$A$2:$A$320</c:f>
               <c:strCache>
-                <c:ptCount val="318"/>
+                <c:ptCount val="319"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -2047,16 +2050,19 @@
                 </c:pt>
                 <c:pt idx="317">
                   <c:v>2020-12-04</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>2020-12-05</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$319</c:f>
+              <c:f>Data!$B$2:$B$320</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="318"/>
+                <c:ptCount val="319"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3010,6 +3016,9 @@
                 </c:pt>
                 <c:pt idx="317">
                   <c:v>14146191</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>14357264</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3118,9 +3127,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$319</c:f>
+              <c:f>Data!$A$2:$A$320</c:f>
               <c:strCache>
-                <c:ptCount val="318"/>
+                <c:ptCount val="319"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -4074,16 +4083,19 @@
                 </c:pt>
                 <c:pt idx="317">
                   <c:v>2020-12-04</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>2020-12-05</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$2:$D$319</c:f>
+              <c:f>Data!$D$2:$D$320</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="318"/>
+                <c:ptCount val="319"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5037,6 +5049,9 @@
                 </c:pt>
                 <c:pt idx="317">
                   <c:v>101276</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>101190</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5145,9 +5160,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$319</c:f>
+              <c:f>Data!$A$2:$A$320</c:f>
               <c:strCache>
-                <c:ptCount val="318"/>
+                <c:ptCount val="319"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -6101,16 +6116,19 @@
                 </c:pt>
                 <c:pt idx="317">
                   <c:v>2020-12-04</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>2020-12-05</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$319</c:f>
+              <c:f>Data!$E$2:$E$320</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="318"/>
+                <c:ptCount val="319"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7064,6 +7082,9 @@
                 </c:pt>
                 <c:pt idx="317">
                   <c:v>19858</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>19950</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7172,9 +7193,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$319</c:f>
+              <c:f>Data!$A$2:$A$320</c:f>
               <c:strCache>
-                <c:ptCount val="318"/>
+                <c:ptCount val="319"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -8128,16 +8149,19 @@
                 </c:pt>
                 <c:pt idx="317">
                   <c:v>2020-12-04</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>2020-12-05</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$319</c:f>
+              <c:f>Data!$F$2:$F$320</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="318"/>
+                <c:ptCount val="319"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9091,6 +9115,9 @@
                 </c:pt>
                 <c:pt idx="317">
                   <c:v>6999</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>7005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9199,9 +9226,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$319</c:f>
+              <c:f>Data!$A$2:$A$320</c:f>
               <c:strCache>
-                <c:ptCount val="318"/>
+                <c:ptCount val="319"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -10155,16 +10182,19 @@
                 </c:pt>
                 <c:pt idx="317">
                   <c:v>2020-12-04</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>2020-12-05</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$319</c:f>
+              <c:f>Data!$C$2:$C$320</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="318"/>
+                <c:ptCount val="319"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11118,6 +11148,9 @@
                 </c:pt>
                 <c:pt idx="317">
                   <c:v>269791</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>272236</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11413,9 +11446,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F319" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F319" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F319">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F320" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F320" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F320">
     <sortCondition ref="A1:A254"/>
   </sortState>
   <tableColumns count="6">
@@ -11751,7 +11784,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F319"/>
+  <dimension ref="A1:F320"/>
   <sheetViews>
     <sheetView topLeftCell="A282" workbookViewId="0">
       <selection activeCell="K308" sqref="K308"/>
@@ -18145,6 +18178,26 @@
       </c>
       <c r="F319">
         <v>6999</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>324</v>
+      </c>
+      <c r="B320">
+        <v>14357264</v>
+      </c>
+      <c r="C320">
+        <v>272236</v>
+      </c>
+      <c r="D320">
+        <v>101190</v>
+      </c>
+      <c r="E320">
+        <v>19950</v>
+      </c>
+      <c r="F320">
+        <v>7005</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathBeds.xlsx
+++ b/covid19/data/USCaseDeathBeds.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BE8852-4ADF-42F4-8E16-7FA6ABD03D64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755654A5-6D91-4524-859C-CE607EF49C2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Deaths" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$320</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$321</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="326">
   <si>
     <t>date</t>
   </si>
@@ -1006,6 +1006,9 @@
   </si>
   <si>
     <t>2020-12-05</t>
+  </si>
+  <si>
+    <t>2020-12-06</t>
   </si>
 </sst>
 </file>
@@ -1094,9 +1097,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$320</c:f>
+              <c:f>Data!$A$2:$A$321</c:f>
               <c:strCache>
-                <c:ptCount val="319"/>
+                <c:ptCount val="320"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -2053,16 +2056,19 @@
                 </c:pt>
                 <c:pt idx="318">
                   <c:v>2020-12-05</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>2020-12-06</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$320</c:f>
+              <c:f>Data!$B$2:$B$321</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="319"/>
+                <c:ptCount val="320"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3019,6 +3025,9 @@
                 </c:pt>
                 <c:pt idx="318">
                   <c:v>14357264</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>14534035</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3127,9 +3136,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$320</c:f>
+              <c:f>Data!$A$2:$A$321</c:f>
               <c:strCache>
-                <c:ptCount val="319"/>
+                <c:ptCount val="320"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -4086,16 +4095,19 @@
                 </c:pt>
                 <c:pt idx="318">
                   <c:v>2020-12-05</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>2020-12-06</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$2:$D$320</c:f>
+              <c:f>Data!$D$2:$D$321</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="319"/>
+                <c:ptCount val="320"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5052,6 +5064,9 @@
                 </c:pt>
                 <c:pt idx="318">
                   <c:v>101190</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>101487</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5160,9 +5175,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$320</c:f>
+              <c:f>Data!$A$2:$A$321</c:f>
               <c:strCache>
-                <c:ptCount val="319"/>
+                <c:ptCount val="320"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -6119,16 +6134,19 @@
                 </c:pt>
                 <c:pt idx="318">
                   <c:v>2020-12-05</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>2020-12-06</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$320</c:f>
+              <c:f>Data!$E$2:$E$321</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="319"/>
+                <c:ptCount val="320"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7085,6 +7103,9 @@
                 </c:pt>
                 <c:pt idx="318">
                   <c:v>19950</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>20145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7193,9 +7214,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$320</c:f>
+              <c:f>Data!$A$2:$A$321</c:f>
               <c:strCache>
-                <c:ptCount val="319"/>
+                <c:ptCount val="320"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -8152,16 +8173,19 @@
                 </c:pt>
                 <c:pt idx="318">
                   <c:v>2020-12-05</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>2020-12-06</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$320</c:f>
+              <c:f>Data!$F$2:$F$321</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="319"/>
+                <c:ptCount val="320"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9118,6 +9142,9 @@
                 </c:pt>
                 <c:pt idx="318">
                   <c:v>7005</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>7094</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9226,9 +9253,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$320</c:f>
+              <c:f>Data!$A$2:$A$321</c:f>
               <c:strCache>
-                <c:ptCount val="319"/>
+                <c:ptCount val="320"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -10185,16 +10212,19 @@
                 </c:pt>
                 <c:pt idx="318">
                   <c:v>2020-12-05</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>2020-12-06</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$320</c:f>
+              <c:f>Data!$C$2:$C$321</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="319"/>
+                <c:ptCount val="320"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11151,6 +11181,9 @@
                 </c:pt>
                 <c:pt idx="318">
                   <c:v>272236</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>273374</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11446,9 +11479,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F320" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F320" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F320">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F321" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F321" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F321">
     <sortCondition ref="A1:A254"/>
   </sortState>
   <tableColumns count="6">
@@ -11784,7 +11817,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F320"/>
+  <dimension ref="A1:F321"/>
   <sheetViews>
     <sheetView topLeftCell="A282" workbookViewId="0">
       <selection activeCell="K308" sqref="K308"/>
@@ -18198,6 +18231,26 @@
       </c>
       <c r="F320">
         <v>7005</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>325</v>
+      </c>
+      <c r="B321">
+        <v>14534035</v>
+      </c>
+      <c r="C321">
+        <v>273374</v>
+      </c>
+      <c r="D321">
+        <v>101487</v>
+      </c>
+      <c r="E321">
+        <v>20145</v>
+      </c>
+      <c r="F321">
+        <v>7094</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathBeds.xlsx
+++ b/covid19/data/USCaseDeathBeds.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755654A5-6D91-4524-859C-CE607EF49C2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968634A0-3151-4FF1-8822-E62E56448FD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Deaths" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$321</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$322</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="327">
   <si>
     <t>date</t>
   </si>
@@ -1009,6 +1009,9 @@
   </si>
   <si>
     <t>2020-12-06</t>
+  </si>
+  <si>
+    <t>2020-12-07</t>
   </si>
 </sst>
 </file>
@@ -1097,9 +1100,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$321</c:f>
+              <c:f>Data!$A$2:$A$322</c:f>
               <c:strCache>
-                <c:ptCount val="320"/>
+                <c:ptCount val="321"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -2059,16 +2062,19 @@
                 </c:pt>
                 <c:pt idx="319">
                   <c:v>2020-12-06</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>2020-12-07</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$321</c:f>
+              <c:f>Data!$B$2:$B$322</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="320"/>
+                <c:ptCount val="321"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3024,10 +3030,13 @@
                   <c:v>14146191</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>14357264</c:v>
+                  <c:v>14359071</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>14534035</c:v>
+                  <c:v>14536872</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>14717065</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3136,9 +3145,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$321</c:f>
+              <c:f>Data!$A$2:$A$322</c:f>
               <c:strCache>
-                <c:ptCount val="320"/>
+                <c:ptCount val="321"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -4098,16 +4107,19 @@
                 </c:pt>
                 <c:pt idx="319">
                   <c:v>2020-12-06</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>2020-12-07</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$2:$D$321</c:f>
+              <c:f>Data!$D$2:$D$322</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="320"/>
+                <c:ptCount val="321"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5063,10 +5075,13 @@
                   <c:v>101276</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>101190</c:v>
+                  <c:v>101192</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>101487</c:v>
+                  <c:v>101501</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>102148</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5175,9 +5190,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$321</c:f>
+              <c:f>Data!$A$2:$A$322</c:f>
               <c:strCache>
-                <c:ptCount val="320"/>
+                <c:ptCount val="321"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -6137,16 +6152,19 @@
                 </c:pt>
                 <c:pt idx="319">
                   <c:v>2020-12-06</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>2020-12-07</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$321</c:f>
+              <c:f>Data!$E$2:$E$322</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="320"/>
+                <c:ptCount val="321"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7102,10 +7120,13 @@
                   <c:v>19858</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>19950</c:v>
+                  <c:v>19947</c:v>
                 </c:pt>
                 <c:pt idx="319">
                   <c:v>20145</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>20098</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7214,9 +7235,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$321</c:f>
+              <c:f>Data!$A$2:$A$322</c:f>
               <c:strCache>
-                <c:ptCount val="320"/>
+                <c:ptCount val="321"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -8176,16 +8197,19 @@
                 </c:pt>
                 <c:pt idx="319">
                   <c:v>2020-12-06</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>2020-12-07</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$321</c:f>
+              <c:f>Data!$F$2:$F$322</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="320"/>
+                <c:ptCount val="321"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9141,10 +9165,13 @@
                   <c:v>6999</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>7005</c:v>
+                  <c:v>7006</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>7094</c:v>
+                  <c:v>7095</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>7073</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9253,9 +9280,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$321</c:f>
+              <c:f>Data!$A$2:$A$322</c:f>
               <c:strCache>
-                <c:ptCount val="320"/>
+                <c:ptCount val="321"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -10215,16 +10242,19 @@
                 </c:pt>
                 <c:pt idx="319">
                   <c:v>2020-12-06</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>2020-12-07</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$321</c:f>
+              <c:f>Data!$C$2:$C$322</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="320"/>
+                <c:ptCount val="321"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11180,10 +11210,13 @@
                   <c:v>269791</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>272236</c:v>
+                  <c:v>272252</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>273374</c:v>
+                  <c:v>273398</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>274745</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11479,9 +11512,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F321" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F321" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F321">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F322" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F322" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F322">
     <sortCondition ref="A1:A254"/>
   </sortState>
   <tableColumns count="6">
@@ -11817,7 +11850,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F321"/>
+  <dimension ref="A1:F322"/>
   <sheetViews>
     <sheetView topLeftCell="A282" workbookViewId="0">
       <selection activeCell="K308" sqref="K308"/>
@@ -18218,19 +18251,19 @@
         <v>324</v>
       </c>
       <c r="B320">
-        <v>14357264</v>
+        <v>14359071</v>
       </c>
       <c r="C320">
-        <v>272236</v>
+        <v>272252</v>
       </c>
       <c r="D320">
-        <v>101190</v>
+        <v>101192</v>
       </c>
       <c r="E320">
-        <v>19950</v>
+        <v>19947</v>
       </c>
       <c r="F320">
-        <v>7005</v>
+        <v>7006</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
@@ -18238,19 +18271,39 @@
         <v>325</v>
       </c>
       <c r="B321">
-        <v>14534035</v>
+        <v>14536872</v>
       </c>
       <c r="C321">
-        <v>273374</v>
+        <v>273398</v>
       </c>
       <c r="D321">
-        <v>101487</v>
+        <v>101501</v>
       </c>
       <c r="E321">
         <v>20145</v>
       </c>
       <c r="F321">
-        <v>7094</v>
+        <v>7095</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>326</v>
+      </c>
+      <c r="B322">
+        <v>14717065</v>
+      </c>
+      <c r="C322">
+        <v>274745</v>
+      </c>
+      <c r="D322">
+        <v>102148</v>
+      </c>
+      <c r="E322">
+        <v>20098</v>
+      </c>
+      <c r="F322">
+        <v>7073</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathBeds.xlsx
+++ b/covid19/data/USCaseDeathBeds.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968634A0-3151-4FF1-8822-E62E56448FD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C5F8D6-A7FC-42A5-A583-90685A1263C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Deaths" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$322</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$323</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="328">
   <si>
     <t>date</t>
   </si>
@@ -1012,6 +1012,9 @@
   </si>
   <si>
     <t>2020-12-07</t>
+  </si>
+  <si>
+    <t>2020-12-08</t>
   </si>
 </sst>
 </file>
@@ -1100,9 +1103,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$322</c:f>
+              <c:f>Data!$A$2:$A$323</c:f>
               <c:strCache>
-                <c:ptCount val="321"/>
+                <c:ptCount val="322"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -2065,16 +2068,19 @@
                 </c:pt>
                 <c:pt idx="320">
                   <c:v>2020-12-07</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>2020-12-08</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$322</c:f>
+              <c:f>Data!$B$2:$B$323</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="321"/>
+                <c:ptCount val="322"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3037,6 +3043,9 @@
                 </c:pt>
                 <c:pt idx="320">
                   <c:v>14717065</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>14930563</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3145,9 +3154,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$322</c:f>
+              <c:f>Data!$A$2:$A$323</c:f>
               <c:strCache>
-                <c:ptCount val="321"/>
+                <c:ptCount val="322"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -4110,16 +4119,19 @@
                 </c:pt>
                 <c:pt idx="320">
                   <c:v>2020-12-07</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>2020-12-08</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$2:$D$322</c:f>
+              <c:f>Data!$D$2:$D$323</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="321"/>
+                <c:ptCount val="322"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5082,6 +5094,9 @@
                 </c:pt>
                 <c:pt idx="320">
                   <c:v>102148</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>104600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5190,9 +5205,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$322</c:f>
+              <c:f>Data!$A$2:$A$323</c:f>
               <c:strCache>
-                <c:ptCount val="321"/>
+                <c:ptCount val="322"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -6155,16 +6170,19 @@
                 </c:pt>
                 <c:pt idx="320">
                   <c:v>2020-12-07</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>2020-12-08</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$322</c:f>
+              <c:f>Data!$E$2:$E$323</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="321"/>
+                <c:ptCount val="322"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7127,6 +7145,9 @@
                 </c:pt>
                 <c:pt idx="320">
                   <c:v>20098</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>20483</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7235,9 +7256,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$322</c:f>
+              <c:f>Data!$A$2:$A$323</c:f>
               <c:strCache>
-                <c:ptCount val="321"/>
+                <c:ptCount val="322"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -8200,16 +8221,19 @@
                 </c:pt>
                 <c:pt idx="320">
                   <c:v>2020-12-07</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>2020-12-08</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$322</c:f>
+              <c:f>Data!$F$2:$F$323</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="321"/>
+                <c:ptCount val="322"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9172,6 +9196,9 @@
                 </c:pt>
                 <c:pt idx="320">
                   <c:v>7073</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>7245</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9280,9 +9307,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$322</c:f>
+              <c:f>Data!$A$2:$A$323</c:f>
               <c:strCache>
-                <c:ptCount val="321"/>
+                <c:ptCount val="322"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -10245,16 +10272,19 @@
                 </c:pt>
                 <c:pt idx="320">
                   <c:v>2020-12-07</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>2020-12-08</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$322</c:f>
+              <c:f>Data!$C$2:$C$323</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="321"/>
+                <c:ptCount val="322"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11217,6 +11247,9 @@
                 </c:pt>
                 <c:pt idx="320">
                   <c:v>274745</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>277367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11512,9 +11545,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F322" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F322" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F322">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F323" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F323" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F323">
     <sortCondition ref="A1:A254"/>
   </sortState>
   <tableColumns count="6">
@@ -11850,7 +11883,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F322"/>
+  <dimension ref="A1:F323"/>
   <sheetViews>
     <sheetView topLeftCell="A282" workbookViewId="0">
       <selection activeCell="K308" sqref="K308"/>
@@ -18304,6 +18337,26 @@
       </c>
       <c r="F322">
         <v>7073</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>327</v>
+      </c>
+      <c r="B323">
+        <v>14930563</v>
+      </c>
+      <c r="C323">
+        <v>277367</v>
+      </c>
+      <c r="D323">
+        <v>104600</v>
+      </c>
+      <c r="E323">
+        <v>20483</v>
+      </c>
+      <c r="F323">
+        <v>7245</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathBeds.xlsx
+++ b/covid19/data/USCaseDeathBeds.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C5F8D6-A7FC-42A5-A583-90685A1263C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096A876D-7D44-4122-9E2A-8819FEC389FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Deaths" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$323</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$324</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="329">
   <si>
     <t>date</t>
   </si>
@@ -1015,6 +1015,9 @@
   </si>
   <si>
     <t>2020-12-08</t>
+  </si>
+  <si>
+    <t>2020-12-09</t>
   </si>
 </sst>
 </file>
@@ -1103,9 +1106,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$323</c:f>
+              <c:f>Data!$A$2:$A$324</c:f>
               <c:strCache>
-                <c:ptCount val="322"/>
+                <c:ptCount val="323"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -2071,16 +2074,19 @@
                 </c:pt>
                 <c:pt idx="321">
                   <c:v>2020-12-08</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>2020-12-09</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$323</c:f>
+              <c:f>Data!$B$2:$B$324</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="322"/>
+                <c:ptCount val="323"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3045,7 +3051,10 @@
                   <c:v>14717065</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>14930563</c:v>
+                  <c:v>14931818</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>15142845</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3154,9 +3163,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$323</c:f>
+              <c:f>Data!$A$2:$A$324</c:f>
               <c:strCache>
-                <c:ptCount val="322"/>
+                <c:ptCount val="323"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -4122,16 +4131,19 @@
                 </c:pt>
                 <c:pt idx="321">
                   <c:v>2020-12-08</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>2020-12-09</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$2:$D$323</c:f>
+              <c:f>Data!$D$2:$D$324</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="322"/>
+                <c:ptCount val="323"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5096,7 +5108,10 @@
                   <c:v>102148</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>104600</c:v>
+                  <c:v>104590</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>106688</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5205,9 +5220,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$323</c:f>
+              <c:f>Data!$A$2:$A$324</c:f>
               <c:strCache>
-                <c:ptCount val="322"/>
+                <c:ptCount val="323"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -6173,16 +6188,19 @@
                 </c:pt>
                 <c:pt idx="321">
                   <c:v>2020-12-08</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>2020-12-09</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$323</c:f>
+              <c:f>Data!$E$2:$E$324</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="322"/>
+                <c:ptCount val="323"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7148,6 +7166,9 @@
                 </c:pt>
                 <c:pt idx="321">
                   <c:v>20483</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>20922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7256,9 +7277,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$323</c:f>
+              <c:f>Data!$A$2:$A$324</c:f>
               <c:strCache>
-                <c:ptCount val="322"/>
+                <c:ptCount val="323"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -8224,16 +8245,19 @@
                 </c:pt>
                 <c:pt idx="321">
                   <c:v>2020-12-08</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>2020-12-09</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$323</c:f>
+              <c:f>Data!$F$2:$F$324</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="322"/>
+                <c:ptCount val="323"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9199,6 +9223,9 @@
                 </c:pt>
                 <c:pt idx="321">
                   <c:v>7245</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>7624</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9307,9 +9334,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$323</c:f>
+              <c:f>Data!$A$2:$A$324</c:f>
               <c:strCache>
-                <c:ptCount val="322"/>
+                <c:ptCount val="323"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -10275,16 +10302,19 @@
                 </c:pt>
                 <c:pt idx="321">
                   <c:v>2020-12-08</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>2020-12-09</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$323</c:f>
+              <c:f>Data!$C$2:$C$324</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="322"/>
+                <c:ptCount val="323"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11249,7 +11279,10 @@
                   <c:v>274745</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>277367</c:v>
+                  <c:v>277400</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>280454</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11545,9 +11578,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F323" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F323" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F323">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F324" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F324" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F324">
     <sortCondition ref="A1:A254"/>
   </sortState>
   <tableColumns count="6">
@@ -11883,7 +11916,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F323"/>
+  <dimension ref="A1:F324"/>
   <sheetViews>
     <sheetView topLeftCell="A282" workbookViewId="0">
       <selection activeCell="K308" sqref="K308"/>
@@ -18344,19 +18377,39 @@
         <v>327</v>
       </c>
       <c r="B323">
-        <v>14930563</v>
+        <v>14931818</v>
       </c>
       <c r="C323">
-        <v>277367</v>
+        <v>277400</v>
       </c>
       <c r="D323">
-        <v>104600</v>
+        <v>104590</v>
       </c>
       <c r="E323">
         <v>20483</v>
       </c>
       <c r="F323">
         <v>7245</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>328</v>
+      </c>
+      <c r="B324">
+        <v>15142845</v>
+      </c>
+      <c r="C324">
+        <v>280454</v>
+      </c>
+      <c r="D324">
+        <v>106688</v>
+      </c>
+      <c r="E324">
+        <v>20922</v>
+      </c>
+      <c r="F324">
+        <v>7624</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathBeds.xlsx
+++ b/covid19/data/USCaseDeathBeds.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096A876D-7D44-4122-9E2A-8819FEC389FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378FA038-ED24-4B44-BA99-1F4C0730C1FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3054,7 +3054,7 @@
                   <c:v>14931818</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>15142845</c:v>
+                  <c:v>15145172</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5111,7 +5111,7 @@
                   <c:v>104590</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>106688</c:v>
+                  <c:v>106671</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7168,7 +7168,7 @@
                   <c:v>20483</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>20922</c:v>
+                  <c:v>20903</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9225,7 +9225,7 @@
                   <c:v>7245</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>7624</c:v>
+                  <c:v>7621</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11282,7 +11282,7 @@
                   <c:v>277400</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>280454</c:v>
+                  <c:v>280488</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18397,19 +18397,19 @@
         <v>328</v>
       </c>
       <c r="B324">
-        <v>15142845</v>
+        <v>15145172</v>
       </c>
       <c r="C324">
-        <v>280454</v>
+        <v>280488</v>
       </c>
       <c r="D324">
-        <v>106688</v>
+        <v>106671</v>
       </c>
       <c r="E324">
-        <v>20922</v>
+        <v>20903</v>
       </c>
       <c r="F324">
-        <v>7624</v>
+        <v>7621</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathBeds.xlsx
+++ b/covid19/data/USCaseDeathBeds.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378FA038-ED24-4B44-BA99-1F4C0730C1FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EE73A4-7F8A-489B-A5A6-9E1BD5A7BD4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Deaths" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$324</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$325</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="330">
   <si>
     <t>date</t>
   </si>
@@ -1018,6 +1018,9 @@
   </si>
   <si>
     <t>2020-12-09</t>
+  </si>
+  <si>
+    <t>2020-12-10</t>
   </si>
 </sst>
 </file>
@@ -1106,9 +1109,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$324</c:f>
+              <c:f>Data!$A$2:$A$325</c:f>
               <c:strCache>
-                <c:ptCount val="323"/>
+                <c:ptCount val="324"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -2077,16 +2080,19 @@
                 </c:pt>
                 <c:pt idx="322">
                   <c:v>2020-12-09</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>2020-12-10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$324</c:f>
+              <c:f>Data!$B$2:$B$325</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="323"/>
+                <c:ptCount val="324"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2400,661 +2406,664 @@
                   <c:v>1183622</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1206134</c:v>
+                  <c:v>1206132</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1231277</c:v>
+                  <c:v>1231275</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>1258504</c:v>
+                  <c:v>1258502</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>1285663</c:v>
+                  <c:v>1285661</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1310843</c:v>
+                  <c:v>1310841</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1331733</c:v>
+                  <c:v>1331731</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1350031</c:v>
+                  <c:v>1350029</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1372589</c:v>
+                  <c:v>1372587</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1394217</c:v>
+                  <c:v>1394215</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1420930</c:v>
+                  <c:v>1420928</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1446352</c:v>
+                  <c:v>1446350</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1469938</c:v>
+                  <c:v>1469936</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1490090</c:v>
+                  <c:v>1490088</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>1510934</c:v>
+                  <c:v>1510932</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>1531816</c:v>
+                  <c:v>1531814</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>1553075</c:v>
+                  <c:v>1553073</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>1579817</c:v>
+                  <c:v>1579815</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>1603990</c:v>
+                  <c:v>1603988</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>1626355</c:v>
+                  <c:v>1626353</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>1645215</c:v>
+                  <c:v>1645213</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>1663746</c:v>
+                  <c:v>1663744</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>1680724</c:v>
+                  <c:v>1680722</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>1700135</c:v>
+                  <c:v>1700133</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>1722794</c:v>
+                  <c:v>1722792</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>1746382</c:v>
+                  <c:v>1746380</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>1769819</c:v>
+                  <c:v>1769817</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>1791211</c:v>
+                  <c:v>1791209</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>1811573</c:v>
+                  <c:v>1811571</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>1831728</c:v>
+                  <c:v>1831726</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>1851883</c:v>
+                  <c:v>1851881</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>1872266</c:v>
+                  <c:v>1872264</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>1895332</c:v>
+                  <c:v>1895330</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>1917890</c:v>
+                  <c:v>1917888</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>1936708</c:v>
+                  <c:v>1936706</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>1953938</c:v>
+                  <c:v>1953936</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>1971089</c:v>
+                  <c:v>1971087</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>1991816</c:v>
+                  <c:v>1991814</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>2013887</c:v>
+                  <c:v>2013885</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>2036983</c:v>
+                  <c:v>2036981</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>2062228</c:v>
+                  <c:v>2062226</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>2083561</c:v>
+                  <c:v>2083559</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>2102215</c:v>
+                  <c:v>2102213</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>2125483</c:v>
+                  <c:v>2125481</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>2149389</c:v>
+                  <c:v>2149387</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>2176478</c:v>
+                  <c:v>2176476</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>2207437</c:v>
+                  <c:v>2207435</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>2239388</c:v>
+                  <c:v>2239386</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>2268236</c:v>
+                  <c:v>2268234</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>2295415</c:v>
+                  <c:v>2295413</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>2329300</c:v>
+                  <c:v>2329298</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>2368309</c:v>
+                  <c:v>2368307</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>2407990</c:v>
+                  <c:v>2407988</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>2452369</c:v>
+                  <c:v>2452367</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>2495262</c:v>
+                  <c:v>2495260</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>2536594</c:v>
+                  <c:v>2536592</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>2576359</c:v>
+                  <c:v>2576357</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>2623989</c:v>
+                  <c:v>2623987</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>2674990</c:v>
+                  <c:v>2674988</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>2728498</c:v>
+                  <c:v>2728496</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>2782186</c:v>
+                  <c:v>2782184</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>2836330</c:v>
+                  <c:v>2836328</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>2881497</c:v>
+                  <c:v>2881495</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>2922991</c:v>
+                  <c:v>2922989</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>2974733</c:v>
+                  <c:v>2974731</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>3037469</c:v>
+                  <c:v>3037467</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>3096428</c:v>
+                  <c:v>3096426</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>3163252</c:v>
+                  <c:v>3163250</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>3225576</c:v>
+                  <c:v>3225574</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>3286548</c:v>
+                  <c:v>3286546</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>3344151</c:v>
+                  <c:v>3344149</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>3406885</c:v>
+                  <c:v>3406883</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>3472503</c:v>
+                  <c:v>3472500</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>3542952</c:v>
+                  <c:v>3542949</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>3619170</c:v>
+                  <c:v>3619167</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>3683593</c:v>
+                  <c:v>3683589</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>3747308</c:v>
+                  <c:v>3747304</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>3804244</c:v>
+                  <c:v>3804239</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>3867869</c:v>
+                  <c:v>3867864</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>3937215</c:v>
+                  <c:v>3937210</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>4008440</c:v>
+                  <c:v>4008435</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>4083294</c:v>
+                  <c:v>4083289</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>4147670</c:v>
+                  <c:v>4147665</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>4207793</c:v>
+                  <c:v>4207788</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>4262807</c:v>
+                  <c:v>4262801</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>4321791</c:v>
+                  <c:v>4321785</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>4385732</c:v>
+                  <c:v>4385726</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>4454538</c:v>
+                  <c:v>4454531</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>4522068</c:v>
+                  <c:v>4522061</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>4582313</c:v>
+                  <c:v>4582306</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>4628823</c:v>
+                  <c:v>4628817</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>4678171</c:v>
+                  <c:v>4678165</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>4729986</c:v>
+                  <c:v>4729980</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>4782450</c:v>
+                  <c:v>4782444</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>4836253</c:v>
+                  <c:v>4836247</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>4897089</c:v>
+                  <c:v>4897083</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>4950173</c:v>
+                  <c:v>4950166</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>5000326</c:v>
+                  <c:v>5000319</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>5042069</c:v>
+                  <c:v>5042062</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>5097499</c:v>
+                  <c:v>5097490</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>5153393</c:v>
+                  <c:v>5153384</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>5205014</c:v>
+                  <c:v>5205005</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>5262107</c:v>
+                  <c:v>5262098</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>5317917</c:v>
+                  <c:v>5317908</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>5360239</c:v>
+                  <c:v>5360230</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>5397650</c:v>
+                  <c:v>5397641</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>5438142</c:v>
+                  <c:v>5438132</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>5483024</c:v>
+                  <c:v>5483014</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>5526747</c:v>
+                  <c:v>5526737</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>5572942</c:v>
+                  <c:v>5572932</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>5618664</c:v>
+                  <c:v>5618654</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>5655989</c:v>
+                  <c:v>5655978</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>5690238</c:v>
+                  <c:v>5690227</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>5726826</c:v>
+                  <c:v>5726814</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>5770453</c:v>
+                  <c:v>5770440</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>5814369</c:v>
+                  <c:v>5814355</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>5860495</c:v>
+                  <c:v>5860476</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>5904458</c:v>
+                  <c:v>5904438</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>5943743</c:v>
+                  <c:v>5943723</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>5975013</c:v>
+                  <c:v>5974993</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>6017434</c:v>
+                  <c:v>6017412</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>6047651</c:v>
+                  <c:v>6047628</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>6092272</c:v>
+                  <c:v>6092249</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>6143785</c:v>
+                  <c:v>6143760</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>6188529</c:v>
+                  <c:v>6188503</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>6221450</c:v>
+                  <c:v>6221423</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>6249594</c:v>
+                  <c:v>6249565</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>6271730</c:v>
+                  <c:v>6271700</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>6302903</c:v>
+                  <c:v>6302871</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>6340205</c:v>
+                  <c:v>6340175</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>6384889</c:v>
+                  <c:v>6384859</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>6426755</c:v>
+                  <c:v>6426724</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>6461066</c:v>
+                  <c:v>6461038</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>6494686</c:v>
+                  <c:v>6494656</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>6529591</c:v>
+                  <c:v>6529560</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>6569703</c:v>
+                  <c:v>6569668</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>6612992</c:v>
+                  <c:v>6612959</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>6660244</c:v>
+                  <c:v>6660209</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>6705149</c:v>
+                  <c:v>6705115</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>6740652</c:v>
+                  <c:v>6740619</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>6779791</c:v>
+                  <c:v>6779756</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>6829266</c:v>
+                  <c:v>6829231</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>6867886</c:v>
+                  <c:v>6867850</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>6911232</c:v>
+                  <c:v>6911193</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>6966421</c:v>
+                  <c:v>6966379</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>7013826</c:v>
+                  <c:v>7013786</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>7048812</c:v>
+                  <c:v>7048769</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>7084695</c:v>
+                  <c:v>7084652</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>7121136</c:v>
+                  <c:v>7121094</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>7165483</c:v>
+                  <c:v>7165440</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>7211088</c:v>
+                  <c:v>7211040</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>7260346</c:v>
+                  <c:v>7260293</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>7311280</c:v>
+                  <c:v>7311230</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>7349267</c:v>
+                  <c:v>7349212</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>7387024</c:v>
+                  <c:v>7386968</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>7425941</c:v>
+                  <c:v>7425885</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>7476532</c:v>
+                  <c:v>7476473</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>7531740</c:v>
+                  <c:v>7531677</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>7588542</c:v>
+                  <c:v>7588467</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>7645956</c:v>
+                  <c:v>7645891</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>7692224</c:v>
+                  <c:v>7692159</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>7734868</c:v>
+                  <c:v>7734804</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>7783462</c:v>
+                  <c:v>7783380</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>7839579</c:v>
+                  <c:v>7839458</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>7902973</c:v>
+                  <c:v>7902842</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>7971222</c:v>
+                  <c:v>7971107</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>8028550</c:v>
+                  <c:v>8028462</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>8076834</c:v>
+                  <c:v>8076742</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>8133943</c:v>
+                  <c:v>8133850</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>8194492</c:v>
+                  <c:v>8194419</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>8255450</c:v>
+                  <c:v>8255399</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>8328292</c:v>
+                  <c:v>8328402</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>8410625</c:v>
+                  <c:v>8410744</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>8493912</c:v>
+                  <c:v>8494063</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>8558805</c:v>
+                  <c:v>8558960</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>8621330</c:v>
+                  <c:v>8621495</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>8693413</c:v>
+                  <c:v>8693592</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>8772165</c:v>
+                  <c:v>8772385</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>8860888</c:v>
+                  <c:v>8861113</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>8958126</c:v>
+                  <c:v>8958376</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>9048711</c:v>
+                  <c:v>9048989</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>9122560</c:v>
+                  <c:v>9122861</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>9204607</c:v>
+                  <c:v>9204903</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>9291273</c:v>
+                  <c:v>9291618</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>9394578</c:v>
+                  <c:v>9394981</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>9511021</c:v>
+                  <c:v>9511460</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>9636779</c:v>
+                  <c:v>9637258</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>9766001</c:v>
+                  <c:v>9766524</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>9876291</c:v>
+                  <c:v>9876830</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>9995725</c:v>
+                  <c:v>9996264</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>10126912</c:v>
+                  <c:v>10127514</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>10271729</c:v>
+                  <c:v>10272396</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>10423741</c:v>
+                  <c:v>10424443</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>10595857</c:v>
+                  <c:v>10596620</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>10759395</c:v>
+                  <c:v>10760217</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>10903827</c:v>
+                  <c:v>10904685</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>11052700</c:v>
+                  <c:v>11053553</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>11209432</c:v>
+                  <c:v>11210332</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>11373404</c:v>
+                  <c:v>11374382</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>11556239</c:v>
+                  <c:v>11557285</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>11749039</c:v>
+                  <c:v>11750115</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>11928754</c:v>
+                  <c:v>11929878</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>12079595</c:v>
+                  <c:v>12080756</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>12230553</c:v>
+                  <c:v>12231712</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>12397567</c:v>
+                  <c:v>12398788</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>12581196</c:v>
+                  <c:v>12582524</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>12707531</c:v>
+                  <c:v>12708902</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>12901256</c:v>
+                  <c:v>12902588</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>13055778</c:v>
+                  <c:v>13057202</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>13191020</c:v>
+                  <c:v>13192446</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>13338607</c:v>
+                  <c:v>13340034</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>13515360</c:v>
+                  <c:v>13516850</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>13711156</c:v>
+                  <c:v>13712717</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>13921360</c:v>
+                  <c:v>13922968</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>14146191</c:v>
+                  <c:v>14147846</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>14359071</c:v>
+                  <c:v>14360786</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>14536872</c:v>
+                  <c:v>14538598</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>14717065</c:v>
+                  <c:v>14718817</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>14931818</c:v>
+                  <c:v>14934152</c:v>
                 </c:pt>
                 <c:pt idx="322">
                   <c:v>15145172</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>15360841</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3163,9 +3172,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$324</c:f>
+              <c:f>Data!$A$2:$A$325</c:f>
               <c:strCache>
-                <c:ptCount val="323"/>
+                <c:ptCount val="324"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -4134,16 +4143,19 @@
                 </c:pt>
                 <c:pt idx="322">
                   <c:v>2020-12-09</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>2020-12-10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$2:$D$324</c:f>
+              <c:f>Data!$D$2:$D$325</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="323"/>
+                <c:ptCount val="324"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5111,7 +5123,10 @@
                   <c:v>104590</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>106671</c:v>
+                  <c:v>106705</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>107258</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5220,9 +5235,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$324</c:f>
+              <c:f>Data!$A$2:$A$325</c:f>
               <c:strCache>
-                <c:ptCount val="323"/>
+                <c:ptCount val="324"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -6191,16 +6206,19 @@
                 </c:pt>
                 <c:pt idx="322">
                   <c:v>2020-12-09</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>2020-12-10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$324</c:f>
+              <c:f>Data!$E$2:$E$325</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="323"/>
+                <c:ptCount val="324"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7168,7 +7186,10 @@
                   <c:v>20483</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>20903</c:v>
+                  <c:v>20906</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>21023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7277,9 +7298,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$324</c:f>
+              <c:f>Data!$A$2:$A$325</c:f>
               <c:strCache>
-                <c:ptCount val="323"/>
+                <c:ptCount val="324"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -8248,16 +8269,19 @@
                 </c:pt>
                 <c:pt idx="322">
                   <c:v>2020-12-09</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>2020-12-10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$324</c:f>
+              <c:f>Data!$F$2:$F$325</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="323"/>
+                <c:ptCount val="324"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9225,7 +9249,10 @@
                   <c:v>7245</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>7621</c:v>
+                  <c:v>7624</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>7442</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9334,9 +9361,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$324</c:f>
+              <c:f>Data!$A$2:$A$325</c:f>
               <c:strCache>
-                <c:ptCount val="323"/>
+                <c:ptCount val="324"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -10305,16 +10332,19 @@
                 </c:pt>
                 <c:pt idx="322">
                   <c:v>2020-12-09</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>2020-12-10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$324</c:f>
+              <c:f>Data!$C$2:$C$325</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="323"/>
+                <c:ptCount val="324"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11283,6 +11313,9 @@
                 </c:pt>
                 <c:pt idx="322">
                   <c:v>280488</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>283555</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11578,9 +11611,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F324" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F324" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F324">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F325" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F325" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F325">
     <sortCondition ref="A1:A254"/>
   </sortState>
   <tableColumns count="6">
@@ -11916,7 +11949,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F324"/>
+  <dimension ref="A1:F325"/>
   <sheetViews>
     <sheetView topLeftCell="A282" workbookViewId="0">
       <selection activeCell="K308" sqref="K308"/>
@@ -14037,7 +14070,7 @@
         <v>110</v>
       </c>
       <c r="B106">
-        <v>1206134</v>
+        <v>1206132</v>
       </c>
       <c r="C106">
         <v>67703</v>
@@ -14057,7 +14090,7 @@
         <v>111</v>
       </c>
       <c r="B107">
-        <v>1231277</v>
+        <v>1231275</v>
       </c>
       <c r="C107">
         <v>69619</v>
@@ -14077,7 +14110,7 @@
         <v>112</v>
       </c>
       <c r="B108">
-        <v>1258504</v>
+        <v>1258502</v>
       </c>
       <c r="C108">
         <v>72371</v>
@@ -14097,7 +14130,7 @@
         <v>113</v>
       </c>
       <c r="B109">
-        <v>1285663</v>
+        <v>1285661</v>
       </c>
       <c r="C109">
         <v>74152</v>
@@ -14117,7 +14150,7 @@
         <v>114</v>
       </c>
       <c r="B110">
-        <v>1310843</v>
+        <v>1310841</v>
       </c>
       <c r="C110">
         <v>75608</v>
@@ -14137,7 +14170,7 @@
         <v>115</v>
       </c>
       <c r="B111">
-        <v>1331733</v>
+        <v>1331731</v>
       </c>
       <c r="C111">
         <v>76640</v>
@@ -14157,7 +14190,7 @@
         <v>116</v>
       </c>
       <c r="B112">
-        <v>1350031</v>
+        <v>1350029</v>
       </c>
       <c r="C112">
         <v>77534</v>
@@ -14177,7 +14210,7 @@
         <v>117</v>
       </c>
       <c r="B113">
-        <v>1372589</v>
+        <v>1372587</v>
       </c>
       <c r="C113">
         <v>79040</v>
@@ -14197,7 +14230,7 @@
         <v>118</v>
       </c>
       <c r="B114">
-        <v>1394217</v>
+        <v>1394215</v>
       </c>
       <c r="C114">
         <v>80774</v>
@@ -14217,7 +14250,7 @@
         <v>119</v>
       </c>
       <c r="B115">
-        <v>1420930</v>
+        <v>1420928</v>
       </c>
       <c r="C115">
         <v>82626</v>
@@ -14237,7 +14270,7 @@
         <v>120</v>
       </c>
       <c r="B116">
-        <v>1446352</v>
+        <v>1446350</v>
       </c>
       <c r="C116">
         <v>83889</v>
@@ -14257,7 +14290,7 @@
         <v>121</v>
       </c>
       <c r="B117">
-        <v>1469938</v>
+        <v>1469936</v>
       </c>
       <c r="C117">
         <v>85084</v>
@@ -14277,7 +14310,7 @@
         <v>122</v>
       </c>
       <c r="B118">
-        <v>1490090</v>
+        <v>1490088</v>
       </c>
       <c r="C118">
         <v>85934</v>
@@ -14297,7 +14330,7 @@
         <v>123</v>
       </c>
       <c r="B119">
-        <v>1510934</v>
+        <v>1510932</v>
       </c>
       <c r="C119">
         <v>86823</v>
@@ -14317,7 +14350,7 @@
         <v>124</v>
       </c>
       <c r="B120">
-        <v>1531816</v>
+        <v>1531814</v>
       </c>
       <c r="C120">
         <v>88155</v>
@@ -14337,7 +14370,7 @@
         <v>125</v>
       </c>
       <c r="B121">
-        <v>1553075</v>
+        <v>1553073</v>
       </c>
       <c r="C121">
         <v>89545</v>
@@ -14357,7 +14390,7 @@
         <v>126</v>
       </c>
       <c r="B122">
-        <v>1579817</v>
+        <v>1579815</v>
       </c>
       <c r="C122">
         <v>90972</v>
@@ -14377,7 +14410,7 @@
         <v>127</v>
       </c>
       <c r="B123">
-        <v>1603990</v>
+        <v>1603988</v>
       </c>
       <c r="C123">
         <v>92275</v>
@@ -14397,7 +14430,7 @@
         <v>128</v>
       </c>
       <c r="B124">
-        <v>1626355</v>
+        <v>1626353</v>
       </c>
       <c r="C124">
         <v>93310</v>
@@ -14417,7 +14450,7 @@
         <v>129</v>
       </c>
       <c r="B125">
-        <v>1645215</v>
+        <v>1645213</v>
       </c>
       <c r="C125">
         <v>93994</v>
@@ -14437,7 +14470,7 @@
         <v>130</v>
       </c>
       <c r="B126">
-        <v>1663746</v>
+        <v>1663744</v>
       </c>
       <c r="C126">
         <v>94548</v>
@@ -14457,7 +14490,7 @@
         <v>131</v>
       </c>
       <c r="B127">
-        <v>1680724</v>
+        <v>1680722</v>
       </c>
       <c r="C127">
         <v>95220</v>
@@ -14477,7 +14510,7 @@
         <v>132</v>
       </c>
       <c r="B128">
-        <v>1700135</v>
+        <v>1700133</v>
       </c>
       <c r="C128">
         <v>96536</v>
@@ -14497,7 +14530,7 @@
         <v>133</v>
       </c>
       <c r="B129">
-        <v>1722794</v>
+        <v>1722792</v>
       </c>
       <c r="C129">
         <v>97778</v>
@@ -14517,7 +14550,7 @@
         <v>134</v>
       </c>
       <c r="B130">
-        <v>1746382</v>
+        <v>1746380</v>
       </c>
       <c r="C130">
         <v>98947</v>
@@ -14537,7 +14570,7 @@
         <v>135</v>
       </c>
       <c r="B131">
-        <v>1769819</v>
+        <v>1769817</v>
       </c>
       <c r="C131">
         <v>99865</v>
@@ -14557,7 +14590,7 @@
         <v>136</v>
       </c>
       <c r="B132">
-        <v>1791211</v>
+        <v>1791209</v>
       </c>
       <c r="C132">
         <v>100516</v>
@@ -14577,7 +14610,7 @@
         <v>137</v>
       </c>
       <c r="B133">
-        <v>1811573</v>
+        <v>1811571</v>
       </c>
       <c r="C133">
         <v>101187</v>
@@ -14597,7 +14630,7 @@
         <v>138</v>
       </c>
       <c r="B134">
-        <v>1831728</v>
+        <v>1831726</v>
       </c>
       <c r="C134">
         <v>102187</v>
@@ -14617,7 +14650,7 @@
         <v>139</v>
       </c>
       <c r="B135">
-        <v>1851883</v>
+        <v>1851881</v>
       </c>
       <c r="C135">
         <v>103167</v>
@@ -14637,7 +14670,7 @@
         <v>140</v>
       </c>
       <c r="B136">
-        <v>1872266</v>
+        <v>1872264</v>
       </c>
       <c r="C136">
         <v>104031</v>
@@ -14657,7 +14690,7 @@
         <v>141</v>
       </c>
       <c r="B137">
-        <v>1895332</v>
+        <v>1895330</v>
       </c>
       <c r="C137">
         <v>104875</v>
@@ -14677,7 +14710,7 @@
         <v>142</v>
       </c>
       <c r="B138">
-        <v>1917890</v>
+        <v>1917888</v>
       </c>
       <c r="C138">
         <v>105586</v>
@@ -14697,7 +14730,7 @@
         <v>143</v>
       </c>
       <c r="B139">
-        <v>1936708</v>
+        <v>1936706</v>
       </c>
       <c r="C139">
         <v>106032</v>
@@ -14717,7 +14750,7 @@
         <v>144</v>
       </c>
       <c r="B140">
-        <v>1953938</v>
+        <v>1953936</v>
       </c>
       <c r="C140">
         <v>106708</v>
@@ -14737,7 +14770,7 @@
         <v>145</v>
       </c>
       <c r="B141">
-        <v>1971089</v>
+        <v>1971087</v>
       </c>
       <c r="C141">
         <v>107609</v>
@@ -14757,7 +14790,7 @@
         <v>146</v>
       </c>
       <c r="B142">
-        <v>1991816</v>
+        <v>1991814</v>
       </c>
       <c r="C142">
         <v>108493</v>
@@ -14777,7 +14810,7 @@
         <v>147</v>
       </c>
       <c r="B143">
-        <v>2013887</v>
+        <v>2013885</v>
       </c>
       <c r="C143">
         <v>109392</v>
@@ -14797,7 +14830,7 @@
         <v>148</v>
       </c>
       <c r="B144">
-        <v>2036983</v>
+        <v>2036981</v>
       </c>
       <c r="C144">
         <v>110155</v>
@@ -14817,7 +14850,7 @@
         <v>149</v>
       </c>
       <c r="B145">
-        <v>2062228</v>
+        <v>2062226</v>
       </c>
       <c r="C145">
         <v>110845</v>
@@ -14837,7 +14870,7 @@
         <v>150</v>
       </c>
       <c r="B146">
-        <v>2083561</v>
+        <v>2083559</v>
       </c>
       <c r="C146">
         <v>111200</v>
@@ -14857,7 +14890,7 @@
         <v>151</v>
       </c>
       <c r="B147">
-        <v>2102215</v>
+        <v>2102213</v>
       </c>
       <c r="C147">
         <v>111606</v>
@@ -14877,7 +14910,7 @@
         <v>152</v>
       </c>
       <c r="B148">
-        <v>2125483</v>
+        <v>2125481</v>
       </c>
       <c r="C148">
         <v>112312</v>
@@ -14897,7 +14930,7 @@
         <v>153</v>
       </c>
       <c r="B149">
-        <v>2149389</v>
+        <v>2149387</v>
       </c>
       <c r="C149">
         <v>113106</v>
@@ -14917,7 +14950,7 @@
         <v>154</v>
       </c>
       <c r="B150">
-        <v>2176478</v>
+        <v>2176476</v>
       </c>
       <c r="C150">
         <v>113799</v>
@@ -14937,7 +14970,7 @@
         <v>155</v>
       </c>
       <c r="B151">
-        <v>2207437</v>
+        <v>2207435</v>
       </c>
       <c r="C151">
         <v>114455</v>
@@ -14957,7 +14990,7 @@
         <v>156</v>
       </c>
       <c r="B152">
-        <v>2239388</v>
+        <v>2239386</v>
       </c>
       <c r="C152">
         <v>115066</v>
@@ -14977,7 +15010,7 @@
         <v>157</v>
       </c>
       <c r="B153">
-        <v>2268236</v>
+        <v>2268234</v>
       </c>
       <c r="C153">
         <v>115359</v>
@@ -14997,7 +15030,7 @@
         <v>158</v>
       </c>
       <c r="B154">
-        <v>2295415</v>
+        <v>2295413</v>
       </c>
       <c r="C154">
         <v>115653</v>
@@ -15017,7 +15050,7 @@
         <v>159</v>
       </c>
       <c r="B155">
-        <v>2329300</v>
+        <v>2329298</v>
       </c>
       <c r="C155">
         <v>116378</v>
@@ -15037,7 +15070,7 @@
         <v>160</v>
       </c>
       <c r="B156">
-        <v>2368309</v>
+        <v>2368307</v>
       </c>
       <c r="C156">
         <v>117085</v>
@@ -15057,7 +15090,7 @@
         <v>161</v>
       </c>
       <c r="B157">
-        <v>2407990</v>
+        <v>2407988</v>
       </c>
       <c r="C157">
         <v>117748</v>
@@ -15077,7 +15110,7 @@
         <v>162</v>
       </c>
       <c r="B158">
-        <v>2452369</v>
+        <v>2452367</v>
       </c>
       <c r="C158">
         <v>118372</v>
@@ -15097,7 +15130,7 @@
         <v>163</v>
       </c>
       <c r="B159">
-        <v>2495262</v>
+        <v>2495260</v>
       </c>
       <c r="C159">
         <v>118874</v>
@@ -15117,7 +15150,7 @@
         <v>164</v>
       </c>
       <c r="B160">
-        <v>2536594</v>
+        <v>2536592</v>
       </c>
       <c r="C160">
         <v>119145</v>
@@ -15137,7 +15170,7 @@
         <v>165</v>
       </c>
       <c r="B161">
-        <v>2576359</v>
+        <v>2576357</v>
       </c>
       <c r="C161">
         <v>119503</v>
@@ -15157,7 +15190,7 @@
         <v>166</v>
       </c>
       <c r="B162">
-        <v>2623989</v>
+        <v>2623987</v>
       </c>
       <c r="C162">
         <v>120087</v>
@@ -15177,7 +15210,7 @@
         <v>167</v>
       </c>
       <c r="B163">
-        <v>2674990</v>
+        <v>2674988</v>
       </c>
       <c r="C163">
         <v>120776</v>
@@ -15197,7 +15230,7 @@
         <v>168</v>
       </c>
       <c r="B164">
-        <v>2728498</v>
+        <v>2728496</v>
       </c>
       <c r="C164">
         <v>121472</v>
@@ -15217,7 +15250,7 @@
         <v>169</v>
       </c>
       <c r="B165">
-        <v>2782186</v>
+        <v>2782184</v>
       </c>
       <c r="C165">
         <v>122074</v>
@@ -15237,7 +15270,7 @@
         <v>170</v>
       </c>
       <c r="B166">
-        <v>2836330</v>
+        <v>2836328</v>
       </c>
       <c r="C166">
         <v>122374</v>
@@ -15257,7 +15290,7 @@
         <v>171</v>
       </c>
       <c r="B167">
-        <v>2881497</v>
+        <v>2881495</v>
       </c>
       <c r="C167">
         <v>122581</v>
@@ -15277,7 +15310,7 @@
         <v>172</v>
       </c>
       <c r="B168">
-        <v>2922991</v>
+        <v>2922989</v>
       </c>
       <c r="C168">
         <v>122847</v>
@@ -15297,7 +15330,7 @@
         <v>173</v>
       </c>
       <c r="B169">
-        <v>2974733</v>
+        <v>2974731</v>
       </c>
       <c r="C169">
         <v>123752</v>
@@ -15317,7 +15350,7 @@
         <v>174</v>
       </c>
       <c r="B170">
-        <v>3037469</v>
+        <v>3037467</v>
       </c>
       <c r="C170">
         <v>124564</v>
@@ -15337,7 +15370,7 @@
         <v>175</v>
       </c>
       <c r="B171">
-        <v>3096428</v>
+        <v>3096426</v>
       </c>
       <c r="C171">
         <v>125464</v>
@@ -15357,7 +15390,7 @@
         <v>176</v>
       </c>
       <c r="B172">
-        <v>3163252</v>
+        <v>3163250</v>
       </c>
       <c r="C172">
         <v>126286</v>
@@ -15377,7 +15410,7 @@
         <v>177</v>
       </c>
       <c r="B173">
-        <v>3225576</v>
+        <v>3225574</v>
       </c>
       <c r="C173">
         <v>127038</v>
@@ -15397,7 +15430,7 @@
         <v>178</v>
       </c>
       <c r="B174">
-        <v>3286548</v>
+        <v>3286546</v>
       </c>
       <c r="C174">
         <v>127512</v>
@@ -15417,7 +15450,7 @@
         <v>179</v>
       </c>
       <c r="B175">
-        <v>3344151</v>
+        <v>3344149</v>
       </c>
       <c r="C175">
         <v>127843</v>
@@ -15437,7 +15470,7 @@
         <v>180</v>
       </c>
       <c r="B176">
-        <v>3406885</v>
+        <v>3406883</v>
       </c>
       <c r="C176">
         <v>128582</v>
@@ -15457,7 +15490,7 @@
         <v>181</v>
       </c>
       <c r="B177">
-        <v>3472503</v>
+        <v>3472500</v>
       </c>
       <c r="C177">
         <v>129442</v>
@@ -15477,7 +15510,7 @@
         <v>182</v>
       </c>
       <c r="B178">
-        <v>3542952</v>
+        <v>3542949</v>
       </c>
       <c r="C178">
         <v>130395</v>
@@ -15497,7 +15530,7 @@
         <v>183</v>
       </c>
       <c r="B179">
-        <v>3619170</v>
+        <v>3619167</v>
       </c>
       <c r="C179">
         <v>131331</v>
@@ -15517,7 +15550,7 @@
         <v>184</v>
       </c>
       <c r="B180">
-        <v>3683593</v>
+        <v>3683589</v>
       </c>
       <c r="C180">
         <v>132204</v>
@@ -15537,7 +15570,7 @@
         <v>185</v>
       </c>
       <c r="B181">
-        <v>3747308</v>
+        <v>3747304</v>
       </c>
       <c r="C181">
         <v>132731</v>
@@ -15557,7 +15590,7 @@
         <v>186</v>
       </c>
       <c r="B182">
-        <v>3804244</v>
+        <v>3804239</v>
       </c>
       <c r="C182">
         <v>133100</v>
@@ -15577,7 +15610,7 @@
         <v>187</v>
       </c>
       <c r="B183">
-        <v>3867869</v>
+        <v>3867864</v>
       </c>
       <c r="C183">
         <v>134169</v>
@@ -15597,7 +15630,7 @@
         <v>188</v>
       </c>
       <c r="B184">
-        <v>3937215</v>
+        <v>3937210</v>
       </c>
       <c r="C184">
         <v>135303</v>
@@ -15617,7 +15650,7 @@
         <v>189</v>
       </c>
       <c r="B185">
-        <v>4008440</v>
+        <v>4008435</v>
       </c>
       <c r="C185">
         <v>136364</v>
@@ -15637,7 +15670,7 @@
         <v>190</v>
       </c>
       <c r="B186">
-        <v>4083294</v>
+        <v>4083289</v>
       </c>
       <c r="C186">
         <v>137556</v>
@@ -15657,7 +15690,7 @@
         <v>191</v>
       </c>
       <c r="B187">
-        <v>4147670</v>
+        <v>4147665</v>
       </c>
       <c r="C187">
         <v>138561</v>
@@ -15677,7 +15710,7 @@
         <v>192</v>
       </c>
       <c r="B188">
-        <v>4207793</v>
+        <v>4207788</v>
       </c>
       <c r="C188">
         <v>139121</v>
@@ -15697,7 +15730,7 @@
         <v>193</v>
       </c>
       <c r="B189">
-        <v>4262807</v>
+        <v>4262801</v>
       </c>
       <c r="C189">
         <v>140186</v>
@@ -15717,7 +15750,7 @@
         <v>194</v>
       </c>
       <c r="B190">
-        <v>4321791</v>
+        <v>4321785</v>
       </c>
       <c r="C190">
         <v>141314</v>
@@ -15737,7 +15770,7 @@
         <v>195</v>
       </c>
       <c r="B191">
-        <v>4385732</v>
+        <v>4385726</v>
       </c>
       <c r="C191">
         <v>142805</v>
@@ -15757,7 +15790,7 @@
         <v>196</v>
       </c>
       <c r="B192">
-        <v>4454538</v>
+        <v>4454531</v>
       </c>
       <c r="C192">
         <v>144053</v>
@@ -15777,7 +15810,7 @@
         <v>197</v>
       </c>
       <c r="B193">
-        <v>4522068</v>
+        <v>4522061</v>
       </c>
       <c r="C193">
         <v>145366</v>
@@ -15797,7 +15830,7 @@
         <v>198</v>
       </c>
       <c r="B194">
-        <v>4582313</v>
+        <v>4582306</v>
       </c>
       <c r="C194">
         <v>146558</v>
@@ -15817,7 +15850,7 @@
         <v>199</v>
       </c>
       <c r="B195">
-        <v>4628823</v>
+        <v>4628817</v>
       </c>
       <c r="C195">
         <v>147052</v>
@@ -15837,7 +15870,7 @@
         <v>200</v>
       </c>
       <c r="B196">
-        <v>4678171</v>
+        <v>4678165</v>
       </c>
       <c r="C196">
         <v>147588</v>
@@ -15857,7 +15890,7 @@
         <v>201</v>
       </c>
       <c r="B197">
-        <v>4729986</v>
+        <v>4729980</v>
       </c>
       <c r="C197">
         <v>148827</v>
@@ -15877,7 +15910,7 @@
         <v>202</v>
       </c>
       <c r="B198">
-        <v>4782450</v>
+        <v>4782444</v>
       </c>
       <c r="C198">
         <v>150187</v>
@@ -15897,7 +15930,7 @@
         <v>203</v>
       </c>
       <c r="B199">
-        <v>4836253</v>
+        <v>4836247</v>
       </c>
       <c r="C199">
         <v>151435</v>
@@ -15917,7 +15950,7 @@
         <v>204</v>
       </c>
       <c r="B200">
-        <v>4897089</v>
+        <v>4897083</v>
       </c>
       <c r="C200">
         <v>152768</v>
@@ -15937,7 +15970,7 @@
         <v>205</v>
       </c>
       <c r="B201">
-        <v>4950173</v>
+        <v>4950166</v>
       </c>
       <c r="C201">
         <v>153852</v>
@@ -15957,7 +15990,7 @@
         <v>206</v>
       </c>
       <c r="B202">
-        <v>5000326</v>
+        <v>5000319</v>
       </c>
       <c r="C202">
         <v>154466</v>
@@ -15977,7 +16010,7 @@
         <v>207</v>
       </c>
       <c r="B203">
-        <v>5042069</v>
+        <v>5042062</v>
       </c>
       <c r="C203">
         <v>154901</v>
@@ -15997,7 +16030,7 @@
         <v>208</v>
       </c>
       <c r="B204">
-        <v>5097499</v>
+        <v>5097490</v>
       </c>
       <c r="C204">
         <v>156224</v>
@@ -16017,7 +16050,7 @@
         <v>209</v>
       </c>
       <c r="B205">
-        <v>5153393</v>
+        <v>5153384</v>
       </c>
       <c r="C205">
         <v>157742</v>
@@ -16037,7 +16070,7 @@
         <v>210</v>
       </c>
       <c r="B206">
-        <v>5205014</v>
+        <v>5205005</v>
       </c>
       <c r="C206">
         <v>158906</v>
@@ -16057,7 +16090,7 @@
         <v>211</v>
       </c>
       <c r="B207">
-        <v>5262107</v>
+        <v>5262098</v>
       </c>
       <c r="C207">
         <v>160125</v>
@@ -16077,7 +16110,7 @@
         <v>212</v>
       </c>
       <c r="B208">
-        <v>5317917</v>
+        <v>5317908</v>
       </c>
       <c r="C208">
         <v>161343</v>
@@ -16097,7 +16130,7 @@
         <v>213</v>
       </c>
       <c r="B209">
-        <v>5360239</v>
+        <v>5360230</v>
       </c>
       <c r="C209">
         <v>161961</v>
@@ -16117,7 +16150,7 @@
         <v>214</v>
       </c>
       <c r="B210">
-        <v>5397650</v>
+        <v>5397641</v>
       </c>
       <c r="C210">
         <v>162380</v>
@@ -16137,7 +16170,7 @@
         <v>215</v>
       </c>
       <c r="B211">
-        <v>5438142</v>
+        <v>5438132</v>
       </c>
       <c r="C211">
         <v>163575</v>
@@ -16157,7 +16190,7 @@
         <v>216</v>
       </c>
       <c r="B212">
-        <v>5483024</v>
+        <v>5483014</v>
       </c>
       <c r="C212">
         <v>164999</v>
@@ -16177,7 +16210,7 @@
         <v>217</v>
       </c>
       <c r="B213">
-        <v>5526747</v>
+        <v>5526737</v>
       </c>
       <c r="C213">
         <v>166133</v>
@@ -16197,7 +16230,7 @@
         <v>218</v>
       </c>
       <c r="B214">
-        <v>5572942</v>
+        <v>5572932</v>
       </c>
       <c r="C214">
         <v>167243</v>
@@ -16217,7 +16250,7 @@
         <v>219</v>
       </c>
       <c r="B215">
-        <v>5618664</v>
+        <v>5618654</v>
       </c>
       <c r="C215">
         <v>168271</v>
@@ -16237,7 +16270,7 @@
         <v>220</v>
       </c>
       <c r="B216">
-        <v>5655989</v>
+        <v>5655978</v>
       </c>
       <c r="C216">
         <v>168845</v>
@@ -16257,7 +16290,7 @@
         <v>221</v>
       </c>
       <c r="B217">
-        <v>5690238</v>
+        <v>5690227</v>
       </c>
       <c r="C217">
         <v>169197</v>
@@ -16277,7 +16310,7 @@
         <v>222</v>
       </c>
       <c r="B218">
-        <v>5726826</v>
+        <v>5726814</v>
       </c>
       <c r="C218">
         <v>170337</v>
@@ -16297,7 +16330,7 @@
         <v>223</v>
       </c>
       <c r="B219">
-        <v>5770453</v>
+        <v>5770440</v>
       </c>
       <c r="C219">
         <v>171642</v>
@@ -16317,7 +16350,7 @@
         <v>224</v>
       </c>
       <c r="B220">
-        <v>5814369</v>
+        <v>5814355</v>
       </c>
       <c r="C220">
         <v>172766</v>
@@ -16337,7 +16370,7 @@
         <v>225</v>
       </c>
       <c r="B221">
-        <v>5860495</v>
+        <v>5860476</v>
       </c>
       <c r="C221">
         <v>173792</v>
@@ -16357,7 +16390,7 @@
         <v>226</v>
       </c>
       <c r="B222">
-        <v>5904458</v>
+        <v>5904438</v>
       </c>
       <c r="C222">
         <v>174800</v>
@@ -16377,7 +16410,7 @@
         <v>227</v>
       </c>
       <c r="B223">
-        <v>5943743</v>
+        <v>5943723</v>
       </c>
       <c r="C223">
         <v>175274</v>
@@ -16397,7 +16430,7 @@
         <v>228</v>
       </c>
       <c r="B224">
-        <v>5975013</v>
+        <v>5974993</v>
       </c>
       <c r="C224">
         <v>175656</v>
@@ -16417,7 +16450,7 @@
         <v>229</v>
       </c>
       <c r="B225">
-        <v>6017434</v>
+        <v>6017412</v>
       </c>
       <c r="C225">
         <v>176678</v>
@@ -16437,7 +16470,7 @@
         <v>230</v>
       </c>
       <c r="B226">
-        <v>6047651</v>
+        <v>6047628</v>
       </c>
       <c r="C226">
         <v>177704</v>
@@ -16457,7 +16490,7 @@
         <v>231</v>
       </c>
       <c r="B227">
-        <v>6092272</v>
+        <v>6092249</v>
       </c>
       <c r="C227">
         <v>178780</v>
@@ -16477,7 +16510,7 @@
         <v>232</v>
       </c>
       <c r="B228">
-        <v>6143785</v>
+        <v>6143760</v>
       </c>
       <c r="C228">
         <v>179776</v>
@@ -16497,7 +16530,7 @@
         <v>233</v>
       </c>
       <c r="B229">
-        <v>6188529</v>
+        <v>6188503</v>
       </c>
       <c r="C229">
         <v>180697</v>
@@ -16517,7 +16550,7 @@
         <v>234</v>
       </c>
       <c r="B230">
-        <v>6221450</v>
+        <v>6221423</v>
       </c>
       <c r="C230">
         <v>181144</v>
@@ -16537,7 +16570,7 @@
         <v>235</v>
       </c>
       <c r="B231">
-        <v>6249594</v>
+        <v>6249565</v>
       </c>
       <c r="C231">
         <v>181370</v>
@@ -16557,7 +16590,7 @@
         <v>236</v>
       </c>
       <c r="B232">
-        <v>6271730</v>
+        <v>6271700</v>
       </c>
       <c r="C232">
         <v>181722</v>
@@ -16577,7 +16610,7 @@
         <v>237</v>
       </c>
       <c r="B233">
-        <v>6302903</v>
+        <v>6302871</v>
       </c>
       <c r="C233">
         <v>182824</v>
@@ -16597,7 +16630,7 @@
         <v>238</v>
       </c>
       <c r="B234">
-        <v>6340205</v>
+        <v>6340175</v>
       </c>
       <c r="C234">
         <v>183985</v>
@@ -16617,7 +16650,7 @@
         <v>239</v>
       </c>
       <c r="B235">
-        <v>6384889</v>
+        <v>6384859</v>
       </c>
       <c r="C235">
         <v>184993</v>
@@ -16637,7 +16670,7 @@
         <v>240</v>
       </c>
       <c r="B236">
-        <v>6426755</v>
+        <v>6426724</v>
       </c>
       <c r="C236">
         <v>185811</v>
@@ -16657,7 +16690,7 @@
         <v>241</v>
       </c>
       <c r="B237">
-        <v>6461066</v>
+        <v>6461038</v>
       </c>
       <c r="C237">
         <v>186201</v>
@@ -16677,7 +16710,7 @@
         <v>242</v>
       </c>
       <c r="B238">
-        <v>6494686</v>
+        <v>6494656</v>
       </c>
       <c r="C238">
         <v>186609</v>
@@ -16697,7 +16730,7 @@
         <v>243</v>
       </c>
       <c r="B239">
-        <v>6529591</v>
+        <v>6529560</v>
       </c>
       <c r="C239">
         <v>187654</v>
@@ -16717,7 +16750,7 @@
         <v>244</v>
       </c>
       <c r="B240">
-        <v>6569703</v>
+        <v>6569668</v>
       </c>
       <c r="C240">
         <v>188832</v>
@@ -16737,7 +16770,7 @@
         <v>245</v>
       </c>
       <c r="B241">
-        <v>6612992</v>
+        <v>6612959</v>
       </c>
       <c r="C241">
         <v>189712</v>
@@ -16757,7 +16790,7 @@
         <v>246</v>
       </c>
       <c r="B242">
-        <v>6660244</v>
+        <v>6660209</v>
       </c>
       <c r="C242">
         <v>190612</v>
@@ -16777,7 +16810,7 @@
         <v>247</v>
       </c>
       <c r="B243">
-        <v>6705149</v>
+        <v>6705115</v>
       </c>
       <c r="C243">
         <v>191359</v>
@@ -16797,7 +16830,7 @@
         <v>248</v>
       </c>
       <c r="B244">
-        <v>6740652</v>
+        <v>6740619</v>
       </c>
       <c r="C244">
         <v>191682</v>
@@ -16817,7 +16850,7 @@
         <v>249</v>
       </c>
       <c r="B245">
-        <v>6779791</v>
+        <v>6779756</v>
       </c>
       <c r="C245">
         <v>191962</v>
@@ -16837,7 +16870,7 @@
         <v>250</v>
       </c>
       <c r="B246">
-        <v>6829266</v>
+        <v>6829231</v>
       </c>
       <c r="C246">
         <v>192826</v>
@@ -16857,7 +16890,7 @@
         <v>251</v>
       </c>
       <c r="B247">
-        <v>6867886</v>
+        <v>6867850</v>
       </c>
       <c r="C247">
         <v>193980</v>
@@ -16877,7 +16910,7 @@
         <v>252</v>
       </c>
       <c r="B248">
-        <v>6911232</v>
+        <v>6911193</v>
       </c>
       <c r="C248">
         <v>194919</v>
@@ -16897,7 +16930,7 @@
         <v>253</v>
       </c>
       <c r="B249">
-        <v>6966421</v>
+        <v>6966379</v>
       </c>
       <c r="C249">
         <v>195769</v>
@@ -16917,7 +16950,7 @@
         <v>254</v>
       </c>
       <c r="B250">
-        <v>7013826</v>
+        <v>7013786</v>
       </c>
       <c r="C250">
         <v>196640</v>
@@ -16937,7 +16970,7 @@
         <v>255</v>
       </c>
       <c r="B251">
-        <v>7048812</v>
+        <v>7048769</v>
       </c>
       <c r="C251">
         <v>196946</v>
@@ -16957,7 +16990,7 @@
         <v>256</v>
       </c>
       <c r="B252">
-        <v>7084695</v>
+        <v>7084652</v>
       </c>
       <c r="C252">
         <v>197193</v>
@@ -16977,7 +17010,7 @@
         <v>257</v>
       </c>
       <c r="B253">
-        <v>7121136</v>
+        <v>7121094</v>
       </c>
       <c r="C253">
         <v>197930</v>
@@ -16997,7 +17030,7 @@
         <v>258</v>
       </c>
       <c r="B254">
-        <v>7165483</v>
+        <v>7165440</v>
       </c>
       <c r="C254">
         <v>198993</v>
@@ -17017,7 +17050,7 @@
         <v>259</v>
       </c>
       <c r="B255">
-        <v>7211088</v>
+        <v>7211040</v>
       </c>
       <c r="C255">
         <v>199851</v>
@@ -17037,7 +17070,7 @@
         <v>260</v>
       </c>
       <c r="B256">
-        <v>7260346</v>
+        <v>7260293</v>
       </c>
       <c r="C256">
         <v>200698</v>
@@ -17057,7 +17090,7 @@
         <v>261</v>
       </c>
       <c r="B257">
-        <v>7311280</v>
+        <v>7311230</v>
       </c>
       <c r="C257">
         <v>201438</v>
@@ -17077,7 +17110,7 @@
         <v>262</v>
       </c>
       <c r="B258">
-        <v>7349267</v>
+        <v>7349212</v>
       </c>
       <c r="C258">
         <v>201803</v>
@@ -17097,7 +17130,7 @@
         <v>263</v>
       </c>
       <c r="B259">
-        <v>7387024</v>
+        <v>7386968</v>
       </c>
       <c r="C259">
         <v>202147</v>
@@ -17117,7 +17150,7 @@
         <v>264</v>
       </c>
       <c r="B260">
-        <v>7425941</v>
+        <v>7425885</v>
       </c>
       <c r="C260">
         <v>202757</v>
@@ -17137,7 +17170,7 @@
         <v>265</v>
       </c>
       <c r="B261">
-        <v>7476532</v>
+        <v>7476473</v>
       </c>
       <c r="C261">
         <v>203682</v>
@@ -17157,7 +17190,7 @@
         <v>266</v>
       </c>
       <c r="B262">
-        <v>7531740</v>
+        <v>7531677</v>
       </c>
       <c r="C262">
         <v>204667</v>
@@ -17177,7 +17210,7 @@
         <v>267</v>
       </c>
       <c r="B263">
-        <v>7588542</v>
+        <v>7588467</v>
       </c>
       <c r="C263">
         <v>205565</v>
@@ -17197,7 +17230,7 @@
         <v>268</v>
       </c>
       <c r="B264">
-        <v>7645956</v>
+        <v>7645891</v>
       </c>
       <c r="C264">
         <v>206246</v>
@@ -17217,7 +17250,7 @@
         <v>269</v>
       </c>
       <c r="B265">
-        <v>7692224</v>
+        <v>7692159</v>
       </c>
       <c r="C265">
         <v>206714</v>
@@ -17237,7 +17270,7 @@
         <v>270</v>
       </c>
       <c r="B266">
-        <v>7734868</v>
+        <v>7734804</v>
       </c>
       <c r="C266">
         <v>206996</v>
@@ -17257,7 +17290,7 @@
         <v>271</v>
       </c>
       <c r="B267">
-        <v>7783462</v>
+        <v>7783380</v>
       </c>
       <c r="C267">
         <v>207694</v>
@@ -17277,7 +17310,7 @@
         <v>272</v>
       </c>
       <c r="B268">
-        <v>7839579</v>
+        <v>7839458</v>
       </c>
       <c r="C268">
         <v>208501</v>
@@ -17297,7 +17330,7 @@
         <v>273</v>
       </c>
       <c r="B269">
-        <v>7902973</v>
+        <v>7902842</v>
       </c>
       <c r="C269">
         <v>209431</v>
@@ -17317,7 +17350,7 @@
         <v>274</v>
       </c>
       <c r="B270">
-        <v>7971222</v>
+        <v>7971107</v>
       </c>
       <c r="C270">
         <v>210328</v>
@@ -17337,7 +17370,7 @@
         <v>275</v>
       </c>
       <c r="B271">
-        <v>8028550</v>
+        <v>8028462</v>
       </c>
       <c r="C271">
         <v>211101</v>
@@ -17357,7 +17390,7 @@
         <v>276</v>
       </c>
       <c r="B272">
-        <v>8076834</v>
+        <v>8076742</v>
       </c>
       <c r="C272">
         <v>211503</v>
@@ -17377,7 +17410,7 @@
         <v>277</v>
       </c>
       <c r="B273">
-        <v>8133943</v>
+        <v>8133850</v>
       </c>
       <c r="C273">
         <v>211959</v>
@@ -17397,7 +17430,7 @@
         <v>278</v>
       </c>
       <c r="B274">
-        <v>8194492</v>
+        <v>8194419</v>
       </c>
       <c r="C274">
         <v>212796</v>
@@ -17417,7 +17450,7 @@
         <v>279</v>
       </c>
       <c r="B275">
-        <v>8255450</v>
+        <v>8255399</v>
       </c>
       <c r="C275">
         <v>213815</v>
@@ -17437,7 +17470,7 @@
         <v>280</v>
       </c>
       <c r="B276">
-        <v>8328292</v>
+        <v>8328402</v>
       </c>
       <c r="C276">
         <v>214941</v>
@@ -17457,7 +17490,7 @@
         <v>281</v>
       </c>
       <c r="B277">
-        <v>8410625</v>
+        <v>8410744</v>
       </c>
       <c r="C277">
         <v>215875</v>
@@ -17477,7 +17510,7 @@
         <v>282</v>
       </c>
       <c r="B278">
-        <v>8493912</v>
+        <v>8494063</v>
       </c>
       <c r="C278">
         <v>216765</v>
@@ -17497,7 +17530,7 @@
         <v>283</v>
       </c>
       <c r="B279">
-        <v>8558805</v>
+        <v>8558960</v>
       </c>
       <c r="C279">
         <v>217147</v>
@@ -17517,7 +17550,7 @@
         <v>284</v>
       </c>
       <c r="B280">
-        <v>8621330</v>
+        <v>8621495</v>
       </c>
       <c r="C280">
         <v>217549</v>
@@ -17537,7 +17570,7 @@
         <v>285</v>
       </c>
       <c r="B281">
-        <v>8693413</v>
+        <v>8693592</v>
       </c>
       <c r="C281">
         <v>218468</v>
@@ -17557,7 +17590,7 @@
         <v>286</v>
       </c>
       <c r="B282">
-        <v>8772165</v>
+        <v>8772385</v>
       </c>
       <c r="C282">
         <v>219512</v>
@@ -17577,7 +17610,7 @@
         <v>287</v>
       </c>
       <c r="B283">
-        <v>8860888</v>
+        <v>8861113</v>
       </c>
       <c r="C283">
         <v>220549</v>
@@ -17597,7 +17630,7 @@
         <v>288</v>
       </c>
       <c r="B284">
-        <v>8958126</v>
+        <v>8958376</v>
       </c>
       <c r="C284">
         <v>221496</v>
@@ -17617,7 +17650,7 @@
         <v>289</v>
       </c>
       <c r="B285">
-        <v>9048711</v>
+        <v>9048989</v>
       </c>
       <c r="C285">
         <v>222459</v>
@@ -17637,7 +17670,7 @@
         <v>290</v>
       </c>
       <c r="B286">
-        <v>9122560</v>
+        <v>9122861</v>
       </c>
       <c r="C286">
         <v>222854</v>
@@ -17657,7 +17690,7 @@
         <v>291</v>
       </c>
       <c r="B287">
-        <v>9204607</v>
+        <v>9204903</v>
       </c>
       <c r="C287">
         <v>223345</v>
@@ -17677,7 +17710,7 @@
         <v>292</v>
       </c>
       <c r="B288">
-        <v>9291273</v>
+        <v>9291618</v>
       </c>
       <c r="C288">
         <v>224859</v>
@@ -17697,7 +17730,7 @@
         <v>293</v>
       </c>
       <c r="B289">
-        <v>9394578</v>
+        <v>9394981</v>
       </c>
       <c r="C289">
         <v>225976</v>
@@ -17717,7 +17750,7 @@
         <v>294</v>
       </c>
       <c r="B290">
-        <v>9511021</v>
+        <v>9511460</v>
       </c>
       <c r="C290">
         <v>227122</v>
@@ -17737,7 +17770,7 @@
         <v>295</v>
       </c>
       <c r="B291">
-        <v>9636779</v>
+        <v>9637258</v>
       </c>
       <c r="C291">
         <v>228295</v>
@@ -17757,7 +17790,7 @@
         <v>296</v>
       </c>
       <c r="B292">
-        <v>9766001</v>
+        <v>9766524</v>
       </c>
       <c r="C292">
         <v>229414</v>
@@ -17777,7 +17810,7 @@
         <v>297</v>
       </c>
       <c r="B293">
-        <v>9876291</v>
+        <v>9876830</v>
       </c>
       <c r="C293">
         <v>229910</v>
@@ -17797,7 +17830,7 @@
         <v>298</v>
       </c>
       <c r="B294">
-        <v>9995725</v>
+        <v>9996264</v>
       </c>
       <c r="C294">
         <v>230487</v>
@@ -17817,7 +17850,7 @@
         <v>299</v>
       </c>
       <c r="B295">
-        <v>10126912</v>
+        <v>10127514</v>
       </c>
       <c r="C295">
         <v>231847</v>
@@ -17837,7 +17870,7 @@
         <v>300</v>
       </c>
       <c r="B296">
-        <v>10271729</v>
+        <v>10272396</v>
       </c>
       <c r="C296">
         <v>233410</v>
@@ -17857,7 +17890,7 @@
         <v>301</v>
       </c>
       <c r="B297">
-        <v>10423741</v>
+        <v>10424443</v>
       </c>
       <c r="C297">
         <v>234529</v>
@@ -17877,7 +17910,7 @@
         <v>302</v>
       </c>
       <c r="B298">
-        <v>10595857</v>
+        <v>10596620</v>
       </c>
       <c r="C298">
         <v>235797</v>
@@ -17897,7 +17930,7 @@
         <v>303</v>
       </c>
       <c r="B299">
-        <v>10759395</v>
+        <v>10760217</v>
       </c>
       <c r="C299">
         <v>237128</v>
@@ -17917,7 +17950,7 @@
         <v>304</v>
       </c>
       <c r="B300">
-        <v>10903827</v>
+        <v>10904685</v>
       </c>
       <c r="C300">
         <v>237815</v>
@@ -17937,7 +17970,7 @@
         <v>305</v>
       </c>
       <c r="B301">
-        <v>11052700</v>
+        <v>11053553</v>
       </c>
       <c r="C301">
         <v>238434</v>
@@ -17957,7 +17990,7 @@
         <v>306</v>
       </c>
       <c r="B302">
-        <v>11209432</v>
+        <v>11210332</v>
       </c>
       <c r="C302">
         <v>239989</v>
@@ -17977,7 +18010,7 @@
         <v>307</v>
       </c>
       <c r="B303">
-        <v>11373404</v>
+        <v>11374382</v>
       </c>
       <c r="C303">
         <v>241853</v>
@@ -17997,7 +18030,7 @@
         <v>308</v>
       </c>
       <c r="B304">
-        <v>11556239</v>
+        <v>11557285</v>
       </c>
       <c r="C304">
         <v>243820</v>
@@ -18017,7 +18050,7 @@
         <v>309</v>
       </c>
       <c r="B305">
-        <v>11749039</v>
+        <v>11750115</v>
       </c>
       <c r="C305">
         <v>245704</v>
@@ -18037,7 +18070,7 @@
         <v>310</v>
       </c>
       <c r="B306">
-        <v>11928754</v>
+        <v>11929878</v>
       </c>
       <c r="C306">
         <v>247216</v>
@@ -18057,7 +18090,7 @@
         <v>311</v>
       </c>
       <c r="B307">
-        <v>12079595</v>
+        <v>12080756</v>
       </c>
       <c r="C307">
         <v>248114</v>
@@ -18077,7 +18110,7 @@
         <v>312</v>
       </c>
       <c r="B308">
-        <v>12230553</v>
+        <v>12231712</v>
       </c>
       <c r="C308">
         <v>249069</v>
@@ -18097,7 +18130,7 @@
         <v>313</v>
       </c>
       <c r="B309">
-        <v>12397567</v>
+        <v>12398788</v>
       </c>
       <c r="C309">
         <v>251135</v>
@@ -18117,7 +18150,7 @@
         <v>314</v>
       </c>
       <c r="B310">
-        <v>12581196</v>
+        <v>12582524</v>
       </c>
       <c r="C310">
         <v>253424</v>
@@ -18137,7 +18170,7 @@
         <v>315</v>
       </c>
       <c r="B311">
-        <v>12707531</v>
+        <v>12708902</v>
       </c>
       <c r="C311">
         <v>254760</v>
@@ -18157,7 +18190,7 @@
         <v>316</v>
       </c>
       <c r="B312">
-        <v>12901256</v>
+        <v>12902588</v>
       </c>
       <c r="C312">
         <v>256132</v>
@@ -18177,7 +18210,7 @@
         <v>317</v>
       </c>
       <c r="B313">
-        <v>13055778</v>
+        <v>13057202</v>
       </c>
       <c r="C313">
         <v>257377</v>
@@ -18197,7 +18230,7 @@
         <v>318</v>
       </c>
       <c r="B314">
-        <v>13191020</v>
+        <v>13192446</v>
       </c>
       <c r="C314">
         <v>258180</v>
@@ -18217,7 +18250,7 @@
         <v>319</v>
       </c>
       <c r="B315">
-        <v>13338607</v>
+        <v>13340034</v>
       </c>
       <c r="C315">
         <v>259316</v>
@@ -18237,7 +18270,7 @@
         <v>320</v>
       </c>
       <c r="B316">
-        <v>13515360</v>
+        <v>13516850</v>
       </c>
       <c r="C316">
         <v>261789</v>
@@ -18257,7 +18290,7 @@
         <v>321</v>
       </c>
       <c r="B317">
-        <v>13711156</v>
+        <v>13712717</v>
       </c>
       <c r="C317">
         <v>264522</v>
@@ -18277,7 +18310,7 @@
         <v>322</v>
       </c>
       <c r="B318">
-        <v>13921360</v>
+        <v>13922968</v>
       </c>
       <c r="C318">
         <v>267228</v>
@@ -18297,7 +18330,7 @@
         <v>323</v>
       </c>
       <c r="B319">
-        <v>14146191</v>
+        <v>14147846</v>
       </c>
       <c r="C319">
         <v>269791</v>
@@ -18317,7 +18350,7 @@
         <v>324</v>
       </c>
       <c r="B320">
-        <v>14359071</v>
+        <v>14360786</v>
       </c>
       <c r="C320">
         <v>272252</v>
@@ -18337,7 +18370,7 @@
         <v>325</v>
       </c>
       <c r="B321">
-        <v>14536872</v>
+        <v>14538598</v>
       </c>
       <c r="C321">
         <v>273398</v>
@@ -18357,7 +18390,7 @@
         <v>326</v>
       </c>
       <c r="B322">
-        <v>14717065</v>
+        <v>14718817</v>
       </c>
       <c r="C322">
         <v>274745</v>
@@ -18377,7 +18410,7 @@
         <v>327</v>
       </c>
       <c r="B323">
-        <v>14931818</v>
+        <v>14934152</v>
       </c>
       <c r="C323">
         <v>277400</v>
@@ -18403,13 +18436,33 @@
         <v>280488</v>
       </c>
       <c r="D324">
-        <v>106671</v>
+        <v>106705</v>
       </c>
       <c r="E324">
-        <v>20903</v>
+        <v>20906</v>
       </c>
       <c r="F324">
-        <v>7621</v>
+        <v>7624</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>329</v>
+      </c>
+      <c r="B325">
+        <v>15360841</v>
+      </c>
+      <c r="C325">
+        <v>283555</v>
+      </c>
+      <c r="D325">
+        <v>107258</v>
+      </c>
+      <c r="E325">
+        <v>21023</v>
+      </c>
+      <c r="F325">
+        <v>7442</v>
       </c>
     </row>
   </sheetData>

--- a/covid19/data/USCaseDeathBeds.xlsx
+++ b/covid19/data/USCaseDeathBeds.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EE73A4-7F8A-489B-A5A6-9E1BD5A7BD4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDBA4FB-F480-4820-A8BF-C3FE0B5772BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="0" windowWidth="19440" windowHeight="15360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Deaths" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$325</definedName>
+    <definedName name="howe_hp_howehp_Covid19_CaseDeathsBeds" localSheetId="0" hidden="1">Data!$A$1:$F$326</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="331">
   <si>
     <t>date</t>
   </si>
@@ -1021,6 +1021,9 @@
   </si>
   <si>
     <t>2020-12-10</t>
+  </si>
+  <si>
+    <t>2020-12-11</t>
   </si>
 </sst>
 </file>
@@ -1109,9 +1112,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$325</c:f>
+              <c:f>Data!$A$2:$A$326</c:f>
               <c:strCache>
-                <c:ptCount val="324"/>
+                <c:ptCount val="325"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -2083,16 +2086,19 @@
                 </c:pt>
                 <c:pt idx="323">
                   <c:v>2020-12-10</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>2020-12-11</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$325</c:f>
+              <c:f>Data!$B$2:$B$326</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="324"/>
+                <c:ptCount val="325"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3064,6 +3070,9 @@
                 </c:pt>
                 <c:pt idx="323">
                   <c:v>15360841</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>15592946</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3172,9 +3181,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$325</c:f>
+              <c:f>Data!$A$2:$A$326</c:f>
               <c:strCache>
-                <c:ptCount val="324"/>
+                <c:ptCount val="325"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -4146,16 +4155,19 @@
                 </c:pt>
                 <c:pt idx="323">
                   <c:v>2020-12-10</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>2020-12-11</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$2:$D$325</c:f>
+              <c:f>Data!$D$2:$D$326</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="324"/>
+                <c:ptCount val="325"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5120,13 +5132,16 @@
                   <c:v>102148</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>104590</c:v>
+                  <c:v>104623</c:v>
                 </c:pt>
                 <c:pt idx="322">
                   <c:v>106705</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>107258</c:v>
+                  <c:v>107276</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>108108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5235,9 +5250,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$325</c:f>
+              <c:f>Data!$A$2:$A$326</c:f>
               <c:strCache>
-                <c:ptCount val="324"/>
+                <c:ptCount val="325"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -6209,16 +6224,19 @@
                 </c:pt>
                 <c:pt idx="323">
                   <c:v>2020-12-10</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>2020-12-11</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$E$2:$E$325</c:f>
+              <c:f>Data!$E$2:$E$326</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="324"/>
+                <c:ptCount val="325"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7190,6 +7208,9 @@
                 </c:pt>
                 <c:pt idx="323">
                   <c:v>21023</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>21010</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7298,9 +7319,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$325</c:f>
+              <c:f>Data!$A$2:$A$326</c:f>
               <c:strCache>
-                <c:ptCount val="324"/>
+                <c:ptCount val="325"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -8272,16 +8293,19 @@
                 </c:pt>
                 <c:pt idx="323">
                   <c:v>2020-12-10</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>2020-12-11</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$F$2:$F$325</c:f>
+              <c:f>Data!$F$2:$F$326</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="324"/>
+                <c:ptCount val="325"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9253,6 +9277,9 @@
                 </c:pt>
                 <c:pt idx="323">
                   <c:v>7442</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>7489</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9361,9 +9388,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Data!$A$2:$A$325</c:f>
+              <c:f>Data!$A$2:$A$326</c:f>
               <c:strCache>
-                <c:ptCount val="324"/>
+                <c:ptCount val="325"/>
                 <c:pt idx="0">
                   <c:v>2020-01-22</c:v>
                 </c:pt>
@@ -10335,16 +10362,19 @@
                 </c:pt>
                 <c:pt idx="323">
                   <c:v>2020-12-10</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>2020-12-11</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$325</c:f>
+              <c:f>Data!$C$2:$C$326</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="324"/>
+                <c:ptCount val="325"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10688,634 +10718,637 @@
                   <c:v>82626</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>83889</c:v>
+                  <c:v>84161</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>85084</c:v>
+                  <c:v>85398</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>85934</c:v>
+                  <c:v>86271</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>86823</c:v>
+                  <c:v>87126</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>88155</c:v>
+                  <c:v>88444</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>89545</c:v>
+                  <c:v>89843</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>90972</c:v>
+                  <c:v>91220</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>92275</c:v>
+                  <c:v>92511</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>93310</c:v>
+                  <c:v>93549</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>93994</c:v>
+                  <c:v>94238</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>94548</c:v>
+                  <c:v>94793</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>95220</c:v>
+                  <c:v>95458</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>96536</c:v>
+                  <c:v>96793</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>97778</c:v>
+                  <c:v>98031</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>98947</c:v>
+                  <c:v>99202</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>99865</c:v>
+                  <c:v>100127</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>100516</c:v>
+                  <c:v>100780</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>101187</c:v>
+                  <c:v>101460</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>102187</c:v>
+                  <c:v>102433</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>103167</c:v>
+                  <c:v>103407</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>104031</c:v>
+                  <c:v>104288</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>104875</c:v>
+                  <c:v>105125</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>105586</c:v>
+                  <c:v>105839</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>106032</c:v>
+                  <c:v>106285</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>106708</c:v>
+                  <c:v>106959</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>107609</c:v>
+                  <c:v>107850</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>108493</c:v>
+                  <c:v>108738</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>109392</c:v>
+                  <c:v>109636</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>110155</c:v>
+                  <c:v>110402</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>110845</c:v>
+                  <c:v>111095</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>111200</c:v>
+                  <c:v>111451</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>111606</c:v>
+                  <c:v>111838</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>112312</c:v>
+                  <c:v>112556</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>113106</c:v>
+                  <c:v>113335</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>113799</c:v>
+                  <c:v>114020</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>114455</c:v>
+                  <c:v>114669</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>115066</c:v>
+                  <c:v>115284</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>115359</c:v>
+                  <c:v>115577</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>115653</c:v>
+                  <c:v>115866</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>116378</c:v>
+                  <c:v>116588</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>117085</c:v>
+                  <c:v>117295</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>117748</c:v>
+                  <c:v>117942</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>118372</c:v>
+                  <c:v>118563</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>118874</c:v>
+                  <c:v>119066</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>119145</c:v>
+                  <c:v>119339</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>119503</c:v>
+                  <c:v>119677</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>120087</c:v>
+                  <c:v>120257</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>120776</c:v>
+                  <c:v>120953</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>121472</c:v>
+                  <c:v>121652</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>122074</c:v>
+                  <c:v>122254</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>122374</c:v>
+                  <c:v>122554</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>122581</c:v>
+                  <c:v>122761</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>122847</c:v>
+                  <c:v>122996</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>123752</c:v>
+                  <c:v>123906</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>124564</c:v>
+                  <c:v>124724</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>125464</c:v>
+                  <c:v>125589</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>126286</c:v>
+                  <c:v>126424</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>127038</c:v>
+                  <c:v>127177</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>127512</c:v>
+                  <c:v>127651</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>127843</c:v>
+                  <c:v>127981</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>128582</c:v>
+                  <c:v>128726</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>129442</c:v>
+                  <c:v>129585</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>130395</c:v>
+                  <c:v>130525</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>131331</c:v>
+                  <c:v>131467</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>132204</c:v>
+                  <c:v>132341</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>132731</c:v>
+                  <c:v>132868</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>133100</c:v>
+                  <c:v>133243</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>134169</c:v>
+                  <c:v>134289</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>135303</c:v>
+                  <c:v>135431</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>136364</c:v>
+                  <c:v>136505</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>137556</c:v>
+                  <c:v>137685</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>138561</c:v>
+                  <c:v>138694</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>139121</c:v>
+                  <c:v>139254</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>140186</c:v>
+                  <c:v>140317</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>141314</c:v>
+                  <c:v>141442</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>142805</c:v>
+                  <c:v>142939</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>144053</c:v>
+                  <c:v>144184</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>145366</c:v>
+                  <c:v>145513</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>146558</c:v>
+                  <c:v>146711</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>147052</c:v>
+                  <c:v>147205</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>147588</c:v>
+                  <c:v>147722</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>148827</c:v>
+                  <c:v>148966</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>150187</c:v>
+                  <c:v>150321</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>151435</c:v>
+                  <c:v>151558</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>152768</c:v>
+                  <c:v>152889</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>153852</c:v>
+                  <c:v>153973</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>154466</c:v>
+                  <c:v>154588</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>154901</c:v>
+                  <c:v>155018</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>156224</c:v>
+                  <c:v>156348</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>157742</c:v>
+                  <c:v>157861</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>158906</c:v>
+                  <c:v>159025</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>160125</c:v>
+                  <c:v>160245</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>161343</c:v>
+                  <c:v>161471</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>161961</c:v>
+                  <c:v>162089</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>162380</c:v>
+                  <c:v>162498</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>163575</c:v>
+                  <c:v>163686</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>164999</c:v>
+                  <c:v>165099</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>166133</c:v>
+                  <c:v>166221</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>167243</c:v>
+                  <c:v>167338</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>168271</c:v>
+                  <c:v>168374</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>168845</c:v>
+                  <c:v>168948</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>169197</c:v>
+                  <c:v>169292</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>170337</c:v>
+                  <c:v>170437</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>171642</c:v>
+                  <c:v>171734</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>172766</c:v>
+                  <c:v>172862</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>173792</c:v>
+                  <c:v>173886</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>174800</c:v>
+                  <c:v>174901</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>175274</c:v>
+                  <c:v>175375</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>175656</c:v>
+                  <c:v>175752</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>176678</c:v>
+                  <c:v>176771</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>177704</c:v>
+                  <c:v>177803</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>178780</c:v>
+                  <c:v>178874</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>179776</c:v>
+                  <c:v>179876</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>180697</c:v>
+                  <c:v>180802</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>181144</c:v>
+                  <c:v>181250</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>181370</c:v>
+                  <c:v>181477</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>181722</c:v>
+                  <c:v>181827</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>182824</c:v>
+                  <c:v>182919</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>183985</c:v>
+                  <c:v>184075</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>184993</c:v>
+                  <c:v>185089</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>185811</c:v>
+                  <c:v>185910</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>186201</c:v>
+                  <c:v>186300</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>186609</c:v>
+                  <c:v>186705</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>187654</c:v>
+                  <c:v>187745</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>188832</c:v>
+                  <c:v>188929</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>189712</c:v>
+                  <c:v>189807</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>190612</c:v>
+                  <c:v>190708</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>191359</c:v>
+                  <c:v>191459</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>191682</c:v>
+                  <c:v>191783</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>191962</c:v>
+                  <c:v>192066</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>192826</c:v>
+                  <c:v>192925</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>193980</c:v>
+                  <c:v>194084</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>194919</c:v>
+                  <c:v>195017</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>195769</c:v>
+                  <c:v>195866</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>196640</c:v>
+                  <c:v>196740</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>196946</c:v>
+                  <c:v>197047</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>197193</c:v>
+                  <c:v>197292</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>197930</c:v>
+                  <c:v>198024</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>198993</c:v>
+                  <c:v>199084</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>199851</c:v>
+                  <c:v>199943</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>200698</c:v>
+                  <c:v>200787</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>201438</c:v>
+                  <c:v>201530</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>201803</c:v>
+                  <c:v>201903</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>202147</c:v>
+                  <c:v>202233</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>202757</c:v>
+                  <c:v>202855</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>203682</c:v>
+                  <c:v>203777</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>204667</c:v>
+                  <c:v>204765</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>205565</c:v>
+                  <c:v>205670</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>206246</c:v>
+                  <c:v>206360</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>206714</c:v>
+                  <c:v>206829</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>206996</c:v>
+                  <c:v>207114</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>207694</c:v>
+                  <c:v>207838</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>208501</c:v>
+                  <c:v>208636</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>209431</c:v>
+                  <c:v>209564</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>210328</c:v>
+                  <c:v>210458</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>211101</c:v>
+                  <c:v>211235</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>211503</c:v>
+                  <c:v>211637</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>211959</c:v>
+                  <c:v>212088</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>212796</c:v>
+                  <c:v>212918</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>213815</c:v>
+                  <c:v>213943</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>214941</c:v>
+                  <c:v>215069</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>215875</c:v>
+                  <c:v>216010</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>216765</c:v>
+                  <c:v>216907</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>217147</c:v>
+                  <c:v>217294</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>217549</c:v>
+                  <c:v>217693</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>218468</c:v>
+                  <c:v>218622</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>219512</c:v>
+                  <c:v>219667</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>220549</c:v>
+                  <c:v>220722</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>221496</c:v>
+                  <c:v>221669</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>222459</c:v>
+                  <c:v>222639</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>222854</c:v>
+                  <c:v>223037</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>223345</c:v>
+                  <c:v>223511</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>224859</c:v>
+                  <c:v>225036</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>225976</c:v>
+                  <c:v>226162</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>227122</c:v>
+                  <c:v>227317</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>228295</c:v>
+                  <c:v>228503</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>229414</c:v>
+                  <c:v>229635</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>229910</c:v>
+                  <c:v>230136</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>230487</c:v>
+                  <c:v>230716</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>231847</c:v>
+                  <c:v>232073</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>233410</c:v>
+                  <c:v>233652</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>234529</c:v>
+                  <c:v>234763</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>235797</c:v>
+                  <c:v>236067</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>237128</c:v>
+                  <c:v>237419</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>237815</c:v>
+                  <c:v>238127</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>238434</c:v>
+                  <c:v>238736</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>239989</c:v>
+                  <c:v>240298</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>241853</c:v>
+                  <c:v>242180</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>243820</c:v>
+                  <c:v>244200</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>245704</c:v>
+                  <c:v>246094</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>247216</c:v>
+                  <c:v>247648</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>248114</c:v>
+                  <c:v>248565</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>249069</c:v>
+                  <c:v>249423</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>251135</c:v>
+                  <c:v>251529</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>253424</c:v>
+                  <c:v>253809</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>254760</c:v>
+                  <c:v>255196</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>256132</c:v>
+                  <c:v>256588</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>257377</c:v>
+                  <c:v>257839</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>258180</c:v>
+                  <c:v>258662</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>259316</c:v>
+                  <c:v>259697</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>261789</c:v>
+                  <c:v>262203</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>264522</c:v>
+                  <c:v>265007</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>267228</c:v>
+                  <c:v>267832</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>269791</c:v>
+                  <c:v>270405</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>272252</c:v>
+                  <c:v>272885</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>273398</c:v>
+                  <c:v>274030</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>274745</c:v>
+                  <c:v>275327</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>277400</c:v>
+                  <c:v>278024</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>280488</c:v>
+                  <c:v>281194</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>283555</c:v>
+                  <c:v>284309</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>287058</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11611,9 +11644,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F325" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F325" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F325">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" displayName="Table_howe_hp_howehp_Covid19_CaseDeathsBeds" ref="A1:F326" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F326" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F326">
     <sortCondition ref="A1:A254"/>
   </sortState>
   <tableColumns count="6">
@@ -11949,7 +11982,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F325"/>
+  <dimension ref="A1:F326"/>
   <sheetViews>
     <sheetView topLeftCell="A282" workbookViewId="0">
       <selection activeCell="K308" sqref="K308"/>
@@ -14273,7 +14306,7 @@
         <v>1446350</v>
       </c>
       <c r="C116">
-        <v>83889</v>
+        <v>84161</v>
       </c>
       <c r="D116">
         <v>44551</v>
@@ -14293,7 +14326,7 @@
         <v>1469936</v>
       </c>
       <c r="C117">
-        <v>85084</v>
+        <v>85398</v>
       </c>
       <c r="D117">
         <v>43507</v>
@@ -14313,7 +14346,7 @@
         <v>1490088</v>
       </c>
       <c r="C118">
-        <v>85934</v>
+        <v>86271</v>
       </c>
       <c r="D118">
         <v>42022</v>
@@ -14333,7 +14366,7 @@
         <v>1510932</v>
       </c>
       <c r="C119">
-        <v>86823</v>
+        <v>87126</v>
       </c>
       <c r="D119">
         <v>41921</v>
@@ -14353,7 +14386,7 @@
         <v>1531814</v>
       </c>
       <c r="C120">
-        <v>88155</v>
+        <v>88444</v>
       </c>
       <c r="D120">
         <v>42023</v>
@@ -14373,7 +14406,7 @@
         <v>1553073</v>
       </c>
       <c r="C121">
-        <v>89545</v>
+        <v>89843</v>
       </c>
       <c r="D121">
         <v>41871</v>
@@ -14393,7 +14426,7 @@
         <v>1579815</v>
       </c>
       <c r="C122">
-        <v>90972</v>
+        <v>91220</v>
       </c>
       <c r="D122">
         <v>41347</v>
@@ -14413,7 +14446,7 @@
         <v>1603988</v>
       </c>
       <c r="C123">
-        <v>92275</v>
+        <v>92511</v>
       </c>
       <c r="D123">
         <v>40014</v>
@@ -14433,7 +14466,7 @@
         <v>1626353</v>
       </c>
       <c r="C124">
-        <v>93310</v>
+        <v>93549</v>
       </c>
       <c r="D124">
         <v>38581</v>
@@ -14453,7 +14486,7 @@
         <v>1645213</v>
       </c>
       <c r="C125">
-        <v>93994</v>
+        <v>94238</v>
       </c>
       <c r="D125">
         <v>37757</v>
@@ -14473,7 +14506,7 @@
         <v>1663744</v>
       </c>
       <c r="C126">
-        <v>94548</v>
+        <v>94793</v>
       </c>
       <c r="D126">
         <v>37711</v>
@@ -14493,7 +14526,7 @@
         <v>1680722</v>
       </c>
       <c r="C127">
-        <v>95220</v>
+        <v>95458</v>
       </c>
       <c r="D127">
         <v>37775</v>
@@ -14513,7 +14546,7 @@
         <v>1700133</v>
       </c>
       <c r="C128">
-        <v>96536</v>
+        <v>96793</v>
       </c>
       <c r="D128">
         <v>38297</v>
@@ -14533,7 +14566,7 @@
         <v>1722792</v>
       </c>
       <c r="C129">
-        <v>97778</v>
+        <v>98031</v>
       </c>
       <c r="D129">
         <v>38003</v>
@@ -14553,7 +14586,7 @@
         <v>1746380</v>
       </c>
       <c r="C130">
-        <v>98947</v>
+        <v>99202</v>
       </c>
       <c r="D130">
         <v>36948</v>
@@ -14573,7 +14606,7 @@
         <v>1769817</v>
       </c>
       <c r="C131">
-        <v>99865</v>
+        <v>100127</v>
       </c>
       <c r="D131">
         <v>35735</v>
@@ -14593,7 +14626,7 @@
         <v>1791209</v>
       </c>
       <c r="C132">
-        <v>100516</v>
+        <v>100780</v>
       </c>
       <c r="D132">
         <v>34911</v>
@@ -14613,7 +14646,7 @@
         <v>1811571</v>
       </c>
       <c r="C133">
-        <v>101187</v>
+        <v>101460</v>
       </c>
       <c r="D133">
         <v>34316</v>
@@ -14633,7 +14666,7 @@
         <v>1831726</v>
       </c>
       <c r="C134">
-        <v>102187</v>
+        <v>102433</v>
       </c>
       <c r="D134">
         <v>33950</v>
@@ -14653,7 +14686,7 @@
         <v>1851881</v>
       </c>
       <c r="C135">
-        <v>103167</v>
+        <v>103407</v>
       </c>
       <c r="D135">
         <v>33237</v>
@@ -14673,7 +14706,7 @@
         <v>1872264</v>
       </c>
       <c r="C136">
-        <v>104031</v>
+        <v>104288</v>
       </c>
       <c r="D136">
         <v>32814</v>
@@ -14693,7 +14726,7 @@
         <v>1895330</v>
       </c>
       <c r="C137">
-        <v>104875</v>
+        <v>105125</v>
       </c>
       <c r="D137">
         <v>32499</v>
@@ -14713,7 +14746,7 @@
         <v>1917888</v>
       </c>
       <c r="C138">
-        <v>105586</v>
+        <v>105839</v>
       </c>
       <c r="D138">
         <v>31994</v>
@@ -14733,7 +14766,7 @@
         <v>1936706</v>
       </c>
       <c r="C139">
-        <v>106032</v>
+        <v>106285</v>
       </c>
       <c r="D139">
         <v>31490</v>
@@ -14753,7 +14786,7 @@
         <v>1953936</v>
       </c>
       <c r="C140">
-        <v>106708</v>
+        <v>106959</v>
       </c>
       <c r="D140">
         <v>31121</v>
@@ -14773,7 +14806,7 @@
         <v>1971087</v>
       </c>
       <c r="C141">
-        <v>107609</v>
+        <v>107850</v>
       </c>
       <c r="D141">
         <v>31187</v>
@@ -14793,7 +14826,7 @@
         <v>1991814</v>
       </c>
       <c r="C142">
-        <v>108493</v>
+        <v>108738</v>
       </c>
       <c r="D142">
         <v>30952</v>
@@ -14813,7 +14846,7 @@
         <v>2013885</v>
       </c>
       <c r="C143">
-        <v>109392</v>
+        <v>109636</v>
       </c>
       <c r="D143">
         <v>29844</v>
@@ -14833,7 +14866,7 @@
         <v>2036981</v>
       </c>
       <c r="C144">
-        <v>110155</v>
+        <v>110402</v>
       </c>
       <c r="D144">
         <v>29309</v>
@@ -14853,7 +14886,7 @@
         <v>2062226</v>
       </c>
       <c r="C145">
-        <v>110845</v>
+        <v>111095</v>
       </c>
       <c r="D145">
         <v>28578</v>
@@ -14873,7 +14906,7 @@
         <v>2083559</v>
       </c>
       <c r="C146">
-        <v>111200</v>
+        <v>111451</v>
       </c>
       <c r="D146">
         <v>28020</v>
@@ -14893,7 +14926,7 @@
         <v>2102213</v>
       </c>
       <c r="C147">
-        <v>111606</v>
+        <v>111838</v>
       </c>
       <c r="D147">
         <v>28026</v>
@@ -14913,7 +14946,7 @@
         <v>2125481</v>
       </c>
       <c r="C148">
-        <v>112312</v>
+        <v>112556</v>
       </c>
       <c r="D148">
         <v>28386</v>
@@ -14933,7 +14966,7 @@
         <v>2149387</v>
       </c>
       <c r="C149">
-        <v>113106</v>
+        <v>113335</v>
       </c>
       <c r="D149">
         <v>28664</v>
@@ -14953,7 +14986,7 @@
         <v>2176476</v>
       </c>
       <c r="C150">
-        <v>113799</v>
+        <v>114020</v>
       </c>
       <c r="D150">
         <v>28521</v>
@@ -14973,7 +15006,7 @@
         <v>2207435</v>
       </c>
       <c r="C151">
-        <v>114455</v>
+        <v>114669</v>
       </c>
       <c r="D151">
         <v>28706</v>
@@ -14993,7 +15026,7 @@
         <v>2239386</v>
       </c>
       <c r="C152">
-        <v>115066</v>
+        <v>115284</v>
       </c>
       <c r="D152">
         <v>28084</v>
@@ -15013,7 +15046,7 @@
         <v>2268234</v>
       </c>
       <c r="C153">
-        <v>115359</v>
+        <v>115577</v>
       </c>
       <c r="D153">
         <v>28325</v>
@@ -15033,7 +15066,7 @@
         <v>2295413</v>
       </c>
       <c r="C154">
-        <v>115653</v>
+        <v>115866</v>
       </c>
       <c r="D154">
         <v>28954</v>
@@ -15053,7 +15086,7 @@
         <v>2329298</v>
       </c>
       <c r="C155">
-        <v>116378</v>
+        <v>116588</v>
       </c>
       <c r="D155">
         <v>30394</v>
@@ -15073,7 +15106,7 @@
         <v>2368307</v>
       </c>
       <c r="C156">
-        <v>117085</v>
+        <v>117295</v>
       </c>
       <c r="D156">
         <v>31271</v>
@@ -15093,7 +15126,7 @@
         <v>2407988</v>
       </c>
       <c r="C157">
-        <v>117748</v>
+        <v>117942</v>
       </c>
       <c r="D157">
         <v>31926</v>
@@ -15113,7 +15146,7 @@
         <v>2452367</v>
       </c>
       <c r="C158">
-        <v>118372</v>
+        <v>118563</v>
       </c>
       <c r="D158">
         <v>31810</v>
@@ -15133,7 +15166,7 @@
         <v>2495260</v>
       </c>
       <c r="C159">
-        <v>118874</v>
+        <v>119066</v>
       </c>
       <c r="D159">
         <v>32566</v>
@@ -15153,7 +15186,7 @@
         <v>2536592</v>
       </c>
       <c r="C160">
-        <v>119145</v>
+        <v>119339</v>
       </c>
       <c r="D160">
         <v>32575</v>
@@ -15173,7 +15206,7 @@
         <v>2576357</v>
       </c>
       <c r="C161">
-        <v>119503</v>
+        <v>119677</v>
       </c>
       <c r="D161">
         <v>33744</v>
@@ -15193,7 +15226,7 @@
         <v>2623987</v>
       </c>
       <c r="C162">
-        <v>120087</v>
+        <v>120257</v>
       </c>
       <c r="D162">
         <v>35335</v>
@@ -15213,7 +15246,7 @@
         <v>2674988</v>
       </c>
       <c r="C163">
-        <v>120776</v>
+        <v>120953</v>
       </c>
       <c r="D163">
         <v>36569</v>
@@ -15233,7 +15266,7 @@
         <v>2728496</v>
       </c>
       <c r="C164">
-        <v>121472</v>
+        <v>121652</v>
       </c>
       <c r="D164">
         <v>37627</v>
@@ -15253,7 +15286,7 @@
         <v>2782184</v>
       </c>
       <c r="C165">
-        <v>122074</v>
+        <v>122254</v>
       </c>
       <c r="D165">
         <v>37927</v>
@@ -15273,7 +15306,7 @@
         <v>2836328</v>
       </c>
       <c r="C166">
-        <v>122374</v>
+        <v>122554</v>
       </c>
       <c r="D166">
         <v>38281</v>
@@ -15293,7 +15326,7 @@
         <v>2881495</v>
       </c>
       <c r="C167">
-        <v>122581</v>
+        <v>122761</v>
       </c>
       <c r="D167">
         <v>38872</v>
@@ -15313,7 +15346,7 @@
         <v>2922989</v>
       </c>
       <c r="C168">
-        <v>122847</v>
+        <v>122996</v>
       </c>
       <c r="D168">
         <v>39970</v>
@@ -15333,7 +15366,7 @@
         <v>2974731</v>
       </c>
       <c r="C169">
-        <v>123752</v>
+        <v>123906</v>
       </c>
       <c r="D169">
         <v>41957</v>
@@ -15353,7 +15386,7 @@
         <v>3037467</v>
       </c>
       <c r="C170">
-        <v>124564</v>
+        <v>124724</v>
       </c>
       <c r="D170">
         <v>43204</v>
@@ -15373,7 +15406,7 @@
         <v>3096426</v>
       </c>
       <c r="C171">
-        <v>125464</v>
+        <v>125589</v>
       </c>
       <c r="D171">
         <v>44055</v>
@@ -15393,7 +15426,7 @@
         <v>3163250</v>
       </c>
       <c r="C172">
-        <v>126286</v>
+        <v>126424</v>
       </c>
       <c r="D172">
         <v>51740</v>
@@ -15413,7 +15446,7 @@
         <v>3225574</v>
       </c>
       <c r="C173">
-        <v>127038</v>
+        <v>127177</v>
       </c>
       <c r="D173">
         <v>51982</v>
@@ -15433,7 +15466,7 @@
         <v>3286546</v>
       </c>
       <c r="C174">
-        <v>127512</v>
+        <v>127651</v>
       </c>
       <c r="D174">
         <v>52860</v>
@@ -15453,7 +15486,7 @@
         <v>3344149</v>
       </c>
       <c r="C175">
-        <v>127843</v>
+        <v>127981</v>
       </c>
       <c r="D175">
         <v>54156</v>
@@ -15473,7 +15506,7 @@
         <v>3406883</v>
       </c>
       <c r="C176">
-        <v>128582</v>
+        <v>128726</v>
       </c>
       <c r="D176">
         <v>55667</v>
@@ -15493,7 +15526,7 @@
         <v>3472500</v>
       </c>
       <c r="C177">
-        <v>129442</v>
+        <v>129585</v>
       </c>
       <c r="D177">
         <v>56312</v>
@@ -15513,7 +15546,7 @@
         <v>3542949</v>
       </c>
       <c r="C178">
-        <v>130395</v>
+        <v>130525</v>
       </c>
       <c r="D178">
         <v>57614</v>
@@ -15533,7 +15566,7 @@
         <v>3619167</v>
       </c>
       <c r="C179">
-        <v>131331</v>
+        <v>131467</v>
       </c>
       <c r="D179">
         <v>57894</v>
@@ -15553,7 +15586,7 @@
         <v>3683589</v>
       </c>
       <c r="C180">
-        <v>132204</v>
+        <v>132341</v>
       </c>
       <c r="D180">
         <v>57822</v>
@@ -15573,7 +15606,7 @@
         <v>3747304</v>
       </c>
       <c r="C181">
-        <v>132731</v>
+        <v>132868</v>
       </c>
       <c r="D181">
         <v>58052</v>
@@ -15593,7 +15626,7 @@
         <v>3804239</v>
       </c>
       <c r="C182">
-        <v>133100</v>
+        <v>133243</v>
       </c>
       <c r="D182">
         <v>58509</v>
@@ -15613,7 +15646,7 @@
         <v>3867864</v>
       </c>
       <c r="C183">
-        <v>134169</v>
+        <v>134289</v>
       </c>
       <c r="D183">
         <v>59480</v>
@@ -15633,7 +15666,7 @@
         <v>3937210</v>
       </c>
       <c r="C184">
-        <v>135303</v>
+        <v>135431</v>
       </c>
       <c r="D184">
         <v>59752</v>
@@ -15653,7 +15686,7 @@
         <v>4008435</v>
       </c>
       <c r="C185">
-        <v>136364</v>
+        <v>136505</v>
       </c>
       <c r="D185">
         <v>59854</v>
@@ -15673,7 +15706,7 @@
         <v>4083289</v>
       </c>
       <c r="C186">
-        <v>137556</v>
+        <v>137685</v>
       </c>
       <c r="D186">
         <v>59808</v>
@@ -15693,7 +15726,7 @@
         <v>4147665</v>
       </c>
       <c r="C187">
-        <v>138561</v>
+        <v>138694</v>
       </c>
       <c r="D187">
         <v>59382</v>
@@ -15713,7 +15746,7 @@
         <v>4207788</v>
       </c>
       <c r="C188">
-        <v>139121</v>
+        <v>139254</v>
       </c>
       <c r="D188">
         <v>58731</v>
@@ -15733,7 +15766,7 @@
         <v>4262801</v>
       </c>
       <c r="C189">
-        <v>140186</v>
+        <v>140317</v>
       </c>
       <c r="D189">
         <v>58991</v>
@@ -15753,7 +15786,7 @@
         <v>4321785</v>
       </c>
       <c r="C190">
-        <v>141314</v>
+        <v>141442</v>
       </c>
       <c r="D190">
         <v>57178</v>
@@ -15773,7 +15806,7 @@
         <v>4385726</v>
       </c>
       <c r="C191">
-        <v>142805</v>
+        <v>142939</v>
       </c>
       <c r="D191">
         <v>57427</v>
@@ -15793,7 +15826,7 @@
         <v>4454531</v>
       </c>
       <c r="C192">
-        <v>144053</v>
+        <v>144184</v>
       </c>
       <c r="D192">
         <v>56565</v>
@@ -15813,7 +15846,7 @@
         <v>4522061</v>
       </c>
       <c r="C193">
-        <v>145366</v>
+        <v>145513</v>
       </c>
       <c r="D193">
         <v>55700</v>
@@ -15833,7 +15866,7 @@
         <v>4582306</v>
       </c>
       <c r="C194">
-        <v>146558</v>
+        <v>146711</v>
       </c>
       <c r="D194">
         <v>54554</v>
@@ -15853,7 +15886,7 @@
         <v>4628817</v>
       </c>
       <c r="C195">
-        <v>147052</v>
+        <v>147205</v>
       </c>
       <c r="D195">
         <v>54106</v>
@@ -15873,7 +15906,7 @@
         <v>4678165</v>
       </c>
       <c r="C196">
-        <v>147588</v>
+        <v>147722</v>
       </c>
       <c r="D196">
         <v>53524</v>
@@ -15893,7 +15926,7 @@
         <v>4729980</v>
       </c>
       <c r="C197">
-        <v>148827</v>
+        <v>148966</v>
       </c>
       <c r="D197">
         <v>53440</v>
@@ -15913,7 +15946,7 @@
         <v>4782444</v>
       </c>
       <c r="C198">
-        <v>150187</v>
+        <v>150321</v>
       </c>
       <c r="D198">
         <v>53444</v>
@@ -15933,7 +15966,7 @@
         <v>4836247</v>
       </c>
       <c r="C199">
-        <v>151435</v>
+        <v>151558</v>
       </c>
       <c r="D199">
         <v>53221</v>
@@ -15953,7 +15986,7 @@
         <v>4897083</v>
       </c>
       <c r="C200">
-        <v>152768</v>
+        <v>152889</v>
       </c>
       <c r="D200">
         <v>51301</v>
@@ -15973,7 +16006,7 @@
         <v>4950166</v>
       </c>
       <c r="C201">
-        <v>153852</v>
+        <v>153973</v>
       </c>
       <c r="D201">
         <v>50071</v>
@@ -15993,7 +16026,7 @@
         <v>5000319</v>
       </c>
       <c r="C202">
-        <v>154466</v>
+        <v>154588</v>
       </c>
       <c r="D202">
         <v>48997</v>
@@ -16013,7 +16046,7 @@
         <v>5042062</v>
       </c>
       <c r="C203">
-        <v>154901</v>
+        <v>155018</v>
       </c>
       <c r="D203">
         <v>48761</v>
@@ -16033,7 +16066,7 @@
         <v>5097490</v>
       </c>
       <c r="C204">
-        <v>156224</v>
+        <v>156348</v>
       </c>
       <c r="D204">
         <v>48620</v>
@@ -16053,7 +16086,7 @@
         <v>5153384</v>
       </c>
       <c r="C205">
-        <v>157742</v>
+        <v>157861</v>
       </c>
       <c r="D205">
         <v>48046</v>
@@ -16073,7 +16106,7 @@
         <v>5205005</v>
       </c>
       <c r="C206">
-        <v>158906</v>
+        <v>159025</v>
       </c>
       <c r="D206">
         <v>47322</v>
@@ -16093,7 +16126,7 @@
         <v>5262098</v>
       </c>
       <c r="C207">
-        <v>160125</v>
+        <v>160245</v>
       </c>
       <c r="D207">
         <v>45860</v>
@@ -16113,7 +16146,7 @@
         <v>5317908